--- a/latest/BoM/Positional/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Positional/pedalboard-hw-bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="415">
   <si>
     <t>Row</t>
   </si>
@@ -106,10 +106,10 @@
     <t>1nF</t>
   </si>
   <si>
-    <t>C_Disc_D7.5mm_W4.4mm_P5.00mm</t>
-  </si>
-  <si>
-    <t>Capacitor_THT</t>
+    <t>C_1206_3216Metric</t>
+  </si>
+  <si>
+    <t>Capacitor_SMD</t>
   </si>
   <si>
     <t>2</t>
@@ -118,7 +118,7 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>https://connect.kemet.com:7667/gateway/IntelliData-ComponentDocumentation/1.0/download/datasheet/C322C101K1G5TA7301.pdf</t>
+    <t>http://www.holystonecaps.com/PDF/201612051329150.2017%20HVC%20Series.pdf</t>
   </si>
   <si>
     <t>/Power Supply</t>
@@ -157,13 +157,13 @@
     <t>100nF</t>
   </si>
   <si>
-    <t>C_Disc_D3.0mm_W1.6mm_P2.50mm</t>
+    <t>C_0805_2012Metric</t>
   </si>
   <si>
     <t>12</t>
   </si>
   <si>
-    <t>https://www.vishay.com/docs/45171/kseries.pdf</t>
+    <t>https://datasheets.kyocera-avx.com/X7RDielectric.pdf</t>
   </si>
   <si>
     <t>/MIDI</t>
@@ -187,16 +187,16 @@
     <t>3</t>
   </si>
   <si>
-    <t>C16 C17</t>
+    <t>C16 C17 C20</t>
   </si>
   <si>
     <t>4.7uF</t>
   </si>
   <si>
-    <t>C_Disc_D5.1mm_W3.2mm_P5.00mm</t>
-  </si>
-  <si>
-    <t>https://connect.kemet.com:7667/gateway/IntelliData-ComponentDocumentation/1.0/download/datasheet/C322C102K1R5TA.pdf</t>
+    <t>https://search.murata.co.jp/Ceramy/image/img/A01X/G101/ENG/GRM21BZ71H475ME15-01.pdf</t>
+  </si>
+  <si>
+    <t>pedalboard-hw(3)</t>
   </si>
   <si>
     <t>138.6376</t>
@@ -217,16 +217,13 @@
     <t>C13 C14 C15</t>
   </si>
   <si>
-    <t>220uF</t>
-  </si>
-  <si>
-    <t>CP_Radial_D10.0mm_P5.00mm</t>
-  </si>
-  <si>
-    <t>https://www.cde.com/resources/catalogs/AVG.pdf</t>
-  </si>
-  <si>
-    <t>pedalboard-hw(3)</t>
+    <t>270uF</t>
+  </si>
+  <si>
+    <t>CP_Elec_10x10</t>
+  </si>
+  <si>
+    <t>https://connect.kemet.com:7667/gateway/IntelliData-ComponentDocumentation/1.0/download/datasheet/A768MS277M1GLAE022</t>
   </si>
   <si>
     <t>140.5323</t>
@@ -244,6 +241,45 @@
     <t>5</t>
   </si>
   <si>
+    <t>RGB LED with integrated controller</t>
+  </si>
+  <si>
+    <t>SK6812</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>D1 D2 D3 D4</t>
+  </si>
+  <si>
+    <t>LED_SK6812_PLCC4_5.0x5.0mm_P3.2mm</t>
+  </si>
+  <si>
+    <t>LED_SMD</t>
+  </si>
+  <si>
+    <t>https://cdn-shop.adafruit.com/product-files/1138/SK6812+LED+datasheet+.pdf</t>
+  </si>
+  <si>
+    <t>/LEDs</t>
+  </si>
+  <si>
+    <t>pedalboard-hw(4)</t>
+  </si>
+  <si>
+    <t>45.6000</t>
+  </si>
+  <si>
+    <t>77.0000</t>
+  </si>
+  <si>
+    <t>4.8100</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>100V 0.15A standard switching diode, DO-35</t>
   </si>
   <si>
@@ -256,13 +292,16 @@
     <t>D11</t>
   </si>
   <si>
-    <t>D_DO-35_SOD27_P7.62mm_Horizontal</t>
-  </si>
-  <si>
-    <t>Diode_THT</t>
-  </si>
-  <si>
-    <t>https://www.onsemi.com/download/data-sheet/pdf/1n914-d.pdf</t>
+    <t>SM4007</t>
+  </si>
+  <si>
+    <t>D_SOD-123F</t>
+  </si>
+  <si>
+    <t>Diode_SMD</t>
+  </si>
+  <si>
+    <t>https://www.mccsemi.com/pdf/Products/SM4001PL-SM4007PL(SOD-123FL).PDF</t>
   </si>
   <si>
     <t>pedalboard-hw(1)</t>
@@ -280,36 +319,6 @@
     <t>9.2200</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>100V 3A General Purpose Rectifier Diode, DO-201AD</t>
-  </si>
-  <si>
-    <t>1N5401</t>
-  </si>
-  <si>
-    <t>D12</t>
-  </si>
-  <si>
-    <t>D_DO-201AD_P15.24mm_Horizontal</t>
-  </si>
-  <si>
-    <t>http://www.vishay.com/docs/88516/1n5400.pdf</t>
-  </si>
-  <si>
-    <t>134.7000</t>
-  </si>
-  <si>
-    <t>79.1000</t>
-  </si>
-  <si>
-    <t>18.4400</t>
-  </si>
-  <si>
-    <t>3.2000</t>
-  </si>
-  <si>
     <t>7</t>
   </si>
   <si>
@@ -322,10 +331,13 @@
     <t>D13</t>
   </si>
   <si>
-    <t>D_DO-41_SOD81_P10.16mm_Horizontal</t>
-  </si>
-  <si>
-    <t>https://www.onsemi.com/pdf/datasheet/1n5817-d.pdf</t>
+    <t>SS34HF</t>
+  </si>
+  <si>
+    <t>D_SMA</t>
+  </si>
+  <si>
+    <t>https://www.comchiptech.com/admin/files/product/20190514101641.pdf</t>
   </si>
   <si>
     <t>129.6060</t>
@@ -346,144 +358,111 @@
     <t>8</t>
   </si>
   <si>
-    <t>RGB LED with integrated controller, 5mm/8mm LED package</t>
-  </si>
-  <si>
-    <t>NeoPixel_THT</t>
-  </si>
-  <si>
-    <t>LED</t>
-  </si>
-  <si>
-    <t>D1 D2 D3 D4</t>
-  </si>
-  <si>
-    <t>NEOPIX</t>
-  </si>
-  <si>
-    <t>LED_D5.0mm-NeoPixel</t>
+    <t>Resettable fuse, polymeric positive temperature coefficient</t>
+  </si>
+  <si>
+    <t>Polyfuse</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>Polyfuse 1.8A</t>
+  </si>
+  <si>
+    <t>Fuse_1812_4532Metric</t>
+  </si>
+  <si>
+    <t>Fuse</t>
+  </si>
+  <si>
+    <t>https://www.littelfuse.com/~/media/electronics/datasheets/resettable_ptcs/littelfuse_ptc_1812l_datasheet.pdf.pdf</t>
+  </si>
+  <si>
+    <t>151.9000</t>
+  </si>
+  <si>
+    <t>95.2000</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Fuse, small symbol</t>
+  </si>
+  <si>
+    <t>Fuse_Small</t>
+  </si>
+  <si>
+    <t>F2 F3 F4 F5</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t>Trace_Fuse</t>
   </si>
   <si>
     <t>Pedalboard Library</t>
   </si>
   <si>
-    <t>https://cdn.sparkfun.com/assets/6/9/0/f/3/DS-12999-LED_-_RGB_Addressable__PTH__5mm_Clear__5_Pack_.pdf</t>
-  </si>
-  <si>
-    <t>/LEDs</t>
-  </si>
-  <si>
-    <t>pedalboard-hw(4)</t>
-  </si>
-  <si>
-    <t>45.6000</t>
-  </si>
-  <si>
-    <t>77.0000</t>
-  </si>
-  <si>
-    <t>4.8100</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>Resettable fuse, polymeric positive temperature coefficient</t>
-  </si>
-  <si>
-    <t>Polyfuse</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>Polyfuse 1.8A</t>
-  </si>
-  <si>
-    <t>C_Rect_L7.0mm_W3.5mm_P5.00mm</t>
-  </si>
-  <si>
-    <t>https://www.onsemi.com/pdf/datasheet/1n5400-d.pdf</t>
-  </si>
-  <si>
-    <t>151.9000</t>
-  </si>
-  <si>
-    <t>95.2000</t>
+    <t>66.9900</t>
+  </si>
+  <si>
+    <t>50.3100</t>
+  </si>
+  <si>
+    <t>bottom</t>
+  </si>
+  <si>
+    <t>SMD</t>
+  </si>
+  <si>
+    <t>4.8860</t>
+  </si>
+  <si>
+    <t>1.5240</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
-    <t>Fuse, small symbol</t>
-  </si>
-  <si>
-    <t>Fuse_Small</t>
-  </si>
-  <si>
-    <t>F2 F3 F4 F5</t>
-  </si>
-  <si>
-    <t>~</t>
-  </si>
-  <si>
-    <t>Trace_Fuse</t>
-  </si>
-  <si>
-    <t>66.9900</t>
-  </si>
-  <si>
-    <t>50.3100</t>
-  </si>
-  <si>
-    <t>bottom</t>
-  </si>
-  <si>
-    <t>SMD</t>
-  </si>
-  <si>
-    <t>4.8860</t>
-  </si>
-  <si>
-    <t>1.5240</t>
+    <t>DC Barrel Jack with an internal switch</t>
+  </si>
+  <si>
+    <t>Barrel_Jack_Switch</t>
+  </si>
+  <si>
+    <t>Connector</t>
+  </si>
+  <si>
+    <t>J13</t>
+  </si>
+  <si>
+    <t>Barrel_Jack_MountingPin</t>
+  </si>
+  <si>
+    <t>BarrelJack_Wuerth_6941xx301002</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/components/products/datasheet/6941xx301002.pdf</t>
+  </si>
+  <si>
+    <t>159.4000</t>
+  </si>
+  <si>
+    <t>94.6000</t>
+  </si>
+  <si>
+    <t>7.9000</t>
+  </si>
+  <si>
+    <t>7.6000</t>
   </si>
   <si>
     <t>11</t>
   </si>
   <si>
-    <t>DC Barrel Jack with an internal switch</t>
-  </si>
-  <si>
-    <t>Barrel_Jack_Switch</t>
-  </si>
-  <si>
-    <t>Connector</t>
-  </si>
-  <si>
-    <t>J13</t>
-  </si>
-  <si>
-    <t>Barrel_Jack_MountingPin</t>
-  </si>
-  <si>
-    <t>BarrelJack_Wuerth_6941xx301002</t>
-  </si>
-  <si>
-    <t>https://www.we-online.com/components/products/datasheet/6941xx301002.pdf</t>
-  </si>
-  <si>
-    <t>159.4000</t>
-  </si>
-  <si>
-    <t>94.6000</t>
-  </si>
-  <si>
-    <t>7.9000</t>
-  </si>
-  <si>
-    <t>7.6000</t>
-  </si>
-  <si>
     <t>Generic connector, double row, 02x01, this symbol is compatible with counter-clockwise, top-bottom and odd-even numbering schemes., script generated (kicad-library-utils/schlib/autogen/connector/)</t>
   </si>
   <si>
@@ -517,397 +496,412 @@
     <t>4.2400</t>
   </si>
   <si>
+    <t>M Series, 6.35mm (1/4in) stereo jack, switched, with chrome ferrule and straight PCB pins</t>
+  </si>
+  <si>
+    <t>NMJ6HCD2</t>
+  </si>
+  <si>
+    <t>Connector_Audio</t>
+  </si>
+  <si>
+    <t>J3 J9 J10 J11 J12</t>
+  </si>
+  <si>
+    <t>EXP</t>
+  </si>
+  <si>
+    <t>Jack_6.35mm_Horizontal</t>
+  </si>
+  <si>
+    <t>https://www.schurter.com/en/datasheet/typ_4833.2320.pdf</t>
+  </si>
+  <si>
+    <t>pedalboard-hw(5)</t>
+  </si>
+  <si>
+    <t>155.6150</t>
+  </si>
+  <si>
+    <t>91.2000</t>
+  </si>
+  <si>
+    <t>15.7000</t>
+  </si>
+  <si>
+    <t>19.2300</t>
+  </si>
+  <si>
     <t>13</t>
   </si>
   <si>
-    <t>M Series, 6.35mm (1/4in) stereo jack, switched, with chrome ferrule and straight PCB pins</t>
-  </si>
-  <si>
-    <t>NMJ6HCD2</t>
-  </si>
-  <si>
-    <t>Connector_Audio</t>
-  </si>
-  <si>
-    <t>J3 J9 J10 J11 J12</t>
-  </si>
-  <si>
-    <t>EXP</t>
-  </si>
-  <si>
-    <t>Jack_6.35mm_Horizontal</t>
-  </si>
-  <si>
-    <t>https://www.schurter.com/en/datasheet/typ_4833.2320.pdf</t>
-  </si>
-  <si>
-    <t>pedalboard-hw(5)</t>
-  </si>
-  <si>
-    <t>155.6150</t>
-  </si>
-  <si>
-    <t>91.2000</t>
-  </si>
-  <si>
-    <t>15.7000</t>
-  </si>
-  <si>
-    <t>19.2300</t>
+    <t>expansion header for Raspberry Pi 2 &amp; 3</t>
+  </si>
+  <si>
+    <t>Raspberry_Pi_2_3</t>
+  </si>
+  <si>
+    <t>J8</t>
+  </si>
+  <si>
+    <t>HiFi Berry</t>
+  </si>
+  <si>
+    <t>HiFi Berry DAC ADC+</t>
+  </si>
+  <si>
+    <t>https://www.hifiberry.com/docs/data-sheets/datasheet-dac-adc-pro/</t>
+  </si>
+  <si>
+    <t>/Audio</t>
+  </si>
+  <si>
+    <t>100.2500</t>
+  </si>
+  <si>
+    <t>56.6244</t>
+  </si>
+  <si>
+    <t>41.4500</t>
+  </si>
+  <si>
+    <t>55.0150</t>
   </si>
   <si>
     <t>14</t>
   </si>
   <si>
-    <t>expansion header for Raspberry Pi 2 &amp; 3</t>
-  </si>
-  <si>
-    <t>Raspberry_Pi_2_3</t>
-  </si>
-  <si>
-    <t>J8</t>
-  </si>
-  <si>
-    <t>HiFi Berry</t>
-  </si>
-  <si>
-    <t>HiFi Berry DAC ADC+</t>
-  </si>
-  <si>
-    <t>https://www.hifiberry.com/docs/data-sheets/datasheet-dac-adc-pro/</t>
-  </si>
-  <si>
-    <t>/Audio</t>
-  </si>
-  <si>
-    <t>100.2500</t>
-  </si>
-  <si>
-    <t>56.6244</t>
-  </si>
-  <si>
-    <t>41.4500</t>
-  </si>
-  <si>
-    <t>55.0150</t>
+    <t>Generic connector, double row, 02x02, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+  </si>
+  <si>
+    <t>Conn_02x02_Odd_Even</t>
+  </si>
+  <si>
+    <t>J18 J19 J20 J21 J22 J23</t>
+  </si>
+  <si>
+    <t>LED-Ring</t>
+  </si>
+  <si>
+    <t>Led-Ring</t>
+  </si>
+  <si>
+    <t>pedalboard-hw(6)</t>
+  </si>
+  <si>
+    <t>149.0000</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
+    <t>3.3500</t>
   </si>
   <si>
     <t>15</t>
   </si>
   <si>
-    <t>Generic connector, double row, 02x02, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
-    <t>Conn_02x02_Odd_Even</t>
-  </si>
-  <si>
-    <t>J18 J19 J20 J21 J22 J23</t>
-  </si>
-  <si>
-    <t>LED-Ring</t>
-  </si>
-  <si>
-    <t>Led-Ring</t>
-  </si>
-  <si>
-    <t>pedalboard-hw(6)</t>
-  </si>
-  <si>
-    <t>149.0000</t>
-  </si>
-  <si>
-    <t>57.0000</t>
-  </si>
-  <si>
-    <t>3.3500</t>
+    <t>Generic connector, double row, 02x03, top/bottom pin numbering scheme (row 1: 1...pins_per_row, row2: pins_per_row+1 ... num_pins), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+  </si>
+  <si>
+    <t>Conn_02x03_Top_Bottom</t>
+  </si>
+  <si>
+    <t>J15</t>
+  </si>
+  <si>
+    <t>MIDI IN/OUT</t>
+  </si>
+  <si>
+    <t>PinHeader_2x03_P2.54mm_Horizontal</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/components/products/datasheet/6130xx21021.pdf</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
+    <t>72.1500</t>
+  </si>
+  <si>
+    <t>6.7800</t>
   </si>
   <si>
     <t>16</t>
   </si>
   <si>
-    <t>Generic connector, double row, 02x03, top/bottom pin numbering scheme (row 1: 1...pins_per_row, row2: pins_per_row+1 ... num_pins), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
-    <t>Conn_02x03_Top_Bottom</t>
-  </si>
-  <si>
-    <t>J15</t>
-  </si>
-  <si>
-    <t>MIDI IN/OUT</t>
-  </si>
-  <si>
-    <t>PinHeader_2x03_P2.54mm_Horizontal</t>
-  </si>
-  <si>
-    <t>https://www.we-online.com/components/products/datasheet/6130xx21021.pdf</t>
-  </si>
-  <si>
-    <t>51.0000</t>
-  </si>
-  <si>
-    <t>72.1500</t>
-  </si>
-  <si>
-    <t>6.7800</t>
+    <t>Audio Jack, 3 Poles (Stereo / TRS), Switched TR Poles (Normalling)</t>
+  </si>
+  <si>
+    <t>AudioJack3_SwitchTR</t>
+  </si>
+  <si>
+    <t>J16 J17</t>
+  </si>
+  <si>
+    <t>MIDI OUT J</t>
+  </si>
+  <si>
+    <t>Jack_3.5mm_CUI_SJ1-3525N_Horizontal</t>
+  </si>
+  <si>
+    <t>https://www.cuidevices.com/product/resource/sj1-352xng.pdf</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
+    <t>100.5000</t>
+  </si>
+  <si>
+    <t>11.2000</t>
+  </si>
+  <si>
+    <t>6.7000</t>
   </si>
   <si>
     <t>17</t>
   </si>
   <si>
-    <t>Audio Jack, 3 Poles (Stereo / TRS), Switched TR Poles (Normalling)</t>
-  </si>
-  <si>
-    <t>AudioJack3_SwitchTR</t>
-  </si>
-  <si>
-    <t>J16 J17</t>
-  </si>
-  <si>
-    <t>MIDI OUT J</t>
-  </si>
-  <si>
-    <t>Jack_3.5mm_CUI_SJ1-3525N_Horizontal</t>
-  </si>
-  <si>
-    <t>https://www.cuidevices.com/product/resource/sj1-352xng.pdf</t>
-  </si>
-  <si>
-    <t>96.0000</t>
-  </si>
-  <si>
-    <t>100.5000</t>
-  </si>
-  <si>
-    <t>11.2000</t>
-  </si>
-  <si>
-    <t>6.7000</t>
+    <t>5-pin DIN connector (5-pin DIN-5 stereo)</t>
+  </si>
+  <si>
+    <t>DIN-5_180degree</t>
+  </si>
+  <si>
+    <t>J1 J2</t>
+  </si>
+  <si>
+    <t>MIDI_OUT</t>
+  </si>
+  <si>
+    <t>CP-2350</t>
+  </si>
+  <si>
+    <t>https://www.switchcraft.com/assets/1/24/57PC5F_CD.pdf</t>
+  </si>
+  <si>
+    <t>103.0000</t>
+  </si>
+  <si>
+    <t>17.5000</t>
+  </si>
+  <si>
+    <t>14.7500</t>
   </si>
   <si>
     <t>18</t>
   </si>
   <si>
-    <t>5-pin DIN connector (5-pin DIN-5 stereo)</t>
-  </si>
-  <si>
-    <t>DIN-5_180degree</t>
-  </si>
-  <si>
-    <t>J1 J2</t>
-  </si>
-  <si>
-    <t>MIDI_OUT</t>
-  </si>
-  <si>
-    <t>CP-2350</t>
-  </si>
-  <si>
-    <t>https://www.switchcraft.com/assets/1/24/57PC5F_CD.pdf</t>
-  </si>
-  <si>
-    <t>103.0000</t>
-  </si>
-  <si>
-    <t>17.5000</t>
-  </si>
-  <si>
-    <t>14.7500</t>
+    <t>Generic connector, single row, 01x02, script generated</t>
+  </si>
+  <si>
+    <t>Conn_01x02_Pin</t>
+  </si>
+  <si>
+    <t>J5</t>
+  </si>
+  <si>
+    <t>Pico USB TP</t>
+  </si>
+  <si>
+    <t>Spring_Loaded_Pins_2mm</t>
+  </si>
+  <si>
+    <t>https://media.digikey.com/pdf/Data%20Sheets/Mill%20Max%20PDFs/Spring%20Loaded%20Connectors.pdf</t>
+  </si>
+  <si>
+    <t>107.0000</t>
+  </si>
+  <si>
+    <t>1.3500</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
-    <t>Generic connector, single row, 01x02, script generated</t>
-  </si>
-  <si>
-    <t>Conn_01x02_Pin</t>
-  </si>
-  <si>
-    <t>J5</t>
-  </si>
-  <si>
-    <t>Pico USB TP</t>
-  </si>
-  <si>
-    <t>Spring_Loaded_Pins_2mm</t>
-  </si>
-  <si>
-    <t>https://media.digikey.com/pdf/Data%20Sheets/Mill%20Max%20PDFs/Spring%20Loaded%20Connectors.pdf</t>
-  </si>
-  <si>
-    <t>107.0000</t>
-  </si>
-  <si>
-    <t>1.3500</t>
+    <t>Generic connector, single row, 01x03, script generated</t>
+  </si>
+  <si>
+    <t>Conn_01x03_Pin</t>
+  </si>
+  <si>
+    <t>J4</t>
+  </si>
+  <si>
+    <t>RGB_LED_EXT</t>
+  </si>
+  <si>
+    <t>PinHeader_1x03_P2.54mm_Horizontal</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/components/products/datasheet/6130xx11021.pdf</t>
+  </si>
+  <si>
+    <t>35.8650</t>
+  </si>
+  <si>
+    <t>42.0374</t>
   </si>
   <si>
     <t>20</t>
   </si>
   <si>
-    <t>Generic connector, single row, 01x03, script generated</t>
-  </si>
-  <si>
-    <t>Conn_01x03_Pin</t>
-  </si>
-  <si>
-    <t>J4</t>
-  </si>
-  <si>
-    <t>RGB_LED_EXT</t>
-  </si>
-  <si>
-    <t>PinHeader_1x03_P2.54mm_Horizontal</t>
-  </si>
-  <si>
-    <t>https://www.we-online.com/components/products/datasheet/6130xx11021.pdf</t>
-  </si>
-  <si>
-    <t>35.8650</t>
-  </si>
-  <si>
-    <t>42.0374</t>
+    <t>J7</t>
+  </si>
+  <si>
+    <t>Raspberry_pi</t>
+  </si>
+  <si>
+    <t>Raspberry PI Compute Module CM4 Nano A</t>
+  </si>
+  <si>
+    <t>https://www.waveshare.com/wiki/CM4-NANO-A</t>
+  </si>
+  <si>
+    <t>29.5900</t>
+  </si>
+  <si>
+    <t>18.6800</t>
+  </si>
+  <si>
+    <t>49.9600</t>
   </si>
   <si>
     <t>21</t>
   </si>
   <si>
-    <t>J7</t>
-  </si>
-  <si>
-    <t>Raspberry_pi</t>
-  </si>
-  <si>
-    <t>Raspberry PI Compute Module CM4 Nano A</t>
-  </si>
-  <si>
-    <t>https://www.waveshare.com/wiki/CM4-NANO-A</t>
-  </si>
-  <si>
-    <t>29.5900</t>
-  </si>
-  <si>
-    <t>18.6800</t>
-  </si>
-  <si>
-    <t>49.9600</t>
+    <t>USB Type A connector</t>
+  </si>
+  <si>
+    <t>USB_A</t>
+  </si>
+  <si>
+    <t>J6</t>
+  </si>
+  <si>
+    <t>USB A BCB Male Plug</t>
+  </si>
+  <si>
+    <t>https://media.digikey.com/pdf/Data%20Sheets/GCT%20PDFs/USB1061_Spec.pdf</t>
+  </si>
+  <si>
+    <t>93.6250</t>
+  </si>
+  <si>
+    <t>27.2200</t>
+  </si>
+  <si>
+    <t>9.3200</t>
   </si>
   <si>
     <t>22</t>
   </si>
   <si>
-    <t>USB Type A connector</t>
-  </si>
-  <si>
-    <t>USB_A</t>
-  </si>
-  <si>
-    <t>J6</t>
-  </si>
-  <si>
-    <t>USB A BCB Male Plug</t>
-  </si>
-  <si>
-    <t>https://media.digikey.com/pdf/Data%20Sheets/GCT%20PDFs/USB1061_Spec.pdf</t>
-  </si>
-  <si>
-    <t>93.6250</t>
-  </si>
-  <si>
-    <t>27.2200</t>
-  </si>
-  <si>
-    <t>9.3200</t>
+    <t>Inductor</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>L6</t>
+  </si>
+  <si>
+    <t>2.2uH</t>
+  </si>
+  <si>
+    <t>L_1210_3225Metric</t>
+  </si>
+  <si>
+    <t>Inductor_SMD</t>
+  </si>
+  <si>
+    <t>https://www.bourns.com/docs/product-datasheets/srp3212.pdf</t>
+  </si>
+  <si>
+    <t>141.9000</t>
+  </si>
+  <si>
+    <t>74.7000</t>
+  </si>
+  <si>
+    <t>2.6000</t>
   </si>
   <si>
     <t>23</t>
   </si>
   <si>
-    <t>Inductor</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>L6</t>
-  </si>
-  <si>
-    <t>2.2uH</t>
-  </si>
-  <si>
-    <t>L_Radial_D12.0mm_P5.00mm_Fastron_11P</t>
-  </si>
-  <si>
-    <t>Inductor_THT</t>
-  </si>
-  <si>
-    <t>https://media.digikey.com/pdf/Data%20Sheets/Wurth%20Electronics%20PDFs/7447471022.pdf</t>
-  </si>
-  <si>
-    <t>141.9000</t>
-  </si>
-  <si>
-    <t>74.7000</t>
-  </si>
-  <si>
-    <t>2.6000</t>
+    <t>Inductor with ferrite core</t>
+  </si>
+  <si>
+    <t>L_Ferrite</t>
+  </si>
+  <si>
+    <t>L1 L2 L3 L4 L5</t>
+  </si>
+  <si>
+    <t>120_100MHz</t>
+  </si>
+  <si>
+    <t>L_0603_1608Metric</t>
+  </si>
+  <si>
+    <t>https://www.murata.com/products/productdata/8796738650142/ENFA0003.pdf</t>
+  </si>
+  <si>
+    <t>56.6000</t>
+  </si>
+  <si>
+    <t>69.7300</t>
+  </si>
+  <si>
+    <t>11.7600</t>
   </si>
   <si>
     <t>24</t>
   </si>
   <si>
-    <t>Inductor with ferrite core</t>
-  </si>
-  <si>
-    <t>L_Ferrite</t>
-  </si>
-  <si>
-    <t>L1 L2 L3 L4 L5</t>
-  </si>
-  <si>
-    <t>103_100MHz</t>
-  </si>
-  <si>
-    <t>L_Axial_L6.6mm_D2.7mm_P10.16mm_Horizontal_Vishay_IM-2</t>
-  </si>
-  <si>
-    <t>https://www.fair-rite.com/wp-content/themes/fair-rite/print_product.php?pid=18584</t>
-  </si>
-  <si>
-    <t>56.6000</t>
-  </si>
-  <si>
-    <t>69.7300</t>
-  </si>
-  <si>
-    <t>11.7600</t>
+    <t/>
+  </si>
+  <si>
+    <t>PDQE15-Q24-S5-D</t>
+  </si>
+  <si>
+    <t>PS1</t>
+  </si>
+  <si>
+    <t>CONV_PDQE15-Q24-S5-D</t>
+  </si>
+  <si>
+    <t>https://www.cui.com/product/resource/pdqe15-d.pdf</t>
+  </si>
+  <si>
+    <t>114.8000</t>
+  </si>
+  <si>
+    <t>43.3200</t>
+  </si>
+  <si>
+    <t>22.5700</t>
   </si>
   <si>
     <t>25</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>PDQE15-Q24-S5-D</t>
-  </si>
-  <si>
-    <t>PS1</t>
-  </si>
-  <si>
-    <t>CONV_PDQE15-Q24-S5-D</t>
-  </si>
-  <si>
-    <t>https://www.cui.com/product/resource/pdqe15-d.pdf</t>
-  </si>
-  <si>
-    <t>114.8000</t>
-  </si>
-  <si>
-    <t>43.3200</t>
-  </si>
-  <si>
-    <t>22.5700</t>
+    <t>FDS4435BZ</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>SO08-E3</t>
+  </si>
+  <si>
+    <t>-20.0000</t>
+  </si>
+  <si>
+    <t>125.0000</t>
   </si>
   <si>
     <t>26</t>
@@ -922,13 +916,13 @@
     <t>R4</t>
   </si>
   <si>
-    <t>R_Axial_DIN0207_L6.3mm_D2.5mm_P10.16mm_Horizontal</t>
-  </si>
-  <si>
-    <t>Resistor_THT</t>
-  </si>
-  <si>
-    <t>https://www.koaspeer.com/pdfs/CF.pdf</t>
+    <t>R_0805_2012Metric</t>
+  </si>
+  <si>
+    <t>Resistor_SMD</t>
+  </si>
+  <si>
+    <t>https://www.seielect.com/catalog/sei-rncp.pdf</t>
   </si>
   <si>
     <t>61.1900</t>
@@ -946,6 +940,9 @@
     <t>33</t>
   </si>
   <si>
+    <t>https://www.seielect.com/catalog/sei-rmcf_rmcp.pdf</t>
+  </si>
+  <si>
     <t>27.6950</t>
   </si>
   <si>
@@ -955,7 +952,7 @@
     <t>28</t>
   </si>
   <si>
-    <t>R1</t>
+    <t>R1 R5</t>
   </si>
   <si>
     <t>220</t>
@@ -970,72 +967,66 @@
     <t>29</t>
   </si>
   <si>
-    <t>R2 R5</t>
-  </si>
-  <si>
-    <t>470</t>
-  </si>
-  <si>
-    <t>58.9500</t>
+    <t>Omron B3FS 6x6mm single pole normally-open tactile switch</t>
+  </si>
+  <si>
+    <t>SW_Omron_B3FS</t>
+  </si>
+  <si>
+    <t>Switch</t>
+  </si>
+  <si>
+    <t>SW4</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>SW_SPST_B3S-1000</t>
+  </si>
+  <si>
+    <t>Button_Switch_SMD</t>
+  </si>
+  <si>
+    <t>https://omronfs.omron.com/en_US/ecb/products/pdf/en-b3s.pdf</t>
+  </si>
+  <si>
+    <t>3.7500</t>
+  </si>
+  <si>
+    <t>8.5000</t>
+  </si>
+  <si>
+    <t>15.5000</t>
+  </si>
+  <si>
+    <t>7.5000</t>
   </si>
   <si>
     <t>30</t>
   </si>
   <si>
-    <t>Omron B3FS 6x6mm single pole normally-open tactile switch</t>
-  </si>
-  <si>
-    <t>SW_Omron_B3FS</t>
-  </si>
-  <si>
-    <t>Switch</t>
-  </si>
-  <si>
-    <t>SW4</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>SW_PUSH-12mm_Wuerth-430476085716</t>
-  </si>
-  <si>
-    <t>https://www.we-online.com/components/products/datasheet/430466043726.pdf</t>
-  </si>
-  <si>
-    <t>3.7500</t>
-  </si>
-  <si>
-    <t>8.5000</t>
-  </si>
-  <si>
-    <t>15.5000</t>
-  </si>
-  <si>
-    <t>7.5000</t>
+    <t>SW5</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>78.7500</t>
   </si>
   <si>
     <t>31</t>
   </si>
   <si>
-    <t>SW5</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>78.7500</t>
+    <t>SW6</t>
+  </si>
+  <si>
+    <t>153.7500</t>
   </si>
   <si>
     <t>32</t>
   </si>
   <si>
-    <t>SW6</t>
-  </si>
-  <si>
-    <t>153.7500</t>
-  </si>
-  <si>
     <t>SW1</t>
   </si>
   <si>
@@ -1045,103 +1036,124 @@
     <t>60.5000</t>
   </si>
   <si>
+    <t>SW2</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
     <t>34</t>
   </si>
   <si>
-    <t>SW2</t>
-  </si>
-  <si>
-    <t>E</t>
+    <t>SW3</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
   <si>
     <t>35</t>
   </si>
   <si>
-    <t>SW3</t>
-  </si>
-  <si>
-    <t>F</t>
+    <t>Rotary encoder, dual channel, incremental quadrate outputs, with switch</t>
+  </si>
+  <si>
+    <t>RotaryEncoder_Switch</t>
+  </si>
+  <si>
+    <t>SW8</t>
+  </si>
+  <si>
+    <t>GAIN Rotary</t>
+  </si>
+  <si>
+    <t>RotaryEncoder_Alps_EC11E-Switch_Vertical_H20mm_CircularMountingHoles</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/components/products/datasheet/482016514001.pdf</t>
+  </si>
+  <si>
+    <t>115.2500</t>
+  </si>
+  <si>
+    <t>93.5000</t>
+  </si>
+  <si>
+    <t>16.5000</t>
+  </si>
+  <si>
+    <t>14.4000</t>
   </si>
   <si>
     <t>36</t>
   </si>
   <si>
-    <t>Rotary encoder, dual channel, incremental quadrate outputs, with switch</t>
-  </si>
-  <si>
-    <t>RotaryEncoder_Switch</t>
-  </si>
-  <si>
-    <t>SW8</t>
-  </si>
-  <si>
-    <t>GAIN Rotary</t>
-  </si>
-  <si>
-    <t>RotaryEncoder_Alps_EC11E-Switch_Vertical_H20mm_CircularMountingHoles</t>
-  </si>
-  <si>
-    <t>https://www.we-online.com/components/products/datasheet/482016514001.pdf</t>
-  </si>
-  <si>
-    <t>115.2500</t>
-  </si>
-  <si>
-    <t>93.5000</t>
-  </si>
-  <si>
-    <t>16.5000</t>
-  </si>
-  <si>
-    <t>14.4000</t>
+    <t>SW7</t>
+  </si>
+  <si>
+    <t>VOL Rotary</t>
+  </si>
+  <si>
+    <t>40.2500</t>
   </si>
   <si>
     <t>37</t>
   </si>
   <si>
-    <t>SW7</t>
-  </si>
-  <si>
-    <t>VOL Rotary</t>
-  </si>
-  <si>
-    <t>40.2500</t>
+    <t>74AHCT1G32SE-7</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>SOT65P210X110-5N</t>
+  </si>
+  <si>
+    <t>https://www.diodes.com/assets/Datasheets/74AHCT1G32.pdf</t>
+  </si>
+  <si>
+    <t>52.9500</t>
+  </si>
+  <si>
+    <t>77.9500</t>
+  </si>
+  <si>
+    <t>2.5500</t>
   </si>
   <si>
     <t>38</t>
   </si>
   <si>
-    <t>OR Gate IC 1 Channel - SOT-353</t>
-  </si>
-  <si>
-    <t>74AHCT1G32SE-7</t>
-  </si>
-  <si>
-    <t>U3</t>
-  </si>
-  <si>
-    <t>SOT-353_SC-70-5</t>
-  </si>
-  <si>
-    <t>Package_TO_SOT_SMD</t>
-  </si>
-  <si>
-    <t>52.9500</t>
-  </si>
-  <si>
-    <t>77.9500</t>
-  </si>
-  <si>
-    <t>2.5500</t>
+    <t>Pico</t>
+  </si>
+  <si>
+    <t>MCU_RaspberryPi_and_Boards</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>RPi_Pico_SMD_TH</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/components/products/datasheet/6130xx11121.pdf</t>
+  </si>
+  <si>
+    <t>83.0000</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>19.4800</t>
   </si>
   <si>
     <t>39</t>
   </si>
   <si>
-    <t>Schmitt Trigger Output Optocoupler, High Speed, DIP-6, 1.6mA turn on threshold</t>
-  </si>
-  <si>
-    <t>H11L1</t>
+    <t>15-Mbps inverting photocouple,5 kVrms, 2.7 - 5.5 Vdd, push-pull output</t>
+  </si>
+  <si>
+    <t>TLP2761</t>
   </si>
   <si>
     <t>Isolator</t>
@@ -1150,13 +1162,13 @@
     <t>U2</t>
   </si>
   <si>
-    <t>DIP-6_W7.62mm_LongPads</t>
-  </si>
-  <si>
-    <t>Package_DIP</t>
-  </si>
-  <si>
-    <t>https://rocelec.widen.net/view/pdf/rwjc9al1ln/ONSM-S-A0003590761-1.pdf</t>
+    <t>SO-6L_10x3.84mm_P1.27mm</t>
+  </si>
+  <si>
+    <t>Package_SO</t>
+  </si>
+  <si>
+    <t>https://toshiba.semicon-storage.com/info/docget.jsp?did=28819&amp;prodName=TLP2761</t>
   </si>
   <si>
     <t>49.4750</t>
@@ -1171,33 +1183,6 @@
     <t>6.6800</t>
   </si>
   <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>Pico</t>
-  </si>
-  <si>
-    <t>MCU_RaspberryPi_and_Boards</t>
-  </si>
-  <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>RPi_Pico_SMD_TH</t>
-  </si>
-  <si>
-    <t>https://www.we-online.com/components/products/datasheet/6130xx11121.pdf</t>
-  </si>
-  <si>
-    <t>83.0000</t>
-  </si>
-  <si>
-    <t>76.0000</t>
-  </si>
-  <si>
-    <t>19.4800</t>
-  </si>
-  <si>
     <t>KiBot Bill of Materials</t>
   </si>
   <si>
@@ -1237,13 +1222,13 @@
     <t>Component Count:</t>
   </si>
   <si>
-    <t>83 (5 SMD/ 76 THT)</t>
+    <t>83 (5 SMD/ 75 THT)</t>
   </si>
   <si>
     <t>Fitted Components:</t>
   </si>
   <si>
-    <t>77 (5 SMD/ 70 THT)</t>
+    <t>77 (5 SMD/ 69 THT)</t>
   </si>
   <si>
     <t>Number of PCBs:</t>
@@ -1369,13 +1354,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF8A8A"/>
+        <fgColor rgb="FFFF8080"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF8080"/>
+        <fgColor rgb="FFFF8A8A"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1828,7 +1813,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V48"/>
+  <dimension ref="A1:V47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -1863,7 +1848,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1887,55 +1872,55 @@
     </row>
     <row r="2" spans="1:22">
       <c r="C2" s="2" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="F2" s="3">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:22">
       <c r="C3" s="2" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="C4" s="2" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="C5" s="2" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1943,13 +1928,13 @@
     </row>
     <row r="6" spans="1:22">
       <c r="C6" s="2" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="F6" s="3">
         <v>77</v>
@@ -2179,28 +2164,28 @@
         <v>56</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>29</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="K11" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M11" s="7" t="s">
         <v>33</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>59</v>
@@ -2227,7 +2212,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" ht="30" customHeight="1">
       <c r="A12" s="8" t="s">
         <v>61</v>
       </c>
@@ -2268,13 +2253,13 @@
         <v>33</v>
       </c>
       <c r="N12" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="O12" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="O12" s="10" t="s">
+      <c r="P12" s="10" t="s">
         <v>69</v>
-      </c>
-      <c r="P12" s="10" t="s">
-        <v>70</v>
       </c>
       <c r="Q12" s="10" t="s">
         <v>52</v>
@@ -2289,51 +2274,51 @@
         <v>40</v>
       </c>
       <c r="U12" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="V12" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="V12" s="10" t="s">
+    </row>
+    <row r="13" spans="1:22" ht="30" customHeight="1">
+      <c r="A13" s="5" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="13" spans="1:22">
-      <c r="A13" s="5" t="s">
+      <c r="B13" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="C13" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="D13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="E13" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="F13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="H13" s="7" t="s">
-        <v>79</v>
-      </c>
       <c r="I13" s="5" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="K13" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L13" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="M13" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="N13" s="5" t="s">
         <v>81</v>
@@ -2345,7 +2330,7 @@
         <v>83</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="R13" s="7" t="s">
         <v>38</v>
@@ -2357,36 +2342,36 @@
         <v>40</v>
       </c>
       <c r="U13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="V13" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="30" customHeight="1">
+      <c r="A14" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="V13" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22">
-      <c r="A14" s="8" t="s">
+      <c r="B14" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="C14" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="D14" s="10" t="s">
         <v>88</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>76</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>89</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="I14" s="8" t="s">
         <v>22</v>
@@ -2398,22 +2383,22 @@
         <v>31</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="N14" s="8" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="O14" s="10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="P14" s="10" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="10" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="R14" s="10" t="s">
         <v>38</v>
@@ -2425,36 +2410,36 @@
         <v>40</v>
       </c>
       <c r="U14" s="10" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="V14" s="10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="30" customHeight="1">
       <c r="A15" s="5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>22</v>
@@ -2466,22 +2451,22 @@
         <v>31</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="M15" s="7" t="s">
         <v>48</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="R15" s="7" t="s">
         <v>38</v>
@@ -2493,63 +2478,63 @@
         <v>40</v>
       </c>
       <c r="U15" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="V15" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="30" customHeight="1">
       <c r="A16" s="8" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="K16" s="8" t="s">
         <v>31</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M16" s="10" t="s">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="N16" s="8" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="O16" s="10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P16" s="10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q16" s="10" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="R16" s="10" t="s">
         <v>38</v>
@@ -2561,10 +2546,10 @@
         <v>40</v>
       </c>
       <c r="U16" s="10" t="s">
-        <v>120</v>
+        <v>41</v>
       </c>
       <c r="V16" s="10" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:22">
@@ -2583,29 +2568,29 @@
       <c r="E17" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="11" t="s">
         <v>125</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>126</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>29</v>
+        <v>127</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="K17" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L17" s="7" t="s">
-        <v>127</v>
+      <c r="L17" s="11" t="s">
+        <v>125</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="N17" s="5" t="s">
         <v>81</v>
@@ -2617,116 +2602,116 @@
         <v>129</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="R17" s="7" t="s">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="S17" s="7" t="s">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="T17" s="7" t="s">
         <v>40</v>
       </c>
       <c r="U17" s="7" t="s">
-        <v>41</v>
+        <v>132</v>
       </c>
       <c r="V17" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="30" customHeight="1">
       <c r="A18" s="8" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>25</v>
+        <v>137</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>134</v>
+        <v>138</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>139</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="K18" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="L18" s="11" t="s">
-        <v>134</v>
+      <c r="L18" s="10" t="s">
+        <v>141</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="N18" s="8" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="O18" s="10" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="P18" s="10" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="Q18" s="10" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="R18" s="10" t="s">
-        <v>138</v>
+        <v>38</v>
       </c>
       <c r="S18" s="10" t="s">
-        <v>139</v>
+        <v>39</v>
       </c>
       <c r="T18" s="10" t="s">
         <v>40</v>
       </c>
       <c r="U18" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="V18" s="10" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" ht="30" customHeight="1">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="60" customHeight="1">
       <c r="A19" s="5" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>114</v>
+        <v>152</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>22</v>
@@ -2738,25 +2723,25 @@
         <v>31</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="M19" s="7" t="s">
         <v>33</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="R19" s="7" t="s">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="S19" s="7" t="s">
         <v>39</v>
@@ -2765,66 +2750,66 @@
         <v>40</v>
       </c>
       <c r="U19" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="V19" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" ht="60" customHeight="1">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="30" customHeight="1">
       <c r="A20" s="8" t="s">
         <v>46</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="K20" s="8" t="s">
         <v>31</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="M20" s="10" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="N20" s="8" t="s">
-        <v>81</v>
+        <v>165</v>
       </c>
       <c r="O20" s="10" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="P20" s="10" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q20" s="10" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="R20" s="10" t="s">
-        <v>138</v>
+        <v>38</v>
       </c>
       <c r="S20" s="10" t="s">
         <v>39</v>
@@ -2833,66 +2818,66 @@
         <v>40</v>
       </c>
       <c r="U20" s="10" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="V20" s="10" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="30" customHeight="1">
       <c r="A21" s="5" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>168</v>
+        <v>137</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="K21" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>48</v>
+        <v>177</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>173</v>
+        <v>94</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="R21" s="7" t="s">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="S21" s="7" t="s">
         <v>39</v>
@@ -2901,66 +2886,66 @@
         <v>40</v>
       </c>
       <c r="U21" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="V21" s="7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" ht="30" customHeight="1">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="45" customHeight="1">
       <c r="A22" s="8" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="K22" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="L22" s="10" t="s">
-        <v>184</v>
+      <c r="L22" s="12" t="s">
+        <v>125</v>
       </c>
       <c r="M22" s="10" t="s">
-        <v>185</v>
+        <v>80</v>
       </c>
       <c r="N22" s="8" t="s">
-        <v>81</v>
+        <v>188</v>
       </c>
       <c r="O22" s="10" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="P22" s="10" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q22" s="10" t="s">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="R22" s="10" t="s">
-        <v>138</v>
+        <v>38</v>
       </c>
       <c r="S22" s="10" t="s">
         <v>39</v>
@@ -2969,66 +2954,66 @@
         <v>40</v>
       </c>
       <c r="U22" s="10" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="V22" s="10" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" ht="45" customHeight="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="60" customHeight="1">
       <c r="A23" s="5" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>114</v>
+        <v>152</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="K23" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L23" s="12" t="s">
-        <v>134</v>
+      <c r="L23" s="7" t="s">
+        <v>198</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>116</v>
+        <v>48</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>196</v>
+        <v>94</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="R23" s="7" t="s">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="S23" s="7" t="s">
         <v>39</v>
@@ -3037,66 +3022,66 @@
         <v>40</v>
       </c>
       <c r="U23" s="7" t="s">
-        <v>199</v>
+        <v>157</v>
       </c>
       <c r="V23" s="7" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" ht="60" customHeight="1">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" ht="30" customHeight="1">
       <c r="A24" s="8" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="K24" s="8" t="s">
         <v>31</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M24" s="10" t="s">
         <v>48</v>
       </c>
       <c r="N24" s="8" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="O24" s="10" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P24" s="10" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q24" s="10" t="s">
         <v>37</v>
       </c>
       <c r="R24" s="10" t="s">
-        <v>138</v>
+        <v>38</v>
       </c>
       <c r="S24" s="10" t="s">
         <v>39</v>
@@ -3105,36 +3090,36 @@
         <v>40</v>
       </c>
       <c r="U24" s="10" t="s">
-        <v>164</v>
+        <v>211</v>
       </c>
       <c r="V24" s="10" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" ht="30" customHeight="1">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
       <c r="A25" s="5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>168</v>
+        <v>137</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>30</v>
@@ -3146,7 +3131,7 @@
         <v>31</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="M25" s="7" t="s">
         <v>48</v>
@@ -3155,10 +3140,10 @@
         <v>34</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>37</v>
@@ -3167,110 +3152,110 @@
         <v>38</v>
       </c>
       <c r="S25" s="7" t="s">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="T25" s="7" t="s">
         <v>40</v>
       </c>
       <c r="U25" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="V25" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" ht="30" customHeight="1">
       <c r="A26" s="8" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K26" s="8" t="s">
         <v>31</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="M26" s="10" t="s">
         <v>48</v>
       </c>
       <c r="N26" s="8" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="O26" s="10" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="P26" s="10" t="s">
-        <v>228</v>
+        <v>83</v>
       </c>
       <c r="Q26" s="10" t="s">
         <v>37</v>
       </c>
       <c r="R26" s="10" t="s">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="S26" s="10" t="s">
-        <v>139</v>
+        <v>39</v>
       </c>
       <c r="T26" s="10" t="s">
         <v>40</v>
       </c>
       <c r="U26" s="10" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="V26" s="10" t="s">
-        <v>230</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:22" ht="30" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>114</v>
+        <v>152</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>22</v>
@@ -3282,25 +3267,25 @@
         <v>31</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M27" s="7" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>119</v>
+        <v>240</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="R27" s="7" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="S27" s="7" t="s">
         <v>39</v>
@@ -3309,36 +3294,36 @@
         <v>40</v>
       </c>
       <c r="U27" s="7" t="s">
-        <v>239</v>
+        <v>156</v>
       </c>
       <c r="V27" s="7" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" ht="30" customHeight="1">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
       <c r="A28" s="8" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>241</v>
+        <v>171</v>
       </c>
       <c r="C28" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="E28" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="D28" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="E28" s="10" t="s">
+      <c r="F28" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="G28" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="G28" s="10" t="s">
-        <v>245</v>
-      </c>
       <c r="H28" s="10" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="I28" s="8" t="s">
         <v>22</v>
@@ -3350,25 +3335,25 @@
         <v>31</v>
       </c>
       <c r="L28" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="M28" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="N28" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="O28" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="M28" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="N28" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="O28" s="10" t="s">
+      <c r="P28" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="P28" s="10" t="s">
-        <v>248</v>
-      </c>
       <c r="Q28" s="10" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="R28" s="10" t="s">
-        <v>138</v>
+        <v>38</v>
       </c>
       <c r="S28" s="10" t="s">
         <v>39</v>
@@ -3377,36 +3362,36 @@
         <v>40</v>
       </c>
       <c r="U28" s="10" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="V28" s="10" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" ht="30" customHeight="1">
       <c r="A29" s="5" t="s">
         <v>249</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>179</v>
+        <v>250</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>180</v>
+        <v>251</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>251</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>22</v>
@@ -3418,25 +3403,25 @@
         <v>31</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="N29" s="5" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="R29" s="7" t="s">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="S29" s="7" t="s">
         <v>39</v>
@@ -3445,36 +3430,36 @@
         <v>40</v>
       </c>
       <c r="U29" s="7" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="V29" s="7" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" ht="30" customHeight="1">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
       <c r="A30" s="8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>145</v>
+        <v>25</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>114</v>
+        <v>264</v>
       </c>
       <c r="I30" s="8" t="s">
         <v>22</v>
@@ -3486,25 +3471,25 @@
         <v>31</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="M30" s="10" t="s">
-        <v>185</v>
+        <v>33</v>
       </c>
       <c r="N30" s="8" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="O30" s="10" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="P30" s="10" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q30" s="10" t="s">
-        <v>52</v>
+        <v>108</v>
       </c>
       <c r="R30" s="10" t="s">
-        <v>138</v>
+        <v>38</v>
       </c>
       <c r="S30" s="10" t="s">
         <v>39</v>
@@ -3513,63 +3498,63 @@
         <v>40</v>
       </c>
       <c r="U30" s="10" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="V30" s="10" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="31" spans="1:22" ht="30" customHeight="1">
       <c r="A31" s="5" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="K31" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M31" s="7" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="N31" s="5" t="s">
-        <v>81</v>
+        <v>165</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="R31" s="7" t="s">
         <v>38</v>
@@ -3581,63 +3566,63 @@
         <v>40</v>
       </c>
       <c r="U31" s="7" t="s">
-        <v>153</v>
+        <v>278</v>
       </c>
       <c r="V31" s="7" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" ht="30" customHeight="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
       <c r="A32" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>278</v>
+        <v>279</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>280</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>25</v>
+        <v>281</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F32" s="10" t="s">
         <v>281</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>272</v>
+        <v>127</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="K32" s="8" t="s">
         <v>31</v>
       </c>
       <c r="L32" s="10" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M32" s="10" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="N32" s="8" t="s">
-        <v>173</v>
+        <v>94</v>
       </c>
       <c r="O32" s="10" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="P32" s="10" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q32" s="10" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="R32" s="10" t="s">
         <v>38</v>
@@ -3649,18 +3634,18 @@
         <v>40</v>
       </c>
       <c r="U32" s="10" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="V32" s="10" t="s">
-        <v>42</v>
+        <v>287</v>
       </c>
     </row>
     <row r="33" spans="1:22">
       <c r="A33" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="B33" s="12" t="s">
         <v>288</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>280</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>289</v>
@@ -3678,7 +3663,7 @@
         <v>291</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>22</v>
@@ -3689,64 +3674,64 @@
       <c r="K33" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L33" s="7" t="s">
-        <v>292</v>
+      <c r="L33" s="11" t="s">
+        <v>280</v>
       </c>
       <c r="M33" s="7" t="s">
         <v>33</v>
       </c>
       <c r="N33" s="5" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="P33" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="P33" s="7" t="s">
-        <v>294</v>
-      </c>
       <c r="Q33" s="7" t="s">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="R33" s="7" t="s">
         <v>38</v>
       </c>
       <c r="S33" s="7" t="s">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="T33" s="7" t="s">
         <v>40</v>
       </c>
       <c r="U33" s="7" t="s">
-        <v>295</v>
+        <v>52</v>
       </c>
       <c r="V33" s="7" t="s">
-        <v>295</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:22">
       <c r="A34" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="C34" s="10" t="s">
         <v>296</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>298</v>
       </c>
       <c r="D34" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E34" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="H34" s="10" t="s">
         <v>299</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="G34" s="10" t="s">
-        <v>300</v>
-      </c>
-      <c r="H34" s="10" t="s">
-        <v>301</v>
       </c>
       <c r="I34" s="8" t="s">
         <v>22</v>
@@ -3758,19 +3743,19 @@
         <v>31</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M34" s="10" t="s">
         <v>48</v>
       </c>
       <c r="N34" s="8" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="O34" s="10" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="P34" s="10" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="Q34" s="10" t="s">
         <v>52</v>
@@ -3785,7 +3770,7 @@
         <v>40</v>
       </c>
       <c r="U34" s="10" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="V34" s="10" t="s">
         <v>42</v>
@@ -3793,28 +3778,28 @@
     </row>
     <row r="35" spans="1:22">
       <c r="A35" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>22</v>
@@ -3826,19 +3811,19 @@
         <v>31</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="M35" s="7" t="s">
         <v>48</v>
       </c>
       <c r="N35" s="5" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="Q35" s="7" t="s">
         <v>52</v>
@@ -3853,7 +3838,7 @@
         <v>40</v>
       </c>
       <c r="U35" s="7" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="V35" s="7" t="s">
         <v>42</v>
@@ -3861,52 +3846,52 @@
     </row>
     <row r="36" spans="1:22">
       <c r="A36" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D36" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E36" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="F36" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="F36" s="10" t="s">
-        <v>312</v>
-      </c>
       <c r="G36" s="10" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="J36" s="8" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="K36" s="8" t="s">
         <v>31</v>
       </c>
       <c r="L36" s="10" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="M36" s="10" t="s">
         <v>48</v>
       </c>
       <c r="N36" s="8" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="O36" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="P36" s="10" t="s">
         <v>313</v>
-      </c>
-      <c r="P36" s="10" t="s">
-        <v>314</v>
       </c>
       <c r="Q36" s="10" t="s">
         <v>37</v>
@@ -3921,7 +3906,7 @@
         <v>40</v>
       </c>
       <c r="U36" s="10" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="V36" s="10" t="s">
         <v>42</v>
@@ -3929,52 +3914,52 @@
     </row>
     <row r="37" spans="1:22">
       <c r="A37" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="B37" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="B37" s="6" t="s">
-        <v>297</v>
-      </c>
       <c r="C37" s="7" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>25</v>
+        <v>317</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K37" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>302</v>
+        <v>322</v>
       </c>
       <c r="M37" s="7" t="s">
         <v>48</v>
       </c>
       <c r="N37" s="5" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>52</v>
@@ -3989,36 +3974,36 @@
         <v>40</v>
       </c>
       <c r="U37" s="7" t="s">
-        <v>286</v>
+        <v>325</v>
       </c>
       <c r="V37" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" ht="30" customHeight="1">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22">
       <c r="A38" s="8" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="B38" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="G38" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="H38" s="10" t="s">
         <v>321</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="F38" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="H38" s="10" t="s">
-        <v>114</v>
       </c>
       <c r="I38" s="8" t="s">
         <v>22</v>
@@ -4030,19 +4015,19 @@
         <v>31</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="M38" s="10" t="s">
         <v>48</v>
       </c>
       <c r="N38" s="8" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="O38" s="10" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="P38" s="10" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="Q38" s="10" t="s">
         <v>52</v>
@@ -4057,36 +4042,36 @@
         <v>40</v>
       </c>
       <c r="U38" s="10" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="V38" s="10" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22" ht="30" customHeight="1">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22">
       <c r="A39" s="5" t="s">
         <v>331</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>332</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>333</v>
+        <v>24</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>114</v>
+        <v>321</v>
       </c>
       <c r="I39" s="5" t="s">
         <v>22</v>
@@ -4098,19 +4083,19 @@
         <v>31</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="M39" s="7" t="s">
         <v>48</v>
       </c>
       <c r="N39" s="5" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="Q39" s="7" t="s">
         <v>52</v>
@@ -4125,36 +4110,36 @@
         <v>40</v>
       </c>
       <c r="U39" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="V39" s="7" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" ht="30" customHeight="1">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22">
       <c r="A40" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="E40" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="F40" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="G40" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="H40" s="10" t="s">
         <v>321</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>336</v>
-      </c>
-      <c r="F40" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G40" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="H40" s="10" t="s">
-        <v>114</v>
       </c>
       <c r="I40" s="8" t="s">
         <v>22</v>
@@ -4166,19 +4151,19 @@
         <v>31</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="M40" s="10" t="s">
         <v>48</v>
       </c>
       <c r="N40" s="8" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="O40" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="P40" s="10" t="s">
         <v>337</v>
-      </c>
-      <c r="P40" s="10" t="s">
-        <v>328</v>
       </c>
       <c r="Q40" s="10" t="s">
         <v>52</v>
@@ -4193,24 +4178,24 @@
         <v>40</v>
       </c>
       <c r="U40" s="10" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="V40" s="10" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22" ht="30" customHeight="1">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22">
       <c r="A41" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>338</v>
@@ -4219,10 +4204,10 @@
         <v>339</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>114</v>
+        <v>321</v>
       </c>
       <c r="I41" s="5" t="s">
         <v>22</v>
@@ -4234,19 +4219,19 @@
         <v>31</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="M41" s="7" t="s">
         <v>48</v>
       </c>
       <c r="N41" s="5" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="Q41" s="7" t="s">
         <v>52</v>
@@ -4261,36 +4246,36 @@
         <v>40</v>
       </c>
       <c r="U41" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="V41" s="7" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22" ht="30" customHeight="1">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22">
       <c r="A42" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="E42" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="F42" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="G42" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="H42" s="10" t="s">
         <v>321</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>342</v>
-      </c>
-      <c r="F42" s="10" t="s">
-        <v>343</v>
-      </c>
-      <c r="G42" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="H42" s="10" t="s">
-        <v>114</v>
       </c>
       <c r="I42" s="8" t="s">
         <v>22</v>
@@ -4302,19 +4287,19 @@
         <v>31</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="M42" s="10" t="s">
         <v>48</v>
       </c>
       <c r="N42" s="8" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="O42" s="10" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="P42" s="10" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="Q42" s="10" t="s">
         <v>52</v>
@@ -4329,36 +4314,36 @@
         <v>40</v>
       </c>
       <c r="U42" s="10" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="V42" s="10" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="43" spans="1:22" ht="30" customHeight="1">
       <c r="A43" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="B43" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="B43" s="6" t="s">
-        <v>320</v>
-      </c>
       <c r="C43" s="7" t="s">
-        <v>321</v>
+        <v>345</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>322</v>
+        <v>25</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>325</v>
+        <v>348</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="I43" s="5" t="s">
         <v>22</v>
@@ -4370,19 +4355,19 @@
         <v>31</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>326</v>
+        <v>349</v>
       </c>
       <c r="M43" s="7" t="s">
         <v>48</v>
       </c>
       <c r="N43" s="5" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="Q43" s="7" t="s">
         <v>52</v>
@@ -4397,36 +4382,36 @@
         <v>40</v>
       </c>
       <c r="U43" s="7" t="s">
-        <v>329</v>
+        <v>352</v>
       </c>
       <c r="V43" s="7" t="s">
-        <v>330</v>
+        <v>353</v>
       </c>
     </row>
     <row r="44" spans="1:22" ht="30" customHeight="1">
       <c r="A44" s="8" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D44" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="I44" s="8" t="s">
         <v>22</v>
@@ -4438,19 +4423,19 @@
         <v>31</v>
       </c>
       <c r="L44" s="10" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="M44" s="10" t="s">
         <v>48</v>
       </c>
       <c r="N44" s="8" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="O44" s="10" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="P44" s="10" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="Q44" s="10" t="s">
         <v>52</v>
@@ -4465,36 +4450,36 @@
         <v>40</v>
       </c>
       <c r="U44" s="10" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="V44" s="10" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22" ht="30" customHeight="1">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22">
       <c r="A45" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="B45" s="6" t="s">
-        <v>348</v>
+      <c r="B45" s="11" t="s">
+        <v>280</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>25</v>
+        <v>359</v>
       </c>
       <c r="E45" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="F45" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="F45" s="7" t="s">
-        <v>360</v>
-      </c>
       <c r="G45" s="7" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="I45" s="5" t="s">
         <v>22</v>
@@ -4506,63 +4491,63 @@
         <v>31</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="M45" s="7" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="N45" s="5" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="R45" s="7" t="s">
         <v>38</v>
       </c>
       <c r="S45" s="7" t="s">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="T45" s="7" t="s">
         <v>40</v>
       </c>
       <c r="U45" s="7" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="V45" s="7" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" ht="30" customHeight="1">
       <c r="A46" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>363</v>
+        <v>366</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>280</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>367</v>
+        <v>127</v>
       </c>
       <c r="I46" s="8" t="s">
         <v>22</v>
@@ -4573,64 +4558,64 @@
       <c r="K46" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="L46" s="11" t="s">
-        <v>288</v>
+      <c r="L46" s="10" t="s">
+        <v>371</v>
       </c>
       <c r="M46" s="10" t="s">
-        <v>116</v>
+        <v>48</v>
       </c>
       <c r="N46" s="8" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="O46" s="10" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="P46" s="10" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="Q46" s="10" t="s">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="R46" s="10" t="s">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="S46" s="10" t="s">
-        <v>139</v>
+        <v>39</v>
       </c>
       <c r="T46" s="10" t="s">
         <v>40</v>
       </c>
       <c r="U46" s="10" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="V46" s="10" t="s">
-        <v>163</v>
+        <v>248</v>
       </c>
     </row>
     <row r="47" spans="1:22" ht="30" customHeight="1">
       <c r="A47" s="5" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="I47" s="5" t="s">
         <v>22</v>
@@ -4642,19 +4627,19 @@
         <v>31</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="M47" s="7" t="s">
         <v>48</v>
       </c>
       <c r="N47" s="5" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="Q47" s="7" t="s">
         <v>37</v>
@@ -4669,78 +4654,10 @@
         <v>40</v>
       </c>
       <c r="U47" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="V47" s="7" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22" ht="30" customHeight="1">
-      <c r="A48" s="8" t="s">
-        <v>383</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="E48" s="10" t="s">
         <v>386</v>
-      </c>
-      <c r="F48" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="G48" s="10" t="s">
-        <v>387</v>
-      </c>
-      <c r="H48" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="I48" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J48" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K48" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L48" s="10" t="s">
-        <v>388</v>
-      </c>
-      <c r="M48" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="N48" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="O48" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="P48" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="Q48" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="R48" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="S48" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="T48" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="U48" s="10" t="s">
-        <v>391</v>
-      </c>
-      <c r="V48" s="10" t="s">
-        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -4765,12 +4682,12 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="60.7109375" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="39.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
     <col min="4" max="4" width="25.7109375" customWidth="1"/>
     <col min="5" max="5" width="23.7109375" customWidth="1"/>
     <col min="6" max="6" width="18.7109375" customWidth="1"/>
-    <col min="7" max="7" width="24.7109375" customWidth="1"/>
+    <col min="7" max="7" width="38.7109375" customWidth="1"/>
     <col min="8" max="8" width="23.7109375" customWidth="1"/>
     <col min="9" max="9" width="26.7109375" customWidth="1"/>
     <col min="10" max="10" width="24.7109375" customWidth="1"/>
@@ -4790,7 +4707,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -4814,55 +4731,55 @@
     </row>
     <row r="2" spans="1:22">
       <c r="C2" s="2" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="F2" s="3">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:22">
       <c r="C3" s="2" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="C4" s="2" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="C5" s="2" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -4870,13 +4787,13 @@
     </row>
     <row r="6" spans="1:22">
       <c r="C6" s="2" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="F6" s="3">
         <v>77</v>
@@ -4955,49 +4872,49 @@
         <v>22</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>52</v>
@@ -5009,13 +4926,13 @@
         <v>39</v>
       </c>
       <c r="T9" s="7" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="U9" s="7" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="V9" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -5041,22 +4958,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="12" t="s">
-        <v>419</v>
+      <c r="A4" s="11" t="s">
+        <v>414</v>
       </c>
     </row>
   </sheetData>

--- a/latest/BoM/Positional/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Positional/pedalboard-hw-bom.xlsx
@@ -8,19 +8,17 @@
   </bookViews>
   <sheets>
     <sheet name="BoM" sheetId="1" r:id="rId1"/>
-    <sheet name="DNF" sheetId="2" r:id="rId2"/>
-    <sheet name="Colors" sheetId="3" r:id="rId3"/>
+    <sheet name="Colors" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">BoM!$9:$9</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">DNF!$9:$9</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="415">
   <si>
     <t>Row</t>
   </si>
@@ -127,10 +125,10 @@
     <t>pedalboard-hw(2)</t>
   </si>
   <si>
-    <t>126.5000</t>
-  </si>
-  <si>
-    <t>69.3000</t>
+    <t>129.4500</t>
+  </si>
+  <si>
+    <t>74.2500</t>
   </si>
   <si>
     <t>180.0000</t>
@@ -139,363 +137,372 @@
     <t>top</t>
   </si>
   <si>
+    <t>SMD</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>4.1000</t>
+  </si>
+  <si>
+    <t>1.8000</t>
+  </si>
+  <si>
+    <t>C1 C2 C3 C4 C5 C12</t>
+  </si>
+  <si>
+    <t>100nF</t>
+  </si>
+  <si>
+    <t>C_0805_2012Metric</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>https://datasheets.kyocera-avx.com/X7RDielectric.pdf</t>
+  </si>
+  <si>
+    <t>/MIDI</t>
+  </si>
+  <si>
+    <t>pedalboard-hw(6)</t>
+  </si>
+  <si>
+    <t>47.5000</t>
+  </si>
+  <si>
+    <t>101.5000</t>
+  </si>
+  <si>
+    <t>0.0000</t>
+  </si>
+  <si>
+    <t>2.9000</t>
+  </si>
+  <si>
+    <t>1.4500</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>C16 C17 C20</t>
+  </si>
+  <si>
+    <t>4.7uF</t>
+  </si>
+  <si>
+    <t>https://search.murata.co.jp/Ceramy/image/img/A01X/G101/ENG/GRM21BZ71H475ME15-01.pdf</t>
+  </si>
+  <si>
+    <t>pedalboard-hw(3)</t>
+  </si>
+  <si>
+    <t>138.6500</t>
+  </si>
+  <si>
+    <t>81.1500</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Polarized capacitor</t>
+  </si>
+  <si>
+    <t>C_Polarized</t>
+  </si>
+  <si>
+    <t>C13 C14 C15</t>
+  </si>
+  <si>
+    <t>270uF</t>
+  </si>
+  <si>
+    <t>CP_Elec_10x10</t>
+  </si>
+  <si>
+    <t>https://connect.kemet.com:7667/gateway/IntelliData-ComponentDocumentation/1.0/download/datasheet/A768MS277M1GLAE022</t>
+  </si>
+  <si>
+    <t>140.5323</t>
+  </si>
+  <si>
+    <t>87.5000</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>2.5000</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>RGB LED with integrated controller</t>
+  </si>
+  <si>
+    <t>SK6812</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>D1 D2 D3 D4</t>
+  </si>
+  <si>
+    <t>LED_SK6812_PLCC4_5.0x5.0mm_P3.2mm</t>
+  </si>
+  <si>
+    <t>LED_SMD</t>
+  </si>
+  <si>
+    <t>https://cdn-shop.adafruit.com/product-files/1138/SK6812+LED+datasheet+.pdf</t>
+  </si>
+  <si>
+    <t>/LEDs</t>
+  </si>
+  <si>
+    <t>pedalboard-hw(4)</t>
+  </si>
+  <si>
+    <t>45.6000</t>
+  </si>
+  <si>
+    <t>77.0000</t>
+  </si>
+  <si>
+    <t>6.4000</t>
+  </si>
+  <si>
+    <t>4.2000</t>
+  </si>
+  <si>
+    <t>100V 0.15A standard switching diode, DO-35</t>
+  </si>
+  <si>
+    <t>1N4148</t>
+  </si>
+  <si>
+    <t>Diode</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>SM4007</t>
+  </si>
+  <si>
+    <t>D_SOD-123F</t>
+  </si>
+  <si>
+    <t>Diode_SMD</t>
+  </si>
+  <si>
+    <t>https://www.mccsemi.com/pdf/Products/SM4001PL-SM4007PL(SOD-123FL).PDF</t>
+  </si>
+  <si>
+    <t>pedalboard-hw(1)</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>3.9000</t>
+  </si>
+  <si>
+    <t>1.1000</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>20V 1A Schottky Barrier Rectifier Diode, DO-41</t>
+  </si>
+  <si>
+    <t>1N5817</t>
+  </si>
+  <si>
+    <t>D13</t>
+  </si>
+  <si>
+    <t>SS34HF</t>
+  </si>
+  <si>
+    <t>D_SMA</t>
+  </si>
+  <si>
+    <t>https://www.comchiptech.com/admin/files/product/20190514101641.pdf</t>
+  </si>
+  <si>
+    <t>129.6060</t>
+  </si>
+  <si>
+    <t>81.9216</t>
+  </si>
+  <si>
+    <t>270.0000</t>
+  </si>
+  <si>
+    <t>6.5000</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Resettable fuse, polymeric positive temperature coefficient</t>
+  </si>
+  <si>
+    <t>Polyfuse</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>Polyfuse 1.8A</t>
+  </si>
+  <si>
+    <t>Fuse_1812_4532Metric</t>
+  </si>
+  <si>
+    <t>Fuse</t>
+  </si>
+  <si>
+    <t>https://www.littelfuse.com/~/media/electronics/datasheets/resettable_ptcs/littelfuse_ptc_1812l_datasheet.pdf.pdf</t>
+  </si>
+  <si>
+    <t>149.7000</t>
+  </si>
+  <si>
+    <t>96.2500</t>
+  </si>
+  <si>
+    <t>5.4000</t>
+  </si>
+  <si>
+    <t>3.4000</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Fuse, small symbol</t>
+  </si>
+  <si>
+    <t>Fuse_Small</t>
+  </si>
+  <si>
+    <t>F2 F3 F4 F5</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t>Trace_Fuse</t>
+  </si>
+  <si>
+    <t>Pedalboard Library</t>
+  </si>
+  <si>
+    <t>66.9900</t>
+  </si>
+  <si>
+    <t>50.3100</t>
+  </si>
+  <si>
+    <t>bottom</t>
+  </si>
+  <si>
+    <t>4.8860</t>
+  </si>
+  <si>
+    <t>1.5240</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>DC Barrel Jack with an internal switch</t>
+  </si>
+  <si>
+    <t>Barrel_Jack_Switch</t>
+  </si>
+  <si>
+    <t>Connector</t>
+  </si>
+  <si>
+    <t>J13</t>
+  </si>
+  <si>
+    <t>Barrel_Jack_MountingPin</t>
+  </si>
+  <si>
+    <t>BarrelJack_Wuerth_6941xx301002</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/components/products/datasheet/6941xx301002.pdf</t>
+  </si>
+  <si>
+    <t>159.4000</t>
+  </si>
+  <si>
+    <t>94.6000</t>
+  </si>
+  <si>
     <t>THT</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>6.6000</t>
-  </si>
-  <si>
-    <t>1.6000</t>
-  </si>
-  <si>
-    <t>C1 C2 C3 C4 C5 C6 C7 C8 C9 C10 C11 C12</t>
-  </si>
-  <si>
-    <t>100nF</t>
-  </si>
-  <si>
-    <t>C_0805_2012Metric</t>
+    <t>7.9000</t>
+  </si>
+  <si>
+    <t>7.6000</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Generic connector, double row, 02x01, this symbol is compatible with counter-clockwise, top-bottom and odd-even numbering schemes., script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+  </si>
+  <si>
+    <t>Conn_02x01</t>
+  </si>
+  <si>
+    <t>Connector_Generic</t>
+  </si>
+  <si>
+    <t>J14</t>
+  </si>
+  <si>
+    <t>PinHeader_1x02_P2.54mm_Horizontal</t>
+  </si>
+  <si>
+    <t>Connector_PinHeader_2.54mm</t>
+  </si>
+  <si>
+    <t>https://cdn.amphenol-cs.com/media/wysiwyg/files/drawing/68015.pdf</t>
+  </si>
+  <si>
+    <t>118.0000</t>
+  </si>
+  <si>
+    <t>67.8250</t>
+  </si>
+  <si>
+    <t>1.7000</t>
+  </si>
+  <si>
+    <t>4.2400</t>
   </si>
   <si>
     <t>12</t>
   </si>
   <si>
-    <t>https://datasheets.kyocera-avx.com/X7RDielectric.pdf</t>
-  </si>
-  <si>
-    <t>/MIDI</t>
-  </si>
-  <si>
-    <t>pedalboard-hw(12)</t>
-  </si>
-  <si>
-    <t>43.4750</t>
-  </si>
-  <si>
-    <t>81.3000</t>
-  </si>
-  <si>
-    <t>0.0000</t>
-  </si>
-  <si>
-    <t>4.1000</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>C16 C17 C20</t>
-  </si>
-  <si>
-    <t>4.7uF</t>
-  </si>
-  <si>
-    <t>https://search.murata.co.jp/Ceramy/image/img/A01X/G101/ENG/GRM21BZ71H475ME15-01.pdf</t>
-  </si>
-  <si>
-    <t>pedalboard-hw(3)</t>
-  </si>
-  <si>
-    <t>138.6376</t>
-  </si>
-  <si>
-    <t>80.4000</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Polarized capacitor</t>
-  </si>
-  <si>
-    <t>C_Polarized</t>
-  </si>
-  <si>
-    <t>C13 C14 C15</t>
-  </si>
-  <si>
-    <t>270uF</t>
-  </si>
-  <si>
-    <t>CP_Elec_10x10</t>
-  </si>
-  <si>
-    <t>https://connect.kemet.com:7667/gateway/IntelliData-ComponentDocumentation/1.0/download/datasheet/A768MS277M1GLAE022</t>
-  </si>
-  <si>
-    <t>140.5323</t>
-  </si>
-  <si>
-    <t>87.5000</t>
-  </si>
-  <si>
-    <t>7.0000</t>
-  </si>
-  <si>
-    <t>2.0000</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>RGB LED with integrated controller</t>
-  </si>
-  <si>
-    <t>SK6812</t>
-  </si>
-  <si>
-    <t>LED</t>
-  </si>
-  <si>
-    <t>D1 D2 D3 D4</t>
-  </si>
-  <si>
-    <t>LED_SK6812_PLCC4_5.0x5.0mm_P3.2mm</t>
-  </si>
-  <si>
-    <t>LED_SMD</t>
-  </si>
-  <si>
-    <t>https://cdn-shop.adafruit.com/product-files/1138/SK6812+LED+datasheet+.pdf</t>
-  </si>
-  <si>
-    <t>/LEDs</t>
-  </si>
-  <si>
-    <t>pedalboard-hw(4)</t>
-  </si>
-  <si>
-    <t>45.6000</t>
-  </si>
-  <si>
-    <t>77.0000</t>
-  </si>
-  <si>
-    <t>4.8100</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>100V 0.15A standard switching diode, DO-35</t>
-  </si>
-  <si>
-    <t>1N4148</t>
-  </si>
-  <si>
-    <t>Diode</t>
-  </si>
-  <si>
-    <t>D11</t>
-  </si>
-  <si>
-    <t>SM4007</t>
-  </si>
-  <si>
-    <t>D_SOD-123F</t>
-  </si>
-  <si>
-    <t>Diode_SMD</t>
-  </si>
-  <si>
-    <t>https://www.mccsemi.com/pdf/Products/SM4001PL-SM4007PL(SOD-123FL).PDF</t>
-  </si>
-  <si>
-    <t>pedalboard-hw(1)</t>
-  </si>
-  <si>
-    <t>53.7000</t>
-  </si>
-  <si>
-    <t>59.2250</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>9.2200</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>20V 1A Schottky Barrier Rectifier Diode, DO-41</t>
-  </si>
-  <si>
-    <t>1N5817</t>
-  </si>
-  <si>
-    <t>D13</t>
-  </si>
-  <si>
-    <t>SS34HF</t>
-  </si>
-  <si>
-    <t>D_SMA</t>
-  </si>
-  <si>
-    <t>https://www.comchiptech.com/admin/files/product/20190514101641.pdf</t>
-  </si>
-  <si>
-    <t>129.6060</t>
-  </si>
-  <si>
-    <t>81.9216</t>
-  </si>
-  <si>
-    <t>270.0000</t>
-  </si>
-  <si>
-    <t>12.3600</t>
-  </si>
-  <si>
-    <t>2.2000</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>Resettable fuse, polymeric positive temperature coefficient</t>
-  </si>
-  <si>
-    <t>Polyfuse</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>Polyfuse 1.8A</t>
-  </si>
-  <si>
-    <t>Fuse_1812_4532Metric</t>
-  </si>
-  <si>
-    <t>Fuse</t>
-  </si>
-  <si>
-    <t>https://www.littelfuse.com/~/media/electronics/datasheets/resettable_ptcs/littelfuse_ptc_1812l_datasheet.pdf.pdf</t>
-  </si>
-  <si>
-    <t>151.9000</t>
-  </si>
-  <si>
-    <t>95.2000</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>Fuse, small symbol</t>
-  </si>
-  <si>
-    <t>Fuse_Small</t>
-  </si>
-  <si>
-    <t>F2 F3 F4 F5</t>
-  </si>
-  <si>
-    <t>~</t>
-  </si>
-  <si>
-    <t>Trace_Fuse</t>
-  </si>
-  <si>
-    <t>Pedalboard Library</t>
-  </si>
-  <si>
-    <t>66.9900</t>
-  </si>
-  <si>
-    <t>50.3100</t>
-  </si>
-  <si>
-    <t>bottom</t>
-  </si>
-  <si>
-    <t>SMD</t>
-  </si>
-  <si>
-    <t>4.8860</t>
-  </si>
-  <si>
-    <t>1.5240</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>DC Barrel Jack with an internal switch</t>
-  </si>
-  <si>
-    <t>Barrel_Jack_Switch</t>
-  </si>
-  <si>
-    <t>Connector</t>
-  </si>
-  <si>
-    <t>J13</t>
-  </si>
-  <si>
-    <t>Barrel_Jack_MountingPin</t>
-  </si>
-  <si>
-    <t>BarrelJack_Wuerth_6941xx301002</t>
-  </si>
-  <si>
-    <t>https://www.we-online.com/components/products/datasheet/6941xx301002.pdf</t>
-  </si>
-  <si>
-    <t>159.4000</t>
-  </si>
-  <si>
-    <t>94.6000</t>
-  </si>
-  <si>
-    <t>7.9000</t>
-  </si>
-  <si>
-    <t>7.6000</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>Generic connector, double row, 02x01, this symbol is compatible with counter-clockwise, top-bottom and odd-even numbering schemes., script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
-    <t>Conn_02x01</t>
-  </si>
-  <si>
-    <t>Connector_Generic</t>
-  </si>
-  <si>
-    <t>J14</t>
-  </si>
-  <si>
-    <t>PinHeader_1x02_P2.54mm_Horizontal</t>
-  </si>
-  <si>
-    <t>Connector_PinHeader_2.54mm</t>
-  </si>
-  <si>
-    <t>https://cdn.amphenol-cs.com/media/wysiwyg/files/drawing/68015.pdf</t>
-  </si>
-  <si>
-    <t>118.0000</t>
-  </si>
-  <si>
-    <t>67.8250</t>
-  </si>
-  <si>
-    <t>1.7000</t>
-  </si>
-  <si>
-    <t>4.2400</t>
-  </si>
-  <si>
     <t>M Series, 6.35mm (1/4in) stereo jack, switched, with chrome ferrule and straight PCB pins</t>
   </si>
   <si>
@@ -586,9 +593,6 @@
     <t>Led-Ring</t>
   </si>
   <si>
-    <t>pedalboard-hw(6)</t>
-  </si>
-  <si>
     <t>149.0000</t>
   </si>
   <si>
@@ -619,10 +623,10 @@
     <t>https://www.we-online.com/components/products/datasheet/6130xx21021.pdf</t>
   </si>
   <si>
-    <t>51.0000</t>
-  </si>
-  <si>
-    <t>72.1500</t>
+    <t>15.6500</t>
+  </si>
+  <si>
+    <t>94.0250</t>
   </si>
   <si>
     <t>6.7800</t>
@@ -820,13 +824,16 @@
     <t>https://www.bourns.com/docs/product-datasheets/srp3212.pdf</t>
   </si>
   <si>
-    <t>141.9000</t>
-  </si>
-  <si>
-    <t>74.7000</t>
-  </si>
-  <si>
-    <t>2.6000</t>
+    <t>134.5000</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
+    <t>4.0500</t>
+  </si>
+  <si>
+    <t>2.6500</t>
   </si>
   <si>
     <t>23</t>
@@ -850,13 +857,16 @@
     <t>https://www.murata.com/products/productdata/8796738650142/ENFA0003.pdf</t>
   </si>
   <si>
-    <t>56.6000</t>
-  </si>
-  <si>
-    <t>69.7300</t>
-  </si>
-  <si>
-    <t>11.7600</t>
+    <t>34.5000</t>
+  </si>
+  <si>
+    <t>93.0000</t>
+  </si>
+  <si>
+    <t>2.4500</t>
+  </si>
+  <si>
+    <t>0.9500</t>
   </si>
   <si>
     <t>24</t>
@@ -898,10 +908,16 @@
     <t>SO08-E3</t>
   </si>
   <si>
-    <t>-20.0000</t>
-  </si>
-  <si>
-    <t>125.0000</t>
+    <t>140.5000</t>
+  </si>
+  <si>
+    <t>97.7000</t>
+  </si>
+  <si>
+    <t>4.4150</t>
+  </si>
+  <si>
+    <t>7.4000</t>
   </si>
   <si>
     <t>26</t>
@@ -925,10 +941,13 @@
     <t>https://www.seielect.com/catalog/sei-rncp.pdf</t>
   </si>
   <si>
-    <t>61.1900</t>
-  </si>
-  <si>
-    <t>55.6600</t>
+    <t>29.5000</t>
+  </si>
+  <si>
+    <t>2.8500</t>
+  </si>
+  <si>
+    <t>1.4000</t>
   </si>
   <si>
     <t>27</t>
@@ -943,10 +962,10 @@
     <t>https://www.seielect.com/catalog/sei-rmcf_rmcp.pdf</t>
   </si>
   <si>
-    <t>27.6950</t>
-  </si>
-  <si>
-    <t>61.9500</t>
+    <t>37.0000</t>
+  </si>
+  <si>
+    <t>102.0000</t>
   </si>
   <si>
     <t>28</t>
@@ -958,10 +977,7 @@
     <t>220</t>
   </si>
   <si>
-    <t>58.2800</t>
-  </si>
-  <si>
-    <t>56.0200</t>
+    <t>27.0000</t>
   </si>
   <si>
     <t>29</t>
@@ -991,16 +1007,16 @@
     <t>https://omronfs.omron.com/en_US/ecb/products/pdf/en-b3s.pdf</t>
   </si>
   <si>
-    <t>3.7500</t>
-  </si>
-  <si>
-    <t>8.5000</t>
-  </si>
-  <si>
-    <t>15.5000</t>
-  </si>
-  <si>
-    <t>7.5000</t>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>9.5000</t>
+  </si>
+  <si>
+    <t>5.8000</t>
   </si>
   <si>
     <t>30</t>
@@ -1012,7 +1028,7 @@
     <t>B</t>
   </si>
   <si>
-    <t>78.7500</t>
+    <t>85.0000</t>
   </si>
   <si>
     <t>31</t>
@@ -1021,7 +1037,7 @@
     <t>SW6</t>
   </si>
   <si>
-    <t>153.7500</t>
+    <t>160.0000</t>
   </si>
   <si>
     <t>32</t>
@@ -1033,7 +1049,7 @@
     <t>D</t>
   </si>
   <si>
-    <t>60.5000</t>
+    <t>58.0000</t>
   </si>
   <si>
     <t>SW2</t>
@@ -1111,13 +1127,16 @@
     <t>https://www.diodes.com/assets/Datasheets/74AHCT1G32.pdf</t>
   </si>
   <si>
-    <t>52.9500</t>
-  </si>
-  <si>
-    <t>77.9500</t>
-  </si>
-  <si>
-    <t>2.5500</t>
+    <t>51.3500</t>
+  </si>
+  <si>
+    <t>78.0500</t>
+  </si>
+  <si>
+    <t>3.0480</t>
+  </si>
+  <si>
+    <t>1.6764</t>
   </si>
   <si>
     <t>38</t>
@@ -1171,16 +1190,16 @@
     <t>https://toshiba.semicon-storage.com/info/docget.jsp?did=28819&amp;prodName=TLP2761</t>
   </si>
   <si>
-    <t>49.4750</t>
-  </si>
-  <si>
-    <t>59.2000</t>
-  </si>
-  <si>
-    <t>10.0200</t>
-  </si>
-  <si>
-    <t>6.6800</t>
+    <t>29.0000</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
+    <t>10.8000</t>
+  </si>
+  <si>
+    <t>3.3400</t>
   </si>
   <si>
     <t>KiBot Bill of Materials</t>
@@ -1222,37 +1241,16 @@
     <t>Component Count:</t>
   </si>
   <si>
-    <t>83 (5 SMD/ 75 THT)</t>
+    <t>71 (44 SMD/ 25 THT)</t>
   </si>
   <si>
     <t>Fitted Components:</t>
   </si>
   <si>
-    <t>77 (5 SMD/ 69 THT)</t>
-  </si>
-  <si>
     <t>Number of PCBs:</t>
   </si>
   <si>
     <t>Total Components:</t>
-  </si>
-  <si>
-    <t>D5 D6 D7 D8 D9 D10</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (DNF)</t>
-  </si>
-  <si>
-    <t>144.1000</t>
-  </si>
-  <si>
-    <t>46.0000</t>
-  </si>
-  <si>
-    <t>no</t>
   </si>
   <si>
     <t>KiCad Fields (default)</t>
@@ -1425,58 +1423,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1464384</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>123779</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-            <a:ext uri="{C183D7F6-B498-43B3-948B-1728B52AA6E4}">
-              <adec:decorative xmlns:adec="http://schemas.microsoft.com/office/drawing/2017/decorative" val="1"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="2378784" cy="1285829"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1826,7 +1772,7 @@
     <col min="2" max="2" width="60.7109375" customWidth="1"/>
     <col min="3" max="3" width="26.7109375" customWidth="1"/>
     <col min="4" max="4" width="31.7109375" customWidth="1"/>
-    <col min="5" max="5" width="43.7109375" customWidth="1"/>
+    <col min="5" max="5" width="28.7109375" customWidth="1"/>
     <col min="6" max="6" width="28.7109375" customWidth="1"/>
     <col min="7" max="7" width="60.7109375" customWidth="1"/>
     <col min="8" max="8" width="31.7109375" customWidth="1"/>
@@ -1835,7 +1781,7 @@
     <col min="11" max="11" width="16.7109375" customWidth="1"/>
     <col min="12" max="12" width="60.7109375" customWidth="1"/>
     <col min="13" max="13" width="19.7109375" customWidth="1"/>
-    <col min="14" max="14" width="22.7109375" customWidth="1"/>
+    <col min="14" max="14" width="21.7109375" customWidth="1"/>
     <col min="15" max="15" width="21.7109375" customWidth="1"/>
     <col min="16" max="16" width="21.7109375" customWidth="1"/>
     <col min="17" max="17" width="23.7109375" customWidth="1"/>
@@ -1848,7 +1794,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1872,55 +1818,55 @@
     </row>
     <row r="2" spans="1:22">
       <c r="C2" s="2" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="F2" s="3">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:22">
       <c r="C3" s="2" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="C4" s="2" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="C5" s="2" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1928,16 +1874,16 @@
     </row>
     <row r="6" spans="1:22">
       <c r="C6" s="2" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="F6" s="3">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -2141,12 +2087,12 @@
         <v>53</v>
       </c>
       <c r="V10" s="10" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="30" customHeight="1">
       <c r="A11" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>23</v>
@@ -2158,10 +2104,10 @@
         <v>25</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>45</v>
@@ -2170,28 +2116,28 @@
         <v>29</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K11" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M11" s="7" t="s">
         <v>33</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>52</v>
@@ -2206,60 +2152,60 @@
         <v>40</v>
       </c>
       <c r="U11" s="7" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="V11" s="7" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="30" customHeight="1">
       <c r="A12" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H12" s="10" t="s">
         <v>29</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K12" s="8" t="s">
         <v>31</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M12" s="10" t="s">
         <v>33</v>
       </c>
       <c r="N12" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O12" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P12" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q12" s="10" t="s">
         <v>52</v>
@@ -2274,60 +2220,60 @@
         <v>40</v>
       </c>
       <c r="U12" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V12" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="30" customHeight="1">
       <c r="A13" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D13" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>74</v>
-      </c>
       <c r="G13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K13" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>52</v>
@@ -2342,36 +2288,36 @@
         <v>40</v>
       </c>
       <c r="U13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="V13" s="7" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="30" customHeight="1">
       <c r="A14" s="8" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I14" s="8" t="s">
         <v>22</v>
@@ -2383,19 +2329,19 @@
         <v>31</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M14" s="10" t="s">
         <v>48</v>
       </c>
       <c r="N14" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O14" s="10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P14" s="10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q14" s="10" t="s">
         <v>97</v>
@@ -2413,33 +2359,33 @@
         <v>98</v>
       </c>
       <c r="V14" s="10" t="s">
-        <v>42</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="30" customHeight="1">
       <c r="A15" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>22</v>
@@ -2451,22 +2397,22 @@
         <v>31</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M15" s="7" t="s">
         <v>48</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="R15" s="7" t="s">
         <v>38</v>
@@ -2478,10 +2424,10 @@
         <v>40</v>
       </c>
       <c r="U15" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="V15" s="7" t="s">
-        <v>110</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="30" customHeight="1">
@@ -2525,7 +2471,7 @@
         <v>33</v>
       </c>
       <c r="N16" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O16" s="10" t="s">
         <v>119</v>
@@ -2546,104 +2492,104 @@
         <v>40</v>
       </c>
       <c r="U16" s="10" t="s">
-        <v>41</v>
+        <v>121</v>
       </c>
       <c r="V16" s="10" t="s">
-        <v>42</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:22">
       <c r="A17" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K17" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L17" s="11" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M17" s="7" t="s">
         <v>48</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>97</v>
       </c>
       <c r="R17" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="S17" s="7" t="s">
-        <v>131</v>
+        <v>39</v>
       </c>
       <c r="T17" s="7" t="s">
         <v>40</v>
       </c>
       <c r="U17" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="V17" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="30" customHeight="1">
       <c r="A18" s="8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I18" s="8" t="s">
         <v>22</v>
@@ -2655,19 +2601,19 @@
         <v>31</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M18" s="10" t="s">
         <v>33</v>
       </c>
       <c r="N18" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O18" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P18" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q18" s="10" t="s">
         <v>37</v>
@@ -2676,42 +2622,42 @@
         <v>38</v>
       </c>
       <c r="S18" s="10" t="s">
-        <v>39</v>
+        <v>145</v>
       </c>
       <c r="T18" s="10" t="s">
         <v>40</v>
       </c>
       <c r="U18" s="10" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="V18" s="10" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="60" customHeight="1">
       <c r="A19" s="5" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>148</v>
-      </c>
       <c r="G19" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>22</v>
@@ -2723,87 +2669,87 @@
         <v>31</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M19" s="7" t="s">
         <v>33</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>97</v>
       </c>
       <c r="R19" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="S19" s="7" t="s">
-        <v>39</v>
+        <v>145</v>
       </c>
       <c r="T19" s="7" t="s">
         <v>40</v>
       </c>
       <c r="U19" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="V19" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="30" customHeight="1">
       <c r="A20" s="8" t="s">
-        <v>46</v>
+        <v>160</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K20" s="8" t="s">
         <v>31</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="M20" s="10" t="s">
         <v>48</v>
       </c>
       <c r="N20" s="8" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="O20" s="10" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="P20" s="10" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q20" s="10" t="s">
         <v>52</v>
@@ -2812,42 +2758,42 @@
         <v>38</v>
       </c>
       <c r="S20" s="10" t="s">
-        <v>39</v>
+        <v>145</v>
       </c>
       <c r="T20" s="10" t="s">
         <v>40</v>
       </c>
       <c r="U20" s="10" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="V20" s="10" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="30" customHeight="1">
       <c r="A21" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>22</v>
@@ -2859,87 +2805,87 @@
         <v>31</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>37</v>
       </c>
       <c r="R21" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="S21" s="7" t="s">
-        <v>39</v>
+        <v>145</v>
       </c>
       <c r="T21" s="7" t="s">
         <v>40</v>
       </c>
       <c r="U21" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="V21" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="45" customHeight="1">
       <c r="A22" s="8" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="K22" s="8" t="s">
         <v>31</v>
       </c>
       <c r="L22" s="12" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M22" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N22" s="8" t="s">
-        <v>188</v>
+        <v>49</v>
       </c>
       <c r="O22" s="10" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P22" s="10" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q22" s="10" t="s">
         <v>97</v>
@@ -2948,42 +2894,42 @@
         <v>38</v>
       </c>
       <c r="S22" s="10" t="s">
-        <v>39</v>
+        <v>145</v>
       </c>
       <c r="T22" s="10" t="s">
         <v>40</v>
       </c>
       <c r="U22" s="10" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="V22" s="10" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23" spans="1:22" ht="60" customHeight="1">
       <c r="A23" s="5" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>22</v>
@@ -2995,63 +2941,63 @@
         <v>31</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M23" s="7" t="s">
         <v>48</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>37</v>
       </c>
       <c r="R23" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="S23" s="7" t="s">
-        <v>39</v>
+        <v>145</v>
       </c>
       <c r="T23" s="7" t="s">
         <v>40</v>
       </c>
       <c r="U23" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="V23" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="30" customHeight="1">
       <c r="A24" s="8" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I24" s="8" t="s">
         <v>30</v>
@@ -3063,7 +3009,7 @@
         <v>31</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M24" s="10" t="s">
         <v>48</v>
@@ -3072,10 +3018,10 @@
         <v>34</v>
       </c>
       <c r="O24" s="10" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P24" s="10" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q24" s="10" t="s">
         <v>37</v>
@@ -3084,42 +3030,42 @@
         <v>38</v>
       </c>
       <c r="S24" s="10" t="s">
-        <v>39</v>
+        <v>145</v>
       </c>
       <c r="T24" s="10" t="s">
         <v>40</v>
       </c>
       <c r="U24" s="10" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="V24" s="10" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="25" spans="1:22">
       <c r="A25" s="5" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>30</v>
@@ -3131,7 +3077,7 @@
         <v>31</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M25" s="7" t="s">
         <v>48</v>
@@ -3140,10 +3086,10 @@
         <v>34</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>37</v>
@@ -3152,42 +3098,42 @@
         <v>38</v>
       </c>
       <c r="S25" s="7" t="s">
-        <v>131</v>
+        <v>39</v>
       </c>
       <c r="T25" s="7" t="s">
         <v>40</v>
       </c>
       <c r="U25" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="V25" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26" spans="1:22" ht="30" customHeight="1">
       <c r="A26" s="8" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I26" s="8" t="s">
         <v>22</v>
@@ -3199,63 +3145,63 @@
         <v>31</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="M26" s="10" t="s">
         <v>48</v>
       </c>
       <c r="N26" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O26" s="10" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="P26" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q26" s="10" t="s">
         <v>37</v>
       </c>
       <c r="R26" s="10" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="S26" s="10" t="s">
-        <v>39</v>
+        <v>145</v>
       </c>
       <c r="T26" s="10" t="s">
         <v>40</v>
       </c>
       <c r="U26" s="10" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="V26" s="10" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:22" ht="30" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>22</v>
@@ -3267,63 +3213,63 @@
         <v>31</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M27" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q27" s="7" t="s">
         <v>97</v>
       </c>
       <c r="R27" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="S27" s="7" t="s">
-        <v>39</v>
+        <v>145</v>
       </c>
       <c r="T27" s="7" t="s">
         <v>40</v>
       </c>
       <c r="U27" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="V27" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="28" spans="1:22">
       <c r="A28" s="8" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I28" s="8" t="s">
         <v>22</v>
@@ -3335,19 +3281,19 @@
         <v>31</v>
       </c>
       <c r="L28" s="10" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="M28" s="10" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="N28" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O28" s="10" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P28" s="10" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q28" s="10" t="s">
         <v>97</v>
@@ -3356,42 +3302,42 @@
         <v>38</v>
       </c>
       <c r="S28" s="10" t="s">
-        <v>39</v>
+        <v>145</v>
       </c>
       <c r="T28" s="10" t="s">
         <v>40</v>
       </c>
       <c r="U28" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="V28" s="10" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="29" spans="1:22" ht="30" customHeight="1">
       <c r="A29" s="5" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>22</v>
@@ -3403,63 +3349,63 @@
         <v>31</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="N29" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>52</v>
       </c>
       <c r="R29" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="S29" s="7" t="s">
-        <v>39</v>
+        <v>145</v>
       </c>
       <c r="T29" s="7" t="s">
         <v>40</v>
       </c>
       <c r="U29" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="V29" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="30" spans="1:22">
       <c r="A30" s="8" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D30" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="I30" s="8" t="s">
         <v>22</v>
@@ -3471,22 +3417,22 @@
         <v>31</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M30" s="10" t="s">
         <v>33</v>
       </c>
       <c r="N30" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O30" s="10" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="P30" s="10" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q30" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="R30" s="10" t="s">
         <v>38</v>
@@ -3498,63 +3444,63 @@
         <v>40</v>
       </c>
       <c r="U30" s="10" t="s">
-        <v>145</v>
+        <v>270</v>
       </c>
       <c r="V30" s="10" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="31" spans="1:22" ht="30" customHeight="1">
       <c r="A31" s="5" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K31" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="M31" s="7" t="s">
         <v>48</v>
       </c>
       <c r="N31" s="5" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="R31" s="7" t="s">
         <v>38</v>
@@ -3566,36 +3512,36 @@
         <v>40</v>
       </c>
       <c r="U31" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="V31" s="7" t="s">
-        <v>42</v>
+        <v>282</v>
       </c>
     </row>
     <row r="32" spans="1:22">
       <c r="A32" s="8" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I32" s="8" t="s">
         <v>22</v>
@@ -3607,63 +3553,63 @@
         <v>31</v>
       </c>
       <c r="L32" s="10" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="M32" s="10" t="s">
         <v>33</v>
       </c>
       <c r="N32" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O32" s="10" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="P32" s="10" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q32" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="R32" s="10" t="s">
         <v>38</v>
       </c>
       <c r="S32" s="10" t="s">
-        <v>39</v>
+        <v>145</v>
       </c>
       <c r="T32" s="10" t="s">
         <v>40</v>
       </c>
       <c r="U32" s="10" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="V32" s="10" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="33" spans="1:22">
       <c r="A33" s="5" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>22</v>
@@ -3675,19 +3621,19 @@
         <v>31</v>
       </c>
       <c r="L33" s="11" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="M33" s="7" t="s">
         <v>33</v>
       </c>
       <c r="N33" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q33" s="7" t="s">
         <v>52</v>
@@ -3696,42 +3642,42 @@
         <v>38</v>
       </c>
       <c r="S33" s="7" t="s">
-        <v>131</v>
+        <v>39</v>
       </c>
       <c r="T33" s="7" t="s">
         <v>40</v>
       </c>
       <c r="U33" s="7" t="s">
-        <v>52</v>
+        <v>298</v>
       </c>
       <c r="V33" s="7" t="s">
-        <v>52</v>
+        <v>299</v>
       </c>
     </row>
     <row r="34" spans="1:22">
       <c r="A34" s="8" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="D34" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="I34" s="8" t="s">
         <v>22</v>
@@ -3743,19 +3689,19 @@
         <v>31</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="M34" s="10" t="s">
         <v>48</v>
       </c>
       <c r="N34" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O34" s="10" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="P34" s="10" t="s">
-        <v>302</v>
+        <v>280</v>
       </c>
       <c r="Q34" s="10" t="s">
         <v>52</v>
@@ -3770,36 +3716,36 @@
         <v>40</v>
       </c>
       <c r="U34" s="10" t="s">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="V34" s="10" t="s">
-        <v>42</v>
+        <v>309</v>
       </c>
     </row>
     <row r="35" spans="1:22">
       <c r="A35" s="5" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="H35" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>22</v>
@@ -3811,19 +3757,19 @@
         <v>31</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="M35" s="7" t="s">
         <v>48</v>
       </c>
       <c r="N35" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="Q35" s="7" t="s">
         <v>52</v>
@@ -3838,36 +3784,36 @@
         <v>40</v>
       </c>
       <c r="U35" s="7" t="s">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="V35" s="7" t="s">
-        <v>42</v>
+        <v>309</v>
       </c>
     </row>
     <row r="36" spans="1:22">
       <c r="A36" s="8" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="D36" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="I36" s="8" t="s">
         <v>30</v>
@@ -3879,7 +3825,7 @@
         <v>31</v>
       </c>
       <c r="L36" s="10" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="M36" s="10" t="s">
         <v>48</v>
@@ -3888,10 +3834,10 @@
         <v>34</v>
       </c>
       <c r="O36" s="10" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="P36" s="10" t="s">
-        <v>313</v>
+        <v>97</v>
       </c>
       <c r="Q36" s="10" t="s">
         <v>37</v>
@@ -3906,36 +3852,36 @@
         <v>40</v>
       </c>
       <c r="U36" s="10" t="s">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="V36" s="10" t="s">
-        <v>42</v>
+        <v>309</v>
       </c>
     </row>
     <row r="37" spans="1:22">
       <c r="A37" s="5" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="I37" s="5" t="s">
         <v>22</v>
@@ -3947,19 +3893,19 @@
         <v>31</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="M37" s="7" t="s">
         <v>48</v>
       </c>
       <c r="N37" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>52</v>
@@ -3974,36 +3920,36 @@
         <v>40</v>
       </c>
       <c r="U37" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="V37" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="38" spans="1:22">
       <c r="A38" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="H38" s="10" t="s">
         <v>327</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>316</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="F38" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>320</v>
-      </c>
-      <c r="H38" s="10" t="s">
-        <v>321</v>
       </c>
       <c r="I38" s="8" t="s">
         <v>22</v>
@@ -4015,19 +3961,19 @@
         <v>31</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="M38" s="10" t="s">
         <v>48</v>
       </c>
       <c r="N38" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O38" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="P38" s="10" t="s">
         <v>330</v>
-      </c>
-      <c r="P38" s="10" t="s">
-        <v>324</v>
       </c>
       <c r="Q38" s="10" t="s">
         <v>52</v>
@@ -4042,36 +3988,36 @@
         <v>40</v>
       </c>
       <c r="U38" s="10" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="V38" s="10" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="39" spans="1:22">
       <c r="A39" s="5" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="I39" s="5" t="s">
         <v>22</v>
@@ -4083,19 +4029,19 @@
         <v>31</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="M39" s="7" t="s">
         <v>48</v>
       </c>
       <c r="N39" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="Q39" s="7" t="s">
         <v>52</v>
@@ -4110,36 +4056,36 @@
         <v>40</v>
       </c>
       <c r="U39" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="V39" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="40" spans="1:22">
       <c r="A40" s="8" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="I40" s="8" t="s">
         <v>22</v>
@@ -4151,19 +4097,19 @@
         <v>31</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="M40" s="10" t="s">
         <v>48</v>
       </c>
       <c r="N40" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O40" s="10" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="P40" s="10" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="Q40" s="10" t="s">
         <v>52</v>
@@ -4178,36 +4124,36 @@
         <v>40</v>
       </c>
       <c r="U40" s="10" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="V40" s="10" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="41" spans="1:22">
       <c r="A41" s="5" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="I41" s="5" t="s">
         <v>22</v>
@@ -4219,19 +4165,19 @@
         <v>31</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="M41" s="7" t="s">
         <v>48</v>
       </c>
       <c r="N41" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="Q41" s="7" t="s">
         <v>52</v>
@@ -4246,36 +4192,36 @@
         <v>40</v>
       </c>
       <c r="U41" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="V41" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="42" spans="1:22">
       <c r="A42" s="8" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="I42" s="8" t="s">
         <v>22</v>
@@ -4287,19 +4233,19 @@
         <v>31</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="M42" s="10" t="s">
         <v>48</v>
       </c>
       <c r="N42" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O42" s="10" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="P42" s="10" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="Q42" s="10" t="s">
         <v>52</v>
@@ -4314,36 +4260,36 @@
         <v>40</v>
       </c>
       <c r="U42" s="10" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="V42" s="10" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="43" spans="1:22" ht="30" customHeight="1">
       <c r="A43" s="5" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I43" s="5" t="s">
         <v>22</v>
@@ -4355,19 +4301,19 @@
         <v>31</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="M43" s="7" t="s">
         <v>48</v>
       </c>
       <c r="N43" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="Q43" s="7" t="s">
         <v>52</v>
@@ -4376,42 +4322,42 @@
         <v>38</v>
       </c>
       <c r="S43" s="7" t="s">
-        <v>39</v>
+        <v>145</v>
       </c>
       <c r="T43" s="7" t="s">
         <v>40</v>
       </c>
       <c r="U43" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="V43" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
     </row>
     <row r="44" spans="1:22" ht="30" customHeight="1">
       <c r="A44" s="8" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="D44" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I44" s="8" t="s">
         <v>22</v>
@@ -4423,19 +4369,19 @@
         <v>31</v>
       </c>
       <c r="L44" s="10" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="M44" s="10" t="s">
         <v>48</v>
       </c>
       <c r="N44" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O44" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="P44" s="10" t="s">
         <v>357</v>
-      </c>
-      <c r="P44" s="10" t="s">
-        <v>351</v>
       </c>
       <c r="Q44" s="10" t="s">
         <v>52</v>
@@ -4444,42 +4390,42 @@
         <v>38</v>
       </c>
       <c r="S44" s="10" t="s">
-        <v>39</v>
+        <v>145</v>
       </c>
       <c r="T44" s="10" t="s">
         <v>40</v>
       </c>
       <c r="U44" s="10" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="V44" s="10" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
     </row>
     <row r="45" spans="1:22">
       <c r="A45" s="5" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I45" s="5" t="s">
         <v>22</v>
@@ -4491,19 +4437,19 @@
         <v>31</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="M45" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N45" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="Q45" s="7" t="s">
         <v>37</v>
@@ -4512,42 +4458,42 @@
         <v>38</v>
       </c>
       <c r="S45" s="7" t="s">
-        <v>131</v>
+        <v>39</v>
       </c>
       <c r="T45" s="7" t="s">
         <v>40</v>
       </c>
       <c r="U45" s="7" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="V45" s="7" t="s">
-        <v>156</v>
+        <v>372</v>
       </c>
     </row>
     <row r="46" spans="1:22" ht="30" customHeight="1">
       <c r="A46" s="8" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I46" s="8" t="s">
         <v>22</v>
@@ -4559,63 +4505,63 @@
         <v>31</v>
       </c>
       <c r="L46" s="10" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="M46" s="10" t="s">
         <v>48</v>
       </c>
       <c r="N46" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O46" s="10" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="P46" s="10" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="Q46" s="10" t="s">
         <v>97</v>
       </c>
       <c r="R46" s="10" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="S46" s="10" t="s">
-        <v>39</v>
+        <v>145</v>
       </c>
       <c r="T46" s="10" t="s">
         <v>40</v>
       </c>
       <c r="U46" s="10" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="V46" s="10" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="47" spans="1:22" ht="30" customHeight="1">
       <c r="A47" s="5" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="I47" s="5" t="s">
         <v>22</v>
@@ -4627,22 +4573,22 @@
         <v>31</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="M47" s="7" t="s">
         <v>48</v>
       </c>
       <c r="N47" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="R47" s="7" t="s">
         <v>38</v>
@@ -4654,10 +4600,10 @@
         <v>40</v>
       </c>
       <c r="U47" s="7" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="V47" s="7" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
     </row>
   </sheetData>
@@ -4671,281 +4617,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="39.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" customWidth="1"/>
-    <col min="7" max="7" width="38.7109375" customWidth="1"/>
-    <col min="8" max="8" width="23.7109375" customWidth="1"/>
-    <col min="9" max="9" width="26.7109375" customWidth="1"/>
-    <col min="10" max="10" width="24.7109375" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" customWidth="1"/>
-    <col min="12" max="12" width="60.7109375" customWidth="1"/>
-    <col min="13" max="13" width="19.7109375" customWidth="1"/>
-    <col min="14" max="14" width="21.7109375" customWidth="1"/>
-    <col min="15" max="15" width="21.7109375" customWidth="1"/>
-    <col min="16" max="16" width="21.7109375" customWidth="1"/>
-    <col min="17" max="17" width="23.7109375" customWidth="1"/>
-    <col min="18" max="18" width="24.7109375" customWidth="1"/>
-    <col min="19" max="19" width="24.7109375" customWidth="1"/>
-    <col min="20" max="20" width="28.7109375" customWidth="1"/>
-    <col min="21" max="21" width="26.7109375" customWidth="1"/>
-    <col min="22" max="22" width="26.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:22" ht="32" customHeight="1">
-      <c r="C1" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-    </row>
-    <row r="2" spans="1:22">
-      <c r="C2" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="F2" s="3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22">
-      <c r="C3" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22">
-      <c r="C4" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22">
-      <c r="C5" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="F5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22">
-      <c r="C6" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="F6" s="3">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22">
-      <c r="A8" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="R8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="T8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="U8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="V8" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" ht="30" customHeight="1">
-      <c r="A9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>406</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="R9" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="S9" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="T9" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="U9" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="V9" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C1:V1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A4"/>
   <sheetViews>

--- a/latest/BoM/Positional/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Positional/pedalboard-hw-bom.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="414">
   <si>
     <t>Row</t>
   </si>
@@ -125,10 +125,10 @@
     <t>pedalboard-hw(2)</t>
   </si>
   <si>
-    <t>129.4500</t>
-  </si>
-  <si>
-    <t>74.2500</t>
+    <t>135.1000</t>
+  </si>
+  <si>
+    <t>76.0500</t>
   </si>
   <si>
     <t>180.0000</t>
@@ -170,42 +170,45 @@
     <t>pedalboard-hw(6)</t>
   </si>
   <si>
-    <t>47.5000</t>
-  </si>
-  <si>
-    <t>101.5000</t>
+    <t>19.3000</t>
+  </si>
+  <si>
+    <t>84.7000</t>
+  </si>
+  <si>
+    <t>270.0000</t>
+  </si>
+  <si>
+    <t>2.9000</t>
+  </si>
+  <si>
+    <t>1.4500</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>C16 C17 C20</t>
+  </si>
+  <si>
+    <t>4.7uF</t>
+  </si>
+  <si>
+    <t>https://search.murata.co.jp/Ceramy/image/img/A01X/G101/ENG/GRM21BZ71H475ME15-01.pdf</t>
+  </si>
+  <si>
+    <t>pedalboard-hw(3)</t>
+  </si>
+  <si>
+    <t>138.6500</t>
+  </si>
+  <si>
+    <t>81.1500</t>
   </si>
   <si>
     <t>0.0000</t>
   </si>
   <si>
-    <t>2.9000</t>
-  </si>
-  <si>
-    <t>1.4500</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>C16 C17 C20</t>
-  </si>
-  <si>
-    <t>4.7uF</t>
-  </si>
-  <si>
-    <t>https://search.murata.co.jp/Ceramy/image/img/A01X/G101/ENG/GRM21BZ71H475ME15-01.pdf</t>
-  </si>
-  <si>
-    <t>pedalboard-hw(3)</t>
-  </si>
-  <si>
-    <t>138.6500</t>
-  </si>
-  <si>
-    <t>81.1500</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
@@ -227,10 +230,10 @@
     <t>https://connect.kemet.com:7667/gateway/IntelliData-ComponentDocumentation/1.0/download/datasheet/A768MS277M1GLAE022</t>
   </si>
   <si>
-    <t>140.5323</t>
-  </si>
-  <si>
-    <t>87.5000</t>
+    <t>142.8000</t>
+  </si>
+  <si>
+    <t>87.5325</t>
   </si>
   <si>
     <t>12.0000</t>
@@ -308,114 +311,114 @@
     <t>pedalboard-hw(1)</t>
   </si>
   <si>
-    <t>23.0000</t>
+    <t>24.2000</t>
+  </si>
+  <si>
+    <t>92.6000</t>
+  </si>
+  <si>
+    <t>3.9000</t>
+  </si>
+  <si>
+    <t>1.1000</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>20V 1A Schottky Barrier Rectifier Diode, DO-41</t>
+  </si>
+  <si>
+    <t>1N5817</t>
+  </si>
+  <si>
+    <t>D13</t>
+  </si>
+  <si>
+    <t>SS34HF</t>
+  </si>
+  <si>
+    <t>D_SMA</t>
+  </si>
+  <si>
+    <t>https://www.comchiptech.com/admin/files/product/20190514101641.pdf</t>
+  </si>
+  <si>
+    <t>113.6500</t>
+  </si>
+  <si>
+    <t>75.7000</t>
+  </si>
+  <si>
+    <t>6.5000</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Resettable fuse, polymeric positive temperature coefficient</t>
+  </si>
+  <si>
+    <t>Polyfuse</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>Polyfuse 1.8A</t>
+  </si>
+  <si>
+    <t>Fuse_1812_4532Metric</t>
+  </si>
+  <si>
+    <t>Fuse</t>
+  </si>
+  <si>
+    <t>https://www.littelfuse.com/~/media/electronics/datasheets/resettable_ptcs/littelfuse_ptc_1812l_datasheet.pdf.pdf</t>
+  </si>
+  <si>
+    <t>149.7000</t>
+  </si>
+  <si>
+    <t>96.2500</t>
+  </si>
+  <si>
+    <t>5.4000</t>
+  </si>
+  <si>
+    <t>3.4000</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Fuse, small symbol</t>
+  </si>
+  <si>
+    <t>Fuse_Small</t>
+  </si>
+  <si>
+    <t>F2 F3 F4 F5</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t>Trace_Fuse</t>
+  </si>
+  <si>
+    <t>Pedalboard Library</t>
+  </si>
+  <si>
+    <t>66.9900</t>
+  </si>
+  <si>
+    <t>50.3100</t>
   </si>
   <si>
     <t>90.0000</t>
   </si>
   <si>
-    <t>3.9000</t>
-  </si>
-  <si>
-    <t>1.1000</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>20V 1A Schottky Barrier Rectifier Diode, DO-41</t>
-  </si>
-  <si>
-    <t>1N5817</t>
-  </si>
-  <si>
-    <t>D13</t>
-  </si>
-  <si>
-    <t>SS34HF</t>
-  </si>
-  <si>
-    <t>D_SMA</t>
-  </si>
-  <si>
-    <t>https://www.comchiptech.com/admin/files/product/20190514101641.pdf</t>
-  </si>
-  <si>
-    <t>129.6060</t>
-  </si>
-  <si>
-    <t>81.9216</t>
-  </si>
-  <si>
-    <t>270.0000</t>
-  </si>
-  <si>
-    <t>6.5000</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>Resettable fuse, polymeric positive temperature coefficient</t>
-  </si>
-  <si>
-    <t>Polyfuse</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>Polyfuse 1.8A</t>
-  </si>
-  <si>
-    <t>Fuse_1812_4532Metric</t>
-  </si>
-  <si>
-    <t>Fuse</t>
-  </si>
-  <si>
-    <t>https://www.littelfuse.com/~/media/electronics/datasheets/resettable_ptcs/littelfuse_ptc_1812l_datasheet.pdf.pdf</t>
-  </si>
-  <si>
-    <t>149.7000</t>
-  </si>
-  <si>
-    <t>96.2500</t>
-  </si>
-  <si>
-    <t>5.4000</t>
-  </si>
-  <si>
-    <t>3.4000</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>Fuse, small symbol</t>
-  </si>
-  <si>
-    <t>Fuse_Small</t>
-  </si>
-  <si>
-    <t>F2 F3 F4 F5</t>
-  </si>
-  <si>
-    <t>~</t>
-  </si>
-  <si>
-    <t>Trace_Fuse</t>
-  </si>
-  <si>
-    <t>Pedalboard Library</t>
-  </si>
-  <si>
-    <t>66.9900</t>
-  </si>
-  <si>
-    <t>50.3100</t>
-  </si>
-  <si>
     <t>bottom</t>
   </si>
   <si>
@@ -488,10 +491,10 @@
     <t>https://cdn.amphenol-cs.com/media/wysiwyg/files/drawing/68015.pdf</t>
   </si>
   <si>
-    <t>118.0000</t>
-  </si>
-  <si>
-    <t>67.8250</t>
+    <t>115.0750</t>
+  </si>
+  <si>
+    <t>65.1500</t>
   </si>
   <si>
     <t>1.7000</t>
@@ -605,10 +608,10 @@
     <t>15</t>
   </si>
   <si>
-    <t>Generic connector, double row, 02x03, top/bottom pin numbering scheme (row 1: 1...pins_per_row, row2: pins_per_row+1 ... num_pins), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
-    <t>Conn_02x03_Top_Bottom</t>
+    <t>Generic connector, double row, 02x03, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+  </si>
+  <si>
+    <t>Conn_02x03_Odd_Even</t>
   </si>
   <si>
     <t>J15</t>
@@ -620,13 +623,10 @@
     <t>PinHeader_2x03_P2.54mm_Horizontal</t>
   </si>
   <si>
-    <t>https://www.we-online.com/components/products/datasheet/6130xx21021.pdf</t>
-  </si>
-  <si>
-    <t>15.6500</t>
-  </si>
-  <si>
-    <t>94.0250</t>
+    <t>24.8500</t>
+  </si>
+  <si>
+    <t>80.0750</t>
   </si>
   <si>
     <t>6.7800</t>
@@ -743,10 +743,10 @@
     <t>https://www.we-online.com/components/products/datasheet/6130xx11021.pdf</t>
   </si>
   <si>
-    <t>35.8650</t>
-  </si>
-  <si>
-    <t>42.0374</t>
+    <t>23.5250</t>
+  </si>
+  <si>
+    <t>1.9750</t>
   </si>
   <si>
     <t>20</t>
@@ -824,10 +824,10 @@
     <t>https://www.bourns.com/docs/product-datasheets/srp3212.pdf</t>
   </si>
   <si>
-    <t>134.5000</t>
-  </si>
-  <si>
-    <t>80.0000</t>
+    <t>135.3000</t>
+  </si>
+  <si>
+    <t>82.4000</t>
   </si>
   <si>
     <t>4.0500</t>
@@ -857,10 +857,10 @@
     <t>https://www.murata.com/products/productdata/8796738650142/ENFA0003.pdf</t>
   </si>
   <si>
-    <t>34.5000</t>
-  </si>
-  <si>
-    <t>93.0000</t>
+    <t>21.1250</t>
+  </si>
+  <si>
+    <t>92.3750</t>
   </si>
   <si>
     <t>2.4500</t>
@@ -887,10 +887,10 @@
     <t>https://www.cui.com/product/resource/pdqe15-d.pdf</t>
   </si>
   <si>
-    <t>114.8000</t>
-  </si>
-  <si>
-    <t>43.3200</t>
+    <t>115.3700</t>
+  </si>
+  <si>
+    <t>49.0043</t>
   </si>
   <si>
     <t>22.5700</t>
@@ -908,9 +908,6 @@
     <t>SO08-E3</t>
   </si>
   <si>
-    <t>140.5000</t>
-  </si>
-  <si>
     <t>97.7000</t>
   </si>
   <si>
@@ -941,7 +938,10 @@
     <t>https://www.seielect.com/catalog/sei-rncp.pdf</t>
   </si>
   <si>
-    <t>29.5000</t>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>82.1000</t>
   </si>
   <si>
     <t>2.8500</t>
@@ -962,10 +962,7 @@
     <t>https://www.seielect.com/catalog/sei-rmcf_rmcp.pdf</t>
   </si>
   <si>
-    <t>37.0000</t>
-  </si>
-  <si>
-    <t>102.0000</t>
+    <t>84.2750</t>
   </si>
   <si>
     <t>28</t>
@@ -977,7 +974,10 @@
     <t>220</t>
   </si>
   <si>
-    <t>27.0000</t>
+    <t>21.3250</t>
+  </si>
+  <si>
+    <t>94.0750</t>
   </si>
   <si>
     <t>29</t>
@@ -1127,7 +1127,7 @@
     <t>https://www.diodes.com/assets/Datasheets/74AHCT1G32.pdf</t>
   </si>
   <si>
-    <t>51.3500</t>
+    <t>51.3000</t>
   </si>
   <si>
     <t>78.0500</t>
@@ -1190,10 +1190,7 @@
     <t>https://toshiba.semicon-storage.com/info/docget.jsp?did=28819&amp;prodName=TLP2761</t>
   </si>
   <si>
-    <t>29.0000</t>
-  </si>
-  <si>
-    <t>100.0000</t>
+    <t>31.0000</t>
   </si>
   <si>
     <t>10.8000</t>
@@ -1770,7 +1767,7 @@
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1"/>
     <col min="4" max="4" width="31.7109375" customWidth="1"/>
     <col min="5" max="5" width="28.7109375" customWidth="1"/>
     <col min="6" max="6" width="28.7109375" customWidth="1"/>
@@ -1794,7 +1791,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1818,13 +1815,13 @@
     </row>
     <row r="2" spans="1:22">
       <c r="C2" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>396</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F2" s="3">
         <v>39</v>
@@ -1832,41 +1829,41 @@
     </row>
     <row r="3" spans="1:22">
       <c r="C3" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>398</v>
-      </c>
       <c r="E3" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>406</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="C4" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>400</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="C5" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>402</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1874,13 +1871,13 @@
     </row>
     <row r="6" spans="1:22">
       <c r="C6" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>404</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F6" s="3">
         <v>71</v>
@@ -2140,7 +2137,7 @@
         <v>61</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="R11" s="7" t="s">
         <v>38</v>
@@ -2160,25 +2157,25 @@
     </row>
     <row r="12" spans="1:22" ht="30" customHeight="1">
       <c r="A12" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H12" s="10" t="s">
         <v>29</v>
@@ -2193,7 +2190,7 @@
         <v>31</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M12" s="10" t="s">
         <v>33</v>
@@ -2202,10 +2199,10 @@
         <v>59</v>
       </c>
       <c r="O12" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P12" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q12" s="10" t="s">
         <v>52</v>
@@ -2220,63 +2217,63 @@
         <v>40</v>
       </c>
       <c r="U12" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V12" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="30" customHeight="1">
       <c r="A13" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D13" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>75</v>
-      </c>
       <c r="G13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K13" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="R13" s="7" t="s">
         <v>38</v>
@@ -2288,10 +2285,10 @@
         <v>40</v>
       </c>
       <c r="U13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="V13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="30" customHeight="1">
@@ -2299,25 +2296,25 @@
         <v>46</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I14" s="8" t="s">
         <v>22</v>
@@ -2329,22 +2326,22 @@
         <v>31</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M14" s="10" t="s">
         <v>48</v>
       </c>
       <c r="N14" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O14" s="10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P14" s="10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q14" s="10" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="R14" s="10" t="s">
         <v>38</v>
@@ -2356,36 +2353,36 @@
         <v>40</v>
       </c>
       <c r="U14" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="V14" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="30" customHeight="1">
       <c r="A15" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>22</v>
@@ -2397,22 +2394,22 @@
         <v>31</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M15" s="7" t="s">
         <v>48</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>109</v>
+        <v>52</v>
       </c>
       <c r="R15" s="7" t="s">
         <v>38</v>
@@ -2471,7 +2468,7 @@
         <v>33</v>
       </c>
       <c r="N16" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O16" s="10" t="s">
         <v>119</v>
@@ -2524,10 +2521,10 @@
         <v>129</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K17" s="5" t="s">
         <v>31</v>
@@ -2539,7 +2536,7 @@
         <v>48</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>130</v>
@@ -2548,10 +2545,10 @@
         <v>131</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="R17" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="S17" s="7" t="s">
         <v>39</v>
@@ -2560,33 +2557,33 @@
         <v>40</v>
       </c>
       <c r="U17" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="V17" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="30" customHeight="1">
       <c r="A18" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H18" s="10" t="s">
         <v>129</v>
@@ -2601,19 +2598,19 @@
         <v>31</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M18" s="10" t="s">
         <v>33</v>
       </c>
       <c r="N18" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O18" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P18" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q18" s="10" t="s">
         <v>37</v>
@@ -2622,42 +2619,42 @@
         <v>38</v>
       </c>
       <c r="S18" s="10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="T18" s="10" t="s">
         <v>40</v>
       </c>
       <c r="U18" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="V18" s="10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="60" customHeight="1">
       <c r="A19" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D19" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>150</v>
-      </c>
       <c r="G19" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>22</v>
@@ -2669,128 +2666,128 @@
         <v>31</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M19" s="7" t="s">
         <v>33</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="R19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="S19" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="T19" s="7" t="s">
         <v>40</v>
       </c>
       <c r="U19" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="V19" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="30" customHeight="1">
       <c r="A20" s="8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H20" s="10" t="s">
         <v>129</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K20" s="8" t="s">
         <v>31</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M20" s="10" t="s">
         <v>48</v>
       </c>
       <c r="N20" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O20" s="10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P20" s="10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q20" s="10" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="R20" s="10" t="s">
         <v>38</v>
       </c>
       <c r="S20" s="10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="T20" s="10" t="s">
         <v>40</v>
       </c>
       <c r="U20" s="10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="V20" s="10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="30" customHeight="1">
       <c r="A21" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>129</v>
@@ -2805,60 +2802,60 @@
         <v>31</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>37</v>
       </c>
       <c r="R21" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="S21" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="T21" s="7" t="s">
         <v>40</v>
       </c>
       <c r="U21" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="V21" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="45" customHeight="1">
       <c r="A22" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H22" s="10" t="s">
         <v>129</v>
@@ -2876,60 +2873,60 @@
         <v>127</v>
       </c>
       <c r="M22" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N22" s="8" t="s">
         <v>49</v>
       </c>
       <c r="O22" s="10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P22" s="10" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q22" s="10" t="s">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="R22" s="10" t="s">
         <v>38</v>
       </c>
       <c r="S22" s="10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="T22" s="10" t="s">
         <v>40</v>
       </c>
       <c r="U22" s="10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="V22" s="10" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" ht="60" customHeight="1">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="45" customHeight="1">
       <c r="A23" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>22</v>
@@ -2940,14 +2937,14 @@
       <c r="K23" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L23" s="7" t="s">
-        <v>200</v>
+      <c r="L23" s="11" t="s">
+        <v>127</v>
       </c>
       <c r="M23" s="7" t="s">
         <v>48</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>201</v>
@@ -2956,19 +2953,19 @@
         <v>202</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="R23" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="S23" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="T23" s="7" t="s">
         <v>40</v>
       </c>
       <c r="U23" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="V23" s="7" t="s">
         <v>203</v>
@@ -2985,7 +2982,7 @@
         <v>206</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>207</v>
@@ -3030,7 +3027,7 @@
         <v>38</v>
       </c>
       <c r="S24" s="10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="T24" s="10" t="s">
         <v>40</v>
@@ -3053,7 +3050,7 @@
         <v>217</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>218</v>
@@ -3121,7 +3118,7 @@
         <v>227</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>228</v>
@@ -3151,22 +3148,22 @@
         <v>48</v>
       </c>
       <c r="N26" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O26" s="10" t="s">
         <v>232</v>
       </c>
       <c r="P26" s="10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q26" s="10" t="s">
         <v>37</v>
       </c>
       <c r="R26" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="S26" s="10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="T26" s="10" t="s">
         <v>40</v>
@@ -3175,7 +3172,7 @@
         <v>233</v>
       </c>
       <c r="V26" s="10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:22" ht="30" customHeight="1">
@@ -3189,7 +3186,7 @@
         <v>236</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>237</v>
@@ -3201,7 +3198,7 @@
         <v>239</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>22</v>
@@ -3216,10 +3213,10 @@
         <v>240</v>
       </c>
       <c r="M27" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>241</v>
@@ -3228,19 +3225,19 @@
         <v>242</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="R27" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="S27" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="T27" s="7" t="s">
         <v>40</v>
       </c>
       <c r="U27" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="V27" s="7" t="s">
         <v>203</v>
@@ -3251,13 +3248,13 @@
         <v>243</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E28" s="10" t="s">
         <v>244</v>
@@ -3284,10 +3281,10 @@
         <v>247</v>
       </c>
       <c r="M28" s="10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N28" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O28" s="10" t="s">
         <v>248</v>
@@ -3296,19 +3293,19 @@
         <v>249</v>
       </c>
       <c r="Q28" s="10" t="s">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="R28" s="10" t="s">
         <v>38</v>
       </c>
       <c r="S28" s="10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="T28" s="10" t="s">
         <v>40</v>
       </c>
       <c r="U28" s="10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="V28" s="10" t="s">
         <v>250</v>
@@ -3325,7 +3322,7 @@
         <v>253</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>254</v>
@@ -3352,10 +3349,10 @@
         <v>256</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N29" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>257</v>
@@ -3364,19 +3361,19 @@
         <v>258</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="R29" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="S29" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="T29" s="7" t="s">
         <v>40</v>
       </c>
       <c r="U29" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="V29" s="7" t="s">
         <v>259</v>
@@ -3423,7 +3420,7 @@
         <v>33</v>
       </c>
       <c r="N30" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O30" s="10" t="s">
         <v>268</v>
@@ -3432,7 +3429,7 @@
         <v>269</v>
       </c>
       <c r="Q30" s="10" t="s">
-        <v>109</v>
+        <v>52</v>
       </c>
       <c r="R30" s="10" t="s">
         <v>38</v>
@@ -3476,10 +3473,10 @@
         <v>266</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K31" s="5" t="s">
         <v>31</v>
@@ -3491,7 +3488,7 @@
         <v>48</v>
       </c>
       <c r="N31" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>279</v>
@@ -3500,7 +3497,7 @@
         <v>280</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>109</v>
+        <v>37</v>
       </c>
       <c r="R31" s="7" t="s">
         <v>38</v>
@@ -3559,7 +3556,7 @@
         <v>33</v>
       </c>
       <c r="N32" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O32" s="10" t="s">
         <v>289</v>
@@ -3568,13 +3565,13 @@
         <v>290</v>
       </c>
       <c r="Q32" s="10" t="s">
-        <v>109</v>
+        <v>37</v>
       </c>
       <c r="R32" s="10" t="s">
         <v>38</v>
       </c>
       <c r="S32" s="10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="T32" s="10" t="s">
         <v>40</v>
@@ -3627,16 +3624,16 @@
         <v>33</v>
       </c>
       <c r="N33" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P33" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="P33" s="7" t="s">
-        <v>297</v>
-      </c>
       <c r="Q33" s="7" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="R33" s="7" t="s">
         <v>38</v>
@@ -3648,36 +3645,36 @@
         <v>40</v>
       </c>
       <c r="U33" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="V33" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="V33" s="7" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="34" spans="1:22">
       <c r="A34" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="B34" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="C34" s="10" t="s">
         <v>301</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>302</v>
       </c>
       <c r="D34" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E34" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="G34" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="F34" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="G34" s="10" t="s">
+      <c r="H34" s="10" t="s">
         <v>304</v>
-      </c>
-      <c r="H34" s="10" t="s">
-        <v>305</v>
       </c>
       <c r="I34" s="8" t="s">
         <v>22</v>
@@ -3689,22 +3686,22 @@
         <v>31</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="M34" s="10" t="s">
         <v>48</v>
       </c>
       <c r="N34" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O34" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="P34" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="P34" s="10" t="s">
-        <v>280</v>
-      </c>
       <c r="Q34" s="10" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="R34" s="10" t="s">
         <v>38</v>
@@ -3727,10 +3724,10 @@
         <v>310</v>
       </c>
       <c r="B35" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="C35" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>25</v>
@@ -3742,10 +3739,10 @@
         <v>312</v>
       </c>
       <c r="G35" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="H35" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>22</v>
@@ -3763,16 +3760,16 @@
         <v>48</v>
       </c>
       <c r="N35" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="P35" s="7" t="s">
-        <v>315</v>
-      </c>
       <c r="Q35" s="7" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="R35" s="7" t="s">
         <v>38</v>
@@ -3792,28 +3789,28 @@
     </row>
     <row r="36" spans="1:22">
       <c r="A36" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B36" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="C36" s="10" t="s">
         <v>301</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>302</v>
       </c>
       <c r="D36" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E36" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="F36" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="F36" s="10" t="s">
-        <v>318</v>
-      </c>
       <c r="G36" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="H36" s="10" t="s">
         <v>304</v>
-      </c>
-      <c r="H36" s="10" t="s">
-        <v>305</v>
       </c>
       <c r="I36" s="8" t="s">
         <v>30</v>
@@ -3834,13 +3831,13 @@
         <v>34</v>
       </c>
       <c r="O36" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="P36" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="P36" s="10" t="s">
-        <v>97</v>
-      </c>
       <c r="Q36" s="10" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="R36" s="10" t="s">
         <v>38</v>
@@ -3899,7 +3896,7 @@
         <v>48</v>
       </c>
       <c r="N37" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O37" s="7" t="s">
         <v>329</v>
@@ -3908,7 +3905,7 @@
         <v>330</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="R37" s="7" t="s">
         <v>38</v>
@@ -3967,7 +3964,7 @@
         <v>48</v>
       </c>
       <c r="N38" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O38" s="10" t="s">
         <v>336</v>
@@ -3976,7 +3973,7 @@
         <v>330</v>
       </c>
       <c r="Q38" s="10" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="R38" s="10" t="s">
         <v>38</v>
@@ -4035,7 +4032,7 @@
         <v>48</v>
       </c>
       <c r="N39" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>339</v>
@@ -4044,7 +4041,7 @@
         <v>330</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="R39" s="7" t="s">
         <v>38</v>
@@ -4103,7 +4100,7 @@
         <v>48</v>
       </c>
       <c r="N40" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O40" s="10" t="s">
         <v>329</v>
@@ -4112,7 +4109,7 @@
         <v>343</v>
       </c>
       <c r="Q40" s="10" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="R40" s="10" t="s">
         <v>38</v>
@@ -4171,7 +4168,7 @@
         <v>48</v>
       </c>
       <c r="N41" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O41" s="7" t="s">
         <v>336</v>
@@ -4180,7 +4177,7 @@
         <v>343</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="R41" s="7" t="s">
         <v>38</v>
@@ -4239,7 +4236,7 @@
         <v>48</v>
       </c>
       <c r="N42" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O42" s="10" t="s">
         <v>339</v>
@@ -4248,7 +4245,7 @@
         <v>343</v>
       </c>
       <c r="Q42" s="10" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="R42" s="10" t="s">
         <v>38</v>
@@ -4307,7 +4304,7 @@
         <v>48</v>
       </c>
       <c r="N43" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O43" s="7" t="s">
         <v>356</v>
@@ -4316,13 +4313,13 @@
         <v>357</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="R43" s="7" t="s">
         <v>38</v>
       </c>
       <c r="S43" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="T43" s="7" t="s">
         <v>40</v>
@@ -4375,7 +4372,7 @@
         <v>48</v>
       </c>
       <c r="N44" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O44" s="10" t="s">
         <v>363</v>
@@ -4384,13 +4381,13 @@
         <v>357</v>
       </c>
       <c r="Q44" s="10" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="R44" s="10" t="s">
         <v>38</v>
       </c>
       <c r="S44" s="10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="T44" s="10" t="s">
         <v>40</v>
@@ -4440,10 +4437,10 @@
         <v>368</v>
       </c>
       <c r="M45" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N45" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O45" s="7" t="s">
         <v>369</v>
@@ -4511,7 +4508,7 @@
         <v>48</v>
       </c>
       <c r="N46" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O46" s="10" t="s">
         <v>379</v>
@@ -4520,13 +4517,13 @@
         <v>380</v>
       </c>
       <c r="Q46" s="10" t="s">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="R46" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="S46" s="10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="T46" s="10" t="s">
         <v>40</v>
@@ -4579,16 +4576,16 @@
         <v>48</v>
       </c>
       <c r="N47" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O47" s="7" t="s">
         <v>390</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>391</v>
+        <v>98</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="R47" s="7" t="s">
         <v>38</v>
@@ -4600,10 +4597,10 @@
         <v>40</v>
       </c>
       <c r="U47" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="V47" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="V47" s="7" t="s">
-        <v>393</v>
       </c>
     </row>
   </sheetData>
@@ -4629,22 +4626,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="11" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
   </sheetData>

--- a/latest/BoM/Positional/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Positional/pedalboard-hw-bom.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="405">
   <si>
     <t>Row</t>
   </si>
@@ -392,783 +392,756 @@
     <t>9</t>
   </si>
   <si>
-    <t>Fuse, small symbol</t>
-  </si>
-  <si>
-    <t>Fuse_Small</t>
-  </si>
-  <si>
-    <t>F2 F3 F4 F5</t>
+    <t>DC Barrel Jack with an internal switch</t>
+  </si>
+  <si>
+    <t>Barrel_Jack_Switch</t>
+  </si>
+  <si>
+    <t>Connector</t>
+  </si>
+  <si>
+    <t>J13</t>
+  </si>
+  <si>
+    <t>Barrel_Jack_MountingPin</t>
+  </si>
+  <si>
+    <t>BarrelJack_Wuerth_6941xx301002</t>
+  </si>
+  <si>
+    <t>Pedalboard Library</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/components/products/datasheet/6941xx301002.pdf</t>
+  </si>
+  <si>
+    <t>159.4000</t>
+  </si>
+  <si>
+    <t>94.6000</t>
+  </si>
+  <si>
+    <t>THT</t>
+  </si>
+  <si>
+    <t>7.9000</t>
+  </si>
+  <si>
+    <t>7.6000</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Generic connector, double row, 02x01, this symbol is compatible with counter-clockwise, top-bottom and odd-even numbering schemes., script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+  </si>
+  <si>
+    <t>Conn_02x01</t>
+  </si>
+  <si>
+    <t>Connector_Generic</t>
+  </si>
+  <si>
+    <t>J14</t>
+  </si>
+  <si>
+    <t>PinHeader_1x02_P2.54mm_Horizontal</t>
+  </si>
+  <si>
+    <t>Connector_PinHeader_2.54mm</t>
+  </si>
+  <si>
+    <t>https://cdn.amphenol-cs.com/media/wysiwyg/files/drawing/68015.pdf</t>
+  </si>
+  <si>
+    <t>115.0750</t>
+  </si>
+  <si>
+    <t>65.1500</t>
+  </si>
+  <si>
+    <t>bottom</t>
+  </si>
+  <si>
+    <t>1.7000</t>
+  </si>
+  <si>
+    <t>4.2400</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>M Series, 6.35mm (1/4in) stereo jack, switched, with chrome ferrule and straight PCB pins</t>
+  </si>
+  <si>
+    <t>NMJ6HCD2</t>
+  </si>
+  <si>
+    <t>Connector_Audio</t>
+  </si>
+  <si>
+    <t>J3 J9 J10 J11 J12</t>
+  </si>
+  <si>
+    <t>EXP</t>
+  </si>
+  <si>
+    <t>Jack_6.35mm_Horizontal</t>
+  </si>
+  <si>
+    <t>https://www.schurter.com/en/datasheet/typ_4833.2320.pdf</t>
+  </si>
+  <si>
+    <t>pedalboard-hw(5)</t>
+  </si>
+  <si>
+    <t>155.6150</t>
+  </si>
+  <si>
+    <t>91.2000</t>
+  </si>
+  <si>
+    <t>15.7000</t>
+  </si>
+  <si>
+    <t>19.2300</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>expansion header for Raspberry Pi 2 &amp; 3</t>
+  </si>
+  <si>
+    <t>Raspberry_Pi_2_3</t>
+  </si>
+  <si>
+    <t>J8</t>
+  </si>
+  <si>
+    <t>HiFi Berry</t>
+  </si>
+  <si>
+    <t>HiFi Berry DAC ADC+</t>
+  </si>
+  <si>
+    <t>https://www.hifiberry.com/docs/data-sheets/datasheet-dac-adc-pro/</t>
+  </si>
+  <si>
+    <t>/Audio</t>
+  </si>
+  <si>
+    <t>100.2500</t>
+  </si>
+  <si>
+    <t>56.6244</t>
+  </si>
+  <si>
+    <t>41.4500</t>
+  </si>
+  <si>
+    <t>55.0150</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Generic connector, double row, 02x02, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+  </si>
+  <si>
+    <t>Conn_02x02_Odd_Even</t>
+  </si>
+  <si>
+    <t>J18 J19 J20 J21 J22 J23</t>
+  </si>
+  <si>
+    <t>LED-Ring</t>
+  </si>
+  <si>
+    <t>Led-Ring</t>
   </si>
   <si>
     <t>~</t>
   </si>
   <si>
-    <t>Trace_Fuse</t>
-  </si>
-  <si>
-    <t>Pedalboard Library</t>
-  </si>
-  <si>
-    <t>66.9900</t>
-  </si>
-  <si>
-    <t>50.3100</t>
+    <t>149.0000</t>
+  </si>
+  <si>
+    <t>57.0000</t>
   </si>
   <si>
     <t>90.0000</t>
   </si>
   <si>
-    <t>bottom</t>
-  </si>
-  <si>
-    <t>4.8860</t>
-  </si>
-  <si>
-    <t>1.5240</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>DC Barrel Jack with an internal switch</t>
-  </si>
-  <si>
-    <t>Barrel_Jack_Switch</t>
-  </si>
-  <si>
-    <t>Connector</t>
-  </si>
-  <si>
-    <t>J13</t>
-  </si>
-  <si>
-    <t>Barrel_Jack_MountingPin</t>
-  </si>
-  <si>
-    <t>BarrelJack_Wuerth_6941xx301002</t>
-  </si>
-  <si>
-    <t>https://www.we-online.com/components/products/datasheet/6941xx301002.pdf</t>
-  </si>
-  <si>
-    <t>159.4000</t>
-  </si>
-  <si>
-    <t>94.6000</t>
-  </si>
-  <si>
-    <t>THT</t>
-  </si>
-  <si>
-    <t>7.9000</t>
-  </si>
-  <si>
-    <t>7.6000</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>Generic connector, double row, 02x01, this symbol is compatible with counter-clockwise, top-bottom and odd-even numbering schemes., script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
-    <t>Conn_02x01</t>
-  </si>
-  <si>
-    <t>Connector_Generic</t>
-  </si>
-  <si>
-    <t>J14</t>
-  </si>
-  <si>
-    <t>PinHeader_1x02_P2.54mm_Horizontal</t>
-  </si>
-  <si>
-    <t>Connector_PinHeader_2.54mm</t>
-  </si>
-  <si>
-    <t>https://cdn.amphenol-cs.com/media/wysiwyg/files/drawing/68015.pdf</t>
-  </si>
-  <si>
-    <t>115.0750</t>
-  </si>
-  <si>
-    <t>65.1500</t>
-  </si>
-  <si>
-    <t>1.7000</t>
-  </si>
-  <si>
-    <t>4.2400</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>M Series, 6.35mm (1/4in) stereo jack, switched, with chrome ferrule and straight PCB pins</t>
-  </si>
-  <si>
-    <t>NMJ6HCD2</t>
-  </si>
-  <si>
-    <t>Connector_Audio</t>
-  </si>
-  <si>
-    <t>J3 J9 J10 J11 J12</t>
-  </si>
-  <si>
-    <t>EXP</t>
-  </si>
-  <si>
-    <t>Jack_6.35mm_Horizontal</t>
-  </si>
-  <si>
-    <t>https://www.schurter.com/en/datasheet/typ_4833.2320.pdf</t>
-  </si>
-  <si>
-    <t>pedalboard-hw(5)</t>
-  </si>
-  <si>
-    <t>155.6150</t>
-  </si>
-  <si>
-    <t>91.2000</t>
-  </si>
-  <si>
-    <t>15.7000</t>
-  </si>
-  <si>
-    <t>19.2300</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>expansion header for Raspberry Pi 2 &amp; 3</t>
-  </si>
-  <si>
-    <t>Raspberry_Pi_2_3</t>
-  </si>
-  <si>
-    <t>J8</t>
-  </si>
-  <si>
-    <t>HiFi Berry</t>
-  </si>
-  <si>
-    <t>HiFi Berry DAC ADC+</t>
-  </si>
-  <si>
-    <t>https://www.hifiberry.com/docs/data-sheets/datasheet-dac-adc-pro/</t>
-  </si>
-  <si>
-    <t>/Audio</t>
-  </si>
-  <si>
-    <t>100.2500</t>
-  </si>
-  <si>
-    <t>56.6244</t>
-  </si>
-  <si>
-    <t>41.4500</t>
-  </si>
-  <si>
-    <t>55.0150</t>
+    <t>3.3500</t>
   </si>
   <si>
     <t>14</t>
   </si>
   <si>
-    <t>Generic connector, double row, 02x02, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
-    <t>Conn_02x02_Odd_Even</t>
-  </si>
-  <si>
-    <t>J18 J19 J20 J21 J22 J23</t>
-  </si>
-  <si>
-    <t>LED-Ring</t>
-  </si>
-  <si>
-    <t>Led-Ring</t>
-  </si>
-  <si>
-    <t>149.0000</t>
-  </si>
-  <si>
-    <t>57.0000</t>
-  </si>
-  <si>
-    <t>3.3500</t>
+    <t>Generic connector, double row, 02x03, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+  </si>
+  <si>
+    <t>Conn_02x03_Odd_Even</t>
+  </si>
+  <si>
+    <t>J15</t>
+  </si>
+  <si>
+    <t>MIDI IN/OUT</t>
+  </si>
+  <si>
+    <t>PinHeader_2x03_P2.54mm_Horizontal</t>
+  </si>
+  <si>
+    <t>24.8500</t>
+  </si>
+  <si>
+    <t>80.0750</t>
+  </si>
+  <si>
+    <t>6.7800</t>
   </si>
   <si>
     <t>15</t>
   </si>
   <si>
-    <t>Generic connector, double row, 02x03, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
-    <t>Conn_02x03_Odd_Even</t>
-  </si>
-  <si>
-    <t>J15</t>
-  </si>
-  <si>
-    <t>MIDI IN/OUT</t>
-  </si>
-  <si>
-    <t>PinHeader_2x03_P2.54mm_Horizontal</t>
-  </si>
-  <si>
-    <t>24.8500</t>
-  </si>
-  <si>
-    <t>80.0750</t>
-  </si>
-  <si>
-    <t>6.7800</t>
+    <t>Audio Jack, 3 Poles (Stereo / TRS), Switched TR Poles (Normalling)</t>
+  </si>
+  <si>
+    <t>AudioJack3_SwitchTR</t>
+  </si>
+  <si>
+    <t>J16 J17</t>
+  </si>
+  <si>
+    <t>MIDI OUT J</t>
+  </si>
+  <si>
+    <t>Jack_3.5mm_CUI_SJ1-3525N_Horizontal</t>
+  </si>
+  <si>
+    <t>https://www.cuidevices.com/product/resource/sj1-352xng.pdf</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
+    <t>100.5000</t>
+  </si>
+  <si>
+    <t>11.2000</t>
+  </si>
+  <si>
+    <t>6.7000</t>
   </si>
   <si>
     <t>16</t>
   </si>
   <si>
-    <t>Audio Jack, 3 Poles (Stereo / TRS), Switched TR Poles (Normalling)</t>
-  </si>
-  <si>
-    <t>AudioJack3_SwitchTR</t>
-  </si>
-  <si>
-    <t>J16 J17</t>
-  </si>
-  <si>
-    <t>MIDI OUT J</t>
-  </si>
-  <si>
-    <t>Jack_3.5mm_CUI_SJ1-3525N_Horizontal</t>
-  </si>
-  <si>
-    <t>https://www.cuidevices.com/product/resource/sj1-352xng.pdf</t>
-  </si>
-  <si>
-    <t>96.0000</t>
-  </si>
-  <si>
-    <t>100.5000</t>
-  </si>
-  <si>
-    <t>11.2000</t>
-  </si>
-  <si>
-    <t>6.7000</t>
+    <t>5-pin DIN connector (5-pin DIN-5 stereo)</t>
+  </si>
+  <si>
+    <t>DIN-5_180degree</t>
+  </si>
+  <si>
+    <t>J1 J2</t>
+  </si>
+  <si>
+    <t>MIDI_OUT</t>
+  </si>
+  <si>
+    <t>CP-2350</t>
+  </si>
+  <si>
+    <t>https://www.switchcraft.com/assets/1/24/57PC5F_CD.pdf</t>
+  </si>
+  <si>
+    <t>103.0000</t>
+  </si>
+  <si>
+    <t>17.5000</t>
+  </si>
+  <si>
+    <t>14.7500</t>
   </si>
   <si>
     <t>17</t>
   </si>
   <si>
-    <t>5-pin DIN connector (5-pin DIN-5 stereo)</t>
-  </si>
-  <si>
-    <t>DIN-5_180degree</t>
-  </si>
-  <si>
-    <t>J1 J2</t>
-  </si>
-  <si>
-    <t>MIDI_OUT</t>
-  </si>
-  <si>
-    <t>CP-2350</t>
-  </si>
-  <si>
-    <t>https://www.switchcraft.com/assets/1/24/57PC5F_CD.pdf</t>
-  </si>
-  <si>
-    <t>103.0000</t>
-  </si>
-  <si>
-    <t>17.5000</t>
-  </si>
-  <si>
-    <t>14.7500</t>
+    <t>Generic connector, single row, 01x02, script generated</t>
+  </si>
+  <si>
+    <t>Conn_01x02_Pin</t>
+  </si>
+  <si>
+    <t>J5</t>
+  </si>
+  <si>
+    <t>Pico USB TP</t>
+  </si>
+  <si>
+    <t>Spring_Loaded_Pins_2mm</t>
+  </si>
+  <si>
+    <t>https://media.digikey.com/pdf/Data%20Sheets/Mill%20Max%20PDFs/Spring%20Loaded%20Connectors.pdf</t>
+  </si>
+  <si>
+    <t>107.0000</t>
+  </si>
+  <si>
+    <t>1.3500</t>
   </si>
   <si>
     <t>18</t>
   </si>
   <si>
-    <t>Generic connector, single row, 01x02, script generated</t>
-  </si>
-  <si>
-    <t>Conn_01x02_Pin</t>
-  </si>
-  <si>
-    <t>J5</t>
-  </si>
-  <si>
-    <t>Pico USB TP</t>
-  </si>
-  <si>
-    <t>Spring_Loaded_Pins_2mm</t>
-  </si>
-  <si>
-    <t>https://media.digikey.com/pdf/Data%20Sheets/Mill%20Max%20PDFs/Spring%20Loaded%20Connectors.pdf</t>
-  </si>
-  <si>
-    <t>107.0000</t>
-  </si>
-  <si>
-    <t>1.3500</t>
+    <t>Generic connector, single row, 01x03, script generated</t>
+  </si>
+  <si>
+    <t>Conn_01x03_Pin</t>
+  </si>
+  <si>
+    <t>J4</t>
+  </si>
+  <si>
+    <t>RGB_LED_EXT</t>
+  </si>
+  <si>
+    <t>PinHeader_1x03_P2.54mm_Horizontal</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/components/products/datasheet/6130xx11021.pdf</t>
+  </si>
+  <si>
+    <t>23.5250</t>
+  </si>
+  <si>
+    <t>1.9750</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
-    <t>Generic connector, single row, 01x03, script generated</t>
-  </si>
-  <si>
-    <t>Conn_01x03_Pin</t>
-  </si>
-  <si>
-    <t>J4</t>
-  </si>
-  <si>
-    <t>RGB_LED_EXT</t>
-  </si>
-  <si>
-    <t>PinHeader_1x03_P2.54mm_Horizontal</t>
-  </si>
-  <si>
-    <t>https://www.we-online.com/components/products/datasheet/6130xx11021.pdf</t>
-  </si>
-  <si>
-    <t>23.5250</t>
-  </si>
-  <si>
-    <t>1.9750</t>
+    <t>J7</t>
+  </si>
+  <si>
+    <t>Raspberry_pi</t>
+  </si>
+  <si>
+    <t>Raspberry PI Compute Module CM4 Nano A</t>
+  </si>
+  <si>
+    <t>https://www.waveshare.com/wiki/CM4-NANO-A</t>
+  </si>
+  <si>
+    <t>29.5900</t>
+  </si>
+  <si>
+    <t>18.6800</t>
+  </si>
+  <si>
+    <t>49.9600</t>
   </si>
   <si>
     <t>20</t>
   </si>
   <si>
-    <t>J7</t>
-  </si>
-  <si>
-    <t>Raspberry_pi</t>
-  </si>
-  <si>
-    <t>Raspberry PI Compute Module CM4 Nano A</t>
-  </si>
-  <si>
-    <t>https://www.waveshare.com/wiki/CM4-NANO-A</t>
-  </si>
-  <si>
-    <t>29.5900</t>
-  </si>
-  <si>
-    <t>18.6800</t>
-  </si>
-  <si>
-    <t>49.9600</t>
+    <t>USB Type A connector</t>
+  </si>
+  <si>
+    <t>USB_A</t>
+  </si>
+  <si>
+    <t>J6</t>
+  </si>
+  <si>
+    <t>USB A BCB Male Plug</t>
+  </si>
+  <si>
+    <t>https://media.digikey.com/pdf/Data%20Sheets/GCT%20PDFs/USB1061_Spec.pdf</t>
+  </si>
+  <si>
+    <t>93.6250</t>
+  </si>
+  <si>
+    <t>27.2200</t>
+  </si>
+  <si>
+    <t>9.3200</t>
   </si>
   <si>
     <t>21</t>
   </si>
   <si>
-    <t>USB Type A connector</t>
-  </si>
-  <si>
-    <t>USB_A</t>
-  </si>
-  <si>
-    <t>J6</t>
-  </si>
-  <si>
-    <t>USB A BCB Male Plug</t>
-  </si>
-  <si>
-    <t>https://media.digikey.com/pdf/Data%20Sheets/GCT%20PDFs/USB1061_Spec.pdf</t>
-  </si>
-  <si>
-    <t>93.6250</t>
-  </si>
-  <si>
-    <t>27.2200</t>
-  </si>
-  <si>
-    <t>9.3200</t>
+    <t>Inductor</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>L6</t>
+  </si>
+  <si>
+    <t>2.2uH</t>
+  </si>
+  <si>
+    <t>L_1210_3225Metric</t>
+  </si>
+  <si>
+    <t>Inductor_SMD</t>
+  </si>
+  <si>
+    <t>https://www.bourns.com/docs/product-datasheets/srp3212.pdf</t>
+  </si>
+  <si>
+    <t>135.3000</t>
+  </si>
+  <si>
+    <t>82.4000</t>
+  </si>
+  <si>
+    <t>4.0500</t>
+  </si>
+  <si>
+    <t>2.6500</t>
   </si>
   <si>
     <t>22</t>
   </si>
   <si>
-    <t>Inductor</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>L6</t>
-  </si>
-  <si>
-    <t>2.2uH</t>
-  </si>
-  <si>
-    <t>L_1210_3225Metric</t>
-  </si>
-  <si>
-    <t>Inductor_SMD</t>
-  </si>
-  <si>
-    <t>https://www.bourns.com/docs/product-datasheets/srp3212.pdf</t>
-  </si>
-  <si>
-    <t>135.3000</t>
-  </si>
-  <si>
-    <t>82.4000</t>
-  </si>
-  <si>
-    <t>4.0500</t>
-  </si>
-  <si>
-    <t>2.6500</t>
+    <t>Inductor with ferrite core</t>
+  </si>
+  <si>
+    <t>L_Ferrite</t>
+  </si>
+  <si>
+    <t>L1 L2 L3 L4 L5</t>
+  </si>
+  <si>
+    <t>120_100MHz</t>
+  </si>
+  <si>
+    <t>L_0603_1608Metric</t>
+  </si>
+  <si>
+    <t>https://www.murata.com/products/productdata/8796738650142/ENFA0003.pdf</t>
+  </si>
+  <si>
+    <t>21.1250</t>
+  </si>
+  <si>
+    <t>92.3750</t>
+  </si>
+  <si>
+    <t>2.4500</t>
+  </si>
+  <si>
+    <t>0.9500</t>
   </si>
   <si>
     <t>23</t>
   </si>
   <si>
-    <t>Inductor with ferrite core</t>
-  </si>
-  <si>
-    <t>L_Ferrite</t>
-  </si>
-  <si>
-    <t>L1 L2 L3 L4 L5</t>
-  </si>
-  <si>
-    <t>120_100MHz</t>
-  </si>
-  <si>
-    <t>L_0603_1608Metric</t>
-  </si>
-  <si>
-    <t>https://www.murata.com/products/productdata/8796738650142/ENFA0003.pdf</t>
-  </si>
-  <si>
-    <t>21.1250</t>
-  </si>
-  <si>
-    <t>92.3750</t>
-  </si>
-  <si>
-    <t>2.4500</t>
-  </si>
-  <si>
-    <t>0.9500</t>
+    <t/>
+  </si>
+  <si>
+    <t>PDQE15-Q24-S5-D</t>
+  </si>
+  <si>
+    <t>PS1</t>
+  </si>
+  <si>
+    <t>CONV_PDQE15-Q24-S5-D</t>
+  </si>
+  <si>
+    <t>https://www.cui.com/product/resource/pdqe15-d.pdf</t>
+  </si>
+  <si>
+    <t>115.3700</t>
+  </si>
+  <si>
+    <t>49.0043</t>
+  </si>
+  <si>
+    <t>22.5700</t>
   </si>
   <si>
     <t>24</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>PDQE15-Q24-S5-D</t>
-  </si>
-  <si>
-    <t>PS1</t>
-  </si>
-  <si>
-    <t>CONV_PDQE15-Q24-S5-D</t>
-  </si>
-  <si>
-    <t>https://www.cui.com/product/resource/pdqe15-d.pdf</t>
-  </si>
-  <si>
-    <t>115.3700</t>
-  </si>
-  <si>
-    <t>49.0043</t>
-  </si>
-  <si>
-    <t>22.5700</t>
+    <t>FDS4435BZ</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>SO08-E3</t>
+  </si>
+  <si>
+    <t>97.7000</t>
+  </si>
+  <si>
+    <t>4.4150</t>
+  </si>
+  <si>
+    <t>7.4000</t>
   </si>
   <si>
     <t>25</t>
   </si>
   <si>
-    <t>FDS4435BZ</t>
-  </si>
-  <si>
-    <t>Q1</t>
-  </si>
-  <si>
-    <t>SO08-E3</t>
-  </si>
-  <si>
-    <t>97.7000</t>
-  </si>
-  <si>
-    <t>4.4150</t>
-  </si>
-  <si>
-    <t>7.4000</t>
+    <t>Resistor</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>R_0805_2012Metric</t>
+  </si>
+  <si>
+    <t>Resistor_SMD</t>
+  </si>
+  <si>
+    <t>https://www.seielect.com/catalog/sei-rncp.pdf</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>82.1000</t>
+  </si>
+  <si>
+    <t>2.8500</t>
+  </si>
+  <si>
+    <t>1.4000</t>
   </si>
   <si>
     <t>26</t>
   </si>
   <si>
-    <t>Resistor</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>R4</t>
-  </si>
-  <si>
-    <t>R_0805_2012Metric</t>
-  </si>
-  <si>
-    <t>Resistor_SMD</t>
-  </si>
-  <si>
-    <t>https://www.seielect.com/catalog/sei-rncp.pdf</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>82.1000</t>
-  </si>
-  <si>
-    <t>2.8500</t>
-  </si>
-  <si>
-    <t>1.4000</t>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>https://www.seielect.com/catalog/sei-rmcf_rmcp.pdf</t>
+  </si>
+  <si>
+    <t>84.2750</t>
   </si>
   <si>
     <t>27</t>
   </si>
   <si>
-    <t>R3</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>https://www.seielect.com/catalog/sei-rmcf_rmcp.pdf</t>
-  </si>
-  <si>
-    <t>84.2750</t>
+    <t>R1 R5</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>21.3250</t>
+  </si>
+  <si>
+    <t>94.0750</t>
   </si>
   <si>
     <t>28</t>
   </si>
   <si>
-    <t>R1 R5</t>
-  </si>
-  <si>
-    <t>220</t>
-  </si>
-  <si>
-    <t>21.3250</t>
-  </si>
-  <si>
-    <t>94.0750</t>
+    <t>Omron B3FS 6x6mm single pole normally-open tactile switch</t>
+  </si>
+  <si>
+    <t>SW_Omron_B3FS</t>
+  </si>
+  <si>
+    <t>Switch</t>
+  </si>
+  <si>
+    <t>SW4</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>SW_SPST_B3S-1000</t>
+  </si>
+  <si>
+    <t>Button_Switch_SMD</t>
+  </si>
+  <si>
+    <t>https://omronfs.omron.com/en_US/ecb/products/pdf/en-b3s.pdf</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>9.5000</t>
+  </si>
+  <si>
+    <t>5.8000</t>
   </si>
   <si>
     <t>29</t>
   </si>
   <si>
-    <t>Omron B3FS 6x6mm single pole normally-open tactile switch</t>
-  </si>
-  <si>
-    <t>SW_Omron_B3FS</t>
-  </si>
-  <si>
-    <t>Switch</t>
-  </si>
-  <si>
-    <t>SW4</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>SW_SPST_B3S-1000</t>
-  </si>
-  <si>
-    <t>Button_Switch_SMD</t>
-  </si>
-  <si>
-    <t>https://omronfs.omron.com/en_US/ecb/products/pdf/en-b3s.pdf</t>
-  </si>
-  <si>
-    <t>10.0000</t>
-  </si>
-  <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t>9.5000</t>
-  </si>
-  <si>
-    <t>5.8000</t>
+    <t>SW5</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>85.0000</t>
   </si>
   <si>
     <t>30</t>
   </si>
   <si>
-    <t>SW5</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>85.0000</t>
+    <t>SW6</t>
+  </si>
+  <si>
+    <t>160.0000</t>
   </si>
   <si>
     <t>31</t>
   </si>
   <si>
-    <t>SW6</t>
-  </si>
-  <si>
-    <t>160.0000</t>
+    <t>SW1</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>58.0000</t>
   </si>
   <si>
     <t>32</t>
   </si>
   <si>
-    <t>SW1</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>58.0000</t>
-  </si>
-  <si>
     <t>SW2</t>
   </si>
   <si>
     <t>E</t>
   </si>
   <si>
+    <t>SW3</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
     <t>34</t>
   </si>
   <si>
-    <t>SW3</t>
-  </si>
-  <si>
-    <t>F</t>
+    <t>Rotary encoder, dual channel, incremental quadrate outputs, with switch</t>
+  </si>
+  <si>
+    <t>RotaryEncoder_Switch</t>
+  </si>
+  <si>
+    <t>SW8</t>
+  </si>
+  <si>
+    <t>GAIN Rotary</t>
+  </si>
+  <si>
+    <t>RotaryEncoder_Alps_EC11E-Switch_Vertical_H20mm_CircularMountingHoles</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/components/products/datasheet/482016514001.pdf</t>
+  </si>
+  <si>
+    <t>115.2500</t>
+  </si>
+  <si>
+    <t>93.5000</t>
+  </si>
+  <si>
+    <t>16.5000</t>
+  </si>
+  <si>
+    <t>14.4000</t>
   </si>
   <si>
     <t>35</t>
   </si>
   <si>
-    <t>Rotary encoder, dual channel, incremental quadrate outputs, with switch</t>
-  </si>
-  <si>
-    <t>RotaryEncoder_Switch</t>
-  </si>
-  <si>
-    <t>SW8</t>
-  </si>
-  <si>
-    <t>GAIN Rotary</t>
-  </si>
-  <si>
-    <t>RotaryEncoder_Alps_EC11E-Switch_Vertical_H20mm_CircularMountingHoles</t>
-  </si>
-  <si>
-    <t>https://www.we-online.com/components/products/datasheet/482016514001.pdf</t>
-  </si>
-  <si>
-    <t>115.2500</t>
-  </si>
-  <si>
-    <t>93.5000</t>
-  </si>
-  <si>
-    <t>16.5000</t>
-  </si>
-  <si>
-    <t>14.4000</t>
+    <t>SW7</t>
+  </si>
+  <si>
+    <t>VOL Rotary</t>
+  </si>
+  <si>
+    <t>40.2500</t>
   </si>
   <si>
     <t>36</t>
   </si>
   <si>
-    <t>SW7</t>
-  </si>
-  <si>
-    <t>VOL Rotary</t>
-  </si>
-  <si>
-    <t>40.2500</t>
+    <t>74AHCT1G32SE-7</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>SOT65P210X110-5N</t>
+  </si>
+  <si>
+    <t>https://www.diodes.com/assets/Datasheets/74AHCT1G32.pdf</t>
+  </si>
+  <si>
+    <t>51.3000</t>
+  </si>
+  <si>
+    <t>78.0500</t>
+  </si>
+  <si>
+    <t>3.0480</t>
+  </si>
+  <si>
+    <t>1.6764</t>
   </si>
   <si>
     <t>37</t>
   </si>
   <si>
-    <t>74AHCT1G32SE-7</t>
-  </si>
-  <si>
-    <t>U3</t>
-  </si>
-  <si>
-    <t>SOT65P210X110-5N</t>
-  </si>
-  <si>
-    <t>https://www.diodes.com/assets/Datasheets/74AHCT1G32.pdf</t>
-  </si>
-  <si>
-    <t>51.3000</t>
-  </si>
-  <si>
-    <t>78.0500</t>
-  </si>
-  <si>
-    <t>3.0480</t>
-  </si>
-  <si>
-    <t>1.6764</t>
+    <t>Pico</t>
+  </si>
+  <si>
+    <t>MCU_RaspberryPi_and_Boards</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>RPi_Pico_SMD_TH</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/components/products/datasheet/6130xx11121.pdf</t>
+  </si>
+  <si>
+    <t>83.0000</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>19.4800</t>
   </si>
   <si>
     <t>38</t>
   </si>
   <si>
-    <t>Pico</t>
-  </si>
-  <si>
-    <t>MCU_RaspberryPi_and_Boards</t>
-  </si>
-  <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>RPi_Pico_SMD_TH</t>
-  </si>
-  <si>
-    <t>https://www.we-online.com/components/products/datasheet/6130xx11121.pdf</t>
-  </si>
-  <si>
-    <t>83.0000</t>
-  </si>
-  <si>
-    <t>76.0000</t>
-  </si>
-  <si>
-    <t>19.4800</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
     <t>15-Mbps inverting photocouple,5 kVrms, 2.7 - 5.5 Vdd, push-pull output</t>
   </si>
   <si>
@@ -1238,7 +1211,7 @@
     <t>Component Count:</t>
   </si>
   <si>
-    <t>71 (44 SMD/ 25 THT)</t>
+    <t>67 (40 SMD/ 25 THT)</t>
   </si>
   <si>
     <t>Fitted Components:</t>
@@ -1756,7 +1729,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V47"/>
+  <dimension ref="A1:V46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -1791,7 +1764,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1815,55 +1788,55 @@
     </row>
     <row r="2" spans="1:22">
       <c r="C2" s="2" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>404</v>
-      </c>
       <c r="F2" s="3">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:22">
       <c r="C3" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>397</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="C4" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>407</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="C5" s="2" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1871,16 +1844,16 @@
     </row>
     <row r="6" spans="1:22">
       <c r="C6" s="2" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="F6" s="3">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -2495,7 +2468,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:22" ht="30" customHeight="1">
       <c r="A17" s="5" t="s">
         <v>123</v>
       </c>
@@ -2506,87 +2479,87 @@
         <v>125</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>25</v>
+        <v>126</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="F17" s="11" t="s">
         <v>127</v>
       </c>
+      <c r="F17" s="7" t="s">
+        <v>128</v>
+      </c>
       <c r="G17" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="K17" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L17" s="11" t="s">
-        <v>127</v>
+      <c r="L17" s="7" t="s">
+        <v>131</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>132</v>
+        <v>37</v>
       </c>
       <c r="R17" s="7" t="s">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c r="S17" s="7" t="s">
-        <v>39</v>
+        <v>134</v>
       </c>
       <c r="T17" s="7" t="s">
         <v>40</v>
       </c>
       <c r="U17" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="V17" s="7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" ht="30" customHeight="1">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="60" customHeight="1">
       <c r="A18" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D18" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="F18" s="10" t="s">
         <v>139</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>141</v>
       </c>
       <c r="G18" s="10" t="s">
         <v>142</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="I18" s="8" t="s">
         <v>22</v>
@@ -2598,7 +2571,7 @@
         <v>31</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M18" s="10" t="s">
         <v>33</v>
@@ -2607,208 +2580,208 @@
         <v>96</v>
       </c>
       <c r="O18" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P18" s="10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q18" s="10" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="R18" s="10" t="s">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="S18" s="10" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="T18" s="10" t="s">
         <v>40</v>
       </c>
       <c r="U18" s="10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="V18" s="10" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" ht="60" customHeight="1">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="30" customHeight="1">
       <c r="A19" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="K19" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>96</v>
+        <v>158</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>62</v>
       </c>
       <c r="R19" s="7" t="s">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c r="S19" s="7" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="T19" s="7" t="s">
         <v>40</v>
       </c>
       <c r="U19" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="V19" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="30" customHeight="1">
       <c r="A20" s="8" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>164</v>
+        <v>126</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="K20" s="8" t="s">
         <v>31</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M20" s="10" t="s">
-        <v>48</v>
+        <v>170</v>
       </c>
       <c r="N20" s="8" t="s">
-        <v>169</v>
+        <v>96</v>
       </c>
       <c r="O20" s="10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P20" s="10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q20" s="10" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="R20" s="10" t="s">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="S20" s="10" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="T20" s="10" t="s">
         <v>40</v>
       </c>
       <c r="U20" s="10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="V20" s="10" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" ht="30" customHeight="1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="45" customHeight="1">
       <c r="A21" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="K21" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L21" s="7" t="s">
-        <v>180</v>
+      <c r="L21" s="11" t="s">
+        <v>181</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>181</v>
+        <v>82</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>182</v>
@@ -2817,19 +2790,19 @@
         <v>183</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>37</v>
+        <v>184</v>
       </c>
       <c r="R21" s="7" t="s">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c r="S21" s="7" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="T21" s="7" t="s">
         <v>40</v>
       </c>
       <c r="U21" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="V21" s="7" t="s">
         <v>185</v>
@@ -2846,7 +2819,7 @@
         <v>188</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>189</v>
@@ -2858,25 +2831,25 @@
         <v>191</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="K22" s="8" t="s">
         <v>31</v>
       </c>
       <c r="L22" s="12" t="s">
-        <v>127</v>
+        <v>181</v>
       </c>
       <c r="M22" s="10" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="N22" s="8" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="O22" s="10" t="s">
         <v>192</v>
@@ -2885,25 +2858,25 @@
         <v>193</v>
       </c>
       <c r="Q22" s="10" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="R22" s="10" t="s">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="S22" s="10" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="T22" s="10" t="s">
         <v>40</v>
       </c>
       <c r="U22" s="10" t="s">
-        <v>194</v>
+        <v>149</v>
       </c>
       <c r="V22" s="10" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="45" customHeight="1">
+    <row r="23" spans="1:22" ht="30" customHeight="1">
       <c r="A23" s="5" t="s">
         <v>195</v>
       </c>
@@ -2914,7 +2887,7 @@
         <v>197</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>198</v>
@@ -2926,75 +2899,75 @@
         <v>200</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="K23" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L23" s="11" t="s">
-        <v>127</v>
+      <c r="L23" s="7" t="s">
+        <v>201</v>
       </c>
       <c r="M23" s="7" t="s">
         <v>48</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>96</v>
+        <v>34</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="R23" s="7" t="s">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c r="S23" s="7" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="T23" s="7" t="s">
         <v>40</v>
       </c>
       <c r="U23" s="7" t="s">
-        <v>160</v>
+        <v>204</v>
       </c>
       <c r="V23" s="7" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" ht="30" customHeight="1">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
       <c r="A24" s="8" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>164</v>
+        <v>126</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I24" s="8" t="s">
         <v>30</v>
@@ -3006,7 +2979,7 @@
         <v>31</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M24" s="10" t="s">
         <v>48</v>
@@ -3015,10 +2988,10 @@
         <v>34</v>
       </c>
       <c r="O24" s="10" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="P24" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q24" s="10" t="s">
         <v>37</v>
@@ -3027,84 +3000,84 @@
         <v>38</v>
       </c>
       <c r="S24" s="10" t="s">
-        <v>146</v>
+        <v>39</v>
       </c>
       <c r="T24" s="10" t="s">
         <v>40</v>
       </c>
       <c r="U24" s="10" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="V24" s="10" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="30" customHeight="1">
       <c r="A25" s="5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K25" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M25" s="7" t="s">
         <v>48</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>222</v>
+        <v>85</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>37</v>
       </c>
       <c r="R25" s="7" t="s">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="S25" s="7" t="s">
-        <v>39</v>
+        <v>134</v>
       </c>
       <c r="T25" s="7" t="s">
         <v>40</v>
       </c>
       <c r="U25" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="V25" s="7" t="s">
-        <v>224</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:22" ht="30" customHeight="1">
@@ -3118,7 +3091,7 @@
         <v>227</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>228</v>
@@ -3130,7 +3103,7 @@
         <v>230</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="I26" s="8" t="s">
         <v>22</v>
@@ -3145,7 +3118,7 @@
         <v>231</v>
       </c>
       <c r="M26" s="10" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="N26" s="8" t="s">
         <v>96</v>
@@ -3154,51 +3127,51 @@
         <v>232</v>
       </c>
       <c r="P26" s="10" t="s">
-        <v>85</v>
+        <v>233</v>
       </c>
       <c r="Q26" s="10" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="R26" s="10" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="S26" s="10" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="T26" s="10" t="s">
         <v>40</v>
       </c>
       <c r="U26" s="10" t="s">
-        <v>233</v>
+        <v>148</v>
       </c>
       <c r="V26" s="10" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="30" customHeight="1">
+    <row r="27" spans="1:22">
       <c r="A27" s="5" t="s">
         <v>234</v>
       </c>
       <c r="B27" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E27" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="F27" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="E27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="F27" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>239</v>
-      </c>
       <c r="H27" s="7" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>22</v>
@@ -3210,63 +3183,63 @@
         <v>31</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M27" s="7" t="s">
-        <v>82</v>
+        <v>170</v>
       </c>
       <c r="N27" s="5" t="s">
         <v>96</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>62</v>
+        <v>184</v>
       </c>
       <c r="R27" s="7" t="s">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c r="S27" s="7" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="T27" s="7" t="s">
         <v>40</v>
       </c>
       <c r="U27" s="7" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="V27" s="7" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" ht="30" customHeight="1">
       <c r="A28" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="B28" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="B28" s="9" t="s">
-        <v>175</v>
-      </c>
       <c r="C28" s="10" t="s">
-        <v>176</v>
+        <v>244</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="E28" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="F28" s="10" t="s">
         <v>244</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>245</v>
       </c>
       <c r="G28" s="10" t="s">
         <v>246</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I28" s="8" t="s">
         <v>22</v>
@@ -3281,7 +3254,7 @@
         <v>247</v>
       </c>
       <c r="M28" s="10" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="N28" s="8" t="s">
         <v>96</v>
@@ -3293,25 +3266,25 @@
         <v>249</v>
       </c>
       <c r="Q28" s="10" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="R28" s="10" t="s">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="S28" s="10" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="T28" s="10" t="s">
         <v>40</v>
       </c>
       <c r="U28" s="10" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="V28" s="10" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="29" spans="1:22" ht="30" customHeight="1">
+    <row r="29" spans="1:22">
       <c r="A29" s="5" t="s">
         <v>251</v>
       </c>
@@ -3322,19 +3295,19 @@
         <v>253</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>139</v>
+        <v>25</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>254</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>129</v>
+        <v>257</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>22</v>
@@ -3346,90 +3319,90 @@
         <v>31</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>181</v>
+        <v>33</v>
       </c>
       <c r="N29" s="5" t="s">
         <v>96</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="R29" s="7" t="s">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c r="S29" s="7" t="s">
-        <v>146</v>
+        <v>39</v>
       </c>
       <c r="T29" s="7" t="s">
         <v>40</v>
       </c>
       <c r="U29" s="7" t="s">
-        <v>159</v>
+        <v>261</v>
       </c>
       <c r="V29" s="7" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" ht="30" customHeight="1">
       <c r="A30" s="8" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D30" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="K30" s="8" t="s">
         <v>31</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="M30" s="10" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="N30" s="8" t="s">
-        <v>96</v>
+        <v>158</v>
       </c>
       <c r="O30" s="10" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="P30" s="10" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q30" s="10" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="R30" s="10" t="s">
         <v>38</v>
@@ -3441,60 +3414,60 @@
         <v>40</v>
       </c>
       <c r="U30" s="10" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="V30" s="10" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" ht="30" customHeight="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
       <c r="A31" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>273</v>
+        <v>274</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>275</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>25</v>
+        <v>276</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>276</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>266</v>
+        <v>130</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="K31" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M31" s="7" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="N31" s="5" t="s">
-        <v>169</v>
+        <v>96</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>37</v>
@@ -3503,13 +3476,13 @@
         <v>38</v>
       </c>
       <c r="S31" s="7" t="s">
-        <v>39</v>
+        <v>134</v>
       </c>
       <c r="T31" s="7" t="s">
         <v>40</v>
       </c>
       <c r="U31" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="V31" s="7" t="s">
         <v>282</v>
@@ -3520,25 +3493,25 @@
         <v>283</v>
       </c>
       <c r="B32" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="C32" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="D32" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="E32" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="D32" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="E32" s="10" t="s">
+      <c r="F32" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="G32" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="F32" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="G32" s="10" t="s">
-        <v>287</v>
-      </c>
       <c r="H32" s="10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I32" s="8" t="s">
         <v>22</v>
@@ -3549,8 +3522,8 @@
       <c r="K32" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="L32" s="10" t="s">
-        <v>288</v>
+      <c r="L32" s="12" t="s">
+        <v>275</v>
       </c>
       <c r="M32" s="10" t="s">
         <v>33</v>
@@ -3559,54 +3532,54 @@
         <v>96</v>
       </c>
       <c r="O32" s="10" t="s">
-        <v>289</v>
+        <v>70</v>
       </c>
       <c r="P32" s="10" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="Q32" s="10" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="R32" s="10" t="s">
         <v>38</v>
       </c>
       <c r="S32" s="10" t="s">
-        <v>146</v>
+        <v>39</v>
       </c>
       <c r="T32" s="10" t="s">
         <v>40</v>
       </c>
       <c r="U32" s="10" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="V32" s="10" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="33" spans="1:22">
       <c r="A33" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="B33" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="C33" s="7" t="s">
+      <c r="D33" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="D33" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="E33" s="7" t="s">
+      <c r="F33" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="F33" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="G33" s="7" t="s">
+      <c r="H33" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>22</v>
@@ -3617,20 +3590,20 @@
       <c r="K33" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L33" s="11" t="s">
-        <v>284</v>
+      <c r="L33" s="7" t="s">
+        <v>296</v>
       </c>
       <c r="M33" s="7" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="N33" s="5" t="s">
         <v>96</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>70</v>
+        <v>297</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q33" s="7" t="s">
         <v>62</v>
@@ -3645,21 +3618,21 @@
         <v>40</v>
       </c>
       <c r="U33" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="V33" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="34" spans="1:22">
       <c r="A34" s="8" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="D34" s="10" t="s">
         <v>25</v>
@@ -3668,13 +3641,13 @@
         <v>302</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>136</v>
+        <v>303</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="I34" s="8" t="s">
         <v>22</v>
@@ -3686,7 +3659,7 @@
         <v>31</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M34" s="10" t="s">
         <v>48</v>
@@ -3695,13 +3668,13 @@
         <v>96</v>
       </c>
       <c r="O34" s="10" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="P34" s="10" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="Q34" s="10" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="R34" s="10" t="s">
         <v>38</v>
@@ -3713,63 +3686,63 @@
         <v>40</v>
       </c>
       <c r="U34" s="10" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="V34" s="10" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
     </row>
     <row r="35" spans="1:22">
       <c r="A35" s="5" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="K35" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="M35" s="7" t="s">
         <v>48</v>
       </c>
       <c r="N35" s="5" t="s">
-        <v>96</v>
+        <v>34</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="R35" s="7" t="s">
         <v>38</v>
@@ -3781,60 +3754,60 @@
         <v>40</v>
       </c>
       <c r="U35" s="7" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="V35" s="7" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
     </row>
     <row r="36" spans="1:22">
       <c r="A36" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="E36" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="B36" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>301</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E36" s="10" t="s">
+      <c r="F36" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="F36" s="10" t="s">
+      <c r="G36" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="G36" s="10" t="s">
-        <v>303</v>
-      </c>
       <c r="H36" s="10" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="J36" s="8" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K36" s="8" t="s">
         <v>31</v>
       </c>
       <c r="L36" s="10" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="M36" s="10" t="s">
         <v>48</v>
       </c>
       <c r="N36" s="8" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="O36" s="10" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="P36" s="10" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q36" s="10" t="s">
         <v>62</v>
@@ -3849,36 +3822,36 @@
         <v>40</v>
       </c>
       <c r="U36" s="10" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="V36" s="10" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
     </row>
     <row r="37" spans="1:22">
       <c r="A37" s="5" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="I37" s="5" t="s">
         <v>22</v>
@@ -3890,7 +3863,7 @@
         <v>31</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="M37" s="7" t="s">
         <v>48</v>
@@ -3899,10 +3872,10 @@
         <v>96</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>62</v>
@@ -3917,36 +3890,36 @@
         <v>40</v>
       </c>
       <c r="U37" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="V37" s="7" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
     </row>
     <row r="38" spans="1:22">
       <c r="A38" s="8" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>335</v>
+        <v>24</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="I38" s="8" t="s">
         <v>22</v>
@@ -3958,7 +3931,7 @@
         <v>31</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="M38" s="10" t="s">
         <v>48</v>
@@ -3967,10 +3940,10 @@
         <v>96</v>
       </c>
       <c r="O38" s="10" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="P38" s="10" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="Q38" s="10" t="s">
         <v>62</v>
@@ -3985,36 +3958,36 @@
         <v>40</v>
       </c>
       <c r="U38" s="10" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="V38" s="10" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
     </row>
     <row r="39" spans="1:22">
       <c r="A39" s="5" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>24</v>
+        <v>333</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="I39" s="5" t="s">
         <v>22</v>
@@ -4026,7 +3999,7 @@
         <v>31</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="M39" s="7" t="s">
         <v>48</v>
@@ -4035,10 +4008,10 @@
         <v>96</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>339</v>
+        <v>320</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="Q39" s="7" t="s">
         <v>62</v>
@@ -4053,36 +4026,36 @@
         <v>40</v>
       </c>
       <c r="U39" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="V39" s="7" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
     </row>
     <row r="40" spans="1:22">
       <c r="A40" s="8" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="I40" s="8" t="s">
         <v>22</v>
@@ -4094,7 +4067,7 @@
         <v>31</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="M40" s="10" t="s">
         <v>48</v>
@@ -4103,10 +4076,10 @@
         <v>96</v>
       </c>
       <c r="O40" s="10" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="P40" s="10" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="Q40" s="10" t="s">
         <v>62</v>
@@ -4121,36 +4094,36 @@
         <v>40</v>
       </c>
       <c r="U40" s="10" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="V40" s="10" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
     </row>
     <row r="41" spans="1:22">
       <c r="A41" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="B41" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="B41" s="6" t="s">
-        <v>321</v>
-      </c>
       <c r="C41" s="7" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="I41" s="5" t="s">
         <v>22</v>
@@ -4162,7 +4135,7 @@
         <v>31</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="M41" s="7" t="s">
         <v>48</v>
@@ -4171,10 +4144,10 @@
         <v>96</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="Q41" s="7" t="s">
         <v>62</v>
@@ -4189,36 +4162,36 @@
         <v>40</v>
       </c>
       <c r="U41" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="V41" s="7" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" ht="30" customHeight="1">
       <c r="A42" s="8" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>321</v>
+        <v>341</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>322</v>
+        <v>342</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>323</v>
+        <v>25</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>326</v>
+        <v>345</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>327</v>
+        <v>130</v>
       </c>
       <c r="I42" s="8" t="s">
         <v>22</v>
@@ -4230,7 +4203,7 @@
         <v>31</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
       <c r="M42" s="10" t="s">
         <v>48</v>
@@ -4239,10 +4212,10 @@
         <v>96</v>
       </c>
       <c r="O42" s="10" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="P42" s="10" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="Q42" s="10" t="s">
         <v>62</v>
@@ -4251,27 +4224,27 @@
         <v>38</v>
       </c>
       <c r="S42" s="10" t="s">
-        <v>39</v>
+        <v>134</v>
       </c>
       <c r="T42" s="10" t="s">
         <v>40</v>
       </c>
       <c r="U42" s="10" t="s">
-        <v>331</v>
+        <v>349</v>
       </c>
       <c r="V42" s="10" t="s">
-        <v>332</v>
+        <v>350</v>
       </c>
     </row>
     <row r="43" spans="1:22" ht="30" customHeight="1">
       <c r="A43" s="5" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>25</v>
@@ -4283,10 +4256,10 @@
         <v>353</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I43" s="5" t="s">
         <v>22</v>
@@ -4298,7 +4271,7 @@
         <v>31</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="M43" s="7" t="s">
         <v>48</v>
@@ -4307,10 +4280,10 @@
         <v>96</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="Q43" s="7" t="s">
         <v>62</v>
@@ -4319,42 +4292,42 @@
         <v>38</v>
       </c>
       <c r="S43" s="7" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="T43" s="7" t="s">
         <v>40</v>
       </c>
       <c r="U43" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="V43" s="7" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22">
+      <c r="A44" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="G44" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="V43" s="7" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22" ht="30" customHeight="1">
-      <c r="A44" s="8" t="s">
-        <v>360</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>361</v>
-      </c>
-      <c r="F44" s="10" t="s">
-        <v>362</v>
-      </c>
-      <c r="G44" s="10" t="s">
-        <v>354</v>
-      </c>
       <c r="H44" s="10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I44" s="8" t="s">
         <v>22</v>
@@ -4366,63 +4339,63 @@
         <v>31</v>
       </c>
       <c r="L44" s="10" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="M44" s="10" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="N44" s="8" t="s">
         <v>96</v>
       </c>
       <c r="O44" s="10" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="P44" s="10" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="Q44" s="10" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="R44" s="10" t="s">
         <v>38</v>
       </c>
       <c r="S44" s="10" t="s">
-        <v>146</v>
+        <v>39</v>
       </c>
       <c r="T44" s="10" t="s">
         <v>40</v>
       </c>
       <c r="U44" s="10" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="V44" s="10" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" ht="30" customHeight="1">
       <c r="A45" s="5" t="s">
         <v>364</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>365</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>365</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I45" s="5" t="s">
         <v>22</v>
@@ -4434,63 +4407,63 @@
         <v>31</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M45" s="7" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="N45" s="5" t="s">
         <v>96</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>37</v>
+        <v>184</v>
       </c>
       <c r="R45" s="7" t="s">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="S45" s="7" t="s">
-        <v>39</v>
+        <v>134</v>
       </c>
       <c r="T45" s="7" t="s">
         <v>40</v>
       </c>
       <c r="U45" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="V45" s="7" t="s">
-        <v>372</v>
+        <v>241</v>
       </c>
     </row>
     <row r="46" spans="1:22" ht="30" customHeight="1">
       <c r="A46" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="B46" s="12" t="s">
-        <v>284</v>
+      <c r="B46" s="9" t="s">
+        <v>374</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D46" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="F46" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="E46" s="10" t="s">
-        <v>376</v>
-      </c>
-      <c r="F46" s="10" t="s">
-        <v>374</v>
-      </c>
       <c r="G46" s="10" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>129</v>
+        <v>379</v>
       </c>
       <c r="I46" s="8" t="s">
         <v>22</v>
@@ -4502,7 +4475,7 @@
         <v>31</v>
       </c>
       <c r="L46" s="10" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="M46" s="10" t="s">
         <v>48</v>
@@ -4511,96 +4484,28 @@
         <v>96</v>
       </c>
       <c r="O46" s="10" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="P46" s="10" t="s">
-        <v>380</v>
+        <v>98</v>
       </c>
       <c r="Q46" s="10" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="R46" s="10" t="s">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c r="S46" s="10" t="s">
-        <v>146</v>
+        <v>39</v>
       </c>
       <c r="T46" s="10" t="s">
         <v>40</v>
       </c>
       <c r="U46" s="10" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="V46" s="10" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22" ht="30" customHeight="1">
-      <c r="A47" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="B47" s="6" t="s">
         <v>383</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="H47" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="I47" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J47" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K47" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="M47" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="N47" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="O47" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="P47" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="R47" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="S47" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="T47" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="U47" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="V47" s="7" t="s">
-        <v>392</v>
       </c>
     </row>
   </sheetData>
@@ -4626,22 +4531,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="11" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
     </row>
   </sheetData>

--- a/latest/BoM/Positional/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Positional/pedalboard-hw-bom.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="404">
   <si>
     <t>Row</t>
   </si>
@@ -971,13 +971,10 @@
     <t>A</t>
   </si>
   <si>
-    <t>SW_SPST_B3S-1000</t>
-  </si>
-  <si>
-    <t>Button_Switch_SMD</t>
-  </si>
-  <si>
-    <t>https://omronfs.omron.com/en_US/ecb/products/pdf/en-b3s.pdf</t>
+    <t>SW_PUSH-12mm_Wuerth</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/components/products/datasheet/430172043816.pdf</t>
   </si>
   <si>
     <t>10.0000</t>
@@ -986,10 +983,10 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>9.5000</t>
-  </si>
-  <si>
-    <t>5.8000</t>
+    <t>16.0000</t>
+  </si>
+  <si>
+    <t>6.8000</t>
   </si>
   <si>
     <t>29</t>
@@ -1211,7 +1208,7 @@
     <t>Component Count:</t>
   </si>
   <si>
-    <t>67 (40 SMD/ 25 THT)</t>
+    <t>67 (34 SMD/ 31 THT)</t>
   </si>
   <si>
     <t>Fitted Components:</t>
@@ -1764,7 +1761,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1788,13 +1785,13 @@
     </row>
     <row r="2" spans="1:22">
       <c r="C2" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>386</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F2" s="3">
         <v>38</v>
@@ -1802,41 +1799,41 @@
     </row>
     <row r="3" spans="1:22">
       <c r="C3" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>388</v>
-      </c>
       <c r="E3" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>396</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="C4" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>390</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="C5" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>392</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1844,13 +1841,13 @@
     </row>
     <row r="6" spans="1:22">
       <c r="C6" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>394</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F6" s="3">
         <v>67</v>
@@ -3760,7 +3757,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="36" spans="1:22">
+    <row r="36" spans="1:22" ht="30" customHeight="1">
       <c r="A36" s="8" t="s">
         <v>311</v>
       </c>
@@ -3783,7 +3780,7 @@
         <v>317</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>318</v>
+        <v>130</v>
       </c>
       <c r="I36" s="8" t="s">
         <v>22</v>
@@ -3795,7 +3792,7 @@
         <v>31</v>
       </c>
       <c r="L36" s="10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="M36" s="10" t="s">
         <v>48</v>
@@ -3804,10 +3801,10 @@
         <v>96</v>
       </c>
       <c r="O36" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="P36" s="10" t="s">
         <v>320</v>
-      </c>
-      <c r="P36" s="10" t="s">
-        <v>321</v>
       </c>
       <c r="Q36" s="10" t="s">
         <v>62</v>
@@ -3816,21 +3813,21 @@
         <v>38</v>
       </c>
       <c r="S36" s="10" t="s">
-        <v>39</v>
+        <v>134</v>
       </c>
       <c r="T36" s="10" t="s">
         <v>40</v>
       </c>
       <c r="U36" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="V36" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="V36" s="10" t="s">
+    </row>
+    <row r="37" spans="1:22" ht="30" customHeight="1">
+      <c r="A37" s="5" t="s">
         <v>323</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22">
-      <c r="A37" s="5" t="s">
-        <v>324</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>312</v>
@@ -3842,16 +3839,16 @@
         <v>314</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>326</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>317</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>318</v>
+        <v>130</v>
       </c>
       <c r="I37" s="5" t="s">
         <v>22</v>
@@ -3863,7 +3860,7 @@
         <v>31</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="M37" s="7" t="s">
         <v>48</v>
@@ -3872,10 +3869,10 @@
         <v>96</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>62</v>
@@ -3884,21 +3881,21 @@
         <v>38</v>
       </c>
       <c r="S37" s="7" t="s">
-        <v>39</v>
+        <v>134</v>
       </c>
       <c r="T37" s="7" t="s">
         <v>40</v>
       </c>
       <c r="U37" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="V37" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="V37" s="7" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22">
+    </row>
+    <row r="38" spans="1:22" ht="30" customHeight="1">
       <c r="A38" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>312</v>
@@ -3910,7 +3907,7 @@
         <v>314</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F38" s="10" t="s">
         <v>24</v>
@@ -3919,7 +3916,7 @@
         <v>317</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>318</v>
+        <v>130</v>
       </c>
       <c r="I38" s="8" t="s">
         <v>22</v>
@@ -3931,7 +3928,7 @@
         <v>31</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="M38" s="10" t="s">
         <v>48</v>
@@ -3940,10 +3937,10 @@
         <v>96</v>
       </c>
       <c r="O38" s="10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="P38" s="10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="Q38" s="10" t="s">
         <v>62</v>
@@ -3952,21 +3949,21 @@
         <v>38</v>
       </c>
       <c r="S38" s="10" t="s">
-        <v>39</v>
+        <v>134</v>
       </c>
       <c r="T38" s="10" t="s">
         <v>40</v>
       </c>
       <c r="U38" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="V38" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="V38" s="10" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22">
+    </row>
+    <row r="39" spans="1:22" ht="30" customHeight="1">
       <c r="A39" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>312</v>
@@ -3978,16 +3975,16 @@
         <v>314</v>
       </c>
       <c r="E39" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="F39" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>333</v>
       </c>
       <c r="G39" s="7" t="s">
         <v>317</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>318</v>
+        <v>130</v>
       </c>
       <c r="I39" s="5" t="s">
         <v>22</v>
@@ -3999,7 +3996,7 @@
         <v>31</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="M39" s="7" t="s">
         <v>48</v>
@@ -4008,10 +4005,10 @@
         <v>96</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="Q39" s="7" t="s">
         <v>62</v>
@@ -4020,21 +4017,21 @@
         <v>38</v>
       </c>
       <c r="S39" s="7" t="s">
-        <v>39</v>
+        <v>134</v>
       </c>
       <c r="T39" s="7" t="s">
         <v>40</v>
       </c>
       <c r="U39" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="V39" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="V39" s="7" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22">
+    </row>
+    <row r="40" spans="1:22" ht="30" customHeight="1">
       <c r="A40" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>312</v>
@@ -4046,16 +4043,16 @@
         <v>314</v>
       </c>
       <c r="E40" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="F40" s="10" t="s">
         <v>336</v>
-      </c>
-      <c r="F40" s="10" t="s">
-        <v>337</v>
       </c>
       <c r="G40" s="10" t="s">
         <v>317</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>318</v>
+        <v>130</v>
       </c>
       <c r="I40" s="8" t="s">
         <v>22</v>
@@ -4067,7 +4064,7 @@
         <v>31</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="M40" s="10" t="s">
         <v>48</v>
@@ -4076,10 +4073,10 @@
         <v>96</v>
       </c>
       <c r="O40" s="10" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="P40" s="10" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="Q40" s="10" t="s">
         <v>62</v>
@@ -4088,19 +4085,19 @@
         <v>38</v>
       </c>
       <c r="S40" s="10" t="s">
-        <v>39</v>
+        <v>134</v>
       </c>
       <c r="T40" s="10" t="s">
         <v>40</v>
       </c>
       <c r="U40" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="V40" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="V40" s="10" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22">
+    </row>
+    <row r="41" spans="1:22" ht="30" customHeight="1">
       <c r="A41" s="5" t="s">
         <v>303</v>
       </c>
@@ -4114,16 +4111,16 @@
         <v>314</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>339</v>
       </c>
       <c r="G41" s="7" t="s">
         <v>317</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>318</v>
+        <v>130</v>
       </c>
       <c r="I41" s="5" t="s">
         <v>22</v>
@@ -4135,7 +4132,7 @@
         <v>31</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="M41" s="7" t="s">
         <v>48</v>
@@ -4144,10 +4141,10 @@
         <v>96</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="Q41" s="7" t="s">
         <v>62</v>
@@ -4156,39 +4153,39 @@
         <v>38</v>
       </c>
       <c r="S41" s="7" t="s">
-        <v>39</v>
+        <v>134</v>
       </c>
       <c r="T41" s="7" t="s">
         <v>40</v>
       </c>
       <c r="U41" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="V41" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="V41" s="7" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="42" spans="1:22" ht="30" customHeight="1">
       <c r="A42" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="B42" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="C42" s="10" t="s">
         <v>341</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>342</v>
       </c>
       <c r="D42" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E42" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="F42" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="F42" s="10" t="s">
+      <c r="G42" s="10" t="s">
         <v>344</v>
-      </c>
-      <c r="G42" s="10" t="s">
-        <v>345</v>
       </c>
       <c r="H42" s="10" t="s">
         <v>130</v>
@@ -4203,7 +4200,7 @@
         <v>31</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="M42" s="10" t="s">
         <v>48</v>
@@ -4212,10 +4209,10 @@
         <v>96</v>
       </c>
       <c r="O42" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="P42" s="10" t="s">
         <v>347</v>
-      </c>
-      <c r="P42" s="10" t="s">
-        <v>348</v>
       </c>
       <c r="Q42" s="10" t="s">
         <v>62</v>
@@ -4230,33 +4227,33 @@
         <v>40</v>
       </c>
       <c r="U42" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="V42" s="10" t="s">
         <v>349</v>
-      </c>
-      <c r="V42" s="10" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="43" spans="1:22" ht="30" customHeight="1">
       <c r="A43" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B43" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="C43" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>342</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="F43" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="F43" s="7" t="s">
-        <v>353</v>
-      </c>
       <c r="G43" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H43" s="7" t="s">
         <v>130</v>
@@ -4271,7 +4268,7 @@
         <v>31</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="M43" s="7" t="s">
         <v>48</v>
@@ -4280,10 +4277,10 @@
         <v>96</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="Q43" s="7" t="s">
         <v>62</v>
@@ -4298,33 +4295,33 @@
         <v>40</v>
       </c>
       <c r="U43" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="V43" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="V43" s="7" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="44" spans="1:22">
       <c r="A44" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B44" s="12" t="s">
         <v>275</v>
       </c>
       <c r="C44" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="E44" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="D44" s="10" t="s">
-        <v>356</v>
-      </c>
-      <c r="E44" s="10" t="s">
+      <c r="F44" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="G44" s="10" t="s">
         <v>357</v>
-      </c>
-      <c r="F44" s="10" t="s">
-        <v>356</v>
-      </c>
-      <c r="G44" s="10" t="s">
-        <v>358</v>
       </c>
       <c r="H44" s="10" t="s">
         <v>130</v>
@@ -4339,7 +4336,7 @@
         <v>31</v>
       </c>
       <c r="L44" s="10" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="M44" s="10" t="s">
         <v>82</v>
@@ -4348,10 +4345,10 @@
         <v>96</v>
       </c>
       <c r="O44" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="P44" s="10" t="s">
         <v>360</v>
-      </c>
-      <c r="P44" s="10" t="s">
-        <v>361</v>
       </c>
       <c r="Q44" s="10" t="s">
         <v>37</v>
@@ -4366,33 +4363,33 @@
         <v>40</v>
       </c>
       <c r="U44" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="V44" s="10" t="s">
         <v>362</v>
-      </c>
-      <c r="V44" s="10" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="45" spans="1:22" ht="30" customHeight="1">
       <c r="A45" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B45" s="11" t="s">
         <v>275</v>
       </c>
       <c r="C45" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="D45" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="E45" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="F45" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="G45" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="H45" s="7" t="s">
         <v>130</v>
@@ -4407,7 +4404,7 @@
         <v>31</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="M45" s="7" t="s">
         <v>48</v>
@@ -4416,10 +4413,10 @@
         <v>96</v>
       </c>
       <c r="O45" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="P45" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>371</v>
       </c>
       <c r="Q45" s="7" t="s">
         <v>184</v>
@@ -4434,7 +4431,7 @@
         <v>40</v>
       </c>
       <c r="U45" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="V45" s="7" t="s">
         <v>241</v>
@@ -4442,28 +4439,28 @@
     </row>
     <row r="46" spans="1:22" ht="30" customHeight="1">
       <c r="A46" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="B46" s="9" t="s">
         <v>373</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="C46" s="10" t="s">
         <v>374</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="D46" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="E46" s="10" t="s">
         <v>376</v>
       </c>
-      <c r="E46" s="10" t="s">
+      <c r="F46" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="G46" s="10" t="s">
         <v>377</v>
       </c>
-      <c r="F46" s="10" t="s">
-        <v>375</v>
-      </c>
-      <c r="G46" s="10" t="s">
+      <c r="H46" s="10" t="s">
         <v>378</v>
-      </c>
-      <c r="H46" s="10" t="s">
-        <v>379</v>
       </c>
       <c r="I46" s="8" t="s">
         <v>22</v>
@@ -4475,7 +4472,7 @@
         <v>31</v>
       </c>
       <c r="L46" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="M46" s="10" t="s">
         <v>48</v>
@@ -4484,7 +4481,7 @@
         <v>96</v>
       </c>
       <c r="O46" s="10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P46" s="10" t="s">
         <v>98</v>
@@ -4502,10 +4499,10 @@
         <v>40</v>
       </c>
       <c r="U46" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V46" s="10" t="s">
         <v>382</v>
-      </c>
-      <c r="V46" s="10" t="s">
-        <v>383</v>
       </c>
     </row>
   </sheetData>
@@ -4531,22 +4528,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="11" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
   </sheetData>

--- a/latest/BoM/Positional/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Positional/pedalboard-hw-bom.xlsx
@@ -566,181 +566,181 @@
     <t>~</t>
   </si>
   <si>
-    <t>149.0000</t>
-  </si>
-  <si>
-    <t>57.0000</t>
+    <t>159.0000</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t>3.3500</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>Generic connector, double row, 02x03, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+  </si>
+  <si>
+    <t>Conn_02x03_Odd_Even</t>
+  </si>
+  <si>
+    <t>J15</t>
+  </si>
+  <si>
+    <t>MIDI IN/OUT</t>
+  </si>
+  <si>
+    <t>PinHeader_2x03_P2.54mm_Horizontal</t>
+  </si>
+  <si>
+    <t>24.8500</t>
+  </si>
+  <si>
+    <t>80.0750</t>
+  </si>
+  <si>
+    <t>6.7800</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>Audio Jack, 3 Poles (Stereo / TRS), Switched TR Poles (Normalling)</t>
+  </si>
+  <si>
+    <t>AudioJack3_SwitchTR</t>
+  </si>
+  <si>
+    <t>J16 J17</t>
+  </si>
+  <si>
+    <t>MIDI OUT J</t>
+  </si>
+  <si>
+    <t>Jack_3.5mm_CUI_SJ1-3525N_Horizontal</t>
+  </si>
+  <si>
+    <t>https://www.cuidevices.com/product/resource/sj1-352xng.pdf</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
+    <t>100.5000</t>
+  </si>
+  <si>
+    <t>11.2000</t>
+  </si>
+  <si>
+    <t>6.7000</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>5-pin DIN connector (5-pin DIN-5 stereo)</t>
+  </si>
+  <si>
+    <t>DIN-5_180degree</t>
+  </si>
+  <si>
+    <t>J1 J2</t>
+  </si>
+  <si>
+    <t>MIDI_OUT</t>
+  </si>
+  <si>
+    <t>CP-2350</t>
+  </si>
+  <si>
+    <t>https://www.switchcraft.com/assets/1/24/57PC5F_CD.pdf</t>
+  </si>
+  <si>
+    <t>103.0000</t>
+  </si>
+  <si>
+    <t>17.5000</t>
+  </si>
+  <si>
+    <t>14.7500</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>Generic connector, single row, 01x02, script generated</t>
+  </si>
+  <si>
+    <t>Conn_01x02_Pin</t>
+  </si>
+  <si>
+    <t>J5</t>
+  </si>
+  <si>
+    <t>Pico USB TP</t>
+  </si>
+  <si>
+    <t>Spring_Loaded_Pins_2mm</t>
+  </si>
+  <si>
+    <t>https://media.digikey.com/pdf/Data%20Sheets/Mill%20Max%20PDFs/Spring%20Loaded%20Connectors.pdf</t>
+  </si>
+  <si>
+    <t>107.0000</t>
+  </si>
+  <si>
+    <t>1.3500</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>Generic connector, single row, 01x03, script generated</t>
+  </si>
+  <si>
+    <t>Conn_01x03_Pin</t>
+  </si>
+  <si>
+    <t>J4</t>
+  </si>
+  <si>
+    <t>RGB_LED_EXT</t>
+  </si>
+  <si>
+    <t>PinHeader_1x03_P2.54mm_Horizontal</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/components/products/datasheet/6130xx11021.pdf</t>
+  </si>
+  <si>
+    <t>18.9000</t>
+  </si>
+  <si>
+    <t>-4.2250</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>J7</t>
+  </si>
+  <si>
+    <t>Raspberry_pi</t>
+  </si>
+  <si>
+    <t>Raspberry PI Compute Module CM4 Nano A</t>
+  </si>
+  <si>
+    <t>https://www.waveshare.com/wiki/CM4-NANO-A</t>
+  </si>
+  <si>
+    <t>29.5900</t>
+  </si>
+  <si>
+    <t>18.6800</t>
   </si>
   <si>
     <t>90.0000</t>
-  </si>
-  <si>
-    <t>3.3500</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>Generic connector, double row, 02x03, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
-    <t>Conn_02x03_Odd_Even</t>
-  </si>
-  <si>
-    <t>J15</t>
-  </si>
-  <si>
-    <t>MIDI IN/OUT</t>
-  </si>
-  <si>
-    <t>PinHeader_2x03_P2.54mm_Horizontal</t>
-  </si>
-  <si>
-    <t>24.8500</t>
-  </si>
-  <si>
-    <t>80.0750</t>
-  </si>
-  <si>
-    <t>6.7800</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>Audio Jack, 3 Poles (Stereo / TRS), Switched TR Poles (Normalling)</t>
-  </si>
-  <si>
-    <t>AudioJack3_SwitchTR</t>
-  </si>
-  <si>
-    <t>J16 J17</t>
-  </si>
-  <si>
-    <t>MIDI OUT J</t>
-  </si>
-  <si>
-    <t>Jack_3.5mm_CUI_SJ1-3525N_Horizontal</t>
-  </si>
-  <si>
-    <t>https://www.cuidevices.com/product/resource/sj1-352xng.pdf</t>
-  </si>
-  <si>
-    <t>96.0000</t>
-  </si>
-  <si>
-    <t>100.5000</t>
-  </si>
-  <si>
-    <t>11.2000</t>
-  </si>
-  <si>
-    <t>6.7000</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>5-pin DIN connector (5-pin DIN-5 stereo)</t>
-  </si>
-  <si>
-    <t>DIN-5_180degree</t>
-  </si>
-  <si>
-    <t>J1 J2</t>
-  </si>
-  <si>
-    <t>MIDI_OUT</t>
-  </si>
-  <si>
-    <t>CP-2350</t>
-  </si>
-  <si>
-    <t>https://www.switchcraft.com/assets/1/24/57PC5F_CD.pdf</t>
-  </si>
-  <si>
-    <t>103.0000</t>
-  </si>
-  <si>
-    <t>17.5000</t>
-  </si>
-  <si>
-    <t>14.7500</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>Generic connector, single row, 01x02, script generated</t>
-  </si>
-  <si>
-    <t>Conn_01x02_Pin</t>
-  </si>
-  <si>
-    <t>J5</t>
-  </si>
-  <si>
-    <t>Pico USB TP</t>
-  </si>
-  <si>
-    <t>Spring_Loaded_Pins_2mm</t>
-  </si>
-  <si>
-    <t>https://media.digikey.com/pdf/Data%20Sheets/Mill%20Max%20PDFs/Spring%20Loaded%20Connectors.pdf</t>
-  </si>
-  <si>
-    <t>107.0000</t>
-  </si>
-  <si>
-    <t>1.3500</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>Generic connector, single row, 01x03, script generated</t>
-  </si>
-  <si>
-    <t>Conn_01x03_Pin</t>
-  </si>
-  <si>
-    <t>J4</t>
-  </si>
-  <si>
-    <t>RGB_LED_EXT</t>
-  </si>
-  <si>
-    <t>PinHeader_1x03_P2.54mm_Horizontal</t>
-  </si>
-  <si>
-    <t>https://www.we-online.com/components/products/datasheet/6130xx11021.pdf</t>
-  </si>
-  <si>
-    <t>23.5250</t>
-  </si>
-  <si>
-    <t>1.9750</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>J7</t>
-  </si>
-  <si>
-    <t>Raspberry_pi</t>
-  </si>
-  <si>
-    <t>Raspberry PI Compute Module CM4 Nano A</t>
-  </si>
-  <si>
-    <t>https://www.waveshare.com/wiki/CM4-NANO-A</t>
-  </si>
-  <si>
-    <t>29.5900</t>
-  </si>
-  <si>
-    <t>18.6800</t>
   </si>
   <si>
     <t>49.9600</t>
@@ -2787,7 +2787,7 @@
         <v>183</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>184</v>
+        <v>62</v>
       </c>
       <c r="R21" s="7" t="s">
         <v>38</v>
@@ -2799,33 +2799,33 @@
         <v>40</v>
       </c>
       <c r="U21" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="V21" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="45" customHeight="1">
       <c r="A22" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="C22" s="10" t="s">
         <v>187</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>188</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>140</v>
       </c>
       <c r="E22" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="F22" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="G22" s="10" t="s">
         <v>190</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>191</v>
       </c>
       <c r="H22" s="10" t="s">
         <v>143</v>
@@ -2849,10 +2849,10 @@
         <v>96</v>
       </c>
       <c r="O22" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="P22" s="10" t="s">
         <v>192</v>
-      </c>
-      <c r="P22" s="10" t="s">
-        <v>193</v>
       </c>
       <c r="Q22" s="10" t="s">
         <v>62</v>
@@ -2870,30 +2870,30 @@
         <v>149</v>
       </c>
       <c r="V22" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23" spans="1:22" ht="30" customHeight="1">
       <c r="A23" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="C23" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>153</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="H23" s="7" t="s">
         <v>130</v>
@@ -2908,7 +2908,7 @@
         <v>31</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M23" s="7" t="s">
         <v>48</v>
@@ -2917,10 +2917,10 @@
         <v>34</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>37</v>
@@ -2935,33 +2935,33 @@
         <v>40</v>
       </c>
       <c r="U23" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="V23" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="V23" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="24" spans="1:22">
       <c r="A24" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="B24" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="C24" s="10" t="s">
         <v>207</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>208</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>126</v>
       </c>
       <c r="E24" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="F24" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="G24" s="10" t="s">
         <v>210</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>211</v>
       </c>
       <c r="H24" s="10" t="s">
         <v>130</v>
@@ -2976,7 +2976,7 @@
         <v>31</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M24" s="10" t="s">
         <v>48</v>
@@ -2985,10 +2985,10 @@
         <v>34</v>
       </c>
       <c r="O24" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P24" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Q24" s="10" t="s">
         <v>37</v>
@@ -3003,33 +3003,33 @@
         <v>40</v>
       </c>
       <c r="U24" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="V24" s="10" t="s">
         <v>214</v>
-      </c>
-      <c r="V24" s="10" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="30" customHeight="1">
       <c r="A25" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="C25" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>126</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="H25" s="7" t="s">
         <v>130</v>
@@ -3044,7 +3044,7 @@
         <v>31</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M25" s="7" t="s">
         <v>48</v>
@@ -3053,7 +3053,7 @@
         <v>96</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>85</v>
@@ -3071,33 +3071,33 @@
         <v>40</v>
       </c>
       <c r="U25" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="V25" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:22" ht="30" customHeight="1">
       <c r="A26" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="B26" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="C26" s="10" t="s">
         <v>226</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>227</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>126</v>
       </c>
       <c r="E26" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="F26" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="G26" s="10" t="s">
         <v>229</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>230</v>
       </c>
       <c r="H26" s="10" t="s">
         <v>143</v>
@@ -3112,7 +3112,7 @@
         <v>31</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M26" s="10" t="s">
         <v>82</v>
@@ -3121,10 +3121,10 @@
         <v>96</v>
       </c>
       <c r="O26" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="P26" s="10" t="s">
         <v>232</v>
-      </c>
-      <c r="P26" s="10" t="s">
-        <v>233</v>
       </c>
       <c r="Q26" s="10" t="s">
         <v>62</v>
@@ -3142,12 +3142,12 @@
         <v>148</v>
       </c>
       <c r="V26" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:22">
       <c r="A27" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>164</v>
@@ -3159,13 +3159,13 @@
         <v>126</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="H27" s="7" t="s">
         <v>130</v>
@@ -3180,7 +3180,7 @@
         <v>31</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M27" s="7" t="s">
         <v>170</v>
@@ -3189,13 +3189,13 @@
         <v>96</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="R27" s="7" t="s">
         <v>38</v>
@@ -4419,7 +4419,7 @@
         <v>370</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>184</v>
+        <v>240</v>
       </c>
       <c r="R45" s="7" t="s">
         <v>147</v>

--- a/latest/BoM/Positional/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Positional/pedalboard-hw-bom.xlsx
@@ -1208,7 +1208,7 @@
     <t>Component Count:</t>
   </si>
   <si>
-    <t>67 (34 SMD/ 31 THT)</t>
+    <t>67 (40 SMD/ 25 THT)</t>
   </si>
   <si>
     <t>Fitted Components:</t>
@@ -3813,7 +3813,7 @@
         <v>38</v>
       </c>
       <c r="S36" s="10" t="s">
-        <v>134</v>
+        <v>39</v>
       </c>
       <c r="T36" s="10" t="s">
         <v>40</v>
@@ -3881,7 +3881,7 @@
         <v>38</v>
       </c>
       <c r="S37" s="7" t="s">
-        <v>134</v>
+        <v>39</v>
       </c>
       <c r="T37" s="7" t="s">
         <v>40</v>
@@ -3949,7 +3949,7 @@
         <v>38</v>
       </c>
       <c r="S38" s="10" t="s">
-        <v>134</v>
+        <v>39</v>
       </c>
       <c r="T38" s="10" t="s">
         <v>40</v>
@@ -4017,7 +4017,7 @@
         <v>38</v>
       </c>
       <c r="S39" s="7" t="s">
-        <v>134</v>
+        <v>39</v>
       </c>
       <c r="T39" s="7" t="s">
         <v>40</v>
@@ -4085,7 +4085,7 @@
         <v>38</v>
       </c>
       <c r="S40" s="10" t="s">
-        <v>134</v>
+        <v>39</v>
       </c>
       <c r="T40" s="10" t="s">
         <v>40</v>
@@ -4153,7 +4153,7 @@
         <v>38</v>
       </c>
       <c r="S41" s="7" t="s">
-        <v>134</v>
+        <v>39</v>
       </c>
       <c r="T41" s="7" t="s">
         <v>40</v>

--- a/latest/BoM/Positional/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Positional/pedalboard-hw-bom.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="403">
   <si>
     <t>Row</t>
   </si>
@@ -170,72 +170,72 @@
     <t>pedalboard-hw(6)</t>
   </si>
   <si>
-    <t>19.3000</t>
-  </si>
-  <si>
-    <t>84.7000</t>
+    <t>28.1000</t>
+  </si>
+  <si>
+    <t>98.9000</t>
+  </si>
+  <si>
+    <t>2.9000</t>
+  </si>
+  <si>
+    <t>1.4500</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>C16 C17 C20</t>
+  </si>
+  <si>
+    <t>4.7uF</t>
+  </si>
+  <si>
+    <t>https://search.murata.co.jp/Ceramy/image/img/A01X/G101/ENG/GRM21BZ71H475ME15-01.pdf</t>
+  </si>
+  <si>
+    <t>pedalboard-hw(3)</t>
+  </si>
+  <si>
+    <t>138.6500</t>
+  </si>
+  <si>
+    <t>81.1500</t>
+  </si>
+  <si>
+    <t>0.0000</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Polarized capacitor</t>
+  </si>
+  <si>
+    <t>C_Polarized</t>
+  </si>
+  <si>
+    <t>C13 C14 C15</t>
+  </si>
+  <si>
+    <t>270uF</t>
+  </si>
+  <si>
+    <t>CP_Elec_10x10</t>
+  </si>
+  <si>
+    <t>https://connect.kemet.com:7667/gateway/IntelliData-ComponentDocumentation/1.0/download/datasheet/A768MS277M1GLAE022</t>
+  </si>
+  <si>
+    <t>142.8000</t>
+  </si>
+  <si>
+    <t>87.5325</t>
   </si>
   <si>
     <t>270.0000</t>
   </si>
   <si>
-    <t>2.9000</t>
-  </si>
-  <si>
-    <t>1.4500</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>C16 C17 C20</t>
-  </si>
-  <si>
-    <t>4.7uF</t>
-  </si>
-  <si>
-    <t>https://search.murata.co.jp/Ceramy/image/img/A01X/G101/ENG/GRM21BZ71H475ME15-01.pdf</t>
-  </si>
-  <si>
-    <t>pedalboard-hw(3)</t>
-  </si>
-  <si>
-    <t>138.6500</t>
-  </si>
-  <si>
-    <t>81.1500</t>
-  </si>
-  <si>
-    <t>0.0000</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Polarized capacitor</t>
-  </si>
-  <si>
-    <t>C_Polarized</t>
-  </si>
-  <si>
-    <t>C13 C14 C15</t>
-  </si>
-  <si>
-    <t>270uF</t>
-  </si>
-  <si>
-    <t>CP_Elec_10x10</t>
-  </si>
-  <si>
-    <t>https://connect.kemet.com:7667/gateway/IntelliData-ComponentDocumentation/1.0/download/datasheet/A768MS277M1GLAE022</t>
-  </si>
-  <si>
-    <t>142.8000</t>
-  </si>
-  <si>
-    <t>87.5325</t>
-  </si>
-  <si>
     <t>12.0000</t>
   </si>
   <si>
@@ -434,6 +434,42 @@
     <t>10</t>
   </si>
   <si>
+    <t>Generic connector, single row, 01x03, script generated</t>
+  </si>
+  <si>
+    <t>Conn_01x03_Pin</t>
+  </si>
+  <si>
+    <t>J24 J25</t>
+  </si>
+  <si>
+    <t>JST_XH_B3B-XH-A_1x03_P2.50mm_Vertical</t>
+  </si>
+  <si>
+    <t>Connector_JST</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t>29.6000</t>
+  </si>
+  <si>
+    <t>96.5250</t>
+  </si>
+  <si>
+    <t>bottom</t>
+  </si>
+  <si>
+    <t>6.7000</t>
+  </si>
+  <si>
+    <t>1.9500</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
     <t>Generic connector, double row, 02x01, this symbol is compatible with counter-clockwise, top-bottom and odd-even numbering schemes., script generated (kicad-library-utils/schlib/autogen/connector/)</t>
   </si>
   <si>
@@ -461,16 +497,13 @@
     <t>65.1500</t>
   </si>
   <si>
-    <t>bottom</t>
-  </si>
-  <si>
     <t>1.7000</t>
   </si>
   <si>
     <t>4.2400</t>
   </si>
   <si>
-    <t>11</t>
+    <t>12</t>
   </si>
   <si>
     <t>M Series, 6.35mm (1/4in) stereo jack, switched, with chrome ferrule and straight PCB pins</t>
@@ -509,7 +542,7 @@
     <t>19.2300</t>
   </si>
   <si>
-    <t>12</t>
+    <t>13</t>
   </si>
   <si>
     <t>expansion header for Raspberry Pi 2 &amp; 3</t>
@@ -545,7 +578,7 @@
     <t>55.0150</t>
   </si>
   <si>
-    <t>13</t>
+    <t>14</t>
   </si>
   <si>
     <t>Generic connector, double row, 02x02, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
@@ -563,9 +596,6 @@
     <t>Led-Ring</t>
   </si>
   <si>
-    <t>~</t>
-  </si>
-  <si>
     <t>159.0000</t>
   </si>
   <si>
@@ -575,150 +605,117 @@
     <t>3.3500</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>Generic connector, double row, 02x03, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
-    <t>Conn_02x03_Odd_Even</t>
-  </si>
-  <si>
-    <t>J15</t>
-  </si>
-  <si>
-    <t>MIDI IN/OUT</t>
-  </si>
-  <si>
-    <t>PinHeader_2x03_P2.54mm_Horizontal</t>
-  </si>
-  <si>
-    <t>24.8500</t>
-  </si>
-  <si>
-    <t>80.0750</t>
+    <t>15</t>
+  </si>
+  <si>
+    <t>Audio Jack, 3 Poles (Stereo / TRS), Switched TR Poles (Normalling)</t>
+  </si>
+  <si>
+    <t>AudioJack3_SwitchTR</t>
+  </si>
+  <si>
+    <t>J16 J17</t>
+  </si>
+  <si>
+    <t>MIDI OUT J</t>
+  </si>
+  <si>
+    <t>Jack_3.5mm_CUI_SJ1-3525N_Horizontal</t>
+  </si>
+  <si>
+    <t>https://www.cuidevices.com/product/resource/sj1-352xng.pdf</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
+    <t>100.5000</t>
+  </si>
+  <si>
+    <t>11.2000</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>5-pin DIN connector (5-pin DIN-5 stereo)</t>
+  </si>
+  <si>
+    <t>DIN-5_180degree</t>
+  </si>
+  <si>
+    <t>J1 J2</t>
+  </si>
+  <si>
+    <t>MIDI_OUT</t>
+  </si>
+  <si>
+    <t>CP-2350</t>
+  </si>
+  <si>
+    <t>https://www.switchcraft.com/assets/1/24/57PC5F_CD.pdf</t>
+  </si>
+  <si>
+    <t>103.0000</t>
+  </si>
+  <si>
+    <t>17.5000</t>
+  </si>
+  <si>
+    <t>14.7500</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>Generic connector, single row, 01x02, script generated</t>
+  </si>
+  <si>
+    <t>Conn_01x02_Pin</t>
+  </si>
+  <si>
+    <t>J5</t>
+  </si>
+  <si>
+    <t>Pico USB TP</t>
+  </si>
+  <si>
+    <t>Spring_Loaded_Pins_2mm</t>
+  </si>
+  <si>
+    <t>https://media.digikey.com/pdf/Data%20Sheets/Mill%20Max%20PDFs/Spring%20Loaded%20Connectors.pdf</t>
+  </si>
+  <si>
+    <t>107.0000</t>
+  </si>
+  <si>
+    <t>1.3500</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>J4</t>
+  </si>
+  <si>
+    <t>RGB_LED_EXT</t>
+  </si>
+  <si>
+    <t>PinHeader_1x03_P2.54mm_Horizontal</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/components/products/datasheet/6130xx11021.pdf</t>
+  </si>
+  <si>
+    <t>18.9000</t>
+  </si>
+  <si>
+    <t>-4.2250</t>
   </si>
   <si>
     <t>6.7800</t>
   </si>
   <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>Audio Jack, 3 Poles (Stereo / TRS), Switched TR Poles (Normalling)</t>
-  </si>
-  <si>
-    <t>AudioJack3_SwitchTR</t>
-  </si>
-  <si>
-    <t>J16 J17</t>
-  </si>
-  <si>
-    <t>MIDI OUT J</t>
-  </si>
-  <si>
-    <t>Jack_3.5mm_CUI_SJ1-3525N_Horizontal</t>
-  </si>
-  <si>
-    <t>https://www.cuidevices.com/product/resource/sj1-352xng.pdf</t>
-  </si>
-  <si>
-    <t>96.0000</t>
-  </si>
-  <si>
-    <t>100.5000</t>
-  </si>
-  <si>
-    <t>11.2000</t>
-  </si>
-  <si>
-    <t>6.7000</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>5-pin DIN connector (5-pin DIN-5 stereo)</t>
-  </si>
-  <si>
-    <t>DIN-5_180degree</t>
-  </si>
-  <si>
-    <t>J1 J2</t>
-  </si>
-  <si>
-    <t>MIDI_OUT</t>
-  </si>
-  <si>
-    <t>CP-2350</t>
-  </si>
-  <si>
-    <t>https://www.switchcraft.com/assets/1/24/57PC5F_CD.pdf</t>
-  </si>
-  <si>
-    <t>103.0000</t>
-  </si>
-  <si>
-    <t>17.5000</t>
-  </si>
-  <si>
-    <t>14.7500</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>Generic connector, single row, 01x02, script generated</t>
-  </si>
-  <si>
-    <t>Conn_01x02_Pin</t>
-  </si>
-  <si>
-    <t>J5</t>
-  </si>
-  <si>
-    <t>Pico USB TP</t>
-  </si>
-  <si>
-    <t>Spring_Loaded_Pins_2mm</t>
-  </si>
-  <si>
-    <t>https://media.digikey.com/pdf/Data%20Sheets/Mill%20Max%20PDFs/Spring%20Loaded%20Connectors.pdf</t>
-  </si>
-  <si>
-    <t>107.0000</t>
-  </si>
-  <si>
-    <t>1.3500</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>Generic connector, single row, 01x03, script generated</t>
-  </si>
-  <si>
-    <t>Conn_01x03_Pin</t>
-  </si>
-  <si>
-    <t>J4</t>
-  </si>
-  <si>
-    <t>RGB_LED_EXT</t>
-  </si>
-  <si>
-    <t>PinHeader_1x03_P2.54mm_Horizontal</t>
-  </si>
-  <si>
-    <t>https://www.we-online.com/components/products/datasheet/6130xx11021.pdf</t>
-  </si>
-  <si>
-    <t>18.9000</t>
-  </si>
-  <si>
-    <t>-4.2250</t>
-  </si>
-  <si>
     <t>19</t>
   </si>
   <si>
@@ -911,7 +908,7 @@
     <t>https://www.seielect.com/catalog/sei-rncp.pdf</t>
   </si>
   <si>
-    <t>35.0000</t>
+    <t>35.9000</t>
   </si>
   <si>
     <t>82.1000</t>
@@ -1208,7 +1205,7 @@
     <t>Component Count:</t>
   </si>
   <si>
-    <t>67 (40 SMD/ 25 THT)</t>
+    <t>68 (40 SMD/ 26 THT)</t>
   </si>
   <si>
     <t>Fitted Components:</t>
@@ -1319,13 +1316,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF8080"/>
+        <fgColor rgb="FFFF8A8A"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF8A8A"/>
+        <fgColor rgb="FFFF8080"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1761,7 +1758,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1785,13 +1782,13 @@
     </row>
     <row r="2" spans="1:22">
       <c r="C2" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>385</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F2" s="3">
         <v>38</v>
@@ -1799,41 +1796,41 @@
     </row>
     <row r="3" spans="1:22">
       <c r="C3" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>387</v>
-      </c>
       <c r="E3" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>395</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="C4" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>389</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="C5" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>391</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1841,16 +1838,16 @@
     </row>
     <row r="6" spans="1:22">
       <c r="C6" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>393</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F6" s="3">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -2039,7 +2036,7 @@
         <v>51</v>
       </c>
       <c r="Q10" s="10" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="R10" s="10" t="s">
         <v>38</v>
@@ -2051,15 +2048,15 @@
         <v>40</v>
       </c>
       <c r="U10" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="V10" s="10" t="s">
         <v>53</v>
-      </c>
-      <c r="V10" s="10" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="30" customHeight="1">
       <c r="A11" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>23</v>
@@ -2071,10 +2068,10 @@
         <v>25</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>45</v>
@@ -2083,31 +2080,31 @@
         <v>29</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K11" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M11" s="7" t="s">
         <v>33</v>
       </c>
       <c r="N11" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="R11" s="7" t="s">
         <v>38</v>
@@ -2119,63 +2116,63 @@
         <v>40</v>
       </c>
       <c r="U11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="V11" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="V11" s="7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="30" customHeight="1">
       <c r="A12" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="C12" s="10" t="s">
         <v>64</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>65</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E12" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="G12" s="10" t="s">
         <v>67</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>68</v>
       </c>
       <c r="H12" s="10" t="s">
         <v>29</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K12" s="8" t="s">
         <v>31</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M12" s="10" t="s">
         <v>33</v>
       </c>
       <c r="N12" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O12" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="P12" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="P12" s="10" t="s">
+      <c r="Q12" s="10" t="s">
         <v>71</v>
-      </c>
-      <c r="Q12" s="10" t="s">
-        <v>52</v>
       </c>
       <c r="R12" s="10" t="s">
         <v>38</v>
@@ -2219,10 +2216,10 @@
         <v>80</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K13" s="5" t="s">
         <v>31</v>
@@ -2243,7 +2240,7 @@
         <v>85</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R13" s="7" t="s">
         <v>38</v>
@@ -2311,7 +2308,7 @@
         <v>98</v>
       </c>
       <c r="Q14" s="10" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="R14" s="10" t="s">
         <v>38</v>
@@ -2379,7 +2376,7 @@
         <v>109</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="R15" s="7" t="s">
         <v>38</v>
@@ -2533,7 +2530,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="60" customHeight="1">
+    <row r="18" spans="1:22">
       <c r="A18" s="8" t="s">
         <v>137</v>
       </c>
@@ -2544,49 +2541,49 @@
         <v>139</v>
       </c>
       <c r="D18" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E18" s="10" t="s">
         <v>140</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>141</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>139</v>
       </c>
       <c r="G18" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="H18" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="H18" s="10" t="s">
-        <v>143</v>
-      </c>
       <c r="I18" s="8" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="K18" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="L18" s="10" t="s">
+      <c r="L18" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="M18" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="N18" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="O18" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="M18" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="N18" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="O18" s="10" t="s">
+      <c r="P18" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="P18" s="10" t="s">
+      <c r="Q18" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="R18" s="10" t="s">
         <v>146</v>
-      </c>
-      <c r="Q18" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="R18" s="10" t="s">
-        <v>147</v>
       </c>
       <c r="S18" s="10" t="s">
         <v>134</v>
@@ -2595,66 +2592,66 @@
         <v>40</v>
       </c>
       <c r="U18" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="V18" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="V18" s="10" t="s">
+    </row>
+    <row r="19" spans="1:22" ht="60" customHeight="1">
+      <c r="A19" s="5" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="19" spans="1:22" ht="30" customHeight="1">
-      <c r="A19" s="5" t="s">
+      <c r="B19" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="C19" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="D19" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="E19" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="F19" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="H19" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>130</v>
-      </c>
       <c r="I19" s="5" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="K19" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L19" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="M19" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="N19" s="5" t="s">
+      <c r="P19" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="O19" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>160</v>
-      </c>
       <c r="Q19" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R19" s="7" t="s">
-        <v>38</v>
+        <v>146</v>
       </c>
       <c r="S19" s="7" t="s">
         <v>134</v>
@@ -2663,66 +2660,66 @@
         <v>40</v>
       </c>
       <c r="U19" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="V19" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="30" customHeight="1">
       <c r="A20" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C20" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="D20" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="E20" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="D20" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="E20" s="10" t="s">
+      <c r="F20" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="G20" s="10" t="s">
         <v>167</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>168</v>
       </c>
       <c r="H20" s="10" t="s">
         <v>130</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="K20" s="8" t="s">
         <v>31</v>
       </c>
       <c r="L20" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="M20" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="N20" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="M20" s="10" t="s">
+      <c r="O20" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="N20" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="O20" s="10" t="s">
+      <c r="P20" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="P20" s="10" t="s">
-        <v>172</v>
-      </c>
       <c r="Q20" s="10" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="R20" s="10" t="s">
-        <v>147</v>
+        <v>38</v>
       </c>
       <c r="S20" s="10" t="s">
         <v>134</v>
@@ -2731,54 +2728,54 @@
         <v>40</v>
       </c>
       <c r="U20" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="V20" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="V20" s="10" t="s">
+    </row>
+    <row r="21" spans="1:22" ht="30" customHeight="1">
+      <c r="A21" s="5" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="21" spans="1:22" ht="45" customHeight="1">
-      <c r="A21" s="5" t="s">
+      <c r="B21" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="C21" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="D21" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E21" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="E21" s="7" t="s">
+      <c r="F21" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>130</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="K21" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L21" s="11" t="s">
+      <c r="L21" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="M21" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="M21" s="7" t="s">
-        <v>82</v>
-      </c>
       <c r="N21" s="5" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>182</v>
@@ -2787,10 +2784,10 @@
         <v>183</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="R21" s="7" t="s">
-        <v>38</v>
+        <v>146</v>
       </c>
       <c r="S21" s="7" t="s">
         <v>134</v>
@@ -2802,63 +2799,63 @@
         <v>184</v>
       </c>
       <c r="V21" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="45" customHeight="1">
       <c r="A22" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="K22" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="L22" s="12" t="s">
-        <v>181</v>
+      <c r="L22" s="11" t="s">
+        <v>143</v>
       </c>
       <c r="M22" s="10" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="N22" s="8" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="O22" s="10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P22" s="10" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q22" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R22" s="10" t="s">
-        <v>147</v>
+        <v>38</v>
       </c>
       <c r="S22" s="10" t="s">
         <v>134</v>
@@ -2867,33 +2864,33 @@
         <v>40</v>
       </c>
       <c r="U22" s="10" t="s">
-        <v>149</v>
+        <v>194</v>
       </c>
       <c r="V22" s="10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23" spans="1:22" ht="30" customHeight="1">
       <c r="A23" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H23" s="7" t="s">
         <v>130</v>
@@ -2908,7 +2905,7 @@
         <v>31</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M23" s="7" t="s">
         <v>48</v>
@@ -2917,10 +2914,10 @@
         <v>34</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>37</v>
@@ -2935,10 +2932,10 @@
         <v>40</v>
       </c>
       <c r="U23" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="V23" s="7" t="s">
-        <v>204</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:22">
@@ -2985,7 +2982,7 @@
         <v>34</v>
       </c>
       <c r="O24" s="10" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P24" s="10" t="s">
         <v>212</v>
@@ -3062,7 +3059,7 @@
         <v>37</v>
       </c>
       <c r="R25" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S25" s="7" t="s">
         <v>134</v>
@@ -3074,7 +3071,7 @@
         <v>223</v>
       </c>
       <c r="V25" s="7" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26" spans="1:22" ht="30" customHeight="1">
@@ -3082,25 +3079,25 @@
         <v>224</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>225</v>
+        <v>138</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>226</v>
+        <v>139</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>126</v>
       </c>
       <c r="E26" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="G26" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="F26" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>229</v>
-      </c>
       <c r="H26" s="10" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="I26" s="8" t="s">
         <v>22</v>
@@ -3112,7 +3109,7 @@
         <v>31</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="M26" s="10" t="s">
         <v>82</v>
@@ -3121,16 +3118,16 @@
         <v>96</v>
       </c>
       <c r="O26" s="10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="P26" s="10" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="Q26" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R26" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S26" s="10" t="s">
         <v>134</v>
@@ -3139,33 +3136,33 @@
         <v>40</v>
       </c>
       <c r="U26" s="10" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="V26" s="10" t="s">
-        <v>193</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27" spans="1:22">
       <c r="A27" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>126</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="H27" s="7" t="s">
         <v>130</v>
@@ -3180,22 +3177,22 @@
         <v>31</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M27" s="7" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="N27" s="5" t="s">
         <v>96</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="R27" s="7" t="s">
         <v>38</v>
@@ -3207,33 +3204,33 @@
         <v>40</v>
       </c>
       <c r="U27" s="7" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="V27" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="30" customHeight="1">
       <c r="A28" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="B28" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="C28" s="10" t="s">
         <v>243</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>244</v>
       </c>
       <c r="D28" s="10" t="s">
         <v>126</v>
       </c>
       <c r="E28" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="G28" s="10" t="s">
         <v>245</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>246</v>
       </c>
       <c r="H28" s="10" t="s">
         <v>130</v>
@@ -3248,25 +3245,25 @@
         <v>31</v>
       </c>
       <c r="L28" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M28" s="10" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="N28" s="8" t="s">
         <v>96</v>
       </c>
       <c r="O28" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="P28" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="P28" s="10" t="s">
-        <v>249</v>
-      </c>
       <c r="Q28" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R28" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S28" s="10" t="s">
         <v>134</v>
@@ -3275,36 +3272,36 @@
         <v>40</v>
       </c>
       <c r="U28" s="10" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="V28" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="29" spans="1:22">
       <c r="A29" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="C29" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="H29" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>22</v>
@@ -3316,7 +3313,7 @@
         <v>31</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M29" s="7" t="s">
         <v>33</v>
@@ -3325,13 +3322,13 @@
         <v>96</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="P29" s="7" t="s">
-        <v>260</v>
-      </c>
       <c r="Q29" s="7" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="R29" s="7" t="s">
         <v>38</v>
@@ -3343,36 +3340,36 @@
         <v>40</v>
       </c>
       <c r="U29" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="V29" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="V29" s="7" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="30" spans="1:22" ht="30" customHeight="1">
       <c r="A30" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="B30" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="C30" s="10" t="s">
         <v>264</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>265</v>
       </c>
       <c r="D30" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E30" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="F30" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="F30" s="10" t="s">
+      <c r="G30" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="G30" s="10" t="s">
-        <v>268</v>
-      </c>
       <c r="H30" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I30" s="8" t="s">
         <v>74</v>
@@ -3384,19 +3381,19 @@
         <v>31</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M30" s="10" t="s">
         <v>48</v>
       </c>
       <c r="N30" s="8" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="O30" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="P30" s="10" t="s">
         <v>270</v>
-      </c>
-      <c r="P30" s="10" t="s">
-        <v>271</v>
       </c>
       <c r="Q30" s="10" t="s">
         <v>37</v>
@@ -3411,33 +3408,33 @@
         <v>40</v>
       </c>
       <c r="U30" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="V30" s="10" t="s">
         <v>272</v>
-      </c>
-      <c r="V30" s="10" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="31" spans="1:22">
       <c r="A31" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="B31" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="C31" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="D31" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="E31" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="D31" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="E31" s="7" t="s">
+      <c r="F31" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="H31" s="7" t="s">
         <v>130</v>
@@ -3452,7 +3449,7 @@
         <v>31</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M31" s="7" t="s">
         <v>33</v>
@@ -3461,10 +3458,10 @@
         <v>96</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>37</v>
@@ -3479,33 +3476,33 @@
         <v>40</v>
       </c>
       <c r="U31" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="V31" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="32" spans="1:22">
       <c r="A32" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="C32" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="B32" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="C32" s="10" t="s">
+      <c r="D32" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="E32" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="D32" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="E32" s="10" t="s">
+      <c r="F32" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="G32" s="10" t="s">
         <v>285</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="G32" s="10" t="s">
-        <v>286</v>
       </c>
       <c r="H32" s="10" t="s">
         <v>130</v>
@@ -3519,8 +3516,8 @@
       <c r="K32" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="L32" s="12" t="s">
-        <v>275</v>
+      <c r="L32" s="11" t="s">
+        <v>274</v>
       </c>
       <c r="M32" s="10" t="s">
         <v>33</v>
@@ -3529,13 +3526,13 @@
         <v>96</v>
       </c>
       <c r="O32" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P32" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Q32" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R32" s="10" t="s">
         <v>38</v>
@@ -3547,36 +3544,36 @@
         <v>40</v>
       </c>
       <c r="U32" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="V32" s="10" t="s">
         <v>288</v>
-      </c>
-      <c r="V32" s="10" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="33" spans="1:22">
       <c r="A33" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="C33" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>137</v>
       </c>
       <c r="G33" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="H33" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>22</v>
@@ -3588,7 +3585,7 @@
         <v>31</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="M33" s="7" t="s">
         <v>48</v>
@@ -3597,13 +3594,13 @@
         <v>96</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="P33" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="P33" s="7" t="s">
-        <v>298</v>
-      </c>
       <c r="Q33" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R33" s="7" t="s">
         <v>38</v>
@@ -3615,36 +3612,36 @@
         <v>40</v>
       </c>
       <c r="U33" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="V33" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="V33" s="7" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="34" spans="1:22">
       <c r="A34" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B34" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="C34" s="10" t="s">
         <v>291</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>292</v>
       </c>
       <c r="D34" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E34" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="F34" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="F34" s="10" t="s">
-        <v>303</v>
-      </c>
       <c r="G34" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="H34" s="10" t="s">
         <v>294</v>
-      </c>
-      <c r="H34" s="10" t="s">
-        <v>295</v>
       </c>
       <c r="I34" s="8" t="s">
         <v>22</v>
@@ -3656,7 +3653,7 @@
         <v>31</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M34" s="10" t="s">
         <v>48</v>
@@ -3665,10 +3662,10 @@
         <v>96</v>
       </c>
       <c r="O34" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="P34" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="Q34" s="10" t="s">
         <v>37</v>
@@ -3683,36 +3680,36 @@
         <v>40</v>
       </c>
       <c r="U34" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="V34" s="10" t="s">
         <v>299</v>
-      </c>
-      <c r="V34" s="10" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="35" spans="1:22">
       <c r="A35" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B35" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="C35" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="F35" s="7" t="s">
-        <v>308</v>
-      </c>
       <c r="G35" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="H35" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>30</v>
@@ -3724,7 +3721,7 @@
         <v>31</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M35" s="7" t="s">
         <v>48</v>
@@ -3733,13 +3730,13 @@
         <v>34</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="P35" s="7" t="s">
-        <v>310</v>
-      </c>
       <c r="Q35" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R35" s="7" t="s">
         <v>38</v>
@@ -3751,33 +3748,33 @@
         <v>40</v>
       </c>
       <c r="U35" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="V35" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="V35" s="7" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="36" spans="1:22" ht="30" customHeight="1">
       <c r="A36" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="B36" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="C36" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="D36" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="E36" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="E36" s="10" t="s">
+      <c r="F36" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="F36" s="10" t="s">
+      <c r="G36" s="10" t="s">
         <v>316</v>
-      </c>
-      <c r="G36" s="10" t="s">
-        <v>317</v>
       </c>
       <c r="H36" s="10" t="s">
         <v>130</v>
@@ -3792,7 +3789,7 @@
         <v>31</v>
       </c>
       <c r="L36" s="10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M36" s="10" t="s">
         <v>48</v>
@@ -3801,13 +3798,13 @@
         <v>96</v>
       </c>
       <c r="O36" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="P36" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="P36" s="10" t="s">
-        <v>320</v>
-      </c>
       <c r="Q36" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R36" s="10" t="s">
         <v>38</v>
@@ -3819,33 +3816,33 @@
         <v>40</v>
       </c>
       <c r="U36" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="V36" s="10" t="s">
         <v>321</v>
-      </c>
-      <c r="V36" s="10" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="37" spans="1:22" ht="30" customHeight="1">
       <c r="A37" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="E37" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="B37" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="E37" s="7" t="s">
+      <c r="F37" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="F37" s="7" t="s">
-        <v>325</v>
-      </c>
       <c r="G37" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H37" s="7" t="s">
         <v>130</v>
@@ -3860,7 +3857,7 @@
         <v>31</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M37" s="7" t="s">
         <v>48</v>
@@ -3869,13 +3866,13 @@
         <v>96</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R37" s="7" t="s">
         <v>38</v>
@@ -3887,33 +3884,33 @@
         <v>40</v>
       </c>
       <c r="U37" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="V37" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="V37" s="7" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="38" spans="1:22" ht="30" customHeight="1">
       <c r="A38" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="E38" s="10" t="s">
         <v>327</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>313</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>314</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>328</v>
       </c>
       <c r="F38" s="10" t="s">
         <v>24</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H38" s="10" t="s">
         <v>130</v>
@@ -3928,7 +3925,7 @@
         <v>31</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M38" s="10" t="s">
         <v>48</v>
@@ -3937,13 +3934,13 @@
         <v>96</v>
       </c>
       <c r="O38" s="10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="P38" s="10" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="Q38" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R38" s="10" t="s">
         <v>38</v>
@@ -3955,33 +3952,33 @@
         <v>40</v>
       </c>
       <c r="U38" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="V38" s="10" t="s">
         <v>321</v>
-      </c>
-      <c r="V38" s="10" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="39" spans="1:22" ht="30" customHeight="1">
       <c r="A39" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="E39" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="E39" s="7" t="s">
+      <c r="F39" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="F39" s="7" t="s">
-        <v>332</v>
-      </c>
       <c r="G39" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H39" s="7" t="s">
         <v>130</v>
@@ -3996,7 +3993,7 @@
         <v>31</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M39" s="7" t="s">
         <v>48</v>
@@ -4005,13 +4002,13 @@
         <v>96</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R39" s="7" t="s">
         <v>38</v>
@@ -4023,33 +4020,33 @@
         <v>40</v>
       </c>
       <c r="U39" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="V39" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="V39" s="7" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="40" spans="1:22" ht="30" customHeight="1">
       <c r="A40" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="E40" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="B40" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>313</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>314</v>
-      </c>
-      <c r="E40" s="10" t="s">
+      <c r="F40" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="F40" s="10" t="s">
-        <v>336</v>
-      </c>
       <c r="G40" s="10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H40" s="10" t="s">
         <v>130</v>
@@ -4064,7 +4061,7 @@
         <v>31</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M40" s="10" t="s">
         <v>48</v>
@@ -4073,13 +4070,13 @@
         <v>96</v>
       </c>
       <c r="O40" s="10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="P40" s="10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Q40" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R40" s="10" t="s">
         <v>38</v>
@@ -4091,33 +4088,33 @@
         <v>40</v>
       </c>
       <c r="U40" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="V40" s="10" t="s">
         <v>321</v>
-      </c>
-      <c r="V40" s="10" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="41" spans="1:22" ht="30" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B41" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="C41" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="D41" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="D41" s="7" t="s">
-        <v>314</v>
-      </c>
       <c r="E41" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="F41" s="7" t="s">
-        <v>338</v>
-      </c>
       <c r="G41" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H41" s="7" t="s">
         <v>130</v>
@@ -4132,7 +4129,7 @@
         <v>31</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M41" s="7" t="s">
         <v>48</v>
@@ -4141,13 +4138,13 @@
         <v>96</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R41" s="7" t="s">
         <v>38</v>
@@ -4159,33 +4156,33 @@
         <v>40</v>
       </c>
       <c r="U41" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="V41" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="V41" s="7" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="42" spans="1:22" ht="30" customHeight="1">
       <c r="A42" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="B42" s="9" t="s">
         <v>339</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="C42" s="10" t="s">
         <v>340</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>341</v>
       </c>
       <c r="D42" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E42" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="F42" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="F42" s="10" t="s">
+      <c r="G42" s="10" t="s">
         <v>343</v>
-      </c>
-      <c r="G42" s="10" t="s">
-        <v>344</v>
       </c>
       <c r="H42" s="10" t="s">
         <v>130</v>
@@ -4200,7 +4197,7 @@
         <v>31</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M42" s="10" t="s">
         <v>48</v>
@@ -4209,13 +4206,13 @@
         <v>96</v>
       </c>
       <c r="O42" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="P42" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="P42" s="10" t="s">
-        <v>347</v>
-      </c>
       <c r="Q42" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R42" s="10" t="s">
         <v>38</v>
@@ -4227,33 +4224,33 @@
         <v>40</v>
       </c>
       <c r="U42" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="V42" s="10" t="s">
         <v>348</v>
-      </c>
-      <c r="V42" s="10" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="43" spans="1:22" ht="30" customHeight="1">
       <c r="A43" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B43" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="C43" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>341</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="F43" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="F43" s="7" t="s">
-        <v>352</v>
-      </c>
       <c r="G43" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H43" s="7" t="s">
         <v>130</v>
@@ -4268,7 +4265,7 @@
         <v>31</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M43" s="7" t="s">
         <v>48</v>
@@ -4277,13 +4274,13 @@
         <v>96</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R43" s="7" t="s">
         <v>38</v>
@@ -4295,33 +4292,33 @@
         <v>40</v>
       </c>
       <c r="U43" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="V43" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="V43" s="7" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="44" spans="1:22">
       <c r="A44" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="C44" s="10" t="s">
         <v>354</v>
       </c>
-      <c r="B44" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="C44" s="10" t="s">
+      <c r="D44" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="E44" s="10" t="s">
         <v>355</v>
       </c>
-      <c r="D44" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="E44" s="10" t="s">
+      <c r="F44" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="G44" s="10" t="s">
         <v>356</v>
-      </c>
-      <c r="F44" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="G44" s="10" t="s">
-        <v>357</v>
       </c>
       <c r="H44" s="10" t="s">
         <v>130</v>
@@ -4336,7 +4333,7 @@
         <v>31</v>
       </c>
       <c r="L44" s="10" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M44" s="10" t="s">
         <v>82</v>
@@ -4345,10 +4342,10 @@
         <v>96</v>
       </c>
       <c r="O44" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="P44" s="10" t="s">
         <v>359</v>
-      </c>
-      <c r="P44" s="10" t="s">
-        <v>360</v>
       </c>
       <c r="Q44" s="10" t="s">
         <v>37</v>
@@ -4363,33 +4360,33 @@
         <v>40</v>
       </c>
       <c r="U44" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="V44" s="10" t="s">
         <v>361</v>
-      </c>
-      <c r="V44" s="10" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="45" spans="1:22" ht="30" customHeight="1">
       <c r="A45" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="C45" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="B45" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="C45" s="7" t="s">
+      <c r="D45" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="E45" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="F45" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="G45" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>367</v>
       </c>
       <c r="H45" s="7" t="s">
         <v>130</v>
@@ -4404,7 +4401,7 @@
         <v>31</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="M45" s="7" t="s">
         <v>48</v>
@@ -4413,16 +4410,16 @@
         <v>96</v>
       </c>
       <c r="O45" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="P45" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="P45" s="7" t="s">
-        <v>370</v>
-      </c>
       <c r="Q45" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="R45" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S45" s="7" t="s">
         <v>134</v>
@@ -4431,36 +4428,36 @@
         <v>40</v>
       </c>
       <c r="U45" s="7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="V45" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="46" spans="1:22" ht="30" customHeight="1">
       <c r="A46" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="B46" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="C46" s="10" t="s">
         <v>373</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="D46" s="10" t="s">
         <v>374</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="E46" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="E46" s="10" t="s">
+      <c r="F46" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="G46" s="10" t="s">
         <v>376</v>
       </c>
-      <c r="F46" s="10" t="s">
-        <v>374</v>
-      </c>
-      <c r="G46" s="10" t="s">
+      <c r="H46" s="10" t="s">
         <v>377</v>
-      </c>
-      <c r="H46" s="10" t="s">
-        <v>378</v>
       </c>
       <c r="I46" s="8" t="s">
         <v>22</v>
@@ -4472,7 +4469,7 @@
         <v>31</v>
       </c>
       <c r="L46" s="10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M46" s="10" t="s">
         <v>48</v>
@@ -4481,13 +4478,13 @@
         <v>96</v>
       </c>
       <c r="O46" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="P46" s="10" t="s">
         <v>98</v>
       </c>
       <c r="Q46" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R46" s="10" t="s">
         <v>38</v>
@@ -4499,10 +4496,10 @@
         <v>40</v>
       </c>
       <c r="U46" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="V46" s="10" t="s">
         <v>381</v>
-      </c>
-      <c r="V46" s="10" t="s">
-        <v>382</v>
       </c>
     </row>
   </sheetData>
@@ -4528,22 +4525,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="12" t="s">
         <v>402</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="11" t="s">
-        <v>403</v>
       </c>
     </row>
   </sheetData>

--- a/latest/BoM/Positional/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Positional/pedalboard-hw-bom.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="394">
   <si>
     <t>Row</t>
   </si>
@@ -125,10 +125,10 @@
     <t>pedalboard-hw(2)</t>
   </si>
   <si>
-    <t>135.1000</t>
-  </si>
-  <si>
-    <t>76.0500</t>
+    <t>137.0944</t>
+  </si>
+  <si>
+    <t>82.0444</t>
   </si>
   <si>
     <t>180.0000</t>
@@ -170,10 +170,10 @@
     <t>pedalboard-hw(6)</t>
   </si>
   <si>
-    <t>28.1000</t>
-  </si>
-  <si>
-    <t>98.9000</t>
+    <t>30.0944</t>
+  </si>
+  <si>
+    <t>104.8944</t>
   </si>
   <si>
     <t>2.9000</t>
@@ -197,10 +197,10 @@
     <t>pedalboard-hw(3)</t>
   </si>
   <si>
-    <t>138.6500</t>
-  </si>
-  <si>
-    <t>81.1500</t>
+    <t>140.6444</t>
+  </si>
+  <si>
+    <t>87.1444</t>
   </si>
   <si>
     <t>0.0000</t>
@@ -227,10 +227,10 @@
     <t>https://connect.kemet.com:7667/gateway/IntelliData-ComponentDocumentation/1.0/download/datasheet/A768MS277M1GLAE022</t>
   </si>
   <si>
-    <t>142.8000</t>
-  </si>
-  <si>
-    <t>87.5325</t>
+    <t>144.7944</t>
+  </si>
+  <si>
+    <t>93.5269</t>
   </si>
   <si>
     <t>270.0000</t>
@@ -272,10 +272,10 @@
     <t>pedalboard-hw(4)</t>
   </si>
   <si>
-    <t>45.6000</t>
-  </si>
-  <si>
-    <t>77.0000</t>
+    <t>47.5944</t>
+  </si>
+  <si>
+    <t>82.9944</t>
   </si>
   <si>
     <t>6.4000</t>
@@ -311,10 +311,10 @@
     <t>pedalboard-hw(1)</t>
   </si>
   <si>
-    <t>24.2000</t>
-  </si>
-  <si>
-    <t>92.6000</t>
+    <t>26.1944</t>
+  </si>
+  <si>
+    <t>98.5944</t>
   </si>
   <si>
     <t>3.9000</t>
@@ -344,10 +344,10 @@
     <t>https://www.comchiptech.com/admin/files/product/20190514101641.pdf</t>
   </si>
   <si>
-    <t>113.6500</t>
-  </si>
-  <si>
-    <t>75.7000</t>
+    <t>115.6444</t>
+  </si>
+  <si>
+    <t>81.6944</t>
   </si>
   <si>
     <t>6.5000</t>
@@ -377,10 +377,10 @@
     <t>https://www.littelfuse.com/~/media/electronics/datasheets/resettable_ptcs/littelfuse_ptc_1812l_datasheet.pdf.pdf</t>
   </si>
   <si>
-    <t>149.7000</t>
-  </si>
-  <si>
-    <t>96.2500</t>
+    <t>151.6944</t>
+  </si>
+  <si>
+    <t>102.2444</t>
   </si>
   <si>
     <t>5.4000</t>
@@ -416,10 +416,10 @@
     <t>https://www.we-online.com/components/products/datasheet/6941xx301002.pdf</t>
   </si>
   <si>
-    <t>159.4000</t>
-  </si>
-  <si>
-    <t>94.6000</t>
+    <t>161.3944</t>
+  </si>
+  <si>
+    <t>100.5944</t>
   </si>
   <si>
     <t>THT</t>
@@ -434,13 +434,244 @@
     <t>10</t>
   </si>
   <si>
+    <t>Generic connector, double row, 02x01, this symbol is compatible with counter-clockwise, top-bottom and odd-even numbering schemes., script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+  </si>
+  <si>
+    <t>Conn_02x01</t>
+  </si>
+  <si>
+    <t>Connector_Generic</t>
+  </si>
+  <si>
+    <t>J14</t>
+  </si>
+  <si>
+    <t>PinHeader_1x02_P2.54mm_Horizontal</t>
+  </si>
+  <si>
+    <t>Connector_PinHeader_2.54mm</t>
+  </si>
+  <si>
+    <t>https://cdn.amphenol-cs.com/media/wysiwyg/files/drawing/68015.pdf</t>
+  </si>
+  <si>
+    <t>117.0694</t>
+  </si>
+  <si>
+    <t>71.1444</t>
+  </si>
+  <si>
+    <t>bottom</t>
+  </si>
+  <si>
+    <t>1.7000</t>
+  </si>
+  <si>
+    <t>4.2400</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>M Series, 6.35mm (1/4in) stereo jack, switched, with chrome ferrule and straight PCB pins</t>
+  </si>
+  <si>
+    <t>NMJ6HCD2</t>
+  </si>
+  <si>
+    <t>Connector_Audio</t>
+  </si>
+  <si>
+    <t>J3 J9 J10 J11 J12</t>
+  </si>
+  <si>
+    <t>EXP</t>
+  </si>
+  <si>
+    <t>Jack_6.35mm_Horizontal</t>
+  </si>
+  <si>
+    <t>https://www.schurter.com/en/datasheet/typ_4833.2320.pdf</t>
+  </si>
+  <si>
+    <t>pedalboard-hw(5)</t>
+  </si>
+  <si>
+    <t>157.6094</t>
+  </si>
+  <si>
+    <t>97.1944</t>
+  </si>
+  <si>
+    <t>15.7000</t>
+  </si>
+  <si>
+    <t>19.2300</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>expansion header for Raspberry Pi 2 &amp; 3</t>
+  </si>
+  <si>
+    <t>Raspberry_Pi_2_3</t>
+  </si>
+  <si>
+    <t>J8</t>
+  </si>
+  <si>
+    <t>HiFi Berry</t>
+  </si>
+  <si>
+    <t>HiFi Berry DAC ADC+</t>
+  </si>
+  <si>
+    <t>https://www.hifiberry.com/docs/data-sheets/datasheet-dac-adc-pro/</t>
+  </si>
+  <si>
+    <t>/Audio</t>
+  </si>
+  <si>
+    <t>62.6188</t>
+  </si>
+  <si>
+    <t>41.4500</t>
+  </si>
+  <si>
+    <t>55.0150</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Generic connector, double row, 02x02, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+  </si>
+  <si>
+    <t>Conn_02x02_Odd_Even</t>
+  </si>
+  <si>
+    <t>J18 J19 J20 J21 J22 J23</t>
+  </si>
+  <si>
+    <t>LED-Ring</t>
+  </si>
+  <si>
+    <t>Led-Ring</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t>160.9944</t>
+  </si>
+  <si>
+    <t>74.9944</t>
+  </si>
+  <si>
+    <t>3.3500</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>Audio Jack, 3 Poles (Stereo / TRS), Switched TR Poles (Normalling)</t>
+  </si>
+  <si>
+    <t>AudioJack3_SwitchTR</t>
+  </si>
+  <si>
+    <t>J16 J17</t>
+  </si>
+  <si>
+    <t>MIDI OUT J</t>
+  </si>
+  <si>
+    <t>Jack_3.5mm_CUI_SJ1-3525N_Horizontal</t>
+  </si>
+  <si>
+    <t>https://www.cuidevices.com/product/resource/sj1-352xng.pdf</t>
+  </si>
+  <si>
+    <t>97.9944</t>
+  </si>
+  <si>
+    <t>106.4944</t>
+  </si>
+  <si>
+    <t>11.2000</t>
+  </si>
+  <si>
+    <t>6.7000</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>5-pin DIN connector (5-pin DIN-5 stereo)</t>
+  </si>
+  <si>
+    <t>DIN-5_180degree</t>
+  </si>
+  <si>
+    <t>J1 J2</t>
+  </si>
+  <si>
+    <t>MIDI_OUT</t>
+  </si>
+  <si>
+    <t>CP-2350</t>
+  </si>
+  <si>
+    <t>https://www.switchcraft.com/assets/1/24/57PC5F_CD.pdf</t>
+  </si>
+  <si>
+    <t>108.9944</t>
+  </si>
+  <si>
+    <t>17.5000</t>
+  </si>
+  <si>
+    <t>14.7500</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>Generic connector, single row, 01x02, script generated</t>
+  </si>
+  <si>
+    <t>Conn_01x02_Pin</t>
+  </si>
+  <si>
+    <t>J5</t>
+  </si>
+  <si>
+    <t>Pico USB TP</t>
+  </si>
+  <si>
+    <t>Spring_Loaded_Pins_2mm</t>
+  </si>
+  <si>
+    <t>https://media.digikey.com/pdf/Data%20Sheets/Mill%20Max%20PDFs/Spring%20Loaded%20Connectors.pdf</t>
+  </si>
+  <si>
+    <t>1.3500</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
     <t>Generic connector, single row, 01x03, script generated</t>
   </si>
   <si>
     <t>Conn_01x03_Pin</t>
   </si>
   <si>
-    <t>J24 J25</t>
+    <t>J4 J24 J25</t>
+  </si>
+  <si>
+    <t>RGB_LED_EXT</t>
   </si>
   <si>
     <t>JST_XH_B3B-XH-A_1x03_P2.50mm_Vertical</t>
@@ -449,693 +680,435 @@
     <t>Connector_JST</t>
   </si>
   <si>
-    <t>~</t>
-  </si>
-  <si>
-    <t>29.6000</t>
-  </si>
-  <si>
-    <t>96.5250</t>
-  </si>
-  <si>
-    <t>bottom</t>
-  </si>
-  <si>
-    <t>6.7000</t>
+    <t>https://www.we-online.com/components/products/datasheet/6130xx11021.pdf</t>
+  </si>
+  <si>
+    <t>24.8944</t>
+  </si>
+  <si>
+    <t>3.8944</t>
   </si>
   <si>
     <t>1.9500</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>Generic connector, double row, 02x01, this symbol is compatible with counter-clockwise, top-bottom and odd-even numbering schemes., script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
-    <t>Conn_02x01</t>
-  </si>
-  <si>
-    <t>Connector_Generic</t>
-  </si>
-  <si>
-    <t>J14</t>
-  </si>
-  <si>
-    <t>PinHeader_1x02_P2.54mm_Horizontal</t>
-  </si>
-  <si>
-    <t>Connector_PinHeader_2.54mm</t>
-  </si>
-  <si>
-    <t>https://cdn.amphenol-cs.com/media/wysiwyg/files/drawing/68015.pdf</t>
-  </si>
-  <si>
-    <t>115.0750</t>
-  </si>
-  <si>
-    <t>65.1500</t>
-  </si>
-  <si>
-    <t>1.7000</t>
-  </si>
-  <si>
-    <t>4.2400</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>M Series, 6.35mm (1/4in) stereo jack, switched, with chrome ferrule and straight PCB pins</t>
-  </si>
-  <si>
-    <t>NMJ6HCD2</t>
-  </si>
-  <si>
-    <t>Connector_Audio</t>
-  </si>
-  <si>
-    <t>J3 J9 J10 J11 J12</t>
-  </si>
-  <si>
-    <t>EXP</t>
-  </si>
-  <si>
-    <t>Jack_6.35mm_Horizontal</t>
-  </si>
-  <si>
-    <t>https://www.schurter.com/en/datasheet/typ_4833.2320.pdf</t>
-  </si>
-  <si>
-    <t>pedalboard-hw(5)</t>
-  </si>
-  <si>
-    <t>155.6150</t>
-  </si>
-  <si>
-    <t>91.2000</t>
-  </si>
-  <si>
-    <t>15.7000</t>
-  </si>
-  <si>
-    <t>19.2300</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>expansion header for Raspberry Pi 2 &amp; 3</t>
-  </si>
-  <si>
-    <t>Raspberry_Pi_2_3</t>
-  </si>
-  <si>
-    <t>J8</t>
-  </si>
-  <si>
-    <t>HiFi Berry</t>
-  </si>
-  <si>
-    <t>HiFi Berry DAC ADC+</t>
-  </si>
-  <si>
-    <t>https://www.hifiberry.com/docs/data-sheets/datasheet-dac-adc-pro/</t>
-  </si>
-  <si>
-    <t>/Audio</t>
-  </si>
-  <si>
-    <t>100.2500</t>
-  </si>
-  <si>
-    <t>56.6244</t>
-  </si>
-  <si>
-    <t>41.4500</t>
-  </si>
-  <si>
-    <t>55.0150</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>Generic connector, double row, 02x02, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
-    <t>Conn_02x02_Odd_Even</t>
-  </si>
-  <si>
-    <t>J18 J19 J20 J21 J22 J23</t>
-  </si>
-  <si>
-    <t>LED-Ring</t>
-  </si>
-  <si>
-    <t>Led-Ring</t>
-  </si>
-  <si>
-    <t>159.0000</t>
-  </si>
-  <si>
-    <t>69.0000</t>
-  </si>
-  <si>
-    <t>3.3500</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>Audio Jack, 3 Poles (Stereo / TRS), Switched TR Poles (Normalling)</t>
-  </si>
-  <si>
-    <t>AudioJack3_SwitchTR</t>
-  </si>
-  <si>
-    <t>J16 J17</t>
-  </si>
-  <si>
-    <t>MIDI OUT J</t>
-  </si>
-  <si>
-    <t>Jack_3.5mm_CUI_SJ1-3525N_Horizontal</t>
-  </si>
-  <si>
-    <t>https://www.cuidevices.com/product/resource/sj1-352xng.pdf</t>
-  </si>
-  <si>
-    <t>96.0000</t>
-  </si>
-  <si>
-    <t>100.5000</t>
-  </si>
-  <si>
-    <t>11.2000</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>5-pin DIN connector (5-pin DIN-5 stereo)</t>
-  </si>
-  <si>
-    <t>DIN-5_180degree</t>
-  </si>
-  <si>
-    <t>J1 J2</t>
-  </si>
-  <si>
-    <t>MIDI_OUT</t>
-  </si>
-  <si>
-    <t>CP-2350</t>
-  </si>
-  <si>
-    <t>https://www.switchcraft.com/assets/1/24/57PC5F_CD.pdf</t>
-  </si>
-  <si>
-    <t>103.0000</t>
-  </si>
-  <si>
-    <t>17.5000</t>
-  </si>
-  <si>
-    <t>14.7500</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>Generic connector, single row, 01x02, script generated</t>
-  </si>
-  <si>
-    <t>Conn_01x02_Pin</t>
-  </si>
-  <si>
-    <t>J5</t>
-  </si>
-  <si>
-    <t>Pico USB TP</t>
-  </si>
-  <si>
-    <t>Spring_Loaded_Pins_2mm</t>
-  </si>
-  <si>
-    <t>https://media.digikey.com/pdf/Data%20Sheets/Mill%20Max%20PDFs/Spring%20Loaded%20Connectors.pdf</t>
-  </si>
-  <si>
-    <t>107.0000</t>
-  </si>
-  <si>
-    <t>1.3500</t>
-  </si>
-  <si>
     <t>18</t>
   </si>
   <si>
-    <t>J4</t>
-  </si>
-  <si>
-    <t>RGB_LED_EXT</t>
-  </si>
-  <si>
-    <t>PinHeader_1x03_P2.54mm_Horizontal</t>
-  </si>
-  <si>
-    <t>https://www.we-online.com/components/products/datasheet/6130xx11021.pdf</t>
-  </si>
-  <si>
-    <t>18.9000</t>
-  </si>
-  <si>
-    <t>-4.2250</t>
-  </si>
-  <si>
-    <t>6.7800</t>
+    <t>J7</t>
+  </si>
+  <si>
+    <t>Raspberry_pi</t>
+  </si>
+  <si>
+    <t>Raspberry PI Compute Module CM4 Nano A</t>
+  </si>
+  <si>
+    <t>https://www.waveshare.com/wiki/CM4-NANO-A</t>
+  </si>
+  <si>
+    <t>31.5844</t>
+  </si>
+  <si>
+    <t>24.6744</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>49.9600</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
-    <t>J7</t>
-  </si>
-  <si>
-    <t>Raspberry_pi</t>
-  </si>
-  <si>
-    <t>Raspberry PI Compute Module CM4 Nano A</t>
-  </si>
-  <si>
-    <t>https://www.waveshare.com/wiki/CM4-NANO-A</t>
-  </si>
-  <si>
-    <t>29.5900</t>
-  </si>
-  <si>
-    <t>18.6800</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>49.9600</t>
+    <t>USB Type A connector</t>
+  </si>
+  <si>
+    <t>USB_A</t>
+  </si>
+  <si>
+    <t>J6</t>
+  </si>
+  <si>
+    <t>USB A BCB Male Plug</t>
+  </si>
+  <si>
+    <t>https://media.digikey.com/pdf/Data%20Sheets/GCT%20PDFs/USB1061_Spec.pdf</t>
+  </si>
+  <si>
+    <t>95.6194</t>
+  </si>
+  <si>
+    <t>33.2144</t>
+  </si>
+  <si>
+    <t>9.3200</t>
   </si>
   <si>
     <t>20</t>
   </si>
   <si>
-    <t>USB Type A connector</t>
-  </si>
-  <si>
-    <t>USB_A</t>
-  </si>
-  <si>
-    <t>J6</t>
-  </si>
-  <si>
-    <t>USB A BCB Male Plug</t>
-  </si>
-  <si>
-    <t>https://media.digikey.com/pdf/Data%20Sheets/GCT%20PDFs/USB1061_Spec.pdf</t>
-  </si>
-  <si>
-    <t>93.6250</t>
-  </si>
-  <si>
-    <t>27.2200</t>
-  </si>
-  <si>
-    <t>9.3200</t>
+    <t>Inductor</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>L6</t>
+  </si>
+  <si>
+    <t>2.2uH</t>
+  </si>
+  <si>
+    <t>L_1210_3225Metric</t>
+  </si>
+  <si>
+    <t>Inductor_SMD</t>
+  </si>
+  <si>
+    <t>https://www.bourns.com/docs/product-datasheets/srp3212.pdf</t>
+  </si>
+  <si>
+    <t>137.2944</t>
+  </si>
+  <si>
+    <t>88.3944</t>
+  </si>
+  <si>
+    <t>4.0500</t>
+  </si>
+  <si>
+    <t>2.6500</t>
   </si>
   <si>
     <t>21</t>
   </si>
   <si>
-    <t>Inductor</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>L6</t>
-  </si>
-  <si>
-    <t>2.2uH</t>
-  </si>
-  <si>
-    <t>L_1210_3225Metric</t>
-  </si>
-  <si>
-    <t>Inductor_SMD</t>
-  </si>
-  <si>
-    <t>https://www.bourns.com/docs/product-datasheets/srp3212.pdf</t>
-  </si>
-  <si>
-    <t>135.3000</t>
-  </si>
-  <si>
-    <t>82.4000</t>
-  </si>
-  <si>
-    <t>4.0500</t>
-  </si>
-  <si>
-    <t>2.6500</t>
+    <t>Inductor with ferrite core</t>
+  </si>
+  <si>
+    <t>L_Ferrite</t>
+  </si>
+  <si>
+    <t>L1 L2 L3 L4 L5</t>
+  </si>
+  <si>
+    <t>120_100MHz</t>
+  </si>
+  <si>
+    <t>L_0603_1608Metric</t>
+  </si>
+  <si>
+    <t>https://www.murata.com/products/productdata/8796738650142/ENFA0003.pdf</t>
+  </si>
+  <si>
+    <t>23.1194</t>
+  </si>
+  <si>
+    <t>98.3694</t>
+  </si>
+  <si>
+    <t>2.4500</t>
+  </si>
+  <si>
+    <t>0.9500</t>
   </si>
   <si>
     <t>22</t>
   </si>
   <si>
-    <t>Inductor with ferrite core</t>
-  </si>
-  <si>
-    <t>L_Ferrite</t>
-  </si>
-  <si>
-    <t>L1 L2 L3 L4 L5</t>
-  </si>
-  <si>
-    <t>120_100MHz</t>
-  </si>
-  <si>
-    <t>L_0603_1608Metric</t>
-  </si>
-  <si>
-    <t>https://www.murata.com/products/productdata/8796738650142/ENFA0003.pdf</t>
-  </si>
-  <si>
-    <t>21.1250</t>
-  </si>
-  <si>
-    <t>92.3750</t>
-  </si>
-  <si>
-    <t>2.4500</t>
-  </si>
-  <si>
-    <t>0.9500</t>
+    <t/>
+  </si>
+  <si>
+    <t>PDQE15-Q24-S5-D</t>
+  </si>
+  <si>
+    <t>PS1</t>
+  </si>
+  <si>
+    <t>CONV_PDQE15-Q24-S5-D</t>
+  </si>
+  <si>
+    <t>https://www.cui.com/product/resource/pdqe15-d.pdf</t>
+  </si>
+  <si>
+    <t>117.3644</t>
+  </si>
+  <si>
+    <t>54.9986</t>
+  </si>
+  <si>
+    <t>22.5700</t>
   </si>
   <si>
     <t>23</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>PDQE15-Q24-S5-D</t>
-  </si>
-  <si>
-    <t>PS1</t>
-  </si>
-  <si>
-    <t>CONV_PDQE15-Q24-S5-D</t>
-  </si>
-  <si>
-    <t>https://www.cui.com/product/resource/pdqe15-d.pdf</t>
-  </si>
-  <si>
-    <t>115.3700</t>
-  </si>
-  <si>
-    <t>49.0043</t>
-  </si>
-  <si>
-    <t>22.5700</t>
+    <t>FDS4435BZ</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>SO08-E3</t>
+  </si>
+  <si>
+    <t>103.6944</t>
+  </si>
+  <si>
+    <t>4.4150</t>
+  </si>
+  <si>
+    <t>7.4000</t>
   </si>
   <si>
     <t>24</t>
   </si>
   <si>
-    <t>FDS4435BZ</t>
-  </si>
-  <si>
-    <t>Q1</t>
-  </si>
-  <si>
-    <t>SO08-E3</t>
-  </si>
-  <si>
-    <t>97.7000</t>
-  </si>
-  <si>
-    <t>4.4150</t>
-  </si>
-  <si>
-    <t>7.4000</t>
+    <t>Resistor</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>R_0805_2012Metric</t>
+  </si>
+  <si>
+    <t>Resistor_SMD</t>
+  </si>
+  <si>
+    <t>https://www.seielect.com/catalog/sei-rncp.pdf</t>
+  </si>
+  <si>
+    <t>37.8944</t>
+  </si>
+  <si>
+    <t>88.0944</t>
+  </si>
+  <si>
+    <t>2.8500</t>
+  </si>
+  <si>
+    <t>1.4000</t>
   </si>
   <si>
     <t>25</t>
   </si>
   <si>
-    <t>Resistor</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>R4</t>
-  </si>
-  <si>
-    <t>R_0805_2012Metric</t>
-  </si>
-  <si>
-    <t>Resistor_SMD</t>
-  </si>
-  <si>
-    <t>https://www.seielect.com/catalog/sei-rncp.pdf</t>
-  </si>
-  <si>
-    <t>35.9000</t>
-  </si>
-  <si>
-    <t>82.1000</t>
-  </si>
-  <si>
-    <t>2.8500</t>
-  </si>
-  <si>
-    <t>1.4000</t>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>https://www.seielect.com/catalog/sei-rmcf_rmcp.pdf</t>
+  </si>
+  <si>
+    <t>90.2694</t>
   </si>
   <si>
     <t>26</t>
   </si>
   <si>
-    <t>R3</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>https://www.seielect.com/catalog/sei-rmcf_rmcp.pdf</t>
-  </si>
-  <si>
-    <t>84.2750</t>
+    <t>R1 R5</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>23.3194</t>
+  </si>
+  <si>
+    <t>100.0694</t>
   </si>
   <si>
     <t>27</t>
   </si>
   <si>
-    <t>R1 R5</t>
-  </si>
-  <si>
-    <t>220</t>
-  </si>
-  <si>
-    <t>21.3250</t>
-  </si>
-  <si>
-    <t>94.0750</t>
+    <t>Omron B3FS 6x6mm single pole normally-open tactile switch</t>
+  </si>
+  <si>
+    <t>SW_Omron_B3FS</t>
+  </si>
+  <si>
+    <t>Switch</t>
+  </si>
+  <si>
+    <t>SW4</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>SW_PUSH-12mm_Wuerth</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/components/products/datasheet/430172043816.pdf</t>
+  </si>
+  <si>
+    <t>11.9944</t>
+  </si>
+  <si>
+    <t>16.0000</t>
+  </si>
+  <si>
+    <t>6.8000</t>
   </si>
   <si>
     <t>28</t>
   </si>
   <si>
-    <t>Omron B3FS 6x6mm single pole normally-open tactile switch</t>
-  </si>
-  <si>
-    <t>SW_Omron_B3FS</t>
-  </si>
-  <si>
-    <t>Switch</t>
-  </si>
-  <si>
-    <t>SW4</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>SW_PUSH-12mm_Wuerth</t>
-  </si>
-  <si>
-    <t>https://www.we-online.com/components/products/datasheet/430172043816.pdf</t>
-  </si>
-  <si>
-    <t>10.0000</t>
-  </si>
-  <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t>16.0000</t>
-  </si>
-  <si>
-    <t>6.8000</t>
+    <t>SW5</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>86.9944</t>
   </si>
   <si>
     <t>29</t>
   </si>
   <si>
-    <t>SW5</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>85.0000</t>
+    <t>SW6</t>
+  </si>
+  <si>
+    <t>161.9944</t>
   </si>
   <si>
     <t>30</t>
   </si>
   <si>
-    <t>SW6</t>
-  </si>
-  <si>
-    <t>160.0000</t>
+    <t>SW1</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>63.9944</t>
   </si>
   <si>
     <t>31</t>
   </si>
   <si>
-    <t>SW1</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>58.0000</t>
+    <t>SW2</t>
+  </si>
+  <si>
+    <t>E</t>
   </si>
   <si>
     <t>32</t>
   </si>
   <si>
-    <t>SW2</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
     <t>SW3</t>
   </si>
   <si>
     <t>F</t>
   </si>
   <si>
+    <t>Rotary encoder, dual channel, incremental quadrate outputs, with switch</t>
+  </si>
+  <si>
+    <t>RotaryEncoder_Switch</t>
+  </si>
+  <si>
+    <t>SW8</t>
+  </si>
+  <si>
+    <t>GAIN Rotary</t>
+  </si>
+  <si>
+    <t>RotaryEncoder_Alps_EC11E-Switch_Vertical_H20mm_CircularMountingHoles</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/components/products/datasheet/482016514001.pdf</t>
+  </si>
+  <si>
+    <t>117.2444</t>
+  </si>
+  <si>
+    <t>99.4944</t>
+  </si>
+  <si>
+    <t>16.5000</t>
+  </si>
+  <si>
+    <t>14.4000</t>
+  </si>
+  <si>
     <t>34</t>
   </si>
   <si>
-    <t>Rotary encoder, dual channel, incremental quadrate outputs, with switch</t>
-  </si>
-  <si>
-    <t>RotaryEncoder_Switch</t>
-  </si>
-  <si>
-    <t>SW8</t>
-  </si>
-  <si>
-    <t>GAIN Rotary</t>
-  </si>
-  <si>
-    <t>RotaryEncoder_Alps_EC11E-Switch_Vertical_H20mm_CircularMountingHoles</t>
-  </si>
-  <si>
-    <t>https://www.we-online.com/components/products/datasheet/482016514001.pdf</t>
-  </si>
-  <si>
-    <t>115.2500</t>
-  </si>
-  <si>
-    <t>93.5000</t>
-  </si>
-  <si>
-    <t>16.5000</t>
-  </si>
-  <si>
-    <t>14.4000</t>
+    <t>SW7</t>
+  </si>
+  <si>
+    <t>VOL Rotary</t>
+  </si>
+  <si>
+    <t>42.2444</t>
   </si>
   <si>
     <t>35</t>
   </si>
   <si>
-    <t>SW7</t>
-  </si>
-  <si>
-    <t>VOL Rotary</t>
-  </si>
-  <si>
-    <t>40.2500</t>
+    <t>74AHCT1G32SE-7</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>SOT65P210X110-5N</t>
+  </si>
+  <si>
+    <t>https://www.diodes.com/assets/Datasheets/74AHCT1G32.pdf</t>
+  </si>
+  <si>
+    <t>53.2944</t>
+  </si>
+  <si>
+    <t>84.0444</t>
+  </si>
+  <si>
+    <t>3.0480</t>
+  </si>
+  <si>
+    <t>1.6764</t>
   </si>
   <si>
     <t>36</t>
   </si>
   <si>
-    <t>74AHCT1G32SE-7</t>
-  </si>
-  <si>
-    <t>U3</t>
-  </si>
-  <si>
-    <t>SOT65P210X110-5N</t>
-  </si>
-  <si>
-    <t>https://www.diodes.com/assets/Datasheets/74AHCT1G32.pdf</t>
-  </si>
-  <si>
-    <t>51.3000</t>
-  </si>
-  <si>
-    <t>78.0500</t>
-  </si>
-  <si>
-    <t>3.0480</t>
-  </si>
-  <si>
-    <t>1.6764</t>
+    <t>Pico</t>
+  </si>
+  <si>
+    <t>MCU_RaspberryPi_and_Boards</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>RPi_Pico_SMD_TH</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/components/products/datasheet/6130xx11121.pdf</t>
+  </si>
+  <si>
+    <t>84.9944</t>
+  </si>
+  <si>
+    <t>81.9944</t>
+  </si>
+  <si>
+    <t>19.4800</t>
   </si>
   <si>
     <t>37</t>
   </si>
   <si>
-    <t>Pico</t>
-  </si>
-  <si>
-    <t>MCU_RaspberryPi_and_Boards</t>
-  </si>
-  <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>RPi_Pico_SMD_TH</t>
-  </si>
-  <si>
-    <t>https://www.we-online.com/components/products/datasheet/6130xx11121.pdf</t>
-  </si>
-  <si>
-    <t>83.0000</t>
-  </si>
-  <si>
-    <t>76.0000</t>
-  </si>
-  <si>
-    <t>19.4800</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
     <t>15-Mbps inverting photocouple,5 kVrms, 2.7 - 5.5 Vdd, push-pull output</t>
   </si>
   <si>
@@ -1157,7 +1130,7 @@
     <t>https://toshiba.semicon-storage.com/info/docget.jsp?did=28819&amp;prodName=TLP2761</t>
   </si>
   <si>
-    <t>31.0000</t>
+    <t>32.9944</t>
   </si>
   <si>
     <t>10.8000</t>
@@ -1316,13 +1289,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF8A8A"/>
+        <fgColor rgb="FFFF8080"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF8080"/>
+        <fgColor rgb="FFFF8A8A"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1723,7 +1696,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V46"/>
+  <dimension ref="A1:V45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -1758,7 +1731,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1782,55 +1755,55 @@
     </row>
     <row r="2" spans="1:22">
       <c r="C2" s="2" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>393</v>
-      </c>
       <c r="F2" s="3">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:22">
       <c r="C3" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>386</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="C4" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>396</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="C5" s="2" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1838,13 +1811,13 @@
     </row>
     <row r="6" spans="1:22">
       <c r="C6" s="2" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="F6" s="3">
         <v>68</v>
@@ -2530,7 +2503,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:22" ht="60" customHeight="1">
       <c r="A18" s="8" t="s">
         <v>137</v>
       </c>
@@ -2541,49 +2514,49 @@
         <v>139</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>139</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K18" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="L18" s="11" t="s">
-        <v>143</v>
+      <c r="L18" s="10" t="s">
+        <v>144</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="N18" s="8" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="O18" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P18" s="10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q18" s="10" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="R18" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="S18" s="10" t="s">
         <v>134</v>
@@ -2592,66 +2565,66 @@
         <v>40</v>
       </c>
       <c r="U18" s="10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="V18" s="10" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" ht="60" customHeight="1">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="30" customHeight="1">
       <c r="A19" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="K19" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>96</v>
+        <v>158</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>61</v>
       </c>
       <c r="R19" s="7" t="s">
-        <v>146</v>
+        <v>38</v>
       </c>
       <c r="S19" s="7" t="s">
         <v>134</v>
@@ -2660,66 +2633,66 @@
         <v>40</v>
       </c>
       <c r="U19" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="V19" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="30" customHeight="1">
       <c r="A20" s="8" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>164</v>
+        <v>126</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H20" s="10" t="s">
         <v>130</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="K20" s="8" t="s">
         <v>31</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M20" s="10" t="s">
-        <v>48</v>
+        <v>170</v>
       </c>
       <c r="N20" s="8" t="s">
-        <v>169</v>
+        <v>96</v>
       </c>
       <c r="O20" s="10" t="s">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="P20" s="10" t="s">
         <v>171</v>
       </c>
       <c r="Q20" s="10" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="R20" s="10" t="s">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="S20" s="10" t="s">
         <v>134</v>
@@ -2734,7 +2707,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="30" customHeight="1">
+    <row r="21" spans="1:22" ht="45" customHeight="1">
       <c r="A21" s="5" t="s">
         <v>174</v>
       </c>
@@ -2745,7 +2718,7 @@
         <v>176</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>177</v>
@@ -2760,34 +2733,34 @@
         <v>130</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="K21" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L21" s="7" t="s">
+      <c r="L21" s="11" t="s">
         <v>180</v>
       </c>
       <c r="M21" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="O21" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="N21" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="O21" s="7" t="s">
+      <c r="P21" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="P21" s="7" t="s">
-        <v>183</v>
-      </c>
       <c r="Q21" s="7" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="R21" s="7" t="s">
-        <v>146</v>
+        <v>38</v>
       </c>
       <c r="S21" s="7" t="s">
         <v>134</v>
@@ -2796,63 +2769,63 @@
         <v>40</v>
       </c>
       <c r="U21" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="V21" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="30" customHeight="1">
+      <c r="A22" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="V21" s="7" t="s">
+      <c r="B22" s="9" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" ht="45" customHeight="1">
-      <c r="A22" s="8" t="s">
+      <c r="C22" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="D22" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="E22" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="F22" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="D22" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="E22" s="10" t="s">
+      <c r="G22" s="10" t="s">
         <v>189</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>191</v>
       </c>
       <c r="H22" s="10" t="s">
         <v>130</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="K22" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="L22" s="11" t="s">
-        <v>143</v>
+      <c r="L22" s="10" t="s">
+        <v>190</v>
       </c>
       <c r="M22" s="10" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="N22" s="8" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="O22" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="P22" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="P22" s="10" t="s">
-        <v>193</v>
-      </c>
       <c r="Q22" s="10" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="R22" s="10" t="s">
         <v>38</v>
@@ -2864,13 +2837,13 @@
         <v>40</v>
       </c>
       <c r="U22" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="V22" s="10" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="30" customHeight="1">
+    <row r="23" spans="1:22">
       <c r="A23" s="5" t="s">
         <v>195</v>
       </c>
@@ -2881,7 +2854,7 @@
         <v>197</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>164</v>
+        <v>126</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>198</v>
@@ -2914,10 +2887,10 @@
         <v>34</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>37</v>
@@ -2926,19 +2899,19 @@
         <v>38</v>
       </c>
       <c r="S23" s="7" t="s">
-        <v>134</v>
+        <v>39</v>
       </c>
       <c r="T23" s="7" t="s">
         <v>40</v>
       </c>
       <c r="U23" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="V23" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="V23" s="7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22">
+    </row>
+    <row r="24" spans="1:22" ht="30" customHeight="1">
       <c r="A24" s="8" t="s">
         <v>205</v>
       </c>
@@ -2964,10 +2937,10 @@
         <v>130</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K24" s="8" t="s">
         <v>31</v>
@@ -2979,87 +2952,87 @@
         <v>48</v>
       </c>
       <c r="N24" s="8" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="O24" s="10" t="s">
         <v>202</v>
       </c>
       <c r="P24" s="10" t="s">
-        <v>212</v>
+        <v>85</v>
       </c>
       <c r="Q24" s="10" t="s">
         <v>37</v>
       </c>
       <c r="R24" s="10" t="s">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="S24" s="10" t="s">
-        <v>39</v>
+        <v>134</v>
       </c>
       <c r="T24" s="10" t="s">
         <v>40</v>
       </c>
       <c r="U24" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="V24" s="10" t="s">
-        <v>214</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="30" customHeight="1">
       <c r="A25" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>126</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="H25" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="G25" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>130</v>
-      </c>
       <c r="I25" s="5" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="K25" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L25" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="M25" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="M25" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="N25" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="O25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>37</v>
       </c>
       <c r="R25" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="S25" s="7" t="s">
         <v>134</v>
@@ -3068,21 +3041,21 @@
         <v>40</v>
       </c>
       <c r="U25" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="V25" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="V25" s="7" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" ht="30" customHeight="1">
+    </row>
+    <row r="26" spans="1:22">
       <c r="A26" s="8" t="s">
         <v>224</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>126</v>
@@ -3097,7 +3070,7 @@
         <v>227</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="I26" s="8" t="s">
         <v>22</v>
@@ -3112,7 +3085,7 @@
         <v>228</v>
       </c>
       <c r="M26" s="10" t="s">
-        <v>82</v>
+        <v>170</v>
       </c>
       <c r="N26" s="8" t="s">
         <v>96</v>
@@ -3124,10 +3097,10 @@
         <v>230</v>
       </c>
       <c r="Q26" s="10" t="s">
-        <v>61</v>
+        <v>231</v>
       </c>
       <c r="R26" s="10" t="s">
-        <v>146</v>
+        <v>38</v>
       </c>
       <c r="S26" s="10" t="s">
         <v>134</v>
@@ -3136,33 +3109,33 @@
         <v>40</v>
       </c>
       <c r="U26" s="10" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="V26" s="10" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" ht="30" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>175</v>
+        <v>234</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>176</v>
+        <v>235</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>126</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H27" s="7" t="s">
         <v>130</v>
@@ -3177,25 +3150,25 @@
         <v>31</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M27" s="7" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="N27" s="5" t="s">
         <v>96</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>239</v>
+        <v>61</v>
       </c>
       <c r="R27" s="7" t="s">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="S27" s="7" t="s">
         <v>134</v>
@@ -3204,36 +3177,36 @@
         <v>40</v>
       </c>
       <c r="U27" s="7" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="V27" s="7" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" ht="30" customHeight="1">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
       <c r="A28" s="8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>126</v>
+        <v>25</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>130</v>
+        <v>248</v>
       </c>
       <c r="I28" s="8" t="s">
         <v>22</v>
@@ -3245,90 +3218,90 @@
         <v>31</v>
       </c>
       <c r="L28" s="10" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="M28" s="10" t="s">
-        <v>181</v>
+        <v>33</v>
       </c>
       <c r="N28" s="8" t="s">
         <v>96</v>
       </c>
       <c r="O28" s="10" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="P28" s="10" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q28" s="10" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="R28" s="10" t="s">
-        <v>146</v>
+        <v>38</v>
       </c>
       <c r="S28" s="10" t="s">
-        <v>134</v>
+        <v>39</v>
       </c>
       <c r="T28" s="10" t="s">
         <v>40</v>
       </c>
       <c r="U28" s="10" t="s">
-        <v>159</v>
+        <v>252</v>
       </c>
       <c r="V28" s="10" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" ht="30" customHeight="1">
       <c r="A29" s="5" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="K29" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="N29" s="5" t="s">
-        <v>96</v>
+        <v>158</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="R29" s="7" t="s">
         <v>38</v>
@@ -3340,60 +3313,60 @@
         <v>40</v>
       </c>
       <c r="U29" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="V29" s="7" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" ht="30" customHeight="1">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
       <c r="A30" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>263</v>
+        <v>265</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>266</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>25</v>
+        <v>267</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>256</v>
+        <v>130</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="K30" s="8" t="s">
         <v>31</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="M30" s="10" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="N30" s="8" t="s">
-        <v>169</v>
+        <v>96</v>
       </c>
       <c r="O30" s="10" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="P30" s="10" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q30" s="10" t="s">
         <v>37</v>
@@ -3402,24 +3375,24 @@
         <v>38</v>
       </c>
       <c r="S30" s="10" t="s">
-        <v>39</v>
+        <v>134</v>
       </c>
       <c r="T30" s="10" t="s">
         <v>40</v>
       </c>
       <c r="U30" s="10" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="V30" s="10" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="31" spans="1:22">
       <c r="A31" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="B31" s="12" t="s">
         <v>274</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>266</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>275</v>
@@ -3448,8 +3421,8 @@
       <c r="K31" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L31" s="7" t="s">
-        <v>278</v>
+      <c r="L31" s="11" t="s">
+        <v>266</v>
       </c>
       <c r="M31" s="7" t="s">
         <v>33</v>
@@ -3458,54 +3431,54 @@
         <v>96</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>279</v>
+        <v>69</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="R31" s="7" t="s">
         <v>38</v>
       </c>
       <c r="S31" s="7" t="s">
-        <v>134</v>
+        <v>39</v>
       </c>
       <c r="T31" s="7" t="s">
         <v>40</v>
       </c>
       <c r="U31" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="V31" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="32" spans="1:22">
       <c r="A32" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="B32" s="9" t="s">
         <v>282</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>274</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>283</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>283</v>
+        <v>25</v>
       </c>
       <c r="E32" s="10" t="s">
         <v>284</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>283</v>
+        <v>137</v>
       </c>
       <c r="G32" s="10" t="s">
         <v>285</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>130</v>
+        <v>286</v>
       </c>
       <c r="I32" s="8" t="s">
         <v>22</v>
@@ -3516,20 +3489,20 @@
       <c r="K32" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="L32" s="11" t="s">
-        <v>274</v>
+      <c r="L32" s="10" t="s">
+        <v>287</v>
       </c>
       <c r="M32" s="10" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="N32" s="8" t="s">
         <v>96</v>
       </c>
       <c r="O32" s="10" t="s">
-        <v>69</v>
+        <v>288</v>
       </c>
       <c r="P32" s="10" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q32" s="10" t="s">
         <v>61</v>
@@ -3544,36 +3517,36 @@
         <v>40</v>
       </c>
       <c r="U32" s="10" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="V32" s="10" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="33" spans="1:22">
       <c r="A33" s="5" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>137</v>
+        <v>294</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>22</v>
@@ -3594,13 +3567,13 @@
         <v>96</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="P33" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="P33" s="7" t="s">
-        <v>297</v>
-      </c>
       <c r="Q33" s="7" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="R33" s="7" t="s">
         <v>38</v>
@@ -3612,63 +3585,63 @@
         <v>40</v>
       </c>
       <c r="U33" s="7" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="V33" s="7" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
     </row>
     <row r="34" spans="1:22">
       <c r="A34" s="8" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="D34" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="J34" s="8" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="K34" s="8" t="s">
         <v>31</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="M34" s="10" t="s">
         <v>48</v>
       </c>
       <c r="N34" s="8" t="s">
-        <v>96</v>
+        <v>34</v>
       </c>
       <c r="O34" s="10" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="P34" s="10" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="Q34" s="10" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="R34" s="10" t="s">
         <v>38</v>
@@ -3680,24 +3653,24 @@
         <v>40</v>
       </c>
       <c r="U34" s="10" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="V34" s="10" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" ht="30" customHeight="1">
       <c r="A35" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="D35" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>306</v>
@@ -3706,34 +3679,34 @@
         <v>307</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>294</v>
+        <v>130</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K35" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="M35" s="7" t="s">
         <v>48</v>
       </c>
       <c r="N35" s="5" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q35" s="7" t="s">
         <v>61</v>
@@ -3748,24 +3721,24 @@
         <v>40</v>
       </c>
       <c r="U35" s="7" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="V35" s="7" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
     </row>
     <row r="36" spans="1:22" ht="30" customHeight="1">
       <c r="A36" s="8" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="E36" s="10" t="s">
         <v>314</v>
@@ -3774,7 +3747,7 @@
         <v>315</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="H36" s="10" t="s">
         <v>130</v>
@@ -3789,7 +3762,7 @@
         <v>31</v>
       </c>
       <c r="L36" s="10" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="M36" s="10" t="s">
         <v>48</v>
@@ -3798,10 +3771,10 @@
         <v>96</v>
       </c>
       <c r="O36" s="10" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="P36" s="10" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="Q36" s="10" t="s">
         <v>61</v>
@@ -3816,33 +3789,33 @@
         <v>40</v>
       </c>
       <c r="U36" s="10" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="V36" s="10" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
     </row>
     <row r="37" spans="1:22" ht="30" customHeight="1">
       <c r="A37" s="5" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>324</v>
+        <v>24</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="H37" s="7" t="s">
         <v>130</v>
@@ -3857,7 +3830,7 @@
         <v>31</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="M37" s="7" t="s">
         <v>48</v>
@@ -3866,10 +3839,10 @@
         <v>96</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>61</v>
@@ -3884,33 +3857,33 @@
         <v>40</v>
       </c>
       <c r="U37" s="7" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="V37" s="7" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
     </row>
     <row r="38" spans="1:22" ht="30" customHeight="1">
       <c r="A38" s="8" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>24</v>
+        <v>322</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="H38" s="10" t="s">
         <v>130</v>
@@ -3925,7 +3898,7 @@
         <v>31</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="M38" s="10" t="s">
         <v>48</v>
@@ -3934,10 +3907,10 @@
         <v>96</v>
       </c>
       <c r="O38" s="10" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="P38" s="10" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Q38" s="10" t="s">
         <v>61</v>
@@ -3952,33 +3925,33 @@
         <v>40</v>
       </c>
       <c r="U38" s="10" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="V38" s="10" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
     </row>
     <row r="39" spans="1:22" ht="30" customHeight="1">
       <c r="A39" s="5" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="H39" s="7" t="s">
         <v>130</v>
@@ -3993,7 +3966,7 @@
         <v>31</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="M39" s="7" t="s">
         <v>48</v>
@@ -4002,10 +3975,10 @@
         <v>96</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="Q39" s="7" t="s">
         <v>61</v>
@@ -4020,33 +3993,33 @@
         <v>40</v>
       </c>
       <c r="U39" s="7" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="V39" s="7" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
     </row>
     <row r="40" spans="1:22" ht="30" customHeight="1">
       <c r="A40" s="8" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="H40" s="10" t="s">
         <v>130</v>
@@ -4061,7 +4034,7 @@
         <v>31</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="M40" s="10" t="s">
         <v>48</v>
@@ -4070,10 +4043,10 @@
         <v>96</v>
       </c>
       <c r="O40" s="10" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="P40" s="10" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="Q40" s="10" t="s">
         <v>61</v>
@@ -4088,33 +4061,33 @@
         <v>40</v>
       </c>
       <c r="U40" s="10" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="V40" s="10" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
     </row>
     <row r="41" spans="1:22" ht="30" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>311</v>
+        <v>330</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>312</v>
+        <v>331</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>313</v>
+        <v>25</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="H41" s="7" t="s">
         <v>130</v>
@@ -4129,7 +4102,7 @@
         <v>31</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>317</v>
+        <v>335</v>
       </c>
       <c r="M41" s="7" t="s">
         <v>48</v>
@@ -4138,10 +4111,10 @@
         <v>96</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="Q41" s="7" t="s">
         <v>61</v>
@@ -4150,27 +4123,27 @@
         <v>38</v>
       </c>
       <c r="S41" s="7" t="s">
-        <v>39</v>
+        <v>134</v>
       </c>
       <c r="T41" s="7" t="s">
         <v>40</v>
       </c>
       <c r="U41" s="7" t="s">
-        <v>320</v>
+        <v>338</v>
       </c>
       <c r="V41" s="7" t="s">
-        <v>321</v>
+        <v>339</v>
       </c>
     </row>
     <row r="42" spans="1:22" ht="30" customHeight="1">
       <c r="A42" s="8" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="D42" s="10" t="s">
         <v>25</v>
@@ -4182,7 +4155,7 @@
         <v>342</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="H42" s="10" t="s">
         <v>130</v>
@@ -4197,7 +4170,7 @@
         <v>31</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="M42" s="10" t="s">
         <v>48</v>
@@ -4206,10 +4179,10 @@
         <v>96</v>
       </c>
       <c r="O42" s="10" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="P42" s="10" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="Q42" s="10" t="s">
         <v>61</v>
@@ -4224,33 +4197,33 @@
         <v>40</v>
       </c>
       <c r="U42" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="V42" s="10" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22">
+      <c r="A43" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="G43" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="V42" s="10" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22" ht="30" customHeight="1">
-      <c r="A43" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>343</v>
       </c>
       <c r="H43" s="7" t="s">
         <v>130</v>
@@ -4265,60 +4238,60 @@
         <v>31</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="M43" s="7" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="N43" s="5" t="s">
         <v>96</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="R43" s="7" t="s">
         <v>38</v>
       </c>
       <c r="S43" s="7" t="s">
-        <v>134</v>
+        <v>39</v>
       </c>
       <c r="T43" s="7" t="s">
         <v>40</v>
       </c>
       <c r="U43" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="V43" s="7" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" ht="30" customHeight="1">
       <c r="A44" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="B44" s="11" t="s">
-        <v>274</v>
+      <c r="B44" s="12" t="s">
+        <v>266</v>
       </c>
       <c r="C44" s="10" t="s">
         <v>354</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F44" s="10" t="s">
         <v>354</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H44" s="10" t="s">
         <v>130</v>
@@ -4333,63 +4306,63 @@
         <v>31</v>
       </c>
       <c r="L44" s="10" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M44" s="10" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="N44" s="8" t="s">
         <v>96</v>
       </c>
       <c r="O44" s="10" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="P44" s="10" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q44" s="10" t="s">
-        <v>37</v>
+        <v>231</v>
       </c>
       <c r="R44" s="10" t="s">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="S44" s="10" t="s">
-        <v>39</v>
+        <v>134</v>
       </c>
       <c r="T44" s="10" t="s">
         <v>40</v>
       </c>
       <c r="U44" s="10" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="V44" s="10" t="s">
-        <v>361</v>
+        <v>232</v>
       </c>
     </row>
     <row r="45" spans="1:22" ht="30" customHeight="1">
       <c r="A45" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="B45" s="12" t="s">
-        <v>274</v>
+      <c r="B45" s="6" t="s">
+        <v>363</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D45" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F45" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="E45" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>363</v>
-      </c>
       <c r="G45" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>130</v>
+        <v>368</v>
       </c>
       <c r="I45" s="5" t="s">
         <v>22</v>
@@ -4401,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="M45" s="7" t="s">
         <v>48</v>
@@ -4410,96 +4383,28 @@
         <v>96</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>369</v>
+        <v>98</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>239</v>
+        <v>61</v>
       </c>
       <c r="R45" s="7" t="s">
-        <v>146</v>
+        <v>38</v>
       </c>
       <c r="S45" s="7" t="s">
-        <v>134</v>
+        <v>39</v>
       </c>
       <c r="T45" s="7" t="s">
         <v>40</v>
       </c>
       <c r="U45" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="V45" s="7" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22" ht="30" customHeight="1">
-      <c r="A46" s="8" t="s">
-        <v>371</v>
-      </c>
-      <c r="B46" s="9" t="s">
         <v>372</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>374</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>375</v>
-      </c>
-      <c r="F46" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="G46" s="10" t="s">
-        <v>376</v>
-      </c>
-      <c r="H46" s="10" t="s">
-        <v>377</v>
-      </c>
-      <c r="I46" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J46" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K46" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L46" s="10" t="s">
-        <v>378</v>
-      </c>
-      <c r="M46" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="N46" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="O46" s="10" t="s">
-        <v>379</v>
-      </c>
-      <c r="P46" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q46" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="R46" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="S46" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="T46" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="U46" s="10" t="s">
-        <v>380</v>
-      </c>
-      <c r="V46" s="10" t="s">
-        <v>381</v>
       </c>
     </row>
   </sheetData>
@@ -4525,22 +4430,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="12" t="s">
-        <v>402</v>
+      <c r="A4" s="11" t="s">
+        <v>393</v>
       </c>
     </row>
   </sheetData>

--- a/latest/BoM/Positional/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Positional/pedalboard-hw-bom.xlsx
@@ -593,7 +593,7 @@
     <t>https://www.cuidevices.com/product/resource/sj1-352xng.pdf</t>
   </si>
   <si>
-    <t>97.9944</t>
+    <t>101.9944</t>
   </si>
   <si>
     <t>106.4944</t>

--- a/latest/BoM/Positional/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Positional/pedalboard-hw-bom.xlsx
@@ -311,7 +311,7 @@
     <t>pedalboard-hw(1)</t>
   </si>
   <si>
-    <t>26.1944</t>
+    <t>26.5944</t>
   </si>
   <si>
     <t>98.5944</t>
@@ -482,10 +482,10 @@
     <t>Connector_Audio</t>
   </si>
   <si>
-    <t>J3 J9 J10 J11 J12</t>
-  </si>
-  <si>
-    <t>EXP</t>
+    <t>J3 J9 J10 J11 J12 J15</t>
+  </si>
+  <si>
+    <t>EXP1</t>
   </si>
   <si>
     <t>Jack_6.35mm_Horizontal</t>
@@ -494,319 +494,319 @@
     <t>https://www.schurter.com/en/datasheet/typ_4833.2320.pdf</t>
   </si>
   <si>
+    <t>157.6094</t>
+  </si>
+  <si>
+    <t>97.1944</t>
+  </si>
+  <si>
+    <t>15.7000</t>
+  </si>
+  <si>
+    <t>19.2300</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>expansion header for Raspberry Pi 2 &amp; 3</t>
+  </si>
+  <si>
+    <t>Raspberry_Pi_2_3</t>
+  </si>
+  <si>
+    <t>J8</t>
+  </si>
+  <si>
+    <t>HiFi Berry</t>
+  </si>
+  <si>
+    <t>HiFi Berry DAC ADC+</t>
+  </si>
+  <si>
+    <t>https://www.hifiberry.com/docs/data-sheets/datasheet-dac-adc-pro/</t>
+  </si>
+  <si>
+    <t>/Audio</t>
+  </si>
+  <si>
+    <t>62.6188</t>
+  </si>
+  <si>
+    <t>41.4500</t>
+  </si>
+  <si>
+    <t>55.0150</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Generic connector, double row, 02x02, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+  </si>
+  <si>
+    <t>Conn_02x02_Odd_Even</t>
+  </si>
+  <si>
+    <t>J18 J19 J20 J21 J22 J23</t>
+  </si>
+  <si>
+    <t>LED-Ring</t>
+  </si>
+  <si>
+    <t>Led-Ring</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t>160.9944</t>
+  </si>
+  <si>
+    <t>74.9944</t>
+  </si>
+  <si>
+    <t>3.3500</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>Audio Jack, 3 Poles (Stereo / TRS), Switched TR Poles (Normalling)</t>
+  </si>
+  <si>
+    <t>AudioJack3_SwitchTR</t>
+  </si>
+  <si>
+    <t>J16 J17</t>
+  </si>
+  <si>
+    <t>MIDI OUT J</t>
+  </si>
+  <si>
+    <t>Jack_3.5mm_CUI_SJ1-3525N_Horizontal</t>
+  </si>
+  <si>
+    <t>https://www.cuidevices.com/product/resource/sj1-352xng.pdf</t>
+  </si>
+  <si>
+    <t>101.9944</t>
+  </si>
+  <si>
+    <t>106.4944</t>
+  </si>
+  <si>
+    <t>11.2000</t>
+  </si>
+  <si>
+    <t>6.7000</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>5-pin DIN connector (5-pin DIN-5 stereo)</t>
+  </si>
+  <si>
+    <t>DIN-5_180degree</t>
+  </si>
+  <si>
+    <t>J1 J2</t>
+  </si>
+  <si>
+    <t>MIDI_OUT</t>
+  </si>
+  <si>
+    <t>CP-2350</t>
+  </si>
+  <si>
+    <t>https://www.switchcraft.com/assets/1/24/57PC5F_CD.pdf</t>
+  </si>
+  <si>
+    <t>108.9944</t>
+  </si>
+  <si>
+    <t>17.5000</t>
+  </si>
+  <si>
+    <t>14.7500</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>Generic connector, single row, 01x02, script generated</t>
+  </si>
+  <si>
+    <t>Conn_01x02_Pin</t>
+  </si>
+  <si>
+    <t>J5</t>
+  </si>
+  <si>
+    <t>Pico USB TP</t>
+  </si>
+  <si>
+    <t>Spring_Loaded_Pins_2mm</t>
+  </si>
+  <si>
+    <t>https://media.digikey.com/pdf/Data%20Sheets/Mill%20Max%20PDFs/Spring%20Loaded%20Connectors.pdf</t>
+  </si>
+  <si>
+    <t>1.3500</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>Generic connector, single row, 01x03, script generated</t>
+  </si>
+  <si>
+    <t>Conn_01x03_Pin</t>
+  </si>
+  <si>
+    <t>J4 J24 J25</t>
+  </si>
+  <si>
+    <t>RGB_LED_EXT</t>
+  </si>
+  <si>
+    <t>JST_XH_B3B-XH-A_1x03_P2.50mm_Vertical</t>
+  </si>
+  <si>
+    <t>Connector_JST</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/components/products/datasheet/6130xx11021.pdf</t>
+  </si>
+  <si>
+    <t>24.8944</t>
+  </si>
+  <si>
+    <t>3.8944</t>
+  </si>
+  <si>
+    <t>1.9500</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>J7</t>
+  </si>
+  <si>
+    <t>Raspberry_pi</t>
+  </si>
+  <si>
+    <t>Raspberry PI Compute Module CM4 Nano A</t>
+  </si>
+  <si>
+    <t>https://www.waveshare.com/wiki/CM4-NANO-A</t>
+  </si>
+  <si>
+    <t>31.5844</t>
+  </si>
+  <si>
+    <t>24.6744</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>49.9600</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>USB Type A connector</t>
+  </si>
+  <si>
+    <t>USB_A</t>
+  </si>
+  <si>
+    <t>J6</t>
+  </si>
+  <si>
+    <t>USB A BCB Male Plug</t>
+  </si>
+  <si>
+    <t>https://media.digikey.com/pdf/Data%20Sheets/GCT%20PDFs/USB1061_Spec.pdf</t>
+  </si>
+  <si>
+    <t>95.6194</t>
+  </si>
+  <si>
+    <t>33.2144</t>
+  </si>
+  <si>
+    <t>9.3200</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Inductor</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>L6</t>
+  </si>
+  <si>
+    <t>2.2uH</t>
+  </si>
+  <si>
+    <t>L_1210_3225Metric</t>
+  </si>
+  <si>
+    <t>Inductor_SMD</t>
+  </si>
+  <si>
+    <t>https://www.bourns.com/docs/product-datasheets/srp3212.pdf</t>
+  </si>
+  <si>
+    <t>137.2944</t>
+  </si>
+  <si>
+    <t>88.3944</t>
+  </si>
+  <si>
+    <t>4.0500</t>
+  </si>
+  <si>
+    <t>2.6500</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>Inductor with ferrite core</t>
+  </si>
+  <si>
+    <t>L_Ferrite</t>
+  </si>
+  <si>
+    <t>L1 L2 L3 L4 L5</t>
+  </si>
+  <si>
+    <t>120_100MHz</t>
+  </si>
+  <si>
+    <t>L_0603_1608Metric</t>
+  </si>
+  <si>
+    <t>https://www.murata.com/products/productdata/8796738650142/ENFA0003.pdf</t>
+  </si>
+  <si>
     <t>pedalboard-hw(5)</t>
   </si>
   <si>
-    <t>157.6094</t>
-  </si>
-  <si>
-    <t>97.1944</t>
-  </si>
-  <si>
-    <t>15.7000</t>
-  </si>
-  <si>
-    <t>19.2300</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>expansion header for Raspberry Pi 2 &amp; 3</t>
-  </si>
-  <si>
-    <t>Raspberry_Pi_2_3</t>
-  </si>
-  <si>
-    <t>J8</t>
-  </si>
-  <si>
-    <t>HiFi Berry</t>
-  </si>
-  <si>
-    <t>HiFi Berry DAC ADC+</t>
-  </si>
-  <si>
-    <t>https://www.hifiberry.com/docs/data-sheets/datasheet-dac-adc-pro/</t>
-  </si>
-  <si>
-    <t>/Audio</t>
-  </si>
-  <si>
-    <t>62.6188</t>
-  </si>
-  <si>
-    <t>41.4500</t>
-  </si>
-  <si>
-    <t>55.0150</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>Generic connector, double row, 02x02, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
-    <t>Conn_02x02_Odd_Even</t>
-  </si>
-  <si>
-    <t>J18 J19 J20 J21 J22 J23</t>
-  </si>
-  <si>
-    <t>LED-Ring</t>
-  </si>
-  <si>
-    <t>Led-Ring</t>
-  </si>
-  <si>
-    <t>~</t>
-  </si>
-  <si>
-    <t>160.9944</t>
-  </si>
-  <si>
-    <t>74.9944</t>
-  </si>
-  <si>
-    <t>3.3500</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>Audio Jack, 3 Poles (Stereo / TRS), Switched TR Poles (Normalling)</t>
-  </si>
-  <si>
-    <t>AudioJack3_SwitchTR</t>
-  </si>
-  <si>
-    <t>J16 J17</t>
-  </si>
-  <si>
-    <t>MIDI OUT J</t>
-  </si>
-  <si>
-    <t>Jack_3.5mm_CUI_SJ1-3525N_Horizontal</t>
-  </si>
-  <si>
-    <t>https://www.cuidevices.com/product/resource/sj1-352xng.pdf</t>
-  </si>
-  <si>
-    <t>101.9944</t>
-  </si>
-  <si>
-    <t>106.4944</t>
-  </si>
-  <si>
-    <t>11.2000</t>
-  </si>
-  <si>
-    <t>6.7000</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>5-pin DIN connector (5-pin DIN-5 stereo)</t>
-  </si>
-  <si>
-    <t>DIN-5_180degree</t>
-  </si>
-  <si>
-    <t>J1 J2</t>
-  </si>
-  <si>
-    <t>MIDI_OUT</t>
-  </si>
-  <si>
-    <t>CP-2350</t>
-  </si>
-  <si>
-    <t>https://www.switchcraft.com/assets/1/24/57PC5F_CD.pdf</t>
-  </si>
-  <si>
-    <t>108.9944</t>
-  </si>
-  <si>
-    <t>17.5000</t>
-  </si>
-  <si>
-    <t>14.7500</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>Generic connector, single row, 01x02, script generated</t>
-  </si>
-  <si>
-    <t>Conn_01x02_Pin</t>
-  </si>
-  <si>
-    <t>J5</t>
-  </si>
-  <si>
-    <t>Pico USB TP</t>
-  </si>
-  <si>
-    <t>Spring_Loaded_Pins_2mm</t>
-  </si>
-  <si>
-    <t>https://media.digikey.com/pdf/Data%20Sheets/Mill%20Max%20PDFs/Spring%20Loaded%20Connectors.pdf</t>
-  </si>
-  <si>
-    <t>1.3500</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>Generic connector, single row, 01x03, script generated</t>
-  </si>
-  <si>
-    <t>Conn_01x03_Pin</t>
-  </si>
-  <si>
-    <t>J4 J24 J25</t>
-  </si>
-  <si>
-    <t>RGB_LED_EXT</t>
-  </si>
-  <si>
-    <t>JST_XH_B3B-XH-A_1x03_P2.50mm_Vertical</t>
-  </si>
-  <si>
-    <t>Connector_JST</t>
-  </si>
-  <si>
-    <t>https://www.we-online.com/components/products/datasheet/6130xx11021.pdf</t>
-  </si>
-  <si>
-    <t>24.8944</t>
-  </si>
-  <si>
-    <t>3.8944</t>
-  </si>
-  <si>
-    <t>1.9500</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>J7</t>
-  </si>
-  <si>
-    <t>Raspberry_pi</t>
-  </si>
-  <si>
-    <t>Raspberry PI Compute Module CM4 Nano A</t>
-  </si>
-  <si>
-    <t>https://www.waveshare.com/wiki/CM4-NANO-A</t>
-  </si>
-  <si>
-    <t>31.5844</t>
-  </si>
-  <si>
-    <t>24.6744</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>49.9600</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>USB Type A connector</t>
-  </si>
-  <si>
-    <t>USB_A</t>
-  </si>
-  <si>
-    <t>J6</t>
-  </si>
-  <si>
-    <t>USB A BCB Male Plug</t>
-  </si>
-  <si>
-    <t>https://media.digikey.com/pdf/Data%20Sheets/GCT%20PDFs/USB1061_Spec.pdf</t>
-  </si>
-  <si>
-    <t>95.6194</t>
-  </si>
-  <si>
-    <t>33.2144</t>
-  </si>
-  <si>
-    <t>9.3200</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>Inductor</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>L6</t>
-  </si>
-  <si>
-    <t>2.2uH</t>
-  </si>
-  <si>
-    <t>L_1210_3225Metric</t>
-  </si>
-  <si>
-    <t>Inductor_SMD</t>
-  </si>
-  <si>
-    <t>https://www.bourns.com/docs/product-datasheets/srp3212.pdf</t>
-  </si>
-  <si>
-    <t>137.2944</t>
-  </si>
-  <si>
-    <t>88.3944</t>
-  </si>
-  <si>
-    <t>4.0500</t>
-  </si>
-  <si>
-    <t>2.6500</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>Inductor with ferrite core</t>
-  </si>
-  <si>
-    <t>L_Ferrite</t>
-  </si>
-  <si>
-    <t>L1 L2 L3 L4 L5</t>
-  </si>
-  <si>
-    <t>120_100MHz</t>
-  </si>
-  <si>
-    <t>L_0603_1608Metric</t>
-  </si>
-  <si>
-    <t>https://www.murata.com/products/productdata/8796738650142/ENFA0003.pdf</t>
-  </si>
-  <si>
-    <t>23.1194</t>
-  </si>
-  <si>
-    <t>98.3694</t>
+    <t>24.6944</t>
+  </si>
+  <si>
+    <t>102.4944</t>
   </si>
   <si>
     <t>2.4500</t>
@@ -920,10 +920,10 @@
     <t>220</t>
   </si>
   <si>
-    <t>23.3194</t>
-  </si>
-  <si>
-    <t>100.0694</t>
+    <t>22.9944</t>
+  </si>
+  <si>
+    <t>102.3944</t>
   </si>
   <si>
     <t>27</t>
@@ -1130,7 +1130,7 @@
     <t>https://toshiba.semicon-storage.com/info/docget.jsp?did=28819&amp;prodName=TLP2761</t>
   </si>
   <si>
-    <t>32.9944</t>
+    <t>33.3944</t>
   </si>
   <si>
     <t>10.8000</t>
@@ -1178,7 +1178,7 @@
     <t>Component Count:</t>
   </si>
   <si>
-    <t>68 (40 SMD/ 26 THT)</t>
+    <t>69 (40 SMD/ 27 THT)</t>
   </si>
   <si>
     <t>Fitted Components:</t>
@@ -1820,7 +1820,7 @@
         <v>389</v>
       </c>
       <c r="F6" s="3">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -2597,10 +2597,10 @@
         <v>130</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="K19" s="5" t="s">
         <v>31</v>
@@ -2612,13 +2612,13 @@
         <v>48</v>
       </c>
       <c r="N19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>61</v>
@@ -2633,33 +2633,33 @@
         <v>40</v>
       </c>
       <c r="U19" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="V19" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="V19" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="30" customHeight="1">
       <c r="A20" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B20" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="C20" s="10" t="s">
         <v>164</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>165</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>126</v>
       </c>
       <c r="E20" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="F20" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="G20" s="10" t="s">
         <v>167</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>168</v>
       </c>
       <c r="H20" s="10" t="s">
         <v>130</v>
@@ -2674,10 +2674,10 @@
         <v>31</v>
       </c>
       <c r="L20" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="M20" s="10" t="s">
         <v>169</v>
-      </c>
-      <c r="M20" s="10" t="s">
-        <v>170</v>
       </c>
       <c r="N20" s="8" t="s">
         <v>96</v>
@@ -2686,7 +2686,7 @@
         <v>120</v>
       </c>
       <c r="P20" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q20" s="10" t="s">
         <v>37</v>
@@ -2701,33 +2701,33 @@
         <v>40</v>
       </c>
       <c r="U20" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="V20" s="10" t="s">
         <v>172</v>
-      </c>
-      <c r="V20" s="10" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="45" customHeight="1">
       <c r="A21" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="C21" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>140</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>130</v>
@@ -2742,7 +2742,7 @@
         <v>31</v>
       </c>
       <c r="L21" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M21" s="7" t="s">
         <v>82</v>
@@ -2751,10 +2751,10 @@
         <v>49</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>61</v>
@@ -2769,33 +2769,33 @@
         <v>40</v>
       </c>
       <c r="U21" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="V21" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="30" customHeight="1">
       <c r="A22" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="C22" s="10" t="s">
         <v>185</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>186</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>153</v>
       </c>
       <c r="E22" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="F22" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="G22" s="10" t="s">
         <v>188</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>189</v>
       </c>
       <c r="H22" s="10" t="s">
         <v>130</v>
@@ -2810,7 +2810,7 @@
         <v>31</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M22" s="10" t="s">
         <v>48</v>
@@ -2819,10 +2819,10 @@
         <v>34</v>
       </c>
       <c r="O22" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="P22" s="10" t="s">
         <v>191</v>
-      </c>
-      <c r="P22" s="10" t="s">
-        <v>192</v>
       </c>
       <c r="Q22" s="10" t="s">
         <v>37</v>
@@ -2837,33 +2837,33 @@
         <v>40</v>
       </c>
       <c r="U22" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="V22" s="10" t="s">
         <v>193</v>
-      </c>
-      <c r="V22" s="10" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="23" spans="1:22">
       <c r="A23" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="C23" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>126</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="H23" s="7" t="s">
         <v>130</v>
@@ -2878,7 +2878,7 @@
         <v>31</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M23" s="7" t="s">
         <v>48</v>
@@ -2887,10 +2887,10 @@
         <v>34</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>37</v>
@@ -2905,33 +2905,33 @@
         <v>40</v>
       </c>
       <c r="U23" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="V23" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="V23" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="30" customHeight="1">
       <c r="A24" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B24" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="C24" s="10" t="s">
         <v>206</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>207</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>126</v>
       </c>
       <c r="E24" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="F24" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="G24" s="10" t="s">
         <v>209</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>210</v>
       </c>
       <c r="H24" s="10" t="s">
         <v>130</v>
@@ -2946,7 +2946,7 @@
         <v>31</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="M24" s="10" t="s">
         <v>48</v>
@@ -2955,7 +2955,7 @@
         <v>96</v>
       </c>
       <c r="O24" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P24" s="10" t="s">
         <v>85</v>
@@ -2973,36 +2973,36 @@
         <v>40</v>
       </c>
       <c r="U24" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="V24" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="30" customHeight="1">
       <c r="A25" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="C25" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>126</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="H25" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>54</v>
@@ -3014,7 +3014,7 @@
         <v>31</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M25" s="7" t="s">
         <v>82</v>
@@ -3023,10 +3023,10 @@
         <v>58</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>37</v>
@@ -3041,33 +3041,33 @@
         <v>40</v>
       </c>
       <c r="U25" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="V25" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26" spans="1:22">
       <c r="A26" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B26" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C26" s="10" t="s">
         <v>164</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>165</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>126</v>
       </c>
       <c r="E26" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="F26" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="G26" s="10" t="s">
         <v>226</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>227</v>
       </c>
       <c r="H26" s="10" t="s">
         <v>130</v>
@@ -3082,22 +3082,22 @@
         <v>31</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M26" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N26" s="8" t="s">
         <v>96</v>
       </c>
       <c r="O26" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="P26" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="P26" s="10" t="s">
+      <c r="Q26" s="10" t="s">
         <v>230</v>
-      </c>
-      <c r="Q26" s="10" t="s">
-        <v>231</v>
       </c>
       <c r="R26" s="10" t="s">
         <v>38</v>
@@ -3112,30 +3112,30 @@
         <v>149</v>
       </c>
       <c r="V26" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27" spans="1:22" ht="30" customHeight="1">
       <c r="A27" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="C27" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>126</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="H27" s="7" t="s">
         <v>130</v>
@@ -3150,19 +3150,19 @@
         <v>31</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M27" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N27" s="5" t="s">
         <v>96</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="Q27" s="7" t="s">
         <v>61</v>
@@ -3180,33 +3180,33 @@
         <v>148</v>
       </c>
       <c r="V27" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="28" spans="1:22">
       <c r="A28" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="B28" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="C28" s="10" t="s">
         <v>243</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>244</v>
       </c>
       <c r="D28" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E28" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="F28" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="G28" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="G28" s="10" t="s">
+      <c r="H28" s="10" t="s">
         <v>247</v>
-      </c>
-      <c r="H28" s="10" t="s">
-        <v>248</v>
       </c>
       <c r="I28" s="8" t="s">
         <v>22</v>
@@ -3218,7 +3218,7 @@
         <v>31</v>
       </c>
       <c r="L28" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M28" s="10" t="s">
         <v>33</v>
@@ -3227,10 +3227,10 @@
         <v>96</v>
       </c>
       <c r="O28" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="P28" s="10" t="s">
         <v>250</v>
-      </c>
-      <c r="P28" s="10" t="s">
-        <v>251</v>
       </c>
       <c r="Q28" s="10" t="s">
         <v>71</v>
@@ -3245,36 +3245,36 @@
         <v>40</v>
       </c>
       <c r="U28" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="V28" s="10" t="s">
         <v>252</v>
-      </c>
-      <c r="V28" s="10" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="29" spans="1:22" ht="30" customHeight="1">
       <c r="A29" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="C29" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="G29" s="7" t="s">
-        <v>259</v>
-      </c>
       <c r="H29" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>74</v>
@@ -3286,13 +3286,13 @@
         <v>31</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M29" s="7" t="s">
         <v>48</v>
       </c>
       <c r="N29" s="5" t="s">
-        <v>158</v>
+        <v>260</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>261</v>
@@ -3301,7 +3301,7 @@
         <v>262</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>37</v>
+        <v>230</v>
       </c>
       <c r="R29" s="7" t="s">
         <v>38</v>
@@ -3641,7 +3641,7 @@
         <v>301</v>
       </c>
       <c r="Q34" s="10" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="R34" s="10" t="s">
         <v>38</v>
@@ -4321,7 +4321,7 @@
         <v>360</v>
       </c>
       <c r="Q44" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="R44" s="10" t="s">
         <v>147</v>
@@ -4336,7 +4336,7 @@
         <v>361</v>
       </c>
       <c r="V44" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="45" spans="1:22" ht="30" customHeight="1">

--- a/latest/BoM/Positional/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Positional/pedalboard-hw-bom.xlsx
@@ -887,7 +887,7 @@
     <t>37.8944</t>
   </si>
   <si>
-    <t>88.0944</t>
+    <t>93.4444</t>
   </si>
   <si>
     <t>2.8500</t>
@@ -908,7 +908,7 @@
     <t>https://www.seielect.com/catalog/sei-rmcf_rmcp.pdf</t>
   </si>
   <si>
-    <t>90.2694</t>
+    <t>95.3819</t>
   </si>
   <si>
     <t>26</t>

--- a/latest/BoM/Positional/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Positional/pedalboard-hw-bom.xlsx
@@ -272,7 +272,7 @@
     <t>pedalboard-hw(4)</t>
   </si>
   <si>
-    <t>47.5944</t>
+    <t>49.4944</t>
   </si>
   <si>
     <t>82.9944</t>
@@ -1067,7 +1067,7 @@
     <t>https://www.diodes.com/assets/Datasheets/74AHCT1G32.pdf</t>
   </si>
   <si>
-    <t>53.2944</t>
+    <t>55.1944</t>
   </si>
   <si>
     <t>84.0444</t>

--- a/latest/BoM/Positional/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Positional/pedalboard-hw-bom.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="395">
   <si>
     <t>Row</t>
   </si>
@@ -852,6 +852,9 @@
   </si>
   <si>
     <t>SO08-E3</t>
+  </si>
+  <si>
+    <t>https://rocelec.widen.net/view/pdf/rwygqx6rjd/FAIRS27615-1.pdf</t>
   </si>
   <si>
     <t>103.6944</t>
@@ -1731,7 +1734,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1755,13 +1758,13 @@
     </row>
     <row r="2" spans="1:22">
       <c r="C2" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F2" s="3">
         <v>37</v>
@@ -1769,41 +1772,41 @@
     </row>
     <row r="3" spans="1:22">
       <c r="C3" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="C4" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>387</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="C5" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1811,13 +1814,13 @@
     </row>
     <row r="6" spans="1:22">
       <c r="C6" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F6" s="3">
         <v>69</v>
@@ -3387,7 +3390,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="31" spans="1:22">
+    <row r="31" spans="1:22" ht="30" customHeight="1">
       <c r="A31" s="5" t="s">
         <v>274</v>
       </c>
@@ -3421,8 +3424,8 @@
       <c r="K31" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L31" s="11" t="s">
-        <v>266</v>
+      <c r="L31" s="7" t="s">
+        <v>278</v>
       </c>
       <c r="M31" s="7" t="s">
         <v>33</v>
@@ -3434,7 +3437,7 @@
         <v>69</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>61</v>
@@ -3449,36 +3452,36 @@
         <v>40</v>
       </c>
       <c r="U31" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="V31" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="32" spans="1:22">
       <c r="A32" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D32" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F32" s="10" t="s">
         <v>137</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I32" s="8" t="s">
         <v>22</v>
@@ -3490,7 +3493,7 @@
         <v>31</v>
       </c>
       <c r="L32" s="10" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M32" s="10" t="s">
         <v>48</v>
@@ -3499,10 +3502,10 @@
         <v>96</v>
       </c>
       <c r="O32" s="10" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P32" s="10" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q32" s="10" t="s">
         <v>61</v>
@@ -3517,36 +3520,36 @@
         <v>40</v>
       </c>
       <c r="U32" s="10" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="V32" s="10" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="33" spans="1:22">
       <c r="A33" s="5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>22</v>
@@ -3558,7 +3561,7 @@
         <v>31</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M33" s="7" t="s">
         <v>48</v>
@@ -3567,10 +3570,10 @@
         <v>96</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q33" s="7" t="s">
         <v>37</v>
@@ -3585,36 +3588,36 @@
         <v>40</v>
       </c>
       <c r="U33" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="V33" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="34" spans="1:22">
       <c r="A34" s="8" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D34" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I34" s="8" t="s">
         <v>30</v>
@@ -3626,7 +3629,7 @@
         <v>31</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M34" s="10" t="s">
         <v>48</v>
@@ -3635,10 +3638,10 @@
         <v>34</v>
       </c>
       <c r="O34" s="10" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="P34" s="10" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q34" s="10" t="s">
         <v>71</v>
@@ -3653,33 +3656,33 @@
         <v>40</v>
       </c>
       <c r="U34" s="10" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="V34" s="10" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="35" spans="1:22" ht="30" customHeight="1">
       <c r="A35" s="5" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H35" s="7" t="s">
         <v>130</v>
@@ -3694,7 +3697,7 @@
         <v>31</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M35" s="7" t="s">
         <v>48</v>
@@ -3703,10 +3706,10 @@
         <v>96</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q35" s="7" t="s">
         <v>61</v>
@@ -3721,33 +3724,33 @@
         <v>40</v>
       </c>
       <c r="U35" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="V35" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="36" spans="1:22" ht="30" customHeight="1">
       <c r="A36" s="8" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H36" s="10" t="s">
         <v>130</v>
@@ -3762,7 +3765,7 @@
         <v>31</v>
       </c>
       <c r="L36" s="10" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M36" s="10" t="s">
         <v>48</v>
@@ -3771,10 +3774,10 @@
         <v>96</v>
       </c>
       <c r="O36" s="10" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P36" s="10" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q36" s="10" t="s">
         <v>61</v>
@@ -3789,33 +3792,33 @@
         <v>40</v>
       </c>
       <c r="U36" s="10" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="V36" s="10" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="37" spans="1:22" ht="30" customHeight="1">
       <c r="A37" s="5" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H37" s="7" t="s">
         <v>130</v>
@@ -3830,7 +3833,7 @@
         <v>31</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M37" s="7" t="s">
         <v>48</v>
@@ -3839,10 +3842,10 @@
         <v>96</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>61</v>
@@ -3857,33 +3860,33 @@
         <v>40</v>
       </c>
       <c r="U37" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="V37" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="38" spans="1:22" ht="30" customHeight="1">
       <c r="A38" s="8" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H38" s="10" t="s">
         <v>130</v>
@@ -3898,7 +3901,7 @@
         <v>31</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M38" s="10" t="s">
         <v>48</v>
@@ -3907,10 +3910,10 @@
         <v>96</v>
       </c>
       <c r="O38" s="10" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P38" s="10" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q38" s="10" t="s">
         <v>61</v>
@@ -3925,33 +3928,33 @@
         <v>40</v>
       </c>
       <c r="U38" s="10" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="V38" s="10" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="39" spans="1:22" ht="30" customHeight="1">
       <c r="A39" s="5" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H39" s="7" t="s">
         <v>130</v>
@@ -3966,7 +3969,7 @@
         <v>31</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M39" s="7" t="s">
         <v>48</v>
@@ -3975,10 +3978,10 @@
         <v>96</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q39" s="7" t="s">
         <v>61</v>
@@ -3993,33 +3996,33 @@
         <v>40</v>
       </c>
       <c r="U39" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="V39" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="40" spans="1:22" ht="30" customHeight="1">
       <c r="A40" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H40" s="10" t="s">
         <v>130</v>
@@ -4034,7 +4037,7 @@
         <v>31</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M40" s="10" t="s">
         <v>48</v>
@@ -4043,10 +4046,10 @@
         <v>96</v>
       </c>
       <c r="O40" s="10" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="P40" s="10" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q40" s="10" t="s">
         <v>61</v>
@@ -4061,33 +4064,33 @@
         <v>40</v>
       </c>
       <c r="U40" s="10" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="V40" s="10" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="41" spans="1:22" ht="30" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H41" s="7" t="s">
         <v>130</v>
@@ -4102,7 +4105,7 @@
         <v>31</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M41" s="7" t="s">
         <v>48</v>
@@ -4111,10 +4114,10 @@
         <v>96</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q41" s="7" t="s">
         <v>61</v>
@@ -4129,33 +4132,33 @@
         <v>40</v>
       </c>
       <c r="U41" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="V41" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="42" spans="1:22" ht="30" customHeight="1">
       <c r="A42" s="8" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D42" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H42" s="10" t="s">
         <v>130</v>
@@ -4170,7 +4173,7 @@
         <v>31</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M42" s="10" t="s">
         <v>48</v>
@@ -4179,10 +4182,10 @@
         <v>96</v>
       </c>
       <c r="O42" s="10" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="P42" s="10" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q42" s="10" t="s">
         <v>61</v>
@@ -4197,33 +4200,33 @@
         <v>40</v>
       </c>
       <c r="U42" s="10" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="V42" s="10" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="43" spans="1:22">
       <c r="A43" s="5" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B43" s="11" t="s">
         <v>266</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="F43" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="F43" s="7" t="s">
-        <v>345</v>
-      </c>
       <c r="G43" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H43" s="7" t="s">
         <v>130</v>
@@ -4238,7 +4241,7 @@
         <v>31</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M43" s="7" t="s">
         <v>82</v>
@@ -4247,10 +4250,10 @@
         <v>96</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q43" s="7" t="s">
         <v>37</v>
@@ -4265,33 +4268,33 @@
         <v>40</v>
       </c>
       <c r="U43" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="V43" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="44" spans="1:22" ht="30" customHeight="1">
       <c r="A44" s="8" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B44" s="12" t="s">
         <v>266</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D44" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="F44" s="10" t="s">
         <v>355</v>
       </c>
-      <c r="E44" s="10" t="s">
-        <v>356</v>
-      </c>
-      <c r="F44" s="10" t="s">
-        <v>354</v>
-      </c>
       <c r="G44" s="10" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H44" s="10" t="s">
         <v>130</v>
@@ -4306,7 +4309,7 @@
         <v>31</v>
       </c>
       <c r="L44" s="10" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M44" s="10" t="s">
         <v>48</v>
@@ -4315,10 +4318,10 @@
         <v>96</v>
       </c>
       <c r="O44" s="10" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="P44" s="10" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q44" s="10" t="s">
         <v>230</v>
@@ -4333,7 +4336,7 @@
         <v>40</v>
       </c>
       <c r="U44" s="10" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="V44" s="10" t="s">
         <v>231</v>
@@ -4341,28 +4344,28 @@
     </row>
     <row r="45" spans="1:22" ht="30" customHeight="1">
       <c r="A45" s="5" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D45" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F45" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="E45" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>364</v>
-      </c>
       <c r="G45" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="I45" s="5" t="s">
         <v>22</v>
@@ -4374,7 +4377,7 @@
         <v>31</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M45" s="7" t="s">
         <v>48</v>
@@ -4383,7 +4386,7 @@
         <v>96</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="P45" s="7" t="s">
         <v>98</v>
@@ -4401,10 +4404,10 @@
         <v>40</v>
       </c>
       <c r="U45" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="V45" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -4430,22 +4433,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="11" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
   </sheetData>

--- a/latest/BoM/Positional/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Positional/pedalboard-hw-bom.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="402">
   <si>
     <t>Row</t>
   </si>
@@ -149,7 +149,7 @@
     <t>1.8000</t>
   </si>
   <si>
-    <t>C1 C2 C3 C4 C5 C12</t>
+    <t>C1 C2 C3 C4 C5</t>
   </si>
   <si>
     <t>100nF</t>
@@ -158,342 +158,420 @@
     <t>C_0805_2012Metric</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>https://datasheets.kyocera-avx.com/X7RDielectric.pdf</t>
+  </si>
+  <si>
+    <t>/MIDI</t>
+  </si>
+  <si>
+    <t>pedalboard-hw(5)</t>
+  </si>
+  <si>
+    <t>30.0944</t>
+  </si>
+  <si>
+    <t>104.8944</t>
+  </si>
+  <si>
+    <t>2.9000</t>
+  </si>
+  <si>
+    <t>1.4500</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>C16 C17 C20</t>
+  </si>
+  <si>
+    <t>4.7uF</t>
+  </si>
+  <si>
+    <t>https://search.murata.co.jp/Ceramy/image/img/A01X/G101/ENG/GRM21BZ71H475ME15-01.pdf</t>
+  </si>
+  <si>
+    <t>pedalboard-hw(3)</t>
+  </si>
+  <si>
+    <t>140.6444</t>
+  </si>
+  <si>
+    <t>87.1444</t>
+  </si>
+  <si>
+    <t>0.0000</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Polarized capacitor</t>
+  </si>
+  <si>
+    <t>C_Polarized</t>
+  </si>
+  <si>
+    <t>C13 C14 C15</t>
+  </si>
+  <si>
+    <t>270uF</t>
+  </si>
+  <si>
+    <t>CP_Elec_10x10</t>
+  </si>
+  <si>
+    <t>https://connect.kemet.com:7667/gateway/IntelliData-ComponentDocumentation/1.0/download/datasheet/A768MS277M1GLAE022</t>
+  </si>
+  <si>
+    <t>144.7944</t>
+  </si>
+  <si>
+    <t>93.5269</t>
+  </si>
+  <si>
+    <t>270.0000</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>2.5000</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>ComputeModule4-CM4</t>
+  </si>
+  <si>
+    <t>pedalboard</t>
+  </si>
+  <si>
+    <t>CM4</t>
+  </si>
+  <si>
+    <t>Raspberry-Pi-4-Compute-Module</t>
+  </si>
+  <si>
+    <t>Pedalboard Library</t>
+  </si>
+  <si>
+    <t>/Audio</t>
+  </si>
+  <si>
+    <t>pedalboard-hw(1)</t>
+  </si>
+  <si>
+    <t>70.9944</t>
+  </si>
+  <si>
+    <t>67.4944</t>
+  </si>
+  <si>
+    <t>37.7000</t>
+  </si>
+  <si>
+    <t>50.7000</t>
+  </si>
+  <si>
     <t>6</t>
   </si>
   <si>
-    <t>https://datasheets.kyocera-avx.com/X7RDielectric.pdf</t>
-  </si>
-  <si>
-    <t>/MIDI</t>
+    <t>Light emitting diode</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>LED G</t>
+  </si>
+  <si>
+    <t>LED_0805_2012Metric</t>
+  </si>
+  <si>
+    <t>LED_SMD</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t>31.4944</t>
+  </si>
+  <si>
+    <t>62.9944</t>
+  </si>
+  <si>
+    <t>2.8500</t>
+  </si>
+  <si>
+    <t>1.4000</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>LED Y</t>
+  </si>
+  <si>
+    <t>60.9944</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>RGB LED with integrated controller</t>
+  </si>
+  <si>
+    <t>SK6812</t>
+  </si>
+  <si>
+    <t>D1 D2 D3 D4</t>
+  </si>
+  <si>
+    <t>LED_SK6812_PLCC4_5.0x5.0mm_P3.2mm</t>
+  </si>
+  <si>
+    <t>https://cdn-shop.adafruit.com/product-files/1138/SK6812+LED+datasheet+.pdf</t>
+  </si>
+  <si>
+    <t>/LEDs</t>
+  </si>
+  <si>
+    <t>pedalboard-hw(4)</t>
+  </si>
+  <si>
+    <t>49.4944</t>
+  </si>
+  <si>
+    <t>82.9944</t>
+  </si>
+  <si>
+    <t>6.4000</t>
+  </si>
+  <si>
+    <t>4.2000</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>100V 0.15A standard switching diode, DO-35</t>
+  </si>
+  <si>
+    <t>1N4148</t>
+  </si>
+  <si>
+    <t>Diode</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>SM4007</t>
+  </si>
+  <si>
+    <t>D_SOD-123F</t>
+  </si>
+  <si>
+    <t>Diode_SMD</t>
+  </si>
+  <si>
+    <t>https://www.mccsemi.com/pdf/Products/SM4001PL-SM4007PL(SOD-123FL).PDF</t>
+  </si>
+  <si>
+    <t>26.5944</t>
+  </si>
+  <si>
+    <t>98.5944</t>
+  </si>
+  <si>
+    <t>3.9000</t>
+  </si>
+  <si>
+    <t>1.1000</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>20V 1A Schottky Barrier Rectifier Diode, DO-41</t>
+  </si>
+  <si>
+    <t>1N5817</t>
+  </si>
+  <si>
+    <t>D13</t>
+  </si>
+  <si>
+    <t>SS34HF</t>
+  </si>
+  <si>
+    <t>D_SMA</t>
+  </si>
+  <si>
+    <t>https://www.comchiptech.com/admin/files/product/20190514101641.pdf</t>
+  </si>
+  <si>
+    <t>115.6444</t>
+  </si>
+  <si>
+    <t>81.6944</t>
+  </si>
+  <si>
+    <t>6.5000</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Resettable fuse, polymeric positive temperature coefficient</t>
+  </si>
+  <si>
+    <t>Polyfuse</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>Polyfuse 1.8A</t>
+  </si>
+  <si>
+    <t>Fuse_1812_4532Metric</t>
+  </si>
+  <si>
+    <t>Fuse</t>
+  </si>
+  <si>
+    <t>https://www.littelfuse.com/~/media/electronics/datasheets/resettable_ptcs/littelfuse_ptc_1812l_datasheet.pdf.pdf</t>
+  </si>
+  <si>
+    <t>151.6944</t>
+  </si>
+  <si>
+    <t>102.2444</t>
+  </si>
+  <si>
+    <t>5.4000</t>
+  </si>
+  <si>
+    <t>3.4000</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>DC Barrel Jack with an internal switch</t>
+  </si>
+  <si>
+    <t>Barrel_Jack_Switch</t>
+  </si>
+  <si>
+    <t>Connector</t>
+  </si>
+  <si>
+    <t>J13</t>
+  </si>
+  <si>
+    <t>Barrel_Jack_MountingPin</t>
+  </si>
+  <si>
+    <t>BarrelJack_Wuerth_6941xx301002</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/components/products/datasheet/6941xx301002.pdf</t>
+  </si>
+  <si>
+    <t>161.3944</t>
+  </si>
+  <si>
+    <t>100.5944</t>
+  </si>
+  <si>
+    <t>THT</t>
+  </si>
+  <si>
+    <t>7.9000</t>
+  </si>
+  <si>
+    <t>7.6000</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Generic connector, double row, 02x01, this symbol is compatible with counter-clockwise, top-bottom and odd-even numbering schemes., script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+  </si>
+  <si>
+    <t>Conn_02x01</t>
+  </si>
+  <si>
+    <t>Connector_Generic</t>
+  </si>
+  <si>
+    <t>J14</t>
+  </si>
+  <si>
+    <t>PinHeader_1x02_P2.54mm_Horizontal</t>
+  </si>
+  <si>
+    <t>Connector_PinHeader_2.54mm</t>
+  </si>
+  <si>
+    <t>https://cdn.amphenol-cs.com/media/wysiwyg/files/drawing/68015.pdf</t>
+  </si>
+  <si>
+    <t>117.0694</t>
+  </si>
+  <si>
+    <t>71.1444</t>
+  </si>
+  <si>
+    <t>bottom</t>
+  </si>
+  <si>
+    <t>1.7000</t>
+  </si>
+  <si>
+    <t>4.2400</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>M Series, 6.35mm (1/4in) stereo jack, switched, with chrome ferrule and straight PCB pins</t>
+  </si>
+  <si>
+    <t>NMJ6HCD2</t>
+  </si>
+  <si>
+    <t>Connector_Audio</t>
+  </si>
+  <si>
+    <t>J3 J9 J10 J11 J12 J15</t>
+  </si>
+  <si>
+    <t>EXP1</t>
+  </si>
+  <si>
+    <t>Jack_6.35mm_Horizontal</t>
+  </si>
+  <si>
+    <t>https://www.schurter.com/en/datasheet/typ_4833.2320.pdf</t>
   </si>
   <si>
     <t>pedalboard-hw(6)</t>
   </si>
   <si>
-    <t>30.0944</t>
-  </si>
-  <si>
-    <t>104.8944</t>
-  </si>
-  <si>
-    <t>2.9000</t>
-  </si>
-  <si>
-    <t>1.4500</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>C16 C17 C20</t>
-  </si>
-  <si>
-    <t>4.7uF</t>
-  </si>
-  <si>
-    <t>https://search.murata.co.jp/Ceramy/image/img/A01X/G101/ENG/GRM21BZ71H475ME15-01.pdf</t>
-  </si>
-  <si>
-    <t>pedalboard-hw(3)</t>
-  </si>
-  <si>
-    <t>140.6444</t>
-  </si>
-  <si>
-    <t>87.1444</t>
-  </si>
-  <si>
-    <t>0.0000</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Polarized capacitor</t>
-  </si>
-  <si>
-    <t>C_Polarized</t>
-  </si>
-  <si>
-    <t>C13 C14 C15</t>
-  </si>
-  <si>
-    <t>270uF</t>
-  </si>
-  <si>
-    <t>CP_Elec_10x10</t>
-  </si>
-  <si>
-    <t>https://connect.kemet.com:7667/gateway/IntelliData-ComponentDocumentation/1.0/download/datasheet/A768MS277M1GLAE022</t>
-  </si>
-  <si>
-    <t>144.7944</t>
-  </si>
-  <si>
-    <t>93.5269</t>
-  </si>
-  <si>
-    <t>270.0000</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>2.5000</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>RGB LED with integrated controller</t>
-  </si>
-  <si>
-    <t>SK6812</t>
-  </si>
-  <si>
-    <t>LED</t>
-  </si>
-  <si>
-    <t>D1 D2 D3 D4</t>
-  </si>
-  <si>
-    <t>LED_SK6812_PLCC4_5.0x5.0mm_P3.2mm</t>
-  </si>
-  <si>
-    <t>LED_SMD</t>
-  </si>
-  <si>
-    <t>https://cdn-shop.adafruit.com/product-files/1138/SK6812+LED+datasheet+.pdf</t>
-  </si>
-  <si>
-    <t>/LEDs</t>
-  </si>
-  <si>
-    <t>pedalboard-hw(4)</t>
-  </si>
-  <si>
-    <t>49.4944</t>
-  </si>
-  <si>
-    <t>82.9944</t>
-  </si>
-  <si>
-    <t>6.4000</t>
-  </si>
-  <si>
-    <t>4.2000</t>
-  </si>
-  <si>
-    <t>100V 0.15A standard switching diode, DO-35</t>
-  </si>
-  <si>
-    <t>1N4148</t>
-  </si>
-  <si>
-    <t>Diode</t>
-  </si>
-  <si>
-    <t>D11</t>
-  </si>
-  <si>
-    <t>SM4007</t>
-  </si>
-  <si>
-    <t>D_SOD-123F</t>
-  </si>
-  <si>
-    <t>Diode_SMD</t>
-  </si>
-  <si>
-    <t>https://www.mccsemi.com/pdf/Products/SM4001PL-SM4007PL(SOD-123FL).PDF</t>
-  </si>
-  <si>
-    <t>pedalboard-hw(1)</t>
-  </si>
-  <si>
-    <t>26.5944</t>
-  </si>
-  <si>
-    <t>98.5944</t>
-  </si>
-  <si>
-    <t>3.9000</t>
-  </si>
-  <si>
-    <t>1.1000</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>20V 1A Schottky Barrier Rectifier Diode, DO-41</t>
-  </si>
-  <si>
-    <t>1N5817</t>
-  </si>
-  <si>
-    <t>D13</t>
-  </si>
-  <si>
-    <t>SS34HF</t>
-  </si>
-  <si>
-    <t>D_SMA</t>
-  </si>
-  <si>
-    <t>https://www.comchiptech.com/admin/files/product/20190514101641.pdf</t>
-  </si>
-  <si>
-    <t>115.6444</t>
-  </si>
-  <si>
-    <t>81.6944</t>
-  </si>
-  <si>
-    <t>6.5000</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>Resettable fuse, polymeric positive temperature coefficient</t>
-  </si>
-  <si>
-    <t>Polyfuse</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>Polyfuse 1.8A</t>
-  </si>
-  <si>
-    <t>Fuse_1812_4532Metric</t>
-  </si>
-  <si>
-    <t>Fuse</t>
-  </si>
-  <si>
-    <t>https://www.littelfuse.com/~/media/electronics/datasheets/resettable_ptcs/littelfuse_ptc_1812l_datasheet.pdf.pdf</t>
-  </si>
-  <si>
-    <t>151.6944</t>
-  </si>
-  <si>
-    <t>102.2444</t>
-  </si>
-  <si>
-    <t>5.4000</t>
-  </si>
-  <si>
-    <t>3.4000</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>DC Barrel Jack with an internal switch</t>
-  </si>
-  <si>
-    <t>Barrel_Jack_Switch</t>
-  </si>
-  <si>
-    <t>Connector</t>
-  </si>
-  <si>
-    <t>J13</t>
-  </si>
-  <si>
-    <t>Barrel_Jack_MountingPin</t>
-  </si>
-  <si>
-    <t>BarrelJack_Wuerth_6941xx301002</t>
-  </si>
-  <si>
-    <t>Pedalboard Library</t>
-  </si>
-  <si>
-    <t>https://www.we-online.com/components/products/datasheet/6941xx301002.pdf</t>
-  </si>
-  <si>
-    <t>161.3944</t>
-  </si>
-  <si>
-    <t>100.5944</t>
-  </si>
-  <si>
-    <t>THT</t>
-  </si>
-  <si>
-    <t>7.9000</t>
-  </si>
-  <si>
-    <t>7.6000</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Generic connector, double row, 02x01, this symbol is compatible with counter-clockwise, top-bottom and odd-even numbering schemes., script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
-    <t>Conn_02x01</t>
-  </si>
-  <si>
-    <t>Connector_Generic</t>
-  </si>
-  <si>
-    <t>J14</t>
-  </si>
-  <si>
-    <t>PinHeader_1x02_P2.54mm_Horizontal</t>
-  </si>
-  <si>
-    <t>Connector_PinHeader_2.54mm</t>
-  </si>
-  <si>
-    <t>https://cdn.amphenol-cs.com/media/wysiwyg/files/drawing/68015.pdf</t>
-  </si>
-  <si>
-    <t>117.0694</t>
-  </si>
-  <si>
-    <t>71.1444</t>
-  </si>
-  <si>
-    <t>bottom</t>
-  </si>
-  <si>
-    <t>1.7000</t>
-  </si>
-  <si>
-    <t>4.2400</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>M Series, 6.35mm (1/4in) stereo jack, switched, with chrome ferrule and straight PCB pins</t>
-  </si>
-  <si>
-    <t>NMJ6HCD2</t>
-  </si>
-  <si>
-    <t>Connector_Audio</t>
-  </si>
-  <si>
-    <t>J3 J9 J10 J11 J12 J15</t>
-  </si>
-  <si>
-    <t>EXP1</t>
-  </si>
-  <si>
-    <t>Jack_6.35mm_Horizontal</t>
-  </si>
-  <si>
-    <t>https://www.schurter.com/en/datasheet/typ_4833.2320.pdf</t>
-  </si>
-  <si>
     <t>157.6094</t>
   </si>
   <si>
@@ -506,10 +584,7 @@
     <t>19.2300</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>expansion header for Raspberry Pi 2 &amp; 3</t>
+    <t>15</t>
   </si>
   <si>
     <t>Raspberry_Pi_2_3</t>
@@ -527,9 +602,6 @@
     <t>https://www.hifiberry.com/docs/data-sheets/datasheet-dac-adc-pro/</t>
   </si>
   <si>
-    <t>/Audio</t>
-  </si>
-  <si>
     <t>62.6188</t>
   </si>
   <si>
@@ -539,7 +611,7 @@
     <t>55.0150</t>
   </si>
   <si>
-    <t>13</t>
+    <t>16</t>
   </si>
   <si>
     <t>Generic connector, double row, 02x02, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
@@ -557,9 +629,6 @@
     <t>Led-Ring</t>
   </si>
   <si>
-    <t>~</t>
-  </si>
-  <si>
     <t>160.9944</t>
   </si>
   <si>
@@ -569,7 +638,7 @@
     <t>3.3500</t>
   </si>
   <si>
-    <t>14</t>
+    <t>17</t>
   </si>
   <si>
     <t>Audio Jack, 3 Poles (Stereo / TRS), Switched TR Poles (Normalling)</t>
@@ -602,7 +671,7 @@
     <t>6.7000</t>
   </si>
   <si>
-    <t>15</t>
+    <t>18</t>
   </si>
   <si>
     <t>5-pin DIN connector (5-pin DIN-5 stereo)</t>
@@ -632,7 +701,7 @@
     <t>14.7500</t>
   </si>
   <si>
-    <t>16</t>
+    <t>19</t>
   </si>
   <si>
     <t>Generic connector, single row, 01x02, script generated</t>
@@ -656,7 +725,7 @@
     <t>1.3500</t>
   </si>
   <si>
-    <t>17</t>
+    <t>20</t>
   </si>
   <si>
     <t>Generic connector, single row, 01x03, script generated</t>
@@ -689,427 +758,379 @@
     <t>1.9500</t>
   </si>
   <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>J7</t>
-  </si>
-  <si>
-    <t>Raspberry_pi</t>
-  </si>
-  <si>
-    <t>Raspberry PI Compute Module CM4 Nano A</t>
-  </si>
-  <si>
-    <t>https://www.waveshare.com/wiki/CM4-NANO-A</t>
-  </si>
-  <si>
-    <t>31.5844</t>
-  </si>
-  <si>
-    <t>24.6744</t>
+    <t>21</t>
+  </si>
+  <si>
+    <t>Inductor</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>L6</t>
+  </si>
+  <si>
+    <t>2.2uH</t>
+  </si>
+  <si>
+    <t>L_1210_3225Metric</t>
+  </si>
+  <si>
+    <t>Inductor_SMD</t>
+  </si>
+  <si>
+    <t>https://www.bourns.com/docs/product-datasheets/srp3212.pdf</t>
+  </si>
+  <si>
+    <t>137.2944</t>
+  </si>
+  <si>
+    <t>88.3944</t>
+  </si>
+  <si>
+    <t>4.0500</t>
+  </si>
+  <si>
+    <t>2.6500</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>Inductor with ferrite core</t>
+  </si>
+  <si>
+    <t>L_Ferrite</t>
+  </si>
+  <si>
+    <t>L1 L2 L3 L4</t>
+  </si>
+  <si>
+    <t>120_100MHz</t>
+  </si>
+  <si>
+    <t>L_0603_1608Metric</t>
+  </si>
+  <si>
+    <t>https://www.murata.com/products/productdata/8796738650142/ENFA0003.pdf</t>
+  </si>
+  <si>
+    <t>24.6944</t>
+  </si>
+  <si>
+    <t>102.4944</t>
   </si>
   <si>
     <t>90.0000</t>
   </si>
   <si>
+    <t>2.4500</t>
+  </si>
+  <si>
+    <t>0.9500</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>PDQE15-Q24-S5-D</t>
+  </si>
+  <si>
+    <t>PS1</t>
+  </si>
+  <si>
+    <t>CONV_PDQE15-Q24-S5-D</t>
+  </si>
+  <si>
+    <t>https://www.cui.com/product/resource/pdqe15-d.pdf</t>
+  </si>
+  <si>
+    <t>117.3644</t>
+  </si>
+  <si>
+    <t>54.9986</t>
+  </si>
+  <si>
+    <t>22.5700</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>FDS4435BZ</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>SO08-E3</t>
+  </si>
+  <si>
+    <t>https://rocelec.widen.net/view/pdf/rwygqx6rjd/FAIRS27615-1.pdf</t>
+  </si>
+  <si>
+    <t>103.6944</t>
+  </si>
+  <si>
+    <t>4.4150</t>
+  </si>
+  <si>
+    <t>7.4000</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>Resistor</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>R_0805_2012Metric</t>
+  </si>
+  <si>
+    <t>Resistor_SMD</t>
+  </si>
+  <si>
+    <t>https://www.seielect.com/catalog/sei-rncp.pdf</t>
+  </si>
+  <si>
+    <t>37.8944</t>
+  </si>
+  <si>
+    <t>93.4444</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>https://www.seielect.com/catalog/sei-rmcf_rmcp.pdf</t>
+  </si>
+  <si>
+    <t>95.3819</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>R1 R5</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>22.9944</t>
+  </si>
+  <si>
+    <t>102.3944</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>R2 R6</t>
+  </si>
+  <si>
+    <t>1k</t>
+  </si>
+  <si>
+    <t>31.5444</t>
+  </si>
+  <si>
+    <t>59.0444</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>Omron B3FS 6x6mm single pole normally-open tactile switch</t>
+  </si>
+  <si>
+    <t>SW_Omron_B3FS</t>
+  </si>
+  <si>
+    <t>Switch</t>
+  </si>
+  <si>
+    <t>SW4</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>SW_PUSH-12mm_Wuerth</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/components/products/datasheet/430172043816.pdf</t>
+  </si>
+  <si>
+    <t>11.9944</t>
+  </si>
+  <si>
+    <t>16.0000</t>
+  </si>
+  <si>
+    <t>6.8000</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>SW5</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>86.9944</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>SW6</t>
+  </si>
+  <si>
+    <t>161.9944</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>SW1</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>63.9944</t>
+  </si>
+  <si>
+    <t>SW2</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>SW3</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>Rotary encoder, dual channel, incremental quadrate outputs, with switch</t>
+  </si>
+  <si>
+    <t>RotaryEncoder_Switch</t>
+  </si>
+  <si>
+    <t>SW8</t>
+  </si>
+  <si>
+    <t>GAIN Rotary</t>
+  </si>
+  <si>
+    <t>RotaryEncoder_Alps_EC11E-Switch_Vertical_H20mm_CircularMountingHoles</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/components/products/datasheet/482016514001.pdf</t>
+  </si>
+  <si>
+    <t>117.2444</t>
+  </si>
+  <si>
+    <t>99.4944</t>
+  </si>
+  <si>
+    <t>16.5000</t>
+  </si>
+  <si>
+    <t>14.4000</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>SW7</t>
+  </si>
+  <si>
+    <t>VOL Rotary</t>
+  </si>
+  <si>
+    <t>42.2444</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>74AHCT1G32SE-7</t>
+  </si>
+  <si>
+    <t>U3 U4</t>
+  </si>
+  <si>
+    <t>SOT-353_SC-70-5</t>
+  </si>
+  <si>
+    <t>https://www.diodes.com/assets/Datasheets/74AHCT1G32.pdf</t>
+  </si>
+  <si>
+    <t>55.1944</t>
+  </si>
+  <si>
+    <t>84.0444</t>
+  </si>
+  <si>
+    <t>2.5500</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>Pico</t>
+  </si>
+  <si>
+    <t>MCU_RaspberryPi_and_Boards</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>RPi_Pico_SMD_TH</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/components/products/datasheet/6130xx11121.pdf</t>
+  </si>
+  <si>
+    <t>84.9944</t>
+  </si>
+  <si>
+    <t>81.9944</t>
+  </si>
+  <si>
+    <t>19.4800</t>
+  </si>
+  <si>
     <t>49.9600</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>USB Type A connector</t>
-  </si>
-  <si>
-    <t>USB_A</t>
-  </si>
-  <si>
-    <t>J6</t>
-  </si>
-  <si>
-    <t>USB A BCB Male Plug</t>
-  </si>
-  <si>
-    <t>https://media.digikey.com/pdf/Data%20Sheets/GCT%20PDFs/USB1061_Spec.pdf</t>
-  </si>
-  <si>
-    <t>95.6194</t>
-  </si>
-  <si>
-    <t>33.2144</t>
-  </si>
-  <si>
-    <t>9.3200</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>Inductor</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>L6</t>
-  </si>
-  <si>
-    <t>2.2uH</t>
-  </si>
-  <si>
-    <t>L_1210_3225Metric</t>
-  </si>
-  <si>
-    <t>Inductor_SMD</t>
-  </si>
-  <si>
-    <t>https://www.bourns.com/docs/product-datasheets/srp3212.pdf</t>
-  </si>
-  <si>
-    <t>137.2944</t>
-  </si>
-  <si>
-    <t>88.3944</t>
-  </si>
-  <si>
-    <t>4.0500</t>
-  </si>
-  <si>
-    <t>2.6500</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>Inductor with ferrite core</t>
-  </si>
-  <si>
-    <t>L_Ferrite</t>
-  </si>
-  <si>
-    <t>L1 L2 L3 L4 L5</t>
-  </si>
-  <si>
-    <t>120_100MHz</t>
-  </si>
-  <si>
-    <t>L_0603_1608Metric</t>
-  </si>
-  <si>
-    <t>https://www.murata.com/products/productdata/8796738650142/ENFA0003.pdf</t>
-  </si>
-  <si>
-    <t>pedalboard-hw(5)</t>
-  </si>
-  <si>
-    <t>24.6944</t>
-  </si>
-  <si>
-    <t>102.4944</t>
-  </si>
-  <si>
-    <t>2.4500</t>
-  </si>
-  <si>
-    <t>0.9500</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>PDQE15-Q24-S5-D</t>
-  </si>
-  <si>
-    <t>PS1</t>
-  </si>
-  <si>
-    <t>CONV_PDQE15-Q24-S5-D</t>
-  </si>
-  <si>
-    <t>https://www.cui.com/product/resource/pdqe15-d.pdf</t>
-  </si>
-  <si>
-    <t>117.3644</t>
-  </si>
-  <si>
-    <t>54.9986</t>
-  </si>
-  <si>
-    <t>22.5700</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>FDS4435BZ</t>
-  </si>
-  <si>
-    <t>Q1</t>
-  </si>
-  <si>
-    <t>SO08-E3</t>
-  </si>
-  <si>
-    <t>https://rocelec.widen.net/view/pdf/rwygqx6rjd/FAIRS27615-1.pdf</t>
-  </si>
-  <si>
-    <t>103.6944</t>
-  </si>
-  <si>
-    <t>4.4150</t>
-  </si>
-  <si>
-    <t>7.4000</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>Resistor</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>R4</t>
-  </si>
-  <si>
-    <t>R_0805_2012Metric</t>
-  </si>
-  <si>
-    <t>Resistor_SMD</t>
-  </si>
-  <si>
-    <t>https://www.seielect.com/catalog/sei-rncp.pdf</t>
-  </si>
-  <si>
-    <t>37.8944</t>
-  </si>
-  <si>
-    <t>93.4444</t>
-  </si>
-  <si>
-    <t>2.8500</t>
-  </si>
-  <si>
-    <t>1.4000</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>R3</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>https://www.seielect.com/catalog/sei-rmcf_rmcp.pdf</t>
-  </si>
-  <si>
-    <t>95.3819</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>R1 R5</t>
-  </si>
-  <si>
-    <t>220</t>
-  </si>
-  <si>
-    <t>22.9944</t>
-  </si>
-  <si>
-    <t>102.3944</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>Omron B3FS 6x6mm single pole normally-open tactile switch</t>
-  </si>
-  <si>
-    <t>SW_Omron_B3FS</t>
-  </si>
-  <si>
-    <t>Switch</t>
-  </si>
-  <si>
-    <t>SW4</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>SW_PUSH-12mm_Wuerth</t>
-  </si>
-  <si>
-    <t>https://www.we-online.com/components/products/datasheet/430172043816.pdf</t>
-  </si>
-  <si>
-    <t>11.9944</t>
-  </si>
-  <si>
-    <t>16.0000</t>
-  </si>
-  <si>
-    <t>6.8000</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>SW5</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>86.9944</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>SW6</t>
-  </si>
-  <si>
-    <t>161.9944</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>SW1</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>63.9944</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>SW2</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>SW3</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>Rotary encoder, dual channel, incremental quadrate outputs, with switch</t>
-  </si>
-  <si>
-    <t>RotaryEncoder_Switch</t>
-  </si>
-  <si>
-    <t>SW8</t>
-  </si>
-  <si>
-    <t>GAIN Rotary</t>
-  </si>
-  <si>
-    <t>RotaryEncoder_Alps_EC11E-Switch_Vertical_H20mm_CircularMountingHoles</t>
-  </si>
-  <si>
-    <t>https://www.we-online.com/components/products/datasheet/482016514001.pdf</t>
-  </si>
-  <si>
-    <t>117.2444</t>
-  </si>
-  <si>
-    <t>99.4944</t>
-  </si>
-  <si>
-    <t>16.5000</t>
-  </si>
-  <si>
-    <t>14.4000</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>SW7</t>
-  </si>
-  <si>
-    <t>VOL Rotary</t>
-  </si>
-  <si>
-    <t>42.2444</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>74AHCT1G32SE-7</t>
-  </si>
-  <si>
-    <t>U3</t>
-  </si>
-  <si>
-    <t>SOT65P210X110-5N</t>
-  </si>
-  <si>
-    <t>https://www.diodes.com/assets/Datasheets/74AHCT1G32.pdf</t>
-  </si>
-  <si>
-    <t>55.1944</t>
-  </si>
-  <si>
-    <t>84.0444</t>
-  </si>
-  <si>
-    <t>3.0480</t>
-  </si>
-  <si>
-    <t>1.6764</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>Pico</t>
-  </si>
-  <si>
-    <t>MCU_RaspberryPi_and_Boards</t>
-  </si>
-  <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>RPi_Pico_SMD_TH</t>
-  </si>
-  <si>
-    <t>https://www.we-online.com/components/products/datasheet/6130xx11121.pdf</t>
-  </si>
-  <si>
-    <t>84.9944</t>
-  </si>
-  <si>
-    <t>81.9944</t>
-  </si>
-  <si>
-    <t>19.4800</t>
-  </si>
-  <si>
-    <t>37</t>
+    <t>39</t>
   </si>
   <si>
     <t>15-Mbps inverting photocouple,5 kVrms, 2.7 - 5.5 Vdd, push-pull output</t>
@@ -1181,7 +1202,7 @@
     <t>Component Count:</t>
   </si>
   <si>
-    <t>69 (40 SMD/ 27 THT)</t>
+    <t>71 (44 SMD/ 25 THT)</t>
   </si>
   <si>
     <t>Fitted Components:</t>
@@ -1699,7 +1720,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V45"/>
+  <dimension ref="A1:V47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -1734,7 +1755,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1758,55 +1779,55 @@
     </row>
     <row r="2" spans="1:22">
       <c r="C2" s="2" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="F2" s="3">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:22">
       <c r="C3" s="2" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="C4" s="2" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="C5" s="2" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1814,16 +1835,16 @@
     </row>
     <row r="6" spans="1:22">
       <c r="C6" s="2" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="F6" s="3">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -2166,57 +2187,57 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="30" customHeight="1">
+    <row r="13" spans="1:22">
       <c r="A13" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="C13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="D13" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="E13" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="F13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="H13" s="7" t="s">
-        <v>80</v>
-      </c>
       <c r="I13" s="5" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="K13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="L13" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="N13" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="M13" s="7" t="s">
+      <c r="O13" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="N13" s="5" t="s">
+      <c r="P13" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="O13" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>85</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="R13" s="7" t="s">
         <v>38</v>
@@ -2228,36 +2249,36 @@
         <v>40</v>
       </c>
       <c r="U13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="V13" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="A14" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="V13" s="7" t="s">
+      <c r="B14" s="9" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" ht="30" customHeight="1">
-      <c r="A14" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="9" t="s">
+      <c r="C14" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="D14" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="F14" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="G14" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="H14" s="10" t="s">
         <v>92</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>94</v>
       </c>
       <c r="I14" s="8" t="s">
         <v>22</v>
@@ -2268,23 +2289,23 @@
       <c r="K14" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="L14" s="10" t="s">
+      <c r="L14" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="M14" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="N14" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="O14" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="P14" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="M14" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="N14" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="O14" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="P14" s="10" t="s">
-        <v>98</v>
-      </c>
       <c r="Q14" s="10" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="R14" s="10" t="s">
         <v>38</v>
@@ -2296,36 +2317,36 @@
         <v>40</v>
       </c>
       <c r="U14" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="V14" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="A15" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="V14" s="10" t="s">
+      <c r="F15" s="7" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" ht="30" customHeight="1">
-      <c r="A15" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>105</v>
-      </c>
       <c r="G15" s="7" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>22</v>
@@ -2336,23 +2357,23 @@
       <c r="K15" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L15" s="7" t="s">
-        <v>107</v>
+      <c r="L15" s="11" t="s">
+        <v>93</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="R15" s="7" t="s">
         <v>38</v>
@@ -2364,63 +2385,63 @@
         <v>40</v>
       </c>
       <c r="U15" s="7" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="V15" s="7" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="30" customHeight="1">
       <c r="A16" s="8" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="K16" s="8" t="s">
         <v>31</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="M16" s="10" t="s">
-        <v>33</v>
+        <v>108</v>
       </c>
       <c r="N16" s="8" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="O16" s="10" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="P16" s="10" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="Q16" s="10" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="R16" s="10" t="s">
         <v>38</v>
@@ -2432,36 +2453,36 @@
         <v>40</v>
       </c>
       <c r="U16" s="10" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="V16" s="10" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="30" customHeight="1">
       <c r="A17" s="5" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>22</v>
@@ -2473,63 +2494,63 @@
         <v>31</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="R17" s="7" t="s">
         <v>38</v>
       </c>
       <c r="S17" s="7" t="s">
-        <v>134</v>
+        <v>39</v>
       </c>
       <c r="T17" s="7" t="s">
         <v>40</v>
       </c>
       <c r="U17" s="7" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="V17" s="7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" ht="60" customHeight="1">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="30" customHeight="1">
       <c r="A18" s="8" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="I18" s="8" t="s">
         <v>22</v>
@@ -2541,131 +2562,131 @@
         <v>31</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="N18" s="8" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="O18" s="10" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="P18" s="10" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="Q18" s="10" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="R18" s="10" t="s">
-        <v>147</v>
+        <v>38</v>
       </c>
       <c r="S18" s="10" t="s">
-        <v>134</v>
+        <v>39</v>
       </c>
       <c r="T18" s="10" t="s">
         <v>40</v>
       </c>
       <c r="U18" s="10" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="V18" s="10" t="s">
-        <v>149</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="30" customHeight="1">
       <c r="A19" s="5" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>153</v>
+        <v>25</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="K19" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="R19" s="7" t="s">
         <v>38</v>
       </c>
       <c r="S19" s="7" t="s">
-        <v>134</v>
+        <v>39</v>
       </c>
       <c r="T19" s="7" t="s">
         <v>40</v>
       </c>
       <c r="U19" s="7" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="V19" s="7" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="30" customHeight="1">
       <c r="A20" s="8" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="I20" s="8" t="s">
         <v>22</v>
@@ -2677,471 +2698,471 @@
         <v>31</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="M20" s="10" t="s">
-        <v>169</v>
+        <v>33</v>
       </c>
       <c r="N20" s="8" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="O20" s="10" t="s">
-        <v>120</v>
+        <v>157</v>
       </c>
       <c r="P20" s="10" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="Q20" s="10" t="s">
         <v>37</v>
       </c>
       <c r="R20" s="10" t="s">
-        <v>147</v>
+        <v>38</v>
       </c>
       <c r="S20" s="10" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="T20" s="10" t="s">
         <v>40</v>
       </c>
       <c r="U20" s="10" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="V20" s="10" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" ht="45" customHeight="1">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="60" customHeight="1">
       <c r="A21" s="5" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="K21" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L21" s="11" t="s">
-        <v>179</v>
+      <c r="L21" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>61</v>
       </c>
       <c r="R21" s="7" t="s">
-        <v>38</v>
+        <v>172</v>
       </c>
       <c r="S21" s="7" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="T21" s="7" t="s">
         <v>40</v>
       </c>
       <c r="U21" s="7" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="V21" s="7" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="30" customHeight="1">
       <c r="A22" s="8" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="K22" s="8" t="s">
         <v>31</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="M22" s="10" t="s">
         <v>48</v>
       </c>
       <c r="N22" s="8" t="s">
-        <v>34</v>
+        <v>183</v>
       </c>
       <c r="O22" s="10" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="P22" s="10" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="Q22" s="10" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="R22" s="10" t="s">
         <v>38</v>
       </c>
       <c r="S22" s="10" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="T22" s="10" t="s">
         <v>40</v>
       </c>
       <c r="U22" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="V22" s="10" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="30" customHeight="1">
+      <c r="A23" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="V22" s="10" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22">
-      <c r="A23" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>199</v>
-      </c>
       <c r="H23" s="7" t="s">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K23" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>190</v>
+        <v>146</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>37</v>
       </c>
       <c r="R23" s="7" t="s">
-        <v>38</v>
+        <v>172</v>
       </c>
       <c r="S23" s="7" t="s">
-        <v>39</v>
+        <v>159</v>
       </c>
       <c r="T23" s="7" t="s">
         <v>40</v>
       </c>
       <c r="U23" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="V23" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" ht="45" customHeight="1">
+      <c r="A24" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="G24" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="V23" s="7" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" ht="30" customHeight="1">
-      <c r="A24" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>209</v>
-      </c>
       <c r="H24" s="10" t="s">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="K24" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="L24" s="10" t="s">
-        <v>210</v>
+      <c r="L24" s="12" t="s">
+        <v>93</v>
       </c>
       <c r="M24" s="10" t="s">
-        <v>48</v>
+        <v>108</v>
       </c>
       <c r="N24" s="8" t="s">
-        <v>96</v>
+        <v>183</v>
       </c>
       <c r="O24" s="10" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="P24" s="10" t="s">
-        <v>85</v>
+        <v>204</v>
       </c>
       <c r="Q24" s="10" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="R24" s="10" t="s">
-        <v>147</v>
+        <v>38</v>
       </c>
       <c r="S24" s="10" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="T24" s="10" t="s">
         <v>40</v>
       </c>
       <c r="U24" s="10" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="V24" s="10" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="30" customHeight="1">
       <c r="A25" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>126</v>
+        <v>178</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>218</v>
+        <v>79</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="K25" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="M25" s="7" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>37</v>
       </c>
       <c r="R25" s="7" t="s">
-        <v>147</v>
+        <v>38</v>
       </c>
       <c r="S25" s="7" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="T25" s="7" t="s">
         <v>40</v>
       </c>
       <c r="U25" s="7" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="V25" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="26" spans="1:22">
       <c r="A26" s="8" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>163</v>
+        <v>218</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>164</v>
+        <v>219</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="K26" s="8" t="s">
         <v>31</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="M26" s="10" t="s">
-        <v>169</v>
+        <v>48</v>
       </c>
       <c r="N26" s="8" t="s">
-        <v>96</v>
+        <v>34</v>
       </c>
       <c r="O26" s="10" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="P26" s="10" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="Q26" s="10" t="s">
-        <v>230</v>
+        <v>37</v>
       </c>
       <c r="R26" s="10" t="s">
         <v>38</v>
       </c>
       <c r="S26" s="10" t="s">
-        <v>134</v>
+        <v>39</v>
       </c>
       <c r="T26" s="10" t="s">
         <v>40</v>
       </c>
       <c r="U26" s="10" t="s">
-        <v>149</v>
+        <v>225</v>
       </c>
       <c r="V26" s="10" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27" spans="1:22" ht="30" customHeight="1">
       <c r="A27" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>236</v>
-      </c>
       <c r="H27" s="7" t="s">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>22</v>
@@ -3153,158 +3174,158 @@
         <v>31</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M27" s="7" t="s">
-        <v>169</v>
+        <v>48</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>239</v>
+        <v>111</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="R27" s="7" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="S27" s="7" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="T27" s="7" t="s">
         <v>40</v>
       </c>
       <c r="U27" s="7" t="s">
-        <v>148</v>
+        <v>234</v>
       </c>
       <c r="V27" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" ht="30" customHeight="1">
+      <c r="A28" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="G28" s="10" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="28" spans="1:22">
-      <c r="A28" s="8" t="s">
+      <c r="H28" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="B28" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="H28" s="10" t="s">
-        <v>247</v>
-      </c>
       <c r="I28" s="8" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="K28" s="8" t="s">
         <v>31</v>
       </c>
       <c r="L28" s="10" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="M28" s="10" t="s">
-        <v>33</v>
+        <v>108</v>
       </c>
       <c r="N28" s="8" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="O28" s="10" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="P28" s="10" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="Q28" s="10" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="R28" s="10" t="s">
-        <v>38</v>
+        <v>172</v>
       </c>
       <c r="S28" s="10" t="s">
-        <v>39</v>
+        <v>159</v>
       </c>
       <c r="T28" s="10" t="s">
         <v>40</v>
       </c>
       <c r="U28" s="10" t="s">
-        <v>251</v>
+        <v>216</v>
       </c>
       <c r="V28" s="10" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" ht="30" customHeight="1">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
       <c r="A29" s="5" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="K29" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="N29" s="5" t="s">
-        <v>260</v>
+        <v>81</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>230</v>
+        <v>71</v>
       </c>
       <c r="R29" s="7" t="s">
         <v>38</v>
@@ -3316,104 +3337,104 @@
         <v>40</v>
       </c>
       <c r="U29" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="V29" s="7" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" ht="30" customHeight="1">
+      <c r="A30" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="G30" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="V29" s="7" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22">
-      <c r="A30" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>269</v>
-      </c>
       <c r="H30" s="10" t="s">
-        <v>130</v>
+        <v>252</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="K30" s="8" t="s">
         <v>31</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="M30" s="10" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="N30" s="8" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="O30" s="10" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="P30" s="10" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="Q30" s="10" t="s">
-        <v>37</v>
+        <v>267</v>
       </c>
       <c r="R30" s="10" t="s">
         <v>38</v>
       </c>
       <c r="S30" s="10" t="s">
-        <v>134</v>
+        <v>39</v>
       </c>
       <c r="T30" s="10" t="s">
         <v>40</v>
       </c>
       <c r="U30" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="V30" s="10" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
+      <c r="A31" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="V30" s="10" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" ht="30" customHeight="1">
-      <c r="A31" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>277</v>
-      </c>
       <c r="H31" s="7" t="s">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="I31" s="5" t="s">
         <v>22</v>
@@ -3425,63 +3446,63 @@
         <v>31</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="M31" s="7" t="s">
         <v>33</v>
       </c>
       <c r="N31" s="5" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>69</v>
+        <v>275</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="R31" s="7" t="s">
         <v>38</v>
       </c>
       <c r="S31" s="7" t="s">
-        <v>39</v>
+        <v>159</v>
       </c>
       <c r="T31" s="7" t="s">
         <v>40</v>
       </c>
       <c r="U31" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="V31" s="7" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" ht="30" customHeight="1">
+      <c r="A32" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="E32" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="V31" s="7" t="s">
+      <c r="F32" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="G32" s="10" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="32" spans="1:22">
-      <c r="A32" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="G32" s="10" t="s">
-        <v>286</v>
-      </c>
       <c r="H32" s="10" t="s">
-        <v>287</v>
+        <v>79</v>
       </c>
       <c r="I32" s="8" t="s">
         <v>22</v>
@@ -3493,19 +3514,19 @@
         <v>31</v>
       </c>
       <c r="L32" s="10" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="M32" s="10" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="N32" s="8" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="O32" s="10" t="s">
-        <v>289</v>
+        <v>69</v>
       </c>
       <c r="P32" s="10" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="Q32" s="10" t="s">
         <v>61</v>
@@ -3520,36 +3541,36 @@
         <v>40</v>
       </c>
       <c r="U32" s="10" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="V32" s="10" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
     </row>
     <row r="33" spans="1:22">
       <c r="A33" s="5" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>295</v>
+        <v>127</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>22</v>
@@ -3561,22 +3582,22 @@
         <v>31</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="M33" s="7" t="s">
         <v>48</v>
       </c>
       <c r="N33" s="5" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="R33" s="7" t="s">
         <v>38</v>
@@ -3588,63 +3609,63 @@
         <v>40</v>
       </c>
       <c r="U33" s="7" t="s">
-        <v>291</v>
+        <v>96</v>
       </c>
       <c r="V33" s="7" t="s">
-        <v>292</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:22">
       <c r="A34" s="8" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="D34" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="J34" s="8" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K34" s="8" t="s">
         <v>31</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="M34" s="10" t="s">
         <v>48</v>
       </c>
       <c r="N34" s="8" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="O34" s="10" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="P34" s="10" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="Q34" s="10" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="R34" s="10" t="s">
         <v>38</v>
@@ -3656,63 +3677,63 @@
         <v>40</v>
       </c>
       <c r="U34" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="V34" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22">
+      <c r="A35" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="H35" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="V34" s="10" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22" ht="30" customHeight="1">
-      <c r="A35" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>130</v>
-      </c>
       <c r="I35" s="5" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="K35" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="M35" s="7" t="s">
         <v>48</v>
       </c>
       <c r="N35" s="5" t="s">
-        <v>96</v>
+        <v>34</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="R35" s="7" t="s">
         <v>38</v>
@@ -3724,60 +3745,60 @@
         <v>40</v>
       </c>
       <c r="U35" s="7" t="s">
-        <v>312</v>
+        <v>96</v>
       </c>
       <c r="V35" s="7" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22" ht="30" customHeight="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22">
       <c r="A36" s="8" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="D36" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="E36" s="10" t="s">
-        <v>315</v>
-      </c>
       <c r="F36" s="10" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>130</v>
+        <v>291</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="J36" s="8" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="K36" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="L36" s="10" t="s">
-        <v>310</v>
+      <c r="L36" s="12" t="s">
+        <v>93</v>
       </c>
       <c r="M36" s="10" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="N36" s="8" t="s">
-        <v>96</v>
+        <v>34</v>
       </c>
       <c r="O36" s="10" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="P36" s="10" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="Q36" s="10" t="s">
         <v>61</v>
@@ -3792,36 +3813,36 @@
         <v>40</v>
       </c>
       <c r="U36" s="10" t="s">
-        <v>312</v>
+        <v>96</v>
       </c>
       <c r="V36" s="10" t="s">
-        <v>313</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:22" ht="30" customHeight="1">
       <c r="A37" s="5" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>24</v>
+        <v>315</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="I37" s="5" t="s">
         <v>22</v>
@@ -3833,19 +3854,19 @@
         <v>31</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="M37" s="7" t="s">
         <v>48</v>
       </c>
       <c r="N37" s="5" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>61</v>
@@ -3860,10 +3881,10 @@
         <v>40</v>
       </c>
       <c r="U37" s="7" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="V37" s="7" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
     </row>
     <row r="38" spans="1:22" ht="30" customHeight="1">
@@ -3871,13 +3892,13 @@
         <v>321</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="E38" s="10" t="s">
         <v>322</v>
@@ -3886,10 +3907,10 @@
         <v>323</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="I38" s="8" t="s">
         <v>22</v>
@@ -3901,19 +3922,19 @@
         <v>31</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="M38" s="10" t="s">
         <v>48</v>
       </c>
       <c r="N38" s="8" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="O38" s="10" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="P38" s="10" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="Q38" s="10" t="s">
         <v>61</v>
@@ -3928,10 +3949,10 @@
         <v>40</v>
       </c>
       <c r="U38" s="10" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="V38" s="10" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
     </row>
     <row r="39" spans="1:22" ht="30" customHeight="1">
@@ -3939,25 +3960,25 @@
         <v>325</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>326</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>327</v>
+        <v>24</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="I39" s="5" t="s">
         <v>22</v>
@@ -3969,19 +3990,19 @@
         <v>31</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="M39" s="7" t="s">
         <v>48</v>
       </c>
       <c r="N39" s="5" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="Q39" s="7" t="s">
         <v>61</v>
@@ -3996,10 +4017,10 @@
         <v>40</v>
       </c>
       <c r="U39" s="7" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="V39" s="7" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
     </row>
     <row r="40" spans="1:22" ht="30" customHeight="1">
@@ -4007,13 +4028,13 @@
         <v>328</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="E40" s="10" t="s">
         <v>329</v>
@@ -4022,10 +4043,10 @@
         <v>330</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="I40" s="8" t="s">
         <v>22</v>
@@ -4037,19 +4058,19 @@
         <v>31</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="M40" s="10" t="s">
         <v>48</v>
       </c>
       <c r="N40" s="8" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="O40" s="10" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="P40" s="10" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="Q40" s="10" t="s">
         <v>61</v>
@@ -4064,36 +4085,36 @@
         <v>40</v>
       </c>
       <c r="U40" s="10" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="V40" s="10" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
     </row>
     <row r="41" spans="1:22" ht="30" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
       <c r="C41" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="E41" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="D41" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E41" s="7" t="s">
+      <c r="F41" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="F41" s="7" t="s">
-        <v>334</v>
-      </c>
       <c r="G41" s="7" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="I41" s="5" t="s">
         <v>22</v>
@@ -4105,19 +4126,19 @@
         <v>31</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="M41" s="7" t="s">
         <v>48</v>
       </c>
       <c r="N41" s="5" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="Q41" s="7" t="s">
         <v>61</v>
@@ -4126,42 +4147,42 @@
         <v>38</v>
       </c>
       <c r="S41" s="7" t="s">
-        <v>134</v>
+        <v>39</v>
       </c>
       <c r="T41" s="7" t="s">
         <v>40</v>
       </c>
       <c r="U41" s="7" t="s">
-        <v>339</v>
+        <v>319</v>
       </c>
       <c r="V41" s="7" t="s">
-        <v>340</v>
+        <v>320</v>
       </c>
     </row>
     <row r="42" spans="1:22" ht="30" customHeight="1">
       <c r="A42" s="8" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>25</v>
+        <v>313</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="I42" s="8" t="s">
         <v>22</v>
@@ -4173,19 +4194,19 @@
         <v>31</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="M42" s="10" t="s">
         <v>48</v>
       </c>
       <c r="N42" s="8" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="O42" s="10" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="P42" s="10" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="Q42" s="10" t="s">
         <v>61</v>
@@ -4194,42 +4215,42 @@
         <v>38</v>
       </c>
       <c r="S42" s="10" t="s">
-        <v>134</v>
+        <v>39</v>
       </c>
       <c r="T42" s="10" t="s">
         <v>40</v>
       </c>
       <c r="U42" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="V42" s="10" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" ht="30" customHeight="1">
+      <c r="A43" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="C43" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="V42" s="10" t="s">
+      <c r="D43" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E43" s="7" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="43" spans="1:22">
-      <c r="A43" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>347</v>
-      </c>
       <c r="F43" s="7" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="I43" s="5" t="s">
         <v>22</v>
@@ -4241,63 +4262,63 @@
         <v>31</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="M43" s="7" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="N43" s="5" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="R43" s="7" t="s">
         <v>38</v>
       </c>
       <c r="S43" s="7" t="s">
-        <v>39</v>
+        <v>159</v>
       </c>
       <c r="T43" s="7" t="s">
         <v>40</v>
       </c>
       <c r="U43" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="V43" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="44" spans="1:22" ht="30" customHeight="1">
       <c r="A44" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>266</v>
+        <v>348</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>338</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>356</v>
+        <v>25</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="I44" s="8" t="s">
         <v>22</v>
@@ -4309,90 +4330,90 @@
         <v>31</v>
       </c>
       <c r="L44" s="10" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="M44" s="10" t="s">
         <v>48</v>
       </c>
       <c r="N44" s="8" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="O44" s="10" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="P44" s="10" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="Q44" s="10" t="s">
-        <v>230</v>
+        <v>61</v>
       </c>
       <c r="R44" s="10" t="s">
-        <v>147</v>
+        <v>38</v>
       </c>
       <c r="S44" s="10" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="T44" s="10" t="s">
         <v>40</v>
       </c>
       <c r="U44" s="10" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="V44" s="10" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22" ht="30" customHeight="1">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22">
       <c r="A45" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>364</v>
+        <v>352</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>74</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="H45" s="7" t="s">
-        <v>369</v>
+        <v>355</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>74</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="K45" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="M45" s="7" t="s">
-        <v>48</v>
+        <v>108</v>
       </c>
       <c r="N45" s="5" t="s">
-        <v>96</v>
+        <v>34</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>98</v>
+        <v>358</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="R45" s="7" t="s">
         <v>38</v>
@@ -4404,10 +4425,146 @@
         <v>40</v>
       </c>
       <c r="U45" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="V45" s="7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" ht="30" customHeight="1">
+      <c r="A46" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J46" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K46" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L46" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="M46" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="N46" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="O46" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="P46" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q46" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="R46" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="S46" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="T46" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="U46" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="V46" s="10" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" ht="30" customHeight="1">
+      <c r="A47" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="C47" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="V45" s="7" t="s">
+      <c r="D47" s="7" t="s">
         <v>373</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K47" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="M47" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="N47" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="R47" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="S47" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="T47" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="U47" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="V47" s="7" t="s">
+        <v>380</v>
       </c>
     </row>
   </sheetData>
@@ -4433,22 +4590,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="11" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
     </row>
   </sheetData>

--- a/latest/BoM/Positional/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Positional/pedalboard-hw-bom.xlsx
@@ -8,17 +8,19 @@
   </bookViews>
   <sheets>
     <sheet name="BoM" sheetId="1" r:id="rId1"/>
-    <sheet name="Colors" sheetId="2" r:id="rId2"/>
+    <sheet name="DNF" sheetId="2" r:id="rId2"/>
+    <sheet name="Colors" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">BoM!$9:$9</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">DNF!$9:$9</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="436">
   <si>
     <t>Row</t>
   </si>
@@ -1271,16 +1273,49 @@
     <t>Component Count:</t>
   </si>
   <si>
+    <t>79 (53 SMD/ 24 THT)</t>
+  </si>
+  <si>
+    <t>Fitted Components:</t>
+  </si>
+  <si>
     <t>78 (53 SMD/ 23 THT)</t>
   </si>
   <si>
-    <t>Fitted Components:</t>
-  </si>
-  <si>
     <t>Number of PCBs:</t>
   </si>
   <si>
     <t>Total Components:</t>
+  </si>
+  <si>
+    <t>J6</t>
+  </si>
+  <si>
+    <t>Debug</t>
+  </si>
+  <si>
+    <t>PinHeader_1x03_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>Connector_PinHeader_2.54mm</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (DNF)</t>
+  </si>
+  <si>
+    <t>89.2194</t>
+  </si>
+  <si>
+    <t>49.6944</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>6.7800</t>
   </si>
   <si>
     <t>KiCad Fields (default)</t>
@@ -1453,6 +1488,58 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1464384</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>123779</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+            <a:ext uri="{C183D7F6-B498-43B3-948B-1728B52AA6E4}">
+              <adec:decorative xmlns:adec="http://schemas.microsoft.com/office/drawing/2017/decorative" val="1"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2378784" cy="1285829"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1857,7 +1944,7 @@
         <v>415</v>
       </c>
       <c r="F2" s="3">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -1885,7 +1972,7 @@
         <v>418</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -1896,7 +1983,7 @@
         <v>412</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1910,7 +1997,7 @@
         <v>414</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F6" s="3">
         <v>78</v>
@@ -4988,6 +5075,281 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:V9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="59.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" customWidth="1"/>
+    <col min="7" max="7" width="36.7109375" customWidth="1"/>
+    <col min="8" max="8" width="31.7109375" customWidth="1"/>
+    <col min="9" max="9" width="26.7109375" customWidth="1"/>
+    <col min="10" max="10" width="24.7109375" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" customWidth="1"/>
+    <col min="12" max="12" width="19.7109375" customWidth="1"/>
+    <col min="13" max="13" width="19.7109375" customWidth="1"/>
+    <col min="14" max="14" width="21.7109375" customWidth="1"/>
+    <col min="15" max="15" width="21.7109375" customWidth="1"/>
+    <col min="16" max="16" width="21.7109375" customWidth="1"/>
+    <col min="17" max="17" width="23.7109375" customWidth="1"/>
+    <col min="18" max="18" width="24.7109375" customWidth="1"/>
+    <col min="19" max="19" width="24.7109375" customWidth="1"/>
+    <col min="20" max="20" width="28.7109375" customWidth="1"/>
+    <col min="21" max="21" width="26.7109375" customWidth="1"/>
+    <col min="22" max="22" width="26.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="32" customHeight="1">
+      <c r="C1" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="C2" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="F2" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="C3" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="C4" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="C5" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="C6" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="F6" s="3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="R9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="S9" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="T9" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="U9" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="V9" s="7" t="s">
+        <v>431</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:V1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4999,22 +5361,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="8" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
     </row>
   </sheetData>

--- a/latest/BoM/Positional/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Positional/pedalboard-hw-bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="499">
   <si>
     <t>Row</t>
   </si>
@@ -151,6 +151,39 @@
     <t>2</t>
   </si>
   <si>
+    <t>Unpolarized capacitor</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>C31 C32</t>
+  </si>
+  <si>
+    <t>27p</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t>/MIDI</t>
+  </si>
+  <si>
+    <t>pedalboard-hw(2)</t>
+  </si>
+  <si>
+    <t>95.1944</t>
+  </si>
+  <si>
+    <t>78.4944</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>C9</t>
   </si>
   <si>
@@ -160,7 +193,7 @@
     <t>139.3381</t>
   </si>
   <si>
-    <t>3</t>
+    <t>4</t>
   </si>
   <si>
     <t>C7 C8</t>
@@ -169,1069 +202,1216 @@
     <t>10n</t>
   </si>
   <si>
-    <t>pedalboard-hw(2)</t>
-  </si>
-  <si>
     <t>140.4944</t>
   </si>
   <si>
     <t>86.5944</t>
   </si>
   <si>
-    <t>180.0000</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Unpolarized capacitor</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>C1 C2 C3 C4 C5 C11</t>
+    <t>5</t>
+  </si>
+  <si>
+    <t>C1 C2 C3 C4 C5 C11 C19 C21 C23 C25 C26 C27 C29 C30 C33</t>
   </si>
   <si>
     <t>100n</t>
   </si>
   <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>https://datasheets.kyocera-avx.com/X7RDielectric.pdf</t>
+  </si>
+  <si>
+    <t>pedalboard-hw(15)</t>
+  </si>
+  <si>
+    <t>30.0944</t>
+  </si>
+  <si>
+    <t>104.8944</t>
+  </si>
+  <si>
     <t>6</t>
   </si>
   <si>
-    <t>https://datasheets.kyocera-avx.com/X7RDielectric.pdf</t>
-  </si>
-  <si>
-    <t>/MIDI</t>
+    <t>C22 C24</t>
+  </si>
+  <si>
+    <t>1u</t>
+  </si>
+  <si>
+    <t>82.7244</t>
+  </si>
+  <si>
+    <t>88.4644</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>C6 C12 C14 C15 C16 C17 C18 C20</t>
+  </si>
+  <si>
+    <t>22u</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>https://search.murata.co.jp/Ceramy/image/img/A01X/G101/ENG/GRM21BZ71H475ME15-01.pdf</t>
+  </si>
+  <si>
+    <t>pedalboard-hw(8)</t>
+  </si>
+  <si>
+    <t>137.2819</t>
+  </si>
+  <si>
+    <t>104.3944</t>
+  </si>
+  <si>
+    <t>Polarized capacitor</t>
+  </si>
+  <si>
+    <t>C_Polarized</t>
+  </si>
+  <si>
+    <t>C13</t>
+  </si>
+  <si>
+    <t>270u</t>
+  </si>
+  <si>
+    <t>CP_Elec_10x10</t>
+  </si>
+  <si>
+    <t>https://connect.kemet.com:7667/gateway/IntelliData-ComponentDocumentation/1.0/download/datasheet/A768MS277M1GLAE022</t>
+  </si>
+  <si>
+    <t>143.5619</t>
+  </si>
+  <si>
+    <t>92.9944</t>
+  </si>
+  <si>
+    <t>0.0000</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>2.5000</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>ComputeModule4-CM4</t>
+  </si>
+  <si>
+    <t>pedalboard</t>
+  </si>
+  <si>
+    <t>CM4</t>
+  </si>
+  <si>
+    <t>Raspberry-Pi-4-Compute-Module</t>
+  </si>
+  <si>
+    <t>Pedalboard Library</t>
+  </si>
+  <si>
+    <t>DF40C-100DS-0.4V</t>
+  </si>
+  <si>
+    <t>/Audio</t>
+  </si>
+  <si>
+    <t>70.9944</t>
+  </si>
+  <si>
+    <t>67.4944</t>
+  </si>
+  <si>
+    <t>37.7000</t>
+  </si>
+  <si>
+    <t>50.7000</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Light emitting diode</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>LED G</t>
+  </si>
+  <si>
+    <t>LED_0805_2012Metric</t>
+  </si>
+  <si>
+    <t>LED_SMD</t>
+  </si>
+  <si>
+    <t>31.4944</t>
+  </si>
+  <si>
+    <t>62.9944</t>
+  </si>
+  <si>
+    <t>2.8500</t>
+  </si>
+  <si>
+    <t>1.4000</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>LED Y</t>
+  </si>
+  <si>
+    <t>60.9944</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>RGB LED with integrated controller</t>
+  </si>
+  <si>
+    <t>SK6812</t>
+  </si>
+  <si>
+    <t>D1 D2 D3 D4</t>
+  </si>
+  <si>
+    <t>LED_SK6812_PLCC4_5.0x5.0mm_P3.2mm</t>
+  </si>
+  <si>
+    <t>https://cdn-shop.adafruit.com/product-files/1138/SK6812+LED+datasheet+.pdf</t>
+  </si>
+  <si>
+    <t>/LEDs</t>
+  </si>
+  <si>
+    <t>pedalboard-hw(4)</t>
+  </si>
+  <si>
+    <t>49.4944</t>
+  </si>
+  <si>
+    <t>82.9944</t>
+  </si>
+  <si>
+    <t>6.4000</t>
+  </si>
+  <si>
+    <t>4.2000</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>100V 0.15A standard switching diode, DO-35</t>
+  </si>
+  <si>
+    <t>1N4148</t>
+  </si>
+  <si>
+    <t>Diode</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>SM4007</t>
+  </si>
+  <si>
+    <t>D_SOD-123F</t>
+  </si>
+  <si>
+    <t>Diode_SMD</t>
+  </si>
+  <si>
+    <t>https://www.mccsemi.com/pdf/Products/SM4001PL-SM4007PL(SOD-123FL).PDF</t>
+  </si>
+  <si>
+    <t>26.5944</t>
+  </si>
+  <si>
+    <t>98.5944</t>
+  </si>
+  <si>
+    <t>270.0000</t>
+  </si>
+  <si>
+    <t>3.9000</t>
+  </si>
+  <si>
+    <t>1.1000</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>Schottky diode, small symbol</t>
+  </si>
+  <si>
+    <t>D_Schottky_Small</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>SS34HF</t>
+  </si>
+  <si>
+    <t>D_SMA</t>
+  </si>
+  <si>
+    <t>https://www.comchiptech.com/admin/files/product/20190514101641.pdf</t>
+  </si>
+  <si>
+    <t>145.3944</t>
+  </si>
+  <si>
+    <t>82.3944</t>
+  </si>
+  <si>
+    <t>6.5000</t>
+  </si>
+  <si>
+    <t>1.8000</t>
+  </si>
+  <si>
+    <t>20V 1A Schottky Barrier Rectifier Diode, DO-41</t>
+  </si>
+  <si>
+    <t>1N5817</t>
+  </si>
+  <si>
+    <t>D8 D9</t>
+  </si>
+  <si>
+    <t>http://www.vishay.com/docs/88525/1n5817.pdf</t>
+  </si>
+  <si>
+    <t>121.8944</t>
+  </si>
+  <si>
+    <t>74.0444</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>Resettable fuse, polymeric positive temperature coefficient</t>
+  </si>
+  <si>
+    <t>Polyfuse</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>Polyfuse 1.8A</t>
+  </si>
+  <si>
+    <t>Fuse_1812_4532Metric</t>
+  </si>
+  <si>
+    <t>Fuse</t>
+  </si>
+  <si>
+    <t>https://www.littelfuse.com/~/media/electronics/datasheets/resettable_ptcs/littelfuse_ptc_1812l_datasheet.pdf.pdf</t>
+  </si>
+  <si>
+    <t>148.0644</t>
+  </si>
+  <si>
+    <t>103.2844</t>
+  </si>
+  <si>
+    <t>5.4000</t>
+  </si>
+  <si>
+    <t>3.4000</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>DC Barrel Jack with an internal switch</t>
+  </si>
+  <si>
+    <t>Barrel_Jack_Switch</t>
+  </si>
+  <si>
+    <t>Connector</t>
+  </si>
+  <si>
+    <t>J13</t>
+  </si>
+  <si>
+    <t>Barrel_Jack_MountingPin</t>
+  </si>
+  <si>
+    <t>BarrelJack_Wuerth_6941xx301002</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/components/products/datasheet/6941xx301002.pdf</t>
+  </si>
+  <si>
+    <t>161.3944</t>
+  </si>
+  <si>
+    <t>100.5944</t>
+  </si>
+  <si>
+    <t>THT</t>
+  </si>
+  <si>
+    <t>7.9000</t>
+  </si>
+  <si>
+    <t>7.6000</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>Generic connector, single row, 01x02, script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+  </si>
+  <si>
+    <t>Conn_01x02</t>
+  </si>
+  <si>
+    <t>Connector_Generic</t>
+  </si>
+  <si>
+    <t>J5</t>
+  </si>
+  <si>
+    <t>PinHeader_1x02_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>Connector_PinHeader_2.54mm</t>
+  </si>
+  <si>
+    <t>70.5944</t>
+  </si>
+  <si>
+    <t>76.9944</t>
+  </si>
+  <si>
+    <t>1.7000</t>
+  </si>
+  <si>
+    <t>4.2400</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>M Series, 6.35mm (1/4in) stereo jack, switched, with chrome ferrule and straight PCB pins</t>
+  </si>
+  <si>
+    <t>NMJ6HCD2</t>
+  </si>
+  <si>
+    <t>Connector_Audio</t>
+  </si>
+  <si>
+    <t>J3 J9 J10 J11 J12 J15</t>
+  </si>
+  <si>
+    <t>EXP1</t>
+  </si>
+  <si>
+    <t>Jack_6.35mm_Horizontal</t>
+  </si>
+  <si>
+    <t>https://www.schurter.com/en/datasheet/typ_4833.2320.pdf</t>
   </si>
   <si>
     <t>pedalboard-hw(6)</t>
   </si>
   <si>
-    <t>30.0944</t>
-  </si>
-  <si>
-    <t>104.8944</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>C6 C12 C14 C15 C16 C20</t>
-  </si>
-  <si>
-    <t>22u</t>
-  </si>
-  <si>
-    <t>https://search.murata.co.jp/Ceramy/image/img/A01X/G101/ENG/GRM21BZ71H475ME15-01.pdf</t>
-  </si>
-  <si>
-    <t>140.1944</t>
-  </si>
-  <si>
-    <t>104.3944</t>
-  </si>
-  <si>
-    <t>Polarized capacitor</t>
-  </si>
-  <si>
-    <t>C_Polarized</t>
-  </si>
-  <si>
-    <t>C13</t>
-  </si>
-  <si>
-    <t>270u</t>
-  </si>
-  <si>
-    <t>CP_Elec_10x10</t>
-  </si>
-  <si>
-    <t>https://connect.kemet.com:7667/gateway/IntelliData-ComponentDocumentation/1.0/download/datasheet/A768MS277M1GLAE022</t>
-  </si>
-  <si>
-    <t>143.5619</t>
-  </si>
-  <si>
-    <t>92.9944</t>
-  </si>
-  <si>
-    <t>0.0000</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>2.5000</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>ComputeModule4-CM4</t>
-  </si>
-  <si>
-    <t>pedalboard</t>
-  </si>
-  <si>
-    <t>CM4</t>
-  </si>
-  <si>
-    <t>Raspberry-Pi-4-Compute-Module</t>
-  </si>
-  <si>
-    <t>Pedalboard Library</t>
-  </si>
-  <si>
-    <t>DF40C-100DS-0.4V</t>
-  </si>
-  <si>
-    <t>/Audio</t>
-  </si>
-  <si>
-    <t>70.9944</t>
-  </si>
-  <si>
-    <t>67.4944</t>
-  </si>
-  <si>
-    <t>37.7000</t>
-  </si>
-  <si>
-    <t>50.7000</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>Light emitting diode</t>
-  </si>
-  <si>
-    <t>LED</t>
-  </si>
-  <si>
-    <t>D6</t>
-  </si>
-  <si>
-    <t>LED G</t>
-  </si>
-  <si>
-    <t>LED_0805_2012Metric</t>
-  </si>
-  <si>
-    <t>LED_SMD</t>
-  </si>
-  <si>
-    <t>~</t>
-  </si>
-  <si>
-    <t>31.4944</t>
-  </si>
-  <si>
-    <t>62.9944</t>
-  </si>
-  <si>
-    <t>2.8500</t>
-  </si>
-  <si>
-    <t>1.4000</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>D5</t>
-  </si>
-  <si>
-    <t>LED Y</t>
-  </si>
-  <si>
-    <t>60.9944</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>RGB LED with integrated controller</t>
-  </si>
-  <si>
-    <t>SK6812</t>
-  </si>
-  <si>
-    <t>D1 D2 D3 D4</t>
-  </si>
-  <si>
-    <t>LED_SK6812_PLCC4_5.0x5.0mm_P3.2mm</t>
-  </si>
-  <si>
-    <t>https://cdn-shop.adafruit.com/product-files/1138/SK6812+LED+datasheet+.pdf</t>
-  </si>
-  <si>
-    <t>/LEDs</t>
-  </si>
-  <si>
-    <t>pedalboard-hw(4)</t>
-  </si>
-  <si>
-    <t>49.4944</t>
-  </si>
-  <si>
-    <t>82.9944</t>
-  </si>
-  <si>
-    <t>6.4000</t>
-  </si>
-  <si>
-    <t>4.2000</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>100V 0.15A standard switching diode, DO-35</t>
-  </si>
-  <si>
-    <t>1N4148</t>
-  </si>
-  <si>
-    <t>Diode</t>
-  </si>
-  <si>
-    <t>D11</t>
-  </si>
-  <si>
-    <t>SM4007</t>
-  </si>
-  <si>
-    <t>D_SOD-123F</t>
-  </si>
-  <si>
-    <t>Diode_SMD</t>
-  </si>
-  <si>
-    <t>https://www.mccsemi.com/pdf/Products/SM4001PL-SM4007PL(SOD-123FL).PDF</t>
-  </si>
-  <si>
-    <t>26.5944</t>
-  </si>
-  <si>
-    <t>98.5944</t>
-  </si>
-  <si>
-    <t>270.0000</t>
-  </si>
-  <si>
-    <t>3.9000</t>
-  </si>
-  <si>
-    <t>1.1000</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>20V 1A Schottky Barrier Rectifier Diode, DO-41</t>
-  </si>
-  <si>
-    <t>1N5817</t>
-  </si>
-  <si>
-    <t>D13</t>
-  </si>
-  <si>
-    <t>SS34HF</t>
-  </si>
-  <si>
-    <t>D_SMA</t>
-  </si>
-  <si>
-    <t>https://www.comchiptech.com/admin/files/product/20190514101641.pdf</t>
+    <t>157.6094</t>
+  </si>
+  <si>
+    <t>97.1944</t>
+  </si>
+  <si>
+    <t>15.7000</t>
+  </si>
+  <si>
+    <t>19.2300</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Raspberry_Pi_2_3</t>
+  </si>
+  <si>
+    <t>J8</t>
+  </si>
+  <si>
+    <t>HiFi Berry</t>
+  </si>
+  <si>
+    <t>HiFi Berry DAC ADC+</t>
+  </si>
+  <si>
+    <t>https://www.hifiberry.com/docs/data-sheets/datasheet-dac-adc-pro/</t>
+  </si>
+  <si>
+    <t>102.2444</t>
+  </si>
+  <si>
+    <t>62.6188</t>
+  </si>
+  <si>
+    <t>bottom</t>
+  </si>
+  <si>
+    <t>41.4500</t>
+  </si>
+  <si>
+    <t>55.0150</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>Generic connector, double row, 02x02, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+  </si>
+  <si>
+    <t>Conn_02x02_Odd_Even</t>
+  </si>
+  <si>
+    <t>J18 J19 J20 J21 J22 J23</t>
+  </si>
+  <si>
+    <t>LED-Ring</t>
+  </si>
+  <si>
+    <t>Led-Ring</t>
+  </si>
+  <si>
+    <t>160.9944</t>
+  </si>
+  <si>
+    <t>74.9944</t>
+  </si>
+  <si>
+    <t>3.3500</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>Audio Jack, 3 Poles (Stereo / TRS), Switched TR Poles (Normalling)</t>
+  </si>
+  <si>
+    <t>AudioJack3_SwitchTR</t>
+  </si>
+  <si>
+    <t>J16 J17</t>
+  </si>
+  <si>
+    <t>MIDI OUT J</t>
+  </si>
+  <si>
+    <t>Jack_3.5mm_CUI_SJ1-3525N_Horizontal</t>
+  </si>
+  <si>
+    <t>https://www.cuidevices.com/product/resource/sj1-352xng.pdf</t>
+  </si>
+  <si>
+    <t>101.9944</t>
+  </si>
+  <si>
+    <t>106.4944</t>
+  </si>
+  <si>
+    <t>11.2000</t>
+  </si>
+  <si>
+    <t>6.7000</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>5-pin DIN connector (5-pin DIN-5 stereo)</t>
+  </si>
+  <si>
+    <t>DIN-5_180degree</t>
+  </si>
+  <si>
+    <t>J1 J2</t>
+  </si>
+  <si>
+    <t>MIDI_OUT</t>
+  </si>
+  <si>
+    <t>CP-2350</t>
+  </si>
+  <si>
+    <t>https://www.switchcraft.com/assets/1/24/57PC5F_CD.pdf</t>
+  </si>
+  <si>
+    <t>108.9944</t>
+  </si>
+  <si>
+    <t>17.5000</t>
+  </si>
+  <si>
+    <t>14.7500</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Generic connector, single row, 01x03, script generated</t>
+  </si>
+  <si>
+    <t>Conn_01x03_Pin</t>
+  </si>
+  <si>
+    <t>J4 J24 J25</t>
+  </si>
+  <si>
+    <t>RGB_LED_EXT</t>
+  </si>
+  <si>
+    <t>JST_XH_B3B-XH-A_1x03_P2.50mm_Vertical</t>
+  </si>
+  <si>
+    <t>Connector_JST</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/components/products/datasheet/6130xx11021.pdf</t>
+  </si>
+  <si>
+    <t>pedalboard-hw(3)</t>
+  </si>
+  <si>
+    <t>24.8944</t>
+  </si>
+  <si>
+    <t>3.8944</t>
+  </si>
+  <si>
+    <t>1.9500</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>USB_B_Micro-Connector</t>
+  </si>
+  <si>
+    <t>RP2040_minimal-rescue</t>
+  </si>
+  <si>
+    <t>J7</t>
+  </si>
+  <si>
+    <t>USB_B_Micro</t>
+  </si>
+  <si>
+    <t>USB_Micro-B_Amphenol_10104110_Horizontal</t>
+  </si>
+  <si>
+    <t>Connector_USB</t>
+  </si>
+  <si>
+    <t>56.9344</t>
+  </si>
+  <si>
+    <t>75.1944</t>
+  </si>
+  <si>
+    <t>9.8000</t>
+  </si>
+  <si>
+    <t>4.5000</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>Inductor</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>L5</t>
+  </si>
+  <si>
+    <t>12u</t>
+  </si>
+  <si>
+    <t>L_Coilcraft_XAL6030-XXX</t>
+  </si>
+  <si>
+    <t>Inductor_SMD</t>
+  </si>
+  <si>
+    <t>145.1944</t>
+  </si>
+  <si>
+    <t>5.4700</t>
+  </si>
+  <si>
+    <t>5.5000</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Inductor with ferrite core</t>
+  </si>
+  <si>
+    <t>L_Ferrite</t>
+  </si>
+  <si>
+    <t>L1 L2 L3 L4</t>
+  </si>
+  <si>
+    <t>120_100MHz</t>
+  </si>
+  <si>
+    <t>L_0603_1608Metric</t>
+  </si>
+  <si>
+    <t>https://www.murata.com/products/productdata/8796738650142/ENFA0003.pdf</t>
+  </si>
+  <si>
+    <t>24.6944</t>
+  </si>
+  <si>
+    <t>102.4944</t>
+  </si>
+  <si>
+    <t>2.4500</t>
+  </si>
+  <si>
+    <t>0.9500</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>FDS4435BZ</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>SO08-E3</t>
+  </si>
+  <si>
+    <t>https://rocelec.widen.net/view/pdf/rwygqx6rjd/FAIRS27615-1.pdf</t>
+  </si>
+  <si>
+    <t>141.8544</t>
+  </si>
+  <si>
+    <t>102.8344</t>
+  </si>
+  <si>
+    <t>4.4150</t>
+  </si>
+  <si>
+    <t>7.4000</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>Resistor</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>R_0805_2012Metric</t>
+  </si>
+  <si>
+    <t>Resistor_SMD</t>
+  </si>
+  <si>
+    <t>https://www.seielect.com/catalog/sei-rncp.pdf</t>
+  </si>
+  <si>
+    <t>37.8944</t>
+  </si>
+  <si>
+    <t>93.4444</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>R10 R11</t>
+  </si>
+  <si>
+    <t>80.1344</t>
+  </si>
+  <si>
+    <t>84.6344</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>https://www.seielect.com/catalog/sei-rmcf_rmcp.pdf</t>
+  </si>
+  <si>
+    <t>95.3819</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>R1 R5</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>22.9944</t>
+  </si>
+  <si>
+    <t>102.3944</t>
+  </si>
+  <si>
+    <t>R2 R6 R12 R13 R14 R15</t>
+  </si>
+  <si>
+    <t>1k</t>
+  </si>
+  <si>
+    <t>31.5444</t>
+  </si>
+  <si>
+    <t>59.0444</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>Resistor, small symbol</t>
+  </si>
+  <si>
+    <t>R_Small</t>
+  </si>
+  <si>
+    <t>R9</t>
+  </si>
+  <si>
+    <t>1k91</t>
+  </si>
+  <si>
+    <t>https://www.vishay.com/docs/20035/dcrcwe3.pdf</t>
+  </si>
+  <si>
+    <t>134.8944</t>
+  </si>
+  <si>
+    <t>77.4944</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>10k</t>
+  </si>
+  <si>
+    <t>134.5944</t>
+  </si>
+  <si>
+    <t>72.5944</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>12k1</t>
+  </si>
+  <si>
+    <t>138.1944</t>
+  </si>
+  <si>
+    <t>73.5944</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>Omron B3FS 6x6mm single pole normally-open tactile switch</t>
+  </si>
+  <si>
+    <t>SW_Omron_B3FS</t>
+  </si>
+  <si>
+    <t>Switch</t>
+  </si>
+  <si>
+    <t>SW4</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>SW_PUSH-12mm_Wuerth</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/components/products/datasheet/430172043816.pdf</t>
+  </si>
+  <si>
+    <t>11.9944</t>
+  </si>
+  <si>
+    <t>16.0000</t>
+  </si>
+  <si>
+    <t>6.8000</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>SW5</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>86.9944</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>SW6</t>
+  </si>
+  <si>
+    <t>161.9944</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>SW1</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>63.9944</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>SW2</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>SW3</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>Rotary encoder, dual channel, incremental quadrate outputs, with switch</t>
+  </si>
+  <si>
+    <t>RotaryEncoder_Switch</t>
+  </si>
+  <si>
+    <t>SW8</t>
+  </si>
+  <si>
+    <t>GAIN Rotary</t>
+  </si>
+  <si>
+    <t>RotaryEncoder_Alps_EC11E-Switch_Vertical_H20mm_CircularMountingHoles</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/components/products/datasheet/482016514001.pdf</t>
+  </si>
+  <si>
+    <t>117.2444</t>
+  </si>
+  <si>
+    <t>99.4944</t>
+  </si>
+  <si>
+    <t>16.5000</t>
+  </si>
+  <si>
+    <t>14.4000</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>SW7</t>
+  </si>
+  <si>
+    <t>VOL Rotary</t>
+  </si>
+  <si>
+    <t>42.2444</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>74AHCT1G32SE-7</t>
+  </si>
+  <si>
+    <t>U3 U4</t>
+  </si>
+  <si>
+    <t>SOT-353_SC-70-5</t>
+  </si>
+  <si>
+    <t>https://www.diodes.com/assets/Datasheets/74AHCT1G32.pdf</t>
+  </si>
+  <si>
+    <t>55.1944</t>
+  </si>
+  <si>
+    <t>84.0444</t>
+  </si>
+  <si>
+    <t>2.5500</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>1A Low drop-out regulator, Fixed Output 3.3V, SOT-223</t>
+  </si>
+  <si>
+    <t>NCP1117-3.3_SOT223</t>
+  </si>
+  <si>
+    <t>Regulator_Linear</t>
+  </si>
+  <si>
+    <t>U6</t>
+  </si>
+  <si>
+    <t>SOT-223-3_TabPin2</t>
+  </si>
+  <si>
+    <t>Package_TO_SOT_SMD</t>
+  </si>
+  <si>
+    <t>http://www.onsemi.com/pub_link/Collateral/NCP1117-D.PDF</t>
   </si>
   <si>
     <t>115.6444</t>
   </si>
   <si>
+    <t>74.1444</t>
+  </si>
+  <si>
+    <t>8.3000</t>
+  </si>
+  <si>
+    <t>6.1000</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>RP2040</t>
+  </si>
+  <si>
+    <t>MCU_RaspberryPi_RP2040</t>
+  </si>
+  <si>
+    <t>U7</t>
+  </si>
+  <si>
+    <t>RP2040-QFN-56</t>
+  </si>
+  <si>
+    <t>89.3944</t>
+  </si>
+  <si>
+    <t>85.3944</t>
+  </si>
+  <si>
+    <t>7.7500</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>15-Mbps inverting photocouple,5 kVrms, 2.7 - 5.5 Vdd, push-pull output</t>
+  </si>
+  <si>
+    <t>TLP2761</t>
+  </si>
+  <si>
+    <t>Isolator</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>SO-6L_10x3.84mm_P1.27mm</t>
+  </si>
+  <si>
+    <t>Package_SO</t>
+  </si>
+  <si>
+    <t>https://toshiba.semicon-storage.com/info/docget.jsp?did=28819&amp;prodName=TLP2761</t>
+  </si>
+  <si>
+    <t>33.3944</t>
+  </si>
+  <si>
+    <t>10.8000</t>
+  </si>
+  <si>
+    <t>3.3400</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.5V to 28V Input, 3A, Step-Down Converter with Eco-mode(tm)</t>
+  </si>
+  <si>
+    <t>TPS54331</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>U5</t>
+  </si>
+  <si>
+    <t>SOIC-8_3.9x4.9mm_P1.27mm</t>
+  </si>
+  <si>
+    <t>https://www.ti.com/lit/ds/symlink/tps54331.pdf</t>
+  </si>
+  <si>
+    <t>138.6944</t>
+  </si>
+  <si>
     <t>81.6944</t>
   </si>
   <si>
-    <t>6.5000</t>
-  </si>
-  <si>
-    <t>1.8000</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>Schottky diode, small symbol</t>
-  </si>
-  <si>
-    <t>D_Schottky_Small</t>
-  </si>
-  <si>
-    <t>D7</t>
-  </si>
-  <si>
-    <t>145.3944</t>
-  </si>
-  <si>
-    <t>82.3944</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>Resettable fuse, polymeric positive temperature coefficient</t>
-  </si>
-  <si>
-    <t>Polyfuse</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>Polyfuse 1.8A</t>
-  </si>
-  <si>
-    <t>Fuse_1812_4532Metric</t>
-  </si>
-  <si>
-    <t>Fuse</t>
-  </si>
-  <si>
-    <t>https://www.littelfuse.com/~/media/electronics/datasheets/resettable_ptcs/littelfuse_ptc_1812l_datasheet.pdf.pdf</t>
-  </si>
-  <si>
-    <t>151.6944</t>
-  </si>
-  <si>
-    <t>102.2444</t>
-  </si>
-  <si>
-    <t>5.4000</t>
-  </si>
-  <si>
-    <t>3.4000</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>DC Barrel Jack with an internal switch</t>
-  </si>
-  <si>
-    <t>Barrel_Jack_Switch</t>
-  </si>
-  <si>
-    <t>Connector</t>
-  </si>
-  <si>
-    <t>J13</t>
-  </si>
-  <si>
-    <t>Barrel_Jack_MountingPin</t>
-  </si>
-  <si>
-    <t>BarrelJack_Wuerth_6941xx301002</t>
-  </si>
-  <si>
-    <t>https://www.we-online.com/components/products/datasheet/6941xx301002.pdf</t>
-  </si>
-  <si>
-    <t>161.3944</t>
-  </si>
-  <si>
-    <t>100.5944</t>
-  </si>
-  <si>
-    <t>THT</t>
-  </si>
-  <si>
-    <t>7.9000</t>
-  </si>
-  <si>
-    <t>7.6000</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>M Series, 6.35mm (1/4in) stereo jack, switched, with chrome ferrule and straight PCB pins</t>
-  </si>
-  <si>
-    <t>NMJ6HCD2</t>
-  </si>
-  <si>
-    <t>Connector_Audio</t>
-  </si>
-  <si>
-    <t>J3 J9 J10 J11 J12 J15</t>
-  </si>
-  <si>
-    <t>EXP1</t>
-  </si>
-  <si>
-    <t>Jack_6.35mm_Horizontal</t>
-  </si>
-  <si>
-    <t>https://www.schurter.com/en/datasheet/typ_4833.2320.pdf</t>
-  </si>
-  <si>
-    <t>157.6094</t>
-  </si>
-  <si>
-    <t>97.1944</t>
-  </si>
-  <si>
-    <t>15.7000</t>
-  </si>
-  <si>
-    <t>19.2300</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>Raspberry_Pi_2_3</t>
-  </si>
-  <si>
-    <t>J8</t>
-  </si>
-  <si>
-    <t>HiFi Berry</t>
-  </si>
-  <si>
-    <t>HiFi Berry DAC ADC+</t>
-  </si>
-  <si>
-    <t>https://www.hifiberry.com/docs/data-sheets/datasheet-dac-adc-pro/</t>
-  </si>
-  <si>
-    <t>62.6188</t>
-  </si>
-  <si>
-    <t>bottom</t>
-  </si>
-  <si>
-    <t>41.4500</t>
-  </si>
-  <si>
-    <t>55.0150</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>Generic connector, double row, 02x02, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
-    <t>Conn_02x02_Odd_Even</t>
-  </si>
-  <si>
-    <t>Connector_Generic</t>
-  </si>
-  <si>
-    <t>J18 J19 J20 J21 J22 J23</t>
-  </si>
-  <si>
-    <t>LED-Ring</t>
-  </si>
-  <si>
-    <t>Led-Ring</t>
-  </si>
-  <si>
-    <t>160.9944</t>
-  </si>
-  <si>
-    <t>74.9944</t>
-  </si>
-  <si>
-    <t>3.3500</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>Audio Jack, 3 Poles (Stereo / TRS), Switched TR Poles (Normalling)</t>
-  </si>
-  <si>
-    <t>AudioJack3_SwitchTR</t>
-  </si>
-  <si>
-    <t>J16 J17</t>
-  </si>
-  <si>
-    <t>MIDI OUT J</t>
-  </si>
-  <si>
-    <t>Jack_3.5mm_CUI_SJ1-3525N_Horizontal</t>
-  </si>
-  <si>
-    <t>https://www.cuidevices.com/product/resource/sj1-352xng.pdf</t>
-  </si>
-  <si>
-    <t>101.9944</t>
-  </si>
-  <si>
-    <t>106.4944</t>
-  </si>
-  <si>
-    <t>11.2000</t>
-  </si>
-  <si>
-    <t>6.7000</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>5-pin DIN connector (5-pin DIN-5 stereo)</t>
-  </si>
-  <si>
-    <t>DIN-5_180degree</t>
-  </si>
-  <si>
-    <t>J1 J2</t>
-  </si>
-  <si>
-    <t>MIDI_OUT</t>
-  </si>
-  <si>
-    <t>CP-2350</t>
-  </si>
-  <si>
-    <t>https://www.switchcraft.com/assets/1/24/57PC5F_CD.pdf</t>
-  </si>
-  <si>
-    <t>108.9944</t>
-  </si>
-  <si>
-    <t>17.5000</t>
-  </si>
-  <si>
-    <t>14.7500</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>Generic connector, single row, 01x02, script generated</t>
-  </si>
-  <si>
-    <t>Conn_01x02_Pin</t>
-  </si>
-  <si>
-    <t>J5</t>
-  </si>
-  <si>
-    <t>Pico USB TP</t>
-  </si>
-  <si>
-    <t>Spring_Loaded_Pins_2mm</t>
-  </si>
-  <si>
-    <t>https://media.digikey.com/pdf/Data%20Sheets/Mill%20Max%20PDFs/Spring%20Loaded%20Connectors.pdf</t>
-  </si>
-  <si>
-    <t>1.3500</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>Generic connector, single row, 01x03, script generated</t>
-  </si>
-  <si>
-    <t>Conn_01x03_Pin</t>
-  </si>
-  <si>
-    <t>J4 J24 J25</t>
-  </si>
-  <si>
-    <t>RGB_LED_EXT</t>
-  </si>
-  <si>
-    <t>JST_XH_B3B-XH-A_1x03_P2.50mm_Vertical</t>
-  </si>
-  <si>
-    <t>Connector_JST</t>
-  </si>
-  <si>
-    <t>https://www.we-online.com/components/products/datasheet/6130xx11021.pdf</t>
-  </si>
-  <si>
-    <t>pedalboard-hw(3)</t>
-  </si>
-  <si>
-    <t>24.8944</t>
-  </si>
-  <si>
-    <t>3.8944</t>
-  </si>
-  <si>
-    <t>1.9500</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>Inductor</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>L5</t>
-  </si>
-  <si>
-    <t>12u</t>
-  </si>
-  <si>
-    <t>L_Coilcraft_XAL6030-XXX</t>
-  </si>
-  <si>
-    <t>Inductor_SMD</t>
-  </si>
-  <si>
-    <t>145.1944</t>
-  </si>
-  <si>
-    <t>5.4700</t>
-  </si>
-  <si>
-    <t>5.5000</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>Inductor with ferrite core</t>
-  </si>
-  <si>
-    <t>L_Ferrite</t>
-  </si>
-  <si>
-    <t>L1 L2 L3 L4</t>
-  </si>
-  <si>
-    <t>120_100MHz</t>
-  </si>
-  <si>
-    <t>L_0603_1608Metric</t>
-  </si>
-  <si>
-    <t>https://www.murata.com/products/productdata/8796738650142/ENFA0003.pdf</t>
-  </si>
-  <si>
-    <t>24.6944</t>
-  </si>
-  <si>
-    <t>102.4944</t>
-  </si>
-  <si>
-    <t>2.4500</t>
-  </si>
-  <si>
-    <t>0.9500</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>FDS4435BZ</t>
-  </si>
-  <si>
-    <t>Q1</t>
-  </si>
-  <si>
-    <t>SO08-E3</t>
-  </si>
-  <si>
-    <t>https://rocelec.widen.net/view/pdf/rwygqx6rjd/FAIRS27615-1.pdf</t>
-  </si>
-  <si>
-    <t>144.7944</t>
-  </si>
-  <si>
-    <t>103.6944</t>
-  </si>
-  <si>
-    <t>4.4150</t>
-  </si>
-  <si>
-    <t>7.4000</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>Resistor</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>R4</t>
-  </si>
-  <si>
-    <t>R_0805_2012Metric</t>
-  </si>
-  <si>
-    <t>Resistor_SMD</t>
-  </si>
-  <si>
-    <t>https://www.seielect.com/catalog/sei-rncp.pdf</t>
-  </si>
-  <si>
-    <t>37.8944</t>
-  </si>
-  <si>
-    <t>93.4444</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>R3</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>https://www.seielect.com/catalog/sei-rmcf_rmcp.pdf</t>
-  </si>
-  <si>
-    <t>95.3819</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>R1 R5</t>
-  </si>
-  <si>
-    <t>220</t>
-  </si>
-  <si>
-    <t>22.9944</t>
-  </si>
-  <si>
-    <t>102.3944</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>R2 R6</t>
-  </si>
-  <si>
-    <t>1k</t>
-  </si>
-  <si>
-    <t>31.5444</t>
-  </si>
-  <si>
-    <t>59.0444</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>Resistor, small symbol</t>
-  </si>
-  <si>
-    <t>R_Small</t>
-  </si>
-  <si>
-    <t>R9</t>
-  </si>
-  <si>
-    <t>1k91</t>
-  </si>
-  <si>
-    <t>https://www.vishay.com/docs/20035/dcrcwe3.pdf</t>
-  </si>
-  <si>
-    <t>134.8944</t>
-  </si>
-  <si>
-    <t>77.4944</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>R8</t>
-  </si>
-  <si>
-    <t>10k</t>
-  </si>
-  <si>
-    <t>134.5944</t>
-  </si>
-  <si>
-    <t>72.5944</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>R7</t>
-  </si>
-  <si>
-    <t>12k1</t>
-  </si>
-  <si>
-    <t>138.1944</t>
-  </si>
-  <si>
-    <t>73.5944</t>
-  </si>
-  <si>
-    <t>Omron B3FS 6x6mm single pole normally-open tactile switch</t>
-  </si>
-  <si>
-    <t>SW_Omron_B3FS</t>
-  </si>
-  <si>
-    <t>Switch</t>
-  </si>
-  <si>
-    <t>SW4</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>SW_PUSH-12mm_Wuerth</t>
-  </si>
-  <si>
-    <t>https://www.we-online.com/components/products/datasheet/430172043816.pdf</t>
-  </si>
-  <si>
-    <t>11.9944</t>
-  </si>
-  <si>
-    <t>16.0000</t>
-  </si>
-  <si>
-    <t>6.8000</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>SW5</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>86.9944</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>SW6</t>
-  </si>
-  <si>
-    <t>161.9944</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>SW1</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>63.9944</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>SW2</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>SW3</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>Rotary encoder, dual channel, incremental quadrate outputs, with switch</t>
-  </si>
-  <si>
-    <t>RotaryEncoder_Switch</t>
-  </si>
-  <si>
-    <t>SW8</t>
-  </si>
-  <si>
-    <t>GAIN Rotary</t>
-  </si>
-  <si>
-    <t>RotaryEncoder_Alps_EC11E-Switch_Vertical_H20mm_CircularMountingHoles</t>
-  </si>
-  <si>
-    <t>https://www.we-online.com/components/products/datasheet/482016514001.pdf</t>
-  </si>
-  <si>
-    <t>117.2444</t>
-  </si>
-  <si>
-    <t>99.4944</t>
-  </si>
-  <si>
-    <t>16.5000</t>
-  </si>
-  <si>
-    <t>14.4000</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>SW7</t>
-  </si>
-  <si>
-    <t>VOL Rotary</t>
-  </si>
-  <si>
-    <t>42.2444</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>74AHCT1G32SE-7</t>
-  </si>
-  <si>
-    <t>U3 U4</t>
-  </si>
-  <si>
-    <t>SOT-353_SC-70-5</t>
-  </si>
-  <si>
-    <t>https://www.diodes.com/assets/Datasheets/74AHCT1G32.pdf</t>
-  </si>
-  <si>
-    <t>55.1944</t>
-  </si>
-  <si>
-    <t>84.0444</t>
-  </si>
-  <si>
-    <t>2.5500</t>
-  </si>
-  <si>
-    <t>1.7000</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>Pico</t>
-  </si>
-  <si>
-    <t>MCU_RaspberryPi_and_Boards</t>
+    <t>6.9000</t>
+  </si>
+  <si>
+    <t>4.4100</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>W25Q128JVS-Memory_Flash</t>
   </si>
   <si>
     <t>U1</t>
   </si>
   <si>
-    <t>RPi_Pico_SMD_TH</t>
-  </si>
-  <si>
-    <t>https://www.we-online.com/components/products/datasheet/6130xx11121.pdf</t>
-  </si>
-  <si>
-    <t>84.9944</t>
-  </si>
-  <si>
-    <t>81.9944</t>
-  </si>
-  <si>
-    <t>19.4800</t>
-  </si>
-  <si>
-    <t>49.9600</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>15-Mbps inverting photocouple,5 kVrms, 2.7 - 5.5 Vdd, push-pull output</t>
-  </si>
-  <si>
-    <t>TLP2761</t>
-  </si>
-  <si>
-    <t>Isolator</t>
-  </si>
-  <si>
-    <t>U2</t>
-  </si>
-  <si>
-    <t>SO-6L_10x3.84mm_P1.27mm</t>
-  </si>
-  <si>
-    <t>Package_SO</t>
-  </si>
-  <si>
-    <t>https://toshiba.semicon-storage.com/info/docget.jsp?did=28819&amp;prodName=TLP2761</t>
-  </si>
-  <si>
-    <t>33.3944</t>
-  </si>
-  <si>
-    <t>10.8000</t>
-  </si>
-  <si>
-    <t>3.3400</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.5V to 28V Input, 3A, Step-Down Converter with Eco-mode(tm)</t>
-  </si>
-  <si>
-    <t>TPS54331</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t>U5</t>
-  </si>
-  <si>
-    <t>SOIC-8_3.9x4.9mm_P1.27mm</t>
-  </si>
-  <si>
-    <t>https://www.ti.com/lit/ds/symlink/tps54331.pdf</t>
-  </si>
-  <si>
-    <t>138.6944</t>
-  </si>
-  <si>
-    <t>6.9000</t>
-  </si>
-  <si>
-    <t>4.4100</t>
+    <t>W25Q128JVS</t>
+  </si>
+  <si>
+    <t>SOIC-8_5.23x5.23mm_P1.27mm</t>
+  </si>
+  <si>
+    <t>http://www.winbond.com/resource-files/w25q128jv_dtr%20revc%2003272018%20plus.pdf</t>
+  </si>
+  <si>
+    <t>81.4944</t>
+  </si>
+  <si>
+    <t>78.5444</t>
+  </si>
+  <si>
+    <t>8.8000</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>Two pin crystal</t>
+  </si>
+  <si>
+    <t>Crystal</t>
+  </si>
+  <si>
+    <t>Y1</t>
+  </si>
+  <si>
+    <t>ABLS-12.000MHZ-B4-T</t>
+  </si>
+  <si>
+    <t>Crystal_SMD_HC49-US</t>
+  </si>
+  <si>
+    <t>99.9944</t>
+  </si>
+  <si>
+    <t>74.8944</t>
+  </si>
+  <si>
+    <t>14.6000</t>
+  </si>
+  <si>
+    <t>2.1000</t>
   </si>
   <si>
     <t>KiBot Bill of Materials</t>
@@ -1264,7 +1444,7 @@
     <t>KiCad Version:</t>
   </si>
   <si>
-    <t>7.0.7-7.0.7~ubuntu23.04.1</t>
+    <t>7.0.8-7.0.8~ubuntu23.04.1</t>
   </si>
   <si>
     <t>Component Groups:</t>
@@ -1273,13 +1453,13 @@
     <t>Component Count:</t>
   </si>
   <si>
-    <t>79 (53 SMD/ 24 THT)</t>
+    <t>107 (81 SMD/ 24 THT)</t>
   </si>
   <si>
     <t>Fitted Components:</t>
   </si>
   <si>
-    <t>78 (53 SMD/ 23 THT)</t>
+    <t>104 (80 SMD/ 22 THT)</t>
   </si>
   <si>
     <t>Number of PCBs:</t>
@@ -1288,7 +1468,7 @@
     <t>Total Components:</t>
   </si>
   <si>
-    <t>J6</t>
+    <t>J6 J14</t>
   </si>
   <si>
     <t>Debug</t>
@@ -1297,9 +1477,6 @@
     <t>PinHeader_1x03_P2.54mm_Vertical</t>
   </si>
   <si>
-    <t>Connector_PinHeader_2.54mm</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -1316,6 +1493,18 @@
   </si>
   <si>
     <t>6.7800</t>
+  </si>
+  <si>
+    <t>R16</t>
+  </si>
+  <si>
+    <t>DNF</t>
+  </si>
+  <si>
+    <t>76.9319</t>
+  </si>
+  <si>
+    <t>75.1444</t>
   </si>
   <si>
     <t>KiCad Fields (default)</t>
@@ -1876,7 +2065,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V52"/>
+  <dimension ref="A1:V59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -1887,18 +2076,18 @@
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" customWidth="1"/>
-    <col min="4" max="4" width="31.7109375" customWidth="1"/>
-    <col min="5" max="5" width="28.7109375" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" customWidth="1"/>
+    <col min="5" max="5" width="59.7109375" customWidth="1"/>
     <col min="6" max="6" width="28.7109375" customWidth="1"/>
     <col min="7" max="7" width="60.7109375" customWidth="1"/>
-    <col min="8" max="8" width="23.7109375" customWidth="1"/>
+    <col min="8" max="8" width="31.7109375" customWidth="1"/>
     <col min="9" max="9" width="26.7109375" customWidth="1"/>
     <col min="10" max="10" width="24.7109375" customWidth="1"/>
     <col min="11" max="11" width="16.7109375" customWidth="1"/>
     <col min="12" max="12" width="60.7109375" customWidth="1"/>
     <col min="13" max="13" width="19.7109375" customWidth="1"/>
-    <col min="14" max="14" width="21.7109375" customWidth="1"/>
+    <col min="14" max="14" width="22.7109375" customWidth="1"/>
     <col min="15" max="15" width="21.7109375" customWidth="1"/>
     <col min="16" max="16" width="21.7109375" customWidth="1"/>
     <col min="17" max="17" width="23.7109375" customWidth="1"/>
@@ -1911,7 +2100,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>404</v>
+        <v>464</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1935,55 +2124,55 @@
     </row>
     <row r="2" spans="1:22">
       <c r="C2" s="2" t="s">
-        <v>405</v>
+        <v>465</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>406</v>
+        <v>466</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>415</v>
+        <v>475</v>
       </c>
       <c r="F2" s="3">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:22">
       <c r="C3" s="2" t="s">
-        <v>407</v>
+        <v>467</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>408</v>
+        <v>468</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>416</v>
+        <v>476</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>417</v>
+        <v>477</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="C4" s="2" t="s">
-        <v>409</v>
+        <v>469</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>410</v>
+        <v>470</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>418</v>
+        <v>478</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>419</v>
+        <v>479</v>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="C5" s="2" t="s">
-        <v>411</v>
+        <v>471</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>412</v>
+        <v>472</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>420</v>
+        <v>480</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1991,16 +2180,16 @@
     </row>
     <row r="6" spans="1:22">
       <c r="C6" s="2" t="s">
-        <v>413</v>
+        <v>473</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>414</v>
+        <v>474</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>421</v>
+        <v>481</v>
       </c>
       <c r="F6" s="3">
-        <v>78</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -2144,19 +2333,19 @@
         <v>42</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>25</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G10" s="11" t="s">
         <v>28</v>
@@ -2165,31 +2354,31 @@
         <v>29</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="K10" s="9" t="s">
         <v>30</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="O10" s="11" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="P10" s="11" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="Q10" s="11" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="R10" s="11" t="s">
         <v>37</v>
@@ -2209,7 +2398,7 @@
     </row>
     <row r="11" spans="1:22">
       <c r="A11" s="5" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>23</v>
@@ -2221,10 +2410,10 @@
         <v>25</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>28</v>
@@ -2233,10 +2422,10 @@
         <v>29</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="K11" s="5" t="s">
         <v>30</v>
@@ -2248,16 +2437,16 @@
         <v>32</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="R11" s="7" t="s">
         <v>37</v>
@@ -2277,22 +2466,22 @@
     </row>
     <row r="12" spans="1:22">
       <c r="A12" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>25</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>28</v>
@@ -2301,28 +2490,28 @@
         <v>29</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="K12" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="L12" s="11" t="s">
-        <v>59</v>
+      <c r="L12" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="M12" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="O12" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="N12" s="9" t="s">
+      <c r="P12" s="11" t="s">
         <v>61</v>
-      </c>
-      <c r="O12" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="P12" s="11" t="s">
-        <v>63</v>
       </c>
       <c r="Q12" s="11" t="s">
         <v>52</v>
@@ -2343,24 +2532,24 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="30" customHeight="1">
+    <row r="13" spans="1:22">
       <c r="A13" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>28</v>
@@ -2369,22 +2558,22 @@
         <v>29</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="K13" s="5" t="s">
         <v>30</v>
       </c>
       <c r="L13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="N13" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="N13" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>68</v>
@@ -2411,57 +2600,57 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="30" customHeight="1">
+    <row r="14" spans="1:22">
       <c r="A14" s="9" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>25</v>
       </c>
       <c r="E14" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="F14" s="11" t="s">
-        <v>73</v>
-      </c>
       <c r="G14" s="11" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="H14" s="11" t="s">
         <v>29</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="K14" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="L14" s="11" t="s">
-        <v>75</v>
+      <c r="L14" s="12" t="s">
+        <v>47</v>
       </c>
       <c r="M14" s="11" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="N14" s="9" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="O14" s="11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="P14" s="11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="Q14" s="11" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="R14" s="11" t="s">
         <v>37</v>
@@ -2473,60 +2662,60 @@
         <v>39</v>
       </c>
       <c r="U14" s="11" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="V14" s="11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="30" customHeight="1">
       <c r="A15" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>31</v>
+        <v>75</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="K15" s="5" t="s">
         <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="Q15" s="7" t="s">
         <v>52</v>
@@ -2541,36 +2730,36 @@
         <v>39</v>
       </c>
       <c r="U15" s="7" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="V15" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="30" customHeight="1">
       <c r="A16" s="9" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>25</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="I16" s="9" t="s">
         <v>22</v>
@@ -2581,23 +2770,23 @@
       <c r="K16" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="L16" s="12" t="s">
-        <v>100</v>
+      <c r="L16" s="11" t="s">
+        <v>88</v>
       </c>
       <c r="M16" s="11" t="s">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="N16" s="9" t="s">
         <v>33</v>
       </c>
       <c r="O16" s="11" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="P16" s="11" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="Q16" s="11" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="R16" s="11" t="s">
         <v>37</v>
@@ -2609,30 +2798,30 @@
         <v>39</v>
       </c>
       <c r="U16" s="11" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="V16" s="11" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:22">
       <c r="A17" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B17" s="6" t="s">
         <v>94</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>95</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>98</v>
@@ -2649,20 +2838,20 @@
       <c r="K17" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L17" s="8" t="s">
+      <c r="L17" s="7" t="s">
         <v>100</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="N17" s="5" t="s">
         <v>33</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>52</v>
@@ -2677,63 +2866,63 @@
         <v>39</v>
       </c>
       <c r="U17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="V17" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" ht="30" customHeight="1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
       <c r="A18" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="F18" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="G18" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="D18" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="E18" s="11" t="s">
+      <c r="H18" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="F18" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>99</v>
-      </c>
       <c r="I18" s="9" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="K18" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="L18" s="11" t="s">
+      <c r="L18" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="M18" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="O18" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="P18" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="M18" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="N18" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="O18" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="P18" s="11" t="s">
-        <v>118</v>
-      </c>
       <c r="Q18" s="11" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="R18" s="11" t="s">
         <v>37</v>
@@ -2745,36 +2934,36 @@
         <v>39</v>
       </c>
       <c r="U18" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="V18" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
+      <c r="A19" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="V18" s="11" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" ht="30" customHeight="1">
-      <c r="A19" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>126</v>
-      </c>
       <c r="G19" s="7" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>22</v>
@@ -2785,23 +2974,23 @@
       <c r="K19" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L19" s="7" t="s">
-        <v>129</v>
+      <c r="L19" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="N19" s="5" t="s">
         <v>33</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>132</v>
+        <v>52</v>
       </c>
       <c r="R19" s="7" t="s">
         <v>37</v>
@@ -2813,63 +3002,63 @@
         <v>39</v>
       </c>
       <c r="U19" s="7" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="V19" s="7" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="30" customHeight="1">
       <c r="A20" s="9" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="D20" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="E20" s="11" t="s">
-        <v>138</v>
-      </c>
       <c r="F20" s="11" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="K20" s="9" t="s">
         <v>30</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="M20" s="11" t="s">
-        <v>60</v>
+        <v>127</v>
       </c>
       <c r="N20" s="9" t="s">
-        <v>33</v>
+        <v>128</v>
       </c>
       <c r="O20" s="11" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="P20" s="11" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="Q20" s="11" t="s">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="R20" s="11" t="s">
         <v>37</v>
@@ -2881,36 +3070,36 @@
         <v>39</v>
       </c>
       <c r="U20" s="11" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="V20" s="11" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="30" customHeight="1">
       <c r="A21" s="5" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>25</v>
+        <v>136</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="F21" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="H21" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>22</v>
@@ -2925,19 +3114,19 @@
         <v>141</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="N21" s="5" t="s">
         <v>33</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>36</v>
+        <v>144</v>
       </c>
       <c r="R21" s="7" t="s">
         <v>37</v>
@@ -2949,36 +3138,36 @@
         <v>39</v>
       </c>
       <c r="U21" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="V21" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="30" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>25</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="I22" s="9" t="s">
         <v>22</v>
@@ -2990,7 +3179,7 @@
         <v>30</v>
       </c>
       <c r="L22" s="11" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="M22" s="11" t="s">
         <v>32</v>
@@ -2999,13 +3188,13 @@
         <v>33</v>
       </c>
       <c r="O22" s="11" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="P22" s="11" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="Q22" s="11" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="R22" s="11" t="s">
         <v>37</v>
@@ -3017,172 +3206,172 @@
         <v>39</v>
       </c>
       <c r="U22" s="11" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="V22" s="11" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" ht="30" customHeight="1">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
       <c r="A23" s="5" t="s">
-        <v>164</v>
+        <v>65</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>167</v>
+        <v>136</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>86</v>
+        <v>140</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="K23" s="5" t="s">
         <v>30</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="M23" s="7" t="s">
         <v>32</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>52</v>
+        <v>144</v>
       </c>
       <c r="R23" s="7" t="s">
         <v>37</v>
       </c>
       <c r="S23" s="7" t="s">
-        <v>174</v>
+        <v>38</v>
       </c>
       <c r="T23" s="7" t="s">
         <v>39</v>
       </c>
       <c r="U23" s="7" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="V23" s="7" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="30" customHeight="1">
       <c r="A24" s="9" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>180</v>
+        <v>25</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>86</v>
+        <v>170</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="K24" s="9" t="s">
         <v>30</v>
       </c>
       <c r="L24" s="11" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="M24" s="11" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="N24" s="9" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="O24" s="11" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="P24" s="11" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="Q24" s="11" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="R24" s="11" t="s">
         <v>37</v>
       </c>
       <c r="S24" s="11" t="s">
-        <v>174</v>
+        <v>38</v>
       </c>
       <c r="T24" s="11" t="s">
         <v>39</v>
       </c>
       <c r="U24" s="11" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="V24" s="11" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="30" customHeight="1">
       <c r="A25" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>31</v>
+        <v>176</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>177</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>22</v>
@@ -3194,430 +3383,430 @@
         <v>30</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="M25" s="7" t="s">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="N25" s="5" t="s">
         <v>33</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>161</v>
+        <v>184</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>52</v>
       </c>
       <c r="R25" s="7" t="s">
-        <v>196</v>
+        <v>37</v>
       </c>
       <c r="S25" s="7" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="T25" s="7" t="s">
         <v>39</v>
       </c>
       <c r="U25" s="7" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="V25" s="7" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" ht="45" customHeight="1">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" ht="30" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>86</v>
+        <v>195</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="K26" s="9" t="s">
         <v>30</v>
       </c>
       <c r="L26" s="12" t="s">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="M26" s="11" t="s">
-        <v>115</v>
+        <v>48</v>
       </c>
       <c r="N26" s="9" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="O26" s="11" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="P26" s="11" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="Q26" s="11" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="R26" s="11" t="s">
         <v>37</v>
       </c>
       <c r="S26" s="11" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="T26" s="11" t="s">
         <v>39</v>
       </c>
       <c r="U26" s="11" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="V26" s="11" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="27" spans="1:22" ht="30" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="K27" s="5" t="s">
         <v>30</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="M27" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>49</v>
+        <v>208</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="R27" s="7" t="s">
         <v>37</v>
       </c>
       <c r="S27" s="7" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="T27" s="7" t="s">
         <v>39</v>
       </c>
       <c r="U27" s="7" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="V27" s="7" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" ht="30" customHeight="1">
       <c r="A28" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>221</v>
+        <v>213</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="K28" s="9" t="s">
         <v>30</v>
       </c>
       <c r="L28" s="11" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="M28" s="11" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="N28" s="9" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="O28" s="11" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="P28" s="11" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="Q28" s="11" t="s">
         <v>52</v>
       </c>
       <c r="R28" s="11" t="s">
-        <v>37</v>
+        <v>221</v>
       </c>
       <c r="S28" s="11" t="s">
-        <v>38</v>
+        <v>186</v>
       </c>
       <c r="T28" s="11" t="s">
         <v>39</v>
       </c>
       <c r="U28" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="V28" s="11" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" ht="45" customHeight="1">
+      <c r="A29" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="V28" s="11" t="s">
+      <c r="G29" s="7" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="29" spans="1:22" ht="30" customHeight="1">
-      <c r="A29" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>235</v>
-      </c>
       <c r="H29" s="7" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="K29" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L29" s="7" t="s">
-        <v>236</v>
+      <c r="L29" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>60</v>
+        <v>127</v>
       </c>
       <c r="N29" s="5" t="s">
-        <v>33</v>
+        <v>208</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>118</v>
+        <v>231</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="R29" s="7" t="s">
-        <v>196</v>
+        <v>37</v>
       </c>
       <c r="S29" s="7" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="T29" s="7" t="s">
         <v>39</v>
       </c>
       <c r="U29" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="V29" s="7" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
     </row>
     <row r="30" spans="1:22" ht="30" customHeight="1">
       <c r="A30" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="G30" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="B30" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>243</v>
-      </c>
       <c r="H30" s="11" t="s">
-        <v>244</v>
+        <v>99</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K30" s="9" t="s">
         <v>30</v>
       </c>
       <c r="L30" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="M30" s="11" t="s">
-        <v>115</v>
+        <v>48</v>
       </c>
       <c r="N30" s="9" t="s">
-        <v>246</v>
+        <v>49</v>
       </c>
       <c r="O30" s="11" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="P30" s="11" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="Q30" s="11" t="s">
         <v>52</v>
       </c>
       <c r="R30" s="11" t="s">
-        <v>196</v>
+        <v>37</v>
       </c>
       <c r="S30" s="11" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="T30" s="11" t="s">
         <v>39</v>
       </c>
       <c r="U30" s="11" t="s">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="V30" s="11" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="31" spans="1:22">
       <c r="A31" s="5" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>25</v>
+        <v>179</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>256</v>
+        <v>99</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="K31" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L31" s="8" t="s">
-        <v>100</v>
+      <c r="L31" s="7" t="s">
+        <v>250</v>
       </c>
       <c r="M31" s="7" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="N31" s="5" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>207</v>
+        <v>251</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>132</v>
+        <v>52</v>
       </c>
       <c r="R31" s="7" t="s">
         <v>37</v>
@@ -3629,36 +3818,36 @@
         <v>39</v>
       </c>
       <c r="U31" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="V31" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="32" spans="1:22" ht="30" customHeight="1">
       <c r="A32" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="H32" s="11" t="s">
         <v>260</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="H32" s="11" t="s">
-        <v>256</v>
       </c>
       <c r="I32" s="9" t="s">
         <v>53</v>
@@ -3670,63 +3859,63 @@
         <v>30</v>
       </c>
       <c r="L32" s="11" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="M32" s="11" t="s">
-        <v>60</v>
+        <v>127</v>
       </c>
       <c r="N32" s="9" t="s">
-        <v>116</v>
+        <v>262</v>
       </c>
       <c r="O32" s="11" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="P32" s="11" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="Q32" s="11" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="R32" s="11" t="s">
-        <v>37</v>
+        <v>221</v>
       </c>
       <c r="S32" s="11" t="s">
-        <v>38</v>
+        <v>186</v>
       </c>
       <c r="T32" s="11" t="s">
         <v>39</v>
       </c>
       <c r="U32" s="11" t="s">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="V32" s="11" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" ht="30" customHeight="1">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22">
       <c r="A33" s="5" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C33" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="H33" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>22</v>
@@ -3737,8 +3926,8 @@
       <c r="K33" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L33" s="7" t="s">
-        <v>275</v>
+      <c r="L33" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="M33" s="7" t="s">
         <v>32</v>
@@ -3747,13 +3936,13 @@
         <v>33</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="R33" s="7" t="s">
         <v>37</v>
@@ -3765,36 +3954,36 @@
         <v>39</v>
       </c>
       <c r="U33" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="V33" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="34" spans="1:22">
       <c r="A34" s="9" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D34" s="11" t="s">
         <v>25</v>
       </c>
       <c r="E34" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="H34" s="11" t="s">
         <v>283</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="G34" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="H34" s="11" t="s">
-        <v>285</v>
       </c>
       <c r="I34" s="9" t="s">
         <v>22</v>
@@ -3805,23 +3994,23 @@
       <c r="K34" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="L34" s="11" t="s">
-        <v>286</v>
+      <c r="L34" s="12" t="s">
+        <v>47</v>
       </c>
       <c r="M34" s="11" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="N34" s="9" t="s">
         <v>33</v>
       </c>
       <c r="O34" s="11" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="P34" s="11" t="s">
-        <v>288</v>
+        <v>231</v>
       </c>
       <c r="Q34" s="11" t="s">
-        <v>78</v>
+        <v>144</v>
       </c>
       <c r="R34" s="11" t="s">
         <v>37</v>
@@ -3833,21 +4022,21 @@
         <v>39</v>
       </c>
       <c r="U34" s="11" t="s">
-        <v>103</v>
+        <v>285</v>
       </c>
       <c r="V34" s="11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" ht="30" customHeight="1">
       <c r="A35" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C35" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>25</v>
@@ -3859,37 +4048,37 @@
         <v>291</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="K35" s="5" t="s">
         <v>30</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M35" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="N35" s="5" t="s">
-        <v>33</v>
+        <v>128</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="R35" s="7" t="s">
         <v>37</v>
@@ -3901,63 +4090,63 @@
         <v>39</v>
       </c>
       <c r="U35" s="7" t="s">
-        <v>103</v>
+        <v>296</v>
       </c>
       <c r="V35" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" ht="30" customHeight="1">
       <c r="A36" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>281</v>
+        <v>298</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>25</v>
+        <v>299</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>285</v>
+        <v>99</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="K36" s="9" t="s">
         <v>30</v>
       </c>
       <c r="L36" s="11" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="M36" s="11" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="N36" s="9" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="O36" s="11" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="P36" s="11" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="Q36" s="11" t="s">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="R36" s="11" t="s">
         <v>37</v>
@@ -3969,63 +4158,63 @@
         <v>39</v>
       </c>
       <c r="U36" s="11" t="s">
-        <v>103</v>
+        <v>305</v>
       </c>
       <c r="V36" s="11" t="s">
-        <v>104</v>
+        <v>306</v>
       </c>
     </row>
     <row r="37" spans="1:22">
       <c r="A37" s="5" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>281</v>
+        <v>308</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>282</v>
+        <v>309</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>301</v>
+        <v>106</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>284</v>
+        <v>311</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>285</v>
+        <v>312</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="K37" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L37" s="8" t="s">
-        <v>100</v>
+      <c r="L37" s="7" t="s">
+        <v>313</v>
       </c>
       <c r="M37" s="7" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="N37" s="5" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="R37" s="7" t="s">
         <v>37</v>
@@ -4037,63 +4226,63 @@
         <v>39</v>
       </c>
       <c r="U37" s="7" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="V37" s="7" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" spans="1:22">
       <c r="A38" s="9" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D38" s="11" t="s">
         <v>25</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>284</v>
+        <v>311</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>285</v>
+        <v>312</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="K38" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="L38" s="11" t="s">
-        <v>309</v>
+      <c r="L38" s="12" t="s">
+        <v>47</v>
       </c>
       <c r="M38" s="11" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="N38" s="9" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="O38" s="11" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="P38" s="11" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="Q38" s="11" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="R38" s="11" t="s">
         <v>37</v>
@@ -4105,36 +4294,36 @@
         <v>39</v>
       </c>
       <c r="U38" s="11" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="V38" s="11" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:22">
       <c r="A39" s="5" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>284</v>
+        <v>311</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>285</v>
+        <v>312</v>
       </c>
       <c r="I39" s="5" t="s">
         <v>22</v>
@@ -4145,23 +4334,23 @@
       <c r="K39" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L39" s="8" t="s">
-        <v>31</v>
+      <c r="L39" s="7" t="s">
+        <v>323</v>
       </c>
       <c r="M39" s="7" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="N39" s="5" t="s">
         <v>33</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="R39" s="7" t="s">
         <v>37</v>
@@ -4173,63 +4362,63 @@
         <v>39</v>
       </c>
       <c r="U39" s="7" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="V39" s="7" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40" spans="1:22">
       <c r="A40" s="9" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D40" s="11" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>284</v>
+        <v>311</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>285</v>
+        <v>312</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="K40" s="9" t="s">
         <v>30</v>
       </c>
       <c r="L40" s="11" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="M40" s="11" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="N40" s="9" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="O40" s="11" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="P40" s="11" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="Q40" s="11" t="s">
-        <v>52</v>
+        <v>144</v>
       </c>
       <c r="R40" s="11" t="s">
         <v>37</v>
@@ -4241,63 +4430,63 @@
         <v>39</v>
       </c>
       <c r="U40" s="11" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="V40" s="11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22" ht="30" customHeight="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22">
       <c r="A41" s="5" t="s">
-        <v>291</v>
+        <v>322</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>324</v>
+        <v>25</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>86</v>
+        <v>312</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="K41" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L41" s="7" t="s">
-        <v>328</v>
+      <c r="L41" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="M41" s="7" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="N41" s="5" t="s">
-        <v>33</v>
+        <v>208</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="R41" s="7" t="s">
         <v>37</v>
@@ -4309,36 +4498,36 @@
         <v>39</v>
       </c>
       <c r="U41" s="7" t="s">
-        <v>330</v>
+        <v>115</v>
       </c>
       <c r="V41" s="7" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22" ht="30" customHeight="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22">
       <c r="A42" s="9" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>324</v>
+        <v>25</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>86</v>
+        <v>312</v>
       </c>
       <c r="I42" s="9" t="s">
         <v>22</v>
@@ -4350,22 +4539,22 @@
         <v>30</v>
       </c>
       <c r="L42" s="11" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="M42" s="11" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="N42" s="9" t="s">
         <v>33</v>
       </c>
       <c r="O42" s="11" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="P42" s="11" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="Q42" s="11" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="R42" s="11" t="s">
         <v>37</v>
@@ -4377,36 +4566,36 @@
         <v>39</v>
       </c>
       <c r="U42" s="11" t="s">
-        <v>330</v>
+        <v>115</v>
       </c>
       <c r="V42" s="11" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22" ht="30" customHeight="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22">
       <c r="A43" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="C43" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="B43" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>323</v>
-      </c>
       <c r="D43" s="7" t="s">
-        <v>324</v>
+        <v>25</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>55</v>
+        <v>344</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>86</v>
+        <v>312</v>
       </c>
       <c r="I43" s="5" t="s">
         <v>22</v>
@@ -4417,23 +4606,23 @@
       <c r="K43" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L43" s="7" t="s">
-        <v>328</v>
+      <c r="L43" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="M43" s="7" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="N43" s="5" t="s">
         <v>33</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="R43" s="7" t="s">
         <v>37</v>
@@ -4445,36 +4634,36 @@
         <v>39</v>
       </c>
       <c r="U43" s="7" t="s">
-        <v>330</v>
+        <v>115</v>
       </c>
       <c r="V43" s="7" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22" ht="30" customHeight="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22">
       <c r="A44" s="9" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>324</v>
+        <v>25</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>86</v>
+        <v>312</v>
       </c>
       <c r="I44" s="9" t="s">
         <v>22</v>
@@ -4486,22 +4675,22 @@
         <v>30</v>
       </c>
       <c r="L44" s="11" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="M44" s="11" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="N44" s="9" t="s">
         <v>33</v>
       </c>
       <c r="O44" s="11" t="s">
-        <v>329</v>
+        <v>350</v>
       </c>
       <c r="P44" s="11" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="Q44" s="11" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="R44" s="11" t="s">
         <v>37</v>
@@ -4513,36 +4702,36 @@
         <v>39</v>
       </c>
       <c r="U44" s="11" t="s">
-        <v>330</v>
+        <v>115</v>
       </c>
       <c r="V44" s="11" t="s">
-        <v>331</v>
+        <v>116</v>
       </c>
     </row>
     <row r="45" spans="1:22" ht="30" customHeight="1">
       <c r="A45" s="5" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>322</v>
+        <v>353</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>323</v>
+        <v>354</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>324</v>
+        <v>355</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>327</v>
+        <v>358</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="I45" s="5" t="s">
         <v>22</v>
@@ -4554,22 +4743,22 @@
         <v>30</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>328</v>
+        <v>359</v>
       </c>
       <c r="M45" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="N45" s="5" t="s">
         <v>33</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>335</v>
+        <v>360</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>342</v>
+        <v>360</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="R45" s="7" t="s">
         <v>37</v>
@@ -4581,36 +4770,36 @@
         <v>39</v>
       </c>
       <c r="U45" s="7" t="s">
-        <v>330</v>
+        <v>361</v>
       </c>
       <c r="V45" s="7" t="s">
-        <v>331</v>
+        <v>362</v>
       </c>
     </row>
     <row r="46" spans="1:22" ht="30" customHeight="1">
       <c r="A46" s="9" t="s">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>322</v>
+        <v>353</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>323</v>
+        <v>354</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>324</v>
+        <v>355</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>348</v>
+        <v>365</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>327</v>
+        <v>358</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="I46" s="9" t="s">
         <v>22</v>
@@ -4622,22 +4811,22 @@
         <v>30</v>
       </c>
       <c r="L46" s="11" t="s">
-        <v>328</v>
+        <v>359</v>
       </c>
       <c r="M46" s="11" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="N46" s="9" t="s">
         <v>33</v>
       </c>
       <c r="O46" s="11" t="s">
-        <v>338</v>
+        <v>366</v>
       </c>
       <c r="P46" s="11" t="s">
-        <v>342</v>
+        <v>360</v>
       </c>
       <c r="Q46" s="11" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="R46" s="11" t="s">
         <v>37</v>
@@ -4649,36 +4838,36 @@
         <v>39</v>
       </c>
       <c r="U46" s="11" t="s">
-        <v>330</v>
+        <v>361</v>
       </c>
       <c r="V46" s="11" t="s">
-        <v>331</v>
+        <v>362</v>
       </c>
     </row>
     <row r="47" spans="1:22" ht="30" customHeight="1">
       <c r="A47" s="5" t="s">
-        <v>349</v>
+        <v>367</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>25</v>
+        <v>355</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>353</v>
+        <v>44</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="I47" s="5" t="s">
         <v>22</v>
@@ -4690,63 +4879,63 @@
         <v>30</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="M47" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="N47" s="5" t="s">
         <v>33</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="R47" s="7" t="s">
         <v>37</v>
       </c>
       <c r="S47" s="7" t="s">
-        <v>174</v>
+        <v>38</v>
       </c>
       <c r="T47" s="7" t="s">
         <v>39</v>
       </c>
       <c r="U47" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="V47" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="48" spans="1:22" ht="30" customHeight="1">
       <c r="A48" s="9" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>25</v>
+        <v>355</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="H48" s="11" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="I48" s="9" t="s">
         <v>22</v>
@@ -4758,90 +4947,90 @@
         <v>30</v>
       </c>
       <c r="L48" s="11" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="M48" s="11" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="N48" s="9" t="s">
         <v>33</v>
       </c>
       <c r="O48" s="11" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="P48" s="11" t="s">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="Q48" s="11" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="R48" s="11" t="s">
         <v>37</v>
       </c>
       <c r="S48" s="11" t="s">
-        <v>174</v>
+        <v>38</v>
       </c>
       <c r="T48" s="11" t="s">
         <v>39</v>
       </c>
       <c r="U48" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="V48" s="11" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" ht="30" customHeight="1">
+      <c r="A49" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="G49" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="V48" s="11" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22">
-      <c r="A49" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="H49" s="8" t="s">
-        <v>31</v>
+      <c r="H49" s="7" t="s">
+        <v>99</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="K49" s="5" t="s">
         <v>30</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="M49" s="7" t="s">
-        <v>115</v>
+        <v>48</v>
       </c>
       <c r="N49" s="5" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="R49" s="7" t="s">
         <v>37</v>
@@ -4853,36 +5042,36 @@
         <v>39</v>
       </c>
       <c r="U49" s="7" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="V49" s="7" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
     </row>
     <row r="50" spans="1:22" ht="30" customHeight="1">
       <c r="A50" s="9" t="s">
-        <v>373</v>
-      </c>
-      <c r="B50" s="12" t="s">
-        <v>31</v>
+        <v>377</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>353</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>374</v>
+        <v>354</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>375</v>
+        <v>355</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>377</v>
+        <v>358</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="I50" s="9" t="s">
         <v>22</v>
@@ -4894,63 +5083,63 @@
         <v>30</v>
       </c>
       <c r="L50" s="11" t="s">
-        <v>378</v>
+        <v>359</v>
       </c>
       <c r="M50" s="11" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="N50" s="9" t="s">
         <v>33</v>
       </c>
       <c r="O50" s="11" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="P50" s="11" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="Q50" s="11" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="R50" s="11" t="s">
-        <v>196</v>
+        <v>37</v>
       </c>
       <c r="S50" s="11" t="s">
-        <v>174</v>
+        <v>38</v>
       </c>
       <c r="T50" s="11" t="s">
         <v>39</v>
       </c>
       <c r="U50" s="11" t="s">
-        <v>381</v>
+        <v>361</v>
       </c>
       <c r="V50" s="11" t="s">
-        <v>382</v>
+        <v>362</v>
       </c>
     </row>
     <row r="51" spans="1:22" ht="30" customHeight="1">
       <c r="A51" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E51" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="F51" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="G51" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="D51" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>388</v>
-      </c>
       <c r="H51" s="7" t="s">
-        <v>389</v>
+        <v>99</v>
       </c>
       <c r="I51" s="5" t="s">
         <v>22</v>
@@ -4962,63 +5151,63 @@
         <v>30</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="M51" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="N51" s="5" t="s">
         <v>33</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>131</v>
+        <v>388</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="R51" s="7" t="s">
         <v>37</v>
       </c>
       <c r="S51" s="7" t="s">
-        <v>38</v>
+        <v>186</v>
       </c>
       <c r="T51" s="7" t="s">
         <v>39</v>
       </c>
       <c r="U51" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="V51" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="52" spans="1:22" ht="30" customHeight="1">
       <c r="A52" s="9" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>397</v>
+        <v>25</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>389</v>
+        <v>99</v>
       </c>
       <c r="I52" s="9" t="s">
         <v>22</v>
@@ -5030,37 +5219,513 @@
         <v>30</v>
       </c>
       <c r="L52" s="11" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="M52" s="11" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="N52" s="9" t="s">
         <v>33</v>
       </c>
       <c r="O52" s="11" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="P52" s="11" t="s">
-        <v>143</v>
+        <v>388</v>
       </c>
       <c r="Q52" s="11" t="s">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="R52" s="11" t="s">
         <v>37</v>
       </c>
       <c r="S52" s="11" t="s">
-        <v>38</v>
+        <v>186</v>
       </c>
       <c r="T52" s="11" t="s">
         <v>39</v>
       </c>
       <c r="U52" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="V52" s="11" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22">
+      <c r="A53" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J53" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K53" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L53" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="M53" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="N53" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="O53" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="P53" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="Q53" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="R53" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="S53" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="T53" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="U53" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="V52" s="11" t="s">
+      <c r="V53" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22">
+      <c r="A54" s="9" t="s">
         <v>403</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="G54" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="H54" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="I54" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J54" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K54" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="L54" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="M54" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N54" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="O54" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="P54" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q54" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="R54" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="S54" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="T54" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="U54" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="V54" s="11" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22">
+      <c r="A55" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J55" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K55" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L55" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M55" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="N55" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O55" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="P55" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="Q55" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="R55" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="S55" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="T55" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="U55" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="V55" s="7" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" ht="30" customHeight="1">
+      <c r="A56" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>425</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>425</v>
+      </c>
+      <c r="G56" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="H56" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="I56" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J56" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K56" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="L56" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="M56" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="N56" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="O56" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="P56" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q56" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="R56" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="S56" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="T56" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="U56" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="V56" s="11" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" ht="30" customHeight="1">
+      <c r="A57" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J57" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K57" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L57" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="M57" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N57" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O57" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="P57" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q57" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="R57" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="S57" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="T57" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="U57" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="V57" s="7" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" ht="30" customHeight="1">
+      <c r="A58" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="F58" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="H58" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="I58" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J58" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K58" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="L58" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="M58" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="N58" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="O58" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="P58" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q58" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="R58" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="S58" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="T58" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="U58" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="V58" s="11" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22">
+      <c r="A59" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J59" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K59" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L59" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="M59" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="N59" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O59" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="P59" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q59" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="R59" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="S59" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="T59" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="U59" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="V59" s="7" t="s">
+        <v>463</v>
       </c>
     </row>
   </sheetData>
@@ -5075,7 +5740,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V9"/>
+  <dimension ref="A1:V10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -5089,7 +5754,7 @@
     <col min="3" max="3" width="19.7109375" customWidth="1"/>
     <col min="4" max="4" width="25.7109375" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" customWidth="1"/>
     <col min="7" max="7" width="36.7109375" customWidth="1"/>
     <col min="8" max="8" width="31.7109375" customWidth="1"/>
     <col min="9" max="9" width="26.7109375" customWidth="1"/>
@@ -5110,7 +5775,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>404</v>
+        <v>464</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -5134,55 +5799,55 @@
     </row>
     <row r="2" spans="1:22">
       <c r="C2" s="2" t="s">
-        <v>405</v>
+        <v>465</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>406</v>
+        <v>466</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>415</v>
+        <v>475</v>
       </c>
       <c r="F2" s="3">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:22">
       <c r="C3" s="2" t="s">
-        <v>407</v>
+        <v>467</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>408</v>
+        <v>468</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>416</v>
+        <v>476</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>417</v>
+        <v>477</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="C4" s="2" t="s">
-        <v>409</v>
+        <v>469</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>410</v>
+        <v>470</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>418</v>
+        <v>478</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>419</v>
+        <v>479</v>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="C5" s="2" t="s">
-        <v>411</v>
+        <v>471</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>412</v>
+        <v>472</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>420</v>
+        <v>480</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -5190,16 +5855,16 @@
     </row>
     <row r="6" spans="1:22">
       <c r="C6" s="2" t="s">
-        <v>413</v>
+        <v>473</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>414</v>
+        <v>474</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>421</v>
+        <v>481</v>
       </c>
       <c r="F6" s="3">
-        <v>78</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -5275,67 +5940,135 @@
         <v>22</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>422</v>
+        <v>482</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>423</v>
+        <v>483</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>424</v>
+        <v>484</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>425</v>
+        <v>195</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>426</v>
+        <v>485</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>427</v>
+        <v>486</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>428</v>
+        <v>487</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>429</v>
+        <v>488</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="R9" s="7" t="s">
         <v>37</v>
       </c>
       <c r="S9" s="7" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="T9" s="7" t="s">
-        <v>430</v>
+        <v>489</v>
       </c>
       <c r="U9" s="7" t="s">
-        <v>372</v>
+        <v>198</v>
       </c>
       <c r="V9" s="7" t="s">
-        <v>431</v>
+        <v>490</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>492</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="O10" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="P10" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="Q10" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="R10" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="S10" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="T10" s="11" t="s">
+        <v>489</v>
+      </c>
+      <c r="U10" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="V10" s="11" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -5361,22 +6094,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>432</v>
+        <v>495</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>433</v>
+        <v>496</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>434</v>
+        <v>497</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="8" t="s">
-        <v>435</v>
+        <v>498</v>
       </c>
     </row>
   </sheetData>

--- a/latest/BoM/Positional/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Positional/pedalboard-hw-bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="498">
   <si>
     <t>Row</t>
   </si>
@@ -835,22 +835,19 @@
     <t>USB_B_Micro</t>
   </si>
   <si>
-    <t>USB_Micro-B_Amphenol_10104110_Horizontal</t>
-  </si>
-  <si>
-    <t>Connector_USB</t>
-  </si>
-  <si>
-    <t>56.9344</t>
-  </si>
-  <si>
-    <t>75.1944</t>
-  </si>
-  <si>
-    <t>9.8000</t>
-  </si>
-  <si>
-    <t>4.5000</t>
+    <t>USB_Micro-B_Wuerth_614105150721_Vertical</t>
+  </si>
+  <si>
+    <t>63.5344</t>
+  </si>
+  <si>
+    <t>74.7044</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t>2.1250</t>
   </si>
   <si>
     <t>26</t>
@@ -1453,13 +1450,13 @@
     <t>Component Count:</t>
   </si>
   <si>
-    <t>107 (81 SMD/ 24 THT)</t>
+    <t>107 (80 SMD/ 25 THT)</t>
   </si>
   <si>
     <t>Fitted Components:</t>
   </si>
   <si>
-    <t>104 (80 SMD/ 22 THT)</t>
+    <t>104 (79 SMD/ 23 THT)</t>
   </si>
   <si>
     <t>Number of PCBs:</t>
@@ -2100,7 +2097,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -2124,13 +2121,13 @@
     </row>
     <row r="2" spans="1:22">
       <c r="C2" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>466</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F2" s="3">
         <v>53</v>
@@ -2138,41 +2135,41 @@
     </row>
     <row r="3" spans="1:22">
       <c r="C3" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>468</v>
-      </c>
       <c r="E3" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>476</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="C4" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>470</v>
-      </c>
       <c r="E4" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>478</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="C5" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>472</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -2180,13 +2177,13 @@
     </row>
     <row r="6" spans="1:22">
       <c r="C6" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>474</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F6" s="3">
         <v>104</v>
@@ -3915,7 +3912,7 @@
         <v>271</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>272</v>
+        <v>99</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>22</v>
@@ -3936,10 +3933,10 @@
         <v>33</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="P33" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="Q33" s="7" t="s">
         <v>52</v>
@@ -3948,42 +3945,42 @@
         <v>37</v>
       </c>
       <c r="S33" s="7" t="s">
-        <v>38</v>
+        <v>186</v>
       </c>
       <c r="T33" s="7" t="s">
         <v>39</v>
       </c>
       <c r="U33" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="V33" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="V33" s="7" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="34" spans="1:22">
       <c r="A34" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="B34" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="C34" s="11" t="s">
         <v>278</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>279</v>
       </c>
       <c r="D34" s="11" t="s">
         <v>25</v>
       </c>
       <c r="E34" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="F34" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="F34" s="11" t="s">
+      <c r="G34" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="G34" s="11" t="s">
+      <c r="H34" s="11" t="s">
         <v>282</v>
-      </c>
-      <c r="H34" s="11" t="s">
-        <v>283</v>
       </c>
       <c r="I34" s="9" t="s">
         <v>22</v>
@@ -4004,7 +4001,7 @@
         <v>33</v>
       </c>
       <c r="O34" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P34" s="11" t="s">
         <v>231</v>
@@ -4022,36 +4019,36 @@
         <v>39</v>
       </c>
       <c r="U34" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="V34" s="11" t="s">
         <v>285</v>
-      </c>
-      <c r="V34" s="11" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="35" spans="1:22" ht="30" customHeight="1">
       <c r="A35" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="C35" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="G35" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="H35" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>57</v>
@@ -4063,7 +4060,7 @@
         <v>30</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="M35" s="7" t="s">
         <v>48</v>
@@ -4072,10 +4069,10 @@
         <v>128</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="Q35" s="7" t="s">
         <v>36</v>
@@ -4090,33 +4087,33 @@
         <v>39</v>
       </c>
       <c r="U35" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="V35" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="V35" s="7" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="36" spans="1:22" ht="30" customHeight="1">
       <c r="A36" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B36" s="12" t="s">
         <v>31</v>
       </c>
       <c r="C36" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="E36" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="D36" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="E36" s="11" t="s">
+      <c r="F36" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="G36" s="11" t="s">
         <v>300</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>301</v>
       </c>
       <c r="H36" s="11" t="s">
         <v>99</v>
@@ -4131,7 +4128,7 @@
         <v>30</v>
       </c>
       <c r="L36" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="M36" s="11" t="s">
         <v>32</v>
@@ -4140,10 +4137,10 @@
         <v>33</v>
       </c>
       <c r="O36" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="P36" s="11" t="s">
         <v>303</v>
-      </c>
-      <c r="P36" s="11" t="s">
-        <v>304</v>
       </c>
       <c r="Q36" s="11" t="s">
         <v>91</v>
@@ -4158,36 +4155,36 @@
         <v>39</v>
       </c>
       <c r="U36" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="V36" s="11" t="s">
         <v>305</v>
-      </c>
-      <c r="V36" s="11" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="37" spans="1:22">
       <c r="A37" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="B37" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="C37" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>106</v>
       </c>
       <c r="G37" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="H37" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="I37" s="5" t="s">
         <v>22</v>
@@ -4199,7 +4196,7 @@
         <v>30</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M37" s="7" t="s">
         <v>48</v>
@@ -4208,10 +4205,10 @@
         <v>33</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>91</v>
@@ -4234,28 +4231,28 @@
     </row>
     <row r="38" spans="1:22">
       <c r="A38" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B38" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="C38" s="11" t="s">
         <v>308</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>309</v>
       </c>
       <c r="D38" s="11" t="s">
         <v>25</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G38" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="H38" s="11" t="s">
         <v>311</v>
-      </c>
-      <c r="H38" s="11" t="s">
-        <v>312</v>
       </c>
       <c r="I38" s="9" t="s">
         <v>42</v>
@@ -4276,10 +4273,10 @@
         <v>49</v>
       </c>
       <c r="O38" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="P38" s="11" t="s">
         <v>318</v>
-      </c>
-      <c r="P38" s="11" t="s">
-        <v>319</v>
       </c>
       <c r="Q38" s="11" t="s">
         <v>91</v>
@@ -4302,28 +4299,28 @@
     </row>
     <row r="39" spans="1:22">
       <c r="A39" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B39" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="C39" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E39" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F39" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="F39" s="7" t="s">
-        <v>322</v>
-      </c>
       <c r="G39" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="H39" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="I39" s="5" t="s">
         <v>22</v>
@@ -4335,7 +4332,7 @@
         <v>30</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M39" s="7" t="s">
         <v>48</v>
@@ -4344,10 +4341,10 @@
         <v>33</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="Q39" s="7" t="s">
         <v>52</v>
@@ -4370,28 +4367,28 @@
     </row>
     <row r="40" spans="1:22">
       <c r="A40" s="9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B40" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="C40" s="11" t="s">
         <v>308</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>309</v>
       </c>
       <c r="D40" s="11" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="F40" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="F40" s="11" t="s">
-        <v>327</v>
-      </c>
       <c r="G40" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="H40" s="11" t="s">
         <v>311</v>
-      </c>
-      <c r="H40" s="11" t="s">
-        <v>312</v>
       </c>
       <c r="I40" s="9" t="s">
         <v>42</v>
@@ -4403,7 +4400,7 @@
         <v>30</v>
       </c>
       <c r="L40" s="11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M40" s="11" t="s">
         <v>48</v>
@@ -4412,10 +4409,10 @@
         <v>49</v>
       </c>
       <c r="O40" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="P40" s="11" t="s">
         <v>328</v>
-      </c>
-      <c r="P40" s="11" t="s">
-        <v>329</v>
       </c>
       <c r="Q40" s="11" t="s">
         <v>144</v>
@@ -4438,28 +4435,28 @@
     </row>
     <row r="41" spans="1:22">
       <c r="A41" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B41" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="C41" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="F41" s="7" t="s">
-        <v>331</v>
-      </c>
       <c r="G41" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="H41" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="H41" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="I41" s="5" t="s">
         <v>70</v>
@@ -4480,10 +4477,10 @@
         <v>208</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="P41" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="P41" s="7" t="s">
-        <v>333</v>
       </c>
       <c r="Q41" s="7" t="s">
         <v>91</v>
@@ -4506,28 +4503,28 @@
     </row>
     <row r="42" spans="1:22">
       <c r="A42" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="B42" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="C42" s="11" t="s">
         <v>335</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>336</v>
       </c>
       <c r="D42" s="11" t="s">
         <v>25</v>
       </c>
       <c r="E42" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="F42" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="F42" s="11" t="s">
-        <v>338</v>
-      </c>
       <c r="G42" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="H42" s="11" t="s">
         <v>311</v>
-      </c>
-      <c r="H42" s="11" t="s">
-        <v>312</v>
       </c>
       <c r="I42" s="9" t="s">
         <v>22</v>
@@ -4539,7 +4536,7 @@
         <v>30</v>
       </c>
       <c r="L42" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="M42" s="11" t="s">
         <v>32</v>
@@ -4548,10 +4545,10 @@
         <v>33</v>
       </c>
       <c r="O42" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="P42" s="11" t="s">
         <v>340</v>
-      </c>
-      <c r="P42" s="11" t="s">
-        <v>341</v>
       </c>
       <c r="Q42" s="11" t="s">
         <v>36</v>
@@ -4574,28 +4571,28 @@
     </row>
     <row r="43" spans="1:22">
       <c r="A43" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B43" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="C43" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>336</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="F43" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="F43" s="7" t="s">
-        <v>344</v>
-      </c>
       <c r="G43" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="H43" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="H43" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="I43" s="5" t="s">
         <v>22</v>
@@ -4616,10 +4613,10 @@
         <v>33</v>
       </c>
       <c r="O43" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="P43" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="P43" s="7" t="s">
-        <v>346</v>
       </c>
       <c r="Q43" s="7" t="s">
         <v>36</v>
@@ -4642,28 +4639,28 @@
     </row>
     <row r="44" spans="1:22">
       <c r="A44" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B44" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="C44" s="11" t="s">
         <v>335</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>336</v>
       </c>
       <c r="D44" s="11" t="s">
         <v>25</v>
       </c>
       <c r="E44" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="F44" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="F44" s="11" t="s">
-        <v>349</v>
-      </c>
       <c r="G44" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="H44" s="11" t="s">
         <v>311</v>
-      </c>
-      <c r="H44" s="11" t="s">
-        <v>312</v>
       </c>
       <c r="I44" s="9" t="s">
         <v>22</v>
@@ -4675,7 +4672,7 @@
         <v>30</v>
       </c>
       <c r="L44" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="M44" s="11" t="s">
         <v>32</v>
@@ -4684,10 +4681,10 @@
         <v>33</v>
       </c>
       <c r="O44" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="P44" s="11" t="s">
         <v>350</v>
-      </c>
-      <c r="P44" s="11" t="s">
-        <v>351</v>
       </c>
       <c r="Q44" s="11" t="s">
         <v>52</v>
@@ -4710,25 +4707,25 @@
     </row>
     <row r="45" spans="1:22" ht="30" customHeight="1">
       <c r="A45" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="B45" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="C45" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="D45" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="E45" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="F45" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="G45" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>358</v>
       </c>
       <c r="H45" s="7" t="s">
         <v>99</v>
@@ -4743,7 +4740,7 @@
         <v>30</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="M45" s="7" t="s">
         <v>48</v>
@@ -4752,10 +4749,10 @@
         <v>33</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="Q45" s="7" t="s">
         <v>91</v>
@@ -4770,33 +4767,33 @@
         <v>39</v>
       </c>
       <c r="U45" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="V45" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="V45" s="7" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="46" spans="1:22" ht="30" customHeight="1">
       <c r="A46" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="E46" s="11" t="s">
         <v>363</v>
       </c>
-      <c r="B46" s="10" t="s">
-        <v>353</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>354</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>355</v>
-      </c>
-      <c r="E46" s="11" t="s">
+      <c r="F46" s="11" t="s">
         <v>364</v>
       </c>
-      <c r="F46" s="11" t="s">
-        <v>365</v>
-      </c>
       <c r="G46" s="11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H46" s="11" t="s">
         <v>99</v>
@@ -4811,7 +4808,7 @@
         <v>30</v>
       </c>
       <c r="L46" s="11" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="M46" s="11" t="s">
         <v>48</v>
@@ -4820,10 +4817,10 @@
         <v>33</v>
       </c>
       <c r="O46" s="11" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="P46" s="11" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="Q46" s="11" t="s">
         <v>91</v>
@@ -4838,33 +4835,33 @@
         <v>39</v>
       </c>
       <c r="U46" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="V46" s="11" t="s">
         <v>361</v>
-      </c>
-      <c r="V46" s="11" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="47" spans="1:22" ht="30" customHeight="1">
       <c r="A47" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="E47" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>44</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H47" s="7" t="s">
         <v>99</v>
@@ -4879,7 +4876,7 @@
         <v>30</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="M47" s="7" t="s">
         <v>48</v>
@@ -4888,10 +4885,10 @@
         <v>33</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="Q47" s="7" t="s">
         <v>91</v>
@@ -4906,33 +4903,33 @@
         <v>39</v>
       </c>
       <c r="U47" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="V47" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="V47" s="7" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="48" spans="1:22" ht="30" customHeight="1">
       <c r="A48" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="E48" s="11" t="s">
         <v>370</v>
       </c>
-      <c r="B48" s="10" t="s">
-        <v>353</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>354</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>355</v>
-      </c>
-      <c r="E48" s="11" t="s">
+      <c r="F48" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="F48" s="11" t="s">
-        <v>372</v>
-      </c>
       <c r="G48" s="11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H48" s="11" t="s">
         <v>99</v>
@@ -4947,7 +4944,7 @@
         <v>30</v>
       </c>
       <c r="L48" s="11" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="M48" s="11" t="s">
         <v>48</v>
@@ -4956,10 +4953,10 @@
         <v>33</v>
       </c>
       <c r="O48" s="11" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="P48" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="Q48" s="11" t="s">
         <v>91</v>
@@ -4974,33 +4971,33 @@
         <v>39</v>
       </c>
       <c r="U48" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="V48" s="11" t="s">
         <v>361</v>
-      </c>
-      <c r="V48" s="11" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="49" spans="1:22" ht="30" customHeight="1">
       <c r="A49" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="E49" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="B49" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="E49" s="7" t="s">
+      <c r="F49" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="F49" s="7" t="s">
-        <v>376</v>
-      </c>
       <c r="G49" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H49" s="7" t="s">
         <v>99</v>
@@ -5015,7 +5012,7 @@
         <v>30</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="M49" s="7" t="s">
         <v>48</v>
@@ -5024,10 +5021,10 @@
         <v>33</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="Q49" s="7" t="s">
         <v>91</v>
@@ -5042,33 +5039,33 @@
         <v>39</v>
       </c>
       <c r="U49" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="V49" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="V49" s="7" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="50" spans="1:22" ht="30" customHeight="1">
       <c r="A50" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="E50" s="11" t="s">
         <v>377</v>
       </c>
-      <c r="B50" s="10" t="s">
-        <v>353</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>354</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>355</v>
-      </c>
-      <c r="E50" s="11" t="s">
+      <c r="F50" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="F50" s="11" t="s">
-        <v>379</v>
-      </c>
       <c r="G50" s="11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H50" s="11" t="s">
         <v>99</v>
@@ -5083,7 +5080,7 @@
         <v>30</v>
       </c>
       <c r="L50" s="11" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="M50" s="11" t="s">
         <v>48</v>
@@ -5092,10 +5089,10 @@
         <v>33</v>
       </c>
       <c r="O50" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="P50" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="Q50" s="11" t="s">
         <v>91</v>
@@ -5110,33 +5107,33 @@
         <v>39</v>
       </c>
       <c r="U50" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="V50" s="11" t="s">
         <v>361</v>
-      </c>
-      <c r="V50" s="11" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="51" spans="1:22" ht="30" customHeight="1">
       <c r="A51" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="B51" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="C51" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>382</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E51" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="F51" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="F51" s="7" t="s">
+      <c r="G51" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>385</v>
       </c>
       <c r="H51" s="7" t="s">
         <v>99</v>
@@ -5151,7 +5148,7 @@
         <v>30</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="M51" s="7" t="s">
         <v>48</v>
@@ -5160,10 +5157,10 @@
         <v>33</v>
       </c>
       <c r="O51" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="P51" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="P51" s="7" t="s">
-        <v>388</v>
       </c>
       <c r="Q51" s="7" t="s">
         <v>91</v>
@@ -5178,33 +5175,33 @@
         <v>39</v>
       </c>
       <c r="U51" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="V51" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="V51" s="7" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="52" spans="1:22" ht="30" customHeight="1">
       <c r="A52" s="9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B52" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="C52" s="11" t="s">
         <v>381</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>382</v>
       </c>
       <c r="D52" s="11" t="s">
         <v>25</v>
       </c>
       <c r="E52" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="F52" s="11" t="s">
         <v>392</v>
       </c>
-      <c r="F52" s="11" t="s">
-        <v>393</v>
-      </c>
       <c r="G52" s="11" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H52" s="11" t="s">
         <v>99</v>
@@ -5219,7 +5216,7 @@
         <v>30</v>
       </c>
       <c r="L52" s="11" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="M52" s="11" t="s">
         <v>48</v>
@@ -5228,10 +5225,10 @@
         <v>33</v>
       </c>
       <c r="O52" s="11" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="P52" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="Q52" s="11" t="s">
         <v>91</v>
@@ -5246,33 +5243,33 @@
         <v>39</v>
       </c>
       <c r="U52" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="V52" s="11" t="s">
         <v>389</v>
-      </c>
-      <c r="V52" s="11" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="53" spans="1:22">
       <c r="A53" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B53" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C53" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="E53" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="D53" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="E53" s="7" t="s">
+      <c r="F53" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="G53" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>398</v>
       </c>
       <c r="H53" s="8" t="s">
         <v>31</v>
@@ -5287,7 +5284,7 @@
         <v>30</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M53" s="7" t="s">
         <v>127</v>
@@ -5296,10 +5293,10 @@
         <v>49</v>
       </c>
       <c r="O53" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="P53" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="P53" s="7" t="s">
-        <v>401</v>
       </c>
       <c r="Q53" s="7" t="s">
         <v>52</v>
@@ -5314,7 +5311,7 @@
         <v>39</v>
       </c>
       <c r="U53" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="V53" s="7" t="s">
         <v>198</v>
@@ -5322,28 +5319,28 @@
     </row>
     <row r="54" spans="1:22">
       <c r="A54" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="B54" s="10" t="s">
         <v>403</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="C54" s="11" t="s">
         <v>404</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="D54" s="11" t="s">
         <v>405</v>
       </c>
-      <c r="D54" s="11" t="s">
+      <c r="E54" s="11" t="s">
         <v>406</v>
       </c>
-      <c r="E54" s="11" t="s">
+      <c r="F54" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="G54" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="F54" s="11" t="s">
-        <v>405</v>
-      </c>
-      <c r="G54" s="11" t="s">
+      <c r="H54" s="11" t="s">
         <v>408</v>
-      </c>
-      <c r="H54" s="11" t="s">
-        <v>409</v>
       </c>
       <c r="I54" s="9" t="s">
         <v>22</v>
@@ -5355,7 +5352,7 @@
         <v>30</v>
       </c>
       <c r="L54" s="11" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="M54" s="11" t="s">
         <v>32</v>
@@ -5364,10 +5361,10 @@
         <v>33</v>
       </c>
       <c r="O54" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="P54" s="11" t="s">
         <v>411</v>
-      </c>
-      <c r="P54" s="11" t="s">
-        <v>412</v>
       </c>
       <c r="Q54" s="11" t="s">
         <v>52</v>
@@ -5382,33 +5379,33 @@
         <v>39</v>
       </c>
       <c r="U54" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="V54" s="11" t="s">
         <v>413</v>
-      </c>
-      <c r="V54" s="11" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="55" spans="1:22">
       <c r="A55" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B55" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C55" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="D55" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="D55" s="7" t="s">
+      <c r="E55" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="E55" s="7" t="s">
+      <c r="F55" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="G55" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>419</v>
       </c>
       <c r="H55" s="7" t="s">
         <v>99</v>
@@ -5432,10 +5429,10 @@
         <v>33</v>
       </c>
       <c r="O55" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="P55" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="P55" s="7" t="s">
-        <v>421</v>
       </c>
       <c r="Q55" s="7" t="s">
         <v>36</v>
@@ -5450,36 +5447,36 @@
         <v>39</v>
       </c>
       <c r="U55" s="7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="V55" s="7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="56" spans="1:22" ht="30" customHeight="1">
       <c r="A56" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="B56" s="10" t="s">
         <v>423</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="C56" s="11" t="s">
         <v>424</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="D56" s="11" t="s">
         <v>425</v>
       </c>
-      <c r="D56" s="11" t="s">
+      <c r="E56" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="E56" s="11" t="s">
+      <c r="F56" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="G56" s="11" t="s">
         <v>427</v>
       </c>
-      <c r="F56" s="11" t="s">
-        <v>425</v>
-      </c>
-      <c r="G56" s="11" t="s">
+      <c r="H56" s="11" t="s">
         <v>428</v>
-      </c>
-      <c r="H56" s="11" t="s">
-        <v>429</v>
       </c>
       <c r="I56" s="9" t="s">
         <v>22</v>
@@ -5491,7 +5488,7 @@
         <v>30</v>
       </c>
       <c r="L56" s="11" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="M56" s="11" t="s">
         <v>48</v>
@@ -5500,7 +5497,7 @@
         <v>33</v>
       </c>
       <c r="O56" s="11" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="P56" s="11" t="s">
         <v>143</v>
@@ -5518,36 +5515,36 @@
         <v>39</v>
       </c>
       <c r="U56" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="V56" s="11" t="s">
         <v>432</v>
-      </c>
-      <c r="V56" s="11" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="57" spans="1:22" ht="30" customHeight="1">
       <c r="A57" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="B57" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="C57" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="D57" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="D57" s="7" t="s">
+      <c r="E57" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="E57" s="7" t="s">
+      <c r="F57" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="G57" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="F57" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>439</v>
-      </c>
       <c r="H57" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I57" s="5" t="s">
         <v>22</v>
@@ -5559,7 +5556,7 @@
         <v>30</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="M57" s="7" t="s">
         <v>32</v>
@@ -5568,10 +5565,10 @@
         <v>33</v>
       </c>
       <c r="O57" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="P57" s="7" t="s">
         <v>441</v>
-      </c>
-      <c r="P57" s="7" t="s">
-        <v>442</v>
       </c>
       <c r="Q57" s="7" t="s">
         <v>144</v>
@@ -5586,36 +5583,36 @@
         <v>39</v>
       </c>
       <c r="U57" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="V57" s="7" t="s">
         <v>443</v>
-      </c>
-      <c r="V57" s="7" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="58" spans="1:22" ht="30" customHeight="1">
       <c r="A58" s="9" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B58" s="12" t="s">
         <v>31</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D58" s="11" t="s">
         <v>268</v>
       </c>
       <c r="E58" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="F58" s="11" t="s">
         <v>447</v>
       </c>
-      <c r="F58" s="11" t="s">
+      <c r="G58" s="11" t="s">
         <v>448</v>
       </c>
-      <c r="G58" s="11" t="s">
-        <v>449</v>
-      </c>
       <c r="H58" s="11" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I58" s="9" t="s">
         <v>22</v>
@@ -5627,7 +5624,7 @@
         <v>30</v>
       </c>
       <c r="L58" s="11" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="M58" s="11" t="s">
         <v>48</v>
@@ -5636,10 +5633,10 @@
         <v>33</v>
       </c>
       <c r="O58" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="P58" s="11" t="s">
         <v>451</v>
-      </c>
-      <c r="P58" s="11" t="s">
-        <v>452</v>
       </c>
       <c r="Q58" s="11" t="s">
         <v>36</v>
@@ -5654,33 +5651,33 @@
         <v>39</v>
       </c>
       <c r="U58" s="11" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="V58" s="11" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="59" spans="1:22">
       <c r="A59" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="B59" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="C59" s="7" t="s">
         <v>455</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>456</v>
       </c>
       <c r="D59" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E59" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="F59" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="F59" s="7" t="s">
+      <c r="G59" s="7" t="s">
         <v>458</v>
-      </c>
-      <c r="G59" s="7" t="s">
-        <v>459</v>
       </c>
       <c r="H59" s="7" t="s">
         <v>99</v>
@@ -5704,10 +5701,10 @@
         <v>33</v>
       </c>
       <c r="O59" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="P59" s="7" t="s">
         <v>460</v>
-      </c>
-      <c r="P59" s="7" t="s">
-        <v>461</v>
       </c>
       <c r="Q59" s="7" t="s">
         <v>91</v>
@@ -5722,10 +5719,10 @@
         <v>39</v>
       </c>
       <c r="U59" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="V59" s="7" t="s">
         <v>462</v>
-      </c>
-      <c r="V59" s="7" t="s">
-        <v>463</v>
       </c>
     </row>
   </sheetData>
@@ -5775,7 +5772,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -5799,13 +5796,13 @@
     </row>
     <row r="2" spans="1:22">
       <c r="C2" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>466</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F2" s="3">
         <v>53</v>
@@ -5813,41 +5810,41 @@
     </row>
     <row r="3" spans="1:22">
       <c r="C3" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>468</v>
-      </c>
       <c r="E3" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>476</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="C4" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>470</v>
-      </c>
       <c r="E4" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>478</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="C5" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>472</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -5855,13 +5852,13 @@
     </row>
     <row r="6" spans="1:22">
       <c r="C6" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>474</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F6" s="3">
         <v>104</v>
@@ -5949,13 +5946,13 @@
         <v>179</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>483</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>484</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>195</v>
@@ -5964,10 +5961,10 @@
         <v>42</v>
       </c>
       <c r="J9" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="K9" s="5" t="s">
         <v>485</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>486</v>
       </c>
       <c r="L9" s="8" t="s">
         <v>47</v>
@@ -5979,10 +5976,10 @@
         <v>49</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>487</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>488</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>144</v>
@@ -5994,13 +5991,13 @@
         <v>186</v>
       </c>
       <c r="T9" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="U9" s="7" t="s">
         <v>198</v>
       </c>
       <c r="V9" s="7" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -6008,34 +6005,34 @@
         <v>42</v>
       </c>
       <c r="B10" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>308</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>309</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>25</v>
       </c>
       <c r="E10" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>491</v>
       </c>
-      <c r="F10" s="11" t="s">
-        <v>492</v>
-      </c>
       <c r="G10" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="H10" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="H10" s="11" t="s">
-        <v>312</v>
-      </c>
       <c r="I10" s="9" t="s">
         <v>22</v>
       </c>
       <c r="J10" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="K10" s="9" t="s">
         <v>485</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>486</v>
       </c>
       <c r="L10" s="12" t="s">
         <v>47</v>
@@ -6047,10 +6044,10 @@
         <v>33</v>
       </c>
       <c r="O10" s="11" t="s">
+        <v>492</v>
+      </c>
+      <c r="P10" s="11" t="s">
         <v>493</v>
-      </c>
-      <c r="P10" s="11" t="s">
-        <v>494</v>
       </c>
       <c r="Q10" s="11" t="s">
         <v>91</v>
@@ -6062,7 +6059,7 @@
         <v>38</v>
       </c>
       <c r="T10" s="11" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="U10" s="11" t="s">
         <v>115</v>
@@ -6094,22 +6091,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="8" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
   </sheetData>

--- a/latest/BoM/Positional/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Positional/pedalboard-hw-bom.xlsx
@@ -5612,7 +5612,7 @@
         <v>448</v>
       </c>
       <c r="H58" s="11" t="s">
-        <v>428</v>
+        <v>99</v>
       </c>
       <c r="I58" s="9" t="s">
         <v>22</v>

--- a/latest/BoM/Positional/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Positional/pedalboard-hw-bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="506">
   <si>
     <t>Row</t>
   </si>
@@ -1450,7 +1450,7 @@
     <t>Component Count:</t>
   </si>
   <si>
-    <t>107 (80 SMD/ 25 THT)</t>
+    <t>108 (80 SMD/ 26 THT)</t>
   </si>
   <si>
     <t>Fitted Components:</t>
@@ -1490,6 +1490,30 @@
   </si>
   <si>
     <t>6.7800</t>
+  </si>
+  <si>
+    <t>Generic screw terminal, single row, 01x02, script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+  </si>
+  <si>
+    <t>Screw_Terminal_01x02</t>
+  </si>
+  <si>
+    <t>J26</t>
+  </si>
+  <si>
+    <t>TerminalBlock_Phoenix_MKDS-1,5-2_1x02_P5.00mm_Horizontal</t>
+  </si>
+  <si>
+    <t>TerminalBlock_Phoenix</t>
+  </si>
+  <si>
+    <t>160.4944</t>
+  </si>
+  <si>
+    <t>102.7844</t>
+  </si>
+  <si>
+    <t>2.6000</t>
   </si>
   <si>
     <t>R16</t>
@@ -2130,7 +2154,7 @@
         <v>474</v>
       </c>
       <c r="F2" s="3">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -5737,7 +5761,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V10"/>
+  <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -5747,12 +5771,12 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="59.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="60.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1"/>
     <col min="4" max="4" width="25.7109375" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" customWidth="1"/>
-    <col min="7" max="7" width="36.7109375" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" customWidth="1"/>
+    <col min="7" max="7" width="60.7109375" customWidth="1"/>
     <col min="8" max="8" width="31.7109375" customWidth="1"/>
     <col min="9" max="9" width="26.7109375" customWidth="1"/>
     <col min="10" max="10" width="24.7109375" customWidth="1"/>
@@ -5805,7 +5829,7 @@
         <v>474</v>
       </c>
       <c r="F2" s="3">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -6000,30 +6024,30 @@
         <v>489</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" ht="30" customHeight="1">
       <c r="A10" s="9" t="s">
         <v>42</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>307</v>
+        <v>490</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>308</v>
+        <v>491</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>25</v>
+        <v>179</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>491</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>310</v>
+        <v>493</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>311</v>
+        <v>494</v>
       </c>
       <c r="I10" s="9" t="s">
         <v>22</v>
@@ -6038,33 +6062,101 @@
         <v>47</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="N10" s="9" t="s">
         <v>33</v>
       </c>
       <c r="O10" s="11" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="P10" s="11" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="Q10" s="11" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="R10" s="11" t="s">
         <v>37</v>
       </c>
       <c r="S10" s="11" t="s">
-        <v>38</v>
+        <v>186</v>
       </c>
       <c r="T10" s="11" t="s">
         <v>488</v>
       </c>
       <c r="U10" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="V10" s="11" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="A11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="R11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="S11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="T11" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="U11" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="V10" s="11" t="s">
+      <c r="V11" s="7" t="s">
         <v>116</v>
       </c>
     </row>
@@ -6091,22 +6183,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="8" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
     </row>
   </sheetData>

--- a/latest/BoM/Positional/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Positional/pedalboard-hw-bom.xlsx
@@ -100,7 +100,7 @@
     <t>Device</t>
   </si>
   <si>
-    <t>C10</t>
+    <t>C23</t>
   </si>
   <si>
     <t>22p</t>
@@ -157,7 +157,7 @@
     <t>C</t>
   </si>
   <si>
-    <t>C31 C32</t>
+    <t>C7 C18</t>
   </si>
   <si>
     <t>27p</t>
@@ -184,7 +184,7 @@
     <t>3</t>
   </si>
   <si>
-    <t>C9</t>
+    <t>C24</t>
   </si>
   <si>
     <t>2n2</t>
@@ -196,7 +196,7 @@
     <t>4</t>
   </si>
   <si>
-    <t>C7 C8</t>
+    <t>C29 C30</t>
   </si>
   <si>
     <t>10n</t>
@@ -211,7 +211,7 @@
     <t>5</t>
   </si>
   <si>
-    <t>C1 C2 C3 C4 C5 C11 C19 C21 C23 C25 C26 C27 C29 C30 C33</t>
+    <t>C1 C5 C6 C8 C9 C10 C11 C14 C15 C16 C17 C20 C21 C22 C25</t>
   </si>
   <si>
     <t>100n</t>
@@ -235,22 +235,22 @@
     <t>6</t>
   </si>
   <si>
-    <t>C22 C24</t>
+    <t>C12 C13</t>
   </si>
   <si>
     <t>1u</t>
   </si>
   <si>
-    <t>82.7244</t>
-  </si>
-  <si>
-    <t>88.4644</t>
+    <t>84.1944</t>
+  </si>
+  <si>
+    <t>90.4944</t>
   </si>
   <si>
     <t>7</t>
   </si>
   <si>
-    <t>C6 C12 C14 C15 C16 C17 C18 C20</t>
+    <t>C2 C4 C19 C26 C27 C28 C31 C32</t>
   </si>
   <si>
     <t>22u</t>
@@ -277,7 +277,7 @@
     <t>C_Polarized</t>
   </si>
   <si>
-    <t>C13</t>
+    <t>C3</t>
   </si>
   <si>
     <t>270u</t>
@@ -313,7 +313,7 @@
     <t>pedalboard</t>
   </si>
   <si>
-    <t>CM4</t>
+    <t>CM1</t>
   </si>
   <si>
     <t>Raspberry-Pi-4-Compute-Module</t>
@@ -349,138 +349,162 @@
     <t>LED</t>
   </si>
   <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>LED G</t>
+  </si>
+  <si>
+    <t>LED_0805_2012Metric</t>
+  </si>
+  <si>
+    <t>LED_SMD</t>
+  </si>
+  <si>
+    <t>31.4944</t>
+  </si>
+  <si>
+    <t>62.9944</t>
+  </si>
+  <si>
+    <t>2.8500</t>
+  </si>
+  <si>
+    <t>1.4000</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>LED Y</t>
+  </si>
+  <si>
+    <t>60.9944</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>RGB LED with integrated controller</t>
+  </si>
+  <si>
+    <t>SK6812</t>
+  </si>
+  <si>
+    <t>D2 D3 D4 D7</t>
+  </si>
+  <si>
+    <t>LED_SK6812_PLCC4_5.0x5.0mm_P3.2mm</t>
+  </si>
+  <si>
+    <t>https://cdn-shop.adafruit.com/product-files/1138/SK6812+LED+datasheet+.pdf</t>
+  </si>
+  <si>
+    <t>/LEDs</t>
+  </si>
+  <si>
+    <t>pedalboard-hw(4)</t>
+  </si>
+  <si>
+    <t>49.4944</t>
+  </si>
+  <si>
+    <t>82.9944</t>
+  </si>
+  <si>
+    <t>6.4000</t>
+  </si>
+  <si>
+    <t>4.2000</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>100V 0.15A standard switching diode, DO-35</t>
+  </si>
+  <si>
+    <t>1N4148</t>
+  </si>
+  <si>
+    <t>Diode</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>SM4007</t>
+  </si>
+  <si>
+    <t>D_SOD-123F</t>
+  </si>
+  <si>
+    <t>Diode_SMD</t>
+  </si>
+  <si>
+    <t>https://www.mccsemi.com/pdf/Products/SM4001PL-SM4007PL(SOD-123FL).PDF</t>
+  </si>
+  <si>
+    <t>26.5944</t>
+  </si>
+  <si>
+    <t>98.5944</t>
+  </si>
+  <si>
+    <t>270.0000</t>
+  </si>
+  <si>
+    <t>3.9000</t>
+  </si>
+  <si>
+    <t>1.1000</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>20V 1A Schottky Barrier Rectifier Diode, DO-41</t>
+  </si>
+  <si>
+    <t>1N5817</t>
+  </si>
+  <si>
+    <t>D5 D8</t>
+  </si>
+  <si>
+    <t>SS34HF</t>
+  </si>
+  <si>
+    <t>D_SMA</t>
+  </si>
+  <si>
+    <t>http://www.vishay.com/docs/88525/1n5817.pdf</t>
+  </si>
+  <si>
+    <t>121.8944</t>
+  </si>
+  <si>
+    <t>74.0444</t>
+  </si>
+  <si>
+    <t>6.5000</t>
+  </si>
+  <si>
+    <t>1.8000</t>
+  </si>
+  <si>
+    <t>Schottky diode, small symbol</t>
+  </si>
+  <si>
+    <t>D_Schottky_Small</t>
+  </si>
+  <si>
     <t>D6</t>
   </si>
   <si>
-    <t>LED G</t>
-  </si>
-  <si>
-    <t>LED_0805_2012Metric</t>
-  </si>
-  <si>
-    <t>LED_SMD</t>
-  </si>
-  <si>
-    <t>31.4944</t>
-  </si>
-  <si>
-    <t>62.9944</t>
-  </si>
-  <si>
-    <t>2.8500</t>
-  </si>
-  <si>
-    <t>1.4000</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>D5</t>
-  </si>
-  <si>
-    <t>LED Y</t>
-  </si>
-  <si>
-    <t>60.9944</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>RGB LED with integrated controller</t>
-  </si>
-  <si>
-    <t>SK6812</t>
-  </si>
-  <si>
-    <t>D1 D2 D3 D4</t>
-  </si>
-  <si>
-    <t>LED_SK6812_PLCC4_5.0x5.0mm_P3.2mm</t>
-  </si>
-  <si>
-    <t>https://cdn-shop.adafruit.com/product-files/1138/SK6812+LED+datasheet+.pdf</t>
-  </si>
-  <si>
-    <t>/LEDs</t>
-  </si>
-  <si>
-    <t>pedalboard-hw(4)</t>
-  </si>
-  <si>
-    <t>49.4944</t>
-  </si>
-  <si>
-    <t>82.9944</t>
-  </si>
-  <si>
-    <t>6.4000</t>
-  </si>
-  <si>
-    <t>4.2000</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>100V 0.15A standard switching diode, DO-35</t>
-  </si>
-  <si>
-    <t>1N4148</t>
-  </si>
-  <si>
-    <t>Diode</t>
-  </si>
-  <si>
-    <t>D11</t>
-  </si>
-  <si>
-    <t>SM4007</t>
-  </si>
-  <si>
-    <t>D_SOD-123F</t>
-  </si>
-  <si>
-    <t>Diode_SMD</t>
-  </si>
-  <si>
-    <t>https://www.mccsemi.com/pdf/Products/SM4001PL-SM4007PL(SOD-123FL).PDF</t>
-  </si>
-  <si>
-    <t>26.5944</t>
-  </si>
-  <si>
-    <t>98.5944</t>
-  </si>
-  <si>
-    <t>270.0000</t>
-  </si>
-  <si>
-    <t>3.9000</t>
-  </si>
-  <si>
-    <t>1.1000</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>Schottky diode, small symbol</t>
-  </si>
-  <si>
-    <t>D_Schottky_Small</t>
-  </si>
-  <si>
-    <t>D7</t>
-  </si>
-  <si>
-    <t>SS34HF</t>
-  </si>
-  <si>
-    <t>D_SMA</t>
-  </si>
-  <si>
     <t>https://www.comchiptech.com/admin/files/product/20190514101641.pdf</t>
   </si>
   <si>
@@ -490,30 +514,6 @@
     <t>82.3944</t>
   </si>
   <si>
-    <t>6.5000</t>
-  </si>
-  <si>
-    <t>1.8000</t>
-  </si>
-  <si>
-    <t>20V 1A Schottky Barrier Rectifier Diode, DO-41</t>
-  </si>
-  <si>
-    <t>1N5817</t>
-  </si>
-  <si>
-    <t>D8 D9</t>
-  </si>
-  <si>
-    <t>http://www.vishay.com/docs/88525/1n5817.pdf</t>
-  </si>
-  <si>
-    <t>121.8944</t>
-  </si>
-  <si>
-    <t>74.0444</t>
-  </si>
-  <si>
     <t>16</t>
   </si>
   <si>
@@ -562,7 +562,7 @@
     <t>Connector</t>
   </si>
   <si>
-    <t>J13</t>
+    <t>J6</t>
   </si>
   <si>
     <t>Barrel_Jack_MountingPin</t>
@@ -601,906 +601,906 @@
     <t>Connector_Generic</t>
   </si>
   <si>
+    <t>J11</t>
+  </si>
+  <si>
+    <t>PinHeader_1x02_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>Connector_PinHeader_2.54mm</t>
+  </si>
+  <si>
+    <t>70.5944</t>
+  </si>
+  <si>
+    <t>76.9944</t>
+  </si>
+  <si>
+    <t>1.7000</t>
+  </si>
+  <si>
+    <t>4.2400</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>M Series, 6.35mm (1/4in) stereo jack, switched, with chrome ferrule and straight PCB pins</t>
+  </si>
+  <si>
+    <t>NMJ6HCD2</t>
+  </si>
+  <si>
+    <t>Connector_Audio</t>
+  </si>
+  <si>
+    <t>J7 J9 J16 J17 J18 J20</t>
+  </si>
+  <si>
+    <t>EXP1</t>
+  </si>
+  <si>
+    <t>Jack_6.35mm_Horizontal</t>
+  </si>
+  <si>
+    <t>https://www.schurter.com/en/datasheet/typ_4833.2320.pdf</t>
+  </si>
+  <si>
+    <t>pedalboard-hw(6)</t>
+  </si>
+  <si>
+    <t>157.6094</t>
+  </si>
+  <si>
+    <t>97.1944</t>
+  </si>
+  <si>
+    <t>15.7000</t>
+  </si>
+  <si>
+    <t>19.2300</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Generic connector, single row, 01x03, script generated</t>
+  </si>
+  <si>
+    <t>Conn_01x03_Pin</t>
+  </si>
+  <si>
+    <t>J23 J24 J26</t>
+  </si>
+  <si>
+    <t>EXT-MIDI</t>
+  </si>
+  <si>
+    <t>JST_XH_B3B-XH-A_1x03_P2.50mm_Vertical</t>
+  </si>
+  <si>
+    <t>Connector_JST</t>
+  </si>
+  <si>
+    <t>pedalboard-hw(3)</t>
+  </si>
+  <si>
+    <t>31.5944</t>
+  </si>
+  <si>
+    <t>102.5194</t>
+  </si>
+  <si>
+    <t>bottom</t>
+  </si>
+  <si>
+    <t>6.7000</t>
+  </si>
+  <si>
+    <t>1.9500</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>Raspberry_Pi_2_3</t>
+  </si>
+  <si>
+    <t>J25</t>
+  </si>
+  <si>
+    <t>HiFi Berry</t>
+  </si>
+  <si>
+    <t>HiFi Berry DAC ADC+</t>
+  </si>
+  <si>
+    <t>https://www.hifiberry.com/docs/data-sheets/datasheet-dac-adc-pro/</t>
+  </si>
+  <si>
+    <t>102.2444</t>
+  </si>
+  <si>
+    <t>62.6188</t>
+  </si>
+  <si>
+    <t>41.4500</t>
+  </si>
+  <si>
+    <t>55.0150</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>Generic connector, double row, 02x02, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+  </si>
+  <si>
+    <t>Conn_02x02_Odd_Even</t>
+  </si>
+  <si>
+    <t>J8 J13 J14 J19 J21 J22</t>
+  </si>
+  <si>
+    <t>LED-Ring</t>
+  </si>
+  <si>
+    <t>Led-Ring</t>
+  </si>
+  <si>
+    <t>10.9944</t>
+  </si>
+  <si>
+    <t>74.9944</t>
+  </si>
+  <si>
+    <t>3.3500</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>Audio Jack, 3 Poles (Stereo / TRS), Switched TR Poles (Normalling)</t>
+  </si>
+  <si>
+    <t>AudioJack3_SwitchTR</t>
+  </si>
+  <si>
+    <t>J2 J4</t>
+  </si>
+  <si>
+    <t>MIDI IN J</t>
+  </si>
+  <si>
+    <t>Jack_3.5mm_CUI_SJ1-3525N_Horizontal</t>
+  </si>
+  <si>
+    <t>https://www.cuidevices.com/product/resource/sj1-352xng.pdf</t>
+  </si>
+  <si>
+    <t>71.9889</t>
+  </si>
+  <si>
+    <t>106.4944</t>
+  </si>
+  <si>
+    <t>11.2000</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>5-pin DIN connector (5-pin DIN-5 stereo)</t>
+  </si>
+  <si>
+    <t>DIN-5_180degree</t>
+  </si>
+  <si>
+    <t>J1 J3</t>
+  </si>
+  <si>
+    <t>MIDI_IN</t>
+  </si>
+  <si>
+    <t>CP-2350</t>
+  </si>
+  <si>
+    <t>https://www.switchcraft.com/assets/1/24/57PC5F_CD.pdf</t>
+  </si>
+  <si>
+    <t>71.9944</t>
+  </si>
+  <si>
+    <t>108.9944</t>
+  </si>
+  <si>
+    <t>17.5000</t>
+  </si>
+  <si>
+    <t>14.7500</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>USB_B_Micro-Connector</t>
+  </si>
+  <si>
+    <t>RP2040_minimal-rescue</t>
+  </si>
+  <si>
+    <t>J10</t>
+  </si>
+  <si>
+    <t>USB_B_Micro</t>
+  </si>
+  <si>
+    <t>USB_Micro-B_Wuerth_614105150721_Vertical</t>
+  </si>
+  <si>
+    <t>63.5344</t>
+  </si>
+  <si>
+    <t>74.7044</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t>2.1250</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>Inductor</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>L5</t>
+  </si>
+  <si>
+    <t>12u</t>
+  </si>
+  <si>
+    <t>L_Coilcraft_XAL6030-XXX</t>
+  </si>
+  <si>
+    <t>Inductor_SMD</t>
+  </si>
+  <si>
+    <t>145.1944</t>
+  </si>
+  <si>
+    <t>5.4700</t>
+  </si>
+  <si>
+    <t>5.5000</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Inductor with ferrite core</t>
+  </si>
+  <si>
+    <t>L_Ferrite</t>
+  </si>
+  <si>
+    <t>L1 L2 L3 L4</t>
+  </si>
+  <si>
+    <t>120_100MHz</t>
+  </si>
+  <si>
+    <t>L_0603_1608Metric</t>
+  </si>
+  <si>
+    <t>https://www.murata.com/products/productdata/8796738650142/ENFA0003.pdf</t>
+  </si>
+  <si>
+    <t>24.6944</t>
+  </si>
+  <si>
+    <t>99.2444</t>
+  </si>
+  <si>
+    <t>2.4500</t>
+  </si>
+  <si>
+    <t>0.9500</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>FDS4435BZ</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>SO08-E3</t>
+  </si>
+  <si>
+    <t>https://rocelec.widen.net/view/pdf/rwygqx6rjd/FAIRS27615-1.pdf</t>
+  </si>
+  <si>
+    <t>141.8544</t>
+  </si>
+  <si>
+    <t>102.8344</t>
+  </si>
+  <si>
+    <t>4.4150</t>
+  </si>
+  <si>
+    <t>7.4000</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>Resistor</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R_0805_2012Metric</t>
+  </si>
+  <si>
+    <t>Resistor_SMD</t>
+  </si>
+  <si>
+    <t>https://www.seielect.com/catalog/sei-rncp.pdf</t>
+  </si>
+  <si>
+    <t>37.8944</t>
+  </si>
+  <si>
+    <t>93.4444</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>R7 R9</t>
+  </si>
+  <si>
+    <t>80.1344</t>
+  </si>
+  <si>
+    <t>86.5344</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>https://www.seielect.com/catalog/sei-rmcf_rmcp.pdf</t>
+  </si>
+  <si>
+    <t>95.3819</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>R3 R6</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>22.9944</t>
+  </si>
+  <si>
+    <t>102.3944</t>
+  </si>
+  <si>
+    <t>R4 R5 R8 R11 R15 R16</t>
+  </si>
+  <si>
+    <t>1K</t>
+  </si>
+  <si>
+    <t>153.0944</t>
+  </si>
+  <si>
+    <t>100.1644</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>Resistor, small symbol</t>
+  </si>
+  <si>
+    <t>R_Small</t>
+  </si>
+  <si>
+    <t>R14</t>
+  </si>
+  <si>
+    <t>1k91</t>
+  </si>
+  <si>
+    <t>https://www.vishay.com/docs/20035/dcrcwe3.pdf</t>
+  </si>
+  <si>
+    <t>134.8944</t>
+  </si>
+  <si>
+    <t>77.4944</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>R13</t>
+  </si>
+  <si>
+    <t>10k</t>
+  </si>
+  <si>
+    <t>134.5944</t>
+  </si>
+  <si>
+    <t>72.5944</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>R12</t>
+  </si>
+  <si>
+    <t>12k1</t>
+  </si>
+  <si>
+    <t>138.1944</t>
+  </si>
+  <si>
+    <t>73.5944</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>Omron B3FS 6x6mm single pole normally-open tactile switch</t>
+  </si>
+  <si>
+    <t>SW_Omron_B3FS</t>
+  </si>
+  <si>
+    <t>Switch</t>
+  </si>
+  <si>
+    <t>SW6</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>SW_PUSH-12mm_Wuerth</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/components/products/datasheet/430172043816.pdf</t>
+  </si>
+  <si>
+    <t>11.9944</t>
+  </si>
+  <si>
+    <t>16.0000</t>
+  </si>
+  <si>
+    <t>6.8000</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>SW7</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>86.9944</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>SW8</t>
+  </si>
+  <si>
+    <t>161.9944</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>SW3</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>63.9944</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>SW4</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>SW5</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>Rotary encoder, dual channel, incremental quadrate outputs, with switch</t>
+  </si>
+  <si>
+    <t>RotaryEncoder_Switch</t>
+  </si>
+  <si>
+    <t>SW2</t>
+  </si>
+  <si>
+    <t>GAIN Rotary</t>
+  </si>
+  <si>
+    <t>RotaryEncoder_Alps_EC11E-Switch_Vertical_H20mm_CircularMountingHoles</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/components/products/datasheet/482016514001.pdf</t>
+  </si>
+  <si>
+    <t>117.2444</t>
+  </si>
+  <si>
+    <t>99.4944</t>
+  </si>
+  <si>
+    <t>16.5000</t>
+  </si>
+  <si>
+    <t>14.4000</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>SW1</t>
+  </si>
+  <si>
+    <t>VOL Rotary</t>
+  </si>
+  <si>
+    <t>42.2444</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>74AHCT1G32SE-7</t>
+  </si>
+  <si>
+    <t>U2 U7</t>
+  </si>
+  <si>
+    <t>SOT-353_SC-70-5</t>
+  </si>
+  <si>
+    <t>Package_TO_SOT_SMD</t>
+  </si>
+  <si>
+    <t>https://www.diodes.com/assets/Datasheets/74AHCT1G32.pdf</t>
+  </si>
+  <si>
+    <t>55.1944</t>
+  </si>
+  <si>
+    <t>84.0444</t>
+  </si>
+  <si>
+    <t>2.5500</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>1A Low drop-out regulator, Fixed Output 3.3V, SOT-223</t>
+  </si>
+  <si>
+    <t>NCP1117-3.3_SOT223</t>
+  </si>
+  <si>
+    <t>Regulator_Linear</t>
+  </si>
+  <si>
+    <t>U5</t>
+  </si>
+  <si>
+    <t>SOT-223-3_TabPin2</t>
+  </si>
+  <si>
+    <t>http://www.onsemi.com/pub_link/Collateral/NCP1117-D.PDF</t>
+  </si>
+  <si>
+    <t>115.6444</t>
+  </si>
+  <si>
+    <t>74.1444</t>
+  </si>
+  <si>
+    <t>8.3000</t>
+  </si>
+  <si>
+    <t>6.1000</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>RP2040</t>
+  </si>
+  <si>
+    <t>MCU_RaspberryPi_RP2040</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>RP2040-QFN-56</t>
+  </si>
+  <si>
+    <t>89.3944</t>
+  </si>
+  <si>
+    <t>85.3944</t>
+  </si>
+  <si>
+    <t>7.7500</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>15-Mbps inverting photocouple,5 kVrms, 2.7 - 5.5 Vdd, push-pull output</t>
+  </si>
+  <si>
+    <t>TLP2761</t>
+  </si>
+  <si>
+    <t>Isolator</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>SO-6L_10x3.84mm_P1.27mm</t>
+  </si>
+  <si>
+    <t>Package_SO</t>
+  </si>
+  <si>
+    <t>https://toshiba.semicon-storage.com/info/docget.jsp?did=28819&amp;prodName=TLP2761</t>
+  </si>
+  <si>
+    <t>33.3944</t>
+  </si>
+  <si>
+    <t>10.8000</t>
+  </si>
+  <si>
+    <t>3.3400</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.5V to 28V Input, 3A, Step-Down Converter with Eco-mode(tm)</t>
+  </si>
+  <si>
+    <t>TPS54331</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>U6</t>
+  </si>
+  <si>
+    <t>SOIC-8_3.9x4.9mm_P1.27mm</t>
+  </si>
+  <si>
+    <t>https://www.ti.com/lit/ds/symlink/tps54331.pdf</t>
+  </si>
+  <si>
+    <t>138.6944</t>
+  </si>
+  <si>
+    <t>81.6944</t>
+  </si>
+  <si>
+    <t>6.9000</t>
+  </si>
+  <si>
+    <t>4.4100</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>W25Q128JVS-Memory_Flash</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>W25Q128JVS</t>
+  </si>
+  <si>
+    <t>SOIC-8_5.23x5.23mm_P1.27mm</t>
+  </si>
+  <si>
+    <t>http://www.winbond.com/resource-files/w25q128jv_dtr%20revc%2003272018%20plus.pdf</t>
+  </si>
+  <si>
+    <t>81.4944</t>
+  </si>
+  <si>
+    <t>78.5444</t>
+  </si>
+  <si>
+    <t>8.8000</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>Two pin crystal</t>
+  </si>
+  <si>
+    <t>Crystal</t>
+  </si>
+  <si>
+    <t>Y1</t>
+  </si>
+  <si>
+    <t>ABLS-12.000MHZ-B4-T</t>
+  </si>
+  <si>
+    <t>Crystal_SMD_HC49-US</t>
+  </si>
+  <si>
+    <t>99.9944</t>
+  </si>
+  <si>
+    <t>74.8944</t>
+  </si>
+  <si>
+    <t>14.6000</t>
+  </si>
+  <si>
+    <t>2.1000</t>
+  </si>
+  <si>
+    <t>KiBot Bill of Materials</t>
+  </si>
+  <si>
+    <t>Schematic:</t>
+  </si>
+  <si>
+    <t>pedalboard-hw</t>
+  </si>
+  <si>
+    <t>Variant:</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>Revision:</t>
+  </si>
+  <si>
+    <t>3.0.0-RC1</t>
+  </si>
+  <si>
+    <t>Date:</t>
+  </si>
+  <si>
+    <t>2023-09-10</t>
+  </si>
+  <si>
+    <t>KiCad Version:</t>
+  </si>
+  <si>
+    <t>7.0.8-7.0.8~ubuntu23.04.1</t>
+  </si>
+  <si>
+    <t>Component Groups:</t>
+  </si>
+  <si>
+    <t>Component Count:</t>
+  </si>
+  <si>
+    <t>108 (80 SMD/ 26 THT)</t>
+  </si>
+  <si>
+    <t>Fitted Components:</t>
+  </si>
+  <si>
+    <t>104 (79 SMD/ 23 THT)</t>
+  </si>
+  <si>
+    <t>Number of PCBs:</t>
+  </si>
+  <si>
+    <t>Total Components:</t>
+  </si>
+  <si>
+    <t>J12 J15</t>
+  </si>
+  <si>
+    <t>Debug</t>
+  </si>
+  <si>
+    <t>PinHeader_1x03_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (DNF)</t>
+  </si>
+  <si>
+    <t>107.8544</t>
+  </si>
+  <si>
+    <t>86.6944</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>6.7800</t>
+  </si>
+  <si>
+    <t>Generic screw terminal, single row, 01x02, script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+  </si>
+  <si>
+    <t>Screw_Terminal_01x02</t>
+  </si>
+  <si>
     <t>J5</t>
   </si>
   <si>
-    <t>PinHeader_1x02_P2.54mm_Vertical</t>
-  </si>
-  <si>
-    <t>Connector_PinHeader_2.54mm</t>
-  </si>
-  <si>
-    <t>70.5944</t>
-  </si>
-  <si>
-    <t>76.9944</t>
-  </si>
-  <si>
-    <t>1.7000</t>
-  </si>
-  <si>
-    <t>4.2400</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>M Series, 6.35mm (1/4in) stereo jack, switched, with chrome ferrule and straight PCB pins</t>
-  </si>
-  <si>
-    <t>NMJ6HCD2</t>
-  </si>
-  <si>
-    <t>Connector_Audio</t>
-  </si>
-  <si>
-    <t>J3 J9 J10 J11 J12 J15</t>
-  </si>
-  <si>
-    <t>EXP1</t>
-  </si>
-  <si>
-    <t>Jack_6.35mm_Horizontal</t>
-  </si>
-  <si>
-    <t>https://www.schurter.com/en/datasheet/typ_4833.2320.pdf</t>
-  </si>
-  <si>
-    <t>pedalboard-hw(6)</t>
-  </si>
-  <si>
-    <t>157.6094</t>
-  </si>
-  <si>
-    <t>97.1944</t>
-  </si>
-  <si>
-    <t>15.7000</t>
-  </si>
-  <si>
-    <t>19.2300</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>Raspberry_Pi_2_3</t>
-  </si>
-  <si>
-    <t>J8</t>
-  </si>
-  <si>
-    <t>HiFi Berry</t>
-  </si>
-  <si>
-    <t>HiFi Berry DAC ADC+</t>
-  </si>
-  <si>
-    <t>https://www.hifiberry.com/docs/data-sheets/datasheet-dac-adc-pro/</t>
-  </si>
-  <si>
-    <t>102.2444</t>
-  </si>
-  <si>
-    <t>62.6188</t>
-  </si>
-  <si>
-    <t>bottom</t>
-  </si>
-  <si>
-    <t>41.4500</t>
-  </si>
-  <si>
-    <t>55.0150</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>Generic connector, double row, 02x02, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
-    <t>Conn_02x02_Odd_Even</t>
-  </si>
-  <si>
-    <t>J18 J19 J20 J21 J22 J23</t>
-  </si>
-  <si>
-    <t>LED-Ring</t>
-  </si>
-  <si>
-    <t>Led-Ring</t>
-  </si>
-  <si>
-    <t>160.9944</t>
-  </si>
-  <si>
-    <t>74.9944</t>
-  </si>
-  <si>
-    <t>3.3500</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>Audio Jack, 3 Poles (Stereo / TRS), Switched TR Poles (Normalling)</t>
-  </si>
-  <si>
-    <t>AudioJack3_SwitchTR</t>
-  </si>
-  <si>
-    <t>J16 J17</t>
-  </si>
-  <si>
-    <t>MIDI OUT J</t>
-  </si>
-  <si>
-    <t>Jack_3.5mm_CUI_SJ1-3525N_Horizontal</t>
-  </si>
-  <si>
-    <t>https://www.cuidevices.com/product/resource/sj1-352xng.pdf</t>
-  </si>
-  <si>
-    <t>101.9944</t>
-  </si>
-  <si>
-    <t>106.4944</t>
-  </si>
-  <si>
-    <t>11.2000</t>
-  </si>
-  <si>
-    <t>6.7000</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>5-pin DIN connector (5-pin DIN-5 stereo)</t>
-  </si>
-  <si>
-    <t>DIN-5_180degree</t>
-  </si>
-  <si>
-    <t>J1 J2</t>
-  </si>
-  <si>
-    <t>MIDI_OUT</t>
-  </si>
-  <si>
-    <t>CP-2350</t>
-  </si>
-  <si>
-    <t>https://www.switchcraft.com/assets/1/24/57PC5F_CD.pdf</t>
-  </si>
-  <si>
-    <t>108.9944</t>
-  </si>
-  <si>
-    <t>17.5000</t>
-  </si>
-  <si>
-    <t>14.7500</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>Generic connector, single row, 01x03, script generated</t>
-  </si>
-  <si>
-    <t>Conn_01x03_Pin</t>
-  </si>
-  <si>
-    <t>J4 J24 J25</t>
-  </si>
-  <si>
-    <t>RGB_LED_EXT</t>
-  </si>
-  <si>
-    <t>JST_XH_B3B-XH-A_1x03_P2.50mm_Vertical</t>
-  </si>
-  <si>
-    <t>Connector_JST</t>
-  </si>
-  <si>
-    <t>https://www.we-online.com/components/products/datasheet/6130xx11021.pdf</t>
-  </si>
-  <si>
-    <t>pedalboard-hw(3)</t>
-  </si>
-  <si>
-    <t>24.8944</t>
-  </si>
-  <si>
-    <t>3.8944</t>
-  </si>
-  <si>
-    <t>1.9500</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>USB_B_Micro-Connector</t>
-  </si>
-  <si>
-    <t>RP2040_minimal-rescue</t>
-  </si>
-  <si>
-    <t>J7</t>
-  </si>
-  <si>
-    <t>USB_B_Micro</t>
-  </si>
-  <si>
-    <t>USB_Micro-B_Wuerth_614105150721_Vertical</t>
-  </si>
-  <si>
-    <t>63.5344</t>
-  </si>
-  <si>
-    <t>74.7044</t>
-  </si>
-  <si>
-    <t>8.0000</t>
-  </si>
-  <si>
-    <t>2.1250</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>Inductor</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>L5</t>
-  </si>
-  <si>
-    <t>12u</t>
-  </si>
-  <si>
-    <t>L_Coilcraft_XAL6030-XXX</t>
-  </si>
-  <si>
-    <t>Inductor_SMD</t>
-  </si>
-  <si>
-    <t>145.1944</t>
-  </si>
-  <si>
-    <t>5.4700</t>
-  </si>
-  <si>
-    <t>5.5000</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>Inductor with ferrite core</t>
-  </si>
-  <si>
-    <t>L_Ferrite</t>
-  </si>
-  <si>
-    <t>L1 L2 L3 L4</t>
-  </si>
-  <si>
-    <t>120_100MHz</t>
-  </si>
-  <si>
-    <t>L_0603_1608Metric</t>
-  </si>
-  <si>
-    <t>https://www.murata.com/products/productdata/8796738650142/ENFA0003.pdf</t>
-  </si>
-  <si>
-    <t>24.6944</t>
-  </si>
-  <si>
-    <t>102.4944</t>
-  </si>
-  <si>
-    <t>2.4500</t>
-  </si>
-  <si>
-    <t>0.9500</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>FDS4435BZ</t>
-  </si>
-  <si>
-    <t>Q1</t>
-  </si>
-  <si>
-    <t>SO08-E3</t>
-  </si>
-  <si>
-    <t>https://rocelec.widen.net/view/pdf/rwygqx6rjd/FAIRS27615-1.pdf</t>
-  </si>
-  <si>
-    <t>141.8544</t>
-  </si>
-  <si>
-    <t>102.8344</t>
-  </si>
-  <si>
-    <t>4.4150</t>
-  </si>
-  <si>
-    <t>7.4000</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>Resistor</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>R4</t>
-  </si>
-  <si>
-    <t>R_0805_2012Metric</t>
-  </si>
-  <si>
-    <t>Resistor_SMD</t>
-  </si>
-  <si>
-    <t>https://www.seielect.com/catalog/sei-rncp.pdf</t>
-  </si>
-  <si>
-    <t>37.8944</t>
-  </si>
-  <si>
-    <t>93.4444</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>R10 R11</t>
-  </si>
-  <si>
-    <t>80.1344</t>
-  </si>
-  <si>
-    <t>84.6344</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>R3</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>https://www.seielect.com/catalog/sei-rmcf_rmcp.pdf</t>
-  </si>
-  <si>
-    <t>95.3819</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>R1 R5</t>
-  </si>
-  <si>
-    <t>220</t>
-  </si>
-  <si>
-    <t>22.9944</t>
-  </si>
-  <si>
-    <t>102.3944</t>
-  </si>
-  <si>
-    <t>R2 R6 R12 R13 R14 R15</t>
-  </si>
-  <si>
-    <t>1k</t>
-  </si>
-  <si>
-    <t>31.5444</t>
-  </si>
-  <si>
-    <t>59.0444</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>Resistor, small symbol</t>
-  </si>
-  <si>
-    <t>R_Small</t>
-  </si>
-  <si>
-    <t>R9</t>
-  </si>
-  <si>
-    <t>1k91</t>
-  </si>
-  <si>
-    <t>https://www.vishay.com/docs/20035/dcrcwe3.pdf</t>
-  </si>
-  <si>
-    <t>134.8944</t>
-  </si>
-  <si>
-    <t>77.4944</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>R8</t>
-  </si>
-  <si>
-    <t>10k</t>
-  </si>
-  <si>
-    <t>134.5944</t>
-  </si>
-  <si>
-    <t>72.5944</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>R7</t>
-  </si>
-  <si>
-    <t>12k1</t>
-  </si>
-  <si>
-    <t>138.1944</t>
-  </si>
-  <si>
-    <t>73.5944</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>Omron B3FS 6x6mm single pole normally-open tactile switch</t>
-  </si>
-  <si>
-    <t>SW_Omron_B3FS</t>
-  </si>
-  <si>
-    <t>Switch</t>
-  </si>
-  <si>
-    <t>SW4</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>SW_PUSH-12mm_Wuerth</t>
-  </si>
-  <si>
-    <t>https://www.we-online.com/components/products/datasheet/430172043816.pdf</t>
-  </si>
-  <si>
-    <t>11.9944</t>
-  </si>
-  <si>
-    <t>16.0000</t>
-  </si>
-  <si>
-    <t>6.8000</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>SW5</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>86.9944</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>SW6</t>
-  </si>
-  <si>
-    <t>161.9944</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>SW1</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>63.9944</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>SW2</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>SW3</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>Rotary encoder, dual channel, incremental quadrate outputs, with switch</t>
-  </si>
-  <si>
-    <t>RotaryEncoder_Switch</t>
-  </si>
-  <si>
-    <t>SW8</t>
-  </si>
-  <si>
-    <t>GAIN Rotary</t>
-  </si>
-  <si>
-    <t>RotaryEncoder_Alps_EC11E-Switch_Vertical_H20mm_CircularMountingHoles</t>
-  </si>
-  <si>
-    <t>https://www.we-online.com/components/products/datasheet/482016514001.pdf</t>
-  </si>
-  <si>
-    <t>117.2444</t>
-  </si>
-  <si>
-    <t>99.4944</t>
-  </si>
-  <si>
-    <t>16.5000</t>
-  </si>
-  <si>
-    <t>14.4000</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>SW7</t>
-  </si>
-  <si>
-    <t>VOL Rotary</t>
-  </si>
-  <si>
-    <t>42.2444</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>74AHCT1G32SE-7</t>
-  </si>
-  <si>
-    <t>U3 U4</t>
-  </si>
-  <si>
-    <t>SOT-353_SC-70-5</t>
-  </si>
-  <si>
-    <t>https://www.diodes.com/assets/Datasheets/74AHCT1G32.pdf</t>
-  </si>
-  <si>
-    <t>55.1944</t>
-  </si>
-  <si>
-    <t>84.0444</t>
-  </si>
-  <si>
-    <t>2.5500</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>1A Low drop-out regulator, Fixed Output 3.3V, SOT-223</t>
-  </si>
-  <si>
-    <t>NCP1117-3.3_SOT223</t>
-  </si>
-  <si>
-    <t>Regulator_Linear</t>
-  </si>
-  <si>
-    <t>U6</t>
-  </si>
-  <si>
-    <t>SOT-223-3_TabPin2</t>
-  </si>
-  <si>
-    <t>Package_TO_SOT_SMD</t>
-  </si>
-  <si>
-    <t>http://www.onsemi.com/pub_link/Collateral/NCP1117-D.PDF</t>
-  </si>
-  <si>
-    <t>115.6444</t>
-  </si>
-  <si>
-    <t>74.1444</t>
-  </si>
-  <si>
-    <t>8.3000</t>
-  </si>
-  <si>
-    <t>6.1000</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>RP2040</t>
-  </si>
-  <si>
-    <t>MCU_RaspberryPi_RP2040</t>
-  </si>
-  <si>
-    <t>U7</t>
-  </si>
-  <si>
-    <t>RP2040-QFN-56</t>
-  </si>
-  <si>
-    <t>89.3944</t>
-  </si>
-  <si>
-    <t>85.3944</t>
-  </si>
-  <si>
-    <t>7.7500</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>15-Mbps inverting photocouple,5 kVrms, 2.7 - 5.5 Vdd, push-pull output</t>
-  </si>
-  <si>
-    <t>TLP2761</t>
-  </si>
-  <si>
-    <t>Isolator</t>
-  </si>
-  <si>
-    <t>U2</t>
-  </si>
-  <si>
-    <t>SO-6L_10x3.84mm_P1.27mm</t>
-  </si>
-  <si>
-    <t>Package_SO</t>
-  </si>
-  <si>
-    <t>https://toshiba.semicon-storage.com/info/docget.jsp?did=28819&amp;prodName=TLP2761</t>
-  </si>
-  <si>
-    <t>33.3944</t>
-  </si>
-  <si>
-    <t>10.8000</t>
-  </si>
-  <si>
-    <t>3.3400</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.5V to 28V Input, 3A, Step-Down Converter with Eco-mode(tm)</t>
-  </si>
-  <si>
-    <t>TPS54331</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t>U5</t>
-  </si>
-  <si>
-    <t>SOIC-8_3.9x4.9mm_P1.27mm</t>
-  </si>
-  <si>
-    <t>https://www.ti.com/lit/ds/symlink/tps54331.pdf</t>
-  </si>
-  <si>
-    <t>138.6944</t>
-  </si>
-  <si>
-    <t>81.6944</t>
-  </si>
-  <si>
-    <t>6.9000</t>
-  </si>
-  <si>
-    <t>4.4100</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>W25Q128JVS-Memory_Flash</t>
-  </si>
-  <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>W25Q128JVS</t>
-  </si>
-  <si>
-    <t>SOIC-8_5.23x5.23mm_P1.27mm</t>
-  </si>
-  <si>
-    <t>http://www.winbond.com/resource-files/w25q128jv_dtr%20revc%2003272018%20plus.pdf</t>
-  </si>
-  <si>
-    <t>81.4944</t>
-  </si>
-  <si>
-    <t>78.5444</t>
-  </si>
-  <si>
-    <t>8.8000</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>Two pin crystal</t>
-  </si>
-  <si>
-    <t>Crystal</t>
-  </si>
-  <si>
-    <t>Y1</t>
-  </si>
-  <si>
-    <t>ABLS-12.000MHZ-B4-T</t>
-  </si>
-  <si>
-    <t>Crystal_SMD_HC49-US</t>
-  </si>
-  <si>
-    <t>99.9944</t>
-  </si>
-  <si>
-    <t>74.8944</t>
-  </si>
-  <si>
-    <t>14.6000</t>
-  </si>
-  <si>
-    <t>2.1000</t>
-  </si>
-  <si>
-    <t>KiBot Bill of Materials</t>
-  </si>
-  <si>
-    <t>Schematic:</t>
-  </si>
-  <si>
-    <t>pedalboard-hw</t>
-  </si>
-  <si>
-    <t>Variant:</t>
-  </si>
-  <si>
-    <t>default</t>
-  </si>
-  <si>
-    <t>Revision:</t>
-  </si>
-  <si>
-    <t>3.0.0-RC1</t>
-  </si>
-  <si>
-    <t>Date:</t>
-  </si>
-  <si>
-    <t>2023-09-10</t>
-  </si>
-  <si>
-    <t>KiCad Version:</t>
-  </si>
-  <si>
-    <t>7.0.8-7.0.8~ubuntu23.04.1</t>
-  </si>
-  <si>
-    <t>Component Groups:</t>
-  </si>
-  <si>
-    <t>Component Count:</t>
-  </si>
-  <si>
-    <t>108 (80 SMD/ 26 THT)</t>
-  </si>
-  <si>
-    <t>Fitted Components:</t>
-  </si>
-  <si>
-    <t>104 (79 SMD/ 23 THT)</t>
-  </si>
-  <si>
-    <t>Number of PCBs:</t>
-  </si>
-  <si>
-    <t>Total Components:</t>
-  </si>
-  <si>
-    <t>J6 J14</t>
-  </si>
-  <si>
-    <t>Debug</t>
-  </si>
-  <si>
-    <t>PinHeader_1x03_P2.54mm_Vertical</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (DNF)</t>
-  </si>
-  <si>
-    <t>89.2194</t>
-  </si>
-  <si>
-    <t>49.6944</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>6.7800</t>
-  </si>
-  <si>
-    <t>Generic screw terminal, single row, 01x02, script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
-    <t>Screw_Terminal_01x02</t>
-  </si>
-  <si>
-    <t>J26</t>
-  </si>
-  <si>
     <t>TerminalBlock_Phoenix_MKDS-1,5-2_1x02_P5.00mm_Horizontal</t>
   </si>
   <si>
@@ -1516,7 +1516,7 @@
     <t>2.6000</t>
   </si>
   <si>
-    <t>R16</t>
+    <t>R10</t>
   </si>
   <si>
     <t>DNF</t>
@@ -3165,7 +3165,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="30" customHeight="1">
+    <row r="22" spans="1:22">
       <c r="A22" s="9" t="s">
         <v>147</v>
       </c>
@@ -3176,7 +3176,7 @@
         <v>149</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>25</v>
+        <v>136</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>150</v>
@@ -3191,10 +3191,10 @@
         <v>140</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="K22" s="9" t="s">
         <v>30</v>
@@ -3206,7 +3206,7 @@
         <v>32</v>
       </c>
       <c r="N22" s="9" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="O22" s="11" t="s">
         <v>154</v>
@@ -3215,7 +3215,7 @@
         <v>155</v>
       </c>
       <c r="Q22" s="11" t="s">
-        <v>36</v>
+        <v>144</v>
       </c>
       <c r="R22" s="11" t="s">
         <v>37</v>
@@ -3233,7 +3233,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" spans="1:22" ht="30" customHeight="1">
       <c r="A23" s="5" t="s">
         <v>65</v>
       </c>
@@ -3244,7 +3244,7 @@
         <v>159</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>136</v>
+        <v>25</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>160</v>
@@ -3259,10 +3259,10 @@
         <v>140</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="K23" s="5" t="s">
         <v>30</v>
@@ -3274,7 +3274,7 @@
         <v>32</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>162</v>
@@ -3283,7 +3283,7 @@
         <v>163</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>144</v>
+        <v>36</v>
       </c>
       <c r="R23" s="7" t="s">
         <v>37</v>
@@ -3573,60 +3573,60 @@
         <v>212</v>
       </c>
     </row>
-    <row r="28" spans="1:22" ht="30" customHeight="1">
+    <row r="28" spans="1:22">
       <c r="A28" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="B28" s="12" t="s">
-        <v>31</v>
+      <c r="B28" s="10" t="s">
+        <v>214</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>179</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>99</v>
+        <v>219</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="K28" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="L28" s="11" t="s">
-        <v>218</v>
+      <c r="L28" s="12" t="s">
+        <v>47</v>
       </c>
       <c r="M28" s="11" t="s">
-        <v>101</v>
+        <v>48</v>
       </c>
       <c r="N28" s="9" t="s">
-        <v>33</v>
+        <v>220</v>
       </c>
       <c r="O28" s="11" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="P28" s="11" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q28" s="11" t="s">
         <v>52</v>
       </c>
       <c r="R28" s="11" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="S28" s="11" t="s">
         <v>186</v>
@@ -3635,66 +3635,66 @@
         <v>39</v>
       </c>
       <c r="U28" s="11" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="V28" s="11" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" ht="45" customHeight="1">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" ht="30" customHeight="1">
       <c r="A29" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>225</v>
+        <v>226</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H29" s="7" t="s">
         <v>99</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="K29" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L29" s="8" t="s">
-        <v>47</v>
+      <c r="L29" s="7" t="s">
+        <v>231</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="N29" s="5" t="s">
-        <v>208</v>
+        <v>33</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="R29" s="7" t="s">
-        <v>37</v>
+        <v>223</v>
       </c>
       <c r="S29" s="7" t="s">
         <v>186</v>
@@ -3703,63 +3703,63 @@
         <v>39</v>
       </c>
       <c r="U29" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="V29" s="7" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" ht="30" customHeight="1">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" ht="45" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="H30" s="11" t="s">
         <v>99</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="K30" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="L30" s="11" t="s">
-        <v>239</v>
+      <c r="L30" s="12" t="s">
+        <v>47</v>
       </c>
       <c r="M30" s="11" t="s">
-        <v>48</v>
+        <v>127</v>
       </c>
       <c r="N30" s="9" t="s">
-        <v>49</v>
+        <v>208</v>
       </c>
       <c r="O30" s="11" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="P30" s="11" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q30" s="11" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="R30" s="11" t="s">
         <v>37</v>
@@ -3771,33 +3771,33 @@
         <v>39</v>
       </c>
       <c r="U30" s="11" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="V30" s="11" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" ht="30" customHeight="1">
       <c r="A31" s="5" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H31" s="7" t="s">
         <v>99</v>
@@ -3812,7 +3812,7 @@
         <v>30</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M31" s="7" t="s">
         <v>48</v>
@@ -3821,10 +3821,10 @@
         <v>49</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>52</v>
@@ -3833,48 +3833,48 @@
         <v>37</v>
       </c>
       <c r="S31" s="7" t="s">
-        <v>38</v>
+        <v>186</v>
       </c>
       <c r="T31" s="7" t="s">
         <v>39</v>
       </c>
       <c r="U31" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="V31" s="7" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" ht="30" customHeight="1">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
       <c r="A32" s="9" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D32" s="11" t="s">
         <v>179</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>260</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="K32" s="9" t="s">
         <v>30</v>
@@ -3883,31 +3883,31 @@
         <v>261</v>
       </c>
       <c r="M32" s="11" t="s">
-        <v>127</v>
+        <v>48</v>
       </c>
       <c r="N32" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="O32" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="O32" s="11" t="s">
+      <c r="P32" s="11" t="s">
         <v>263</v>
-      </c>
-      <c r="P32" s="11" t="s">
-        <v>264</v>
       </c>
       <c r="Q32" s="11" t="s">
         <v>52</v>
       </c>
       <c r="R32" s="11" t="s">
-        <v>221</v>
+        <v>37</v>
       </c>
       <c r="S32" s="11" t="s">
-        <v>186</v>
+        <v>38</v>
       </c>
       <c r="T32" s="11" t="s">
         <v>39</v>
       </c>
       <c r="U32" s="11" t="s">
-        <v>243</v>
+        <v>264</v>
       </c>
       <c r="V32" s="11" t="s">
         <v>265</v>
@@ -4028,7 +4028,7 @@
         <v>283</v>
       </c>
       <c r="P34" s="11" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="Q34" s="11" t="s">
         <v>144</v>
@@ -4099,7 +4099,7 @@
         <v>294</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>36</v>
+        <v>144</v>
       </c>
       <c r="R35" s="7" t="s">
         <v>37</v>
@@ -4495,7 +4495,7 @@
         <v>47</v>
       </c>
       <c r="M41" s="7" t="s">
-        <v>101</v>
+        <v>48</v>
       </c>
       <c r="N41" s="5" t="s">
         <v>208</v>
@@ -5295,8 +5295,8 @@
       <c r="G53" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="H53" s="8" t="s">
-        <v>31</v>
+      <c r="H53" s="7" t="s">
+        <v>398</v>
       </c>
       <c r="I53" s="5" t="s">
         <v>42</v>
@@ -5308,7 +5308,7 @@
         <v>30</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M53" s="7" t="s">
         <v>127</v>
@@ -5317,10 +5317,10 @@
         <v>49</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q53" s="7" t="s">
         <v>52</v>
@@ -5335,7 +5335,7 @@
         <v>39</v>
       </c>
       <c r="U53" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="V53" s="7" t="s">
         <v>198</v>
@@ -5343,28 +5343,28 @@
     </row>
     <row r="54" spans="1:22">
       <c r="A54" s="9" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D54" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="F54" s="11" t="s">
         <v>405</v>
       </c>
-      <c r="E54" s="11" t="s">
-        <v>406</v>
-      </c>
-      <c r="F54" s="11" t="s">
-        <v>404</v>
-      </c>
       <c r="G54" s="11" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="I54" s="9" t="s">
         <v>22</v>
@@ -5961,10 +5961,10 @@
         <v>22</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>255</v>
+        <v>214</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>256</v>
+        <v>215</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>179</v>
@@ -5994,7 +5994,7 @@
         <v>47</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>101</v>
+        <v>48</v>
       </c>
       <c r="N9" s="5" t="s">
         <v>49</v>
@@ -6006,7 +6006,7 @@
         <v>487</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>144</v>
+        <v>36</v>
       </c>
       <c r="R9" s="7" t="s">
         <v>37</v>

--- a/latest/BoM/Positional/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Positional/pedalboard-hw-bom.xlsx
@@ -1429,7 +1429,7 @@
     <t>Revision:</t>
   </si>
   <si>
-    <t>3.0.0-RC1</t>
+    <t>3.0.0</t>
   </si>
   <si>
     <t>Date:</t>

--- a/latest/BoM/Positional/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Positional/pedalboard-hw-bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="512">
   <si>
     <t>Row</t>
   </si>
@@ -115,252 +115,258 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
+    <t>https://www.samsungsem.com/resources/file/global/support/product_catalog/MLCC.pdf</t>
+  </si>
+  <si>
+    <t>/Power Supply</t>
+  </si>
+  <si>
+    <t>pedalboard-hw(1)</t>
+  </si>
+  <si>
+    <t>137.2381</t>
+  </si>
+  <si>
+    <t>76.2506</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
+    <t>SMD</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>2.9000</t>
+  </si>
+  <si>
+    <t>1.4500</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Unpolarized capacitor</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>C7 C18</t>
+  </si>
+  <si>
+    <t>27p</t>
+  </si>
+  <si>
+    <t>/MIDI</t>
+  </si>
+  <si>
+    <t>pedalboard-hw(2)</t>
+  </si>
+  <si>
+    <t>95.1944</t>
+  </si>
+  <si>
+    <t>78.4944</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>C24</t>
+  </si>
+  <si>
+    <t>2n2</t>
+  </si>
+  <si>
+    <t>139.3381</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>C29 C30</t>
+  </si>
+  <si>
+    <t>10n</t>
+  </si>
+  <si>
+    <t>140.4944</t>
+  </si>
+  <si>
+    <t>86.5944</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>C1 C5 C6 C8 C9 C10 C11 C14 C15 C16 C17 C20 C21 C22 C25</t>
+  </si>
+  <si>
+    <t>100n</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>https://datasheets.kyocera-avx.com/X7RDielectric.pdf</t>
+  </si>
+  <si>
+    <t>pedalboard-hw(15)</t>
+  </si>
+  <si>
+    <t>30.0944</t>
+  </si>
+  <si>
+    <t>104.8944</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>C12 C13</t>
+  </si>
+  <si>
+    <t>1u</t>
+  </si>
+  <si>
+    <t>https://datasheets.kyocera-avx.com/KGM_X7R.pdf</t>
+  </si>
+  <si>
+    <t>84.1944</t>
+  </si>
+  <si>
+    <t>90.4944</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>C2 C4 C19 C26 C27 C28 C31 C32</t>
+  </si>
+  <si>
+    <t>22u</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>https://search.murata.co.jp/Ceramy/image/img/A01X/G101/ENG/GRM21BZ71H475ME15-01.pdf</t>
+  </si>
+  <si>
+    <t>pedalboard-hw(8)</t>
+  </si>
+  <si>
+    <t>137.2819</t>
+  </si>
+  <si>
+    <t>104.3944</t>
+  </si>
+  <si>
+    <t>Polarized capacitor</t>
+  </si>
+  <si>
+    <t>C_Polarized</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>270u</t>
+  </si>
+  <si>
+    <t>CP_Elec_10x10</t>
+  </si>
+  <si>
+    <t>https://connect.kemet.com:7667/gateway/IntelliData-ComponentDocumentation/1.0/download/datasheet/A768MS277M1GLAE022</t>
+  </si>
+  <si>
+    <t>143.5619</t>
+  </si>
+  <si>
+    <t>92.9944</t>
+  </si>
+  <si>
+    <t>0.0000</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>2.5000</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>/Power Supply</t>
-  </si>
-  <si>
-    <t>pedalboard-hw(1)</t>
-  </si>
-  <si>
-    <t>137.2381</t>
-  </si>
-  <si>
-    <t>76.2506</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>top</t>
-  </si>
-  <si>
-    <t>SMD</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>2.9000</t>
-  </si>
-  <si>
-    <t>1.4500</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Unpolarized capacitor</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>C7 C18</t>
-  </si>
-  <si>
-    <t>27p</t>
+    <t>ComputeModule4-CM4</t>
+  </si>
+  <si>
+    <t>pedalboard</t>
+  </si>
+  <si>
+    <t>CM1</t>
+  </si>
+  <si>
+    <t>Raspberry-Pi-4-Compute-Module</t>
+  </si>
+  <si>
+    <t>Pedalboard Library</t>
+  </si>
+  <si>
+    <t>https://www.hirose.com/en/product/document?clcode=&amp;productname=&amp;series=DF40&amp;documenttype=Catalog&amp;lang=en&amp;documentid=en_DF40_CAT</t>
+  </si>
+  <si>
+    <t>/Audio</t>
+  </si>
+  <si>
+    <t>70.9944</t>
+  </si>
+  <si>
+    <t>67.4944</t>
+  </si>
+  <si>
+    <t>37.7000</t>
+  </si>
+  <si>
+    <t>50.7000</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Light emitting diode</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>LED G</t>
+  </si>
+  <si>
+    <t>LED_0805_2012Metric</t>
+  </si>
+  <si>
+    <t>LED_SMD</t>
   </si>
   <si>
     <t>~</t>
   </si>
   <si>
-    <t>/MIDI</t>
-  </si>
-  <si>
-    <t>pedalboard-hw(2)</t>
-  </si>
-  <si>
-    <t>95.1944</t>
-  </si>
-  <si>
-    <t>78.4944</t>
-  </si>
-  <si>
-    <t>180.0000</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>C24</t>
-  </si>
-  <si>
-    <t>2n2</t>
-  </si>
-  <si>
-    <t>139.3381</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>C29 C30</t>
-  </si>
-  <si>
-    <t>10n</t>
-  </si>
-  <si>
-    <t>140.4944</t>
-  </si>
-  <si>
-    <t>86.5944</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>C1 C5 C6 C8 C9 C10 C11 C14 C15 C16 C17 C20 C21 C22 C25</t>
-  </si>
-  <si>
-    <t>100n</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>https://datasheets.kyocera-avx.com/X7RDielectric.pdf</t>
-  </si>
-  <si>
-    <t>pedalboard-hw(15)</t>
-  </si>
-  <si>
-    <t>30.0944</t>
-  </si>
-  <si>
-    <t>104.8944</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>C12 C13</t>
-  </si>
-  <si>
-    <t>1u</t>
-  </si>
-  <si>
-    <t>84.1944</t>
-  </si>
-  <si>
-    <t>90.4944</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>C2 C4 C19 C26 C27 C28 C31 C32</t>
-  </si>
-  <si>
-    <t>22u</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>https://search.murata.co.jp/Ceramy/image/img/A01X/G101/ENG/GRM21BZ71H475ME15-01.pdf</t>
-  </si>
-  <si>
-    <t>pedalboard-hw(8)</t>
-  </si>
-  <si>
-    <t>137.2819</t>
-  </si>
-  <si>
-    <t>104.3944</t>
-  </si>
-  <si>
-    <t>Polarized capacitor</t>
-  </si>
-  <si>
-    <t>C_Polarized</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>270u</t>
-  </si>
-  <si>
-    <t>CP_Elec_10x10</t>
-  </si>
-  <si>
-    <t>https://connect.kemet.com:7667/gateway/IntelliData-ComponentDocumentation/1.0/download/datasheet/A768MS277M1GLAE022</t>
-  </si>
-  <si>
-    <t>143.5619</t>
-  </si>
-  <si>
-    <t>92.9944</t>
-  </si>
-  <si>
-    <t>0.0000</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>2.5000</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>ComputeModule4-CM4</t>
-  </si>
-  <si>
-    <t>pedalboard</t>
-  </si>
-  <si>
-    <t>CM1</t>
-  </si>
-  <si>
-    <t>Raspberry-Pi-4-Compute-Module</t>
-  </si>
-  <si>
-    <t>Pedalboard Library</t>
-  </si>
-  <si>
-    <t>DF40C-100DS-0.4V</t>
-  </si>
-  <si>
-    <t>/Audio</t>
-  </si>
-  <si>
-    <t>70.9944</t>
-  </si>
-  <si>
-    <t>67.4944</t>
-  </si>
-  <si>
-    <t>37.7000</t>
-  </si>
-  <si>
-    <t>50.7000</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Light emitting diode</t>
-  </si>
-  <si>
-    <t>LED</t>
-  </si>
-  <si>
-    <t>D10</t>
-  </si>
-  <si>
-    <t>LED G</t>
-  </si>
-  <si>
-    <t>LED_0805_2012Metric</t>
-  </si>
-  <si>
-    <t>LED_SMD</t>
-  </si>
-  <si>
     <t>31.4944</t>
   </si>
   <si>
@@ -505,9 +511,6 @@
     <t>D6</t>
   </si>
   <si>
-    <t>https://www.comchiptech.com/admin/files/product/20190514101641.pdf</t>
-  </si>
-  <si>
     <t>145.3944</t>
   </si>
   <si>
@@ -682,6 +685,9 @@
     <t>Connector_JST</t>
   </si>
   <si>
+    <t>https://app.adam-tech.com/products/download/data_sheet/240508/25sh-b-xx-ts-data-sheet.pdf</t>
+  </si>
+  <si>
     <t>pedalboard-hw(3)</t>
   </si>
   <si>
@@ -838,6 +844,9 @@
     <t>USB_Micro-B_Wuerth_614105150721_Vertical</t>
   </si>
   <si>
+    <t>https://www.we-online.com/components/products/datasheet/614105150721.pdf</t>
+  </si>
+  <si>
     <t>63.5344</t>
   </si>
   <si>
@@ -871,6 +880,9 @@
     <t>Inductor_SMD</t>
   </si>
   <si>
+    <t>https://abracon.com/Magnetics/power/ASPI-6045S.pdf</t>
+  </si>
+  <si>
     <t>145.1944</t>
   </si>
   <si>
@@ -973,6 +985,9 @@
     <t>R7 R9</t>
   </si>
   <si>
+    <t>https://www.seielect.com/catalog/sei-rmcf_rmcp.pdf</t>
+  </si>
+  <si>
     <t>80.1344</t>
   </si>
   <si>
@@ -988,9 +1003,6 @@
     <t>33</t>
   </si>
   <si>
-    <t>https://www.seielect.com/catalog/sei-rmcf_rmcp.pdf</t>
-  </si>
-  <si>
     <t>95.3819</t>
   </si>
   <si>
@@ -1036,7 +1048,7 @@
     <t>1k91</t>
   </si>
   <si>
-    <t>https://www.vishay.com/docs/20035/dcrcwe3.pdf</t>
+    <t>https://industrial.panasonic.com/cdbs/www-data/pdf/RDA0000/AOA0000C304.pdf</t>
   </si>
   <si>
     <t>134.8944</t>
@@ -1249,7 +1261,7 @@
     <t>SOT-223-3_TabPin2</t>
   </si>
   <si>
-    <t>http://www.onsemi.com/pub_link/Collateral/NCP1117-D.PDF</t>
+    <t>https://www.diodes.com/assets/Datasheets/AZ1117I.pdf</t>
   </si>
   <si>
     <t>115.6444</t>
@@ -1279,6 +1291,9 @@
     <t>RP2040-QFN-56</t>
   </si>
   <si>
+    <t>https://datasheets.raspberrypi.com/rp2040/rp2040-datasheet.pdf</t>
+  </si>
+  <si>
     <t>89.3944</t>
   </si>
   <si>
@@ -1339,7 +1354,7 @@
     <t>SOIC-8_3.9x4.9mm_P1.27mm</t>
   </si>
   <si>
-    <t>https://www.ti.com/lit/ds/symlink/tps54331.pdf</t>
+    <t>https://www.ti.com/general/docs/suppproductinfo.tsp?distId=10&amp;gotoUrl=https%3A%2F%2Fwww.ti.com%2Flit%2Fgpn%2Ftps54331</t>
   </si>
   <si>
     <t>138.6944</t>
@@ -1369,7 +1384,7 @@
     <t>SOIC-8_5.23x5.23mm_P1.27mm</t>
   </si>
   <si>
-    <t>http://www.winbond.com/resource-files/w25q128jv_dtr%20revc%2003272018%20plus.pdf</t>
+    <t>https://www.winbond.com/resource-files/w25q128jv%20revf%2003272018%20plus.pdf</t>
   </si>
   <si>
     <t>81.4944</t>
@@ -1397,6 +1412,9 @@
   </si>
   <si>
     <t>Crystal_SMD_HC49-US</t>
+  </si>
+  <si>
+    <t>https://abracon.com/Resonators/ABLS.pdf</t>
   </si>
   <si>
     <t>99.9944</t>
@@ -1609,12 +1627,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF8080"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF0FFF4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1628,6 +1640,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF0BD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF8080"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2121,7 +2139,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -2145,13 +2163,13 @@
     </row>
     <row r="2" spans="1:22">
       <c r="C2" s="2" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="F2" s="3">
         <v>54</v>
@@ -2159,41 +2177,41 @@
     </row>
     <row r="3" spans="1:22">
       <c r="C3" s="2" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="C4" s="2" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="C5" s="2" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -2201,13 +2219,13 @@
     </row>
     <row r="6" spans="1:22">
       <c r="C6" s="2" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="F6" s="3">
         <v>104</v>
@@ -2281,7 +2299,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" ht="30" customHeight="1">
       <c r="A9" s="5" t="s">
         <v>22</v>
       </c>
@@ -2315,7 +2333,7 @@
       <c r="K9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L9" s="8" t="s">
+      <c r="L9" s="7" t="s">
         <v>31</v>
       </c>
       <c r="M9" s="7" t="s">
@@ -2349,77 +2367,77 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
-      <c r="A10" s="9" t="s">
+    <row r="10" spans="1:22" ht="30" customHeight="1">
+      <c r="A10" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="I10" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="J10" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="K10" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="L10" s="12" t="s">
+      <c r="L10" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="M10" s="11" t="s">
+      <c r="N10" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="N10" s="9" t="s">
+      <c r="O10" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="O10" s="11" t="s">
+      <c r="P10" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="P10" s="11" t="s">
+      <c r="Q10" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="Q10" s="11" t="s">
+      <c r="R10" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="S10" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="T10" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="U10" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="V10" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="30" customHeight="1">
+      <c r="A11" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="R10" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="S10" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="T10" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="U10" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="V10" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22">
-      <c r="A11" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>23</v>
@@ -2431,10 +2449,10 @@
         <v>25</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>28</v>
@@ -2451,7 +2469,7 @@
       <c r="K11" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L11" s="8" t="s">
+      <c r="L11" s="7" t="s">
         <v>31</v>
       </c>
       <c r="M11" s="7" t="s">
@@ -2461,7 +2479,7 @@
         <v>33</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>35</v>
@@ -2485,77 +2503,77 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:22" ht="30" customHeight="1">
+      <c r="A12" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="11" t="s">
+      <c r="F12" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="G12" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="O12" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="G12" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="L12" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M12" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="N12" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="O12" s="11" t="s">
+      <c r="P12" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="P12" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q12" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="R12" s="11" t="s">
+      <c r="Q12" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="R12" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="S12" s="11" t="s">
+      <c r="S12" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="T12" s="11" t="s">
+      <c r="T12" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="U12" s="11" t="s">
+      <c r="U12" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="V12" s="11" t="s">
+      <c r="V12" s="10" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:22">
       <c r="A13" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>43</v>
@@ -2567,10 +2585,10 @@
         <v>25</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>28</v>
@@ -2579,31 +2597,31 @@
         <v>29</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K13" s="5" t="s">
         <v>30</v>
       </c>
       <c r="L13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N13" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="M13" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="N13" s="5" t="s">
+      <c r="O13" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="P13" s="7" t="s">
-        <v>69</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R13" s="7" t="s">
         <v>37</v>
@@ -2622,70 +2640,70 @@
       </c>
     </row>
     <row r="14" spans="1:22">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="11" t="s">
+      <c r="F14" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="G14" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L14" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="G14" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="L14" s="12" t="s">
+      <c r="M14" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="M14" s="11" t="s">
+      <c r="N14" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="N14" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="O14" s="11" t="s">
+      <c r="O14" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="P14" s="11" t="s">
+      <c r="P14" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="Q14" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="R14" s="11" t="s">
+      <c r="Q14" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="R14" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="S14" s="11" t="s">
+      <c r="S14" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="T14" s="11" t="s">
+      <c r="T14" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="U14" s="11" t="s">
+      <c r="U14" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="V14" s="11" t="s">
+      <c r="V14" s="10" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2739,7 +2757,7 @@
         <v>82</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R15" s="7" t="s">
         <v>37</v>
@@ -2758,97 +2776,97 @@
       </c>
     </row>
     <row r="16" spans="1:22" ht="30" customHeight="1">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="H16" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I16" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K16" s="9" t="s">
+      <c r="I16" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K16" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="L16" s="11" t="s">
+      <c r="L16" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="M16" s="11" t="s">
+      <c r="M16" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="N16" s="9" t="s">
+      <c r="N16" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="O16" s="11" t="s">
+      <c r="O16" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="P16" s="11" t="s">
+      <c r="P16" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="Q16" s="11" t="s">
+      <c r="Q16" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="R16" s="11" t="s">
+      <c r="R16" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="S16" s="11" t="s">
+      <c r="S16" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="T16" s="11" t="s">
+      <c r="T16" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="U16" s="11" t="s">
+      <c r="U16" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="V16" s="11" t="s">
+      <c r="V16" s="10" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:22" ht="45" customHeight="1">
       <c r="A17" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>31</v>
+      <c r="B17" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>95</v>
-      </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>22</v>
@@ -2860,22 +2878,22 @@
         <v>30</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N17" s="5" t="s">
         <v>33</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R17" s="7" t="s">
         <v>37</v>
@@ -2887,104 +2905,104 @@
         <v>39</v>
       </c>
       <c r="U17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="V17" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:22">
-      <c r="A18" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="B18" s="10" t="s">
+      <c r="A18" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="B18" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="C18" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="F18" s="11" t="s">
+      <c r="E18" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="F18" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="H18" s="11" t="s">
+      <c r="G18" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="I18" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K18" s="9" t="s">
+      <c r="H18" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" s="8" t="s">
         <v>30</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="M18" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="N18" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="M18" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="N18" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="O18" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="P18" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q18" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="R18" s="11" t="s">
+      <c r="O18" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="P18" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q18" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="R18" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="S18" s="11" t="s">
+      <c r="S18" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="T18" s="11" t="s">
+      <c r="T18" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="U18" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="V18" s="11" t="s">
-        <v>116</v>
+      <c r="U18" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="V18" s="10" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:22">
       <c r="A19" s="5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>22</v>
@@ -2995,23 +3013,23 @@
       <c r="K19" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L19" s="8" t="s">
-        <v>47</v>
+      <c r="L19" s="11" t="s">
+        <v>114</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N19" s="5" t="s">
         <v>33</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R19" s="7" t="s">
         <v>37</v>
@@ -3023,104 +3041,104 @@
         <v>39</v>
       </c>
       <c r="U19" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="V19" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="30" customHeight="1">
-      <c r="A20" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="C20" s="11" t="s">
+      <c r="A20" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="D20" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="E20" s="11" t="s">
+      <c r="B20" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="F20" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="G20" s="11" t="s">
+      <c r="C20" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="H20" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="J20" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="K20" s="9" t="s">
+      <c r="D20" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K20" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="L20" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="M20" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="N20" s="9" t="s">
+      <c r="L20" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="O20" s="11" t="s">
+      <c r="M20" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="P20" s="11" t="s">
+      <c r="N20" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="Q20" s="11" t="s">
+      <c r="O20" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="P20" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q20" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="R20" s="11" t="s">
+      <c r="R20" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="S20" s="11" t="s">
+      <c r="S20" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="T20" s="11" t="s">
+      <c r="T20" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="U20" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="V20" s="11" t="s">
-        <v>132</v>
+      <c r="U20" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="V20" s="10" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="30" customHeight="1">
       <c r="A21" s="5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>22</v>
@@ -3132,22 +3150,22 @@
         <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N21" s="5" t="s">
         <v>33</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="R21" s="7" t="s">
         <v>37</v>
@@ -3159,104 +3177,104 @@
         <v>39</v>
       </c>
       <c r="U21" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="V21" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
+      <c r="A22" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="M22" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="N22" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="O22" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="P22" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q22" s="10" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="22" spans="1:22">
-      <c r="A22" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="I22" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="J22" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="K22" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="L22" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="M22" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="N22" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="O22" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="P22" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q22" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="R22" s="11" t="s">
+      <c r="R22" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="S22" s="11" t="s">
+      <c r="S22" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="T22" s="11" t="s">
+      <c r="T22" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="U22" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="V22" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" ht="30" customHeight="1">
+      <c r="U22" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="V22" s="10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
       <c r="A23" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>22</v>
@@ -3268,7 +3286,7 @@
         <v>30</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="M23" s="7" t="s">
         <v>32</v>
@@ -3277,10 +3295,10 @@
         <v>33</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>36</v>
@@ -3295,104 +3313,104 @@
         <v>39</v>
       </c>
       <c r="U23" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="V23" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="30" customHeight="1">
-      <c r="A24" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B24" s="10" t="s">
+      <c r="A24" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="B24" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="C24" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="D24" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="F24" s="11" t="s">
+      <c r="E24" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="F24" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="H24" s="11" t="s">
+      <c r="G24" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="I24" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J24" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K24" s="9" t="s">
+      <c r="H24" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K24" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="L24" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="M24" s="11" t="s">
+      <c r="L24" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="M24" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="N24" s="9" t="s">
+      <c r="N24" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="O24" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="P24" s="11" t="s">
+      <c r="O24" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="Q24" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="R24" s="11" t="s">
+      <c r="P24" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q24" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="R24" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="S24" s="11" t="s">
+      <c r="S24" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="T24" s="11" t="s">
+      <c r="T24" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="U24" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="V24" s="11" t="s">
+      <c r="U24" s="10" t="s">
         <v>175</v>
+      </c>
+      <c r="V24" s="10" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="30" customHeight="1">
       <c r="A25" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>22</v>
@@ -3404,7 +3422,7 @@
         <v>30</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M25" s="7" t="s">
         <v>32</v>
@@ -3413,146 +3431,146 @@
         <v>33</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R25" s="7" t="s">
         <v>37</v>
       </c>
       <c r="S25" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="T25" s="7" t="s">
         <v>39</v>
       </c>
       <c r="U25" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="V25" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" ht="30" customHeight="1">
+      <c r="A26" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L26" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="M26" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="N26" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="O26" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="P26" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q26" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R26" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="S26" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="V25" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" ht="30" customHeight="1">
-      <c r="A26" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="H26" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="I26" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J26" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K26" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="L26" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="M26" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="N26" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="O26" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="P26" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q26" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="R26" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="S26" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="T26" s="11" t="s">
+      <c r="T26" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="U26" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="V26" s="11" t="s">
+      <c r="U26" s="10" t="s">
         <v>199</v>
+      </c>
+      <c r="V26" s="10" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="27" spans="1:22" ht="30" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K27" s="5" t="s">
         <v>30</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M27" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q27" s="7" t="s">
         <v>91</v>
@@ -3561,110 +3579,110 @@
         <v>37</v>
       </c>
       <c r="S27" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="T27" s="7" t="s">
         <v>39</v>
       </c>
       <c r="U27" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="V27" s="7" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22">
-      <c r="A28" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="B28" s="10" t="s">
+    </row>
+    <row r="28" spans="1:22" ht="45" customHeight="1">
+      <c r="A28" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="B28" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="D28" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="E28" s="11" t="s">
+      <c r="C28" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="F28" s="11" t="s">
+      <c r="D28" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E28" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="G28" s="11" t="s">
+      <c r="F28" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="H28" s="11" t="s">
+      <c r="G28" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="I28" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="J28" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="K28" s="9" t="s">
+      <c r="H28" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K28" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="L28" s="12" t="s">
+      <c r="L28" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="M28" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="M28" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="N28" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="O28" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="P28" s="11" t="s">
+      <c r="N28" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="Q28" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="R28" s="11" t="s">
+      <c r="O28" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="S28" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="T28" s="11" t="s">
+      <c r="P28" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q28" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="R28" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="S28" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="T28" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="U28" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="V28" s="11" t="s">
-        <v>225</v>
+      <c r="U28" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="V28" s="10" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="29" spans="1:22" ht="30" customHeight="1">
       <c r="A29" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>31</v>
+        <v>228</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>22</v>
@@ -3676,131 +3694,131 @@
         <v>30</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N29" s="5" t="s">
         <v>33</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R29" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="S29" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="T29" s="7" t="s">
         <v>39</v>
       </c>
       <c r="U29" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="V29" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="30" spans="1:22" ht="45" customHeight="1">
-      <c r="A30" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="C30" s="11" t="s">
+      <c r="A30" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="D30" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="E30" s="11" t="s">
+      <c r="B30" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="F30" s="11" t="s">
+      <c r="C30" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="G30" s="11" t="s">
+      <c r="D30" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="E30" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="H30" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="I30" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="J30" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="K30" s="9" t="s">
+      <c r="F30" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="K30" s="8" t="s">
         <v>30</v>
       </c>
       <c r="L30" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="M30" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="N30" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="O30" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="P30" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q30" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="M30" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="N30" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="O30" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="P30" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q30" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="R30" s="11" t="s">
+      <c r="R30" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="S30" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="T30" s="11" t="s">
+      <c r="S30" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="T30" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="U30" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="V30" s="11" t="s">
-        <v>244</v>
+      <c r="U30" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="V30" s="10" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="31" spans="1:22" ht="30" customHeight="1">
       <c r="A31" s="5" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I31" s="5" t="s">
         <v>42</v>
@@ -3812,131 +3830,131 @@
         <v>30</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="M31" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N31" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="N31" s="5" t="s">
-        <v>49</v>
-      </c>
       <c r="O31" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R31" s="7" t="s">
         <v>37</v>
       </c>
       <c r="S31" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="T31" s="7" t="s">
         <v>39</v>
       </c>
       <c r="U31" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="V31" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="32" spans="1:22">
-      <c r="A32" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="C32" s="11" t="s">
+      <c r="A32" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="D32" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="E32" s="11" t="s">
+      <c r="B32" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="F32" s="11" t="s">
+      <c r="C32" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="G32" s="11" t="s">
+      <c r="D32" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E32" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="H32" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="I32" s="9" t="s">
+      <c r="F32" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="I32" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="J32" s="9" t="s">
+      <c r="J32" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="K32" s="9" t="s">
+      <c r="K32" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="L32" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="M32" s="11" t="s">
+      <c r="L32" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="M32" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="N32" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="N32" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="O32" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="P32" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q32" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="R32" s="11" t="s">
+      <c r="O32" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="P32" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q32" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="R32" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="S32" s="11" t="s">
+      <c r="S32" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="T32" s="11" t="s">
+      <c r="T32" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="U32" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="V32" s="11" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22">
+      <c r="U32" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="V32" s="10" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" ht="30" customHeight="1">
       <c r="A33" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>31</v>
+        <v>268</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>22</v>
@@ -3947,8 +3965,8 @@
       <c r="K33" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L33" s="8" t="s">
-        <v>47</v>
+      <c r="L33" s="7" t="s">
+        <v>274</v>
       </c>
       <c r="M33" s="7" t="s">
         <v>32</v>
@@ -3957,149 +3975,149 @@
         <v>33</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R33" s="7" t="s">
         <v>37</v>
       </c>
       <c r="S33" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="T33" s="7" t="s">
         <v>39</v>
       </c>
       <c r="U33" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="V33" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="34" spans="1:22">
-      <c r="A34" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="D34" s="11" t="s">
+      <c r="A34" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="D34" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E34" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="G34" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="H34" s="11" t="s">
+      <c r="E34" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="I34" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J34" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K34" s="9" t="s">
+      <c r="F34" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K34" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="L34" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="M34" s="11" t="s">
+      <c r="L34" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="M34" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="N34" s="9" t="s">
+      <c r="N34" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="O34" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="P34" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q34" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="R34" s="11" t="s">
+      <c r="O34" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="P34" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q34" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="R34" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="S34" s="11" t="s">
+      <c r="S34" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="T34" s="11" t="s">
+      <c r="T34" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="U34" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="V34" s="11" t="s">
-        <v>285</v>
+      <c r="U34" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="V34" s="10" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="35" spans="1:22" ht="30" customHeight="1">
       <c r="A35" s="5" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K35" s="5" t="s">
         <v>30</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="M35" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N35" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="R35" s="7" t="s">
         <v>37</v>
@@ -4111,104 +4129,104 @@
         <v>39</v>
       </c>
       <c r="U35" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="V35" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="36" spans="1:22" ht="30" customHeight="1">
-      <c r="A36" s="9" t="s">
-        <v>297</v>
+      <c r="A36" s="8" t="s">
+        <v>301</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="H36" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="I36" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J36" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K36" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K36" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="L36" s="11" t="s">
-        <v>301</v>
-      </c>
-      <c r="M36" s="11" t="s">
+      <c r="L36" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="M36" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="N36" s="9" t="s">
+      <c r="N36" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="O36" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="P36" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q36" s="11" t="s">
+      <c r="O36" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="P36" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q36" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="R36" s="11" t="s">
+      <c r="R36" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="S36" s="11" t="s">
+      <c r="S36" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="T36" s="11" t="s">
+      <c r="T36" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="U36" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="V36" s="11" t="s">
-        <v>305</v>
+      <c r="U36" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="V36" s="10" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="37" spans="1:22">
       <c r="A37" s="5" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="I37" s="5" t="s">
         <v>22</v>
@@ -4220,19 +4238,19 @@
         <v>30</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="M37" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N37" s="5" t="s">
         <v>33</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>91</v>
@@ -4247,104 +4265,104 @@
         <v>39</v>
       </c>
       <c r="U37" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="V37" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" spans="1:22">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="H38" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="B38" s="10" t="s">
-        <v>307</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>308</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="F38" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="G38" s="11" t="s">
-        <v>310</v>
-      </c>
-      <c r="H38" s="11" t="s">
-        <v>311</v>
-      </c>
-      <c r="I38" s="9" t="s">
+      <c r="I38" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="J38" s="9" t="s">
+      <c r="J38" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="K38" s="9" t="s">
+      <c r="K38" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="L38" s="12" t="s">
+      <c r="L38" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="M38" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="M38" s="11" t="s">
+      <c r="N38" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="N38" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="O38" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="P38" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="Q38" s="11" t="s">
+      <c r="O38" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="P38" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q38" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="R38" s="11" t="s">
+      <c r="R38" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="S38" s="11" t="s">
+      <c r="S38" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="T38" s="11" t="s">
+      <c r="T38" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="U38" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="V38" s="11" t="s">
-        <v>116</v>
+      <c r="U38" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="V38" s="10" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="39" spans="1:22">
       <c r="A39" s="5" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="I39" s="5" t="s">
         <v>22</v>
@@ -4356,22 +4374,22 @@
         <v>30</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="M39" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N39" s="5" t="s">
         <v>33</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R39" s="7" t="s">
         <v>37</v>
@@ -4383,128 +4401,128 @@
         <v>39</v>
       </c>
       <c r="U39" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="V39" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40" spans="1:22">
-      <c r="A40" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>307</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>308</v>
-      </c>
-      <c r="D40" s="11" t="s">
+      <c r="A40" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="D40" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E40" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="F40" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="G40" s="11" t="s">
-        <v>310</v>
-      </c>
-      <c r="H40" s="11" t="s">
-        <v>311</v>
-      </c>
-      <c r="I40" s="9" t="s">
+      <c r="E40" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="H40" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="I40" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="J40" s="9" t="s">
+      <c r="J40" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="K40" s="9" t="s">
+      <c r="K40" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="L40" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="M40" s="11" t="s">
+      <c r="L40" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="M40" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="N40" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="N40" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="O40" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="P40" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q40" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="R40" s="11" t="s">
+      <c r="O40" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="P40" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q40" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="R40" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="S40" s="11" t="s">
+      <c r="S40" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="T40" s="11" t="s">
+      <c r="T40" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="U40" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="V40" s="11" t="s">
-        <v>116</v>
+      <c r="U40" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="V40" s="10" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="41" spans="1:22">
       <c r="A41" s="5" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K41" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L41" s="8" t="s">
+      <c r="L41" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="M41" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="M41" s="7" t="s">
-        <v>48</v>
-      </c>
       <c r="N41" s="5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="Q41" s="7" t="s">
         <v>91</v>
@@ -4519,104 +4537,104 @@
         <v>39</v>
       </c>
       <c r="U41" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="V41" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22">
-      <c r="A42" s="9" t="s">
-        <v>333</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="D42" s="11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" ht="30" customHeight="1">
+      <c r="A42" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="D42" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E42" s="11" t="s">
-        <v>336</v>
-      </c>
-      <c r="F42" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="G42" s="11" t="s">
-        <v>310</v>
-      </c>
-      <c r="H42" s="11" t="s">
-        <v>311</v>
-      </c>
-      <c r="I42" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J42" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K42" s="9" t="s">
+      <c r="E42" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="H42" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J42" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K42" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="L42" s="11" t="s">
-        <v>338</v>
-      </c>
-      <c r="M42" s="11" t="s">
+      <c r="L42" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="M42" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="N42" s="9" t="s">
+      <c r="N42" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="O42" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="P42" s="11" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q42" s="11" t="s">
+      <c r="O42" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="P42" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q42" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="R42" s="11" t="s">
+      <c r="R42" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="S42" s="11" t="s">
+      <c r="S42" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="T42" s="11" t="s">
+      <c r="T42" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="U42" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="V42" s="11" t="s">
-        <v>116</v>
+      <c r="U42" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="V42" s="10" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="43" spans="1:22">
       <c r="A43" s="5" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="I43" s="5" t="s">
         <v>22</v>
@@ -4627,8 +4645,8 @@
       <c r="K43" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L43" s="8" t="s">
-        <v>31</v>
+      <c r="L43" s="7" t="s">
+        <v>316</v>
       </c>
       <c r="M43" s="7" t="s">
         <v>32</v>
@@ -4637,10 +4655,10 @@
         <v>33</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="Q43" s="7" t="s">
         <v>36</v>
@@ -4655,104 +4673,104 @@
         <v>39</v>
       </c>
       <c r="U43" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="V43" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44" spans="1:22">
-      <c r="A44" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="D44" s="11" t="s">
+      <c r="A44" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="D44" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E44" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="F44" s="11" t="s">
-        <v>348</v>
-      </c>
-      <c r="G44" s="11" t="s">
-        <v>310</v>
-      </c>
-      <c r="H44" s="11" t="s">
-        <v>311</v>
-      </c>
-      <c r="I44" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J44" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K44" s="9" t="s">
+      <c r="E44" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J44" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K44" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="L44" s="11" t="s">
-        <v>338</v>
-      </c>
-      <c r="M44" s="11" t="s">
+      <c r="L44" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="M44" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="N44" s="9" t="s">
+      <c r="N44" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="O44" s="11" t="s">
-        <v>349</v>
-      </c>
-      <c r="P44" s="11" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q44" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="R44" s="11" t="s">
+      <c r="O44" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="P44" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q44" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="R44" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="S44" s="11" t="s">
+      <c r="S44" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="T44" s="11" t="s">
+      <c r="T44" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="U44" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="V44" s="11" t="s">
-        <v>116</v>
+      <c r="U44" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="V44" s="10" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="45" spans="1:22" ht="30" customHeight="1">
       <c r="A45" s="5" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I45" s="5" t="s">
         <v>22</v>
@@ -4764,19 +4782,19 @@
         <v>30</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="M45" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N45" s="5" t="s">
         <v>33</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="Q45" s="7" t="s">
         <v>91</v>
@@ -4791,104 +4809,104 @@
         <v>39</v>
       </c>
       <c r="U45" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="V45" s="7" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" ht="30" customHeight="1">
+      <c r="A46" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="G46" s="10" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="46" spans="1:22" ht="30" customHeight="1">
-      <c r="A46" s="9" t="s">
+      <c r="H46" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J46" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K46" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L46" s="10" t="s">
         <v>362</v>
       </c>
-      <c r="B46" s="10" t="s">
-        <v>352</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>353</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>354</v>
-      </c>
-      <c r="E46" s="11" t="s">
+      <c r="M46" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="N46" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="O46" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="P46" s="10" t="s">
         <v>363</v>
       </c>
-      <c r="F46" s="11" t="s">
+      <c r="Q46" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="R46" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="S46" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="T46" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="U46" s="10" t="s">
         <v>364</v>
       </c>
-      <c r="G46" s="11" t="s">
-        <v>357</v>
-      </c>
-      <c r="H46" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="I46" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J46" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K46" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="L46" s="11" t="s">
-        <v>358</v>
-      </c>
-      <c r="M46" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="N46" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="O46" s="11" t="s">
+      <c r="V46" s="10" t="s">
         <v>365</v>
-      </c>
-      <c r="P46" s="11" t="s">
-        <v>359</v>
-      </c>
-      <c r="Q46" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="R46" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="S46" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="T46" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="U46" s="11" t="s">
-        <v>360</v>
-      </c>
-      <c r="V46" s="11" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="47" spans="1:22" ht="30" customHeight="1">
       <c r="A47" s="5" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>44</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I47" s="5" t="s">
         <v>22</v>
@@ -4900,19 +4918,19 @@
         <v>30</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="M47" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N47" s="5" t="s">
         <v>33</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="Q47" s="7" t="s">
         <v>91</v>
@@ -4927,104 +4945,104 @@
         <v>39</v>
       </c>
       <c r="U47" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="V47" s="7" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" ht="30" customHeight="1">
+      <c r="A48" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="G48" s="10" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="48" spans="1:22" ht="30" customHeight="1">
-      <c r="A48" s="9" t="s">
-        <v>369</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>352</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>353</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>354</v>
-      </c>
-      <c r="E48" s="11" t="s">
-        <v>370</v>
-      </c>
-      <c r="F48" s="11" t="s">
-        <v>371</v>
-      </c>
-      <c r="G48" s="11" t="s">
-        <v>357</v>
-      </c>
-      <c r="H48" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="I48" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J48" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K48" s="9" t="s">
+      <c r="H48" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J48" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K48" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="L48" s="11" t="s">
-        <v>358</v>
-      </c>
-      <c r="M48" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="N48" s="9" t="s">
+      <c r="L48" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="M48" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="N48" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="O48" s="11" t="s">
-        <v>359</v>
-      </c>
-      <c r="P48" s="11" t="s">
-        <v>372</v>
-      </c>
-      <c r="Q48" s="11" t="s">
+      <c r="O48" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="P48" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q48" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="R48" s="11" t="s">
+      <c r="R48" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="S48" s="11" t="s">
+      <c r="S48" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="T48" s="11" t="s">
+      <c r="T48" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="U48" s="11" t="s">
-        <v>360</v>
-      </c>
-      <c r="V48" s="11" t="s">
-        <v>361</v>
+      <c r="U48" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="V48" s="10" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="49" spans="1:22" ht="30" customHeight="1">
       <c r="A49" s="5" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I49" s="5" t="s">
         <v>22</v>
@@ -5036,19 +5054,19 @@
         <v>30</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="M49" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N49" s="5" t="s">
         <v>33</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="Q49" s="7" t="s">
         <v>91</v>
@@ -5063,104 +5081,104 @@
         <v>39</v>
       </c>
       <c r="U49" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="V49" s="7" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" ht="30" customHeight="1">
+      <c r="A50" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="G50" s="10" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="50" spans="1:22" ht="30" customHeight="1">
-      <c r="A50" s="9" t="s">
+      <c r="H50" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="I50" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J50" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K50" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L50" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="M50" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="N50" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="O50" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="P50" s="10" t="s">
         <v>376</v>
       </c>
-      <c r="B50" s="10" t="s">
-        <v>352</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>353</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>354</v>
-      </c>
-      <c r="E50" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="F50" s="11" t="s">
-        <v>378</v>
-      </c>
-      <c r="G50" s="11" t="s">
-        <v>357</v>
-      </c>
-      <c r="H50" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="I50" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J50" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K50" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="L50" s="11" t="s">
-        <v>358</v>
-      </c>
-      <c r="M50" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="N50" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="O50" s="11" t="s">
-        <v>368</v>
-      </c>
-      <c r="P50" s="11" t="s">
-        <v>372</v>
-      </c>
-      <c r="Q50" s="11" t="s">
+      <c r="Q50" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="R50" s="11" t="s">
+      <c r="R50" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="S50" s="11" t="s">
+      <c r="S50" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="T50" s="11" t="s">
+      <c r="T50" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="U50" s="11" t="s">
-        <v>360</v>
-      </c>
-      <c r="V50" s="11" t="s">
-        <v>361</v>
+      <c r="U50" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="V50" s="10" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="51" spans="1:22" ht="30" customHeight="1">
       <c r="A51" s="5" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I51" s="5" t="s">
         <v>22</v>
@@ -5172,19 +5190,19 @@
         <v>30</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="M51" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N51" s="5" t="s">
         <v>33</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="Q51" s="7" t="s">
         <v>91</v>
@@ -5193,110 +5211,110 @@
         <v>37</v>
       </c>
       <c r="S51" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="T51" s="7" t="s">
         <v>39</v>
       </c>
       <c r="U51" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="V51" s="7" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" ht="30" customHeight="1">
+      <c r="A52" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="G52" s="10" t="s">
         <v>388</v>
       </c>
-      <c r="V51" s="7" t="s">
+      <c r="H52" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="I52" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J52" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K52" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L52" s="10" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="52" spans="1:22" ht="30" customHeight="1">
-      <c r="A52" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>380</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>381</v>
-      </c>
-      <c r="D52" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E52" s="11" t="s">
+      <c r="M52" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="N52" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="O52" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="P52" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="F52" s="11" t="s">
+      <c r="Q52" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="R52" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="S52" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="T52" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="U52" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="G52" s="11" t="s">
-        <v>384</v>
-      </c>
-      <c r="H52" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="I52" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J52" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K52" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="L52" s="11" t="s">
-        <v>385</v>
-      </c>
-      <c r="M52" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="N52" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="O52" s="11" t="s">
+      <c r="V52" s="10" t="s">
         <v>393</v>
-      </c>
-      <c r="P52" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="Q52" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="R52" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="S52" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="T52" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="U52" s="11" t="s">
-        <v>388</v>
-      </c>
-      <c r="V52" s="11" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="53" spans="1:22">
       <c r="A53" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>31</v>
+        <v>398</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="I53" s="5" t="s">
         <v>42</v>
@@ -5308,22 +5326,22 @@
         <v>30</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="M53" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="N53" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R53" s="7" t="s">
         <v>37</v>
@@ -5335,104 +5353,104 @@
         <v>39</v>
       </c>
       <c r="U53" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="V53" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22">
+      <c r="A54" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="H54" s="10" t="s">
         <v>402</v>
       </c>
-      <c r="V53" s="7" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22">
-      <c r="A54" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>404</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>405</v>
-      </c>
-      <c r="D54" s="11" t="s">
-        <v>406</v>
-      </c>
-      <c r="E54" s="11" t="s">
-        <v>407</v>
-      </c>
-      <c r="F54" s="11" t="s">
-        <v>405</v>
-      </c>
-      <c r="G54" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="H54" s="11" t="s">
-        <v>398</v>
-      </c>
-      <c r="I54" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J54" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K54" s="9" t="s">
+      <c r="I54" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J54" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K54" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="L54" s="11" t="s">
-        <v>409</v>
-      </c>
-      <c r="M54" s="11" t="s">
+      <c r="L54" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="M54" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="N54" s="9" t="s">
+      <c r="N54" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="O54" s="11" t="s">
-        <v>410</v>
-      </c>
-      <c r="P54" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="Q54" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="R54" s="11" t="s">
+      <c r="O54" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="P54" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q54" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="R54" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="S54" s="11" t="s">
+      <c r="S54" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="T54" s="11" t="s">
+      <c r="T54" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="U54" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="V54" s="11" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="55" spans="1:22">
+      <c r="U54" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="V54" s="10" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" ht="30" customHeight="1">
       <c r="A55" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>31</v>
+        <v>418</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I55" s="5" t="s">
         <v>22</v>
@@ -5443,20 +5461,20 @@
       <c r="K55" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L55" s="8" t="s">
-        <v>31</v>
+      <c r="L55" s="7" t="s">
+        <v>423</v>
       </c>
       <c r="M55" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N55" s="5" t="s">
         <v>33</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="Q55" s="7" t="s">
         <v>36</v>
@@ -5471,104 +5489,104 @@
         <v>39</v>
       </c>
       <c r="U55" s="7" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="V55" s="7" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
     </row>
     <row r="56" spans="1:22" ht="30" customHeight="1">
-      <c r="A56" s="9" t="s">
-        <v>422</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>423</v>
-      </c>
-      <c r="C56" s="11" t="s">
-        <v>424</v>
-      </c>
-      <c r="D56" s="11" t="s">
-        <v>425</v>
-      </c>
-      <c r="E56" s="11" t="s">
-        <v>426</v>
-      </c>
-      <c r="F56" s="11" t="s">
-        <v>424</v>
-      </c>
-      <c r="G56" s="11" t="s">
+      <c r="A56" s="8" t="s">
         <v>427</v>
       </c>
-      <c r="H56" s="11" t="s">
+      <c r="B56" s="9" t="s">
         <v>428</v>
       </c>
-      <c r="I56" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J56" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K56" s="9" t="s">
+      <c r="C56" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="H56" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="I56" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J56" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K56" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="L56" s="11" t="s">
-        <v>429</v>
-      </c>
-      <c r="M56" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="N56" s="9" t="s">
+      <c r="L56" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="M56" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="N56" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="O56" s="11" t="s">
-        <v>430</v>
-      </c>
-      <c r="P56" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q56" s="11" t="s">
+      <c r="O56" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="P56" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q56" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="R56" s="11" t="s">
+      <c r="R56" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="S56" s="11" t="s">
+      <c r="S56" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="T56" s="11" t="s">
+      <c r="T56" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="U56" s="11" t="s">
-        <v>431</v>
-      </c>
-      <c r="V56" s="11" t="s">
-        <v>432</v>
+      <c r="U56" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="V56" s="10" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="57" spans="1:22" ht="30" customHeight="1">
       <c r="A57" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="H57" s="7" t="s">
         <v>433</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>434</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="H57" s="7" t="s">
-        <v>428</v>
       </c>
       <c r="I57" s="5" t="s">
         <v>22</v>
@@ -5580,7 +5598,7 @@
         <v>30</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="M57" s="7" t="s">
         <v>32</v>
@@ -5589,13 +5607,13 @@
         <v>33</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="R57" s="7" t="s">
         <v>37</v>
@@ -5607,104 +5625,104 @@
         <v>39</v>
       </c>
       <c r="U57" s="7" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="V57" s="7" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
     </row>
     <row r="58" spans="1:22" ht="30" customHeight="1">
-      <c r="A58" s="9" t="s">
-        <v>444</v>
+      <c r="A58" s="8" t="s">
+        <v>449</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C58" s="11" t="s">
-        <v>445</v>
-      </c>
-      <c r="D58" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="E58" s="11" t="s">
-        <v>446</v>
-      </c>
-      <c r="F58" s="11" t="s">
-        <v>447</v>
-      </c>
-      <c r="G58" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="F58" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="G58" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="H58" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="I58" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J58" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K58" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L58" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="M58" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="N58" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="O58" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="P58" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q58" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R58" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="S58" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="T58" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="U58" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="V58" s="10" t="s">
         <v>448</v>
-      </c>
-      <c r="H58" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="I58" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J58" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K58" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="L58" s="11" t="s">
-        <v>449</v>
-      </c>
-      <c r="M58" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="N58" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="O58" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="P58" s="11" t="s">
-        <v>451</v>
-      </c>
-      <c r="Q58" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="R58" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="S58" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="T58" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="U58" s="11" t="s">
-        <v>452</v>
-      </c>
-      <c r="V58" s="11" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="59" spans="1:22">
       <c r="A59" s="5" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="D59" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I59" s="5" t="s">
         <v>22</v>
@@ -5715,20 +5733,20 @@
       <c r="K59" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L59" s="8" t="s">
+      <c r="L59" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="M59" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="M59" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="N59" s="5" t="s">
         <v>33</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="Q59" s="7" t="s">
         <v>91</v>
@@ -5743,10 +5761,10 @@
         <v>39</v>
       </c>
       <c r="U59" s="7" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="V59" s="7" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
     </row>
   </sheetData>
@@ -5796,7 +5814,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -5820,13 +5838,13 @@
     </row>
     <row r="2" spans="1:22">
       <c r="C2" s="2" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="F2" s="3">
         <v>54</v>
@@ -5834,41 +5852,41 @@
     </row>
     <row r="3" spans="1:22">
       <c r="C3" s="2" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="C4" s="2" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="C5" s="2" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -5876,13 +5894,13 @@
     </row>
     <row r="6" spans="1:22">
       <c r="C6" s="2" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="F6" s="3">
         <v>104</v>
@@ -5961,49 +5979,49 @@
         <v>22</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>42</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>485</v>
-      </c>
-      <c r="L9" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="M9" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="M9" s="7" t="s">
+      <c r="N9" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="N9" s="5" t="s">
-        <v>49</v>
-      </c>
       <c r="O9" s="7" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>36</v>
@@ -6012,134 +6030,134 @@
         <v>37</v>
       </c>
       <c r="S9" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="T9" s="7" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="U9" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="V9" s="7" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="30" customHeight="1">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>497</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>497</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="8" t="s">
         <v>490</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="K10" s="8" t="s">
         <v>491</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>492</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>491</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>493</v>
-      </c>
-      <c r="H10" s="11" t="s">
+      <c r="L10" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="O10" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="P10" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="Q10" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R10" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="S10" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="T10" s="10" t="s">
         <v>494</v>
       </c>
-      <c r="I10" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>484</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="L10" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="M10" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="N10" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="O10" s="11" t="s">
-        <v>495</v>
-      </c>
-      <c r="P10" s="11" t="s">
-        <v>496</v>
-      </c>
-      <c r="Q10" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="R10" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="S10" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="T10" s="11" t="s">
-        <v>488</v>
-      </c>
-      <c r="U10" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="V10" s="11" t="s">
-        <v>497</v>
+      <c r="U10" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="V10" s="10" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="11" spans="1:22">
       <c r="A11" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>22</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>485</v>
-      </c>
-      <c r="L11" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="M11" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="N11" s="5" t="s">
         <v>33</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>91</v>
@@ -6151,13 +6169,13 @@
         <v>38</v>
       </c>
       <c r="T11" s="7" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="U11" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="V11" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -6183,22 +6201,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="8" t="s">
-        <v>505</v>
+      <c r="A4" s="11" t="s">
+        <v>511</v>
       </c>
     </row>
   </sheetData>

--- a/latest/BoM/Positional/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Positional/pedalboard-hw-bom.xlsx
@@ -937,7 +937,7 @@
     <t>SO08-E3</t>
   </si>
   <si>
-    <t>https://rocelec.widen.net/view/pdf/rwygqx6rjd/FAIRS27615-1.pdf</t>
+    <t>https://rocelec.widen.net/view/pdf/rwygqx6rjd/FAIRS27615-1.pdf?t.download=true</t>
   </si>
   <si>
     <t>141.8544</t>
@@ -1354,7 +1354,7 @@
     <t>SOIC-8_3.9x4.9mm_P1.27mm</t>
   </si>
   <si>
-    <t>https://www.ti.com/general/docs/suppproductinfo.tsp?distId=10&amp;gotoUrl=https%3A%2F%2Fwww.ti.com%2Flit%2Fgpn%2Ftps54331</t>
+    <t>https://www.ti.com/lit/ds/symlink/tps54331.pdf?HQS=dis-dk-null-digikeymode-dsf-pf-null-wwe&amp;ts=1697733027064</t>
   </si>
   <si>
     <t>138.6944</t>

--- a/latest/BoM/Positional/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Positional/pedalboard-hw-bom.xlsx
@@ -1447,7 +1447,7 @@
     <t>Revision:</t>
   </si>
   <si>
-    <t>3.0.0</t>
+    <t>3.0.1-RC</t>
   </si>
   <si>
     <t>Date:</t>

--- a/latest/BoM/Positional/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Positional/pedalboard-hw-bom.xlsx
@@ -1447,7 +1447,7 @@
     <t>Revision:</t>
   </si>
   <si>
-    <t>3.0.1-RC</t>
+    <t>3.0.1</t>
   </si>
   <si>
     <t>Date:</t>

--- a/latest/BoM/Positional/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Positional/pedalboard-hw-bom.xlsx
@@ -1453,7 +1453,7 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>2023-09-10</t>
+    <t>2023-10-20</t>
   </si>
   <si>
     <t>KiCad Version:</t>

--- a/latest/BoM/Positional/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Positional/pedalboard-hw-bom.xlsx
@@ -1447,7 +1447,7 @@
     <t>Revision:</t>
   </si>
   <si>
-    <t>3.0.1</t>
+    <t>3.0.2-RC</t>
   </si>
   <si>
     <t>Date:</t>

--- a/latest/BoM/Positional/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Positional/pedalboard-hw-bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="509">
   <si>
     <t>Row</t>
   </si>
@@ -151,991 +151,982 @@
     <t>2</t>
   </si>
   <si>
-    <t>Unpolarized capacitor</t>
+    <t>C7 C18</t>
+  </si>
+  <si>
+    <t>27p</t>
+  </si>
+  <si>
+    <t>/MIDI</t>
+  </si>
+  <si>
+    <t>pedalboard-hw(2)</t>
+  </si>
+  <si>
+    <t>95.1944</t>
+  </si>
+  <si>
+    <t>78.4944</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>C24</t>
+  </si>
+  <si>
+    <t>2n2</t>
+  </si>
+  <si>
+    <t>139.3381</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>C29 C30</t>
+  </si>
+  <si>
+    <t>10n</t>
+  </si>
+  <si>
+    <t>140.4944</t>
+  </si>
+  <si>
+    <t>86.5944</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>C1 C5 C6 C8 C9 C10 C11 C14 C15 C16 C17 C20 C21 C22 C25</t>
+  </si>
+  <si>
+    <t>100n</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>https://datasheets.kyocera-avx.com/X7RDielectric.pdf</t>
+  </si>
+  <si>
+    <t>pedalboard-hw(15)</t>
+  </si>
+  <si>
+    <t>30.0944</t>
+  </si>
+  <si>
+    <t>104.8944</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>C12 C13</t>
+  </si>
+  <si>
+    <t>1u</t>
+  </si>
+  <si>
+    <t>https://datasheets.kyocera-avx.com/KGM_X7R.pdf</t>
+  </si>
+  <si>
+    <t>84.1944</t>
+  </si>
+  <si>
+    <t>90.4944</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>C2 C4 C19 C26 C27 C28 C31 C32</t>
+  </si>
+  <si>
+    <t>22u</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>https://search.murata.co.jp/Ceramy/image/img/A01X/G101/ENG/GRM21BZ71H475ME15-01.pdf</t>
+  </si>
+  <si>
+    <t>pedalboard-hw(8)</t>
+  </si>
+  <si>
+    <t>137.2819</t>
+  </si>
+  <si>
+    <t>104.3944</t>
+  </si>
+  <si>
+    <t>Polarized capacitor</t>
+  </si>
+  <si>
+    <t>C_Polarized</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>270u</t>
+  </si>
+  <si>
+    <t>CP_Elec_10x10</t>
+  </si>
+  <si>
+    <t>https://connect.kemet.com:7667/gateway/IntelliData-ComponentDocumentation/1.0/download/datasheet/A768MS277M1GLAE022</t>
+  </si>
+  <si>
+    <t>143.5619</t>
+  </si>
+  <si>
+    <t>92.9944</t>
+  </si>
+  <si>
+    <t>0.0000</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>2.5000</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>ComputeModule4-CM4</t>
+  </si>
+  <si>
+    <t>pedalboard</t>
+  </si>
+  <si>
+    <t>CM1</t>
+  </si>
+  <si>
+    <t>Raspberry-Pi-4-Compute-Module</t>
+  </si>
+  <si>
+    <t>Pedalboard Library</t>
+  </si>
+  <si>
+    <t>https://www.hirose.com/en/product/document?clcode=&amp;productname=&amp;series=DF40&amp;documenttype=Catalog&amp;lang=en&amp;documentid=en_DF40_CAT</t>
+  </si>
+  <si>
+    <t>/Audio</t>
+  </si>
+  <si>
+    <t>70.9944</t>
+  </si>
+  <si>
+    <t>67.4944</t>
+  </si>
+  <si>
+    <t>37.7000</t>
+  </si>
+  <si>
+    <t>50.7000</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Light emitting diode</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>LED G</t>
+  </si>
+  <si>
+    <t>LED_0805_2012Metric</t>
+  </si>
+  <si>
+    <t>LED_SMD</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t>31.4944</t>
+  </si>
+  <si>
+    <t>62.9944</t>
+  </si>
+  <si>
+    <t>2.8500</t>
+  </si>
+  <si>
+    <t>1.4000</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>LED Y</t>
+  </si>
+  <si>
+    <t>60.9944</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>RGB LED with integrated controller</t>
+  </si>
+  <si>
+    <t>SK6812</t>
+  </si>
+  <si>
+    <t>D2 D3 D4 D7</t>
+  </si>
+  <si>
+    <t>LED_SK6812_PLCC4_5.0x5.0mm_P3.2mm</t>
+  </si>
+  <si>
+    <t>https://cdn-shop.adafruit.com/product-files/1138/SK6812+LED+datasheet+.pdf</t>
+  </si>
+  <si>
+    <t>/LEDs</t>
+  </si>
+  <si>
+    <t>pedalboard-hw(4)</t>
+  </si>
+  <si>
+    <t>49.4944</t>
+  </si>
+  <si>
+    <t>82.9944</t>
+  </si>
+  <si>
+    <t>6.4000</t>
+  </si>
+  <si>
+    <t>4.2000</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>100V 0.15A standard switching diode, DO-35</t>
+  </si>
+  <si>
+    <t>1N4148</t>
+  </si>
+  <si>
+    <t>Diode</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>SM4007</t>
+  </si>
+  <si>
+    <t>D_SOD-123F</t>
+  </si>
+  <si>
+    <t>Diode_SMD</t>
+  </si>
+  <si>
+    <t>https://www.mccsemi.com/pdf/Products/SM4001PL-SM4007PL(SOD-123FL).PDF</t>
+  </si>
+  <si>
+    <t>26.5944</t>
+  </si>
+  <si>
+    <t>98.5944</t>
+  </si>
+  <si>
+    <t>270.0000</t>
+  </si>
+  <si>
+    <t>3.9000</t>
+  </si>
+  <si>
+    <t>1.1000</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>20V 1A Schottky Barrier Rectifier Diode, DO-41</t>
+  </si>
+  <si>
+    <t>1N5817</t>
+  </si>
+  <si>
+    <t>D5 D8</t>
+  </si>
+  <si>
+    <t>SS34HF</t>
+  </si>
+  <si>
+    <t>D_SMA</t>
+  </si>
+  <si>
+    <t>http://www.vishay.com/docs/88525/1n5817.pdf</t>
+  </si>
+  <si>
+    <t>121.8944</t>
+  </si>
+  <si>
+    <t>74.0444</t>
+  </si>
+  <si>
+    <t>6.5000</t>
+  </si>
+  <si>
+    <t>1.8000</t>
+  </si>
+  <si>
+    <t>Schottky diode, small symbol</t>
+  </si>
+  <si>
+    <t>D_Schottky_Small</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>145.3944</t>
+  </si>
+  <si>
+    <t>82.3944</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>Resettable fuse, polymeric positive temperature coefficient</t>
+  </si>
+  <si>
+    <t>Polyfuse</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>Polyfuse 1.8A</t>
+  </si>
+  <si>
+    <t>Fuse_1812_4532Metric</t>
+  </si>
+  <si>
+    <t>Fuse</t>
+  </si>
+  <si>
+    <t>https://www.littelfuse.com/~/media/electronics/datasheets/resettable_ptcs/littelfuse_ptc_1812l_datasheet.pdf.pdf</t>
+  </si>
+  <si>
+    <t>148.0644</t>
+  </si>
+  <si>
+    <t>103.2844</t>
+  </si>
+  <si>
+    <t>5.4000</t>
+  </si>
+  <si>
+    <t>3.4000</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>DC Barrel Jack with an internal switch</t>
+  </si>
+  <si>
+    <t>Barrel_Jack_Switch</t>
+  </si>
+  <si>
+    <t>Connector</t>
+  </si>
+  <si>
+    <t>J6</t>
+  </si>
+  <si>
+    <t>Barrel_Jack_MountingPin</t>
+  </si>
+  <si>
+    <t>BarrelJack_Wuerth_6941xx301002</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/components/products/datasheet/6941xx301002.pdf</t>
+  </si>
+  <si>
+    <t>161.3944</t>
+  </si>
+  <si>
+    <t>100.5944</t>
+  </si>
+  <si>
+    <t>THT</t>
+  </si>
+  <si>
+    <t>7.9000</t>
+  </si>
+  <si>
+    <t>7.6000</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>Generic connector, single row, 01x02, script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+  </si>
+  <si>
+    <t>Conn_01x02</t>
+  </si>
+  <si>
+    <t>Connector_Generic</t>
+  </si>
+  <si>
+    <t>J11</t>
+  </si>
+  <si>
+    <t>PinHeader_1x02_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>Connector_PinHeader_2.54mm</t>
+  </si>
+  <si>
+    <t>70.5944</t>
+  </si>
+  <si>
+    <t>76.9944</t>
+  </si>
+  <si>
+    <t>1.7000</t>
+  </si>
+  <si>
+    <t>4.2400</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>M Series, 6.35mm (1/4in) stereo jack, switched, with chrome ferrule and straight PCB pins</t>
+  </si>
+  <si>
+    <t>NMJ6HCD2</t>
+  </si>
+  <si>
+    <t>Connector_Audio</t>
+  </si>
+  <si>
+    <t>J7 J9 J16 J17 J18 J20</t>
+  </si>
+  <si>
+    <t>EXP1</t>
+  </si>
+  <si>
+    <t>Jack_6.35mm_Horizontal</t>
+  </si>
+  <si>
+    <t>https://www.schurter.com/en/datasheet/typ_4833.2320.pdf</t>
+  </si>
+  <si>
+    <t>pedalboard-hw(6)</t>
+  </si>
+  <si>
+    <t>157.6094</t>
+  </si>
+  <si>
+    <t>97.1944</t>
+  </si>
+  <si>
+    <t>15.7000</t>
+  </si>
+  <si>
+    <t>19.2300</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Generic connector, single row, 01x03, script generated</t>
+  </si>
+  <si>
+    <t>Conn_01x03_Pin</t>
+  </si>
+  <si>
+    <t>J23 J24 J26</t>
+  </si>
+  <si>
+    <t>EXT-MIDI</t>
+  </si>
+  <si>
+    <t>JST_XH_B3B-XH-A_1x03_P2.50mm_Vertical</t>
+  </si>
+  <si>
+    <t>Connector_JST</t>
+  </si>
+  <si>
+    <t>https://app.adam-tech.com/products/download/data_sheet/240508/25sh-b-xx-ts-data-sheet.pdf</t>
+  </si>
+  <si>
+    <t>pedalboard-hw(3)</t>
+  </si>
+  <si>
+    <t>31.5944</t>
+  </si>
+  <si>
+    <t>102.5194</t>
+  </si>
+  <si>
+    <t>bottom</t>
+  </si>
+  <si>
+    <t>6.7000</t>
+  </si>
+  <si>
+    <t>1.9500</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>Raspberry_Pi_2_3</t>
+  </si>
+  <si>
+    <t>J25</t>
+  </si>
+  <si>
+    <t>HiFi Berry</t>
+  </si>
+  <si>
+    <t>HiFi Berry DAC ADC+</t>
+  </si>
+  <si>
+    <t>https://www.hifiberry.com/docs/data-sheets/datasheet-dac-adc-pro/</t>
+  </si>
+  <si>
+    <t>102.2444</t>
+  </si>
+  <si>
+    <t>62.6188</t>
+  </si>
+  <si>
+    <t>41.4500</t>
+  </si>
+  <si>
+    <t>55.0150</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>Generic connector, double row, 02x02, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+  </si>
+  <si>
+    <t>Conn_02x02_Odd_Even</t>
+  </si>
+  <si>
+    <t>J8 J13 J14 J19 J21 J22</t>
+  </si>
+  <si>
+    <t>LED-Ring</t>
+  </si>
+  <si>
+    <t>Led-Ring</t>
+  </si>
+  <si>
+    <t>10.9944</t>
+  </si>
+  <si>
+    <t>74.9944</t>
+  </si>
+  <si>
+    <t>3.3500</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>Audio Jack, 3 Poles (Stereo / TRS), Switched TR Poles (Normalling)</t>
+  </si>
+  <si>
+    <t>AudioJack3_SwitchTR</t>
+  </si>
+  <si>
+    <t>J2 J4</t>
+  </si>
+  <si>
+    <t>MIDI IN J</t>
+  </si>
+  <si>
+    <t>Jack_3.5mm_CUI_SJ1-3525N_Horizontal</t>
+  </si>
+  <si>
+    <t>https://www.cuidevices.com/product/resource/sj1-352xng.pdf</t>
+  </si>
+  <si>
+    <t>71.9889</t>
+  </si>
+  <si>
+    <t>106.4944</t>
+  </si>
+  <si>
+    <t>11.2000</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>5-pin DIN connector (5-pin DIN-5 stereo)</t>
+  </si>
+  <si>
+    <t>DIN-5_180degree</t>
+  </si>
+  <si>
+    <t>J1 J3</t>
+  </si>
+  <si>
+    <t>MIDI_IN</t>
+  </si>
+  <si>
+    <t>CP-2350</t>
+  </si>
+  <si>
+    <t>https://www.switchcraft.com/assets/1/24/57PC5F_CD.pdf</t>
+  </si>
+  <si>
+    <t>71.9944</t>
+  </si>
+  <si>
+    <t>108.9944</t>
+  </si>
+  <si>
+    <t>17.5000</t>
+  </si>
+  <si>
+    <t>14.7500</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>USB_B_Micro-Connector</t>
+  </si>
+  <si>
+    <t>RP2040_minimal-rescue</t>
+  </si>
+  <si>
+    <t>J10</t>
+  </si>
+  <si>
+    <t>USB_B_Micro</t>
+  </si>
+  <si>
+    <t>USB_Micro-B_Wuerth_614105150721_Vertical</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/components/products/datasheet/614105150721.pdf</t>
+  </si>
+  <si>
+    <t>63.5344</t>
+  </si>
+  <si>
+    <t>74.7044</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t>2.1250</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>Inductor</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>L5</t>
+  </si>
+  <si>
+    <t>12u</t>
+  </si>
+  <si>
+    <t>L_Coilcraft_XAL6030-XXX</t>
+  </si>
+  <si>
+    <t>Inductor_SMD</t>
+  </si>
+  <si>
+    <t>https://abracon.com/Magnetics/power/ASPI-6045S.pdf</t>
+  </si>
+  <si>
+    <t>145.1944</t>
+  </si>
+  <si>
+    <t>5.4700</t>
+  </si>
+  <si>
+    <t>5.5000</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Inductor with ferrite core</t>
+  </si>
+  <si>
+    <t>L_Ferrite</t>
+  </si>
+  <si>
+    <t>L1 L2 L3 L4</t>
+  </si>
+  <si>
+    <t>120_100MHz</t>
+  </si>
+  <si>
+    <t>L_0603_1608Metric</t>
+  </si>
+  <si>
+    <t>https://www.murata.com/products/productdata/8796738650142/ENFA0003.pdf</t>
+  </si>
+  <si>
+    <t>24.6944</t>
+  </si>
+  <si>
+    <t>99.2444</t>
+  </si>
+  <si>
+    <t>2.4500</t>
+  </si>
+  <si>
+    <t>0.9500</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>FDS4435BZ</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>SO08-E3</t>
+  </si>
+  <si>
+    <t>https://rocelec.widen.net/view/pdf/rwygqx6rjd/FAIRS27615-1.pdf?t.download=true</t>
+  </si>
+  <si>
+    <t>141.8544</t>
+  </si>
+  <si>
+    <t>102.8344</t>
+  </si>
+  <si>
+    <t>4.4150</t>
+  </si>
+  <si>
+    <t>7.4000</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>Resistor, small symbol</t>
+  </si>
+  <si>
+    <t>R_Small</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R_0805_2012Metric</t>
+  </si>
+  <si>
+    <t>Resistor_SMD</t>
+  </si>
+  <si>
+    <t>https://www.seielect.com/catalog/sei-rncp.pdf</t>
+  </si>
+  <si>
+    <t>37.8944</t>
+  </si>
+  <si>
+    <t>93.4444</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>R7 R9</t>
+  </si>
+  <si>
+    <t>https://www.seielect.com/catalog/sei-rmcf_rmcp.pdf</t>
+  </si>
+  <si>
+    <t>80.1344</t>
+  </si>
+  <si>
+    <t>86.5344</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>95.3819</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>R3 R6</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>22.9944</t>
+  </si>
+  <si>
+    <t>102.3944</t>
+  </si>
+  <si>
+    <t>R4 R5 R8 R11 R15 R16</t>
+  </si>
+  <si>
+    <t>1K</t>
+  </si>
+  <si>
+    <t>153.0944</t>
+  </si>
+  <si>
+    <t>100.1644</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>R14</t>
+  </si>
+  <si>
+    <t>1k91</t>
+  </si>
+  <si>
+    <t>https://industrial.panasonic.com/cdbs/www-data/pdf/RDA0000/AOA0000C304.pdf</t>
+  </si>
+  <si>
+    <t>134.8944</t>
+  </si>
+  <si>
+    <t>77.4944</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>R13</t>
+  </si>
+  <si>
+    <t>10k</t>
+  </si>
+  <si>
+    <t>134.5944</t>
+  </si>
+  <si>
+    <t>72.5944</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>R12</t>
+  </si>
+  <si>
+    <t>12k1</t>
+  </si>
+  <si>
+    <t>138.1944</t>
+  </si>
+  <si>
+    <t>73.5944</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>Omron B3FS 6x6mm single pole normally-open tactile switch</t>
+  </si>
+  <si>
+    <t>SW_Omron_B3FS</t>
+  </si>
+  <si>
+    <t>Switch</t>
+  </si>
+  <si>
+    <t>SW6</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>SW_PUSH-12mm_Wuerth</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/components/products/datasheet/430172043816.pdf</t>
+  </si>
+  <si>
+    <t>11.9944</t>
+  </si>
+  <si>
+    <t>16.0000</t>
+  </si>
+  <si>
+    <t>6.8000</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>SW7</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>86.9944</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>SW8</t>
   </si>
   <si>
     <t>C</t>
-  </si>
-  <si>
-    <t>C7 C18</t>
-  </si>
-  <si>
-    <t>27p</t>
-  </si>
-  <si>
-    <t>/MIDI</t>
-  </si>
-  <si>
-    <t>pedalboard-hw(2)</t>
-  </si>
-  <si>
-    <t>95.1944</t>
-  </si>
-  <si>
-    <t>78.4944</t>
-  </si>
-  <si>
-    <t>180.0000</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>C24</t>
-  </si>
-  <si>
-    <t>2n2</t>
-  </si>
-  <si>
-    <t>139.3381</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>C29 C30</t>
-  </si>
-  <si>
-    <t>10n</t>
-  </si>
-  <si>
-    <t>140.4944</t>
-  </si>
-  <si>
-    <t>86.5944</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>C1 C5 C6 C8 C9 C10 C11 C14 C15 C16 C17 C20 C21 C22 C25</t>
-  </si>
-  <si>
-    <t>100n</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>https://datasheets.kyocera-avx.com/X7RDielectric.pdf</t>
-  </si>
-  <si>
-    <t>pedalboard-hw(15)</t>
-  </si>
-  <si>
-    <t>30.0944</t>
-  </si>
-  <si>
-    <t>104.8944</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>C12 C13</t>
-  </si>
-  <si>
-    <t>1u</t>
-  </si>
-  <si>
-    <t>https://datasheets.kyocera-avx.com/KGM_X7R.pdf</t>
-  </si>
-  <si>
-    <t>84.1944</t>
-  </si>
-  <si>
-    <t>90.4944</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>C2 C4 C19 C26 C27 C28 C31 C32</t>
-  </si>
-  <si>
-    <t>22u</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>https://search.murata.co.jp/Ceramy/image/img/A01X/G101/ENG/GRM21BZ71H475ME15-01.pdf</t>
-  </si>
-  <si>
-    <t>pedalboard-hw(8)</t>
-  </si>
-  <si>
-    <t>137.2819</t>
-  </si>
-  <si>
-    <t>104.3944</t>
-  </si>
-  <si>
-    <t>Polarized capacitor</t>
-  </si>
-  <si>
-    <t>C_Polarized</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>270u</t>
-  </si>
-  <si>
-    <t>CP_Elec_10x10</t>
-  </si>
-  <si>
-    <t>https://connect.kemet.com:7667/gateway/IntelliData-ComponentDocumentation/1.0/download/datasheet/A768MS277M1GLAE022</t>
-  </si>
-  <si>
-    <t>143.5619</t>
-  </si>
-  <si>
-    <t>92.9944</t>
-  </si>
-  <si>
-    <t>0.0000</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>2.5000</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>ComputeModule4-CM4</t>
-  </si>
-  <si>
-    <t>pedalboard</t>
-  </si>
-  <si>
-    <t>CM1</t>
-  </si>
-  <si>
-    <t>Raspberry-Pi-4-Compute-Module</t>
-  </si>
-  <si>
-    <t>Pedalboard Library</t>
-  </si>
-  <si>
-    <t>https://www.hirose.com/en/product/document?clcode=&amp;productname=&amp;series=DF40&amp;documenttype=Catalog&amp;lang=en&amp;documentid=en_DF40_CAT</t>
-  </si>
-  <si>
-    <t>/Audio</t>
-  </si>
-  <si>
-    <t>70.9944</t>
-  </si>
-  <si>
-    <t>67.4944</t>
-  </si>
-  <si>
-    <t>37.7000</t>
-  </si>
-  <si>
-    <t>50.7000</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Light emitting diode</t>
-  </si>
-  <si>
-    <t>LED</t>
-  </si>
-  <si>
-    <t>D10</t>
-  </si>
-  <si>
-    <t>LED G</t>
-  </si>
-  <si>
-    <t>LED_0805_2012Metric</t>
-  </si>
-  <si>
-    <t>LED_SMD</t>
-  </si>
-  <si>
-    <t>~</t>
-  </si>
-  <si>
-    <t>31.4944</t>
-  </si>
-  <si>
-    <t>62.9944</t>
-  </si>
-  <si>
-    <t>2.8500</t>
-  </si>
-  <si>
-    <t>1.4000</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>D9</t>
-  </si>
-  <si>
-    <t>LED Y</t>
-  </si>
-  <si>
-    <t>60.9944</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>RGB LED with integrated controller</t>
-  </si>
-  <si>
-    <t>SK6812</t>
-  </si>
-  <si>
-    <t>D2 D3 D4 D7</t>
-  </si>
-  <si>
-    <t>LED_SK6812_PLCC4_5.0x5.0mm_P3.2mm</t>
-  </si>
-  <si>
-    <t>https://cdn-shop.adafruit.com/product-files/1138/SK6812+LED+datasheet+.pdf</t>
-  </si>
-  <si>
-    <t>/LEDs</t>
-  </si>
-  <si>
-    <t>pedalboard-hw(4)</t>
-  </si>
-  <si>
-    <t>49.4944</t>
-  </si>
-  <si>
-    <t>82.9944</t>
-  </si>
-  <si>
-    <t>6.4000</t>
-  </si>
-  <si>
-    <t>4.2000</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>100V 0.15A standard switching diode, DO-35</t>
-  </si>
-  <si>
-    <t>1N4148</t>
-  </si>
-  <si>
-    <t>Diode</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>SM4007</t>
-  </si>
-  <si>
-    <t>D_SOD-123F</t>
-  </si>
-  <si>
-    <t>Diode_SMD</t>
-  </si>
-  <si>
-    <t>https://www.mccsemi.com/pdf/Products/SM4001PL-SM4007PL(SOD-123FL).PDF</t>
-  </si>
-  <si>
-    <t>26.5944</t>
-  </si>
-  <si>
-    <t>98.5944</t>
-  </si>
-  <si>
-    <t>270.0000</t>
-  </si>
-  <si>
-    <t>3.9000</t>
-  </si>
-  <si>
-    <t>1.1000</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>20V 1A Schottky Barrier Rectifier Diode, DO-41</t>
-  </si>
-  <si>
-    <t>1N5817</t>
-  </si>
-  <si>
-    <t>D5 D8</t>
-  </si>
-  <si>
-    <t>SS34HF</t>
-  </si>
-  <si>
-    <t>D_SMA</t>
-  </si>
-  <si>
-    <t>http://www.vishay.com/docs/88525/1n5817.pdf</t>
-  </si>
-  <si>
-    <t>121.8944</t>
-  </si>
-  <si>
-    <t>74.0444</t>
-  </si>
-  <si>
-    <t>6.5000</t>
-  </si>
-  <si>
-    <t>1.8000</t>
-  </si>
-  <si>
-    <t>Schottky diode, small symbol</t>
-  </si>
-  <si>
-    <t>D_Schottky_Small</t>
-  </si>
-  <si>
-    <t>D6</t>
-  </si>
-  <si>
-    <t>145.3944</t>
-  </si>
-  <si>
-    <t>82.3944</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>Resettable fuse, polymeric positive temperature coefficient</t>
-  </si>
-  <si>
-    <t>Polyfuse</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>Polyfuse 1.8A</t>
-  </si>
-  <si>
-    <t>Fuse_1812_4532Metric</t>
-  </si>
-  <si>
-    <t>Fuse</t>
-  </si>
-  <si>
-    <t>https://www.littelfuse.com/~/media/electronics/datasheets/resettable_ptcs/littelfuse_ptc_1812l_datasheet.pdf.pdf</t>
-  </si>
-  <si>
-    <t>148.0644</t>
-  </si>
-  <si>
-    <t>103.2844</t>
-  </si>
-  <si>
-    <t>5.4000</t>
-  </si>
-  <si>
-    <t>3.4000</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>DC Barrel Jack with an internal switch</t>
-  </si>
-  <si>
-    <t>Barrel_Jack_Switch</t>
-  </si>
-  <si>
-    <t>Connector</t>
-  </si>
-  <si>
-    <t>J6</t>
-  </si>
-  <si>
-    <t>Barrel_Jack_MountingPin</t>
-  </si>
-  <si>
-    <t>BarrelJack_Wuerth_6941xx301002</t>
-  </si>
-  <si>
-    <t>https://www.we-online.com/components/products/datasheet/6941xx301002.pdf</t>
-  </si>
-  <si>
-    <t>161.3944</t>
-  </si>
-  <si>
-    <t>100.5944</t>
-  </si>
-  <si>
-    <t>THT</t>
-  </si>
-  <si>
-    <t>7.9000</t>
-  </si>
-  <si>
-    <t>7.6000</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>Generic connector, single row, 01x02, script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
-    <t>Conn_01x02</t>
-  </si>
-  <si>
-    <t>Connector_Generic</t>
-  </si>
-  <si>
-    <t>J11</t>
-  </si>
-  <si>
-    <t>PinHeader_1x02_P2.54mm_Vertical</t>
-  </si>
-  <si>
-    <t>Connector_PinHeader_2.54mm</t>
-  </si>
-  <si>
-    <t>70.5944</t>
-  </si>
-  <si>
-    <t>76.9944</t>
-  </si>
-  <si>
-    <t>1.7000</t>
-  </si>
-  <si>
-    <t>4.2400</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>M Series, 6.35mm (1/4in) stereo jack, switched, with chrome ferrule and straight PCB pins</t>
-  </si>
-  <si>
-    <t>NMJ6HCD2</t>
-  </si>
-  <si>
-    <t>Connector_Audio</t>
-  </si>
-  <si>
-    <t>J7 J9 J16 J17 J18 J20</t>
-  </si>
-  <si>
-    <t>EXP1</t>
-  </si>
-  <si>
-    <t>Jack_6.35mm_Horizontal</t>
-  </si>
-  <si>
-    <t>https://www.schurter.com/en/datasheet/typ_4833.2320.pdf</t>
-  </si>
-  <si>
-    <t>pedalboard-hw(6)</t>
-  </si>
-  <si>
-    <t>157.6094</t>
-  </si>
-  <si>
-    <t>97.1944</t>
-  </si>
-  <si>
-    <t>15.7000</t>
-  </si>
-  <si>
-    <t>19.2300</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>Generic connector, single row, 01x03, script generated</t>
-  </si>
-  <si>
-    <t>Conn_01x03_Pin</t>
-  </si>
-  <si>
-    <t>J23 J24 J26</t>
-  </si>
-  <si>
-    <t>EXT-MIDI</t>
-  </si>
-  <si>
-    <t>JST_XH_B3B-XH-A_1x03_P2.50mm_Vertical</t>
-  </si>
-  <si>
-    <t>Connector_JST</t>
-  </si>
-  <si>
-    <t>https://app.adam-tech.com/products/download/data_sheet/240508/25sh-b-xx-ts-data-sheet.pdf</t>
-  </si>
-  <si>
-    <t>pedalboard-hw(3)</t>
-  </si>
-  <si>
-    <t>31.5944</t>
-  </si>
-  <si>
-    <t>102.5194</t>
-  </si>
-  <si>
-    <t>bottom</t>
-  </si>
-  <si>
-    <t>6.7000</t>
-  </si>
-  <si>
-    <t>1.9500</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>Raspberry_Pi_2_3</t>
-  </si>
-  <si>
-    <t>J25</t>
-  </si>
-  <si>
-    <t>HiFi Berry</t>
-  </si>
-  <si>
-    <t>HiFi Berry DAC ADC+</t>
-  </si>
-  <si>
-    <t>https://www.hifiberry.com/docs/data-sheets/datasheet-dac-adc-pro/</t>
-  </si>
-  <si>
-    <t>102.2444</t>
-  </si>
-  <si>
-    <t>62.6188</t>
-  </si>
-  <si>
-    <t>41.4500</t>
-  </si>
-  <si>
-    <t>55.0150</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>Generic connector, double row, 02x02, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
-    <t>Conn_02x02_Odd_Even</t>
-  </si>
-  <si>
-    <t>J8 J13 J14 J19 J21 J22</t>
-  </si>
-  <si>
-    <t>LED-Ring</t>
-  </si>
-  <si>
-    <t>Led-Ring</t>
-  </si>
-  <si>
-    <t>10.9944</t>
-  </si>
-  <si>
-    <t>74.9944</t>
-  </si>
-  <si>
-    <t>3.3500</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>Audio Jack, 3 Poles (Stereo / TRS), Switched TR Poles (Normalling)</t>
-  </si>
-  <si>
-    <t>AudioJack3_SwitchTR</t>
-  </si>
-  <si>
-    <t>J2 J4</t>
-  </si>
-  <si>
-    <t>MIDI IN J</t>
-  </si>
-  <si>
-    <t>Jack_3.5mm_CUI_SJ1-3525N_Horizontal</t>
-  </si>
-  <si>
-    <t>https://www.cuidevices.com/product/resource/sj1-352xng.pdf</t>
-  </si>
-  <si>
-    <t>71.9889</t>
-  </si>
-  <si>
-    <t>106.4944</t>
-  </si>
-  <si>
-    <t>11.2000</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>5-pin DIN connector (5-pin DIN-5 stereo)</t>
-  </si>
-  <si>
-    <t>DIN-5_180degree</t>
-  </si>
-  <si>
-    <t>J1 J3</t>
-  </si>
-  <si>
-    <t>MIDI_IN</t>
-  </si>
-  <si>
-    <t>CP-2350</t>
-  </si>
-  <si>
-    <t>https://www.switchcraft.com/assets/1/24/57PC5F_CD.pdf</t>
-  </si>
-  <si>
-    <t>71.9944</t>
-  </si>
-  <si>
-    <t>108.9944</t>
-  </si>
-  <si>
-    <t>17.5000</t>
-  </si>
-  <si>
-    <t>14.7500</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>USB_B_Micro-Connector</t>
-  </si>
-  <si>
-    <t>RP2040_minimal-rescue</t>
-  </si>
-  <si>
-    <t>J10</t>
-  </si>
-  <si>
-    <t>USB_B_Micro</t>
-  </si>
-  <si>
-    <t>USB_Micro-B_Wuerth_614105150721_Vertical</t>
-  </si>
-  <si>
-    <t>https://www.we-online.com/components/products/datasheet/614105150721.pdf</t>
-  </si>
-  <si>
-    <t>63.5344</t>
-  </si>
-  <si>
-    <t>74.7044</t>
-  </si>
-  <si>
-    <t>8.0000</t>
-  </si>
-  <si>
-    <t>2.1250</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>Inductor</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>L5</t>
-  </si>
-  <si>
-    <t>12u</t>
-  </si>
-  <si>
-    <t>L_Coilcraft_XAL6030-XXX</t>
-  </si>
-  <si>
-    <t>Inductor_SMD</t>
-  </si>
-  <si>
-    <t>https://abracon.com/Magnetics/power/ASPI-6045S.pdf</t>
-  </si>
-  <si>
-    <t>145.1944</t>
-  </si>
-  <si>
-    <t>5.4700</t>
-  </si>
-  <si>
-    <t>5.5000</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>Inductor with ferrite core</t>
-  </si>
-  <si>
-    <t>L_Ferrite</t>
-  </si>
-  <si>
-    <t>L1 L2 L3 L4</t>
-  </si>
-  <si>
-    <t>120_100MHz</t>
-  </si>
-  <si>
-    <t>L_0603_1608Metric</t>
-  </si>
-  <si>
-    <t>https://www.murata.com/products/productdata/8796738650142/ENFA0003.pdf</t>
-  </si>
-  <si>
-    <t>24.6944</t>
-  </si>
-  <si>
-    <t>99.2444</t>
-  </si>
-  <si>
-    <t>2.4500</t>
-  </si>
-  <si>
-    <t>0.9500</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>FDS4435BZ</t>
-  </si>
-  <si>
-    <t>Q1</t>
-  </si>
-  <si>
-    <t>SO08-E3</t>
-  </si>
-  <si>
-    <t>https://rocelec.widen.net/view/pdf/rwygqx6rjd/FAIRS27615-1.pdf?t.download=true</t>
-  </si>
-  <si>
-    <t>141.8544</t>
-  </si>
-  <si>
-    <t>102.8344</t>
-  </si>
-  <si>
-    <t>4.4150</t>
-  </si>
-  <si>
-    <t>7.4000</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>Resistor</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>R_0805_2012Metric</t>
-  </si>
-  <si>
-    <t>Resistor_SMD</t>
-  </si>
-  <si>
-    <t>https://www.seielect.com/catalog/sei-rncp.pdf</t>
-  </si>
-  <si>
-    <t>37.8944</t>
-  </si>
-  <si>
-    <t>93.4444</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>R7 R9</t>
-  </si>
-  <si>
-    <t>https://www.seielect.com/catalog/sei-rmcf_rmcp.pdf</t>
-  </si>
-  <si>
-    <t>80.1344</t>
-  </si>
-  <si>
-    <t>86.5344</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>95.3819</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>R3 R6</t>
-  </si>
-  <si>
-    <t>220</t>
-  </si>
-  <si>
-    <t>22.9944</t>
-  </si>
-  <si>
-    <t>102.3944</t>
-  </si>
-  <si>
-    <t>R4 R5 R8 R11 R15 R16</t>
-  </si>
-  <si>
-    <t>1K</t>
-  </si>
-  <si>
-    <t>153.0944</t>
-  </si>
-  <si>
-    <t>100.1644</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>Resistor, small symbol</t>
-  </si>
-  <si>
-    <t>R_Small</t>
-  </si>
-  <si>
-    <t>R14</t>
-  </si>
-  <si>
-    <t>1k91</t>
-  </si>
-  <si>
-    <t>https://industrial.panasonic.com/cdbs/www-data/pdf/RDA0000/AOA0000C304.pdf</t>
-  </si>
-  <si>
-    <t>134.8944</t>
-  </si>
-  <si>
-    <t>77.4944</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>R13</t>
-  </si>
-  <si>
-    <t>10k</t>
-  </si>
-  <si>
-    <t>134.5944</t>
-  </si>
-  <si>
-    <t>72.5944</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>R12</t>
-  </si>
-  <si>
-    <t>12k1</t>
-  </si>
-  <si>
-    <t>138.1944</t>
-  </si>
-  <si>
-    <t>73.5944</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>Omron B3FS 6x6mm single pole normally-open tactile switch</t>
-  </si>
-  <si>
-    <t>SW_Omron_B3FS</t>
-  </si>
-  <si>
-    <t>Switch</t>
-  </si>
-  <si>
-    <t>SW6</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>SW_PUSH-12mm_Wuerth</t>
-  </si>
-  <si>
-    <t>https://www.we-online.com/components/products/datasheet/430172043816.pdf</t>
-  </si>
-  <si>
-    <t>11.9944</t>
-  </si>
-  <si>
-    <t>16.0000</t>
-  </si>
-  <si>
-    <t>6.8000</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>SW7</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>86.9944</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>SW8</t>
   </si>
   <si>
     <t>161.9944</t>
@@ -2139,7 +2130,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -2163,13 +2154,13 @@
     </row>
     <row r="2" spans="1:22">
       <c r="C2" s="2" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="F2" s="3">
         <v>54</v>
@@ -2177,41 +2168,41 @@
     </row>
     <row r="3" spans="1:22">
       <c r="C3" s="2" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="C4" s="2" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="C5" s="2" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -2219,13 +2210,13 @@
     </row>
     <row r="6" spans="1:22">
       <c r="C6" s="2" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="F6" s="3">
         <v>104</v>
@@ -2372,19 +2363,19 @@
         <v>42</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G10" s="10" t="s">
         <v>28</v>
@@ -2405,19 +2396,19 @@
         <v>31</v>
       </c>
       <c r="M10" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="O10" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="N10" s="8" t="s">
+      <c r="P10" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="O10" s="10" t="s">
+      <c r="Q10" s="10" t="s">
         <v>49</v>
-      </c>
-      <c r="P10" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q10" s="10" t="s">
-        <v>51</v>
       </c>
       <c r="R10" s="10" t="s">
         <v>37</v>
@@ -2437,7 +2428,7 @@
     </row>
     <row r="11" spans="1:22" ht="30" customHeight="1">
       <c r="A11" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>23</v>
@@ -2449,10 +2440,10 @@
         <v>25</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>28</v>
@@ -2479,7 +2470,7 @@
         <v>33</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>35</v>
@@ -2505,7 +2496,7 @@
     </row>
     <row r="12" spans="1:22" ht="30" customHeight="1">
       <c r="A12" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>23</v>
@@ -2517,10 +2508,10 @@
         <v>25</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>28</v>
@@ -2544,16 +2535,16 @@
         <v>32</v>
       </c>
       <c r="N12" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O12" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P12" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q12" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R12" s="10" t="s">
         <v>37</v>
@@ -2573,22 +2564,22 @@
     </row>
     <row r="13" spans="1:22">
       <c r="A13" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>28</v>
@@ -2597,31 +2588,31 @@
         <v>29</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K13" s="5" t="s">
         <v>30</v>
       </c>
       <c r="L13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="M13" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="N13" s="5" t="s">
+      <c r="P13" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="O13" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>68</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R13" s="7" t="s">
         <v>37</v>
@@ -2641,22 +2632,22 @@
     </row>
     <row r="14" spans="1:22">
       <c r="A14" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G14" s="10" t="s">
         <v>28</v>
@@ -2674,22 +2665,22 @@
         <v>30</v>
       </c>
       <c r="L14" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="M14" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="N14" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="O14" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="P14" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="M14" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="N14" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="O14" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="P14" s="10" t="s">
-        <v>74</v>
-      </c>
       <c r="Q14" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R14" s="10" t="s">
         <v>37</v>
@@ -2709,22 +2700,22 @@
     </row>
     <row r="15" spans="1:22" ht="30" customHeight="1">
       <c r="A15" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>28</v>
@@ -2733,31 +2724,31 @@
         <v>29</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K15" s="5" t="s">
         <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M15" s="7" t="s">
         <v>32</v>
       </c>
       <c r="N15" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>82</v>
-      </c>
       <c r="Q15" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R15" s="7" t="s">
         <v>37</v>
@@ -2777,25 +2768,25 @@
     </row>
     <row r="16" spans="1:22" ht="30" customHeight="1">
       <c r="A16" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E16" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" s="10" t="s">
         <v>85</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>87</v>
       </c>
       <c r="H16" s="10" t="s">
         <v>29</v>
@@ -2810,7 +2801,7 @@
         <v>30</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M16" s="10" t="s">
         <v>32</v>
@@ -2819,13 +2810,13 @@
         <v>33</v>
       </c>
       <c r="O16" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="P16" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q16" s="10" t="s">
         <v>89</v>
-      </c>
-      <c r="P16" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q16" s="10" t="s">
-        <v>91</v>
       </c>
       <c r="R16" s="10" t="s">
         <v>37</v>
@@ -2837,36 +2828,36 @@
         <v>39</v>
       </c>
       <c r="U16" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="V16" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="45" customHeight="1">
       <c r="A17" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="D17" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="E17" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="F17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="H17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>22</v>
@@ -2878,22 +2869,22 @@
         <v>30</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N17" s="5" t="s">
         <v>33</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R17" s="7" t="s">
         <v>37</v>
@@ -2905,36 +2896,36 @@
         <v>39</v>
       </c>
       <c r="U17" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="V17" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:22">
       <c r="A18" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>107</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>109</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E18" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="G18" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="H18" s="10" t="s">
         <v>111</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>113</v>
       </c>
       <c r="I18" s="8" t="s">
         <v>22</v>
@@ -2946,22 +2937,22 @@
         <v>30</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N18" s="8" t="s">
         <v>33</v>
       </c>
       <c r="O18" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="P18" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="Q18" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R18" s="10" t="s">
         <v>37</v>
@@ -2973,36 +2964,36 @@
         <v>39</v>
       </c>
       <c r="U18" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="V18" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:22">
       <c r="A19" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>22</v>
@@ -3014,22 +3005,22 @@
         <v>30</v>
       </c>
       <c r="L19" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N19" s="5" t="s">
         <v>33</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R19" s="7" t="s">
         <v>37</v>
@@ -3041,63 +3032,63 @@
         <v>39</v>
       </c>
       <c r="U19" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="V19" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="30" customHeight="1">
       <c r="A20" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C20" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="D20" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="F20" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="G20" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="D20" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>127</v>
-      </c>
       <c r="H20" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K20" s="8" t="s">
         <v>30</v>
       </c>
       <c r="L20" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="M20" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="N20" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="M20" s="10" t="s">
+      <c r="O20" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="N20" s="8" t="s">
+      <c r="P20" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="O20" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="P20" s="10" t="s">
-        <v>132</v>
-      </c>
       <c r="Q20" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="R20" s="10" t="s">
         <v>37</v>
@@ -3109,36 +3100,36 @@
         <v>39</v>
       </c>
       <c r="U20" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="V20" s="10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="30" customHeight="1">
       <c r="A21" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="D21" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="E21" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="F21" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="H21" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>22</v>
@@ -3150,22 +3141,22 @@
         <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N21" s="5" t="s">
         <v>33</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="R21" s="7" t="s">
         <v>37</v>
@@ -3177,36 +3168,36 @@
         <v>39</v>
       </c>
       <c r="U21" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="V21" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:22">
       <c r="A22" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="D22" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="E22" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="F22" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="D22" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="E22" s="10" t="s">
+      <c r="G22" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="F22" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>154</v>
-      </c>
       <c r="H22" s="10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I22" s="8" t="s">
         <v>42</v>
@@ -3218,22 +3209,22 @@
         <v>30</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="M22" s="10" t="s">
         <v>32</v>
       </c>
       <c r="N22" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O22" s="10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="P22" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q22" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R22" s="10" t="s">
         <v>37</v>
@@ -3245,36 +3236,36 @@
         <v>39</v>
       </c>
       <c r="U22" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="V22" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:22">
       <c r="A23" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>22</v>
@@ -3286,7 +3277,7 @@
         <v>30</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="M23" s="7" t="s">
         <v>32</v>
@@ -3295,10 +3286,10 @@
         <v>33</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>36</v>
@@ -3313,36 +3304,36 @@
         <v>39</v>
       </c>
       <c r="U23" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="V23" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="30" customHeight="1">
       <c r="A24" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C24" s="10" t="s">
         <v>165</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>167</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E24" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="G24" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="H24" s="10" t="s">
         <v>169</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>171</v>
       </c>
       <c r="I24" s="8" t="s">
         <v>22</v>
@@ -3354,7 +3345,7 @@
         <v>30</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="M24" s="10" t="s">
         <v>32</v>
@@ -3363,13 +3354,13 @@
         <v>33</v>
       </c>
       <c r="O24" s="10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="P24" s="10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="Q24" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R24" s="10" t="s">
         <v>37</v>
@@ -3381,36 +3372,36 @@
         <v>39</v>
       </c>
       <c r="U24" s="10" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="V24" s="10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="30" customHeight="1">
       <c r="A25" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="D25" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="E25" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="F25" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>183</v>
-      </c>
       <c r="H25" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>22</v>
@@ -3422,7 +3413,7 @@
         <v>30</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M25" s="7" t="s">
         <v>32</v>
@@ -3431,54 +3422,54 @@
         <v>33</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R25" s="7" t="s">
         <v>37</v>
       </c>
       <c r="S25" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="T25" s="7" t="s">
         <v>39</v>
       </c>
       <c r="U25" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="V25" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:22" ht="30" customHeight="1">
       <c r="A26" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="C26" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="D26" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="E26" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="F26" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="G26" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="H26" s="10" t="s">
         <v>194</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="H26" s="10" t="s">
-        <v>196</v>
       </c>
       <c r="I26" s="8" t="s">
         <v>22</v>
@@ -3490,19 +3481,19 @@
         <v>30</v>
       </c>
       <c r="L26" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M26" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N26" s="8" t="s">
         <v>33</v>
       </c>
       <c r="O26" s="10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P26" s="10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="Q26" s="10" t="s">
         <v>36</v>
@@ -3511,178 +3502,178 @@
         <v>37</v>
       </c>
       <c r="S26" s="10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="T26" s="10" t="s">
         <v>39</v>
       </c>
       <c r="U26" s="10" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="V26" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="27" spans="1:22" ht="30" customHeight="1">
       <c r="A27" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="D27" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="E27" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="F27" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="F27" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>207</v>
-      </c>
       <c r="H27" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K27" s="5" t="s">
         <v>30</v>
       </c>
       <c r="L27" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="M27" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="N27" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="O27" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="M27" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="N27" s="5" t="s">
+      <c r="P27" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>211</v>
-      </c>
       <c r="Q27" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="R27" s="7" t="s">
         <v>37</v>
       </c>
       <c r="S27" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="T27" s="7" t="s">
         <v>39</v>
       </c>
       <c r="U27" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="V27" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="45" customHeight="1">
       <c r="A28" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="C28" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="D28" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="E28" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="F28" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="D28" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="E28" s="10" t="s">
+      <c r="G28" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="H28" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="G28" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="H28" s="10" t="s">
-        <v>220</v>
-      </c>
       <c r="I28" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K28" s="8" t="s">
         <v>30</v>
       </c>
       <c r="L28" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="M28" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="N28" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="O28" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="M28" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="N28" s="8" t="s">
+      <c r="P28" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="O28" s="10" t="s">
+      <c r="Q28" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="R28" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="P28" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q28" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="R28" s="10" t="s">
-        <v>225</v>
-      </c>
       <c r="S28" s="10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="T28" s="10" t="s">
         <v>39</v>
       </c>
       <c r="U28" s="10" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="V28" s="10" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="29" spans="1:22" ht="30" customHeight="1">
       <c r="A29" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="E29" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="B29" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C29" s="7" t="s">
+      <c r="F29" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="E29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>232</v>
-      </c>
       <c r="H29" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>22</v>
@@ -3694,131 +3685,131 @@
         <v>30</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N29" s="5" t="s">
         <v>33</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R29" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="S29" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="T29" s="7" t="s">
         <v>39</v>
       </c>
       <c r="U29" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="V29" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="30" spans="1:22" ht="45" customHeight="1">
       <c r="A30" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="C30" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="D30" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="E30" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="F30" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="D30" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="E30" s="10" t="s">
+      <c r="G30" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="F30" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>243</v>
-      </c>
       <c r="H30" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K30" s="8" t="s">
         <v>30</v>
       </c>
       <c r="L30" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M30" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N30" s="8" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O30" s="10" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="P30" s="10" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="Q30" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="R30" s="10" t="s">
         <v>37</v>
       </c>
       <c r="S30" s="10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="T30" s="10" t="s">
         <v>39</v>
       </c>
       <c r="U30" s="10" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="V30" s="10" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="31" spans="1:22" ht="30" customHeight="1">
       <c r="A31" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="D31" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="E31" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="F31" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="D31" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="E31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="F31" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>252</v>
-      </c>
       <c r="H31" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I31" s="5" t="s">
         <v>42</v>
@@ -3830,63 +3821,63 @@
         <v>30</v>
       </c>
       <c r="L31" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="M31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="N31" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="M31" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="N31" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>255</v>
-      </c>
       <c r="Q31" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R31" s="7" t="s">
         <v>37</v>
       </c>
       <c r="S31" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="T31" s="7" t="s">
         <v>39</v>
       </c>
       <c r="U31" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="V31" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:22">
       <c r="A32" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="C32" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="D32" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="E32" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="F32" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="D32" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="E32" s="10" t="s">
+      <c r="G32" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="F32" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="G32" s="10" t="s">
-        <v>262</v>
-      </c>
       <c r="H32" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I32" s="8" t="s">
         <v>42</v>
@@ -3898,22 +3889,22 @@
         <v>30</v>
       </c>
       <c r="L32" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="M32" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="N32" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="O32" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="P32" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="M32" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="N32" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="O32" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="P32" s="10" t="s">
-        <v>265</v>
-      </c>
       <c r="Q32" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R32" s="10" t="s">
         <v>37</v>
@@ -3925,36 +3916,36 @@
         <v>39</v>
       </c>
       <c r="U32" s="10" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="V32" s="10" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="33" spans="1:22" ht="30" customHeight="1">
       <c r="A33" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="D33" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="B33" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C33" s="7" t="s">
+      <c r="E33" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="F33" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="G33" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="F33" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>273</v>
-      </c>
       <c r="H33" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>22</v>
@@ -3966,7 +3957,7 @@
         <v>30</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="M33" s="7" t="s">
         <v>32</v>
@@ -3975,54 +3966,54 @@
         <v>33</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R33" s="7" t="s">
         <v>37</v>
       </c>
       <c r="S33" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="T33" s="7" t="s">
         <v>39</v>
       </c>
       <c r="U33" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="V33" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="34" spans="1:22">
       <c r="A34" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="C34" s="10" t="s">
         <v>279</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>281</v>
       </c>
       <c r="D34" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E34" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="G34" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="F34" s="10" t="s">
+      <c r="H34" s="10" t="s">
         <v>283</v>
-      </c>
-      <c r="G34" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="H34" s="10" t="s">
-        <v>285</v>
       </c>
       <c r="I34" s="8" t="s">
         <v>22</v>
@@ -4034,7 +4025,7 @@
         <v>30</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="M34" s="10" t="s">
         <v>32</v>
@@ -4043,13 +4034,13 @@
         <v>33</v>
       </c>
       <c r="O34" s="10" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="P34" s="10" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="Q34" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R34" s="10" t="s">
         <v>37</v>
@@ -4061,63 +4052,63 @@
         <v>39</v>
       </c>
       <c r="U34" s="10" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="V34" s="10" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="35" spans="1:22" ht="30" customHeight="1">
       <c r="A35" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="C35" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="F35" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>295</v>
-      </c>
       <c r="H35" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K35" s="5" t="s">
         <v>30</v>
       </c>
       <c r="L35" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="M35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="N35" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="M35" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="N35" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>298</v>
-      </c>
       <c r="Q35" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R35" s="7" t="s">
         <v>37</v>
@@ -4129,36 +4120,36 @@
         <v>39</v>
       </c>
       <c r="U35" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="V35" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="36" spans="1:22" ht="30" customHeight="1">
       <c r="A36" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="E36" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="B36" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="C36" s="10" t="s">
+      <c r="F36" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="G36" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="D36" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>303</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="G36" s="10" t="s">
-        <v>304</v>
-      </c>
       <c r="H36" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I36" s="8" t="s">
         <v>22</v>
@@ -4170,7 +4161,7 @@
         <v>30</v>
       </c>
       <c r="L36" s="10" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="M36" s="10" t="s">
         <v>32</v>
@@ -4179,13 +4170,13 @@
         <v>33</v>
       </c>
       <c r="O36" s="10" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="P36" s="10" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="Q36" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="R36" s="10" t="s">
         <v>37</v>
@@ -4197,36 +4188,36 @@
         <v>39</v>
       </c>
       <c r="U36" s="10" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="V36" s="10" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="37" spans="1:22">
       <c r="A37" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="H37" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="I37" s="5" t="s">
         <v>22</v>
@@ -4238,22 +4229,22 @@
         <v>30</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="M37" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N37" s="5" t="s">
         <v>33</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="R37" s="7" t="s">
         <v>37</v>
@@ -4265,36 +4256,36 @@
         <v>39</v>
       </c>
       <c r="U37" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="V37" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" spans="1:22">
       <c r="A38" s="8" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D38" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I38" s="8" t="s">
         <v>42</v>
@@ -4306,22 +4297,22 @@
         <v>30</v>
       </c>
       <c r="L38" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="M38" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="N38" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="O38" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="P38" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="M38" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="N38" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="O38" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="P38" s="10" t="s">
-        <v>323</v>
-      </c>
       <c r="Q38" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="R38" s="10" t="s">
         <v>37</v>
@@ -4333,36 +4324,36 @@
         <v>39</v>
       </c>
       <c r="U38" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="V38" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:22">
       <c r="A39" s="5" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I39" s="5" t="s">
         <v>22</v>
@@ -4374,22 +4365,22 @@
         <v>30</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="M39" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N39" s="5" t="s">
         <v>33</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R39" s="7" t="s">
         <v>37</v>
@@ -4401,36 +4392,36 @@
         <v>39</v>
       </c>
       <c r="U39" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="V39" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40" spans="1:22">
       <c r="A40" s="8" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I40" s="8" t="s">
         <v>42</v>
@@ -4442,22 +4433,22 @@
         <v>30</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="M40" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N40" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O40" s="10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="P40" s="10" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="Q40" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R40" s="10" t="s">
         <v>37</v>
@@ -4469,63 +4460,63 @@
         <v>39</v>
       </c>
       <c r="U40" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="V40" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41" spans="1:22">
       <c r="A41" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K41" s="5" t="s">
         <v>30</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="M41" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N41" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="R41" s="7" t="s">
         <v>37</v>
@@ -4537,36 +4528,36 @@
         <v>39</v>
       </c>
       <c r="U41" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="V41" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="42" spans="1:22" ht="30" customHeight="1">
       <c r="A42" s="8" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>338</v>
+        <v>309</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>339</v>
+        <v>310</v>
       </c>
       <c r="D42" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I42" s="8" t="s">
         <v>22</v>
@@ -4578,7 +4569,7 @@
         <v>30</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="M42" s="10" t="s">
         <v>32</v>
@@ -4587,10 +4578,10 @@
         <v>33</v>
       </c>
       <c r="O42" s="10" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="P42" s="10" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="Q42" s="10" t="s">
         <v>36</v>
@@ -4605,36 +4596,36 @@
         <v>39</v>
       </c>
       <c r="U42" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="V42" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="43" spans="1:22">
       <c r="A43" s="5" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>338</v>
+        <v>309</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>339</v>
+        <v>310</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I43" s="5" t="s">
         <v>22</v>
@@ -4646,7 +4637,7 @@
         <v>30</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="M43" s="7" t="s">
         <v>32</v>
@@ -4655,10 +4646,10 @@
         <v>33</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="Q43" s="7" t="s">
         <v>36</v>
@@ -4673,36 +4664,36 @@
         <v>39</v>
       </c>
       <c r="U43" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="V43" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="44" spans="1:22">
       <c r="A44" s="8" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>338</v>
+        <v>309</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>339</v>
+        <v>310</v>
       </c>
       <c r="D44" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I44" s="8" t="s">
         <v>22</v>
@@ -4714,7 +4705,7 @@
         <v>30</v>
       </c>
       <c r="L44" s="10" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="M44" s="10" t="s">
         <v>32</v>
@@ -4723,13 +4714,13 @@
         <v>33</v>
       </c>
       <c r="O44" s="10" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="P44" s="10" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="Q44" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R44" s="10" t="s">
         <v>37</v>
@@ -4741,36 +4732,36 @@
         <v>39</v>
       </c>
       <c r="U44" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="V44" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="45" spans="1:22" ht="30" customHeight="1">
       <c r="A45" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="E45" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="F45" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="G45" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="D45" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>361</v>
-      </c>
       <c r="H45" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I45" s="5" t="s">
         <v>22</v>
@@ -4782,22 +4773,22 @@
         <v>30</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="M45" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N45" s="5" t="s">
         <v>33</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="R45" s="7" t="s">
         <v>37</v>
@@ -4809,36 +4800,36 @@
         <v>39</v>
       </c>
       <c r="U45" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="V45" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="46" spans="1:22" ht="30" customHeight="1">
       <c r="A46" s="8" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C46" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="G46" s="10" t="s">
         <v>357</v>
       </c>
-      <c r="D46" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>367</v>
-      </c>
-      <c r="F46" s="10" t="s">
-        <v>368</v>
-      </c>
-      <c r="G46" s="10" t="s">
-        <v>361</v>
-      </c>
       <c r="H46" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I46" s="8" t="s">
         <v>22</v>
@@ -4850,22 +4841,22 @@
         <v>30</v>
       </c>
       <c r="L46" s="10" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="M46" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N46" s="8" t="s">
         <v>33</v>
       </c>
       <c r="O46" s="10" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="P46" s="10" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="Q46" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="R46" s="10" t="s">
         <v>37</v>
@@ -4877,36 +4868,36 @@
         <v>39</v>
       </c>
       <c r="U46" s="10" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="V46" s="10" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="47" spans="1:22" ht="30" customHeight="1">
       <c r="A47" s="5" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C47" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="G47" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="D47" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>361</v>
-      </c>
       <c r="H47" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I47" s="5" t="s">
         <v>22</v>
@@ -4918,22 +4909,22 @@
         <v>30</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="M47" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N47" s="5" t="s">
         <v>33</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="R47" s="7" t="s">
         <v>37</v>
@@ -4945,36 +4936,36 @@
         <v>39</v>
       </c>
       <c r="U47" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="V47" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="48" spans="1:22" ht="30" customHeight="1">
       <c r="A48" s="8" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C48" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="G48" s="10" t="s">
         <v>357</v>
       </c>
-      <c r="D48" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>374</v>
-      </c>
-      <c r="F48" s="10" t="s">
-        <v>375</v>
-      </c>
-      <c r="G48" s="10" t="s">
-        <v>361</v>
-      </c>
       <c r="H48" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I48" s="8" t="s">
         <v>22</v>
@@ -4986,22 +4977,22 @@
         <v>30</v>
       </c>
       <c r="L48" s="10" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="M48" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N48" s="8" t="s">
         <v>33</v>
       </c>
       <c r="O48" s="10" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="P48" s="10" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="Q48" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="R48" s="10" t="s">
         <v>37</v>
@@ -5013,36 +5004,36 @@
         <v>39</v>
       </c>
       <c r="U48" s="10" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="V48" s="10" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="49" spans="1:22" ht="30" customHeight="1">
       <c r="A49" s="5" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C49" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="G49" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="D49" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>361</v>
-      </c>
       <c r="H49" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I49" s="5" t="s">
         <v>22</v>
@@ -5054,22 +5045,22 @@
         <v>30</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="M49" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N49" s="5" t="s">
         <v>33</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="R49" s="7" t="s">
         <v>37</v>
@@ -5081,36 +5072,36 @@
         <v>39</v>
       </c>
       <c r="U49" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="V49" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="50" spans="1:22" ht="30" customHeight="1">
       <c r="A50" s="8" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C50" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="G50" s="10" t="s">
         <v>357</v>
       </c>
-      <c r="D50" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="E50" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="F50" s="10" t="s">
-        <v>382</v>
-      </c>
-      <c r="G50" s="10" t="s">
-        <v>361</v>
-      </c>
       <c r="H50" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I50" s="8" t="s">
         <v>22</v>
@@ -5122,22 +5113,22 @@
         <v>30</v>
       </c>
       <c r="L50" s="10" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="M50" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N50" s="8" t="s">
         <v>33</v>
       </c>
       <c r="O50" s="10" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="P50" s="10" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="Q50" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="R50" s="10" t="s">
         <v>37</v>
@@ -5149,36 +5140,36 @@
         <v>39</v>
       </c>
       <c r="U50" s="10" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="V50" s="10" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="51" spans="1:22" ht="30" customHeight="1">
       <c r="A51" s="5" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I51" s="5" t="s">
         <v>22</v>
@@ -5190,63 +5181,63 @@
         <v>30</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="M51" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N51" s="5" t="s">
         <v>33</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="R51" s="7" t="s">
         <v>37</v>
       </c>
       <c r="S51" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="T51" s="7" t="s">
         <v>39</v>
       </c>
       <c r="U51" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="V51" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="52" spans="1:22" ht="30" customHeight="1">
       <c r="A52" s="8" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D52" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="H52" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I52" s="8" t="s">
         <v>22</v>
@@ -5258,63 +5249,63 @@
         <v>30</v>
       </c>
       <c r="L52" s="10" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="M52" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N52" s="8" t="s">
         <v>33</v>
       </c>
       <c r="O52" s="10" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="P52" s="10" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="Q52" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="R52" s="10" t="s">
         <v>37</v>
       </c>
       <c r="S52" s="10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="T52" s="10" t="s">
         <v>39</v>
       </c>
       <c r="U52" s="10" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="V52" s="10" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="53" spans="1:22">
       <c r="A53" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="G53" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="B53" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C53" s="7" t="s">
+      <c r="H53" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="H53" s="7" t="s">
-        <v>402</v>
       </c>
       <c r="I53" s="5" t="s">
         <v>42</v>
@@ -5326,22 +5317,22 @@
         <v>30</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="M53" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N53" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R53" s="7" t="s">
         <v>37</v>
@@ -5353,36 +5344,36 @@
         <v>39</v>
       </c>
       <c r="U53" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="V53" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="54" spans="1:22">
       <c r="A54" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="D54" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="E54" s="10" t="s">
         <v>408</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="F54" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="G54" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="D54" s="10" t="s">
-        <v>410</v>
-      </c>
-      <c r="E54" s="10" t="s">
-        <v>411</v>
-      </c>
-      <c r="F54" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="G54" s="10" t="s">
-        <v>412</v>
-      </c>
       <c r="H54" s="10" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="I54" s="8" t="s">
         <v>22</v>
@@ -5394,7 +5385,7 @@
         <v>30</v>
       </c>
       <c r="L54" s="10" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="M54" s="10" t="s">
         <v>32</v>
@@ -5403,13 +5394,13 @@
         <v>33</v>
       </c>
       <c r="O54" s="10" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="P54" s="10" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="Q54" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R54" s="10" t="s">
         <v>37</v>
@@ -5421,36 +5412,36 @@
         <v>39</v>
       </c>
       <c r="U54" s="10" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="V54" s="10" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="55" spans="1:22" ht="30" customHeight="1">
       <c r="A55" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="E55" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="B55" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C55" s="7" t="s">
+      <c r="F55" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="G55" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="D55" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>422</v>
-      </c>
       <c r="H55" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I55" s="5" t="s">
         <v>22</v>
@@ -5462,19 +5453,19 @@
         <v>30</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="M55" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N55" s="5" t="s">
         <v>33</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="Q55" s="7" t="s">
         <v>36</v>
@@ -5489,36 +5480,36 @@
         <v>39</v>
       </c>
       <c r="U55" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="V55" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="56" spans="1:22" ht="30" customHeight="1">
       <c r="A56" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="D56" s="10" t="s">
         <v>427</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="E56" s="10" t="s">
         <v>428</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="F56" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="G56" s="10" t="s">
         <v>429</v>
       </c>
-      <c r="D56" s="10" t="s">
+      <c r="H56" s="10" t="s">
         <v>430</v>
-      </c>
-      <c r="E56" s="10" t="s">
-        <v>431</v>
-      </c>
-      <c r="F56" s="10" t="s">
-        <v>429</v>
-      </c>
-      <c r="G56" s="10" t="s">
-        <v>432</v>
-      </c>
-      <c r="H56" s="10" t="s">
-        <v>433</v>
       </c>
       <c r="I56" s="8" t="s">
         <v>22</v>
@@ -5530,22 +5521,22 @@
         <v>30</v>
       </c>
       <c r="L56" s="10" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="M56" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N56" s="8" t="s">
         <v>33</v>
       </c>
       <c r="O56" s="10" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="P56" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="Q56" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="R56" s="10" t="s">
         <v>37</v>
@@ -5557,36 +5548,36 @@
         <v>39</v>
       </c>
       <c r="U56" s="10" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="V56" s="10" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="57" spans="1:22" ht="30" customHeight="1">
       <c r="A57" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="D57" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="E57" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="F57" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="G57" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="D57" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>443</v>
-      </c>
       <c r="H57" s="7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="I57" s="5" t="s">
         <v>22</v>
@@ -5598,7 +5589,7 @@
         <v>30</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="M57" s="7" t="s">
         <v>32</v>
@@ -5607,13 +5598,13 @@
         <v>33</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R57" s="7" t="s">
         <v>37</v>
@@ -5625,36 +5616,36 @@
         <v>39</v>
       </c>
       <c r="U57" s="7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="V57" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="58" spans="1:22" ht="30" customHeight="1">
       <c r="A58" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="F58" s="10" t="s">
         <v>449</v>
       </c>
-      <c r="B58" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="C58" s="10" t="s">
+      <c r="G58" s="10" t="s">
         <v>450</v>
       </c>
-      <c r="D58" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="E58" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="F58" s="10" t="s">
-        <v>452</v>
-      </c>
-      <c r="G58" s="10" t="s">
-        <v>453</v>
-      </c>
       <c r="H58" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I58" s="8" t="s">
         <v>22</v>
@@ -5666,19 +5657,19 @@
         <v>30</v>
       </c>
       <c r="L58" s="10" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="M58" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N58" s="8" t="s">
         <v>33</v>
       </c>
       <c r="O58" s="10" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="P58" s="10" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="Q58" s="10" t="s">
         <v>36</v>
@@ -5693,36 +5684,36 @@
         <v>39</v>
       </c>
       <c r="U58" s="10" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="V58" s="10" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="59" spans="1:22">
       <c r="A59" s="5" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D59" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I59" s="5" t="s">
         <v>22</v>
@@ -5734,22 +5725,22 @@
         <v>30</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="M59" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N59" s="5" t="s">
         <v>33</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="R59" s="7" t="s">
         <v>37</v>
@@ -5761,10 +5752,10 @@
         <v>39</v>
       </c>
       <c r="U59" s="7" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="V59" s="7" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
   </sheetData>
@@ -5814,7 +5805,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -5838,13 +5829,13 @@
     </row>
     <row r="2" spans="1:22">
       <c r="C2" s="2" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="F2" s="3">
         <v>54</v>
@@ -5852,41 +5843,41 @@
     </row>
     <row r="3" spans="1:22">
       <c r="C3" s="2" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="C4" s="2" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="C5" s="2" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -5894,13 +5885,13 @@
     </row>
     <row r="6" spans="1:22">
       <c r="C6" s="2" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="F6" s="3">
         <v>104</v>
@@ -5979,49 +5970,49 @@
         <v>22</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>42</v>
       </c>
       <c r="J9" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>490</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>491</v>
-      </c>
-      <c r="L9" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>493</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>36</v>
@@ -6030,16 +6021,16 @@
         <v>37</v>
       </c>
       <c r="S9" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="T9" s="7" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="U9" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="V9" s="7" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="30" customHeight="1">
@@ -6047,37 +6038,37 @@
         <v>42</v>
       </c>
       <c r="B10" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="G10" s="10" t="s">
         <v>496</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="H10" s="10" t="s">
         <v>497</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>498</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>497</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>499</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>500</v>
-      </c>
       <c r="I10" s="8" t="s">
         <v>22</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M10" s="10" t="s">
         <v>32</v>
@@ -6086,10 +6077,10 @@
         <v>33</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="P10" s="10" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="Q10" s="10" t="s">
         <v>36</v>
@@ -6098,69 +6089,69 @@
         <v>37</v>
       </c>
       <c r="S10" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="T10" s="10" t="s">
+        <v>491</v>
+      </c>
+      <c r="U10" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="T10" s="10" t="s">
-        <v>494</v>
-      </c>
-      <c r="U10" s="10" t="s">
-        <v>189</v>
-      </c>
       <c r="V10" s="10" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="11" spans="1:22">
       <c r="A11" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>22</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N11" s="5" t="s">
         <v>33</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="R11" s="7" t="s">
         <v>37</v>
@@ -6169,13 +6160,13 @@
         <v>38</v>
       </c>
       <c r="T11" s="7" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="U11" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="V11" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -6201,22 +6192,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="11" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
   </sheetData>

--- a/latest/BoM/Positional/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Positional/pedalboard-hw-bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="529">
   <si>
     <t>Row</t>
   </si>
@@ -337,6 +337,9 @@
     <t>CM1</t>
   </si>
   <si>
+    <t>CM4</t>
+  </si>
+  <si>
     <t>Raspberry-Pi-4-Compute-Module</t>
   </si>
   <si>
@@ -664,19 +667,163 @@
     <t>19</t>
   </si>
   <si>
+    <t>5-pin DIN connector (5-pin DIN-5 stereo)</t>
+  </si>
+  <si>
+    <t>DIN-5_180degree</t>
+  </si>
+  <si>
+    <t>J1 J3</t>
+  </si>
+  <si>
+    <t>DIN5</t>
+  </si>
+  <si>
+    <t>CP-2350</t>
+  </si>
+  <si>
+    <t>https://www.switchcraft.com/assets/1/24/57PC5F_CD.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/switchcraft-inc/57PC5F/275385</t>
+  </si>
+  <si>
+    <t>71.9944</t>
+  </si>
+  <si>
+    <t>108.9944</t>
+  </si>
+  <si>
+    <t>17.5000</t>
+  </si>
+  <si>
+    <t>14.7500</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Raspberry_Pi_2_3</t>
+  </si>
+  <si>
+    <t>J25</t>
+  </si>
+  <si>
+    <t>HiFi Berry</t>
+  </si>
+  <si>
+    <t>HiFi Berry DAC ADC+</t>
+  </si>
+  <si>
+    <t>https://www.hifiberry.com/docs/data-sheets/datasheet-dac-adc-pro/</t>
+  </si>
+  <si>
+    <t>102.2444</t>
+  </si>
+  <si>
+    <t>62.6188</t>
+  </si>
+  <si>
+    <t>bottom</t>
+  </si>
+  <si>
+    <t>41.4500</t>
+  </si>
+  <si>
+    <t>55.0150</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>Generic connector, single row, 01x03, script generated</t>
+  </si>
+  <si>
+    <t>Conn_01x03_Pin</t>
+  </si>
+  <si>
+    <t>J23 J24 J26</t>
+  </si>
+  <si>
+    <t>JST XH 3</t>
+  </si>
+  <si>
+    <t>JST_XH_B3B-XH-A_1x03_P2.50mm_Vertical</t>
+  </si>
+  <si>
+    <t>Connector_JST</t>
+  </si>
+  <si>
+    <t>https://app.adam-tech.com/products/download/data_sheet/240508/25sh-b-xx-ts-data-sheet.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/adam-tech/25SH-B-03-TS/9830417</t>
+  </si>
+  <si>
+    <t>pedalboard-hw(3)</t>
+  </si>
+  <si>
+    <t>31.5944</t>
+  </si>
+  <si>
+    <t>102.5194</t>
+  </si>
+  <si>
+    <t>6.7000</t>
+  </si>
+  <si>
+    <t>1.9500</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>Audio Jack, 3 Poles (Stereo / TRS), Switched TR Poles (Normalling)</t>
+  </si>
+  <si>
+    <t>AudioJack3_SwitchTR</t>
+  </si>
+  <si>
+    <t>Connector_Audio</t>
+  </si>
+  <si>
+    <t>J2 J4</t>
+  </si>
+  <si>
+    <t>Jack 3.5mm</t>
+  </si>
+  <si>
+    <t>Jack_3.5mm_CUI_SJ1-3525N_Horizontal</t>
+  </si>
+  <si>
+    <t>https://www.cuidevices.com/product/resource/sj1-352xng.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/cui-devices/SJ1-3525NG/738690</t>
+  </si>
+  <si>
+    <t>71.9889</t>
+  </si>
+  <si>
+    <t>106.4944</t>
+  </si>
+  <si>
+    <t>11.2000</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
     <t>M Series, 6.35mm (1/4in) stereo jack, switched, with chrome ferrule and straight PCB pins</t>
   </si>
   <si>
     <t>NMJ6HCD2</t>
   </si>
   <si>
-    <t>Connector_Audio</t>
-  </si>
-  <si>
     <t>J7 J9 J16 J17 J18 J20</t>
   </si>
   <si>
-    <t>EXP1</t>
+    <t>Jack 6.35mm</t>
   </si>
   <si>
     <t>Jack_6.35mm_Horizontal</t>
@@ -703,82 +850,7 @@
     <t>19.2300</t>
   </si>
   <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>Generic connector, single row, 01x03, script generated</t>
-  </si>
-  <si>
-    <t>Conn_01x03_Pin</t>
-  </si>
-  <si>
-    <t>J23 J24 J26</t>
-  </si>
-  <si>
-    <t>EXT-MIDI</t>
-  </si>
-  <si>
-    <t>JST_XH_B3B-XH-A_1x03_P2.50mm_Vertical</t>
-  </si>
-  <si>
-    <t>Connector_JST</t>
-  </si>
-  <si>
-    <t>https://app.adam-tech.com/products/download/data_sheet/240508/25sh-b-xx-ts-data-sheet.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/adam-tech/25SH-B-03-TS/9830417</t>
-  </si>
-  <si>
-    <t>pedalboard-hw(3)</t>
-  </si>
-  <si>
-    <t>31.5944</t>
-  </si>
-  <si>
-    <t>102.5194</t>
-  </si>
-  <si>
-    <t>bottom</t>
-  </si>
-  <si>
-    <t>6.7000</t>
-  </si>
-  <si>
-    <t>1.9500</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>Raspberry_Pi_2_3</t>
-  </si>
-  <si>
-    <t>J25</t>
-  </si>
-  <si>
-    <t>HiFi Berry</t>
-  </si>
-  <si>
-    <t>HiFi Berry DAC ADC+</t>
-  </si>
-  <si>
-    <t>https://www.hifiberry.com/docs/data-sheets/datasheet-dac-adc-pro/</t>
-  </si>
-  <si>
-    <t>102.2444</t>
-  </si>
-  <si>
-    <t>62.6188</t>
-  </si>
-  <si>
-    <t>41.4500</t>
-  </si>
-  <si>
-    <t>55.0150</t>
-  </si>
-  <si>
-    <t>22</t>
+    <t>24</t>
   </si>
   <si>
     <t>Generic connector, double row, 02x02, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
@@ -805,75 +877,6 @@
     <t>3.3500</t>
   </si>
   <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>Audio Jack, 3 Poles (Stereo / TRS), Switched TR Poles (Normalling)</t>
-  </si>
-  <si>
-    <t>AudioJack3_SwitchTR</t>
-  </si>
-  <si>
-    <t>J2 J4</t>
-  </si>
-  <si>
-    <t>MIDI IN J</t>
-  </si>
-  <si>
-    <t>Jack_3.5mm_CUI_SJ1-3525N_Horizontal</t>
-  </si>
-  <si>
-    <t>https://www.cuidevices.com/product/resource/sj1-352xng.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/cui-devices/SJ1-3525NG/738690</t>
-  </si>
-  <si>
-    <t>71.9889</t>
-  </si>
-  <si>
-    <t>106.4944</t>
-  </si>
-  <si>
-    <t>11.2000</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>5-pin DIN connector (5-pin DIN-5 stereo)</t>
-  </si>
-  <si>
-    <t>DIN-5_180degree</t>
-  </si>
-  <si>
-    <t>J1 J3</t>
-  </si>
-  <si>
-    <t>MIDI_IN</t>
-  </si>
-  <si>
-    <t>CP-2350</t>
-  </si>
-  <si>
-    <t>https://www.switchcraft.com/assets/1/24/57PC5F_CD.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/switchcraft-inc/57PC5F/275385</t>
-  </si>
-  <si>
-    <t>71.9944</t>
-  </si>
-  <si>
-    <t>108.9944</t>
-  </si>
-  <si>
-    <t>17.5000</t>
-  </si>
-  <si>
-    <t>14.7500</t>
-  </si>
-  <si>
     <t>25</t>
   </si>
   <si>
@@ -1168,6 +1171,42 @@
     <t>37</t>
   </si>
   <si>
+    <t>Rotary encoder, dual channel, incremental quadrate outputs, with switch</t>
+  </si>
+  <si>
+    <t>RotaryEncoder_Switch</t>
+  </si>
+  <si>
+    <t>SW1 SW2</t>
+  </si>
+  <si>
+    <t>Rotary</t>
+  </si>
+  <si>
+    <t>RotaryEncoder_Alps_EC11E-Switch_Vertical_H20mm_CircularMountingHoles</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/components/products/datasheet/482016514001.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/482016514001/10056402</t>
+  </si>
+  <si>
+    <t>42.2444</t>
+  </si>
+  <si>
+    <t>99.4944</t>
+  </si>
+  <si>
+    <t>16.5000</t>
+  </si>
+  <si>
+    <t>14.4000</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
     <t>Omron B3FS 6x6mm single pole normally-open tactile switch</t>
   </si>
   <si>
@@ -1177,10 +1216,10 @@
     <t>Switch</t>
   </si>
   <si>
-    <t>SW6</t>
-  </si>
-  <si>
-    <t>A</t>
+    <t>SW3 SW4 SW5 SW6 SW7 SW8</t>
+  </si>
+  <si>
+    <t>Tactile</t>
   </si>
   <si>
     <t>SW_PUSH-12mm_Wuerth</t>
@@ -1195,313 +1234,214 @@
     <t>11.9944</t>
   </si>
   <si>
+    <t>63.9944</t>
+  </si>
+  <si>
     <t>16.0000</t>
   </si>
   <si>
     <t>6.8000</t>
   </si>
   <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>SW7</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>86.9944</t>
-  </si>
-  <si>
     <t>39</t>
   </si>
   <si>
-    <t>SW8</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>161.9944</t>
+    <t>74AHCT1G32SE-7</t>
+  </si>
+  <si>
+    <t>U2 U7</t>
+  </si>
+  <si>
+    <t>SOT-353_SC-70-5</t>
+  </si>
+  <si>
+    <t>Package_TO_SOT_SMD</t>
+  </si>
+  <si>
+    <t>https://www.diodes.com/assets/Datasheets/74AHCT1G32.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/diodes-incorporated/74AHCT1G32SE-7/2711987</t>
+  </si>
+  <si>
+    <t>55.1944</t>
+  </si>
+  <si>
+    <t>84.0444</t>
+  </si>
+  <si>
+    <t>2.5500</t>
   </si>
   <si>
     <t>40</t>
   </si>
   <si>
-    <t>SW3</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>63.9944</t>
+    <t>1A Low drop-out regulator, Fixed Output 3.3V, SOT-223</t>
+  </si>
+  <si>
+    <t>NCP1117-3.3_SOT223</t>
+  </si>
+  <si>
+    <t>Regulator_Linear</t>
+  </si>
+  <si>
+    <t>U5</t>
+  </si>
+  <si>
+    <t>SOT-223-3_TabPin2</t>
+  </si>
+  <si>
+    <t>https://www.diodes.com/assets/Datasheets/AZ1117I.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/diodes-incorporated/AZ1117IH-3-3TRG1/5699672</t>
+  </si>
+  <si>
+    <t>115.6444</t>
+  </si>
+  <si>
+    <t>74.1444</t>
+  </si>
+  <si>
+    <t>8.3000</t>
+  </si>
+  <si>
+    <t>6.1000</t>
   </si>
   <si>
     <t>41</t>
   </si>
   <si>
-    <t>SW4</t>
-  </si>
-  <si>
-    <t>E</t>
+    <t>RP2040</t>
+  </si>
+  <si>
+    <t>MCU_RaspberryPi_RP2040</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>RP2040-QFN-56</t>
+  </si>
+  <si>
+    <t>https://datasheets.raspberrypi.com/rp2040/rp2040-datasheet.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/raspberry-pi/SC0914-13/14306010</t>
+  </si>
+  <si>
+    <t>89.3944</t>
+  </si>
+  <si>
+    <t>85.3944</t>
+  </si>
+  <si>
+    <t>7.7500</t>
   </si>
   <si>
     <t>42</t>
   </si>
   <si>
-    <t>SW5</t>
-  </si>
-  <si>
-    <t>F</t>
+    <t>15-Mbps inverting photocouple,5 kVrms, 2.7 - 5.5 Vdd, push-pull output</t>
+  </si>
+  <si>
+    <t>TLP2761</t>
+  </si>
+  <si>
+    <t>Isolator</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>SO-6L_10x3.84mm_P1.27mm</t>
+  </si>
+  <si>
+    <t>Package_SO</t>
+  </si>
+  <si>
+    <t>https://toshiba.semicon-storage.com/info/docget.jsp?did=28819&amp;prodName=TLP2761</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/toshiba-semiconductor-and-storage/TLP2761-TP-E/7809713</t>
+  </si>
+  <si>
+    <t>33.3944</t>
+  </si>
+  <si>
+    <t>10.8000</t>
+  </si>
+  <si>
+    <t>3.3400</t>
   </si>
   <si>
     <t>43</t>
   </si>
   <si>
-    <t>Rotary encoder, dual channel, incremental quadrate outputs, with switch</t>
-  </si>
-  <si>
-    <t>RotaryEncoder_Switch</t>
-  </si>
-  <si>
-    <t>SW2</t>
-  </si>
-  <si>
-    <t>GAIN Rotary</t>
-  </si>
-  <si>
-    <t>RotaryEncoder_Alps_EC11E-Switch_Vertical_H20mm_CircularMountingHoles</t>
-  </si>
-  <si>
-    <t>https://www.we-online.com/components/products/datasheet/482016514001.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/482016514001/10056402</t>
-  </si>
-  <si>
-    <t>117.2444</t>
-  </si>
-  <si>
-    <t>99.4944</t>
-  </si>
-  <si>
-    <t>16.5000</t>
-  </si>
-  <si>
-    <t>14.4000</t>
+    <t xml:space="preserve"> 3.5V to 28V Input, 3A, Step-Down Converter with Eco-mode(tm)</t>
+  </si>
+  <si>
+    <t>TPS54331</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>U6</t>
+  </si>
+  <si>
+    <t>SOIC-8_3.9x4.9mm_P1.27mm</t>
+  </si>
+  <si>
+    <t>https://www.ti.com/lit/ds/symlink/tps54331.pdf?HQS=dis-dk-null-digikeymode-dsf-pf-null-wwe&amp;ts=1697733027064</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/texas-instruments/TPS54331DR/2047963</t>
+  </si>
+  <si>
+    <t>138.6944</t>
+  </si>
+  <si>
+    <t>81.6944</t>
+  </si>
+  <si>
+    <t>6.9000</t>
+  </si>
+  <si>
+    <t>4.4100</t>
   </si>
   <si>
     <t>44</t>
   </si>
   <si>
-    <t>SW1</t>
-  </si>
-  <si>
-    <t>VOL Rotary</t>
-  </si>
-  <si>
-    <t>42.2444</t>
+    <t>W25Q128JVS-Memory_Flash</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>W25Q128JVS</t>
+  </si>
+  <si>
+    <t>SOIC-8_5.23x5.23mm_P1.27mm</t>
+  </si>
+  <si>
+    <t>https://www.winbond.com/resource-files/w25q128jv%20revf%2003272018%20plus.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/winbond-electronics/W25Q128JVSIQ-TR/5803944</t>
+  </si>
+  <si>
+    <t>81.4944</t>
+  </si>
+  <si>
+    <t>78.5444</t>
+  </si>
+  <si>
+    <t>8.8000</t>
   </si>
   <si>
     <t>45</t>
-  </si>
-  <si>
-    <t>74AHCT1G32SE-7</t>
-  </si>
-  <si>
-    <t>U2 U7</t>
-  </si>
-  <si>
-    <t>SOT-353_SC-70-5</t>
-  </si>
-  <si>
-    <t>Package_TO_SOT_SMD</t>
-  </si>
-  <si>
-    <t>https://www.diodes.com/assets/Datasheets/74AHCT1G32.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/diodes-incorporated/74AHCT1G32SE-7/2711987</t>
-  </si>
-  <si>
-    <t>55.1944</t>
-  </si>
-  <si>
-    <t>84.0444</t>
-  </si>
-  <si>
-    <t>2.5500</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>1A Low drop-out regulator, Fixed Output 3.3V, SOT-223</t>
-  </si>
-  <si>
-    <t>NCP1117-3.3_SOT223</t>
-  </si>
-  <si>
-    <t>Regulator_Linear</t>
-  </si>
-  <si>
-    <t>U5</t>
-  </si>
-  <si>
-    <t>SOT-223-3_TabPin2</t>
-  </si>
-  <si>
-    <t>https://www.diodes.com/assets/Datasheets/AZ1117I.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/diodes-incorporated/AZ1117IH-3-3TRG1/5699672</t>
-  </si>
-  <si>
-    <t>115.6444</t>
-  </si>
-  <si>
-    <t>74.1444</t>
-  </si>
-  <si>
-    <t>8.3000</t>
-  </si>
-  <si>
-    <t>6.1000</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>RP2040</t>
-  </si>
-  <si>
-    <t>MCU_RaspberryPi_RP2040</t>
-  </si>
-  <si>
-    <t>U4</t>
-  </si>
-  <si>
-    <t>RP2040-QFN-56</t>
-  </si>
-  <si>
-    <t>https://datasheets.raspberrypi.com/rp2040/rp2040-datasheet.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/raspberry-pi/SC0914-13/14306010</t>
-  </si>
-  <si>
-    <t>89.3944</t>
-  </si>
-  <si>
-    <t>85.3944</t>
-  </si>
-  <si>
-    <t>7.7500</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>15-Mbps inverting photocouple,5 kVrms, 2.7 - 5.5 Vdd, push-pull output</t>
-  </si>
-  <si>
-    <t>TLP2761</t>
-  </si>
-  <si>
-    <t>Isolator</t>
-  </si>
-  <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>SO-6L_10x3.84mm_P1.27mm</t>
-  </si>
-  <si>
-    <t>Package_SO</t>
-  </si>
-  <si>
-    <t>https://toshiba.semicon-storage.com/info/docget.jsp?did=28819&amp;prodName=TLP2761</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/toshiba-semiconductor-and-storage/TLP2761-TP-E/7809713</t>
-  </si>
-  <si>
-    <t>33.3944</t>
-  </si>
-  <si>
-    <t>10.8000</t>
-  </si>
-  <si>
-    <t>3.3400</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.5V to 28V Input, 3A, Step-Down Converter with Eco-mode(tm)</t>
-  </si>
-  <si>
-    <t>TPS54331</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t>U6</t>
-  </si>
-  <si>
-    <t>SOIC-8_3.9x4.9mm_P1.27mm</t>
-  </si>
-  <si>
-    <t>https://www.ti.com/lit/ds/symlink/tps54331.pdf?HQS=dis-dk-null-digikeymode-dsf-pf-null-wwe&amp;ts=1697733027064</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/texas-instruments/TPS54331DR/2047963</t>
-  </si>
-  <si>
-    <t>138.6944</t>
-  </si>
-  <si>
-    <t>81.6944</t>
-  </si>
-  <si>
-    <t>6.9000</t>
-  </si>
-  <si>
-    <t>4.4100</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>W25Q128JVS-Memory_Flash</t>
-  </si>
-  <si>
-    <t>U3</t>
-  </si>
-  <si>
-    <t>W25Q128JVS</t>
-  </si>
-  <si>
-    <t>SOIC-8_5.23x5.23mm_P1.27mm</t>
-  </si>
-  <si>
-    <t>https://www.winbond.com/resource-files/w25q128jv%20revf%2003272018%20plus.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/winbond-electronics/W25Q128JVSIQ-TR/5803944</t>
-  </si>
-  <si>
-    <t>81.4944</t>
-  </si>
-  <si>
-    <t>78.5444</t>
-  </si>
-  <si>
-    <t>8.8000</t>
-  </si>
-  <si>
-    <t>51</t>
   </si>
   <si>
     <t>Two pin crystal</t>
@@ -2215,7 +2155,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W59"/>
+  <dimension ref="A1:W53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -2251,7 +2191,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>505</v>
+        <v>485</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -2276,55 +2216,55 @@
     </row>
     <row r="2" spans="1:23">
       <c r="C2" s="2" t="s">
-        <v>506</v>
+        <v>486</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>507</v>
+        <v>487</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>516</v>
+        <v>496</v>
       </c>
       <c r="F2" s="3">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:23">
       <c r="C3" s="2" t="s">
-        <v>508</v>
+        <v>488</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>509</v>
+        <v>489</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>517</v>
+        <v>497</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>518</v>
+        <v>498</v>
       </c>
     </row>
     <row r="4" spans="1:23">
       <c r="C4" s="2" t="s">
-        <v>510</v>
+        <v>490</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>511</v>
+        <v>491</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>519</v>
+        <v>499</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>520</v>
+        <v>500</v>
       </c>
     </row>
     <row r="5" spans="1:23">
       <c r="C5" s="2" t="s">
-        <v>512</v>
+        <v>492</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>513</v>
+        <v>493</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>521</v>
+        <v>501</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -2332,13 +2272,13 @@
     </row>
     <row r="6" spans="1:23">
       <c r="C6" s="2" t="s">
-        <v>514</v>
+        <v>494</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>515</v>
+        <v>495</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>522</v>
+        <v>502</v>
       </c>
       <c r="F6" s="3">
         <v>104</v>
@@ -3000,13 +2940,13 @@
         <v>104</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>23</v>
@@ -3018,22 +2958,22 @@
         <v>31</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O17" s="5" t="s">
         <v>35</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="R17" s="7" t="s">
         <v>52</v>
@@ -3048,36 +2988,36 @@
         <v>41</v>
       </c>
       <c r="V17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="W17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:23">
       <c r="A18" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I18" s="8" t="s">
         <v>23</v>
@@ -3089,22 +3029,22 @@
         <v>31</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M18" s="12" t="s">
         <v>101</v>
       </c>
       <c r="N18" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O18" s="8" t="s">
         <v>35</v>
       </c>
       <c r="P18" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q18" s="10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="R18" s="10" t="s">
         <v>52</v>
@@ -3119,36 +3059,36 @@
         <v>41</v>
       </c>
       <c r="V18" s="10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="W18" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:23">
       <c r="A19" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>23</v>
@@ -3160,22 +3100,22 @@
         <v>31</v>
       </c>
       <c r="L19" s="11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M19" s="11" t="s">
         <v>101</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O19" s="5" t="s">
         <v>35</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="R19" s="7" t="s">
         <v>52</v>
@@ -3190,36 +3130,36 @@
         <v>41</v>
       </c>
       <c r="V19" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="W19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:23" ht="30" customHeight="1">
       <c r="A20" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E20" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="F20" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="F20" s="10" t="s">
-        <v>132</v>
-      </c>
       <c r="G20" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I20" s="8" t="s">
         <v>58</v>
@@ -3231,22 +3171,22 @@
         <v>31</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M20" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N20" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O20" s="8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P20" s="10" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q20" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="R20" s="10" t="s">
         <v>97</v>
@@ -3261,36 +3201,36 @@
         <v>41</v>
       </c>
       <c r="V20" s="10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="W20" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="30" customHeight="1">
       <c r="A21" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>23</v>
@@ -3302,10 +3242,10 @@
         <v>31</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N21" s="7" t="s">
         <v>48</v>
@@ -3314,13 +3254,13 @@
         <v>35</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="R21" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="S21" s="7" t="s">
         <v>39</v>
@@ -3332,36 +3272,36 @@
         <v>41</v>
       </c>
       <c r="V21" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="W21" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="30" customHeight="1">
       <c r="A22" s="8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I22" s="8" t="s">
         <v>44</v>
@@ -3373,10 +3313,10 @@
         <v>31</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N22" s="10" t="s">
         <v>34</v>
@@ -3385,13 +3325,13 @@
         <v>49</v>
       </c>
       <c r="P22" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q22" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="R22" s="10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="S22" s="10" t="s">
         <v>39</v>
@@ -3403,10 +3343,10 @@
         <v>41</v>
       </c>
       <c r="V22" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="W22" s="10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="30" customHeight="1">
@@ -3414,25 +3354,25 @@
         <v>67</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>23</v>
@@ -3444,10 +3384,10 @@
         <v>31</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N23" s="7" t="s">
         <v>34</v>
@@ -3456,10 +3396,10 @@
         <v>35</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="R23" s="7" t="s">
         <v>38</v>
@@ -3474,36 +3414,36 @@
         <v>41</v>
       </c>
       <c r="V23" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="W23" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="30" customHeight="1">
       <c r="A24" s="8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I24" s="8" t="s">
         <v>23</v>
@@ -3515,10 +3455,10 @@
         <v>31</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M24" s="9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N24" s="10" t="s">
         <v>34</v>
@@ -3527,10 +3467,10 @@
         <v>35</v>
       </c>
       <c r="P24" s="10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q24" s="10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="R24" s="10" t="s">
         <v>52</v>
@@ -3545,36 +3485,36 @@
         <v>41</v>
       </c>
       <c r="V24" s="10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="W24" s="10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="30" customHeight="1">
       <c r="A25" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>23</v>
@@ -3586,10 +3526,10 @@
         <v>31</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N25" s="7" t="s">
         <v>34</v>
@@ -3598,10 +3538,10 @@
         <v>35</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="R25" s="7" t="s">
         <v>52</v>
@@ -3610,42 +3550,42 @@
         <v>39</v>
       </c>
       <c r="T25" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="U25" s="7" t="s">
         <v>41</v>
       </c>
       <c r="V25" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="W25" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="26" spans="1:23" ht="30" customHeight="1">
       <c r="A26" s="8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D26" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="F26" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="E26" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>204</v>
-      </c>
       <c r="G26" s="10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I26" s="8" t="s">
         <v>23</v>
@@ -3657,7 +3597,7 @@
         <v>31</v>
       </c>
       <c r="L26" s="12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M26" s="12" t="s">
         <v>101</v>
@@ -3669,10 +3609,10 @@
         <v>35</v>
       </c>
       <c r="P26" s="10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q26" s="10" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="R26" s="10" t="s">
         <v>38</v>
@@ -3681,30 +3621,30 @@
         <v>39</v>
       </c>
       <c r="T26" s="10" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="U26" s="10" t="s">
         <v>41</v>
       </c>
       <c r="V26" s="10" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="W26" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="27" spans="1:23" ht="30" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>217</v>
@@ -3716,13 +3656,13 @@
         <v>219</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="K27" s="5" t="s">
         <v>31</v>
@@ -3737,187 +3677,187 @@
         <v>48</v>
       </c>
       <c r="O27" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="Q27" s="7" t="s">
-        <v>224</v>
-      </c>
       <c r="R27" s="7" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="S27" s="7" t="s">
         <v>39</v>
       </c>
       <c r="T27" s="7" t="s">
-        <v>199</v>
+        <v>40</v>
       </c>
       <c r="U27" s="7" t="s">
         <v>41</v>
       </c>
       <c r="V27" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="W27" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="W27" s="7" t="s">
+    </row>
+    <row r="28" spans="1:23" ht="30" customHeight="1">
+      <c r="A28" s="8" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="28" spans="1:23" ht="45" customHeight="1">
-      <c r="A28" s="8" t="s">
+      <c r="B28" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="D28" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="E28" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="F28" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="D28" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="E28" s="10" t="s">
+      <c r="G28" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="F28" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>232</v>
-      </c>
       <c r="H28" s="10" t="s">
-        <v>233</v>
+        <v>107</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="K28" s="8" t="s">
         <v>31</v>
       </c>
       <c r="L28" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="M28" s="9" t="s">
-        <v>235</v>
+        <v>231</v>
+      </c>
+      <c r="M28" s="12" t="s">
+        <v>101</v>
       </c>
       <c r="N28" s="10" t="s">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="O28" s="8" t="s">
-        <v>236</v>
+        <v>35</v>
       </c>
       <c r="P28" s="10" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="Q28" s="10" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="R28" s="10" t="s">
         <v>52</v>
       </c>
       <c r="S28" s="10" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="T28" s="10" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="U28" s="10" t="s">
         <v>41</v>
       </c>
       <c r="V28" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="W28" s="10" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" ht="45" customHeight="1">
+      <c r="A29" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="E29" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="10" t="s">
+      <c r="F29" s="7" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="29" spans="1:23" ht="30" customHeight="1">
-      <c r="A29" s="5" t="s">
+      <c r="G29" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="B29" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="C29" s="7" t="s">
+      <c r="H29" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>106</v>
-      </c>
       <c r="I29" s="5" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="K29" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L29" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="M29" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="N29" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="O29" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="M29" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="N29" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="O29" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="R29" s="7" t="s">
         <v>52</v>
       </c>
       <c r="S29" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="T29" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="U29" s="7" t="s">
         <v>41</v>
       </c>
       <c r="V29" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="W29" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="W29" s="7" t="s">
+    </row>
+    <row r="30" spans="1:23" ht="30" customHeight="1">
+      <c r="A30" s="8" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="30" spans="1:23" ht="45" customHeight="1">
-      <c r="A30" s="8" t="s">
+      <c r="B30" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="C30" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="D30" s="10" t="s">
         <v>254</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>205</v>
       </c>
       <c r="E30" s="10" t="s">
         <v>255</v>
@@ -3929,220 +3869,220 @@
         <v>257</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="K30" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="L30" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="M30" s="12" t="s">
-        <v>101</v>
+      <c r="L30" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="M30" s="9" t="s">
+        <v>259</v>
       </c>
       <c r="N30" s="10" t="s">
-        <v>137</v>
+        <v>48</v>
       </c>
       <c r="O30" s="8" t="s">
-        <v>222</v>
+        <v>49</v>
       </c>
       <c r="P30" s="10" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q30" s="10" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="R30" s="10" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="S30" s="10" t="s">
         <v>39</v>
       </c>
       <c r="T30" s="10" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="U30" s="10" t="s">
         <v>41</v>
       </c>
       <c r="V30" s="10" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="W30" s="10" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="30" customHeight="1">
       <c r="A31" s="5" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>216</v>
+        <v>254</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="K31" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="M31" s="6" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="N31" s="7" t="s">
         <v>48</v>
       </c>
       <c r="O31" s="5" t="s">
-        <v>49</v>
+        <v>271</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="R31" s="7" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="S31" s="7" t="s">
         <v>39</v>
       </c>
       <c r="T31" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="U31" s="7" t="s">
         <v>41</v>
       </c>
       <c r="V31" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="W31" s="7" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" ht="30" customHeight="1">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" ht="45" customHeight="1">
       <c r="A32" s="8" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="K32" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="L32" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="M32" s="9" t="s">
-        <v>279</v>
+      <c r="L32" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="M32" s="12" t="s">
+        <v>101</v>
       </c>
       <c r="N32" s="10" t="s">
-        <v>48</v>
+        <v>138</v>
       </c>
       <c r="O32" s="8" t="s">
-        <v>49</v>
+        <v>271</v>
       </c>
       <c r="P32" s="10" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q32" s="10" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="R32" s="10" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="S32" s="10" t="s">
         <v>39</v>
       </c>
       <c r="T32" s="10" t="s">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="U32" s="10" t="s">
         <v>41</v>
       </c>
       <c r="V32" s="10" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="W32" s="10" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="33" spans="1:23" ht="30" customHeight="1">
       <c r="A33" s="5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>101</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>23</v>
@@ -4154,10 +4094,10 @@
         <v>31</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M33" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N33" s="7" t="s">
         <v>34</v>
@@ -4166,10 +4106,10 @@
         <v>35</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="R33" s="7" t="s">
         <v>52</v>
@@ -4178,42 +4118,42 @@
         <v>39</v>
       </c>
       <c r="T33" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="U33" s="7" t="s">
         <v>41</v>
       </c>
       <c r="V33" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="W33" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="34" spans="1:23" ht="30" customHeight="1">
       <c r="A34" s="8" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D34" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I34" s="8" t="s">
         <v>23</v>
@@ -4225,10 +4165,10 @@
         <v>31</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M34" s="9" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N34" s="10" t="s">
         <v>34</v>
@@ -4237,13 +4177,13 @@
         <v>35</v>
       </c>
       <c r="P34" s="10" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q34" s="10" t="s">
-        <v>259</v>
+        <v>283</v>
       </c>
       <c r="R34" s="10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="S34" s="10" t="s">
         <v>39</v>
@@ -4255,36 +4195,36 @@
         <v>41</v>
       </c>
       <c r="V34" s="10" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="W34" s="10" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="30" customHeight="1">
       <c r="A35" s="5" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>58</v>
@@ -4296,25 +4236,25 @@
         <v>31</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M35" s="6" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N35" s="7" t="s">
         <v>48</v>
       </c>
       <c r="O35" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="R35" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="S35" s="7" t="s">
         <v>39</v>
@@ -4326,36 +4266,36 @@
         <v>41</v>
       </c>
       <c r="V35" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="W35" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="30" customHeight="1">
       <c r="A36" s="8" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B36" s="12" t="s">
         <v>101</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E36" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="F36" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="F36" s="10" t="s">
-        <v>321</v>
-      </c>
       <c r="G36" s="10" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I36" s="8" t="s">
         <v>23</v>
@@ -4367,10 +4307,10 @@
         <v>31</v>
       </c>
       <c r="L36" s="10" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M36" s="9" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N36" s="10" t="s">
         <v>34</v>
@@ -4379,10 +4319,10 @@
         <v>35</v>
       </c>
       <c r="P36" s="10" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q36" s="10" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="R36" s="10" t="s">
         <v>97</v>
@@ -4397,36 +4337,36 @@
         <v>41</v>
       </c>
       <c r="V36" s="10" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="W36" s="10" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="37" spans="1:23" ht="30" customHeight="1">
       <c r="A37" s="5" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="I37" s="5" t="s">
         <v>23</v>
@@ -4438,10 +4378,10 @@
         <v>31</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M37" s="6" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N37" s="7" t="s">
         <v>48</v>
@@ -4450,10 +4390,10 @@
         <v>35</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="R37" s="7" t="s">
         <v>97</v>
@@ -4468,36 +4408,36 @@
         <v>41</v>
       </c>
       <c r="V37" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="W37" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="30" customHeight="1">
       <c r="A38" s="8" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D38" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="I38" s="8" t="s">
         <v>44</v>
@@ -4509,10 +4449,10 @@
         <v>31</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M38" s="9" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N38" s="10" t="s">
         <v>48</v>
@@ -4521,10 +4461,10 @@
         <v>49</v>
       </c>
       <c r="P38" s="10" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q38" s="10" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="R38" s="10" t="s">
         <v>97</v>
@@ -4539,36 +4479,36 @@
         <v>41</v>
       </c>
       <c r="V38" s="10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="W38" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39" spans="1:23" ht="30" customHeight="1">
       <c r="A39" s="5" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="I39" s="5" t="s">
         <v>23</v>
@@ -4580,10 +4520,10 @@
         <v>31</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M39" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N39" s="7" t="s">
         <v>48</v>
@@ -4592,10 +4532,10 @@
         <v>35</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="R39" s="7" t="s">
         <v>52</v>
@@ -4610,36 +4550,36 @@
         <v>41</v>
       </c>
       <c r="V39" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="W39" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40" spans="1:23" ht="30" customHeight="1">
       <c r="A40" s="8" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="I40" s="8" t="s">
         <v>44</v>
@@ -4651,10 +4591,10 @@
         <v>31</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M40" s="9" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N40" s="10" t="s">
         <v>48</v>
@@ -4663,13 +4603,13 @@
         <v>49</v>
       </c>
       <c r="P40" s="10" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q40" s="10" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="R40" s="10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="S40" s="10" t="s">
         <v>39</v>
@@ -4681,36 +4621,36 @@
         <v>41</v>
       </c>
       <c r="V40" s="10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="W40" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41" spans="1:23" ht="30" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="I41" s="5" t="s">
         <v>73</v>
@@ -4722,22 +4662,22 @@
         <v>31</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M41" s="6" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="N41" s="7" t="s">
         <v>48</v>
       </c>
       <c r="O41" s="5" t="s">
-        <v>222</v>
+        <v>271</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="R41" s="7" t="s">
         <v>97</v>
@@ -4752,36 +4692,36 @@
         <v>41</v>
       </c>
       <c r="V41" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="W41" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42" spans="1:23" ht="30" customHeight="1">
       <c r="A42" s="8" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D42" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="I42" s="8" t="s">
         <v>23</v>
@@ -4793,10 +4733,10 @@
         <v>31</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M42" s="9" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N42" s="10" t="s">
         <v>34</v>
@@ -4805,10 +4745,10 @@
         <v>35</v>
       </c>
       <c r="P42" s="10" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q42" s="10" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="R42" s="10" t="s">
         <v>38</v>
@@ -4823,36 +4763,36 @@
         <v>41</v>
       </c>
       <c r="V42" s="10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="W42" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43" spans="1:23" ht="30" customHeight="1">
       <c r="A43" s="5" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="I43" s="5" t="s">
         <v>23</v>
@@ -4864,10 +4804,10 @@
         <v>31</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M43" s="6" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N43" s="7" t="s">
         <v>34</v>
@@ -4876,10 +4816,10 @@
         <v>35</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="R43" s="7" t="s">
         <v>38</v>
@@ -4894,36 +4834,36 @@
         <v>41</v>
       </c>
       <c r="V43" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="W43" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44" spans="1:23" ht="30" customHeight="1">
       <c r="A44" s="8" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D44" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="I44" s="8" t="s">
         <v>23</v>
@@ -4935,10 +4875,10 @@
         <v>31</v>
       </c>
       <c r="L44" s="10" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M44" s="9" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N44" s="10" t="s">
         <v>34</v>
@@ -4947,10 +4887,10 @@
         <v>35</v>
       </c>
       <c r="P44" s="10" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q44" s="10" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="R44" s="10" t="s">
         <v>52</v>
@@ -4965,24 +4905,24 @@
         <v>41</v>
       </c>
       <c r="V44" s="10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="W44" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45" spans="1:23" ht="30" customHeight="1">
       <c r="A45" s="5" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>384</v>
+        <v>26</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>385</v>
@@ -4994,13 +4934,13 @@
         <v>387</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="K45" s="5" t="s">
         <v>31</v>
@@ -5015,13 +4955,13 @@
         <v>48</v>
       </c>
       <c r="O45" s="5" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="P45" s="7" t="s">
         <v>390</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="R45" s="7" t="s">
         <v>97</v>
@@ -5030,69 +4970,69 @@
         <v>39</v>
       </c>
       <c r="T45" s="7" t="s">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="U45" s="7" t="s">
         <v>41</v>
       </c>
       <c r="V45" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="W45" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="46" spans="1:23" ht="30" customHeight="1">
       <c r="A46" s="8" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="J46" s="8" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="K46" s="8" t="s">
         <v>31</v>
       </c>
       <c r="L46" s="10" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="M46" s="9" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="N46" s="10" t="s">
         <v>48</v>
       </c>
       <c r="O46" s="8" t="s">
-        <v>35</v>
+        <v>271</v>
       </c>
       <c r="P46" s="10" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="Q46" s="10" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="R46" s="10" t="s">
         <v>97</v>
@@ -5107,66 +5047,66 @@
         <v>41</v>
       </c>
       <c r="V46" s="10" t="s">
-        <v>391</v>
+        <v>405</v>
       </c>
       <c r="W46" s="10" t="s">
-        <v>392</v>
+        <v>406</v>
       </c>
     </row>
     <row r="47" spans="1:23" ht="30" customHeight="1">
       <c r="A47" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>382</v>
+        <v>407</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>101</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>383</v>
+        <v>408</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>384</v>
+        <v>408</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>387</v>
+        <v>410</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>106</v>
+        <v>411</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="K47" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>388</v>
+        <v>412</v>
       </c>
       <c r="M47" s="6" t="s">
-        <v>389</v>
+        <v>413</v>
       </c>
       <c r="N47" s="7" t="s">
-        <v>48</v>
+        <v>138</v>
       </c>
       <c r="O47" s="5" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>400</v>
+        <v>414</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>390</v>
+        <v>415</v>
       </c>
       <c r="R47" s="7" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="S47" s="7" t="s">
         <v>39</v>
@@ -5178,36 +5118,36 @@
         <v>41</v>
       </c>
       <c r="V47" s="7" t="s">
-        <v>391</v>
+        <v>416</v>
       </c>
       <c r="W47" s="7" t="s">
-        <v>392</v>
+        <v>212</v>
       </c>
     </row>
     <row r="48" spans="1:23" ht="30" customHeight="1">
       <c r="A48" s="8" t="s">
-        <v>401</v>
+        <v>417</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>382</v>
+        <v>418</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>383</v>
+        <v>419</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>384</v>
+        <v>420</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>402</v>
+        <v>421</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>403</v>
+        <v>419</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>387</v>
+        <v>422</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>106</v>
+        <v>411</v>
       </c>
       <c r="I48" s="8" t="s">
         <v>23</v>
@@ -5219,25 +5159,25 @@
         <v>31</v>
       </c>
       <c r="L48" s="10" t="s">
-        <v>388</v>
+        <v>423</v>
       </c>
       <c r="M48" s="9" t="s">
-        <v>389</v>
+        <v>424</v>
       </c>
       <c r="N48" s="10" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="O48" s="8" t="s">
         <v>35</v>
       </c>
       <c r="P48" s="10" t="s">
-        <v>390</v>
+        <v>425</v>
       </c>
       <c r="Q48" s="10" t="s">
-        <v>404</v>
+        <v>426</v>
       </c>
       <c r="R48" s="10" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="S48" s="10" t="s">
         <v>39</v>
@@ -5249,36 +5189,36 @@
         <v>41</v>
       </c>
       <c r="V48" s="10" t="s">
-        <v>391</v>
+        <v>427</v>
       </c>
       <c r="W48" s="10" t="s">
-        <v>392</v>
+        <v>428</v>
       </c>
     </row>
     <row r="49" spans="1:23" ht="30" customHeight="1">
       <c r="A49" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>382</v>
+        <v>429</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>101</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>383</v>
+        <v>430</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>384</v>
+        <v>431</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>406</v>
+        <v>432</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>407</v>
+        <v>430</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>387</v>
+        <v>433</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I49" s="5" t="s">
         <v>23</v>
@@ -5290,10 +5230,10 @@
         <v>31</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>388</v>
+        <v>434</v>
       </c>
       <c r="M49" s="6" t="s">
-        <v>389</v>
+        <v>435</v>
       </c>
       <c r="N49" s="7" t="s">
         <v>48</v>
@@ -5302,13 +5242,13 @@
         <v>35</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>396</v>
+        <v>436</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>404</v>
+        <v>437</v>
       </c>
       <c r="R49" s="7" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="S49" s="7" t="s">
         <v>39</v>
@@ -5320,36 +5260,36 @@
         <v>41</v>
       </c>
       <c r="V49" s="7" t="s">
-        <v>391</v>
+        <v>438</v>
       </c>
       <c r="W49" s="7" t="s">
-        <v>392</v>
+        <v>438</v>
       </c>
     </row>
     <row r="50" spans="1:23" ht="30" customHeight="1">
       <c r="A50" s="8" t="s">
-        <v>408</v>
+        <v>439</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>382</v>
+        <v>440</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>383</v>
+        <v>441</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>384</v>
+        <v>442</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>409</v>
+        <v>443</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>410</v>
+        <v>441</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>387</v>
+        <v>444</v>
       </c>
       <c r="H50" s="10" t="s">
-        <v>106</v>
+        <v>445</v>
       </c>
       <c r="I50" s="8" t="s">
         <v>23</v>
@@ -5361,10 +5301,10 @@
         <v>31</v>
       </c>
       <c r="L50" s="10" t="s">
-        <v>388</v>
+        <v>446</v>
       </c>
       <c r="M50" s="9" t="s">
-        <v>389</v>
+        <v>447</v>
       </c>
       <c r="N50" s="10" t="s">
         <v>48</v>
@@ -5373,10 +5313,10 @@
         <v>35</v>
       </c>
       <c r="P50" s="10" t="s">
-        <v>400</v>
+        <v>448</v>
       </c>
       <c r="Q50" s="10" t="s">
-        <v>404</v>
+        <v>155</v>
       </c>
       <c r="R50" s="10" t="s">
         <v>97</v>
@@ -5391,36 +5331,36 @@
         <v>41</v>
       </c>
       <c r="V50" s="10" t="s">
-        <v>391</v>
+        <v>449</v>
       </c>
       <c r="W50" s="10" t="s">
-        <v>392</v>
+        <v>450</v>
       </c>
     </row>
     <row r="51" spans="1:23" ht="30" customHeight="1">
       <c r="A51" s="5" t="s">
-        <v>411</v>
+        <v>451</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>412</v>
+        <v>452</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>413</v>
+        <v>453</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>26</v>
+        <v>454</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>414</v>
+        <v>455</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>415</v>
+        <v>453</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>416</v>
+        <v>456</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>106</v>
+        <v>445</v>
       </c>
       <c r="I51" s="5" t="s">
         <v>23</v>
@@ -5432,66 +5372,66 @@
         <v>31</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>417</v>
+        <v>457</v>
       </c>
       <c r="M51" s="6" t="s">
-        <v>418</v>
+        <v>458</v>
       </c>
       <c r="N51" s="7" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="O51" s="5" t="s">
         <v>35</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>419</v>
+        <v>459</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>420</v>
+        <v>460</v>
       </c>
       <c r="R51" s="7" t="s">
-        <v>97</v>
+        <v>156</v>
       </c>
       <c r="S51" s="7" t="s">
         <v>39</v>
       </c>
       <c r="T51" s="7" t="s">
-        <v>199</v>
+        <v>40</v>
       </c>
       <c r="U51" s="7" t="s">
         <v>41</v>
       </c>
       <c r="V51" s="7" t="s">
-        <v>421</v>
+        <v>461</v>
       </c>
       <c r="W51" s="7" t="s">
-        <v>422</v>
+        <v>462</v>
       </c>
     </row>
     <row r="52" spans="1:23" ht="30" customHeight="1">
       <c r="A52" s="8" t="s">
-        <v>423</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>412</v>
+        <v>463</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>101</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>413</v>
+        <v>464</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>26</v>
+        <v>287</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>424</v>
+        <v>465</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>425</v>
+        <v>466</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>416</v>
+        <v>467</v>
       </c>
       <c r="H52" s="10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I52" s="8" t="s">
         <v>23</v>
@@ -5503,10 +5443,10 @@
         <v>31</v>
       </c>
       <c r="L52" s="10" t="s">
-        <v>417</v>
+        <v>468</v>
       </c>
       <c r="M52" s="9" t="s">
-        <v>418</v>
+        <v>469</v>
       </c>
       <c r="N52" s="10" t="s">
         <v>48</v>
@@ -5515,84 +5455,84 @@
         <v>35</v>
       </c>
       <c r="P52" s="10" t="s">
-        <v>426</v>
+        <v>470</v>
       </c>
       <c r="Q52" s="10" t="s">
-        <v>420</v>
+        <v>471</v>
       </c>
       <c r="R52" s="10" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="S52" s="10" t="s">
         <v>39</v>
       </c>
       <c r="T52" s="10" t="s">
-        <v>199</v>
+        <v>40</v>
       </c>
       <c r="U52" s="10" t="s">
         <v>41</v>
       </c>
       <c r="V52" s="10" t="s">
-        <v>421</v>
+        <v>472</v>
       </c>
       <c r="W52" s="10" t="s">
-        <v>422</v>
+        <v>462</v>
       </c>
     </row>
     <row r="53" spans="1:23" ht="30" customHeight="1">
       <c r="A53" s="5" t="s">
-        <v>427</v>
-      </c>
-      <c r="B53" s="11" t="s">
-        <v>101</v>
+        <v>473</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>474</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>428</v>
+        <v>475</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>428</v>
+        <v>26</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>429</v>
+        <v>476</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>428</v>
+        <v>477</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>430</v>
+        <v>478</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>431</v>
+        <v>107</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="K53" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>432</v>
+        <v>479</v>
       </c>
       <c r="M53" s="6" t="s">
-        <v>433</v>
+        <v>480</v>
       </c>
       <c r="N53" s="7" t="s">
-        <v>137</v>
+        <v>48</v>
       </c>
       <c r="O53" s="5" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>434</v>
+        <v>481</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>435</v>
+        <v>482</v>
       </c>
       <c r="R53" s="7" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="S53" s="7" t="s">
         <v>39</v>
@@ -5604,436 +5544,10 @@
         <v>41</v>
       </c>
       <c r="V53" s="7" t="s">
-        <v>436</v>
+        <v>483</v>
       </c>
       <c r="W53" s="7" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23" ht="30" customHeight="1">
-      <c r="A54" s="8" t="s">
-        <v>437</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>438</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>439</v>
-      </c>
-      <c r="D54" s="10" t="s">
-        <v>440</v>
-      </c>
-      <c r="E54" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="F54" s="10" t="s">
-        <v>439</v>
-      </c>
-      <c r="G54" s="10" t="s">
-        <v>442</v>
-      </c>
-      <c r="H54" s="10" t="s">
-        <v>431</v>
-      </c>
-      <c r="I54" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J54" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K54" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L54" s="10" t="s">
-        <v>443</v>
-      </c>
-      <c r="M54" s="9" t="s">
-        <v>444</v>
-      </c>
-      <c r="N54" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="O54" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="P54" s="10" t="s">
-        <v>445</v>
-      </c>
-      <c r="Q54" s="10" t="s">
-        <v>446</v>
-      </c>
-      <c r="R54" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="S54" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="T54" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="U54" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="V54" s="10" t="s">
-        <v>447</v>
-      </c>
-      <c r="W54" s="10" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="55" spans="1:23" ht="30" customHeight="1">
-      <c r="A55" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="B55" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="H55" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="I55" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J55" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K55" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="L55" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="M55" s="6" t="s">
-        <v>455</v>
-      </c>
-      <c r="N55" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="O55" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="P55" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="Q55" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="R55" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="S55" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="T55" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="U55" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="V55" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="W55" s="7" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="56" spans="1:23" ht="30" customHeight="1">
-      <c r="A56" s="8" t="s">
-        <v>459</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>460</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>461</v>
-      </c>
-      <c r="D56" s="10" t="s">
-        <v>462</v>
-      </c>
-      <c r="E56" s="10" t="s">
-        <v>463</v>
-      </c>
-      <c r="F56" s="10" t="s">
-        <v>461</v>
-      </c>
-      <c r="G56" s="10" t="s">
-        <v>464</v>
-      </c>
-      <c r="H56" s="10" t="s">
-        <v>465</v>
-      </c>
-      <c r="I56" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J56" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K56" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L56" s="10" t="s">
-        <v>466</v>
-      </c>
-      <c r="M56" s="9" t="s">
-        <v>467</v>
-      </c>
-      <c r="N56" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="O56" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="P56" s="10" t="s">
-        <v>468</v>
-      </c>
-      <c r="Q56" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="R56" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="S56" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="T56" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="U56" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="V56" s="10" t="s">
-        <v>469</v>
-      </c>
-      <c r="W56" s="10" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="57" spans="1:23" ht="30" customHeight="1">
-      <c r="A57" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>472</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="H57" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="I57" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J57" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K57" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="L57" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="M57" s="6" t="s">
-        <v>478</v>
-      </c>
-      <c r="N57" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="O57" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="P57" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="Q57" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="R57" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="S57" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="T57" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="U57" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="V57" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="W57" s="7" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="58" spans="1:23" ht="30" customHeight="1">
-      <c r="A58" s="8" t="s">
-        <v>483</v>
-      </c>
-      <c r="B58" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="C58" s="10" t="s">
         <v>484</v>
-      </c>
-      <c r="D58" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="E58" s="10" t="s">
-        <v>485</v>
-      </c>
-      <c r="F58" s="10" t="s">
-        <v>486</v>
-      </c>
-      <c r="G58" s="10" t="s">
-        <v>487</v>
-      </c>
-      <c r="H58" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="I58" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J58" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K58" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L58" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="M58" s="9" t="s">
-        <v>489</v>
-      </c>
-      <c r="N58" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="O58" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="P58" s="10" t="s">
-        <v>490</v>
-      </c>
-      <c r="Q58" s="10" t="s">
-        <v>491</v>
-      </c>
-      <c r="R58" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="S58" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="T58" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="U58" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="V58" s="10" t="s">
-        <v>492</v>
-      </c>
-      <c r="W58" s="10" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="59" spans="1:23" ht="30" customHeight="1">
-      <c r="A59" s="5" t="s">
-        <v>493</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>495</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>496</v>
-      </c>
-      <c r="F59" s="7" t="s">
-        <v>497</v>
-      </c>
-      <c r="G59" s="7" t="s">
-        <v>498</v>
-      </c>
-      <c r="H59" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="I59" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J59" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K59" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="L59" s="7" t="s">
-        <v>499</v>
-      </c>
-      <c r="M59" s="6" t="s">
-        <v>500</v>
-      </c>
-      <c r="N59" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="O59" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="P59" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="Q59" s="7" t="s">
-        <v>502</v>
-      </c>
-      <c r="R59" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="S59" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="T59" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="U59" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="V59" s="7" t="s">
-        <v>503</v>
-      </c>
-      <c r="W59" s="7" t="s">
-        <v>504</v>
       </c>
     </row>
   </sheetData>
@@ -6084,7 +5598,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>505</v>
+        <v>485</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -6109,55 +5623,55 @@
     </row>
     <row r="2" spans="1:23">
       <c r="C2" s="2" t="s">
-        <v>506</v>
+        <v>486</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>507</v>
+        <v>487</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>516</v>
+        <v>496</v>
       </c>
       <c r="F2" s="3">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:23">
       <c r="C3" s="2" t="s">
-        <v>508</v>
+        <v>488</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>509</v>
+        <v>489</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>517</v>
+        <v>497</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>518</v>
+        <v>498</v>
       </c>
     </row>
     <row r="4" spans="1:23">
       <c r="C4" s="2" t="s">
-        <v>510</v>
+        <v>490</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>511</v>
+        <v>491</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>519</v>
+        <v>499</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>520</v>
+        <v>500</v>
       </c>
     </row>
     <row r="5" spans="1:23">
       <c r="C5" s="2" t="s">
-        <v>512</v>
+        <v>492</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>513</v>
+        <v>493</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>521</v>
+        <v>501</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -6165,13 +5679,13 @@
     </row>
     <row r="6" spans="1:23">
       <c r="C6" s="2" t="s">
-        <v>514</v>
+        <v>494</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>515</v>
+        <v>495</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>522</v>
+        <v>502</v>
       </c>
       <c r="F6" s="3">
         <v>104</v>
@@ -6253,37 +5767,37 @@
         <v>23</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>523</v>
+        <v>503</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>524</v>
+        <v>504</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>525</v>
+        <v>505</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>44</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>526</v>
+        <v>506</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>527</v>
+        <v>507</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M9" s="11" t="s">
         <v>101</v>
@@ -6295,10 +5809,10 @@
         <v>49</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>528</v>
+        <v>508</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>529</v>
+        <v>509</v>
       </c>
       <c r="R9" s="7" t="s">
         <v>38</v>
@@ -6307,16 +5821,16 @@
         <v>39</v>
       </c>
       <c r="T9" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="U9" s="7" t="s">
-        <v>530</v>
+        <v>510</v>
       </c>
       <c r="V9" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="W9" s="7" t="s">
-        <v>531</v>
+        <v>511</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="30" customHeight="1">
@@ -6324,40 +5838,40 @@
         <v>44</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>532</v>
+        <v>512</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>533</v>
+        <v>513</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>534</v>
+        <v>514</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>533</v>
+        <v>513</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>535</v>
+        <v>515</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>536</v>
+        <v>516</v>
       </c>
       <c r="I10" s="8" t="s">
         <v>23</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>526</v>
+        <v>506</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>527</v>
+        <v>507</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>537</v>
+        <v>517</v>
       </c>
       <c r="N10" s="10" t="s">
         <v>34</v>
@@ -6366,10 +5880,10 @@
         <v>35</v>
       </c>
       <c r="P10" s="10" t="s">
-        <v>538</v>
+        <v>518</v>
       </c>
       <c r="Q10" s="10" t="s">
-        <v>539</v>
+        <v>519</v>
       </c>
       <c r="R10" s="10" t="s">
         <v>38</v>
@@ -6378,16 +5892,16 @@
         <v>39</v>
       </c>
       <c r="T10" s="10" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="U10" s="10" t="s">
-        <v>530</v>
+        <v>510</v>
       </c>
       <c r="V10" s="10" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="W10" s="10" t="s">
-        <v>540</v>
+        <v>520</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -6395,37 +5909,37 @@
         <v>53</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>541</v>
+        <v>521</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>23</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>526</v>
+        <v>506</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>527</v>
+        <v>507</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M11" s="11" t="s">
         <v>101</v>
@@ -6437,10 +5951,10 @@
         <v>35</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>543</v>
+        <v>523</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>544</v>
+        <v>524</v>
       </c>
       <c r="R11" s="7" t="s">
         <v>97</v>
@@ -6452,13 +5966,13 @@
         <v>40</v>
       </c>
       <c r="U11" s="7" t="s">
-        <v>530</v>
+        <v>510</v>
       </c>
       <c r="V11" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="W11" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -6484,22 +5998,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>545</v>
+        <v>525</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>546</v>
+        <v>526</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>547</v>
+        <v>527</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="11" t="s">
-        <v>548</v>
+        <v>528</v>
       </c>
     </row>
   </sheetData>

--- a/latest/BoM/Positional/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Positional/pedalboard-hw-bom.xlsx
@@ -349,7 +349,7 @@
     <t>https://www.hirose.com/en/product/document?clcode=&amp;productname=&amp;series=DF40&amp;documenttype=Catalog&amp;lang=en&amp;documentid=en_DF40_CAT</t>
   </si>
   <si>
-    <t>https://www.digikey.ch/de/products/detail/hirose-electric-co-ltd/DF40C-100DS-0-4V-51/1969476?utm_adgroup=Connectors%2C%20Interconnects&amp;utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=Dynamic%20Search_DE_Product&amp;utm_term=&amp;productid=&amp;utm_content=Connectors%2C%20Interconnects&amp;utm_id=go_cmp-225090269_adg-23739644429_ad-668713893261_dsa-40817298870_dev-c_ext-_prd-_sig-EAIaIQobChMIkc2bqtWCggMV_4RoCR2sgwV-EAAYASAAEgLIUvD_BwE&amp;gclid=EAIaIQobChMIkc2bqtWCggMV_4RoCR2sgwV-EAAYASAAEgLIUvD_BwE</t>
+    <t>https://www.digikey.ch/de/products/detail/hirose-electric-co-ltd/DF40C-100DS-0-4V-51/1969476</t>
   </si>
   <si>
     <t>/Audio</t>
@@ -2923,7 +2923,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="135" customHeight="1">
+    <row r="17" spans="1:23" ht="45" customHeight="1">
       <c r="A17" s="5" t="s">
         <v>100</v>
       </c>

--- a/latest/BoM/Positional/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Positional/pedalboard-hw-bom.xlsx
@@ -517,7 +517,7 @@
     <t>D_SMA</t>
   </si>
   <si>
-    <t>http://www.vishay.com/docs/88525/1n5817.pdf</t>
+    <t>https://www.comchiptech.com/admin/files/product/20190514101641.pdf</t>
   </si>
   <si>
     <t>https://www.digikey.ch/de/products/detail/comchip-technology/SS34-HF/10279693</t>

--- a/latest/BoM/Positional/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Positional/pedalboard-hw-bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="530">
   <si>
     <t>Row</t>
   </si>
@@ -253,6 +253,9 @@
     <t>https://datasheets.kyocera-avx.com/KGM_X7R.pdf</t>
   </si>
   <si>
+    <t>https://www.digikey.ch/de/products/detail/kyocera-avx/KGM21AR71H105MU/3081237</t>
+  </si>
+  <si>
     <t>84.1944</t>
   </si>
   <si>
@@ -271,10 +274,10 @@
     <t>8</t>
   </si>
   <si>
-    <t>https://search.murata.co.jp/Ceramy/image/img/A01X/G101/ENG/GRM21BZ71H475ME15-01.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/murata-electronics/GRM21BZ71H475ME15K/13904866</t>
+    <t>https://mm.digikey.com/Volume0/opasdata/d220001/medias/docus/339/CL21A226MAYNNNE_Spec.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/samsung-electro-mechanics/CL21A226MAYNNNE/10479857</t>
   </si>
   <si>
     <t>pedalboard-hw(8)</t>
@@ -2191,7 +2194,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -2216,13 +2219,13 @@
     </row>
     <row r="2" spans="1:23">
       <c r="C2" s="2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="F2" s="3">
         <v>48</v>
@@ -2230,41 +2233,41 @@
     </row>
     <row r="3" spans="1:23">
       <c r="C3" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="4" spans="1:23">
       <c r="C4" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="5" spans="1:23">
       <c r="C5" s="2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -2272,13 +2275,13 @@
     </row>
     <row r="6" spans="1:23">
       <c r="C6" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F6" s="3">
         <v>104</v>
@@ -2748,7 +2751,7 @@
         <v>76</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="N14" s="10" t="s">
         <v>48</v>
@@ -2757,10 +2760,10 @@
         <v>49</v>
       </c>
       <c r="P14" s="10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q14" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R14" s="10" t="s">
         <v>52</v>
@@ -2783,7 +2786,7 @@
     </row>
     <row r="15" spans="1:23" ht="30" customHeight="1">
       <c r="A15" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>24</v>
@@ -2795,10 +2798,10 @@
         <v>26</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>29</v>
@@ -2807,31 +2810,31 @@
         <v>30</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K15" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N15" s="7" t="s">
         <v>34</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R15" s="7" t="s">
         <v>52</v>
@@ -2854,25 +2857,25 @@
     </row>
     <row r="16" spans="1:23" ht="30" customHeight="1">
       <c r="A16" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H16" s="10" t="s">
         <v>30</v>
@@ -2887,10 +2890,10 @@
         <v>31</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N16" s="10" t="s">
         <v>34</v>
@@ -2899,13 +2902,13 @@
         <v>35</v>
       </c>
       <c r="P16" s="10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R16" s="10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="S16" s="10" t="s">
         <v>39</v>
@@ -2917,36 +2920,36 @@
         <v>41</v>
       </c>
       <c r="V16" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="W16" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="45" customHeight="1">
       <c r="A17" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>23</v>
@@ -2958,22 +2961,22 @@
         <v>31</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O17" s="5" t="s">
         <v>35</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="R17" s="7" t="s">
         <v>52</v>
@@ -2988,36 +2991,36 @@
         <v>41</v>
       </c>
       <c r="V17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="W17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:23">
       <c r="A18" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I18" s="8" t="s">
         <v>23</v>
@@ -3029,22 +3032,22 @@
         <v>31</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M18" s="12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N18" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O18" s="8" t="s">
         <v>35</v>
       </c>
       <c r="P18" s="10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q18" s="10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="R18" s="10" t="s">
         <v>52</v>
@@ -3059,36 +3062,36 @@
         <v>41</v>
       </c>
       <c r="V18" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="W18" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:23">
       <c r="A19" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>23</v>
@@ -3100,22 +3103,22 @@
         <v>31</v>
       </c>
       <c r="L19" s="11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O19" s="5" t="s">
         <v>35</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="R19" s="7" t="s">
         <v>52</v>
@@ -3130,36 +3133,36 @@
         <v>41</v>
       </c>
       <c r="V19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="W19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:23" ht="30" customHeight="1">
       <c r="A20" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E20" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="F20" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="F20" s="10" t="s">
-        <v>133</v>
-      </c>
       <c r="G20" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I20" s="8" t="s">
         <v>58</v>
@@ -3171,25 +3174,25 @@
         <v>31</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M20" s="9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N20" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O20" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P20" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q20" s="10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="R20" s="10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="S20" s="10" t="s">
         <v>39</v>
@@ -3201,36 +3204,36 @@
         <v>41</v>
       </c>
       <c r="V20" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="W20" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="30" customHeight="1">
       <c r="A21" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>23</v>
@@ -3242,10 +3245,10 @@
         <v>31</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N21" s="7" t="s">
         <v>48</v>
@@ -3254,13 +3257,13 @@
         <v>35</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="R21" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="S21" s="7" t="s">
         <v>39</v>
@@ -3272,36 +3275,36 @@
         <v>41</v>
       </c>
       <c r="V21" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="W21" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="30" customHeight="1">
       <c r="A22" s="8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I22" s="8" t="s">
         <v>44</v>
@@ -3313,10 +3316,10 @@
         <v>31</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N22" s="10" t="s">
         <v>34</v>
@@ -3325,13 +3328,13 @@
         <v>49</v>
       </c>
       <c r="P22" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q22" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="R22" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="S22" s="10" t="s">
         <v>39</v>
@@ -3343,10 +3346,10 @@
         <v>41</v>
       </c>
       <c r="V22" s="10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="W22" s="10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="30" customHeight="1">
@@ -3354,25 +3357,25 @@
         <v>67</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>23</v>
@@ -3384,10 +3387,10 @@
         <v>31</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N23" s="7" t="s">
         <v>34</v>
@@ -3396,10 +3399,10 @@
         <v>35</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="R23" s="7" t="s">
         <v>38</v>
@@ -3414,36 +3417,36 @@
         <v>41</v>
       </c>
       <c r="V23" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="W23" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="30" customHeight="1">
       <c r="A24" s="8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I24" s="8" t="s">
         <v>23</v>
@@ -3455,10 +3458,10 @@
         <v>31</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M24" s="9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N24" s="10" t="s">
         <v>34</v>
@@ -3467,10 +3470,10 @@
         <v>35</v>
       </c>
       <c r="P24" s="10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q24" s="10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="R24" s="10" t="s">
         <v>52</v>
@@ -3485,36 +3488,36 @@
         <v>41</v>
       </c>
       <c r="V24" s="10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="W24" s="10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="30" customHeight="1">
       <c r="A25" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>23</v>
@@ -3526,10 +3529,10 @@
         <v>31</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N25" s="7" t="s">
         <v>34</v>
@@ -3538,10 +3541,10 @@
         <v>35</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="R25" s="7" t="s">
         <v>52</v>
@@ -3550,42 +3553,42 @@
         <v>39</v>
       </c>
       <c r="T25" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="U25" s="7" t="s">
         <v>41</v>
       </c>
       <c r="V25" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="W25" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="26" spans="1:23" ht="30" customHeight="1">
       <c r="A26" s="8" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D26" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="F26" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="E26" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>205</v>
-      </c>
       <c r="G26" s="10" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I26" s="8" t="s">
         <v>23</v>
@@ -3597,10 +3600,10 @@
         <v>31</v>
       </c>
       <c r="L26" s="12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M26" s="12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N26" s="10" t="s">
         <v>48</v>
@@ -3609,10 +3612,10 @@
         <v>35</v>
       </c>
       <c r="P26" s="10" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q26" s="10" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="R26" s="10" t="s">
         <v>38</v>
@@ -3621,42 +3624,42 @@
         <v>39</v>
       </c>
       <c r="T26" s="10" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="U26" s="10" t="s">
         <v>41</v>
       </c>
       <c r="V26" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="W26" s="10" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="1:23" ht="30" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>44</v>
@@ -3668,10 +3671,10 @@
         <v>31</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N27" s="7" t="s">
         <v>48</v>
@@ -3680,10 +3683,10 @@
         <v>49</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="R27" s="7" t="s">
         <v>52</v>
@@ -3698,36 +3701,36 @@
         <v>41</v>
       </c>
       <c r="V27" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="W27" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="30" customHeight="1">
       <c r="A28" s="8" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I28" s="8" t="s">
         <v>23</v>
@@ -3739,66 +3742,66 @@
         <v>31</v>
       </c>
       <c r="L28" s="10" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M28" s="12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N28" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O28" s="8" t="s">
         <v>35</v>
       </c>
       <c r="P28" s="10" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q28" s="10" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="R28" s="10" t="s">
         <v>52</v>
       </c>
       <c r="S28" s="10" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="T28" s="10" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="U28" s="10" t="s">
         <v>41</v>
       </c>
       <c r="V28" s="10" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="W28" s="10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="29" spans="1:23" ht="45" customHeight="1">
       <c r="A29" s="5" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>53</v>
@@ -3810,66 +3813,66 @@
         <v>31</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N29" s="7" t="s">
         <v>48</v>
       </c>
       <c r="O29" s="5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="R29" s="7" t="s">
         <v>52</v>
       </c>
       <c r="S29" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="T29" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="U29" s="7" t="s">
         <v>41</v>
       </c>
       <c r="V29" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="W29" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="30" spans="1:23" ht="30" customHeight="1">
       <c r="A30" s="8" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I30" s="8" t="s">
         <v>44</v>
@@ -3881,10 +3884,10 @@
         <v>31</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M30" s="9" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N30" s="10" t="s">
         <v>48</v>
@@ -3893,10 +3896,10 @@
         <v>49</v>
       </c>
       <c r="P30" s="10" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q30" s="10" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="R30" s="10" t="s">
         <v>52</v>
@@ -3905,42 +3908,42 @@
         <v>39</v>
       </c>
       <c r="T30" s="10" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="U30" s="10" t="s">
         <v>41</v>
       </c>
       <c r="V30" s="10" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="W30" s="10" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="30" customHeight="1">
       <c r="A31" s="5" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I31" s="5" t="s">
         <v>73</v>
@@ -3952,66 +3955,66 @@
         <v>31</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M31" s="6" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N31" s="7" t="s">
         <v>48</v>
       </c>
       <c r="O31" s="5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="R31" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="S31" s="7" t="s">
         <v>39</v>
       </c>
       <c r="T31" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="U31" s="7" t="s">
         <v>41</v>
       </c>
       <c r="V31" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="W31" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="45" customHeight="1">
       <c r="A32" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I32" s="8" t="s">
         <v>73</v>
@@ -4023,66 +4026,66 @@
         <v>31</v>
       </c>
       <c r="L32" s="12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M32" s="12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N32" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O32" s="8" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="P32" s="10" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q32" s="10" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="R32" s="10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="S32" s="10" t="s">
         <v>39</v>
       </c>
       <c r="T32" s="10" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="U32" s="10" t="s">
         <v>41</v>
       </c>
       <c r="V32" s="10" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="W32" s="10" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="33" spans="1:23" ht="30" customHeight="1">
       <c r="A33" s="5" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>23</v>
@@ -4094,10 +4097,10 @@
         <v>31</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M33" s="6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N33" s="7" t="s">
         <v>34</v>
@@ -4106,10 +4109,10 @@
         <v>35</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="R33" s="7" t="s">
         <v>52</v>
@@ -4118,42 +4121,42 @@
         <v>39</v>
       </c>
       <c r="T33" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="U33" s="7" t="s">
         <v>41</v>
       </c>
       <c r="V33" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="W33" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="34" spans="1:23" ht="30" customHeight="1">
       <c r="A34" s="8" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D34" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="I34" s="8" t="s">
         <v>23</v>
@@ -4165,10 +4168,10 @@
         <v>31</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M34" s="9" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N34" s="10" t="s">
         <v>34</v>
@@ -4177,13 +4180,13 @@
         <v>35</v>
       </c>
       <c r="P34" s="10" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q34" s="10" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="R34" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="S34" s="10" t="s">
         <v>39</v>
@@ -4195,36 +4198,36 @@
         <v>41</v>
       </c>
       <c r="V34" s="10" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="W34" s="10" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="30" customHeight="1">
       <c r="A35" s="5" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>58</v>
@@ -4236,25 +4239,25 @@
         <v>31</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M35" s="6" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N35" s="7" t="s">
         <v>48</v>
       </c>
       <c r="O35" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="R35" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="S35" s="7" t="s">
         <v>39</v>
@@ -4266,36 +4269,36 @@
         <v>41</v>
       </c>
       <c r="V35" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="W35" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="30" customHeight="1">
       <c r="A36" s="8" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E36" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="F36" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="F36" s="10" t="s">
-        <v>322</v>
-      </c>
       <c r="G36" s="10" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I36" s="8" t="s">
         <v>23</v>
@@ -4307,10 +4310,10 @@
         <v>31</v>
       </c>
       <c r="L36" s="10" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M36" s="9" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N36" s="10" t="s">
         <v>34</v>
@@ -4319,13 +4322,13 @@
         <v>35</v>
       </c>
       <c r="P36" s="10" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q36" s="10" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="R36" s="10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="S36" s="10" t="s">
         <v>39</v>
@@ -4337,36 +4340,36 @@
         <v>41</v>
       </c>
       <c r="V36" s="10" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="W36" s="10" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="37" spans="1:23" ht="30" customHeight="1">
       <c r="A37" s="5" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="I37" s="5" t="s">
         <v>23</v>
@@ -4378,10 +4381,10 @@
         <v>31</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M37" s="6" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N37" s="7" t="s">
         <v>48</v>
@@ -4390,13 +4393,13 @@
         <v>35</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="R37" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="S37" s="7" t="s">
         <v>39</v>
@@ -4408,36 +4411,36 @@
         <v>41</v>
       </c>
       <c r="V37" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="W37" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="30" customHeight="1">
       <c r="A38" s="8" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D38" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="I38" s="8" t="s">
         <v>44</v>
@@ -4449,10 +4452,10 @@
         <v>31</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M38" s="9" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N38" s="10" t="s">
         <v>48</v>
@@ -4461,13 +4464,13 @@
         <v>49</v>
       </c>
       <c r="P38" s="10" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q38" s="10" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="R38" s="10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="S38" s="10" t="s">
         <v>39</v>
@@ -4479,36 +4482,36 @@
         <v>41</v>
       </c>
       <c r="V38" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="W38" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39" spans="1:23" ht="30" customHeight="1">
       <c r="A39" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="I39" s="5" t="s">
         <v>23</v>
@@ -4520,10 +4523,10 @@
         <v>31</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M39" s="6" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="N39" s="7" t="s">
         <v>48</v>
@@ -4532,10 +4535,10 @@
         <v>35</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="R39" s="7" t="s">
         <v>52</v>
@@ -4550,36 +4553,36 @@
         <v>41</v>
       </c>
       <c r="V39" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="W39" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40" spans="1:23" ht="30" customHeight="1">
       <c r="A40" s="8" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="I40" s="8" t="s">
         <v>44</v>
@@ -4591,10 +4594,10 @@
         <v>31</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M40" s="9" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N40" s="10" t="s">
         <v>48</v>
@@ -4603,13 +4606,13 @@
         <v>49</v>
       </c>
       <c r="P40" s="10" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q40" s="10" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="R40" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="S40" s="10" t="s">
         <v>39</v>
@@ -4621,36 +4624,36 @@
         <v>41</v>
       </c>
       <c r="V40" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="W40" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="41" spans="1:23" ht="30" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="I41" s="5" t="s">
         <v>73</v>
@@ -4662,25 +4665,25 @@
         <v>31</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M41" s="6" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N41" s="7" t="s">
         <v>48</v>
       </c>
       <c r="O41" s="5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="R41" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="S41" s="7" t="s">
         <v>39</v>
@@ -4692,36 +4695,36 @@
         <v>41</v>
       </c>
       <c r="V41" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="W41" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42" spans="1:23" ht="30" customHeight="1">
       <c r="A42" s="8" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D42" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="I42" s="8" t="s">
         <v>23</v>
@@ -4733,10 +4736,10 @@
         <v>31</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M42" s="9" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="N42" s="10" t="s">
         <v>34</v>
@@ -4745,10 +4748,10 @@
         <v>35</v>
       </c>
       <c r="P42" s="10" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q42" s="10" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="R42" s="10" t="s">
         <v>38</v>
@@ -4763,36 +4766,36 @@
         <v>41</v>
       </c>
       <c r="V42" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="W42" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="43" spans="1:23" ht="30" customHeight="1">
       <c r="A43" s="5" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="I43" s="5" t="s">
         <v>23</v>
@@ -4804,10 +4807,10 @@
         <v>31</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M43" s="6" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="N43" s="7" t="s">
         <v>34</v>
@@ -4816,10 +4819,10 @@
         <v>35</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="R43" s="7" t="s">
         <v>38</v>
@@ -4834,36 +4837,36 @@
         <v>41</v>
       </c>
       <c r="V43" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="W43" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:23" ht="30" customHeight="1">
       <c r="A44" s="8" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D44" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="I44" s="8" t="s">
         <v>23</v>
@@ -4875,10 +4878,10 @@
         <v>31</v>
       </c>
       <c r="L44" s="10" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M44" s="9" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N44" s="10" t="s">
         <v>34</v>
@@ -4887,10 +4890,10 @@
         <v>35</v>
       </c>
       <c r="P44" s="10" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q44" s="10" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="R44" s="10" t="s">
         <v>52</v>
@@ -4905,36 +4908,36 @@
         <v>41</v>
       </c>
       <c r="V44" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="W44" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45" spans="1:23" ht="30" customHeight="1">
       <c r="A45" s="5" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I45" s="5" t="s">
         <v>44</v>
@@ -4946,10 +4949,10 @@
         <v>31</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M45" s="6" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N45" s="7" t="s">
         <v>48</v>
@@ -4958,54 +4961,54 @@
         <v>49</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="R45" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="S45" s="7" t="s">
         <v>39</v>
       </c>
       <c r="T45" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="U45" s="7" t="s">
         <v>41</v>
       </c>
       <c r="V45" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="W45" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="46" spans="1:23" ht="30" customHeight="1">
       <c r="A46" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I46" s="8" t="s">
         <v>73</v>
@@ -5017,25 +5020,25 @@
         <v>31</v>
       </c>
       <c r="L46" s="10" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M46" s="9" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="N46" s="10" t="s">
         <v>48</v>
       </c>
       <c r="O46" s="8" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="P46" s="10" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q46" s="10" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="R46" s="10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="S46" s="10" t="s">
         <v>39</v>
@@ -5047,36 +5050,36 @@
         <v>41</v>
       </c>
       <c r="V46" s="10" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="W46" s="10" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="47" spans="1:23" ht="30" customHeight="1">
       <c r="A47" s="5" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E47" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="F47" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="F47" s="7" t="s">
-        <v>408</v>
-      </c>
       <c r="G47" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="I47" s="5" t="s">
         <v>44</v>
@@ -5088,22 +5091,22 @@
         <v>31</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M47" s="6" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="N47" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O47" s="5" t="s">
         <v>49</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="R47" s="7" t="s">
         <v>52</v>
@@ -5118,36 +5121,36 @@
         <v>41</v>
       </c>
       <c r="V47" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="W47" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="48" spans="1:23" ht="30" customHeight="1">
       <c r="A48" s="8" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D48" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="F48" s="10" t="s">
         <v>420</v>
       </c>
-      <c r="E48" s="10" t="s">
-        <v>421</v>
-      </c>
-      <c r="F48" s="10" t="s">
-        <v>419</v>
-      </c>
       <c r="G48" s="10" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="I48" s="8" t="s">
         <v>23</v>
@@ -5159,10 +5162,10 @@
         <v>31</v>
       </c>
       <c r="L48" s="10" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M48" s="9" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N48" s="10" t="s">
         <v>34</v>
@@ -5171,10 +5174,10 @@
         <v>35</v>
       </c>
       <c r="P48" s="10" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Q48" s="10" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="R48" s="10" t="s">
         <v>52</v>
@@ -5189,36 +5192,36 @@
         <v>41</v>
       </c>
       <c r="V48" s="10" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="W48" s="10" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="49" spans="1:23" ht="30" customHeight="1">
       <c r="A49" s="5" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D49" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="F49" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="E49" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>430</v>
-      </c>
       <c r="G49" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I49" s="5" t="s">
         <v>23</v>
@@ -5230,10 +5233,10 @@
         <v>31</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M49" s="6" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N49" s="7" t="s">
         <v>48</v>
@@ -5242,10 +5245,10 @@
         <v>35</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="R49" s="7" t="s">
         <v>38</v>
@@ -5260,36 +5263,36 @@
         <v>41</v>
       </c>
       <c r="V49" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="W49" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="50" spans="1:23" ht="30" customHeight="1">
       <c r="A50" s="8" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D50" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="F50" s="10" t="s">
         <v>442</v>
       </c>
-      <c r="E50" s="10" t="s">
-        <v>443</v>
-      </c>
-      <c r="F50" s="10" t="s">
-        <v>441</v>
-      </c>
       <c r="G50" s="10" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H50" s="10" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="I50" s="8" t="s">
         <v>23</v>
@@ -5301,10 +5304,10 @@
         <v>31</v>
       </c>
       <c r="L50" s="10" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M50" s="9" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N50" s="10" t="s">
         <v>48</v>
@@ -5313,13 +5316,13 @@
         <v>35</v>
       </c>
       <c r="P50" s="10" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Q50" s="10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="R50" s="10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="S50" s="10" t="s">
         <v>39</v>
@@ -5331,36 +5334,36 @@
         <v>41</v>
       </c>
       <c r="V50" s="10" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="W50" s="10" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="51" spans="1:23" ht="30" customHeight="1">
       <c r="A51" s="5" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D51" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="F51" s="7" t="s">
         <v>454</v>
       </c>
-      <c r="E51" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>453</v>
-      </c>
       <c r="G51" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="I51" s="5" t="s">
         <v>23</v>
@@ -5372,10 +5375,10 @@
         <v>31</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M51" s="6" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="N51" s="7" t="s">
         <v>34</v>
@@ -5384,13 +5387,13 @@
         <v>35</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="R51" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="S51" s="7" t="s">
         <v>39</v>
@@ -5402,36 +5405,36 @@
         <v>41</v>
       </c>
       <c r="V51" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="W51" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="52" spans="1:23" ht="30" customHeight="1">
       <c r="A52" s="8" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H52" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I52" s="8" t="s">
         <v>23</v>
@@ -5443,10 +5446,10 @@
         <v>31</v>
       </c>
       <c r="L52" s="10" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M52" s="9" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="N52" s="10" t="s">
         <v>48</v>
@@ -5455,10 +5458,10 @@
         <v>35</v>
       </c>
       <c r="P52" s="10" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="Q52" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="R52" s="10" t="s">
         <v>38</v>
@@ -5473,36 +5476,36 @@
         <v>41</v>
       </c>
       <c r="V52" s="10" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="W52" s="10" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="53" spans="1:23" ht="30" customHeight="1">
       <c r="A53" s="5" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I53" s="5" t="s">
         <v>23</v>
@@ -5514,10 +5517,10 @@
         <v>31</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="M53" s="6" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="N53" s="7" t="s">
         <v>48</v>
@@ -5526,13 +5529,13 @@
         <v>35</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="R53" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="S53" s="7" t="s">
         <v>39</v>
@@ -5544,10 +5547,10 @@
         <v>41</v>
       </c>
       <c r="V53" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="W53" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
   </sheetData>
@@ -5598,7 +5601,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -5623,13 +5626,13 @@
     </row>
     <row r="2" spans="1:23">
       <c r="C2" s="2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="F2" s="3">
         <v>48</v>
@@ -5637,41 +5640,41 @@
     </row>
     <row r="3" spans="1:23">
       <c r="C3" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="4" spans="1:23">
       <c r="C4" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="5" spans="1:23">
       <c r="C5" s="2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -5679,13 +5682,13 @@
     </row>
     <row r="6" spans="1:23">
       <c r="C6" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F6" s="3">
         <v>104</v>
@@ -5767,40 +5770,40 @@
         <v>23</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>44</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N9" s="7" t="s">
         <v>48</v>
@@ -5809,10 +5812,10 @@
         <v>49</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="R9" s="7" t="s">
         <v>38</v>
@@ -5821,16 +5824,16 @@
         <v>39</v>
       </c>
       <c r="T9" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="U9" s="7" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="V9" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="W9" s="7" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="30" customHeight="1">
@@ -5838,40 +5841,40 @@
         <v>44</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E10" s="10" t="s">
+        <v>515</v>
+      </c>
+      <c r="F10" s="10" t="s">
         <v>514</v>
       </c>
-      <c r="F10" s="10" t="s">
-        <v>513</v>
-      </c>
       <c r="G10" s="10" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="I10" s="8" t="s">
         <v>23</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="N10" s="10" t="s">
         <v>34</v>
@@ -5880,10 +5883,10 @@
         <v>35</v>
       </c>
       <c r="P10" s="10" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="Q10" s="10" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="R10" s="10" t="s">
         <v>38</v>
@@ -5892,16 +5895,16 @@
         <v>39</v>
       </c>
       <c r="T10" s="10" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="U10" s="10" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="V10" s="10" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="W10" s="10" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -5909,40 +5912,40 @@
         <v>53</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>23</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N11" s="7" t="s">
         <v>48</v>
@@ -5951,13 +5954,13 @@
         <v>35</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="R11" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="S11" s="7" t="s">
         <v>39</v>
@@ -5966,13 +5969,13 @@
         <v>40</v>
       </c>
       <c r="U11" s="7" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="V11" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="W11" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -5998,22 +6001,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="11" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
   </sheetData>

--- a/latest/BoM/Positional/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Positional/pedalboard-hw-bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="528">
   <si>
     <t>Row</t>
   </si>
@@ -226,10 +226,7 @@
     <t>15</t>
   </si>
   <si>
-    <t>https://datasheets.kyocera-avx.com/X7RDielectric.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/kyocera-avx/KGM21NR71H104KM/6816312</t>
+    <t>https://www.digikey.ch/de/products/detail/samsung-electro-mechanics/CL21B104KBCNNNC/3886661</t>
   </si>
   <si>
     <t>pedalboard-hw(15)</t>
@@ -250,10 +247,10 @@
     <t>1u</t>
   </si>
   <si>
-    <t>https://datasheets.kyocera-avx.com/KGM_X7R.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/kyocera-avx/KGM21AR71H105MU/3081237</t>
+    <t>https://weblib.samsungsem.com/mlcc/mlcc-ec-data-sheet.do?partNumber=CL21B105KAFNNN</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/samsung-electro-mechanics/CL21B105KAFNNNE/3886724</t>
   </si>
   <si>
     <t>84.1944</t>
@@ -272,9 +269,6 @@
   </si>
   <si>
     <t>8</t>
-  </si>
-  <si>
-    <t>https://mm.digikey.com/Volume0/opasdata/d220001/medias/docus/339/CL21A226MAYNNNE_Spec.pdf</t>
   </si>
   <si>
     <t>https://www.digikey.ch/de/products/detail/samsung-electro-mechanics/CL21A226MAYNNNE/10479857</t>
@@ -2194,7 +2188,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -2219,13 +2213,13 @@
     </row>
     <row r="2" spans="1:23">
       <c r="C2" s="2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F2" s="3">
         <v>48</v>
@@ -2233,41 +2227,41 @@
     </row>
     <row r="3" spans="1:23">
       <c r="C3" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="4" spans="1:23">
       <c r="C4" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="5" spans="1:23">
       <c r="C5" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -2275,13 +2269,13 @@
     </row>
     <row r="6" spans="1:23">
       <c r="C6" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F6" s="3">
         <v>104</v>
@@ -2677,22 +2671,22 @@
         <v>31</v>
       </c>
       <c r="L13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M13" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>69</v>
       </c>
       <c r="N13" s="7" t="s">
         <v>48</v>
       </c>
       <c r="O13" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="R13" s="7" t="s">
         <v>52</v>
@@ -2715,7 +2709,7 @@
     </row>
     <row r="14" spans="1:23" ht="30" customHeight="1">
       <c r="A14" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>24</v>
@@ -2727,10 +2721,10 @@
         <v>26</v>
       </c>
       <c r="E14" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="G14" s="10" t="s">
         <v>29</v>
@@ -2748,10 +2742,10 @@
         <v>31</v>
       </c>
       <c r="L14" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="M14" s="9" t="s">
         <v>76</v>
-      </c>
-      <c r="M14" s="9" t="s">
-        <v>77</v>
       </c>
       <c r="N14" s="10" t="s">
         <v>48</v>
@@ -2760,10 +2754,10 @@
         <v>49</v>
       </c>
       <c r="P14" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q14" s="10" t="s">
         <v>78</v>
-      </c>
-      <c r="Q14" s="10" t="s">
-        <v>79</v>
       </c>
       <c r="R14" s="10" t="s">
         <v>52</v>
@@ -2786,7 +2780,7 @@
     </row>
     <row r="15" spans="1:23" ht="30" customHeight="1">
       <c r="A15" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>24</v>
@@ -2798,10 +2792,10 @@
         <v>26</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>29</v>
@@ -2810,31 +2804,31 @@
         <v>30</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K15" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N15" s="7" t="s">
         <v>34</v>
       </c>
       <c r="O15" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="R15" s="7" t="s">
         <v>52</v>
@@ -2857,25 +2851,25 @@
     </row>
     <row r="16" spans="1:23" ht="30" customHeight="1">
       <c r="A16" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E16" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G16" s="10" t="s">
         <v>91</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>93</v>
       </c>
       <c r="H16" s="10" t="s">
         <v>30</v>
@@ -2890,10 +2884,10 @@
         <v>31</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N16" s="10" t="s">
         <v>34</v>
@@ -2902,13 +2896,13 @@
         <v>35</v>
       </c>
       <c r="P16" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="R16" s="10" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="R16" s="10" t="s">
-        <v>98</v>
       </c>
       <c r="S16" s="10" t="s">
         <v>39</v>
@@ -2920,36 +2914,36 @@
         <v>41</v>
       </c>
       <c r="V16" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="W16" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="45" customHeight="1">
       <c r="A17" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="D17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="E17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="F17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="H17" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>23</v>
@@ -2961,22 +2955,22 @@
         <v>31</v>
       </c>
       <c r="L17" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="N17" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="M17" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="N17" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="O17" s="5" t="s">
         <v>35</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="R17" s="7" t="s">
         <v>52</v>
@@ -2991,36 +2985,36 @@
         <v>41</v>
       </c>
       <c r="V17" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="W17" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:23">
       <c r="A18" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>116</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>118</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E18" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="G18" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="H18" s="10" t="s">
         <v>120</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>122</v>
       </c>
       <c r="I18" s="8" t="s">
         <v>23</v>
@@ -3032,22 +3026,22 @@
         <v>31</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M18" s="12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N18" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O18" s="8" t="s">
         <v>35</v>
       </c>
       <c r="P18" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="Q18" s="10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="R18" s="10" t="s">
         <v>52</v>
@@ -3062,36 +3056,36 @@
         <v>41</v>
       </c>
       <c r="V18" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="W18" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:23">
       <c r="A19" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>23</v>
@@ -3103,22 +3097,22 @@
         <v>31</v>
       </c>
       <c r="L19" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O19" s="5" t="s">
         <v>35</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="R19" s="7" t="s">
         <v>52</v>
@@ -3133,36 +3127,36 @@
         <v>41</v>
       </c>
       <c r="V19" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="W19" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:23" ht="30" customHeight="1">
       <c r="A20" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C20" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="D20" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="E20" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="F20" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="G20" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="D20" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>136</v>
-      </c>
       <c r="H20" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I20" s="8" t="s">
         <v>58</v>
@@ -3174,25 +3168,25 @@
         <v>31</v>
       </c>
       <c r="L20" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="M20" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="N20" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="M20" s="9" t="s">
+      <c r="O20" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="N20" s="10" t="s">
+      <c r="P20" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="O20" s="8" t="s">
+      <c r="Q20" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="P20" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q20" s="10" t="s">
-        <v>142</v>
-      </c>
       <c r="R20" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="S20" s="10" t="s">
         <v>39</v>
@@ -3204,36 +3198,36 @@
         <v>41</v>
       </c>
       <c r="V20" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="W20" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="30" customHeight="1">
       <c r="A21" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="D21" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="E21" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="F21" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="H21" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>23</v>
@@ -3245,10 +3239,10 @@
         <v>31</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="N21" s="7" t="s">
         <v>48</v>
@@ -3257,13 +3251,13 @@
         <v>35</v>
       </c>
       <c r="P21" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="R21" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="R21" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="S21" s="7" t="s">
         <v>39</v>
@@ -3275,36 +3269,36 @@
         <v>41</v>
       </c>
       <c r="V21" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="W21" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="30" customHeight="1">
       <c r="A22" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="D22" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="E22" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="F22" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="D22" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="E22" s="10" t="s">
+      <c r="G22" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="F22" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>165</v>
-      </c>
       <c r="H22" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I22" s="8" t="s">
         <v>44</v>
@@ -3316,10 +3310,10 @@
         <v>31</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="N22" s="10" t="s">
         <v>34</v>
@@ -3328,13 +3322,13 @@
         <v>49</v>
       </c>
       <c r="P22" s="10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Q22" s="10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="R22" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="S22" s="10" t="s">
         <v>39</v>
@@ -3346,10 +3340,10 @@
         <v>41</v>
       </c>
       <c r="V22" s="10" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="W22" s="10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="30" customHeight="1">
@@ -3357,25 +3351,25 @@
         <v>67</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>23</v>
@@ -3387,10 +3381,10 @@
         <v>31</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="N23" s="7" t="s">
         <v>34</v>
@@ -3399,10 +3393,10 @@
         <v>35</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="R23" s="7" t="s">
         <v>38</v>
@@ -3417,36 +3411,36 @@
         <v>41</v>
       </c>
       <c r="V23" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="W23" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="30" customHeight="1">
       <c r="A24" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C24" s="10" t="s">
         <v>177</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>179</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E24" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="G24" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="H24" s="10" t="s">
         <v>181</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>183</v>
       </c>
       <c r="I24" s="8" t="s">
         <v>23</v>
@@ -3458,10 +3452,10 @@
         <v>31</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M24" s="9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="N24" s="10" t="s">
         <v>34</v>
@@ -3470,10 +3464,10 @@
         <v>35</v>
       </c>
       <c r="P24" s="10" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="Q24" s="10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="R24" s="10" t="s">
         <v>52</v>
@@ -3488,36 +3482,36 @@
         <v>41</v>
       </c>
       <c r="V24" s="10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="W24" s="10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="30" customHeight="1">
       <c r="A25" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="D25" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="E25" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="F25" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>196</v>
-      </c>
       <c r="H25" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>23</v>
@@ -3529,10 +3523,10 @@
         <v>31</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="N25" s="7" t="s">
         <v>34</v>
@@ -3541,10 +3535,10 @@
         <v>35</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="R25" s="7" t="s">
         <v>52</v>
@@ -3553,42 +3547,42 @@
         <v>39</v>
       </c>
       <c r="T25" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="U25" s="7" t="s">
         <v>41</v>
       </c>
       <c r="V25" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="W25" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="26" spans="1:23" ht="30" customHeight="1">
       <c r="A26" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="C26" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="D26" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="E26" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="F26" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="G26" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="H26" s="10" t="s">
         <v>208</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="H26" s="10" t="s">
-        <v>210</v>
       </c>
       <c r="I26" s="8" t="s">
         <v>23</v>
@@ -3600,10 +3594,10 @@
         <v>31</v>
       </c>
       <c r="L26" s="12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M26" s="12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N26" s="10" t="s">
         <v>48</v>
@@ -3612,10 +3606,10 @@
         <v>35</v>
       </c>
       <c r="P26" s="10" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="Q26" s="10" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="R26" s="10" t="s">
         <v>38</v>
@@ -3624,42 +3618,42 @@
         <v>39</v>
       </c>
       <c r="T26" s="10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="U26" s="10" t="s">
         <v>41</v>
       </c>
       <c r="V26" s="10" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="W26" s="10" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="27" spans="1:23" ht="30" customHeight="1">
       <c r="A27" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="D27" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="E27" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="F27" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="E27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="F27" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>220</v>
-      </c>
       <c r="H27" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>44</v>
@@ -3671,10 +3665,10 @@
         <v>31</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N27" s="7" t="s">
         <v>48</v>
@@ -3683,10 +3677,10 @@
         <v>49</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="R27" s="7" t="s">
         <v>52</v>
@@ -3701,36 +3695,36 @@
         <v>41</v>
       </c>
       <c r="V27" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="W27" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="30" customHeight="1">
       <c r="A28" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="E28" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="B28" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="C28" s="10" t="s">
+      <c r="F28" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="D28" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="E28" s="10" t="s">
+      <c r="G28" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="F28" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>231</v>
-      </c>
       <c r="H28" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I28" s="8" t="s">
         <v>23</v>
@@ -3742,66 +3736,66 @@
         <v>31</v>
       </c>
       <c r="L28" s="10" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M28" s="12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N28" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O28" s="8" t="s">
         <v>35</v>
       </c>
       <c r="P28" s="10" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Q28" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="R28" s="10" t="s">
         <v>52</v>
       </c>
       <c r="S28" s="10" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="T28" s="10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="U28" s="10" t="s">
         <v>41</v>
       </c>
       <c r="V28" s="10" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="W28" s="10" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29" spans="1:23" ht="45" customHeight="1">
       <c r="A29" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="D29" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="E29" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="F29" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="E29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="H29" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>53</v>
@@ -3813,66 +3807,66 @@
         <v>31</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="N29" s="7" t="s">
         <v>48</v>
       </c>
       <c r="O29" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="R29" s="7" t="s">
         <v>52</v>
       </c>
       <c r="S29" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="T29" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="U29" s="7" t="s">
         <v>41</v>
       </c>
       <c r="V29" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="W29" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="30" spans="1:23" ht="30" customHeight="1">
       <c r="A30" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="C30" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="D30" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="E30" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="F30" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="G30" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="F30" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>258</v>
-      </c>
       <c r="H30" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I30" s="8" t="s">
         <v>44</v>
@@ -3884,10 +3878,10 @@
         <v>31</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="M30" s="9" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="N30" s="10" t="s">
         <v>48</v>
@@ -3896,10 +3890,10 @@
         <v>49</v>
       </c>
       <c r="P30" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="Q30" s="10" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="R30" s="10" t="s">
         <v>52</v>
@@ -3908,184 +3902,184 @@
         <v>39</v>
       </c>
       <c r="T30" s="10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="U30" s="10" t="s">
         <v>41</v>
       </c>
       <c r="V30" s="10" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="W30" s="10" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="30" customHeight="1">
       <c r="A31" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="D31" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="E31" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="F31" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="D31" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="E31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="F31" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>269</v>
-      </c>
       <c r="H31" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K31" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="M31" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="N31" s="7" t="s">
         <v>48</v>
       </c>
       <c r="O31" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="P31" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>274</v>
-      </c>
       <c r="R31" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="S31" s="7" t="s">
         <v>39</v>
       </c>
       <c r="T31" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="U31" s="7" t="s">
         <v>41</v>
       </c>
       <c r="V31" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="W31" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="45" customHeight="1">
       <c r="A32" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="C32" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="D32" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="E32" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="F32" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="D32" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="E32" s="10" t="s">
+      <c r="G32" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="F32" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="G32" s="10" t="s">
-        <v>282</v>
-      </c>
       <c r="H32" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K32" s="8" t="s">
         <v>31</v>
       </c>
       <c r="L32" s="12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M32" s="12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N32" s="10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O32" s="8" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="P32" s="10" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="Q32" s="10" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="R32" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="S32" s="10" t="s">
         <v>39</v>
       </c>
       <c r="T32" s="10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="U32" s="10" t="s">
         <v>41</v>
       </c>
       <c r="V32" s="10" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="W32" s="10" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="33" spans="1:23" ht="30" customHeight="1">
       <c r="A33" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="D33" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="B33" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="C33" s="7" t="s">
+      <c r="E33" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="F33" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="G33" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="F33" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>291</v>
-      </c>
       <c r="H33" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>23</v>
@@ -4097,10 +4091,10 @@
         <v>31</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="M33" s="6" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="N33" s="7" t="s">
         <v>34</v>
@@ -4109,10 +4103,10 @@
         <v>35</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R33" s="7" t="s">
         <v>52</v>
@@ -4121,42 +4115,42 @@
         <v>39</v>
       </c>
       <c r="T33" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="U33" s="7" t="s">
         <v>41</v>
       </c>
       <c r="V33" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="W33" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="34" spans="1:23" ht="30" customHeight="1">
       <c r="A34" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="C34" s="10" t="s">
         <v>298</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>300</v>
       </c>
       <c r="D34" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E34" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="G34" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="F34" s="10" t="s">
+      <c r="H34" s="10" t="s">
         <v>302</v>
-      </c>
-      <c r="G34" s="10" t="s">
-        <v>303</v>
-      </c>
-      <c r="H34" s="10" t="s">
-        <v>304</v>
       </c>
       <c r="I34" s="8" t="s">
         <v>23</v>
@@ -4168,10 +4162,10 @@
         <v>31</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="M34" s="9" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="N34" s="10" t="s">
         <v>34</v>
@@ -4180,13 +4174,13 @@
         <v>35</v>
       </c>
       <c r="P34" s="10" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="Q34" s="10" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="R34" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="S34" s="10" t="s">
         <v>39</v>
@@ -4198,36 +4192,36 @@
         <v>41</v>
       </c>
       <c r="V34" s="10" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="W34" s="10" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="30" customHeight="1">
       <c r="A35" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="C35" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="F35" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>315</v>
-      </c>
       <c r="H35" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>58</v>
@@ -4239,25 +4233,25 @@
         <v>31</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="M35" s="6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="N35" s="7" t="s">
         <v>48</v>
       </c>
       <c r="O35" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="R35" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="S35" s="7" t="s">
         <v>39</v>
@@ -4269,36 +4263,36 @@
         <v>41</v>
       </c>
       <c r="V35" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="W35" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="30" customHeight="1">
       <c r="A36" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="E36" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="B36" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="C36" s="10" t="s">
+      <c r="F36" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="G36" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="D36" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="G36" s="10" t="s">
-        <v>325</v>
-      </c>
       <c r="H36" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I36" s="8" t="s">
         <v>23</v>
@@ -4310,10 +4304,10 @@
         <v>31</v>
       </c>
       <c r="L36" s="10" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="M36" s="9" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="N36" s="10" t="s">
         <v>34</v>
@@ -4322,13 +4316,13 @@
         <v>35</v>
       </c>
       <c r="P36" s="10" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="Q36" s="10" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="R36" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="S36" s="10" t="s">
         <v>39</v>
@@ -4340,36 +4334,36 @@
         <v>41</v>
       </c>
       <c r="V36" s="10" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="W36" s="10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="37" spans="1:23" ht="30" customHeight="1">
       <c r="A37" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>334</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="H37" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>337</v>
       </c>
       <c r="I37" s="5" t="s">
         <v>23</v>
@@ -4381,10 +4375,10 @@
         <v>31</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="M37" s="6" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="N37" s="7" t="s">
         <v>48</v>
@@ -4393,13 +4387,13 @@
         <v>35</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="R37" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="S37" s="7" t="s">
         <v>39</v>
@@ -4411,36 +4405,36 @@
         <v>41</v>
       </c>
       <c r="V37" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="W37" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="30" customHeight="1">
       <c r="A38" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D38" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I38" s="8" t="s">
         <v>44</v>
@@ -4452,10 +4446,10 @@
         <v>31</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="M38" s="9" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="N38" s="10" t="s">
         <v>48</v>
@@ -4464,13 +4458,13 @@
         <v>49</v>
       </c>
       <c r="P38" s="10" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="Q38" s="10" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="R38" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="S38" s="10" t="s">
         <v>39</v>
@@ -4482,36 +4476,36 @@
         <v>41</v>
       </c>
       <c r="V38" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="W38" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39" spans="1:23" ht="30" customHeight="1">
       <c r="A39" s="5" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I39" s="5" t="s">
         <v>23</v>
@@ -4523,10 +4517,10 @@
         <v>31</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="M39" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="N39" s="7" t="s">
         <v>48</v>
@@ -4535,10 +4529,10 @@
         <v>35</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="R39" s="7" t="s">
         <v>52</v>
@@ -4553,36 +4547,36 @@
         <v>41</v>
       </c>
       <c r="V39" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="W39" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="40" spans="1:23" ht="30" customHeight="1">
       <c r="A40" s="8" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I40" s="8" t="s">
         <v>44</v>
@@ -4594,10 +4588,10 @@
         <v>31</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="M40" s="9" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="N40" s="10" t="s">
         <v>48</v>
@@ -4606,13 +4600,13 @@
         <v>49</v>
       </c>
       <c r="P40" s="10" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="Q40" s="10" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="R40" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="S40" s="10" t="s">
         <v>39</v>
@@ -4624,66 +4618,66 @@
         <v>41</v>
       </c>
       <c r="V40" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="W40" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="41" spans="1:23" ht="30" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K41" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="M41" s="6" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="N41" s="7" t="s">
         <v>48</v>
       </c>
       <c r="O41" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="R41" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="S41" s="7" t="s">
         <v>39</v>
@@ -4695,36 +4689,36 @@
         <v>41</v>
       </c>
       <c r="V41" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="W41" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:23" ht="30" customHeight="1">
       <c r="A42" s="8" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D42" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I42" s="8" t="s">
         <v>23</v>
@@ -4736,10 +4730,10 @@
         <v>31</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="M42" s="9" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="N42" s="10" t="s">
         <v>34</v>
@@ -4748,10 +4742,10 @@
         <v>35</v>
       </c>
       <c r="P42" s="10" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="Q42" s="10" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="R42" s="10" t="s">
         <v>38</v>
@@ -4766,36 +4760,36 @@
         <v>41</v>
       </c>
       <c r="V42" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="W42" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43" spans="1:23" ht="30" customHeight="1">
       <c r="A43" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I43" s="5" t="s">
         <v>23</v>
@@ -4807,10 +4801,10 @@
         <v>31</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="M43" s="6" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="N43" s="7" t="s">
         <v>34</v>
@@ -4819,10 +4813,10 @@
         <v>35</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="R43" s="7" t="s">
         <v>38</v>
@@ -4837,36 +4831,36 @@
         <v>41</v>
       </c>
       <c r="V43" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="W43" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="44" spans="1:23" ht="30" customHeight="1">
       <c r="A44" s="8" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D44" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I44" s="8" t="s">
         <v>23</v>
@@ -4878,10 +4872,10 @@
         <v>31</v>
       </c>
       <c r="L44" s="10" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="M44" s="9" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="N44" s="10" t="s">
         <v>34</v>
@@ -4890,10 +4884,10 @@
         <v>35</v>
       </c>
       <c r="P44" s="10" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="Q44" s="10" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="R44" s="10" t="s">
         <v>52</v>
@@ -4908,36 +4902,36 @@
         <v>41</v>
       </c>
       <c r="V44" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="W44" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="45" spans="1:23" ht="30" customHeight="1">
       <c r="A45" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="C45" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>385</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E45" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="G45" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="F45" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>388</v>
-      </c>
       <c r="H45" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I45" s="5" t="s">
         <v>44</v>
@@ -4949,10 +4943,10 @@
         <v>31</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="M45" s="6" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="N45" s="7" t="s">
         <v>48</v>
@@ -4961,84 +4955,84 @@
         <v>49</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="R45" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="S45" s="7" t="s">
         <v>39</v>
       </c>
       <c r="T45" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="U45" s="7" t="s">
         <v>41</v>
       </c>
       <c r="V45" s="7" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="W45" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="46" spans="1:23" ht="30" customHeight="1">
       <c r="A46" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="C46" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="D46" s="10" t="s">
         <v>396</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="E46" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="F46" s="10" t="s">
         <v>398</v>
       </c>
-      <c r="E46" s="10" t="s">
+      <c r="G46" s="10" t="s">
         <v>399</v>
       </c>
-      <c r="F46" s="10" t="s">
-        <v>400</v>
-      </c>
-      <c r="G46" s="10" t="s">
-        <v>401</v>
-      </c>
       <c r="H46" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J46" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K46" s="8" t="s">
         <v>31</v>
       </c>
       <c r="L46" s="10" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="M46" s="9" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="N46" s="10" t="s">
         <v>48</v>
       </c>
       <c r="O46" s="8" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="P46" s="10" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="Q46" s="10" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="R46" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="S46" s="10" t="s">
         <v>39</v>
@@ -5050,36 +5044,36 @@
         <v>41</v>
       </c>
       <c r="V46" s="10" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="W46" s="10" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="47" spans="1:23" ht="30" customHeight="1">
       <c r="A47" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="E47" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="B47" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="C47" s="7" t="s">
+      <c r="F47" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="G47" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="D47" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="E47" s="7" t="s">
+      <c r="H47" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="H47" s="7" t="s">
-        <v>412</v>
       </c>
       <c r="I47" s="5" t="s">
         <v>44</v>
@@ -5091,22 +5085,22 @@
         <v>31</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="M47" s="6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N47" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O47" s="5" t="s">
         <v>49</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="R47" s="7" t="s">
         <v>52</v>
@@ -5121,36 +5115,36 @@
         <v>41</v>
       </c>
       <c r="V47" s="7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="W47" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="48" spans="1:23" ht="30" customHeight="1">
       <c r="A48" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="C48" s="10" t="s">
         <v>418</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="D48" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="E48" s="10" t="s">
         <v>420</v>
       </c>
-      <c r="D48" s="10" t="s">
+      <c r="F48" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="G48" s="10" t="s">
         <v>421</v>
       </c>
-      <c r="E48" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="F48" s="10" t="s">
-        <v>420</v>
-      </c>
-      <c r="G48" s="10" t="s">
-        <v>423</v>
-      </c>
       <c r="H48" s="10" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="I48" s="8" t="s">
         <v>23</v>
@@ -5162,10 +5156,10 @@
         <v>31</v>
       </c>
       <c r="L48" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="M48" s="9" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="N48" s="10" t="s">
         <v>34</v>
@@ -5174,10 +5168,10 @@
         <v>35</v>
       </c>
       <c r="P48" s="10" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="Q48" s="10" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="R48" s="10" t="s">
         <v>52</v>
@@ -5192,36 +5186,36 @@
         <v>41</v>
       </c>
       <c r="V48" s="10" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="W48" s="10" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="49" spans="1:23" ht="30" customHeight="1">
       <c r="A49" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="D49" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="B49" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="C49" s="7" t="s">
+      <c r="E49" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="F49" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="G49" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="E49" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>434</v>
-      </c>
       <c r="H49" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I49" s="5" t="s">
         <v>23</v>
@@ -5233,10 +5227,10 @@
         <v>31</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="M49" s="6" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="N49" s="7" t="s">
         <v>48</v>
@@ -5245,10 +5239,10 @@
         <v>35</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="R49" s="7" t="s">
         <v>38</v>
@@ -5263,36 +5257,36 @@
         <v>41</v>
       </c>
       <c r="V49" s="7" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="W49" s="7" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="50" spans="1:23" ht="30" customHeight="1">
       <c r="A50" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="C50" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="D50" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="E50" s="10" t="s">
         <v>442</v>
       </c>
-      <c r="D50" s="10" t="s">
+      <c r="F50" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="G50" s="10" t="s">
         <v>443</v>
       </c>
-      <c r="E50" s="10" t="s">
+      <c r="H50" s="10" t="s">
         <v>444</v>
-      </c>
-      <c r="F50" s="10" t="s">
-        <v>442</v>
-      </c>
-      <c r="G50" s="10" t="s">
-        <v>445</v>
-      </c>
-      <c r="H50" s="10" t="s">
-        <v>446</v>
       </c>
       <c r="I50" s="8" t="s">
         <v>23</v>
@@ -5304,10 +5298,10 @@
         <v>31</v>
       </c>
       <c r="L50" s="10" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="M50" s="9" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="N50" s="10" t="s">
         <v>48</v>
@@ -5316,13 +5310,13 @@
         <v>35</v>
       </c>
       <c r="P50" s="10" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="Q50" s="10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="R50" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="S50" s="10" t="s">
         <v>39</v>
@@ -5334,36 +5328,36 @@
         <v>41</v>
       </c>
       <c r="V50" s="10" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="W50" s="10" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="51" spans="1:23" ht="30" customHeight="1">
       <c r="A51" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="C51" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="D51" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="E51" s="7" t="s">
         <v>454</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="F51" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="G51" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="E51" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>457</v>
-      </c>
       <c r="H51" s="7" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="I51" s="5" t="s">
         <v>23</v>
@@ -5375,10 +5369,10 @@
         <v>31</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="M51" s="6" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="N51" s="7" t="s">
         <v>34</v>
@@ -5387,13 +5381,13 @@
         <v>35</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="R51" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="S51" s="7" t="s">
         <v>39</v>
@@ -5405,36 +5399,36 @@
         <v>41</v>
       </c>
       <c r="V51" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="W51" s="7" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="52" spans="1:23" ht="30" customHeight="1">
       <c r="A52" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="E52" s="10" t="s">
         <v>464</v>
       </c>
-      <c r="B52" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="C52" s="10" t="s">
+      <c r="F52" s="10" t="s">
         <v>465</v>
       </c>
-      <c r="D52" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="E52" s="10" t="s">
+      <c r="G52" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="F52" s="10" t="s">
-        <v>467</v>
-      </c>
-      <c r="G52" s="10" t="s">
-        <v>468</v>
-      </c>
       <c r="H52" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I52" s="8" t="s">
         <v>23</v>
@@ -5446,10 +5440,10 @@
         <v>31</v>
       </c>
       <c r="L52" s="10" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="M52" s="9" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="N52" s="10" t="s">
         <v>48</v>
@@ -5458,10 +5452,10 @@
         <v>35</v>
       </c>
       <c r="P52" s="10" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="Q52" s="10" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="R52" s="10" t="s">
         <v>38</v>
@@ -5476,36 +5470,36 @@
         <v>41</v>
       </c>
       <c r="V52" s="10" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="W52" s="10" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="53" spans="1:23" ht="30" customHeight="1">
       <c r="A53" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="C53" s="7" t="s">
         <v>474</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>476</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E53" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="G53" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="F53" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>479</v>
-      </c>
       <c r="H53" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I53" s="5" t="s">
         <v>23</v>
@@ -5517,10 +5511,10 @@
         <v>31</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="M53" s="6" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="N53" s="7" t="s">
         <v>48</v>
@@ -5529,13 +5523,13 @@
         <v>35</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="R53" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="S53" s="7" t="s">
         <v>39</v>
@@ -5547,10 +5541,10 @@
         <v>41</v>
       </c>
       <c r="V53" s="7" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="W53" s="7" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
   </sheetData>
@@ -5601,7 +5595,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -5626,13 +5620,13 @@
     </row>
     <row r="2" spans="1:23">
       <c r="C2" s="2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F2" s="3">
         <v>48</v>
@@ -5640,41 +5634,41 @@
     </row>
     <row r="3" spans="1:23">
       <c r="C3" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="4" spans="1:23">
       <c r="C4" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="5" spans="1:23">
       <c r="C5" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -5682,13 +5676,13 @@
     </row>
     <row r="6" spans="1:23">
       <c r="C6" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F6" s="3">
         <v>104</v>
@@ -5770,40 +5764,40 @@
         <v>23</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>504</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>506</v>
-      </c>
       <c r="H9" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>44</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N9" s="7" t="s">
         <v>48</v>
@@ -5812,10 +5806,10 @@
         <v>49</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="R9" s="7" t="s">
         <v>38</v>
@@ -5824,16 +5818,16 @@
         <v>39</v>
       </c>
       <c r="T9" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="U9" s="7" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="V9" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="W9" s="7" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="30" customHeight="1">
@@ -5841,40 +5835,40 @@
         <v>44</v>
       </c>
       <c r="B10" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>512</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>513</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="F10" s="10" t="s">
+        <v>512</v>
+      </c>
+      <c r="G10" s="10" t="s">
         <v>514</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="E10" s="10" t="s">
+      <c r="H10" s="10" t="s">
         <v>515</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>514</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>516</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>517</v>
       </c>
       <c r="I10" s="8" t="s">
         <v>23</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="N10" s="10" t="s">
         <v>34</v>
@@ -5883,10 +5877,10 @@
         <v>35</v>
       </c>
       <c r="P10" s="10" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="Q10" s="10" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="R10" s="10" t="s">
         <v>38</v>
@@ -5895,16 +5889,16 @@
         <v>39</v>
       </c>
       <c r="T10" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="U10" s="10" t="s">
+        <v>509</v>
+      </c>
+      <c r="V10" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="U10" s="10" t="s">
-        <v>511</v>
-      </c>
-      <c r="V10" s="10" t="s">
-        <v>203</v>
-      </c>
       <c r="W10" s="10" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -5912,40 +5906,40 @@
         <v>53</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>23</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N11" s="7" t="s">
         <v>48</v>
@@ -5954,13 +5948,13 @@
         <v>35</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="R11" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="S11" s="7" t="s">
         <v>39</v>
@@ -5969,13 +5963,13 @@
         <v>40</v>
       </c>
       <c r="U11" s="7" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="V11" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="W11" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -6001,22 +5995,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="11" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
   </sheetData>

--- a/latest/BoM/Positional/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Positional/pedalboard-hw-bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="529">
   <si>
     <t>Row</t>
   </si>
@@ -664,6 +664,831 @@
     <t>19</t>
   </si>
   <si>
+    <t>Raspberry_Pi_2_3</t>
+  </si>
+  <si>
+    <t>J25</t>
+  </si>
+  <si>
+    <t>HiFi Berry</t>
+  </si>
+  <si>
+    <t>HiFi Berry DAC ADC+</t>
+  </si>
+  <si>
+    <t>https://www.hifiberry.com/docs/data-sheets/datasheet-dac-adc-pro/</t>
+  </si>
+  <si>
+    <t>102.2444</t>
+  </si>
+  <si>
+    <t>62.6188</t>
+  </si>
+  <si>
+    <t>bottom</t>
+  </si>
+  <si>
+    <t>41.4500</t>
+  </si>
+  <si>
+    <t>55.0150</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Generic connector, single row, 01x03, script generated</t>
+  </si>
+  <si>
+    <t>Conn_01x03_Pin</t>
+  </si>
+  <si>
+    <t>J26</t>
+  </si>
+  <si>
+    <t>JST XH 3</t>
+  </si>
+  <si>
+    <t>JST_XH_B3B-XH-A_1x03_P2.50mm_Vertical</t>
+  </si>
+  <si>
+    <t>Connector_JST</t>
+  </si>
+  <si>
+    <t>https://app.adam-tech.com/products/download/data_sheet/240508/25sh-b-xx-ts-data-sheet.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/adam-tech/25SH-B-03-TS/9830417</t>
+  </si>
+  <si>
+    <t>24.8944</t>
+  </si>
+  <si>
+    <t>3.8944</t>
+  </si>
+  <si>
+    <t>6.7000</t>
+  </si>
+  <si>
+    <t>1.9500</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>Audio Jack, 3 Poles (Stereo / TRS), Switched TR Poles (Normalling)</t>
+  </si>
+  <si>
+    <t>AudioJack3_SwitchTR</t>
+  </si>
+  <si>
+    <t>Connector_Audio</t>
+  </si>
+  <si>
+    <t>J2 J4</t>
+  </si>
+  <si>
+    <t>Jack 3.5mm</t>
+  </si>
+  <si>
+    <t>Jack_3.5mm_CUI_SJ1-3525N_Horizontal</t>
+  </si>
+  <si>
+    <t>https://www.cuidevices.com/product/resource/sj1-352xng.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/cui-devices/SJ1-3525NG/738690</t>
+  </si>
+  <si>
+    <t>71.9889</t>
+  </si>
+  <si>
+    <t>106.4944</t>
+  </si>
+  <si>
+    <t>11.2000</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>M Series, 6.35mm (1/4in) stereo jack, switched, with chrome ferrule and straight PCB pins</t>
+  </si>
+  <si>
+    <t>NMJ6HCD2</t>
+  </si>
+  <si>
+    <t>J7 J9 J16 J17 J18 J20</t>
+  </si>
+  <si>
+    <t>Jack 6.35mm</t>
+  </si>
+  <si>
+    <t>Jack_6.35mm_Horizontal</t>
+  </si>
+  <si>
+    <t>https://www.schurter.com/en/datasheet/typ_4833.2320.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/schurter-inc/4833-2320/2644235</t>
+  </si>
+  <si>
+    <t>pedalboard-hw(6)</t>
+  </si>
+  <si>
+    <t>157.6094</t>
+  </si>
+  <si>
+    <t>97.1944</t>
+  </si>
+  <si>
+    <t>15.7000</t>
+  </si>
+  <si>
+    <t>19.2300</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>Generic connector, double row, 02x02, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+  </si>
+  <si>
+    <t>Conn_02x02_Odd_Even</t>
+  </si>
+  <si>
+    <t>J8 J13 J14 J19 J21 J22</t>
+  </si>
+  <si>
+    <t>LED-Ring</t>
+  </si>
+  <si>
+    <t>Led-Ring</t>
+  </si>
+  <si>
+    <t>10.9944</t>
+  </si>
+  <si>
+    <t>74.9944</t>
+  </si>
+  <si>
+    <t>3.3500</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>USB_B_Micro-Connector</t>
+  </si>
+  <si>
+    <t>RP2040_minimal-rescue</t>
+  </si>
+  <si>
+    <t>J10</t>
+  </si>
+  <si>
+    <t>USB_B_Micro</t>
+  </si>
+  <si>
+    <t>USB_Micro-B_Wuerth_614105150721_Vertical</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/components/products/datasheet/614105150721.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/614105150721/5047749</t>
+  </si>
+  <si>
+    <t>63.5344</t>
+  </si>
+  <si>
+    <t>74.7044</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t>2.1250</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>Inductor</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>L5</t>
+  </si>
+  <si>
+    <t>12u</t>
+  </si>
+  <si>
+    <t>L_Coilcraft_XAL6030-XXX</t>
+  </si>
+  <si>
+    <t>Inductor_SMD</t>
+  </si>
+  <si>
+    <t>https://abracon.com/Magnetics/power/ASPI-6045S.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/abracon-llc/ASPI-6045S-120M-T/2343391</t>
+  </si>
+  <si>
+    <t>145.1944</t>
+  </si>
+  <si>
+    <t>5.4700</t>
+  </si>
+  <si>
+    <t>5.5000</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>Inductor with ferrite core</t>
+  </si>
+  <si>
+    <t>L_Ferrite</t>
+  </si>
+  <si>
+    <t>L1 L2 L3 L4</t>
+  </si>
+  <si>
+    <t>120_100MHz</t>
+  </si>
+  <si>
+    <t>L_0603_1608Metric</t>
+  </si>
+  <si>
+    <t>https://www.murata.com/products/productdata/8796738650142/ENFA0003.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/murata-electronics/BLM18KG121TN1D/1982762</t>
+  </si>
+  <si>
+    <t>24.6944</t>
+  </si>
+  <si>
+    <t>99.2444</t>
+  </si>
+  <si>
+    <t>2.4500</t>
+  </si>
+  <si>
+    <t>0.9500</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>FDS4435BZ</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>SO08-E3</t>
+  </si>
+  <si>
+    <t>https://rocelec.widen.net/view/pdf/rwygqx6rjd/FAIRS27615-1.pdf?t.download=true</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/onsemi/FDS4435BZ/1305763</t>
+  </si>
+  <si>
+    <t>141.8544</t>
+  </si>
+  <si>
+    <t>102.8344</t>
+  </si>
+  <si>
+    <t>4.4150</t>
+  </si>
+  <si>
+    <t>7.4000</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>Resistor, small symbol</t>
+  </si>
+  <si>
+    <t>R_Small</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R_0805_2012Metric</t>
+  </si>
+  <si>
+    <t>Resistor_SMD</t>
+  </si>
+  <si>
+    <t>https://www.seielect.com/catalog/sei-rncp.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RNCP0805FTD10R0/2240197</t>
+  </si>
+  <si>
+    <t>37.8944</t>
+  </si>
+  <si>
+    <t>93.4444</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>R7 R9</t>
+  </si>
+  <si>
+    <t>https://www.seielect.com/catalog/sei-rmcf_rmcp.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT27R0/1712920</t>
+  </si>
+  <si>
+    <t>80.1344</t>
+  </si>
+  <si>
+    <t>86.5344</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT33R0/1760586</t>
+  </si>
+  <si>
+    <t>95.3819</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>R3 R6</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT220R/1760238</t>
+  </si>
+  <si>
+    <t>22.9944</t>
+  </si>
+  <si>
+    <t>102.3944</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>R4 R5 R8 R11 R15 R16</t>
+  </si>
+  <si>
+    <t>1K</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RNCP0805FTD1K00/2240229</t>
+  </si>
+  <si>
+    <t>153.0944</t>
+  </si>
+  <si>
+    <t>100.1644</t>
+  </si>
+  <si>
+    <t>R14</t>
+  </si>
+  <si>
+    <t>1k91</t>
+  </si>
+  <si>
+    <t>https://industrial.panasonic.com/cdbs/www-data/pdf/RDA0000/AOA0000C304.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/panasonic-electronic-components/ERJ-6ENF1911V/111337</t>
+  </si>
+  <si>
+    <t>134.8944</t>
+  </si>
+  <si>
+    <t>77.4944</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>R13</t>
+  </si>
+  <si>
+    <t>10k</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RNCP0805FTD10K0/2240262</t>
+  </si>
+  <si>
+    <t>134.5944</t>
+  </si>
+  <si>
+    <t>72.5944</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>R12</t>
+  </si>
+  <si>
+    <t>12k1</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FG12K1/1712649</t>
+  </si>
+  <si>
+    <t>138.1944</t>
+  </si>
+  <si>
+    <t>73.5944</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>Rotary encoder, dual channel, incremental quadrate outputs, with switch</t>
+  </si>
+  <si>
+    <t>RotaryEncoder_Switch</t>
+  </si>
+  <si>
+    <t>SW1 SW2</t>
+  </si>
+  <si>
+    <t>Rotary</t>
+  </si>
+  <si>
+    <t>RotaryEncoder_Alps_EC11E-Switch_Vertical_H20mm_CircularMountingHoles</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/components/products/datasheet/482016514001.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/482016514001/10056402</t>
+  </si>
+  <si>
+    <t>42.2444</t>
+  </si>
+  <si>
+    <t>99.4944</t>
+  </si>
+  <si>
+    <t>16.5000</t>
+  </si>
+  <si>
+    <t>14.4000</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>Omron B3FS 6x6mm single pole normally-open tactile switch</t>
+  </si>
+  <si>
+    <t>SW_Omron_B3FS</t>
+  </si>
+  <si>
+    <t>Switch</t>
+  </si>
+  <si>
+    <t>SW3 SW4 SW5 SW6 SW7 SW8</t>
+  </si>
+  <si>
+    <t>Tactile</t>
+  </si>
+  <si>
+    <t>SW_PUSH-12mm_Wuerth</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/components/products/datasheet/430172043816.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/430162043826/9950802</t>
+  </si>
+  <si>
+    <t>11.9944</t>
+  </si>
+  <si>
+    <t>63.9944</t>
+  </si>
+  <si>
+    <t>16.0000</t>
+  </si>
+  <si>
+    <t>6.8000</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>74AHCT1G32SE-7</t>
+  </si>
+  <si>
+    <t>U2 U7</t>
+  </si>
+  <si>
+    <t>SOT-353_SC-70-5</t>
+  </si>
+  <si>
+    <t>Package_TO_SOT_SMD</t>
+  </si>
+  <si>
+    <t>https://www.diodes.com/assets/Datasheets/74AHCT1G32.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/diodes-incorporated/74AHCT1G32SE-7/2711987</t>
+  </si>
+  <si>
+    <t>55.1944</t>
+  </si>
+  <si>
+    <t>84.0444</t>
+  </si>
+  <si>
+    <t>2.5500</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>1A Low drop-out regulator, Fixed Output 3.3V, SOT-223</t>
+  </si>
+  <si>
+    <t>NCP1117-3.3_SOT223</t>
+  </si>
+  <si>
+    <t>Regulator_Linear</t>
+  </si>
+  <si>
+    <t>U5</t>
+  </si>
+  <si>
+    <t>SOT-223-3_TabPin2</t>
+  </si>
+  <si>
+    <t>https://www.diodes.com/assets/Datasheets/AZ1117I.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/diodes-incorporated/AZ1117IH-3-3TRG1/5699672</t>
+  </si>
+  <si>
+    <t>115.6444</t>
+  </si>
+  <si>
+    <t>74.1444</t>
+  </si>
+  <si>
+    <t>8.3000</t>
+  </si>
+  <si>
+    <t>6.1000</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>RP2040</t>
+  </si>
+  <si>
+    <t>MCU_RaspberryPi_RP2040</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>RP2040-QFN-56</t>
+  </si>
+  <si>
+    <t>https://datasheets.raspberrypi.com/rp2040/rp2040-datasheet.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/raspberry-pi/SC0914-13/14306010</t>
+  </si>
+  <si>
+    <t>89.3944</t>
+  </si>
+  <si>
+    <t>85.3944</t>
+  </si>
+  <si>
+    <t>7.7500</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>15-Mbps inverting photocouple,5 kVrms, 2.7 - 5.5 Vdd, push-pull output</t>
+  </si>
+  <si>
+    <t>TLP2761</t>
+  </si>
+  <si>
+    <t>Isolator</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>SO-6L_10x3.84mm_P1.27mm</t>
+  </si>
+  <si>
+    <t>Package_SO</t>
+  </si>
+  <si>
+    <t>https://toshiba.semicon-storage.com/info/docget.jsp?did=28819&amp;prodName=TLP2761</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/toshiba-semiconductor-and-storage/TLP2761-TP-E/7809713</t>
+  </si>
+  <si>
+    <t>33.3944</t>
+  </si>
+  <si>
+    <t>10.8000</t>
+  </si>
+  <si>
+    <t>3.3400</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.5V to 28V Input, 3A, Step-Down Converter with Eco-mode(tm)</t>
+  </si>
+  <si>
+    <t>TPS54331</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>U6</t>
+  </si>
+  <si>
+    <t>SOIC-8_3.9x4.9mm_P1.27mm</t>
+  </si>
+  <si>
+    <t>https://www.ti.com/lit/ds/symlink/tps54331.pdf?HQS=dis-dk-null-digikeymode-dsf-pf-null-wwe&amp;ts=1697733027064</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/texas-instruments/TPS54331DR/2047963</t>
+  </si>
+  <si>
+    <t>138.6944</t>
+  </si>
+  <si>
+    <t>81.6944</t>
+  </si>
+  <si>
+    <t>6.9000</t>
+  </si>
+  <si>
+    <t>4.4100</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>W25Q128JVS-Memory_Flash</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>W25Q128JVS</t>
+  </si>
+  <si>
+    <t>SOIC-8_5.23x5.23mm_P1.27mm</t>
+  </si>
+  <si>
+    <t>https://www.winbond.com/resource-files/w25q128jv%20revf%2003272018%20plus.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/winbond-electronics/W25Q128JVSIQ-TR/5803944</t>
+  </si>
+  <si>
+    <t>81.4944</t>
+  </si>
+  <si>
+    <t>78.5444</t>
+  </si>
+  <si>
+    <t>8.8000</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>Two pin crystal</t>
+  </si>
+  <si>
+    <t>Crystal</t>
+  </si>
+  <si>
+    <t>Y1</t>
+  </si>
+  <si>
+    <t>ABLS-12.000MHZ-B4-T</t>
+  </si>
+  <si>
+    <t>Crystal_SMD_HC49-US</t>
+  </si>
+  <si>
+    <t>https://abracon.com/Resonators/ABLS.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/abracon-llc/ABLS-12-000MHZ-B4-T/2184161</t>
+  </si>
+  <si>
+    <t>99.9944</t>
+  </si>
+  <si>
+    <t>74.8944</t>
+  </si>
+  <si>
+    <t>14.6000</t>
+  </si>
+  <si>
+    <t>2.1000</t>
+  </si>
+  <si>
+    <t>KiBot Bill of Materials</t>
+  </si>
+  <si>
+    <t>Schematic:</t>
+  </si>
+  <si>
+    <t>pedalboard-hw</t>
+  </si>
+  <si>
+    <t>Variant:</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>Revision:</t>
+  </si>
+  <si>
+    <t>3.0.2-RC</t>
+  </si>
+  <si>
+    <t>Date:</t>
+  </si>
+  <si>
+    <t>2023-10-20</t>
+  </si>
+  <si>
+    <t>KiCad Version:</t>
+  </si>
+  <si>
+    <t>7.0.8-7.0.8~ubuntu23.04.1</t>
+  </si>
+  <si>
+    <t>Component Groups:</t>
+  </si>
+  <si>
+    <t>Component Count:</t>
+  </si>
+  <si>
+    <t>108 (80 SMD/ 26 THT)</t>
+  </si>
+  <si>
+    <t>Fitted Components:</t>
+  </si>
+  <si>
+    <t>100 (79 SMD/ 21 THT)</t>
+  </si>
+  <si>
+    <t>Number of PCBs:</t>
+  </si>
+  <si>
+    <t>Total Components:</t>
+  </si>
+  <si>
     <t>5-pin DIN connector (5-pin DIN-5 stereo)</t>
   </si>
   <si>
@@ -679,6 +1504,12 @@
     <t>CP-2350</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (DNF)</t>
+  </si>
+  <si>
     <t>https://www.switchcraft.com/assets/1/24/57PC5F_CD.pdf</t>
   </si>
   <si>
@@ -691,868 +1522,40 @@
     <t>108.9944</t>
   </si>
   <si>
+    <t>no</t>
+  </si>
+  <si>
     <t>17.5000</t>
   </si>
   <si>
     <t>14.7500</t>
   </si>
   <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>Raspberry_Pi_2_3</t>
-  </si>
-  <si>
-    <t>J25</t>
-  </si>
-  <si>
-    <t>HiFi Berry</t>
-  </si>
-  <si>
-    <t>HiFi Berry DAC ADC+</t>
-  </si>
-  <si>
-    <t>https://www.hifiberry.com/docs/data-sheets/datasheet-dac-adc-pro/</t>
-  </si>
-  <si>
-    <t>102.2444</t>
-  </si>
-  <si>
-    <t>62.6188</t>
-  </si>
-  <si>
-    <t>bottom</t>
-  </si>
-  <si>
-    <t>41.4500</t>
-  </si>
-  <si>
-    <t>55.0150</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>Generic connector, single row, 01x03, script generated</t>
-  </si>
-  <si>
-    <t>Conn_01x03_Pin</t>
-  </si>
-  <si>
-    <t>J23 J24 J26</t>
-  </si>
-  <si>
-    <t>JST XH 3</t>
-  </si>
-  <si>
-    <t>JST_XH_B3B-XH-A_1x03_P2.50mm_Vertical</t>
-  </si>
-  <si>
-    <t>Connector_JST</t>
-  </si>
-  <si>
-    <t>https://app.adam-tech.com/products/download/data_sheet/240508/25sh-b-xx-ts-data-sheet.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/adam-tech/25SH-B-03-TS/9830417</t>
-  </si>
-  <si>
-    <t>pedalboard-hw(3)</t>
+    <t>J12 J15</t>
+  </si>
+  <si>
+    <t>Debug</t>
+  </si>
+  <si>
+    <t>PinHeader_1x03_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>107.8544</t>
+  </si>
+  <si>
+    <t>86.6944</t>
+  </si>
+  <si>
+    <t>6.7800</t>
+  </si>
+  <si>
+    <t>J23 J24</t>
   </si>
   <si>
     <t>31.5944</t>
   </si>
   <si>
     <t>102.5194</t>
-  </si>
-  <si>
-    <t>6.7000</t>
-  </si>
-  <si>
-    <t>1.9500</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>Audio Jack, 3 Poles (Stereo / TRS), Switched TR Poles (Normalling)</t>
-  </si>
-  <si>
-    <t>AudioJack3_SwitchTR</t>
-  </si>
-  <si>
-    <t>Connector_Audio</t>
-  </si>
-  <si>
-    <t>J2 J4</t>
-  </si>
-  <si>
-    <t>Jack 3.5mm</t>
-  </si>
-  <si>
-    <t>Jack_3.5mm_CUI_SJ1-3525N_Horizontal</t>
-  </si>
-  <si>
-    <t>https://www.cuidevices.com/product/resource/sj1-352xng.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/cui-devices/SJ1-3525NG/738690</t>
-  </si>
-  <si>
-    <t>71.9889</t>
-  </si>
-  <si>
-    <t>106.4944</t>
-  </si>
-  <si>
-    <t>11.2000</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>M Series, 6.35mm (1/4in) stereo jack, switched, with chrome ferrule and straight PCB pins</t>
-  </si>
-  <si>
-    <t>NMJ6HCD2</t>
-  </si>
-  <si>
-    <t>J7 J9 J16 J17 J18 J20</t>
-  </si>
-  <si>
-    <t>Jack 6.35mm</t>
-  </si>
-  <si>
-    <t>Jack_6.35mm_Horizontal</t>
-  </si>
-  <si>
-    <t>https://www.schurter.com/en/datasheet/typ_4833.2320.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/schurter-inc/4833-2320/2644235</t>
-  </si>
-  <si>
-    <t>pedalboard-hw(6)</t>
-  </si>
-  <si>
-    <t>157.6094</t>
-  </si>
-  <si>
-    <t>97.1944</t>
-  </si>
-  <si>
-    <t>15.7000</t>
-  </si>
-  <si>
-    <t>19.2300</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>Generic connector, double row, 02x02, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
-    <t>Conn_02x02_Odd_Even</t>
-  </si>
-  <si>
-    <t>J8 J13 J14 J19 J21 J22</t>
-  </si>
-  <si>
-    <t>LED-Ring</t>
-  </si>
-  <si>
-    <t>Led-Ring</t>
-  </si>
-  <si>
-    <t>10.9944</t>
-  </si>
-  <si>
-    <t>74.9944</t>
-  </si>
-  <si>
-    <t>3.3500</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>USB_B_Micro-Connector</t>
-  </si>
-  <si>
-    <t>RP2040_minimal-rescue</t>
-  </si>
-  <si>
-    <t>J10</t>
-  </si>
-  <si>
-    <t>USB_B_Micro</t>
-  </si>
-  <si>
-    <t>USB_Micro-B_Wuerth_614105150721_Vertical</t>
-  </si>
-  <si>
-    <t>https://www.we-online.com/components/products/datasheet/614105150721.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/614105150721/5047749</t>
-  </si>
-  <si>
-    <t>63.5344</t>
-  </si>
-  <si>
-    <t>74.7044</t>
-  </si>
-  <si>
-    <t>8.0000</t>
-  </si>
-  <si>
-    <t>2.1250</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>Inductor</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>L5</t>
-  </si>
-  <si>
-    <t>12u</t>
-  </si>
-  <si>
-    <t>L_Coilcraft_XAL6030-XXX</t>
-  </si>
-  <si>
-    <t>Inductor_SMD</t>
-  </si>
-  <si>
-    <t>https://abracon.com/Magnetics/power/ASPI-6045S.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/abracon-llc/ASPI-6045S-120M-T/2343391</t>
-  </si>
-  <si>
-    <t>145.1944</t>
-  </si>
-  <si>
-    <t>5.4700</t>
-  </si>
-  <si>
-    <t>5.5000</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>Inductor with ferrite core</t>
-  </si>
-  <si>
-    <t>L_Ferrite</t>
-  </si>
-  <si>
-    <t>L1 L2 L3 L4</t>
-  </si>
-  <si>
-    <t>120_100MHz</t>
-  </si>
-  <si>
-    <t>L_0603_1608Metric</t>
-  </si>
-  <si>
-    <t>https://www.murata.com/products/productdata/8796738650142/ENFA0003.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/murata-electronics/BLM18KG121TN1D/1982762</t>
-  </si>
-  <si>
-    <t>24.6944</t>
-  </si>
-  <si>
-    <t>99.2444</t>
-  </si>
-  <si>
-    <t>2.4500</t>
-  </si>
-  <si>
-    <t>0.9500</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>FDS4435BZ</t>
-  </si>
-  <si>
-    <t>Q1</t>
-  </si>
-  <si>
-    <t>SO08-E3</t>
-  </si>
-  <si>
-    <t>https://rocelec.widen.net/view/pdf/rwygqx6rjd/FAIRS27615-1.pdf?t.download=true</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/onsemi/FDS4435BZ/1305763</t>
-  </si>
-  <si>
-    <t>141.8544</t>
-  </si>
-  <si>
-    <t>102.8344</t>
-  </si>
-  <si>
-    <t>4.4150</t>
-  </si>
-  <si>
-    <t>7.4000</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>Resistor, small symbol</t>
-  </si>
-  <si>
-    <t>R_Small</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>R_0805_2012Metric</t>
-  </si>
-  <si>
-    <t>Resistor_SMD</t>
-  </si>
-  <si>
-    <t>https://www.seielect.com/catalog/sei-rncp.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RNCP0805FTD10R0/2240197</t>
-  </si>
-  <si>
-    <t>37.8944</t>
-  </si>
-  <si>
-    <t>93.4444</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>R7 R9</t>
-  </si>
-  <si>
-    <t>https://www.seielect.com/catalog/sei-rmcf_rmcp.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT27R0/1712920</t>
-  </si>
-  <si>
-    <t>80.1344</t>
-  </si>
-  <si>
-    <t>86.5344</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT33R0/1760586</t>
-  </si>
-  <si>
-    <t>95.3819</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>R3 R6</t>
-  </si>
-  <si>
-    <t>220</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT220R/1760238</t>
-  </si>
-  <si>
-    <t>22.9944</t>
-  </si>
-  <si>
-    <t>102.3944</t>
-  </si>
-  <si>
-    <t>R4 R5 R8 R11 R15 R16</t>
-  </si>
-  <si>
-    <t>1K</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RNCP0805FTD1K00/2240229</t>
-  </si>
-  <si>
-    <t>153.0944</t>
-  </si>
-  <si>
-    <t>100.1644</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>R14</t>
-  </si>
-  <si>
-    <t>1k91</t>
-  </si>
-  <si>
-    <t>https://industrial.panasonic.com/cdbs/www-data/pdf/RDA0000/AOA0000C304.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/panasonic-electronic-components/ERJ-6ENF1911V/111337</t>
-  </si>
-  <si>
-    <t>134.8944</t>
-  </si>
-  <si>
-    <t>77.4944</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>R13</t>
-  </si>
-  <si>
-    <t>10k</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RNCP0805FTD10K0/2240262</t>
-  </si>
-  <si>
-    <t>134.5944</t>
-  </si>
-  <si>
-    <t>72.5944</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>R12</t>
-  </si>
-  <si>
-    <t>12k1</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FG12K1/1712649</t>
-  </si>
-  <si>
-    <t>138.1944</t>
-  </si>
-  <si>
-    <t>73.5944</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>Rotary encoder, dual channel, incremental quadrate outputs, with switch</t>
-  </si>
-  <si>
-    <t>RotaryEncoder_Switch</t>
-  </si>
-  <si>
-    <t>SW1 SW2</t>
-  </si>
-  <si>
-    <t>Rotary</t>
-  </si>
-  <si>
-    <t>RotaryEncoder_Alps_EC11E-Switch_Vertical_H20mm_CircularMountingHoles</t>
-  </si>
-  <si>
-    <t>https://www.we-online.com/components/products/datasheet/482016514001.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/482016514001/10056402</t>
-  </si>
-  <si>
-    <t>42.2444</t>
-  </si>
-  <si>
-    <t>99.4944</t>
-  </si>
-  <si>
-    <t>16.5000</t>
-  </si>
-  <si>
-    <t>14.4000</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>Omron B3FS 6x6mm single pole normally-open tactile switch</t>
-  </si>
-  <si>
-    <t>SW_Omron_B3FS</t>
-  </si>
-  <si>
-    <t>Switch</t>
-  </si>
-  <si>
-    <t>SW3 SW4 SW5 SW6 SW7 SW8</t>
-  </si>
-  <si>
-    <t>Tactile</t>
-  </si>
-  <si>
-    <t>SW_PUSH-12mm_Wuerth</t>
-  </si>
-  <si>
-    <t>https://www.we-online.com/components/products/datasheet/430172043816.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/430162043826/9950802</t>
-  </si>
-  <si>
-    <t>11.9944</t>
-  </si>
-  <si>
-    <t>63.9944</t>
-  </si>
-  <si>
-    <t>16.0000</t>
-  </si>
-  <si>
-    <t>6.8000</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>74AHCT1G32SE-7</t>
-  </si>
-  <si>
-    <t>U2 U7</t>
-  </si>
-  <si>
-    <t>SOT-353_SC-70-5</t>
-  </si>
-  <si>
-    <t>Package_TO_SOT_SMD</t>
-  </si>
-  <si>
-    <t>https://www.diodes.com/assets/Datasheets/74AHCT1G32.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/diodes-incorporated/74AHCT1G32SE-7/2711987</t>
-  </si>
-  <si>
-    <t>55.1944</t>
-  </si>
-  <si>
-    <t>84.0444</t>
-  </si>
-  <si>
-    <t>2.5500</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>1A Low drop-out regulator, Fixed Output 3.3V, SOT-223</t>
-  </si>
-  <si>
-    <t>NCP1117-3.3_SOT223</t>
-  </si>
-  <si>
-    <t>Regulator_Linear</t>
-  </si>
-  <si>
-    <t>U5</t>
-  </si>
-  <si>
-    <t>SOT-223-3_TabPin2</t>
-  </si>
-  <si>
-    <t>https://www.diodes.com/assets/Datasheets/AZ1117I.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/diodes-incorporated/AZ1117IH-3-3TRG1/5699672</t>
-  </si>
-  <si>
-    <t>115.6444</t>
-  </si>
-  <si>
-    <t>74.1444</t>
-  </si>
-  <si>
-    <t>8.3000</t>
-  </si>
-  <si>
-    <t>6.1000</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>RP2040</t>
-  </si>
-  <si>
-    <t>MCU_RaspberryPi_RP2040</t>
-  </si>
-  <si>
-    <t>U4</t>
-  </si>
-  <si>
-    <t>RP2040-QFN-56</t>
-  </si>
-  <si>
-    <t>https://datasheets.raspberrypi.com/rp2040/rp2040-datasheet.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/raspberry-pi/SC0914-13/14306010</t>
-  </si>
-  <si>
-    <t>89.3944</t>
-  </si>
-  <si>
-    <t>85.3944</t>
-  </si>
-  <si>
-    <t>7.7500</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>15-Mbps inverting photocouple,5 kVrms, 2.7 - 5.5 Vdd, push-pull output</t>
-  </si>
-  <si>
-    <t>TLP2761</t>
-  </si>
-  <si>
-    <t>Isolator</t>
-  </si>
-  <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>SO-6L_10x3.84mm_P1.27mm</t>
-  </si>
-  <si>
-    <t>Package_SO</t>
-  </si>
-  <si>
-    <t>https://toshiba.semicon-storage.com/info/docget.jsp?did=28819&amp;prodName=TLP2761</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/toshiba-semiconductor-and-storage/TLP2761-TP-E/7809713</t>
-  </si>
-  <si>
-    <t>33.3944</t>
-  </si>
-  <si>
-    <t>10.8000</t>
-  </si>
-  <si>
-    <t>3.3400</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.5V to 28V Input, 3A, Step-Down Converter with Eco-mode(tm)</t>
-  </si>
-  <si>
-    <t>TPS54331</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t>U6</t>
-  </si>
-  <si>
-    <t>SOIC-8_3.9x4.9mm_P1.27mm</t>
-  </si>
-  <si>
-    <t>https://www.ti.com/lit/ds/symlink/tps54331.pdf?HQS=dis-dk-null-digikeymode-dsf-pf-null-wwe&amp;ts=1697733027064</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/texas-instruments/TPS54331DR/2047963</t>
-  </si>
-  <si>
-    <t>138.6944</t>
-  </si>
-  <si>
-    <t>81.6944</t>
-  </si>
-  <si>
-    <t>6.9000</t>
-  </si>
-  <si>
-    <t>4.4100</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>W25Q128JVS-Memory_Flash</t>
-  </si>
-  <si>
-    <t>U3</t>
-  </si>
-  <si>
-    <t>W25Q128JVS</t>
-  </si>
-  <si>
-    <t>SOIC-8_5.23x5.23mm_P1.27mm</t>
-  </si>
-  <si>
-    <t>https://www.winbond.com/resource-files/w25q128jv%20revf%2003272018%20plus.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/winbond-electronics/W25Q128JVSIQ-TR/5803944</t>
-  </si>
-  <si>
-    <t>81.4944</t>
-  </si>
-  <si>
-    <t>78.5444</t>
-  </si>
-  <si>
-    <t>8.8000</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>Two pin crystal</t>
-  </si>
-  <si>
-    <t>Crystal</t>
-  </si>
-  <si>
-    <t>Y1</t>
-  </si>
-  <si>
-    <t>ABLS-12.000MHZ-B4-T</t>
-  </si>
-  <si>
-    <t>Crystal_SMD_HC49-US</t>
-  </si>
-  <si>
-    <t>https://abracon.com/Resonators/ABLS.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/abracon-llc/ABLS-12-000MHZ-B4-T/2184161</t>
-  </si>
-  <si>
-    <t>99.9944</t>
-  </si>
-  <si>
-    <t>74.8944</t>
-  </si>
-  <si>
-    <t>14.6000</t>
-  </si>
-  <si>
-    <t>2.1000</t>
-  </si>
-  <si>
-    <t>KiBot Bill of Materials</t>
-  </si>
-  <si>
-    <t>Schematic:</t>
-  </si>
-  <si>
-    <t>pedalboard-hw</t>
-  </si>
-  <si>
-    <t>Variant:</t>
-  </si>
-  <si>
-    <t>default</t>
-  </si>
-  <si>
-    <t>Revision:</t>
-  </si>
-  <si>
-    <t>3.0.2-RC</t>
-  </si>
-  <si>
-    <t>Date:</t>
-  </si>
-  <si>
-    <t>2023-10-20</t>
-  </si>
-  <si>
-    <t>KiCad Version:</t>
-  </si>
-  <si>
-    <t>7.0.8-7.0.8~ubuntu23.04.1</t>
-  </si>
-  <si>
-    <t>Component Groups:</t>
-  </si>
-  <si>
-    <t>Component Count:</t>
-  </si>
-  <si>
-    <t>108 (80 SMD/ 26 THT)</t>
-  </si>
-  <si>
-    <t>Fitted Components:</t>
-  </si>
-  <si>
-    <t>104 (79 SMD/ 23 THT)</t>
-  </si>
-  <si>
-    <t>Number of PCBs:</t>
-  </si>
-  <si>
-    <t>Total Components:</t>
-  </si>
-  <si>
-    <t>J12 J15</t>
-  </si>
-  <si>
-    <t>Debug</t>
-  </si>
-  <si>
-    <t>PinHeader_1x03_P2.54mm_Vertical</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (DNF)</t>
-  </si>
-  <si>
-    <t>107.8544</t>
-  </si>
-  <si>
-    <t>86.6944</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>6.7800</t>
   </si>
   <si>
     <t>Generic screw terminal, single row, 01x02, script generated (kicad-library-utils/schlib/autogen/connector/)</t>
@@ -2152,7 +2155,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W53"/>
+  <dimension ref="A1:W52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -2188,7 +2191,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -2213,55 +2216,55 @@
     </row>
     <row r="2" spans="1:23">
       <c r="C2" s="2" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
       <c r="F2" s="3">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:23">
       <c r="C3" s="2" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
     </row>
     <row r="4" spans="1:23">
       <c r="C4" s="2" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
     </row>
     <row r="5" spans="1:23">
       <c r="C5" s="2" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -2269,16 +2272,16 @@
     </row>
     <row r="6" spans="1:23">
       <c r="C6" s="2" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="F6" s="3">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -3634,79 +3637,79 @@
       <c r="A27" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>191</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="H27" s="7" t="s">
         <v>106</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="K27" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L27" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="M27" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="N27" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="O27" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="M27" s="6" t="s">
+      <c r="Q27" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="N27" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="O27" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="R27" s="7" t="s">
         <v>52</v>
       </c>
       <c r="S27" s="7" t="s">
-        <v>39</v>
+        <v>221</v>
       </c>
       <c r="T27" s="7" t="s">
-        <v>40</v>
+        <v>199</v>
       </c>
       <c r="U27" s="7" t="s">
         <v>41</v>
       </c>
       <c r="V27" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="W27" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="W27" s="7" t="s">
+    </row>
+    <row r="28" spans="1:23" ht="45" customHeight="1">
+      <c r="A28" s="8" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="28" spans="1:23" ht="30" customHeight="1">
-      <c r="A28" s="8" t="s">
+      <c r="B28" s="9" t="s">
         <v>225</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>100</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>226</v>
@@ -3724,7 +3727,7 @@
         <v>229</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>106</v>
+        <v>230</v>
       </c>
       <c r="I28" s="8" t="s">
         <v>23</v>
@@ -3736,28 +3739,28 @@
         <v>31</v>
       </c>
       <c r="L28" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="M28" s="12" t="s">
-        <v>100</v>
+        <v>231</v>
+      </c>
+      <c r="M28" s="9" t="s">
+        <v>232</v>
       </c>
       <c r="N28" s="10" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="O28" s="8" t="s">
         <v>35</v>
       </c>
       <c r="P28" s="10" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q28" s="10" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="R28" s="10" t="s">
         <v>52</v>
       </c>
       <c r="S28" s="10" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="T28" s="10" t="s">
         <v>199</v>
@@ -3766,57 +3769,57 @@
         <v>41</v>
       </c>
       <c r="V28" s="10" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="W28" s="10" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" ht="45" customHeight="1">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" ht="30" customHeight="1">
       <c r="A29" s="5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>191</v>
+        <v>240</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>242</v>
+        <v>106</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="K29" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N29" s="7" t="s">
         <v>48</v>
       </c>
       <c r="O29" s="5" t="s">
-        <v>245</v>
+        <v>49</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>246</v>
@@ -3828,7 +3831,7 @@
         <v>52</v>
       </c>
       <c r="S29" s="7" t="s">
-        <v>233</v>
+        <v>39</v>
       </c>
       <c r="T29" s="7" t="s">
         <v>199</v>
@@ -3840,63 +3843,63 @@
         <v>248</v>
       </c>
       <c r="W29" s="7" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
     </row>
     <row r="30" spans="1:23" ht="30" customHeight="1">
       <c r="A30" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="B30" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="C30" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="D30" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="E30" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="F30" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="G30" s="10" t="s">
         <v>254</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>256</v>
       </c>
       <c r="H30" s="10" t="s">
         <v>106</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="K30" s="8" t="s">
         <v>31</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="M30" s="9" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="N30" s="10" t="s">
         <v>48</v>
       </c>
       <c r="O30" s="8" t="s">
-        <v>49</v>
+        <v>257</v>
       </c>
       <c r="P30" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q30" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="Q30" s="10" t="s">
-        <v>260</v>
-      </c>
       <c r="R30" s="10" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="S30" s="10" t="s">
         <v>39</v>
@@ -3908,13 +3911,13 @@
         <v>41</v>
       </c>
       <c r="V30" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="W30" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="W30" s="10" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" ht="30" customHeight="1">
+    </row>
+    <row r="31" spans="1:23" ht="45" customHeight="1">
       <c r="A31" s="5" t="s">
         <v>262</v>
       </c>
@@ -3925,7 +3928,7 @@
         <v>264</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>253</v>
+        <v>205</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>265</v>
@@ -3948,23 +3951,23 @@
       <c r="K31" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L31" s="7" t="s">
+      <c r="L31" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="M31" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="N31" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="O31" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="M31" s="6" t="s">
+      <c r="Q31" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="N31" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="O31" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="R31" s="7" t="s">
         <v>96</v>
@@ -3979,66 +3982,66 @@
         <v>41</v>
       </c>
       <c r="V31" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="W31" s="7" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" ht="30" customHeight="1">
+      <c r="A32" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="D32" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="W31" s="7" t="s">
+      <c r="E32" s="10" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="32" spans="1:23" ht="45" customHeight="1">
-      <c r="A32" s="8" t="s">
+      <c r="F32" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="G32" s="10" t="s">
         <v>276</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="G32" s="10" t="s">
-        <v>280</v>
       </c>
       <c r="H32" s="10" t="s">
         <v>106</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="K32" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="L32" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="M32" s="12" t="s">
-        <v>100</v>
+      <c r="L32" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="M32" s="9" t="s">
+        <v>278</v>
       </c>
       <c r="N32" s="10" t="s">
-        <v>137</v>
+        <v>34</v>
       </c>
       <c r="O32" s="8" t="s">
-        <v>270</v>
+        <v>35</v>
       </c>
       <c r="P32" s="10" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="Q32" s="10" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="R32" s="10" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="S32" s="10" t="s">
         <v>39</v>
@@ -4050,36 +4053,36 @@
         <v>41</v>
       </c>
       <c r="V32" s="10" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="W32" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="33" spans="1:23" ht="30" customHeight="1">
       <c r="A33" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>284</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>100</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>285</v>
       </c>
       <c r="D33" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="F33" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="G33" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="G33" s="7" t="s">
+      <c r="H33" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>23</v>
@@ -4106,78 +4109,78 @@
         <v>292</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="R33" s="7" t="s">
-        <v>52</v>
+        <v>155</v>
       </c>
       <c r="S33" s="7" t="s">
         <v>39</v>
       </c>
       <c r="T33" s="7" t="s">
-        <v>199</v>
+        <v>40</v>
       </c>
       <c r="U33" s="7" t="s">
         <v>41</v>
       </c>
       <c r="V33" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="W33" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="W33" s="7" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="34" spans="1:23" ht="30" customHeight="1">
       <c r="A34" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="B34" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="C34" s="10" t="s">
         <v>297</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>298</v>
       </c>
       <c r="D34" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E34" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="F34" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="F34" s="10" t="s">
+      <c r="G34" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="G34" s="10" t="s">
-        <v>301</v>
-      </c>
       <c r="H34" s="10" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="J34" s="8" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="K34" s="8" t="s">
         <v>31</v>
       </c>
       <c r="L34" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="M34" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="N34" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="O34" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="P34" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="M34" s="9" t="s">
+      <c r="Q34" s="10" t="s">
         <v>304</v>
-      </c>
-      <c r="N34" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="O34" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="P34" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q34" s="10" t="s">
-        <v>282</v>
       </c>
       <c r="R34" s="10" t="s">
         <v>155</v>
@@ -4192,66 +4195,66 @@
         <v>41</v>
       </c>
       <c r="V34" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="W34" s="10" t="s">
         <v>306</v>
-      </c>
-      <c r="W34" s="10" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="30" customHeight="1">
       <c r="A35" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="D35" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="E35" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="F35" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="D35" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>313</v>
-      </c>
       <c r="H35" s="7" t="s">
-        <v>302</v>
+        <v>106</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="K35" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L35" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="M35" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="N35" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="O35" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="M35" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="N35" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="O35" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>317</v>
-      </c>
       <c r="R35" s="7" t="s">
-        <v>155</v>
+        <v>96</v>
       </c>
       <c r="S35" s="7" t="s">
         <v>39</v>
@@ -4263,36 +4266,36 @@
         <v>41</v>
       </c>
       <c r="V35" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="W35" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="30" customHeight="1">
       <c r="A36" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="B36" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="C36" s="10" t="s">
+      <c r="F36" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="G36" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="D36" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="E36" s="10" t="s">
+      <c r="H36" s="10" t="s">
         <v>322</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="G36" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="H36" s="10" t="s">
-        <v>106</v>
       </c>
       <c r="I36" s="8" t="s">
         <v>23</v>
@@ -4304,22 +4307,22 @@
         <v>31</v>
       </c>
       <c r="L36" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="M36" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="M36" s="9" t="s">
-        <v>325</v>
-      </c>
       <c r="N36" s="10" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="O36" s="8" t="s">
         <v>35</v>
       </c>
       <c r="P36" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q36" s="10" t="s">
         <v>326</v>
-      </c>
-      <c r="Q36" s="10" t="s">
-        <v>327</v>
       </c>
       <c r="R36" s="10" t="s">
         <v>96</v>
@@ -4334,63 +4337,63 @@
         <v>41</v>
       </c>
       <c r="V36" s="10" t="s">
-        <v>328</v>
+        <v>124</v>
       </c>
       <c r="W36" s="10" t="s">
-        <v>329</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:23" ht="30" customHeight="1">
       <c r="A37" s="5" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>114</v>
+        <v>307</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="K37" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="M37" s="6" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="N37" s="7" t="s">
         <v>48</v>
       </c>
       <c r="O37" s="5" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="R37" s="7" t="s">
         <v>96</v>
@@ -4413,58 +4416,58 @@
     </row>
     <row r="38" spans="1:23" ht="30" customHeight="1">
       <c r="A38" s="8" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="D38" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>308</v>
+        <v>335</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="J38" s="8" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="K38" s="8" t="s">
         <v>31</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="M38" s="9" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="N38" s="10" t="s">
         <v>48</v>
       </c>
       <c r="O38" s="8" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="P38" s="10" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="Q38" s="10" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="R38" s="10" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="S38" s="10" t="s">
         <v>39</v>
@@ -4484,58 +4487,58 @@
     </row>
     <row r="39" spans="1:23" ht="30" customHeight="1">
       <c r="A39" s="5" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="K39" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="M39" s="6" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="N39" s="7" t="s">
         <v>48</v>
       </c>
       <c r="O39" s="5" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="R39" s="7" t="s">
-        <v>52</v>
+        <v>155</v>
       </c>
       <c r="S39" s="7" t="s">
         <v>39</v>
@@ -4555,58 +4558,58 @@
     </row>
     <row r="40" spans="1:23" ht="30" customHeight="1">
       <c r="A40" s="8" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="J40" s="8" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="K40" s="8" t="s">
         <v>31</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>342</v>
+        <v>323</v>
       </c>
       <c r="M40" s="9" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="N40" s="10" t="s">
         <v>48</v>
       </c>
       <c r="O40" s="8" t="s">
-        <v>49</v>
+        <v>257</v>
       </c>
       <c r="P40" s="10" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="Q40" s="10" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="R40" s="10" t="s">
-        <v>155</v>
+        <v>96</v>
       </c>
       <c r="S40" s="10" t="s">
         <v>39</v>
@@ -4626,58 +4629,58 @@
     </row>
     <row r="41" spans="1:23" ht="30" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="K41" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="M41" s="6" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="N41" s="7" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="O41" s="5" t="s">
-        <v>270</v>
+        <v>35</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="R41" s="7" t="s">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="S41" s="7" t="s">
         <v>39</v>
@@ -4697,28 +4700,28 @@
     </row>
     <row r="42" spans="1:23" ht="30" customHeight="1">
       <c r="A42" s="8" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="D42" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="I42" s="8" t="s">
         <v>23</v>
@@ -4730,10 +4733,10 @@
         <v>31</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>365</v>
+        <v>323</v>
       </c>
       <c r="M42" s="9" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="N42" s="10" t="s">
         <v>34</v>
@@ -4742,10 +4745,10 @@
         <v>35</v>
       </c>
       <c r="P42" s="10" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="Q42" s="10" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="R42" s="10" t="s">
         <v>38</v>
@@ -4768,28 +4771,28 @@
     </row>
     <row r="43" spans="1:23" ht="30" customHeight="1">
       <c r="A43" s="5" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="I43" s="5" t="s">
         <v>23</v>
@@ -4801,10 +4804,10 @@
         <v>31</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="M43" s="6" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="N43" s="7" t="s">
         <v>34</v>
@@ -4813,13 +4816,13 @@
         <v>35</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="R43" s="7" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="S43" s="7" t="s">
         <v>39</v>
@@ -4839,87 +4842,87 @@
     </row>
     <row r="44" spans="1:23" ht="30" customHeight="1">
       <c r="A44" s="8" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>331</v>
+        <v>369</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>332</v>
+        <v>370</v>
       </c>
       <c r="D44" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>334</v>
+        <v>373</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>335</v>
+        <v>106</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="J44" s="8" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="K44" s="8" t="s">
         <v>31</v>
       </c>
       <c r="L44" s="10" t="s">
-        <v>342</v>
+        <v>374</v>
       </c>
       <c r="M44" s="9" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="N44" s="10" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="O44" s="8" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="P44" s="10" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="Q44" s="10" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="R44" s="10" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="S44" s="10" t="s">
         <v>39</v>
       </c>
       <c r="T44" s="10" t="s">
-        <v>40</v>
+        <v>199</v>
       </c>
       <c r="U44" s="10" t="s">
         <v>41</v>
       </c>
       <c r="V44" s="10" t="s">
-        <v>124</v>
+        <v>378</v>
       </c>
       <c r="W44" s="10" t="s">
-        <v>125</v>
+        <v>379</v>
       </c>
     </row>
     <row r="45" spans="1:23" ht="30" customHeight="1">
       <c r="A45" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="B45" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="C45" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="D45" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>384</v>
@@ -4934,10 +4937,10 @@
         <v>106</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="K45" s="5" t="s">
         <v>31</v>
@@ -4952,7 +4955,7 @@
         <v>48</v>
       </c>
       <c r="O45" s="5" t="s">
-        <v>49</v>
+        <v>257</v>
       </c>
       <c r="P45" s="7" t="s">
         <v>389</v>
@@ -4967,7 +4970,7 @@
         <v>39</v>
       </c>
       <c r="T45" s="7" t="s">
-        <v>199</v>
+        <v>40</v>
       </c>
       <c r="U45" s="7" t="s">
         <v>41</v>
@@ -4983,56 +4986,56 @@
       <c r="A46" s="8" t="s">
         <v>393</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C46" s="10" t="s">
         <v>394</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="D46" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="E46" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="F46" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="G46" s="10" t="s">
         <v>396</v>
       </c>
-      <c r="E46" s="10" t="s">
+      <c r="H46" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="F46" s="10" t="s">
-        <v>398</v>
-      </c>
-      <c r="G46" s="10" t="s">
-        <v>399</v>
-      </c>
-      <c r="H46" s="10" t="s">
-        <v>106</v>
-      </c>
       <c r="I46" s="8" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="J46" s="8" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="K46" s="8" t="s">
         <v>31</v>
       </c>
       <c r="L46" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="M46" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="N46" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="O46" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="P46" s="10" t="s">
         <v>400</v>
       </c>
-      <c r="M46" s="9" t="s">
+      <c r="Q46" s="10" t="s">
         <v>401</v>
       </c>
-      <c r="N46" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="O46" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="P46" s="10" t="s">
-        <v>402</v>
-      </c>
-      <c r="Q46" s="10" t="s">
-        <v>403</v>
-      </c>
       <c r="R46" s="10" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="S46" s="10" t="s">
         <v>39</v>
@@ -5044,63 +5047,63 @@
         <v>41</v>
       </c>
       <c r="V46" s="10" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="W46" s="10" t="s">
-        <v>405</v>
+        <v>211</v>
       </c>
     </row>
     <row r="47" spans="1:23" ht="30" customHeight="1">
       <c r="A47" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="D47" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="B47" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C47" s="7" t="s">
+      <c r="E47" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="D47" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="E47" s="7" t="s">
+      <c r="F47" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="G47" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="F47" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>409</v>
-      </c>
       <c r="H47" s="7" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="K47" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L47" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="M47" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="N47" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="O47" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P47" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="M47" s="6" t="s">
+      <c r="Q47" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="N47" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="O47" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="P47" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>414</v>
       </c>
       <c r="R47" s="7" t="s">
         <v>52</v>
@@ -5115,36 +5118,36 @@
         <v>41</v>
       </c>
       <c r="V47" s="7" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="W47" s="7" t="s">
-        <v>211</v>
+        <v>414</v>
       </c>
     </row>
     <row r="48" spans="1:23" ht="30" customHeight="1">
       <c r="A48" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C48" s="10" t="s">
         <v>416</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="D48" s="10" t="s">
         <v>417</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="E48" s="10" t="s">
         <v>418</v>
       </c>
-      <c r="D48" s="10" t="s">
+      <c r="F48" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="G48" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="E48" s="10" t="s">
-        <v>420</v>
-      </c>
-      <c r="F48" s="10" t="s">
-        <v>418</v>
-      </c>
-      <c r="G48" s="10" t="s">
-        <v>421</v>
-      </c>
       <c r="H48" s="10" t="s">
-        <v>410</v>
+        <v>106</v>
       </c>
       <c r="I48" s="8" t="s">
         <v>23</v>
@@ -5156,25 +5159,25 @@
         <v>31</v>
       </c>
       <c r="L48" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="M48" s="9" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="N48" s="10" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="O48" s="8" t="s">
         <v>35</v>
       </c>
       <c r="P48" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="Q48" s="10" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="R48" s="10" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="S48" s="10" t="s">
         <v>39</v>
@@ -5186,36 +5189,36 @@
         <v>41</v>
       </c>
       <c r="V48" s="10" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="W48" s="10" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="49" spans="1:23" ht="30" customHeight="1">
       <c r="A49" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="D49" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="B49" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C49" s="7" t="s">
+      <c r="E49" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="F49" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="G49" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="H49" s="7" t="s">
         <v>431</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="H49" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="I49" s="5" t="s">
         <v>23</v>
@@ -5227,10 +5230,10 @@
         <v>31</v>
       </c>
       <c r="L49" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="M49" s="6" t="s">
         <v>433</v>
-      </c>
-      <c r="M49" s="6" t="s">
-        <v>434</v>
       </c>
       <c r="N49" s="7" t="s">
         <v>48</v>
@@ -5239,13 +5242,13 @@
         <v>35</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>436</v>
+        <v>154</v>
       </c>
       <c r="R49" s="7" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="S49" s="7" t="s">
         <v>39</v>
@@ -5257,36 +5260,36 @@
         <v>41</v>
       </c>
       <c r="V49" s="7" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="W49" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="50" spans="1:23" ht="30" customHeight="1">
       <c r="A50" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="B50" s="9" t="s">
         <v>438</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="C50" s="10" t="s">
         <v>439</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="D50" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="D50" s="10" t="s">
+      <c r="E50" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="E50" s="10" t="s">
+      <c r="F50" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="G50" s="10" t="s">
         <v>442</v>
       </c>
-      <c r="F50" s="10" t="s">
-        <v>440</v>
-      </c>
-      <c r="G50" s="10" t="s">
-        <v>443</v>
-      </c>
       <c r="H50" s="10" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
       <c r="I50" s="8" t="s">
         <v>23</v>
@@ -5298,25 +5301,25 @@
         <v>31</v>
       </c>
       <c r="L50" s="10" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="M50" s="9" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="N50" s="10" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="O50" s="8" t="s">
         <v>35</v>
       </c>
       <c r="P50" s="10" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="Q50" s="10" t="s">
-        <v>154</v>
+        <v>446</v>
       </c>
       <c r="R50" s="10" t="s">
-        <v>96</v>
+        <v>155</v>
       </c>
       <c r="S50" s="10" t="s">
         <v>39</v>
@@ -5328,36 +5331,36 @@
         <v>41</v>
       </c>
       <c r="V50" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="W50" s="10" t="s">
         <v>448</v>
-      </c>
-      <c r="W50" s="10" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="51" spans="1:23" ht="30" customHeight="1">
       <c r="A51" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C51" s="7" t="s">
         <v>450</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="D51" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="E51" s="7" t="s">
         <v>451</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>454</v>
       </c>
       <c r="F51" s="7" t="s">
         <v>452</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>444</v>
+        <v>106</v>
       </c>
       <c r="I51" s="5" t="s">
         <v>23</v>
@@ -5369,25 +5372,25 @@
         <v>31</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="M51" s="6" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="N51" s="7" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="O51" s="5" t="s">
         <v>35</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="R51" s="7" t="s">
-        <v>155</v>
+        <v>38</v>
       </c>
       <c r="S51" s="7" t="s">
         <v>39</v>
@@ -5399,33 +5402,33 @@
         <v>41</v>
       </c>
       <c r="V51" s="7" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="W51" s="7" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
     </row>
     <row r="52" spans="1:23" ht="30" customHeight="1">
       <c r="A52" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E52" s="10" t="s">
         <v>462</v>
       </c>
-      <c r="B52" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="C52" s="10" t="s">
+      <c r="F52" s="10" t="s">
         <v>463</v>
       </c>
-      <c r="D52" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="E52" s="10" t="s">
+      <c r="G52" s="10" t="s">
         <v>464</v>
-      </c>
-      <c r="F52" s="10" t="s">
-        <v>465</v>
-      </c>
-      <c r="G52" s="10" t="s">
-        <v>466</v>
       </c>
       <c r="H52" s="10" t="s">
         <v>106</v>
@@ -5440,10 +5443,10 @@
         <v>31</v>
       </c>
       <c r="L52" s="10" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="M52" s="9" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="N52" s="10" t="s">
         <v>48</v>
@@ -5452,13 +5455,13 @@
         <v>35</v>
       </c>
       <c r="P52" s="10" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="Q52" s="10" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="R52" s="10" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="S52" s="10" t="s">
         <v>39</v>
@@ -5470,81 +5473,10 @@
         <v>41</v>
       </c>
       <c r="V52" s="10" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="W52" s="10" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="53" spans="1:23" ht="30" customHeight="1">
-      <c r="A53" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>473</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="H53" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="I53" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J53" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K53" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="L53" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="M53" s="6" t="s">
-        <v>479</v>
-      </c>
-      <c r="N53" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="O53" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="P53" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="Q53" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="R53" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="S53" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="T53" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="U53" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="V53" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="W53" s="7" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
     </row>
   </sheetData>
@@ -5559,7 +5491,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W11"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -5579,7 +5511,7 @@
     <col min="9" max="9" width="26.7109375" customWidth="1"/>
     <col min="10" max="10" width="24.7109375" customWidth="1"/>
     <col min="11" max="11" width="16.7109375" customWidth="1"/>
-    <col min="12" max="12" width="19.7109375" customWidth="1"/>
+    <col min="12" max="12" width="60.7109375" customWidth="1"/>
     <col min="13" max="13" width="60.7109375" customWidth="1"/>
     <col min="14" max="14" width="19.7109375" customWidth="1"/>
     <col min="15" max="15" width="21.7109375" customWidth="1"/>
@@ -5595,7 +5527,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -5620,55 +5552,55 @@
     </row>
     <row r="2" spans="1:23">
       <c r="C2" s="2" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
       <c r="F2" s="3">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:23">
       <c r="C3" s="2" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
     </row>
     <row r="4" spans="1:23">
       <c r="C4" s="2" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
     </row>
     <row r="5" spans="1:23">
       <c r="C5" s="2" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -5676,16 +5608,16 @@
     </row>
     <row r="6" spans="1:23">
       <c r="C6" s="2" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="F6" s="3">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -5759,45 +5691,45 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:23" ht="30" customHeight="1">
       <c r="A9" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>237</v>
+        <v>489</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>238</v>
+        <v>490</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>191</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>208</v>
+        <v>106</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>44</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>506</v>
-      </c>
-      <c r="L9" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="M9" s="11" t="s">
-        <v>100</v>
+        <v>495</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>497</v>
       </c>
       <c r="N9" s="7" t="s">
         <v>48</v>
@@ -5806,81 +5738,81 @@
         <v>49</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="S9" s="7" t="s">
         <v>39</v>
       </c>
       <c r="T9" s="7" t="s">
-        <v>199</v>
+        <v>40</v>
       </c>
       <c r="U9" s="7" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="V9" s="7" t="s">
-        <v>211</v>
+        <v>501</v>
       </c>
       <c r="W9" s="7" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" ht="30" customHeight="1">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="8" t="s">
         <v>44</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>511</v>
+        <v>225</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>512</v>
+        <v>226</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>191</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>515</v>
+        <v>208</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="L10" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="M10" s="9" t="s">
-        <v>516</v>
+      <c r="M10" s="12" t="s">
+        <v>100</v>
       </c>
       <c r="N10" s="10" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="P10" s="10" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="Q10" s="10" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="R10" s="10" t="s">
         <v>38</v>
@@ -5892,83 +5824,225 @@
         <v>199</v>
       </c>
       <c r="U10" s="10" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="V10" s="10" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="W10" s="10" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="45" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>53</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>331</v>
+        <v>225</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>332</v>
+        <v>226</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>26</v>
+        <v>191</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>521</v>
+        <v>228</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>334</v>
+        <v>229</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>335</v>
+        <v>230</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>506</v>
-      </c>
-      <c r="L11" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="M11" s="11" t="s">
-        <v>100</v>
+        <v>495</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>232</v>
       </c>
       <c r="N11" s="7" t="s">
         <v>48</v>
       </c>
       <c r="O11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="R11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="S11" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="T11" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="U11" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="V11" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="W11" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="30" customHeight="1">
+      <c r="A12" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>515</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="N12" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="O12" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="P12" s="10" t="s">
+        <v>518</v>
+      </c>
+      <c r="Q12" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="R12" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="S12" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="T12" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="U12" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="V12" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="W12" s="10" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>522</v>
       </c>
-      <c r="Q11" s="7" t="s">
+      <c r="G13" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>523</v>
       </c>
-      <c r="R11" s="7" t="s">
+      <c r="Q13" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="R13" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="S11" s="7" t="s">
+      <c r="S13" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="T11" s="7" t="s">
+      <c r="T13" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="U11" s="7" t="s">
-        <v>509</v>
-      </c>
-      <c r="V11" s="7" t="s">
+      <c r="U13" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="V13" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="W11" s="7" t="s">
+      <c r="W13" s="7" t="s">
         <v>125</v>
       </c>
     </row>
@@ -5995,22 +6069,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="11" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
   </sheetData>

--- a/latest/BoM/Positional/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Positional/pedalboard-hw-bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="524">
   <si>
     <t>Row</t>
   </si>
@@ -499,13 +499,13 @@
     <t>14</t>
   </si>
   <si>
-    <t>20V 1A Schottky Barrier Rectifier Diode, DO-41</t>
-  </si>
-  <si>
-    <t>1N5817</t>
-  </si>
-  <si>
-    <t>D5 D8</t>
+    <t>Schottky diode, small symbol</t>
+  </si>
+  <si>
+    <t>D_Schottky_Small</t>
+  </si>
+  <si>
+    <t>D5 D6 D8</t>
   </si>
   <si>
     <t>SS34HF</t>
@@ -520,6 +520,9 @@
     <t>https://www.digikey.ch/de/products/detail/comchip-technology/SS34-HF/10279693</t>
   </si>
   <si>
+    <t>pedalboard-hw(3)</t>
+  </si>
+  <si>
     <t>121.8944</t>
   </si>
   <si>
@@ -532,546 +535,531 @@
     <t>1.8000</t>
   </si>
   <si>
-    <t>Schottky diode, small symbol</t>
-  </si>
-  <si>
-    <t>D_Schottky_Small</t>
-  </si>
-  <si>
-    <t>D6</t>
-  </si>
-  <si>
-    <t>145.3944</t>
-  </si>
-  <si>
-    <t>82.3944</t>
+    <t>Resettable fuse, polymeric positive temperature coefficient</t>
+  </si>
+  <si>
+    <t>Polyfuse</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>Polyfuse 1.8A</t>
+  </si>
+  <si>
+    <t>Fuse_1812_4532Metric</t>
+  </si>
+  <si>
+    <t>Fuse</t>
+  </si>
+  <si>
+    <t>https://www.littelfuse.com/~/media/electronics/datasheets/resettable_ptcs/littelfuse_ptc_1812l_datasheet.pdf.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/littelfuse-inc/1812L150-24MR/2023969</t>
+  </si>
+  <si>
+    <t>148.0644</t>
+  </si>
+  <si>
+    <t>103.2844</t>
+  </si>
+  <si>
+    <t>5.4000</t>
+  </si>
+  <si>
+    <t>3.4000</t>
   </si>
   <si>
     <t>16</t>
   </si>
   <si>
-    <t>Resettable fuse, polymeric positive temperature coefficient</t>
-  </si>
-  <si>
-    <t>Polyfuse</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>Polyfuse 1.8A</t>
-  </si>
-  <si>
-    <t>Fuse_1812_4532Metric</t>
-  </si>
-  <si>
-    <t>Fuse</t>
-  </si>
-  <si>
-    <t>https://www.littelfuse.com/~/media/electronics/datasheets/resettable_ptcs/littelfuse_ptc_1812l_datasheet.pdf.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/littelfuse-inc/1812L150-24MR/2023969</t>
-  </si>
-  <si>
-    <t>148.0644</t>
-  </si>
-  <si>
-    <t>103.2844</t>
-  </si>
-  <si>
-    <t>5.4000</t>
-  </si>
-  <si>
-    <t>3.4000</t>
+    <t>DC Barrel Jack with an internal switch</t>
+  </si>
+  <si>
+    <t>Barrel_Jack_Switch</t>
+  </si>
+  <si>
+    <t>Connector</t>
+  </si>
+  <si>
+    <t>J6</t>
+  </si>
+  <si>
+    <t>Barrel_Jack_MountingPin</t>
+  </si>
+  <si>
+    <t>BarrelJack_Wuerth_6941xx301002</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/components/products/datasheet/6941xx301002.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/694106301002/5047522</t>
+  </si>
+  <si>
+    <t>161.3944</t>
+  </si>
+  <si>
+    <t>100.5944</t>
+  </si>
+  <si>
+    <t>THT</t>
+  </si>
+  <si>
+    <t>7.9000</t>
+  </si>
+  <si>
+    <t>7.6000</t>
   </si>
   <si>
     <t>17</t>
   </si>
   <si>
-    <t>DC Barrel Jack with an internal switch</t>
-  </si>
-  <si>
-    <t>Barrel_Jack_Switch</t>
-  </si>
-  <si>
-    <t>Connector</t>
-  </si>
-  <si>
-    <t>J6</t>
-  </si>
-  <si>
-    <t>Barrel_Jack_MountingPin</t>
-  </si>
-  <si>
-    <t>BarrelJack_Wuerth_6941xx301002</t>
-  </si>
-  <si>
-    <t>https://www.we-online.com/components/products/datasheet/6941xx301002.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/694106301002/5047522</t>
-  </si>
-  <si>
-    <t>161.3944</t>
-  </si>
-  <si>
-    <t>100.5944</t>
-  </si>
-  <si>
-    <t>THT</t>
-  </si>
-  <si>
-    <t>7.9000</t>
-  </si>
-  <si>
-    <t>7.6000</t>
+    <t>Generic connector, single row, 01x02, script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+  </si>
+  <si>
+    <t>Conn_01x02</t>
+  </si>
+  <si>
+    <t>Connector_Generic</t>
+  </si>
+  <si>
+    <t>J11</t>
+  </si>
+  <si>
+    <t>PinHeader_1x02_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>Connector_PinHeader_2.54mm</t>
+  </si>
+  <si>
+    <t>70.5944</t>
+  </si>
+  <si>
+    <t>76.9944</t>
+  </si>
+  <si>
+    <t>1.7000</t>
+  </si>
+  <si>
+    <t>4.2400</t>
   </si>
   <si>
     <t>18</t>
   </si>
   <si>
-    <t>Generic connector, single row, 01x02, script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
-    <t>Conn_01x02</t>
-  </si>
-  <si>
-    <t>Connector_Generic</t>
-  </si>
-  <si>
-    <t>J11</t>
-  </si>
-  <si>
-    <t>PinHeader_1x02_P2.54mm_Vertical</t>
-  </si>
-  <si>
-    <t>Connector_PinHeader_2.54mm</t>
-  </si>
-  <si>
-    <t>70.5944</t>
-  </si>
-  <si>
-    <t>76.9944</t>
-  </si>
-  <si>
-    <t>1.7000</t>
-  </si>
-  <si>
-    <t>4.2400</t>
+    <t>Raspberry_Pi_2_3</t>
+  </si>
+  <si>
+    <t>J25</t>
+  </si>
+  <si>
+    <t>HiFi Berry</t>
+  </si>
+  <si>
+    <t>HiFi Berry DAC ADC+</t>
+  </si>
+  <si>
+    <t>https://www.hifiberry.com/docs/data-sheets/datasheet-dac-adc-pro/</t>
+  </si>
+  <si>
+    <t>102.2444</t>
+  </si>
+  <si>
+    <t>62.6188</t>
+  </si>
+  <si>
+    <t>bottom</t>
+  </si>
+  <si>
+    <t>41.4500</t>
+  </si>
+  <si>
+    <t>55.0150</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
-    <t>Raspberry_Pi_2_3</t>
-  </si>
-  <si>
-    <t>J25</t>
-  </si>
-  <si>
-    <t>HiFi Berry</t>
-  </si>
-  <si>
-    <t>HiFi Berry DAC ADC+</t>
-  </si>
-  <si>
-    <t>https://www.hifiberry.com/docs/data-sheets/datasheet-dac-adc-pro/</t>
-  </si>
-  <si>
-    <t>102.2444</t>
-  </si>
-  <si>
-    <t>62.6188</t>
-  </si>
-  <si>
-    <t>bottom</t>
-  </si>
-  <si>
-    <t>41.4500</t>
-  </si>
-  <si>
-    <t>55.0150</t>
+    <t>Generic connector, single row, 01x03, script generated</t>
+  </si>
+  <si>
+    <t>Conn_01x03_Pin</t>
+  </si>
+  <si>
+    <t>J26</t>
+  </si>
+  <si>
+    <t>JST XH 3</t>
+  </si>
+  <si>
+    <t>JST_XH_B3B-XH-A_1x03_P2.50mm_Vertical</t>
+  </si>
+  <si>
+    <t>Connector_JST</t>
+  </si>
+  <si>
+    <t>https://app.adam-tech.com/products/download/data_sheet/240508/25sh-b-xx-ts-data-sheet.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/adam-tech/25SH-B-03-TS/9830417</t>
+  </si>
+  <si>
+    <t>24.8944</t>
+  </si>
+  <si>
+    <t>3.8944</t>
+  </si>
+  <si>
+    <t>6.7000</t>
+  </si>
+  <si>
+    <t>1.9500</t>
   </si>
   <si>
     <t>20</t>
   </si>
   <si>
-    <t>Generic connector, single row, 01x03, script generated</t>
-  </si>
-  <si>
-    <t>Conn_01x03_Pin</t>
-  </si>
-  <si>
-    <t>J26</t>
-  </si>
-  <si>
-    <t>JST XH 3</t>
-  </si>
-  <si>
-    <t>JST_XH_B3B-XH-A_1x03_P2.50mm_Vertical</t>
-  </si>
-  <si>
-    <t>Connector_JST</t>
-  </si>
-  <si>
-    <t>https://app.adam-tech.com/products/download/data_sheet/240508/25sh-b-xx-ts-data-sheet.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/adam-tech/25SH-B-03-TS/9830417</t>
-  </si>
-  <si>
-    <t>24.8944</t>
-  </si>
-  <si>
-    <t>3.8944</t>
-  </si>
-  <si>
-    <t>6.7000</t>
-  </si>
-  <si>
-    <t>1.9500</t>
+    <t>Audio Jack, 3 Poles (Stereo / TRS), Switched TR Poles (Normalling)</t>
+  </si>
+  <si>
+    <t>AudioJack3_SwitchTR</t>
+  </si>
+  <si>
+    <t>Connector_Audio</t>
+  </si>
+  <si>
+    <t>J2 J4</t>
+  </si>
+  <si>
+    <t>Jack 3.5mm</t>
+  </si>
+  <si>
+    <t>Jack_3.5mm_CUI_SJ1-3525N_Horizontal</t>
+  </si>
+  <si>
+    <t>https://www.cuidevices.com/product/resource/sj1-352xng.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/cui-devices/SJ1-3525NG/738690</t>
+  </si>
+  <si>
+    <t>71.9889</t>
+  </si>
+  <si>
+    <t>106.4944</t>
+  </si>
+  <si>
+    <t>11.2000</t>
   </si>
   <si>
     <t>21</t>
   </si>
   <si>
-    <t>Audio Jack, 3 Poles (Stereo / TRS), Switched TR Poles (Normalling)</t>
-  </si>
-  <si>
-    <t>AudioJack3_SwitchTR</t>
-  </si>
-  <si>
-    <t>Connector_Audio</t>
-  </si>
-  <si>
-    <t>J2 J4</t>
-  </si>
-  <si>
-    <t>Jack 3.5mm</t>
-  </si>
-  <si>
-    <t>Jack_3.5mm_CUI_SJ1-3525N_Horizontal</t>
-  </si>
-  <si>
-    <t>https://www.cuidevices.com/product/resource/sj1-352xng.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/cui-devices/SJ1-3525NG/738690</t>
-  </si>
-  <si>
-    <t>71.9889</t>
-  </si>
-  <si>
-    <t>106.4944</t>
-  </si>
-  <si>
-    <t>11.2000</t>
+    <t>M Series, 6.35mm (1/4in) stereo jack, switched, with chrome ferrule and straight PCB pins</t>
+  </si>
+  <si>
+    <t>NMJ6HCD2</t>
+  </si>
+  <si>
+    <t>J7 J9 J16 J17 J18 J20</t>
+  </si>
+  <si>
+    <t>Jack 6.35mm</t>
+  </si>
+  <si>
+    <t>Jack_6.35mm_Horizontal</t>
+  </si>
+  <si>
+    <t>https://www.schurter.com/en/datasheet/typ_4833.2320.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/schurter-inc/4833-2320/2644235</t>
+  </si>
+  <si>
+    <t>pedalboard-hw(6)</t>
+  </si>
+  <si>
+    <t>157.6094</t>
+  </si>
+  <si>
+    <t>97.1944</t>
+  </si>
+  <si>
+    <t>15.7000</t>
+  </si>
+  <si>
+    <t>19.2300</t>
   </si>
   <si>
     <t>22</t>
   </si>
   <si>
-    <t>M Series, 6.35mm (1/4in) stereo jack, switched, with chrome ferrule and straight PCB pins</t>
-  </si>
-  <si>
-    <t>NMJ6HCD2</t>
-  </si>
-  <si>
-    <t>J7 J9 J16 J17 J18 J20</t>
-  </si>
-  <si>
-    <t>Jack 6.35mm</t>
-  </si>
-  <si>
-    <t>Jack_6.35mm_Horizontal</t>
-  </si>
-  <si>
-    <t>https://www.schurter.com/en/datasheet/typ_4833.2320.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/schurter-inc/4833-2320/2644235</t>
-  </si>
-  <si>
-    <t>pedalboard-hw(6)</t>
-  </si>
-  <si>
-    <t>157.6094</t>
-  </si>
-  <si>
-    <t>97.1944</t>
-  </si>
-  <si>
-    <t>15.7000</t>
-  </si>
-  <si>
-    <t>19.2300</t>
+    <t>Generic connector, double row, 02x02, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+  </si>
+  <si>
+    <t>Conn_02x02_Odd_Even</t>
+  </si>
+  <si>
+    <t>J8 J13 J14 J19 J21 J22</t>
+  </si>
+  <si>
+    <t>LED-Ring</t>
+  </si>
+  <si>
+    <t>Led-Ring</t>
+  </si>
+  <si>
+    <t>10.9944</t>
+  </si>
+  <si>
+    <t>74.9944</t>
+  </si>
+  <si>
+    <t>3.3500</t>
   </si>
   <si>
     <t>23</t>
   </si>
   <si>
-    <t>Generic connector, double row, 02x02, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
-    <t>Conn_02x02_Odd_Even</t>
-  </si>
-  <si>
-    <t>J8 J13 J14 J19 J21 J22</t>
-  </si>
-  <si>
-    <t>LED-Ring</t>
-  </si>
-  <si>
-    <t>Led-Ring</t>
-  </si>
-  <si>
-    <t>10.9944</t>
-  </si>
-  <si>
-    <t>74.9944</t>
-  </si>
-  <si>
-    <t>3.3500</t>
+    <t>USB_B_Micro-Connector</t>
+  </si>
+  <si>
+    <t>RP2040_minimal-rescue</t>
+  </si>
+  <si>
+    <t>J10</t>
+  </si>
+  <si>
+    <t>USB_B_Micro</t>
+  </si>
+  <si>
+    <t>USB_Micro-B_Wuerth_614105150721_Vertical</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/components/products/datasheet/614105150721.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/614105150721/5047749</t>
+  </si>
+  <si>
+    <t>63.5344</t>
+  </si>
+  <si>
+    <t>74.7044</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t>2.1250</t>
   </si>
   <si>
     <t>24</t>
   </si>
   <si>
-    <t>USB_B_Micro-Connector</t>
-  </si>
-  <si>
-    <t>RP2040_minimal-rescue</t>
-  </si>
-  <si>
-    <t>J10</t>
-  </si>
-  <si>
-    <t>USB_B_Micro</t>
-  </si>
-  <si>
-    <t>USB_Micro-B_Wuerth_614105150721_Vertical</t>
-  </si>
-  <si>
-    <t>https://www.we-online.com/components/products/datasheet/614105150721.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/614105150721/5047749</t>
-  </si>
-  <si>
-    <t>63.5344</t>
-  </si>
-  <si>
-    <t>74.7044</t>
-  </si>
-  <si>
-    <t>8.0000</t>
-  </si>
-  <si>
-    <t>2.1250</t>
+    <t>Inductor</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>L5</t>
+  </si>
+  <si>
+    <t>12u</t>
+  </si>
+  <si>
+    <t>L_Coilcraft_XAL6030-XXX</t>
+  </si>
+  <si>
+    <t>Inductor_SMD</t>
+  </si>
+  <si>
+    <t>https://abracon.com/Magnetics/power/ASPI-6045S.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/abracon-llc/ASPI-6045S-120M-T/2343391</t>
+  </si>
+  <si>
+    <t>145.1944</t>
+  </si>
+  <si>
+    <t>5.4700</t>
+  </si>
+  <si>
+    <t>5.5000</t>
   </si>
   <si>
     <t>25</t>
   </si>
   <si>
-    <t>Inductor</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>L5</t>
-  </si>
-  <si>
-    <t>12u</t>
-  </si>
-  <si>
-    <t>L_Coilcraft_XAL6030-XXX</t>
-  </si>
-  <si>
-    <t>Inductor_SMD</t>
-  </si>
-  <si>
-    <t>https://abracon.com/Magnetics/power/ASPI-6045S.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/abracon-llc/ASPI-6045S-120M-T/2343391</t>
-  </si>
-  <si>
-    <t>145.1944</t>
-  </si>
-  <si>
-    <t>5.4700</t>
-  </si>
-  <si>
-    <t>5.5000</t>
+    <t>Inductor with ferrite core</t>
+  </si>
+  <si>
+    <t>L_Ferrite</t>
+  </si>
+  <si>
+    <t>L1 L2 L3 L4</t>
+  </si>
+  <si>
+    <t>120_100MHz</t>
+  </si>
+  <si>
+    <t>L_0603_1608Metric</t>
+  </si>
+  <si>
+    <t>https://www.murata.com/products/productdata/8796738650142/ENFA0003.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/murata-electronics/BLM18KG121TN1D/1982762</t>
+  </si>
+  <si>
+    <t>24.6944</t>
+  </si>
+  <si>
+    <t>99.2444</t>
+  </si>
+  <si>
+    <t>2.4500</t>
+  </si>
+  <si>
+    <t>0.9500</t>
   </si>
   <si>
     <t>26</t>
   </si>
   <si>
-    <t>Inductor with ferrite core</t>
-  </si>
-  <si>
-    <t>L_Ferrite</t>
-  </si>
-  <si>
-    <t>L1 L2 L3 L4</t>
-  </si>
-  <si>
-    <t>120_100MHz</t>
-  </si>
-  <si>
-    <t>L_0603_1608Metric</t>
-  </si>
-  <si>
-    <t>https://www.murata.com/products/productdata/8796738650142/ENFA0003.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/murata-electronics/BLM18KG121TN1D/1982762</t>
-  </si>
-  <si>
-    <t>24.6944</t>
-  </si>
-  <si>
-    <t>99.2444</t>
-  </si>
-  <si>
-    <t>2.4500</t>
-  </si>
-  <si>
-    <t>0.9500</t>
+    <t>FDS4435BZ</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>SO08-E3</t>
+  </si>
+  <si>
+    <t>https://rocelec.widen.net/view/pdf/rwygqx6rjd/FAIRS27615-1.pdf?t.download=true</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/onsemi/FDS4435BZ/1305763</t>
+  </si>
+  <si>
+    <t>141.8544</t>
+  </si>
+  <si>
+    <t>102.8344</t>
+  </si>
+  <si>
+    <t>4.4150</t>
+  </si>
+  <si>
+    <t>7.4000</t>
   </si>
   <si>
     <t>27</t>
   </si>
   <si>
-    <t>FDS4435BZ</t>
-  </si>
-  <si>
-    <t>Q1</t>
-  </si>
-  <si>
-    <t>SO08-E3</t>
-  </si>
-  <si>
-    <t>https://rocelec.widen.net/view/pdf/rwygqx6rjd/FAIRS27615-1.pdf?t.download=true</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/onsemi/FDS4435BZ/1305763</t>
-  </si>
-  <si>
-    <t>141.8544</t>
-  </si>
-  <si>
-    <t>102.8344</t>
-  </si>
-  <si>
-    <t>4.4150</t>
-  </si>
-  <si>
-    <t>7.4000</t>
+    <t>Resistor, small symbol</t>
+  </si>
+  <si>
+    <t>R_Small</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R_0805_2012Metric</t>
+  </si>
+  <si>
+    <t>Resistor_SMD</t>
+  </si>
+  <si>
+    <t>https://www.seielect.com/catalog/sei-rncp.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RNCP0805FTD10R0/2240197</t>
+  </si>
+  <si>
+    <t>37.8944</t>
+  </si>
+  <si>
+    <t>93.4444</t>
   </si>
   <si>
     <t>28</t>
   </si>
   <si>
-    <t>Resistor, small symbol</t>
-  </si>
-  <si>
-    <t>R_Small</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>R_0805_2012Metric</t>
-  </si>
-  <si>
-    <t>Resistor_SMD</t>
-  </si>
-  <si>
-    <t>https://www.seielect.com/catalog/sei-rncp.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RNCP0805FTD10R0/2240197</t>
-  </si>
-  <si>
-    <t>37.8944</t>
-  </si>
-  <si>
-    <t>93.4444</t>
+    <t>R7 R9</t>
+  </si>
+  <si>
+    <t>https://www.seielect.com/catalog/sei-rmcf_rmcp.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT27R0/1712920</t>
+  </si>
+  <si>
+    <t>80.1344</t>
+  </si>
+  <si>
+    <t>86.5344</t>
   </si>
   <si>
     <t>29</t>
   </si>
   <si>
-    <t>R7 R9</t>
-  </si>
-  <si>
-    <t>https://www.seielect.com/catalog/sei-rmcf_rmcp.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT27R0/1712920</t>
-  </si>
-  <si>
-    <t>80.1344</t>
-  </si>
-  <si>
-    <t>86.5344</t>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT33R0/1760586</t>
+  </si>
+  <si>
+    <t>95.3819</t>
   </si>
   <si>
     <t>30</t>
   </si>
   <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT33R0/1760586</t>
-  </si>
-  <si>
-    <t>95.3819</t>
+    <t>R3 R6</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT220R/1760238</t>
+  </si>
+  <si>
+    <t>22.9944</t>
+  </si>
+  <si>
+    <t>102.3944</t>
   </si>
   <si>
     <t>31</t>
   </si>
   <si>
-    <t>R3 R6</t>
-  </si>
-  <si>
-    <t>220</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT220R/1760238</t>
-  </si>
-  <si>
-    <t>22.9944</t>
-  </si>
-  <si>
-    <t>102.3944</t>
+    <t>R4 R5 R8 R11 R15 R16</t>
+  </si>
+  <si>
+    <t>1K</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RNCP0805FTD1K00/2240229</t>
+  </si>
+  <si>
+    <t>153.0944</t>
+  </si>
+  <si>
+    <t>100.1644</t>
   </si>
   <si>
     <t>32</t>
   </si>
   <si>
-    <t>R4 R5 R8 R11 R15 R16</t>
-  </si>
-  <si>
-    <t>1K</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RNCP0805FTD1K00/2240229</t>
-  </si>
-  <si>
-    <t>153.0944</t>
-  </si>
-  <si>
-    <t>100.1644</t>
-  </si>
-  <si>
     <t>R14</t>
   </si>
   <si>
@@ -1090,316 +1078,313 @@
     <t>77.4944</t>
   </si>
   <si>
+    <t>R13</t>
+  </si>
+  <si>
+    <t>10k</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RNCP0805FTD10K0/2240262</t>
+  </si>
+  <si>
+    <t>134.5944</t>
+  </si>
+  <si>
+    <t>72.5944</t>
+  </si>
+  <si>
     <t>34</t>
   </si>
   <si>
-    <t>R13</t>
-  </si>
-  <si>
-    <t>10k</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RNCP0805FTD10K0/2240262</t>
-  </si>
-  <si>
-    <t>134.5944</t>
-  </si>
-  <si>
-    <t>72.5944</t>
+    <t>R12</t>
+  </si>
+  <si>
+    <t>12k1</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FG12K1/1712649</t>
+  </si>
+  <si>
+    <t>138.1944</t>
+  </si>
+  <si>
+    <t>73.5944</t>
   </si>
   <si>
     <t>35</t>
   </si>
   <si>
-    <t>R12</t>
-  </si>
-  <si>
-    <t>12k1</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FG12K1/1712649</t>
-  </si>
-  <si>
-    <t>138.1944</t>
-  </si>
-  <si>
-    <t>73.5944</t>
+    <t>Rotary encoder, dual channel, incremental quadrate outputs, with switch</t>
+  </si>
+  <si>
+    <t>RotaryEncoder_Switch</t>
+  </si>
+  <si>
+    <t>SW1 SW2</t>
+  </si>
+  <si>
+    <t>Rotary</t>
+  </si>
+  <si>
+    <t>RotaryEncoder_Alps_EC11E-Switch_Vertical_H20mm_CircularMountingHoles</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/components/products/datasheet/482016514001.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/482016514001/10056402</t>
+  </si>
+  <si>
+    <t>42.2444</t>
+  </si>
+  <si>
+    <t>99.4944</t>
+  </si>
+  <si>
+    <t>16.5000</t>
+  </si>
+  <si>
+    <t>14.4000</t>
   </si>
   <si>
     <t>36</t>
   </si>
   <si>
-    <t>Rotary encoder, dual channel, incremental quadrate outputs, with switch</t>
-  </si>
-  <si>
-    <t>RotaryEncoder_Switch</t>
-  </si>
-  <si>
-    <t>SW1 SW2</t>
-  </si>
-  <si>
-    <t>Rotary</t>
-  </si>
-  <si>
-    <t>RotaryEncoder_Alps_EC11E-Switch_Vertical_H20mm_CircularMountingHoles</t>
-  </si>
-  <si>
-    <t>https://www.we-online.com/components/products/datasheet/482016514001.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/482016514001/10056402</t>
-  </si>
-  <si>
-    <t>42.2444</t>
-  </si>
-  <si>
-    <t>99.4944</t>
-  </si>
-  <si>
-    <t>16.5000</t>
-  </si>
-  <si>
-    <t>14.4000</t>
+    <t>Omron B3FS 6x6mm single pole normally-open tactile switch</t>
+  </si>
+  <si>
+    <t>SW_Omron_B3FS</t>
+  </si>
+  <si>
+    <t>Switch</t>
+  </si>
+  <si>
+    <t>SW3 SW4 SW5 SW6 SW7 SW8</t>
+  </si>
+  <si>
+    <t>Tactile</t>
+  </si>
+  <si>
+    <t>SW_PUSH-12mm_Wuerth</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/components/products/datasheet/430172043816.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/430162043826/9950802</t>
+  </si>
+  <si>
+    <t>11.9944</t>
+  </si>
+  <si>
+    <t>63.9944</t>
+  </si>
+  <si>
+    <t>16.0000</t>
+  </si>
+  <si>
+    <t>6.8000</t>
   </si>
   <si>
     <t>37</t>
   </si>
   <si>
-    <t>Omron B3FS 6x6mm single pole normally-open tactile switch</t>
-  </si>
-  <si>
-    <t>SW_Omron_B3FS</t>
-  </si>
-  <si>
-    <t>Switch</t>
-  </si>
-  <si>
-    <t>SW3 SW4 SW5 SW6 SW7 SW8</t>
-  </si>
-  <si>
-    <t>Tactile</t>
-  </si>
-  <si>
-    <t>SW_PUSH-12mm_Wuerth</t>
-  </si>
-  <si>
-    <t>https://www.we-online.com/components/products/datasheet/430172043816.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/430162043826/9950802</t>
-  </si>
-  <si>
-    <t>11.9944</t>
-  </si>
-  <si>
-    <t>63.9944</t>
-  </si>
-  <si>
-    <t>16.0000</t>
-  </si>
-  <si>
-    <t>6.8000</t>
+    <t>74AHCT1G32SE-7</t>
+  </si>
+  <si>
+    <t>U2 U7</t>
+  </si>
+  <si>
+    <t>SOT-353_SC-70-5</t>
+  </si>
+  <si>
+    <t>Package_TO_SOT_SMD</t>
+  </si>
+  <si>
+    <t>https://www.diodes.com/assets/Datasheets/74AHCT1G32.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/diodes-incorporated/74AHCT1G32SE-7/2711987</t>
+  </si>
+  <si>
+    <t>55.1944</t>
+  </si>
+  <si>
+    <t>84.0444</t>
+  </si>
+  <si>
+    <t>2.5500</t>
   </si>
   <si>
     <t>38</t>
   </si>
   <si>
-    <t>74AHCT1G32SE-7</t>
-  </si>
-  <si>
-    <t>U2 U7</t>
-  </si>
-  <si>
-    <t>SOT-353_SC-70-5</t>
-  </si>
-  <si>
-    <t>Package_TO_SOT_SMD</t>
-  </si>
-  <si>
-    <t>https://www.diodes.com/assets/Datasheets/74AHCT1G32.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/diodes-incorporated/74AHCT1G32SE-7/2711987</t>
-  </si>
-  <si>
-    <t>55.1944</t>
-  </si>
-  <si>
-    <t>84.0444</t>
-  </si>
-  <si>
-    <t>2.5500</t>
+    <t>1A Low drop-out regulator, Fixed Output 3.3V, SOT-223</t>
+  </si>
+  <si>
+    <t>NCP1117-3.3_SOT223</t>
+  </si>
+  <si>
+    <t>Regulator_Linear</t>
+  </si>
+  <si>
+    <t>U5</t>
+  </si>
+  <si>
+    <t>SOT-223-3_TabPin2</t>
+  </si>
+  <si>
+    <t>https://www.diodes.com/assets/Datasheets/AZ1117I.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/diodes-incorporated/AZ1117IH-3-3TRG1/5699672</t>
+  </si>
+  <si>
+    <t>115.6444</t>
+  </si>
+  <si>
+    <t>74.1444</t>
+  </si>
+  <si>
+    <t>8.3000</t>
+  </si>
+  <si>
+    <t>6.1000</t>
   </si>
   <si>
     <t>39</t>
   </si>
   <si>
-    <t>1A Low drop-out regulator, Fixed Output 3.3V, SOT-223</t>
-  </si>
-  <si>
-    <t>NCP1117-3.3_SOT223</t>
-  </si>
-  <si>
-    <t>Regulator_Linear</t>
-  </si>
-  <si>
-    <t>U5</t>
-  </si>
-  <si>
-    <t>SOT-223-3_TabPin2</t>
-  </si>
-  <si>
-    <t>https://www.diodes.com/assets/Datasheets/AZ1117I.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/diodes-incorporated/AZ1117IH-3-3TRG1/5699672</t>
-  </si>
-  <si>
-    <t>115.6444</t>
-  </si>
-  <si>
-    <t>74.1444</t>
-  </si>
-  <si>
-    <t>8.3000</t>
-  </si>
-  <si>
-    <t>6.1000</t>
+    <t>RP2040</t>
+  </si>
+  <si>
+    <t>MCU_RaspberryPi_RP2040</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>RP2040-QFN-56</t>
+  </si>
+  <si>
+    <t>https://datasheets.raspberrypi.com/rp2040/rp2040-datasheet.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/raspberry-pi/SC0914-13/14306010</t>
+  </si>
+  <si>
+    <t>89.3944</t>
+  </si>
+  <si>
+    <t>85.3944</t>
+  </si>
+  <si>
+    <t>7.7500</t>
   </si>
   <si>
     <t>40</t>
   </si>
   <si>
-    <t>RP2040</t>
-  </si>
-  <si>
-    <t>MCU_RaspberryPi_RP2040</t>
-  </si>
-  <si>
-    <t>U4</t>
-  </si>
-  <si>
-    <t>RP2040-QFN-56</t>
-  </si>
-  <si>
-    <t>https://datasheets.raspberrypi.com/rp2040/rp2040-datasheet.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/raspberry-pi/SC0914-13/14306010</t>
-  </si>
-  <si>
-    <t>89.3944</t>
-  </si>
-  <si>
-    <t>85.3944</t>
-  </si>
-  <si>
-    <t>7.7500</t>
+    <t>15-Mbps inverting photocouple,5 kVrms, 2.7 - 5.5 Vdd, push-pull output</t>
+  </si>
+  <si>
+    <t>TLP2761</t>
+  </si>
+  <si>
+    <t>Isolator</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>SO-6L_10x3.84mm_P1.27mm</t>
+  </si>
+  <si>
+    <t>Package_SO</t>
+  </si>
+  <si>
+    <t>https://toshiba.semicon-storage.com/info/docget.jsp?did=28819&amp;prodName=TLP2761</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/toshiba-semiconductor-and-storage/TLP2761-TP-E/7809713</t>
+  </si>
+  <si>
+    <t>33.3944</t>
+  </si>
+  <si>
+    <t>10.8000</t>
+  </si>
+  <si>
+    <t>3.3400</t>
   </si>
   <si>
     <t>41</t>
   </si>
   <si>
-    <t>15-Mbps inverting photocouple,5 kVrms, 2.7 - 5.5 Vdd, push-pull output</t>
-  </si>
-  <si>
-    <t>TLP2761</t>
-  </si>
-  <si>
-    <t>Isolator</t>
-  </si>
-  <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>SO-6L_10x3.84mm_P1.27mm</t>
-  </si>
-  <si>
-    <t>Package_SO</t>
-  </si>
-  <si>
-    <t>https://toshiba.semicon-storage.com/info/docget.jsp?did=28819&amp;prodName=TLP2761</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/toshiba-semiconductor-and-storage/TLP2761-TP-E/7809713</t>
-  </si>
-  <si>
-    <t>33.3944</t>
-  </si>
-  <si>
-    <t>10.8000</t>
-  </si>
-  <si>
-    <t>3.3400</t>
+    <t xml:space="preserve"> 3.5V to 28V Input, 3A, Step-Down Converter with Eco-mode(tm)</t>
+  </si>
+  <si>
+    <t>TPS54331</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>U6</t>
+  </si>
+  <si>
+    <t>SOIC-8_3.9x4.9mm_P1.27mm</t>
+  </si>
+  <si>
+    <t>https://www.ti.com/lit/ds/symlink/tps54331.pdf?HQS=dis-dk-null-digikeymode-dsf-pf-null-wwe&amp;ts=1697733027064</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/texas-instruments/TPS54331DR/2047963</t>
+  </si>
+  <si>
+    <t>138.6944</t>
+  </si>
+  <si>
+    <t>81.6944</t>
+  </si>
+  <si>
+    <t>6.9000</t>
+  </si>
+  <si>
+    <t>4.4100</t>
   </si>
   <si>
     <t>42</t>
   </si>
   <si>
-    <t xml:space="preserve"> 3.5V to 28V Input, 3A, Step-Down Converter with Eco-mode(tm)</t>
-  </si>
-  <si>
-    <t>TPS54331</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t>U6</t>
-  </si>
-  <si>
-    <t>SOIC-8_3.9x4.9mm_P1.27mm</t>
-  </si>
-  <si>
-    <t>https://www.ti.com/lit/ds/symlink/tps54331.pdf?HQS=dis-dk-null-digikeymode-dsf-pf-null-wwe&amp;ts=1697733027064</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/texas-instruments/TPS54331DR/2047963</t>
-  </si>
-  <si>
-    <t>138.6944</t>
-  </si>
-  <si>
-    <t>81.6944</t>
-  </si>
-  <si>
-    <t>6.9000</t>
-  </si>
-  <si>
-    <t>4.4100</t>
+    <t>W25Q128JVS-Memory_Flash</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>W25Q128JVS</t>
+  </si>
+  <si>
+    <t>SOIC-8_5.23x5.23mm_P1.27mm</t>
+  </si>
+  <si>
+    <t>https://www.winbond.com/resource-files/w25q128jv%20revf%2003272018%20plus.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/winbond-electronics/W25Q128JVSIQ-TR/5803944</t>
+  </si>
+  <si>
+    <t>81.4944</t>
+  </si>
+  <si>
+    <t>78.5444</t>
+  </si>
+  <si>
+    <t>8.8000</t>
   </si>
   <si>
     <t>43</t>
-  </si>
-  <si>
-    <t>W25Q128JVS-Memory_Flash</t>
-  </si>
-  <si>
-    <t>U3</t>
-  </si>
-  <si>
-    <t>W25Q128JVS</t>
-  </si>
-  <si>
-    <t>SOIC-8_5.23x5.23mm_P1.27mm</t>
-  </si>
-  <si>
-    <t>https://www.winbond.com/resource-files/w25q128jv%20revf%2003272018%20plus.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/winbond-electronics/W25Q128JVSIQ-TR/5803944</t>
-  </si>
-  <si>
-    <t>81.4944</t>
-  </si>
-  <si>
-    <t>78.5444</t>
-  </si>
-  <si>
-    <t>8.8000</t>
-  </si>
-  <si>
-    <t>44</t>
   </si>
   <si>
     <t>Two pin crystal</t>
@@ -2155,7 +2140,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W52"/>
+  <dimension ref="A1:W51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -2191,7 +2176,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -2216,55 +2201,55 @@
     </row>
     <row r="2" spans="1:23">
       <c r="C2" s="2" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="F2" s="3">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:23">
       <c r="C3" s="2" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
     </row>
     <row r="4" spans="1:23">
       <c r="C4" s="2" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
     </row>
     <row r="5" spans="1:23">
       <c r="C5" s="2" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -2272,13 +2257,13 @@
     </row>
     <row r="6" spans="1:23">
       <c r="C6" s="2" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="F6" s="3">
         <v>100</v>
@@ -3289,7 +3274,7 @@
         <v>160</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>146</v>
+        <v>26</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>161</v>
@@ -3304,10 +3289,10 @@
         <v>150</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="K22" s="8" t="s">
         <v>31</v>
@@ -3322,13 +3307,13 @@
         <v>34</v>
       </c>
       <c r="O22" s="8" t="s">
-        <v>49</v>
+        <v>166</v>
       </c>
       <c r="P22" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q22" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="R22" s="10" t="s">
         <v>155</v>
@@ -3343,10 +3328,10 @@
         <v>41</v>
       </c>
       <c r="V22" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="W22" s="10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="30" customHeight="1">
@@ -3354,25 +3339,25 @@
         <v>67</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>23</v>
@@ -3384,10 +3369,10 @@
         <v>31</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="N23" s="7" t="s">
         <v>34</v>
@@ -3396,13 +3381,13 @@
         <v>35</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="R23" s="7" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="S23" s="7" t="s">
         <v>39</v>
@@ -3414,36 +3399,36 @@
         <v>41</v>
       </c>
       <c r="V23" s="7" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="W23" s="7" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="30" customHeight="1">
       <c r="A24" s="8" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>26</v>
+        <v>186</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>181</v>
+        <v>106</v>
       </c>
       <c r="I24" s="8" t="s">
         <v>23</v>
@@ -3455,10 +3440,10 @@
         <v>31</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="M24" s="9" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="N24" s="10" t="s">
         <v>34</v>
@@ -3467,10 +3452,10 @@
         <v>35</v>
       </c>
       <c r="P24" s="10" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="Q24" s="10" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="R24" s="10" t="s">
         <v>52</v>
@@ -3479,42 +3464,42 @@
         <v>39</v>
       </c>
       <c r="T24" s="10" t="s">
-        <v>40</v>
+        <v>194</v>
       </c>
       <c r="U24" s="10" t="s">
         <v>41</v>
       </c>
       <c r="V24" s="10" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="W24" s="10" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="30" customHeight="1">
       <c r="A25" s="5" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>106</v>
+        <v>203</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>23</v>
@@ -3525,67 +3510,67 @@
       <c r="K25" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L25" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="M25" s="6" t="s">
-        <v>196</v>
+      <c r="L25" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="M25" s="11" t="s">
+        <v>100</v>
       </c>
       <c r="N25" s="7" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="O25" s="5" t="s">
         <v>35</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="R25" s="7" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="S25" s="7" t="s">
         <v>39</v>
       </c>
       <c r="T25" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="U25" s="7" t="s">
         <v>41</v>
       </c>
       <c r="V25" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="W25" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26" spans="1:23" ht="30" customHeight="1">
       <c r="A26" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>203</v>
+        <v>208</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>100</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>208</v>
+        <v>106</v>
       </c>
       <c r="I26" s="8" t="s">
         <v>23</v>
@@ -3596,67 +3581,67 @@
       <c r="K26" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="L26" s="12" t="s">
-        <v>121</v>
+      <c r="L26" s="10" t="s">
+        <v>213</v>
       </c>
       <c r="M26" s="12" t="s">
         <v>100</v>
       </c>
       <c r="N26" s="10" t="s">
-        <v>48</v>
+        <v>109</v>
       </c>
       <c r="O26" s="8" t="s">
         <v>35</v>
       </c>
       <c r="P26" s="10" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q26" s="10" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="R26" s="10" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="S26" s="10" t="s">
-        <v>39</v>
+        <v>216</v>
       </c>
       <c r="T26" s="10" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="U26" s="10" t="s">
         <v>41</v>
       </c>
       <c r="V26" s="10" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="W26" s="10" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" ht="30" customHeight="1">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="45" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>100</v>
+        <v>219</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>220</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>106</v>
+        <v>225</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>23</v>
@@ -3668,205 +3653,205 @@
         <v>31</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="M27" s="11" t="s">
-        <v>100</v>
+        <v>226</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>227</v>
       </c>
       <c r="N27" s="7" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="O27" s="5" t="s">
         <v>35</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="R27" s="7" t="s">
         <v>52</v>
       </c>
       <c r="S27" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="T27" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="U27" s="7" t="s">
         <v>41</v>
       </c>
       <c r="V27" s="7" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="W27" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" ht="45" customHeight="1">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" ht="30" customHeight="1">
       <c r="A28" s="8" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>230</v>
+        <v>106</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="K28" s="8" t="s">
         <v>31</v>
       </c>
       <c r="L28" s="10" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="M28" s="9" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="N28" s="10" t="s">
-        <v>137</v>
+        <v>48</v>
       </c>
       <c r="O28" s="8" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="P28" s="10" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="Q28" s="10" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="R28" s="10" t="s">
         <v>52</v>
       </c>
       <c r="S28" s="10" t="s">
-        <v>221</v>
+        <v>39</v>
       </c>
       <c r="T28" s="10" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="U28" s="10" t="s">
         <v>41</v>
       </c>
       <c r="V28" s="10" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="W28" s="10" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="29" spans="1:23" ht="30" customHeight="1">
       <c r="A29" s="5" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="H29" s="7" t="s">
         <v>106</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="K29" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="N29" s="7" t="s">
         <v>48</v>
       </c>
       <c r="O29" s="5" t="s">
-        <v>49</v>
+        <v>252</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="R29" s="7" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="S29" s="7" t="s">
         <v>39</v>
       </c>
       <c r="T29" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="U29" s="7" t="s">
         <v>41</v>
       </c>
       <c r="V29" s="7" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="W29" s="7" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" ht="30" customHeight="1">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" ht="45" customHeight="1">
       <c r="A30" s="8" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="H30" s="10" t="s">
         <v>106</v>
@@ -3880,23 +3865,23 @@
       <c r="K30" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="L30" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="M30" s="9" t="s">
-        <v>256</v>
+      <c r="L30" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="M30" s="12" t="s">
+        <v>100</v>
       </c>
       <c r="N30" s="10" t="s">
-        <v>48</v>
+        <v>137</v>
       </c>
       <c r="O30" s="8" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="P30" s="10" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="Q30" s="10" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="R30" s="10" t="s">
         <v>96</v>
@@ -3905,113 +3890,113 @@
         <v>39</v>
       </c>
       <c r="T30" s="10" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="U30" s="10" t="s">
         <v>41</v>
       </c>
       <c r="V30" s="10" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="W30" s="10" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" ht="45" customHeight="1">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" ht="30" customHeight="1">
       <c r="A31" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>263</v>
+        <v>266</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>100</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>205</v>
+        <v>268</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="H31" s="7" t="s">
         <v>106</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="K31" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L31" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="M31" s="11" t="s">
-        <v>100</v>
+      <c r="L31" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>273</v>
       </c>
       <c r="N31" s="7" t="s">
-        <v>137</v>
+        <v>34</v>
       </c>
       <c r="O31" s="5" t="s">
-        <v>257</v>
+        <v>35</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="R31" s="7" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="S31" s="7" t="s">
         <v>39</v>
       </c>
       <c r="T31" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="U31" s="7" t="s">
         <v>41</v>
       </c>
       <c r="V31" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="W31" s="7" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="30" customHeight="1">
       <c r="A32" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>100</v>
+        <v>278</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>279</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>273</v>
+        <v>26</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>106</v>
+        <v>284</v>
       </c>
       <c r="I32" s="8" t="s">
         <v>23</v>
@@ -4023,10 +4008,10 @@
         <v>31</v>
       </c>
       <c r="L32" s="10" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="M32" s="9" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="N32" s="10" t="s">
         <v>34</v>
@@ -4035,81 +4020,81 @@
         <v>35</v>
       </c>
       <c r="P32" s="10" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="Q32" s="10" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="R32" s="10" t="s">
-        <v>52</v>
+        <v>155</v>
       </c>
       <c r="S32" s="10" t="s">
         <v>39</v>
       </c>
       <c r="T32" s="10" t="s">
-        <v>199</v>
+        <v>40</v>
       </c>
       <c r="U32" s="10" t="s">
         <v>41</v>
       </c>
       <c r="V32" s="10" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="W32" s="10" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
     </row>
     <row r="33" spans="1:23" ht="30" customHeight="1">
       <c r="A33" s="5" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="K33" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="M33" s="6" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="N33" s="7" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="O33" s="5" t="s">
-        <v>35</v>
+        <v>138</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>269</v>
+        <v>299</v>
       </c>
       <c r="R33" s="7" t="s">
         <v>155</v>
@@ -4124,66 +4109,66 @@
         <v>41</v>
       </c>
       <c r="V33" s="7" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="W33" s="7" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
     </row>
     <row r="34" spans="1:23" ht="30" customHeight="1">
       <c r="A34" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>296</v>
+        <v>302</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>100</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>26</v>
+        <v>303</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>289</v>
+        <v>106</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="J34" s="8" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="K34" s="8" t="s">
         <v>31</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="M34" s="9" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="N34" s="10" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="O34" s="8" t="s">
-        <v>138</v>
+        <v>35</v>
       </c>
       <c r="P34" s="10" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="Q34" s="10" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="R34" s="10" t="s">
-        <v>155</v>
+        <v>96</v>
       </c>
       <c r="S34" s="10" t="s">
         <v>39</v>
@@ -4195,36 +4180,36 @@
         <v>41</v>
       </c>
       <c r="V34" s="10" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="W34" s="10" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="30" customHeight="1">
       <c r="A35" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>100</v>
+        <v>312</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>313</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>308</v>
+        <v>26</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>308</v>
+        <v>114</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>106</v>
+        <v>317</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>23</v>
@@ -4236,22 +4221,22 @@
         <v>31</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="M35" s="6" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="N35" s="7" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="O35" s="5" t="s">
         <v>35</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="R35" s="7" t="s">
         <v>96</v>
@@ -4266,63 +4251,63 @@
         <v>41</v>
       </c>
       <c r="V35" s="7" t="s">
-        <v>315</v>
+        <v>124</v>
       </c>
       <c r="W35" s="7" t="s">
-        <v>316</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="30" customHeight="1">
       <c r="A36" s="8" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D36" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>114</v>
+        <v>312</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="J36" s="8" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="K36" s="8" t="s">
         <v>31</v>
       </c>
       <c r="L36" s="10" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M36" s="9" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N36" s="10" t="s">
         <v>48</v>
       </c>
       <c r="O36" s="8" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="P36" s="10" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q36" s="10" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="R36" s="10" t="s">
         <v>96</v>
@@ -4345,58 +4330,58 @@
     </row>
     <row r="37" spans="1:23" ht="30" customHeight="1">
       <c r="A37" s="5" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>307</v>
+        <v>330</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="K37" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="M37" s="6" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="N37" s="7" t="s">
         <v>48</v>
       </c>
       <c r="O37" s="5" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>332</v>
       </c>
       <c r="R37" s="7" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="S37" s="7" t="s">
         <v>39</v>
@@ -4419,10 +4404,10 @@
         <v>333</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D38" s="10" t="s">
         <v>26</v>
@@ -4434,22 +4419,22 @@
         <v>335</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="J38" s="8" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="K38" s="8" t="s">
         <v>31</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="M38" s="9" t="s">
         <v>336</v>
@@ -4458,16 +4443,16 @@
         <v>48</v>
       </c>
       <c r="O38" s="8" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="P38" s="10" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="Q38" s="10" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="R38" s="10" t="s">
-        <v>52</v>
+        <v>155</v>
       </c>
       <c r="S38" s="10" t="s">
         <v>39</v>
@@ -4487,58 +4472,58 @@
     </row>
     <row r="39" spans="1:23" ht="30" customHeight="1">
       <c r="A39" s="5" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="K39" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="M39" s="6" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N39" s="7" t="s">
         <v>48</v>
       </c>
       <c r="O39" s="5" t="s">
-        <v>49</v>
+        <v>252</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="R39" s="7" t="s">
-        <v>155</v>
+        <v>96</v>
       </c>
       <c r="S39" s="7" t="s">
         <v>39</v>
@@ -4558,58 +4543,58 @@
     </row>
     <row r="40" spans="1:23" ht="30" customHeight="1">
       <c r="A40" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="J40" s="8" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="K40" s="8" t="s">
         <v>31</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>323</v>
+        <v>348</v>
       </c>
       <c r="M40" s="9" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="N40" s="10" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="O40" s="8" t="s">
-        <v>257</v>
+        <v>35</v>
       </c>
       <c r="P40" s="10" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q40" s="10" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="R40" s="10" t="s">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="S40" s="10" t="s">
         <v>39</v>
@@ -4629,28 +4614,28 @@
     </row>
     <row r="41" spans="1:23" ht="30" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="I41" s="5" t="s">
         <v>23</v>
@@ -4662,10 +4647,10 @@
         <v>31</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="M41" s="6" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N41" s="7" t="s">
         <v>34</v>
@@ -4674,10 +4659,10 @@
         <v>35</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="R41" s="7" t="s">
         <v>38</v>
@@ -4700,28 +4685,28 @@
     </row>
     <row r="42" spans="1:23" ht="30" customHeight="1">
       <c r="A42" s="8" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D42" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="I42" s="8" t="s">
         <v>23</v>
@@ -4733,10 +4718,10 @@
         <v>31</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M42" s="9" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="N42" s="10" t="s">
         <v>34</v>
@@ -4745,13 +4730,13 @@
         <v>35</v>
       </c>
       <c r="P42" s="10" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q42" s="10" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="R42" s="10" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="S42" s="10" t="s">
         <v>39</v>
@@ -4771,126 +4756,126 @@
     </row>
     <row r="43" spans="1:23" ht="30" customHeight="1">
       <c r="A43" s="5" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>318</v>
+        <v>364</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>319</v>
+        <v>365</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>321</v>
+        <v>368</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>322</v>
+        <v>106</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="K43" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>329</v>
+        <v>369</v>
       </c>
       <c r="M43" s="6" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="N43" s="7" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="O43" s="5" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="R43" s="7" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="S43" s="7" t="s">
         <v>39</v>
       </c>
       <c r="T43" s="7" t="s">
-        <v>40</v>
+        <v>194</v>
       </c>
       <c r="U43" s="7" t="s">
         <v>41</v>
       </c>
       <c r="V43" s="7" t="s">
-        <v>124</v>
+        <v>373</v>
       </c>
       <c r="W43" s="7" t="s">
-        <v>125</v>
+        <v>374</v>
       </c>
     </row>
     <row r="44" spans="1:23" ht="30" customHeight="1">
       <c r="A44" s="8" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>26</v>
+        <v>378</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="H44" s="10" t="s">
         <v>106</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="J44" s="8" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="K44" s="8" t="s">
         <v>31</v>
       </c>
       <c r="L44" s="10" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="M44" s="9" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="N44" s="10" t="s">
         <v>48</v>
       </c>
       <c r="O44" s="8" t="s">
-        <v>49</v>
+        <v>252</v>
       </c>
       <c r="P44" s="10" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="Q44" s="10" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="R44" s="10" t="s">
         <v>96</v>
@@ -4899,72 +4884,72 @@
         <v>39</v>
       </c>
       <c r="T44" s="10" t="s">
-        <v>199</v>
+        <v>40</v>
       </c>
       <c r="U44" s="10" t="s">
         <v>41</v>
       </c>
       <c r="V44" s="10" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="W44" s="10" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
     </row>
     <row r="45" spans="1:23" ht="30" customHeight="1">
       <c r="A45" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>381</v>
+        <v>388</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>100</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>106</v>
+        <v>392</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="K45" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="M45" s="6" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="N45" s="7" t="s">
-        <v>48</v>
+        <v>137</v>
       </c>
       <c r="O45" s="5" t="s">
-        <v>257</v>
+        <v>49</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="R45" s="7" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="S45" s="7" t="s">
         <v>39</v>
@@ -4976,63 +4961,63 @@
         <v>41</v>
       </c>
       <c r="V45" s="7" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="W45" s="7" t="s">
-        <v>392</v>
+        <v>206</v>
       </c>
     </row>
     <row r="46" spans="1:23" ht="30" customHeight="1">
       <c r="A46" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="B46" s="12" t="s">
-        <v>100</v>
+        <v>398</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>399</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="J46" s="8" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="K46" s="8" t="s">
         <v>31</v>
       </c>
       <c r="L46" s="10" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="M46" s="9" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="N46" s="10" t="s">
-        <v>137</v>
+        <v>34</v>
       </c>
       <c r="O46" s="8" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="P46" s="10" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="Q46" s="10" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="R46" s="10" t="s">
         <v>52</v>
@@ -5047,36 +5032,36 @@
         <v>41</v>
       </c>
       <c r="V46" s="10" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="W46" s="10" t="s">
-        <v>211</v>
+        <v>409</v>
       </c>
     </row>
     <row r="47" spans="1:23" ht="30" customHeight="1">
       <c r="A47" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>404</v>
+        <v>410</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>100</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>397</v>
+        <v>106</v>
       </c>
       <c r="I47" s="5" t="s">
         <v>23</v>
@@ -5088,25 +5073,25 @@
         <v>31</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="M47" s="6" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="N47" s="7" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="O47" s="5" t="s">
         <v>35</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="R47" s="7" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="S47" s="7" t="s">
         <v>39</v>
@@ -5118,36 +5103,36 @@
         <v>41</v>
       </c>
       <c r="V47" s="7" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="W47" s="7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
     </row>
     <row r="48" spans="1:23" ht="30" customHeight="1">
       <c r="A48" s="8" t="s">
-        <v>415</v>
-      </c>
-      <c r="B48" s="12" t="s">
-        <v>100</v>
+        <v>420</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>421</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>106</v>
+        <v>426</v>
       </c>
       <c r="I48" s="8" t="s">
         <v>23</v>
@@ -5159,10 +5144,10 @@
         <v>31</v>
       </c>
       <c r="L48" s="10" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="M48" s="9" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="N48" s="10" t="s">
         <v>48</v>
@@ -5171,13 +5156,13 @@
         <v>35</v>
       </c>
       <c r="P48" s="10" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="Q48" s="10" t="s">
-        <v>423</v>
+        <v>154</v>
       </c>
       <c r="R48" s="10" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="S48" s="10" t="s">
         <v>39</v>
@@ -5189,36 +5174,36 @@
         <v>41</v>
       </c>
       <c r="V48" s="10" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="W48" s="10" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
     </row>
     <row r="49" spans="1:23" ht="30" customHeight="1">
       <c r="A49" s="5" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="B49" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="H49" s="7" t="s">
         <v>426</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="H49" s="7" t="s">
-        <v>431</v>
       </c>
       <c r="I49" s="5" t="s">
         <v>23</v>
@@ -5230,25 +5215,25 @@
         <v>31</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="M49" s="6" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="N49" s="7" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="O49" s="5" t="s">
         <v>35</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>154</v>
+        <v>441</v>
       </c>
       <c r="R49" s="7" t="s">
-        <v>96</v>
+        <v>155</v>
       </c>
       <c r="S49" s="7" t="s">
         <v>39</v>
@@ -5260,36 +5245,36 @@
         <v>41</v>
       </c>
       <c r="V49" s="7" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="W49" s="7" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
     </row>
     <row r="50" spans="1:23" ht="30" customHeight="1">
       <c r="A50" s="8" t="s">
-        <v>437</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>438</v>
+        <v>444</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>100</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>440</v>
+        <v>268</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="H50" s="10" t="s">
-        <v>431</v>
+        <v>106</v>
       </c>
       <c r="I50" s="8" t="s">
         <v>23</v>
@@ -5301,25 +5286,25 @@
         <v>31</v>
       </c>
       <c r="L50" s="10" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="M50" s="9" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="N50" s="10" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="O50" s="8" t="s">
         <v>35</v>
       </c>
       <c r="P50" s="10" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="Q50" s="10" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="R50" s="10" t="s">
-        <v>155</v>
+        <v>38</v>
       </c>
       <c r="S50" s="10" t="s">
         <v>39</v>
@@ -5331,33 +5316,33 @@
         <v>41</v>
       </c>
       <c r="V50" s="10" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="W50" s="10" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
     </row>
     <row r="51" spans="1:23" ht="30" customHeight="1">
       <c r="A51" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="B51" s="11" t="s">
-        <v>100</v>
+        <v>454</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>455</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>273</v>
+        <v>26</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="H51" s="7" t="s">
         <v>106</v>
@@ -5372,10 +5357,10 @@
         <v>31</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="M51" s="6" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="N51" s="7" t="s">
         <v>48</v>
@@ -5384,13 +5369,13 @@
         <v>35</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="R51" s="7" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="S51" s="7" t="s">
         <v>39</v>
@@ -5402,81 +5387,10 @@
         <v>41</v>
       </c>
       <c r="V51" s="7" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="W51" s="7" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="52" spans="1:23" ht="30" customHeight="1">
-      <c r="A52" s="8" t="s">
-        <v>459</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>460</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>461</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E52" s="10" t="s">
-        <v>462</v>
-      </c>
-      <c r="F52" s="10" t="s">
-        <v>463</v>
-      </c>
-      <c r="G52" s="10" t="s">
-        <v>464</v>
-      </c>
-      <c r="H52" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="I52" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J52" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K52" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L52" s="10" t="s">
         <v>465</v>
-      </c>
-      <c r="M52" s="9" t="s">
-        <v>466</v>
-      </c>
-      <c r="N52" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="O52" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="P52" s="10" t="s">
-        <v>467</v>
-      </c>
-      <c r="Q52" s="10" t="s">
-        <v>468</v>
-      </c>
-      <c r="R52" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="S52" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="T52" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="U52" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="V52" s="10" t="s">
-        <v>469</v>
-      </c>
-      <c r="W52" s="10" t="s">
-        <v>470</v>
       </c>
     </row>
   </sheetData>
@@ -5527,7 +5441,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -5552,55 +5466,55 @@
     </row>
     <row r="2" spans="1:23">
       <c r="C2" s="2" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="F2" s="3">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:23">
       <c r="C3" s="2" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
     </row>
     <row r="4" spans="1:23">
       <c r="C4" s="2" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
     </row>
     <row r="5" spans="1:23">
       <c r="C5" s="2" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -5608,13 +5522,13 @@
     </row>
     <row r="6" spans="1:23">
       <c r="C6" s="2" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="F6" s="3">
         <v>100</v>
@@ -5696,22 +5610,22 @@
         <v>23</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>106</v>
@@ -5720,16 +5634,16 @@
         <v>44</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="N9" s="7" t="s">
         <v>48</v>
@@ -5738,10 +5652,10 @@
         <v>49</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="R9" s="7" t="s">
         <v>52</v>
@@ -5753,13 +5667,13 @@
         <v>40</v>
       </c>
       <c r="U9" s="7" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="V9" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="W9" s="7" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -5767,34 +5681,34 @@
         <v>44</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="I10" s="8" t="s">
         <v>44</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="L10" s="12" t="s">
         <v>121</v>
@@ -5809,10 +5723,10 @@
         <v>49</v>
       </c>
       <c r="P10" s="10" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="Q10" s="10" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="R10" s="10" t="s">
         <v>38</v>
@@ -5821,16 +5735,16 @@
         <v>39</v>
       </c>
       <c r="T10" s="10" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="U10" s="10" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="V10" s="10" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="W10" s="10" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="45" customHeight="1">
@@ -5838,40 +5752,40 @@
         <v>53</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="H11" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>509</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>44</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="N11" s="7" t="s">
         <v>48</v>
@@ -5880,28 +5794,28 @@
         <v>49</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="R11" s="7" t="s">
         <v>52</v>
       </c>
       <c r="S11" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="T11" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="U11" s="7" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="V11" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="W11" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="30" customHeight="1">
@@ -5909,40 +5823,40 @@
         <v>58</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="I12" s="8" t="s">
         <v>23</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="L12" s="12" t="s">
         <v>121</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="N12" s="10" t="s">
         <v>34</v>
@@ -5951,10 +5865,10 @@
         <v>35</v>
       </c>
       <c r="P12" s="10" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="Q12" s="10" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="R12" s="10" t="s">
         <v>38</v>
@@ -5963,16 +5877,16 @@
         <v>39</v>
       </c>
       <c r="T12" s="10" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="U12" s="10" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="V12" s="10" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="W12" s="10" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -5980,34 +5894,34 @@
         <v>64</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>23</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="L13" s="11" t="s">
         <v>121</v>
@@ -6022,10 +5936,10 @@
         <v>35</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="R13" s="7" t="s">
         <v>96</v>
@@ -6037,7 +5951,7 @@
         <v>40</v>
       </c>
       <c r="U13" s="7" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="V13" s="7" t="s">
         <v>124</v>
@@ -6069,22 +5983,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="11" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
     </row>
   </sheetData>

--- a/latest/BoM/Positional/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Positional/pedalboard-hw-bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="529">
   <si>
     <t>Row</t>
   </si>
@@ -823,6 +823,9 @@
     <t>23</t>
   </si>
   <si>
+    <t>Vertical USB B Micro Connector</t>
+  </si>
+  <si>
     <t>USB_B_Micro-Connector</t>
   </si>
   <si>
@@ -931,6 +934,9 @@
     <t>26</t>
   </si>
   <si>
+    <t>P-Channel MOSFET</t>
+  </si>
+  <si>
     <t>FDS4435BZ</t>
   </si>
   <si>
@@ -1189,6 +1195,9 @@
     <t>37</t>
   </si>
   <si>
+    <t>Single OR Gate</t>
+  </si>
+  <si>
     <t>74AHCT1G32SE-7</t>
   </si>
   <si>
@@ -1255,6 +1264,9 @@
     <t>39</t>
   </si>
   <si>
+    <t>A microcontroller by Raspberry Pi</t>
+  </si>
+  <si>
     <t>RP2040</t>
   </si>
   <si>
@@ -1355,6 +1367,9 @@
   </si>
   <si>
     <t>42</t>
+  </si>
+  <si>
+    <t>Flash Memory</t>
   </si>
   <si>
     <t>W25Q128JVS-Memory_Flash</t>
@@ -2176,7 +2191,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -2201,13 +2216,13 @@
     </row>
     <row r="2" spans="1:23">
       <c r="C2" s="2" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="F2" s="3">
         <v>48</v>
@@ -2215,41 +2230,41 @@
     </row>
     <row r="3" spans="1:23">
       <c r="C3" s="2" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
     </row>
     <row r="4" spans="1:23">
       <c r="C4" s="2" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
     </row>
     <row r="5" spans="1:23">
       <c r="C5" s="2" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -2257,13 +2272,13 @@
     </row>
     <row r="6" spans="1:23">
       <c r="C6" s="2" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="F6" s="3">
         <v>100</v>
@@ -3906,23 +3921,23 @@
       <c r="A31" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="B31" s="11" t="s">
-        <v>100</v>
+      <c r="B31" s="6" t="s">
+        <v>267</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H31" s="7" t="s">
         <v>106</v>
@@ -3937,10 +3952,10 @@
         <v>31</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M31" s="6" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N31" s="7" t="s">
         <v>34</v>
@@ -3949,10 +3964,10 @@
         <v>35</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="R31" s="7" t="s">
         <v>52</v>
@@ -3967,36 +3982,36 @@
         <v>41</v>
       </c>
       <c r="V31" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="W31" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="30" customHeight="1">
       <c r="A32" s="8" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D32" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I32" s="8" t="s">
         <v>23</v>
@@ -4008,10 +4023,10 @@
         <v>31</v>
       </c>
       <c r="L32" s="10" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M32" s="9" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N32" s="10" t="s">
         <v>34</v>
@@ -4020,7 +4035,7 @@
         <v>35</v>
       </c>
       <c r="P32" s="10" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q32" s="10" t="s">
         <v>264</v>
@@ -4038,36 +4053,36 @@
         <v>41</v>
       </c>
       <c r="V32" s="10" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="W32" s="10" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="33" spans="1:23" ht="30" customHeight="1">
       <c r="A33" s="5" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>58</v>
@@ -4079,10 +4094,10 @@
         <v>31</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M33" s="6" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N33" s="7" t="s">
         <v>48</v>
@@ -4091,10 +4106,10 @@
         <v>138</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="R33" s="7" t="s">
         <v>155</v>
@@ -4109,33 +4124,33 @@
         <v>41</v>
       </c>
       <c r="V33" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="W33" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="34" spans="1:23" ht="30" customHeight="1">
       <c r="A34" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>100</v>
+        <v>303</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>304</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H34" s="10" t="s">
         <v>106</v>
@@ -4150,10 +4165,10 @@
         <v>31</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="M34" s="9" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="N34" s="10" t="s">
         <v>34</v>
@@ -4162,10 +4177,10 @@
         <v>35</v>
       </c>
       <c r="P34" s="10" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q34" s="10" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="R34" s="10" t="s">
         <v>96</v>
@@ -4180,36 +4195,36 @@
         <v>41</v>
       </c>
       <c r="V34" s="10" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="W34" s="10" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="30" customHeight="1">
       <c r="A35" s="5" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>114</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>23</v>
@@ -4221,10 +4236,10 @@
         <v>31</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="M35" s="6" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="N35" s="7" t="s">
         <v>48</v>
@@ -4233,10 +4248,10 @@
         <v>35</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="R35" s="7" t="s">
         <v>96</v>
@@ -4259,28 +4274,28 @@
     </row>
     <row r="36" spans="1:23" ht="30" customHeight="1">
       <c r="A36" s="8" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D36" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="I36" s="8" t="s">
         <v>44</v>
@@ -4292,10 +4307,10 @@
         <v>31</v>
       </c>
       <c r="L36" s="10" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="M36" s="9" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="N36" s="10" t="s">
         <v>48</v>
@@ -4304,10 +4319,10 @@
         <v>49</v>
       </c>
       <c r="P36" s="10" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q36" s="10" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="R36" s="10" t="s">
         <v>96</v>
@@ -4330,28 +4345,28 @@
     </row>
     <row r="37" spans="1:23" ht="30" customHeight="1">
       <c r="A37" s="5" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="I37" s="5" t="s">
         <v>23</v>
@@ -4363,10 +4378,10 @@
         <v>31</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="M37" s="6" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="N37" s="7" t="s">
         <v>48</v>
@@ -4375,10 +4390,10 @@
         <v>35</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="R37" s="7" t="s">
         <v>52</v>
@@ -4401,28 +4416,28 @@
     </row>
     <row r="38" spans="1:23" ht="30" customHeight="1">
       <c r="A38" s="8" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D38" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="I38" s="8" t="s">
         <v>44</v>
@@ -4434,10 +4449,10 @@
         <v>31</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="M38" s="9" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="N38" s="10" t="s">
         <v>48</v>
@@ -4446,10 +4461,10 @@
         <v>49</v>
       </c>
       <c r="P38" s="10" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q38" s="10" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="R38" s="10" t="s">
         <v>155</v>
@@ -4472,28 +4487,28 @@
     </row>
     <row r="39" spans="1:23" ht="30" customHeight="1">
       <c r="A39" s="5" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="I39" s="5" t="s">
         <v>72</v>
@@ -4505,10 +4520,10 @@
         <v>31</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="M39" s="6" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="N39" s="7" t="s">
         <v>48</v>
@@ -4517,10 +4532,10 @@
         <v>252</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="R39" s="7" t="s">
         <v>96</v>
@@ -4543,28 +4558,28 @@
     </row>
     <row r="40" spans="1:23" ht="30" customHeight="1">
       <c r="A40" s="8" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="I40" s="8" t="s">
         <v>23</v>
@@ -4576,10 +4591,10 @@
         <v>31</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="M40" s="9" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="N40" s="10" t="s">
         <v>34</v>
@@ -4588,10 +4603,10 @@
         <v>35</v>
       </c>
       <c r="P40" s="10" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q40" s="10" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="R40" s="10" t="s">
         <v>38</v>
@@ -4614,28 +4629,28 @@
     </row>
     <row r="41" spans="1:23" ht="30" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="I41" s="5" t="s">
         <v>23</v>
@@ -4647,10 +4662,10 @@
         <v>31</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="M41" s="6" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="N41" s="7" t="s">
         <v>34</v>
@@ -4659,10 +4674,10 @@
         <v>35</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="R41" s="7" t="s">
         <v>38</v>
@@ -4685,28 +4700,28 @@
     </row>
     <row r="42" spans="1:23" ht="30" customHeight="1">
       <c r="A42" s="8" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D42" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="I42" s="8" t="s">
         <v>23</v>
@@ -4718,10 +4733,10 @@
         <v>31</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="M42" s="9" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="N42" s="10" t="s">
         <v>34</v>
@@ -4730,10 +4745,10 @@
         <v>35</v>
       </c>
       <c r="P42" s="10" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q42" s="10" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="R42" s="10" t="s">
         <v>52</v>
@@ -4756,25 +4771,25 @@
     </row>
     <row r="43" spans="1:23" ht="30" customHeight="1">
       <c r="A43" s="5" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="H43" s="7" t="s">
         <v>106</v>
@@ -4789,10 +4804,10 @@
         <v>31</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="M43" s="6" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="N43" s="7" t="s">
         <v>48</v>
@@ -4801,10 +4816,10 @@
         <v>49</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="R43" s="7" t="s">
         <v>96</v>
@@ -4819,33 +4834,33 @@
         <v>41</v>
       </c>
       <c r="V43" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="W43" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="44" spans="1:23" ht="30" customHeight="1">
       <c r="A44" s="8" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="H44" s="10" t="s">
         <v>106</v>
@@ -4860,10 +4875,10 @@
         <v>31</v>
       </c>
       <c r="L44" s="10" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="M44" s="9" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="N44" s="10" t="s">
         <v>48</v>
@@ -4872,10 +4887,10 @@
         <v>252</v>
       </c>
       <c r="P44" s="10" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Q44" s="10" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="R44" s="10" t="s">
         <v>96</v>
@@ -4890,36 +4905,36 @@
         <v>41</v>
       </c>
       <c r="V44" s="10" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="W44" s="10" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="45" spans="1:23" ht="30" customHeight="1">
       <c r="A45" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="B45" s="11" t="s">
-        <v>100</v>
+        <v>390</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>391</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="I45" s="5" t="s">
         <v>44</v>
@@ -4931,10 +4946,10 @@
         <v>31</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="M45" s="6" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="N45" s="7" t="s">
         <v>137</v>
@@ -4943,10 +4958,10 @@
         <v>49</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="R45" s="7" t="s">
         <v>52</v>
@@ -4961,7 +4976,7 @@
         <v>41</v>
       </c>
       <c r="V45" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="W45" s="7" t="s">
         <v>206</v>
@@ -4969,28 +4984,28 @@
     </row>
     <row r="46" spans="1:23" ht="30" customHeight="1">
       <c r="A46" s="8" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="I46" s="8" t="s">
         <v>23</v>
@@ -5002,10 +5017,10 @@
         <v>31</v>
       </c>
       <c r="L46" s="10" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="M46" s="9" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="N46" s="10" t="s">
         <v>34</v>
@@ -5014,10 +5029,10 @@
         <v>35</v>
       </c>
       <c r="P46" s="10" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="Q46" s="10" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="R46" s="10" t="s">
         <v>52</v>
@@ -5032,33 +5047,33 @@
         <v>41</v>
       </c>
       <c r="V46" s="10" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="W46" s="10" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
     </row>
     <row r="47" spans="1:23" ht="30" customHeight="1">
       <c r="A47" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>100</v>
+        <v>413</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>414</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="H47" s="7" t="s">
         <v>106</v>
@@ -5073,10 +5088,10 @@
         <v>31</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="M47" s="6" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="N47" s="7" t="s">
         <v>48</v>
@@ -5085,10 +5100,10 @@
         <v>35</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="R47" s="7" t="s">
         <v>38</v>
@@ -5103,36 +5118,36 @@
         <v>41</v>
       </c>
       <c r="V47" s="7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="W47" s="7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
     </row>
     <row r="48" spans="1:23" ht="30" customHeight="1">
       <c r="A48" s="8" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="I48" s="8" t="s">
         <v>23</v>
@@ -5144,10 +5159,10 @@
         <v>31</v>
       </c>
       <c r="L48" s="10" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="M48" s="9" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="N48" s="10" t="s">
         <v>48</v>
@@ -5156,7 +5171,7 @@
         <v>35</v>
       </c>
       <c r="P48" s="10" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="Q48" s="10" t="s">
         <v>154</v>
@@ -5174,36 +5189,36 @@
         <v>41</v>
       </c>
       <c r="V48" s="10" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="W48" s="10" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="49" spans="1:23" ht="30" customHeight="1">
       <c r="A49" s="5" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="I49" s="5" t="s">
         <v>23</v>
@@ -5215,10 +5230,10 @@
         <v>31</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="M49" s="6" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="N49" s="7" t="s">
         <v>34</v>
@@ -5227,10 +5242,10 @@
         <v>35</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="R49" s="7" t="s">
         <v>155</v>
@@ -5245,33 +5260,33 @@
         <v>41</v>
       </c>
       <c r="V49" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="W49" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
     </row>
     <row r="50" spans="1:23" ht="30" customHeight="1">
       <c r="A50" s="8" t="s">
-        <v>444</v>
-      </c>
-      <c r="B50" s="12" t="s">
-        <v>100</v>
+        <v>448</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>449</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="H50" s="10" t="s">
         <v>106</v>
@@ -5286,10 +5301,10 @@
         <v>31</v>
       </c>
       <c r="L50" s="10" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="M50" s="9" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="N50" s="10" t="s">
         <v>48</v>
@@ -5298,10 +5313,10 @@
         <v>35</v>
       </c>
       <c r="P50" s="10" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="Q50" s="10" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="R50" s="10" t="s">
         <v>38</v>
@@ -5316,33 +5331,33 @@
         <v>41</v>
       </c>
       <c r="V50" s="10" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="W50" s="10" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
     </row>
     <row r="51" spans="1:23" ht="30" customHeight="1">
       <c r="A51" s="5" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="H51" s="7" t="s">
         <v>106</v>
@@ -5357,10 +5372,10 @@
         <v>31</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="M51" s="6" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="N51" s="7" t="s">
         <v>48</v>
@@ -5369,10 +5384,10 @@
         <v>35</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="R51" s="7" t="s">
         <v>96</v>
@@ -5387,10 +5402,10 @@
         <v>41</v>
       </c>
       <c r="V51" s="7" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="W51" s="7" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
     </row>
   </sheetData>
@@ -5441,7 +5456,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -5466,13 +5481,13 @@
     </row>
     <row r="2" spans="1:23">
       <c r="C2" s="2" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="F2" s="3">
         <v>48</v>
@@ -5480,41 +5495,41 @@
     </row>
     <row r="3" spans="1:23">
       <c r="C3" s="2" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
     </row>
     <row r="4" spans="1:23">
       <c r="C4" s="2" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
     </row>
     <row r="5" spans="1:23">
       <c r="C5" s="2" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -5522,13 +5537,13 @@
     </row>
     <row r="6" spans="1:23">
       <c r="C6" s="2" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="F6" s="3">
         <v>100</v>
@@ -5610,22 +5625,22 @@
         <v>23</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>186</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>106</v>
@@ -5634,16 +5649,16 @@
         <v>44</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="N9" s="7" t="s">
         <v>48</v>
@@ -5652,10 +5667,10 @@
         <v>49</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="R9" s="7" t="s">
         <v>52</v>
@@ -5667,13 +5682,13 @@
         <v>40</v>
       </c>
       <c r="U9" s="7" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="V9" s="7" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="W9" s="7" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -5690,13 +5705,13 @@
         <v>186</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="H10" s="10" t="s">
         <v>203</v>
@@ -5705,10 +5720,10 @@
         <v>44</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="L10" s="12" t="s">
         <v>121</v>
@@ -5723,10 +5738,10 @@
         <v>49</v>
       </c>
       <c r="P10" s="10" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="Q10" s="10" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="R10" s="10" t="s">
         <v>38</v>
@@ -5738,13 +5753,13 @@
         <v>194</v>
       </c>
       <c r="U10" s="10" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="V10" s="10" t="s">
         <v>206</v>
       </c>
       <c r="W10" s="10" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="45" customHeight="1">
@@ -5761,7 +5776,7 @@
         <v>186</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>223</v>
@@ -5776,10 +5791,10 @@
         <v>44</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>226</v>
@@ -5794,10 +5809,10 @@
         <v>49</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="R11" s="7" t="s">
         <v>52</v>
@@ -5809,7 +5824,7 @@
         <v>194</v>
       </c>
       <c r="U11" s="7" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="V11" s="7" t="s">
         <v>230</v>
@@ -5823,40 +5838,40 @@
         <v>58</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>186</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="I12" s="8" t="s">
         <v>23</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="L12" s="12" t="s">
         <v>121</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="N12" s="10" t="s">
         <v>34</v>
@@ -5865,10 +5880,10 @@
         <v>35</v>
       </c>
       <c r="P12" s="10" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="Q12" s="10" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="R12" s="10" t="s">
         <v>38</v>
@@ -5880,13 +5895,13 @@
         <v>194</v>
       </c>
       <c r="U12" s="10" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="V12" s="10" t="s">
         <v>196</v>
       </c>
       <c r="W12" s="10" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -5894,34 +5909,34 @@
         <v>64</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>23</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="L13" s="11" t="s">
         <v>121</v>
@@ -5936,10 +5951,10 @@
         <v>35</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="R13" s="7" t="s">
         <v>96</v>
@@ -5951,7 +5966,7 @@
         <v>40</v>
       </c>
       <c r="U13" s="7" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="V13" s="7" t="s">
         <v>124</v>
@@ -5983,22 +5998,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="11" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
     </row>
   </sheetData>

--- a/latest/BoM/Positional/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Positional/pedalboard-hw-bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="527">
   <si>
     <t>Row</t>
   </si>
@@ -649,7 +649,10 @@
     <t>18</t>
   </si>
   <si>
-    <t>Raspberry_Pi_2_3</t>
+    <t>Sound Card (Based on HifiBerry DAC/ADC pro)</t>
+  </si>
+  <si>
+    <t>Raspberry_Sound_Card</t>
   </si>
   <si>
     <t>J25</t>
@@ -829,9 +832,6 @@
     <t>USB_B_Micro-Connector</t>
   </si>
   <si>
-    <t>RP2040_minimal-rescue</t>
-  </si>
-  <si>
     <t>J10</t>
   </si>
   <si>
@@ -1195,7 +1195,7 @@
     <t>37</t>
   </si>
   <si>
-    <t>Single OR Gate</t>
+    <t>Single OR Gage</t>
   </si>
   <si>
     <t>74AHCT1G32SE-7</t>
@@ -1270,9 +1270,6 @@
     <t>RP2040</t>
   </si>
   <si>
-    <t>MCU_RaspberryPi_RP2040</t>
-  </si>
-  <si>
     <t>U4</t>
   </si>
   <si>
@@ -1337,9 +1334,6 @@
   </si>
   <si>
     <t>TPS54331</t>
-  </si>
-  <si>
-    <t>index</t>
   </si>
   <si>
     <t>U6</t>
@@ -2167,7 +2161,7 @@
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" customWidth="1"/>
     <col min="3" max="3" width="28.7109375" customWidth="1"/>
-    <col min="4" max="4" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
     <col min="5" max="5" width="59.7109375" customWidth="1"/>
     <col min="6" max="6" width="28.7109375" customWidth="1"/>
     <col min="7" max="7" width="60.7109375" customWidth="1"/>
@@ -2191,7 +2185,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -2216,13 +2210,13 @@
     </row>
     <row r="2" spans="1:23">
       <c r="C2" s="2" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F2" s="3">
         <v>48</v>
@@ -2230,41 +2224,41 @@
     </row>
     <row r="3" spans="1:23">
       <c r="C3" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="4" spans="1:23">
       <c r="C4" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="5" spans="1:23">
       <c r="C5" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -2272,13 +2266,13 @@
     </row>
     <row r="6" spans="1:23">
       <c r="C6" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="F6" s="3">
         <v>100</v>
@@ -3566,23 +3560,23 @@
       <c r="A26" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="B26" s="12" t="s">
-        <v>100</v>
+      <c r="B26" s="9" t="s">
+        <v>209</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>186</v>
+        <v>102</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H26" s="10" t="s">
         <v>106</v>
@@ -3597,7 +3591,7 @@
         <v>31</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M26" s="12" t="s">
         <v>100</v>
@@ -3609,16 +3603,16 @@
         <v>35</v>
       </c>
       <c r="P26" s="10" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q26" s="10" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="R26" s="10" t="s">
         <v>52</v>
       </c>
       <c r="S26" s="10" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="T26" s="10" t="s">
         <v>194</v>
@@ -3627,36 +3621,36 @@
         <v>41</v>
       </c>
       <c r="V26" s="10" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="W26" s="10" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="27" spans="1:23" ht="45" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>186</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>23</v>
@@ -3668,10 +3662,10 @@
         <v>31</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N27" s="7" t="s">
         <v>137</v>
@@ -3680,16 +3674,16 @@
         <v>35</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="R27" s="7" t="s">
         <v>52</v>
       </c>
       <c r="S27" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="T27" s="7" t="s">
         <v>194</v>
@@ -3698,33 +3692,33 @@
         <v>41</v>
       </c>
       <c r="V27" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="W27" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="30" customHeight="1">
       <c r="A28" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H28" s="10" t="s">
         <v>106</v>
@@ -3739,10 +3733,10 @@
         <v>31</v>
       </c>
       <c r="L28" s="10" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M28" s="9" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N28" s="10" t="s">
         <v>48</v>
@@ -3751,10 +3745,10 @@
         <v>49</v>
       </c>
       <c r="P28" s="10" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q28" s="10" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="R28" s="10" t="s">
         <v>52</v>
@@ -3769,33 +3763,33 @@
         <v>41</v>
       </c>
       <c r="V28" s="10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="W28" s="10" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29" spans="1:23" ht="30" customHeight="1">
       <c r="A29" s="5" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H29" s="7" t="s">
         <v>106</v>
@@ -3810,22 +3804,22 @@
         <v>31</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N29" s="7" t="s">
         <v>48</v>
       </c>
       <c r="O29" s="5" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="R29" s="7" t="s">
         <v>96</v>
@@ -3840,33 +3834,33 @@
         <v>41</v>
       </c>
       <c r="V29" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="W29" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="30" spans="1:23" ht="45" customHeight="1">
       <c r="A30" s="8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D30" s="10" t="s">
         <v>200</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H30" s="10" t="s">
         <v>106</v>
@@ -3890,13 +3884,13 @@
         <v>137</v>
       </c>
       <c r="O30" s="8" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="P30" s="10" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q30" s="10" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="R30" s="10" t="s">
         <v>96</v>
@@ -3911,24 +3905,24 @@
         <v>41</v>
       </c>
       <c r="V30" s="10" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="W30" s="10" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="30" customHeight="1">
       <c r="A31" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>269</v>
+        <v>102</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>270</v>
@@ -4038,7 +4032,7 @@
         <v>288</v>
       </c>
       <c r="Q32" s="10" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="R32" s="10" t="s">
         <v>155</v>
@@ -4141,7 +4135,7 @@
         <v>305</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>305</v>
+        <v>102</v>
       </c>
       <c r="E34" s="10" t="s">
         <v>306</v>
@@ -4529,7 +4523,7 @@
         <v>48</v>
       </c>
       <c r="O39" s="5" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="P39" s="7" t="s">
         <v>345</v>
@@ -4884,7 +4878,7 @@
         <v>48</v>
       </c>
       <c r="O44" s="8" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="P44" s="10" t="s">
         <v>386</v>
@@ -4922,7 +4916,7 @@
         <v>392</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>392</v>
+        <v>102</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>393</v>
@@ -5064,16 +5058,16 @@
         <v>415</v>
       </c>
       <c r="D47" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E47" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>417</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>415</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H47" s="7" t="s">
         <v>106</v>
@@ -5088,10 +5082,10 @@
         <v>31</v>
       </c>
       <c r="L47" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="M47" s="6" t="s">
         <v>419</v>
-      </c>
-      <c r="M47" s="6" t="s">
-        <v>420</v>
       </c>
       <c r="N47" s="7" t="s">
         <v>48</v>
@@ -5100,10 +5094,10 @@
         <v>35</v>
       </c>
       <c r="P47" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="Q47" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>422</v>
       </c>
       <c r="R47" s="7" t="s">
         <v>38</v>
@@ -5118,36 +5112,36 @@
         <v>41</v>
       </c>
       <c r="V47" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="W47" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="48" spans="1:23" ht="30" customHeight="1">
       <c r="A48" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="B48" s="9" t="s">
         <v>424</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="C48" s="10" t="s">
         <v>425</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="D48" s="10" t="s">
         <v>426</v>
       </c>
-      <c r="D48" s="10" t="s">
+      <c r="E48" s="10" t="s">
         <v>427</v>
       </c>
-      <c r="E48" s="10" t="s">
+      <c r="F48" s="10" t="s">
+        <v>425</v>
+      </c>
+      <c r="G48" s="10" t="s">
         <v>428</v>
       </c>
-      <c r="F48" s="10" t="s">
-        <v>426</v>
-      </c>
-      <c r="G48" s="10" t="s">
+      <c r="H48" s="10" t="s">
         <v>429</v>
-      </c>
-      <c r="H48" s="10" t="s">
-        <v>430</v>
       </c>
       <c r="I48" s="8" t="s">
         <v>23</v>
@@ -5159,10 +5153,10 @@
         <v>31</v>
       </c>
       <c r="L48" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="M48" s="9" t="s">
         <v>431</v>
-      </c>
-      <c r="M48" s="9" t="s">
-        <v>432</v>
       </c>
       <c r="N48" s="10" t="s">
         <v>48</v>
@@ -5171,7 +5165,7 @@
         <v>35</v>
       </c>
       <c r="P48" s="10" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="Q48" s="10" t="s">
         <v>154</v>
@@ -5189,36 +5183,36 @@
         <v>41</v>
       </c>
       <c r="V48" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="W48" s="10" t="s">
         <v>434</v>
-      </c>
-      <c r="W48" s="10" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="49" spans="1:23" ht="30" customHeight="1">
       <c r="A49" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="B49" s="6" t="s">
         <v>436</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="C49" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="D49" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E49" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="F49" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="G49" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="E49" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>441</v>
-      </c>
       <c r="H49" s="7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I49" s="5" t="s">
         <v>23</v>
@@ -5230,10 +5224,10 @@
         <v>31</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="M49" s="6" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="N49" s="7" t="s">
         <v>34</v>
@@ -5242,10 +5236,10 @@
         <v>35</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="R49" s="7" t="s">
         <v>155</v>
@@ -5260,33 +5254,33 @@
         <v>41</v>
       </c>
       <c r="V49" s="7" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="W49" s="7" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="50" spans="1:23" ht="30" customHeight="1">
       <c r="A50" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="C50" s="10" t="s">
         <v>448</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="D50" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E50" s="10" t="s">
         <v>449</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="F50" s="10" t="s">
         <v>450</v>
       </c>
-      <c r="D50" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="E50" s="10" t="s">
+      <c r="G50" s="10" t="s">
         <v>451</v>
-      </c>
-      <c r="F50" s="10" t="s">
-        <v>452</v>
-      </c>
-      <c r="G50" s="10" t="s">
-        <v>453</v>
       </c>
       <c r="H50" s="10" t="s">
         <v>106</v>
@@ -5301,10 +5295,10 @@
         <v>31</v>
       </c>
       <c r="L50" s="10" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="M50" s="9" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="N50" s="10" t="s">
         <v>48</v>
@@ -5313,10 +5307,10 @@
         <v>35</v>
       </c>
       <c r="P50" s="10" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="Q50" s="10" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="R50" s="10" t="s">
         <v>38</v>
@@ -5331,33 +5325,33 @@
         <v>41</v>
       </c>
       <c r="V50" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="W50" s="10" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="51" spans="1:23" ht="30" customHeight="1">
       <c r="A51" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="C51" s="7" t="s">
         <v>459</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>460</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>461</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E51" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="G51" s="7" t="s">
         <v>462</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>464</v>
       </c>
       <c r="H51" s="7" t="s">
         <v>106</v>
@@ -5372,10 +5366,10 @@
         <v>31</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="M51" s="6" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="N51" s="7" t="s">
         <v>48</v>
@@ -5384,10 +5378,10 @@
         <v>35</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="R51" s="7" t="s">
         <v>96</v>
@@ -5402,10 +5396,10 @@
         <v>41</v>
       </c>
       <c r="V51" s="7" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="W51" s="7" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
   </sheetData>
@@ -5456,7 +5450,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -5481,13 +5475,13 @@
     </row>
     <row r="2" spans="1:23">
       <c r="C2" s="2" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F2" s="3">
         <v>48</v>
@@ -5495,41 +5489,41 @@
     </row>
     <row r="3" spans="1:23">
       <c r="C3" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="4" spans="1:23">
       <c r="C4" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="5" spans="1:23">
       <c r="C5" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -5537,13 +5531,13 @@
     </row>
     <row r="6" spans="1:23">
       <c r="C6" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="F6" s="3">
         <v>100</v>
@@ -5625,22 +5619,22 @@
         <v>23</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>186</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>491</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>493</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>106</v>
@@ -5649,16 +5643,16 @@
         <v>44</v>
       </c>
       <c r="J9" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>494</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="M9" s="6" t="s">
         <v>495</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>496</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>497</v>
       </c>
       <c r="N9" s="7" t="s">
         <v>48</v>
@@ -5667,10 +5661,10 @@
         <v>49</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="R9" s="7" t="s">
         <v>52</v>
@@ -5682,13 +5676,13 @@
         <v>40</v>
       </c>
       <c r="U9" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="V9" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="W9" s="7" t="s">
         <v>500</v>
-      </c>
-      <c r="V9" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="W9" s="7" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -5696,22 +5690,22 @@
         <v>44</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>186</v>
       </c>
       <c r="E10" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="G10" s="10" t="s">
         <v>503</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>504</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>505</v>
       </c>
       <c r="H10" s="10" t="s">
         <v>203</v>
@@ -5720,10 +5714,10 @@
         <v>44</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="L10" s="12" t="s">
         <v>121</v>
@@ -5738,10 +5732,10 @@
         <v>49</v>
       </c>
       <c r="P10" s="10" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="Q10" s="10" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="R10" s="10" t="s">
         <v>38</v>
@@ -5753,13 +5747,13 @@
         <v>194</v>
       </c>
       <c r="U10" s="10" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="V10" s="10" t="s">
         <v>206</v>
       </c>
       <c r="W10" s="10" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="45" customHeight="1">
@@ -5767,40 +5761,40 @@
         <v>53</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>186</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>44</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N11" s="7" t="s">
         <v>48</v>
@@ -5809,28 +5803,28 @@
         <v>49</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="R11" s="7" t="s">
         <v>52</v>
       </c>
       <c r="S11" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="T11" s="7" t="s">
         <v>194</v>
       </c>
       <c r="U11" s="7" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="V11" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="W11" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="30" customHeight="1">
@@ -5838,40 +5832,40 @@
         <v>58</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>186</v>
       </c>
       <c r="E12" s="10" t="s">
+        <v>512</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>511</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="H12" s="10" t="s">
         <v>514</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>513</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>515</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>516</v>
       </c>
       <c r="I12" s="8" t="s">
         <v>23</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="L12" s="12" t="s">
         <v>121</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="N12" s="10" t="s">
         <v>34</v>
@@ -5880,10 +5874,10 @@
         <v>35</v>
       </c>
       <c r="P12" s="10" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="Q12" s="10" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="R12" s="10" t="s">
         <v>38</v>
@@ -5895,13 +5889,13 @@
         <v>194</v>
       </c>
       <c r="U12" s="10" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="V12" s="10" t="s">
         <v>196</v>
       </c>
       <c r="W12" s="10" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -5918,10 +5912,10 @@
         <v>26</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>318</v>
@@ -5933,10 +5927,10 @@
         <v>23</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="L13" s="11" t="s">
         <v>121</v>
@@ -5951,10 +5945,10 @@
         <v>35</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="R13" s="7" t="s">
         <v>96</v>
@@ -5966,7 +5960,7 @@
         <v>40</v>
       </c>
       <c r="U13" s="7" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="V13" s="7" t="s">
         <v>124</v>
@@ -5998,22 +5992,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="11" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
   </sheetData>

--- a/latest/BoM/Positional/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Positional/pedalboard-hw-bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="526">
   <si>
     <t>Row</t>
   </si>
@@ -325,16 +325,13 @@
     <t/>
   </si>
   <si>
-    <t>ComputeModule4-CM4</t>
+    <t>CM4</t>
   </si>
   <si>
     <t>pedalboard</t>
   </si>
   <si>
     <t>CM1</t>
-  </si>
-  <si>
-    <t>CM4</t>
   </si>
   <si>
     <t>Raspberry-Pi-4-Compute-Module</t>
@@ -2185,7 +2182,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -2210,13 +2207,13 @@
     </row>
     <row r="2" spans="1:23">
       <c r="C2" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>471</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F2" s="3">
         <v>48</v>
@@ -2224,41 +2221,41 @@
     </row>
     <row r="3" spans="1:23">
       <c r="C3" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>473</v>
-      </c>
       <c r="E3" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>481</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="4" spans="1:23">
       <c r="C4" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>475</v>
-      </c>
       <c r="E4" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>483</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="5" spans="1:23">
       <c r="C5" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>477</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -2266,13 +2263,13 @@
     </row>
     <row r="6" spans="1:23">
       <c r="C6" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>479</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F6" s="3">
         <v>100</v>
@@ -2934,13 +2931,13 @@
         <v>103</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>23</v>
@@ -2952,22 +2949,22 @@
         <v>31</v>
       </c>
       <c r="L17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="M17" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="M17" s="6" t="s">
+      <c r="N17" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="N17" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="O17" s="5" t="s">
         <v>35</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="R17" s="7" t="s">
         <v>52</v>
@@ -2982,36 +2979,36 @@
         <v>41</v>
       </c>
       <c r="V17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="W17" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="W17" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:23">
       <c r="A18" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="C18" s="10" t="s">
         <v>115</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>116</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E18" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="F18" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="G18" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="H18" s="10" t="s">
         <v>119</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>120</v>
       </c>
       <c r="I18" s="8" t="s">
         <v>23</v>
@@ -3023,22 +3020,22 @@
         <v>31</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M18" s="12" t="s">
         <v>100</v>
       </c>
       <c r="N18" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O18" s="8" t="s">
         <v>35</v>
       </c>
       <c r="P18" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q18" s="10" t="s">
         <v>122</v>
-      </c>
-      <c r="Q18" s="10" t="s">
-        <v>123</v>
       </c>
       <c r="R18" s="10" t="s">
         <v>52</v>
@@ -3053,36 +3050,36 @@
         <v>41</v>
       </c>
       <c r="V18" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="W18" s="10" t="s">
         <v>124</v>
-      </c>
-      <c r="W18" s="10" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:23">
       <c r="A19" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>128</v>
-      </c>
       <c r="G19" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H19" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>23</v>
@@ -3094,22 +3091,22 @@
         <v>31</v>
       </c>
       <c r="L19" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M19" s="11" t="s">
         <v>100</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O19" s="5" t="s">
         <v>35</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="R19" s="7" t="s">
         <v>52</v>
@@ -3124,36 +3121,36 @@
         <v>41</v>
       </c>
       <c r="V19" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="W19" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="W19" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:23" ht="30" customHeight="1">
       <c r="A20" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B20" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="C20" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="D20" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="E20" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="D20" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="E20" s="10" t="s">
+      <c r="F20" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="G20" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="F20" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>134</v>
-      </c>
       <c r="H20" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I20" s="8" t="s">
         <v>58</v>
@@ -3165,22 +3162,22 @@
         <v>31</v>
       </c>
       <c r="L20" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="M20" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="M20" s="9" t="s">
+      <c r="N20" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="N20" s="10" t="s">
+      <c r="O20" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="O20" s="8" t="s">
+      <c r="P20" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="P20" s="10" t="s">
+      <c r="Q20" s="10" t="s">
         <v>139</v>
-      </c>
-      <c r="Q20" s="10" t="s">
-        <v>140</v>
       </c>
       <c r="R20" s="10" t="s">
         <v>96</v>
@@ -3195,36 +3192,36 @@
         <v>41</v>
       </c>
       <c r="V20" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="W20" s="10" t="s">
         <v>141</v>
-      </c>
-      <c r="W20" s="10" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="30" customHeight="1">
       <c r="A21" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="C21" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="D21" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="E21" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="F21" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="H21" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>23</v>
@@ -3236,10 +3233,10 @@
         <v>31</v>
       </c>
       <c r="L21" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="M21" s="6" t="s">
         <v>151</v>
-      </c>
-      <c r="M21" s="6" t="s">
-        <v>152</v>
       </c>
       <c r="N21" s="7" t="s">
         <v>48</v>
@@ -3248,13 +3245,13 @@
         <v>35</v>
       </c>
       <c r="P21" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="Q21" s="7" t="s">
+      <c r="R21" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="R21" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="S21" s="7" t="s">
         <v>39</v>
@@ -3266,36 +3263,36 @@
         <v>41</v>
       </c>
       <c r="V21" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="W21" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="W21" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="30" customHeight="1">
       <c r="A22" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="C22" s="10" t="s">
         <v>159</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>160</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E22" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="F22" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="G22" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="G22" s="10" t="s">
-        <v>163</v>
-      </c>
       <c r="H22" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I22" s="8" t="s">
         <v>53</v>
@@ -3307,25 +3304,25 @@
         <v>31</v>
       </c>
       <c r="L22" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="M22" s="9" t="s">
         <v>164</v>
-      </c>
-      <c r="M22" s="9" t="s">
-        <v>165</v>
       </c>
       <c r="N22" s="10" t="s">
         <v>34</v>
       </c>
       <c r="O22" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="P22" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="P22" s="10" t="s">
+      <c r="Q22" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="Q22" s="10" t="s">
-        <v>168</v>
-      </c>
       <c r="R22" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="S22" s="10" t="s">
         <v>39</v>
@@ -3337,10 +3334,10 @@
         <v>41</v>
       </c>
       <c r="V22" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="W22" s="10" t="s">
         <v>169</v>
-      </c>
-      <c r="W22" s="10" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="30" customHeight="1">
@@ -3348,25 +3345,25 @@
         <v>67</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="H23" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>23</v>
@@ -3378,10 +3375,10 @@
         <v>31</v>
       </c>
       <c r="L23" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="M23" s="6" t="s">
         <v>177</v>
-      </c>
-      <c r="M23" s="6" t="s">
-        <v>178</v>
       </c>
       <c r="N23" s="7" t="s">
         <v>34</v>
@@ -3390,10 +3387,10 @@
         <v>35</v>
       </c>
       <c r="P23" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="R23" s="7" t="s">
         <v>52</v>
@@ -3408,36 +3405,36 @@
         <v>41</v>
       </c>
       <c r="V23" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="W23" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="W23" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="30" customHeight="1">
       <c r="A24" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B24" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="C24" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="D24" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="E24" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="F24" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="G24" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="G24" s="10" t="s">
-        <v>189</v>
-      </c>
       <c r="H24" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I24" s="8" t="s">
         <v>23</v>
@@ -3449,10 +3446,10 @@
         <v>31</v>
       </c>
       <c r="L24" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="M24" s="9" t="s">
         <v>190</v>
-      </c>
-      <c r="M24" s="9" t="s">
-        <v>191</v>
       </c>
       <c r="N24" s="10" t="s">
         <v>34</v>
@@ -3461,10 +3458,10 @@
         <v>35</v>
       </c>
       <c r="P24" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q24" s="10" t="s">
         <v>192</v>
-      </c>
-      <c r="Q24" s="10" t="s">
-        <v>193</v>
       </c>
       <c r="R24" s="10" t="s">
         <v>52</v>
@@ -3473,42 +3470,42 @@
         <v>39</v>
       </c>
       <c r="T24" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="U24" s="10" t="s">
         <v>41</v>
       </c>
       <c r="V24" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="W24" s="10" t="s">
         <v>195</v>
-      </c>
-      <c r="W24" s="10" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="30" customHeight="1">
       <c r="A25" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="C25" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="D25" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="E25" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="F25" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G25" s="7" t="s">
+      <c r="H25" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>23</v>
@@ -3520,7 +3517,7 @@
         <v>31</v>
       </c>
       <c r="L25" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M25" s="11" t="s">
         <v>100</v>
@@ -3532,10 +3529,10 @@
         <v>35</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="R25" s="7" t="s">
         <v>38</v>
@@ -3544,42 +3541,42 @@
         <v>39</v>
       </c>
       <c r="T25" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="U25" s="7" t="s">
         <v>41</v>
       </c>
       <c r="V25" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="W25" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="W25" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="26" spans="1:23" ht="30" customHeight="1">
       <c r="A26" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="B26" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="C26" s="10" t="s">
         <v>209</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>210</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>102</v>
       </c>
       <c r="E26" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="F26" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="G26" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="G26" s="10" t="s">
-        <v>213</v>
-      </c>
       <c r="H26" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I26" s="8" t="s">
         <v>23</v>
@@ -3591,66 +3588,66 @@
         <v>31</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M26" s="12" t="s">
         <v>100</v>
       </c>
       <c r="N26" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O26" s="8" t="s">
         <v>35</v>
       </c>
       <c r="P26" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q26" s="10" t="s">
         <v>215</v>
-      </c>
-      <c r="Q26" s="10" t="s">
-        <v>216</v>
       </c>
       <c r="R26" s="10" t="s">
         <v>52</v>
       </c>
       <c r="S26" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="T26" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="U26" s="10" t="s">
         <v>41</v>
       </c>
       <c r="V26" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="W26" s="10" t="s">
         <v>218</v>
-      </c>
-      <c r="W26" s="10" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="27" spans="1:23" ht="45" customHeight="1">
       <c r="A27" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="C27" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="D27" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="E27" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="E27" s="7" t="s">
+      <c r="F27" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="H27" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>23</v>
@@ -3662,66 +3659,66 @@
         <v>31</v>
       </c>
       <c r="L27" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="M27" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="M27" s="6" t="s">
-        <v>228</v>
-      </c>
       <c r="N27" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O27" s="5" t="s">
         <v>35</v>
       </c>
       <c r="P27" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="R27" s="7" t="s">
         <v>52</v>
       </c>
       <c r="S27" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="T27" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="U27" s="7" t="s">
         <v>41</v>
       </c>
       <c r="V27" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="W27" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="W27" s="7" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="30" customHeight="1">
       <c r="A28" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="B28" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="C28" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="D28" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="E28" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="F28" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="G28" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="G28" s="10" t="s">
-        <v>239</v>
-      </c>
       <c r="H28" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I28" s="8" t="s">
         <v>44</v>
@@ -3733,10 +3730,10 @@
         <v>31</v>
       </c>
       <c r="L28" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="M28" s="9" t="s">
         <v>240</v>
-      </c>
-      <c r="M28" s="9" t="s">
-        <v>241</v>
       </c>
       <c r="N28" s="10" t="s">
         <v>48</v>
@@ -3745,10 +3742,10 @@
         <v>49</v>
       </c>
       <c r="P28" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q28" s="10" t="s">
         <v>242</v>
-      </c>
-      <c r="Q28" s="10" t="s">
-        <v>243</v>
       </c>
       <c r="R28" s="10" t="s">
         <v>52</v>
@@ -3757,42 +3754,42 @@
         <v>39</v>
       </c>
       <c r="T28" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="U28" s="10" t="s">
         <v>41</v>
       </c>
       <c r="V28" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="W28" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="29" spans="1:23" ht="30" customHeight="1">
       <c r="A29" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="C29" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="D29" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="E29" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="E29" s="7" t="s">
+      <c r="F29" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="G29" s="7" t="s">
-        <v>250</v>
-      </c>
       <c r="H29" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>72</v>
@@ -3804,22 +3801,22 @@
         <v>31</v>
       </c>
       <c r="L29" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="M29" s="6" t="s">
         <v>251</v>
-      </c>
-      <c r="M29" s="6" t="s">
-        <v>252</v>
       </c>
       <c r="N29" s="7" t="s">
         <v>48</v>
       </c>
       <c r="O29" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="R29" s="7" t="s">
         <v>96</v>
@@ -3828,42 +3825,42 @@
         <v>39</v>
       </c>
       <c r="T29" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="U29" s="7" t="s">
         <v>41</v>
       </c>
       <c r="V29" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="W29" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="W29" s="7" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="30" spans="1:23" ht="45" customHeight="1">
       <c r="A30" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="B30" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="C30" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="D30" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="E30" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="D30" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="E30" s="10" t="s">
+      <c r="F30" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="F30" s="10" t="s">
+      <c r="G30" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="G30" s="10" t="s">
-        <v>263</v>
-      </c>
       <c r="H30" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I30" s="8" t="s">
         <v>72</v>
@@ -3875,22 +3872,22 @@
         <v>31</v>
       </c>
       <c r="L30" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M30" s="12" t="s">
         <v>100</v>
       </c>
       <c r="N30" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O30" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="P30" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q30" s="10" t="s">
         <v>264</v>
-      </c>
-      <c r="Q30" s="10" t="s">
-        <v>265</v>
       </c>
       <c r="R30" s="10" t="s">
         <v>96</v>
@@ -3899,42 +3896,42 @@
         <v>39</v>
       </c>
       <c r="T30" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="U30" s="10" t="s">
         <v>41</v>
       </c>
       <c r="V30" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="W30" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="30" customHeight="1">
       <c r="A31" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="C31" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>102</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="G31" s="7" t="s">
-        <v>272</v>
-      </c>
       <c r="H31" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I31" s="5" t="s">
         <v>23</v>
@@ -3946,10 +3943,10 @@
         <v>31</v>
       </c>
       <c r="L31" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="M31" s="6" t="s">
         <v>273</v>
-      </c>
-      <c r="M31" s="6" t="s">
-        <v>274</v>
       </c>
       <c r="N31" s="7" t="s">
         <v>34</v>
@@ -3958,10 +3955,10 @@
         <v>35</v>
       </c>
       <c r="P31" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="R31" s="7" t="s">
         <v>52</v>
@@ -3970,42 +3967,42 @@
         <v>39</v>
       </c>
       <c r="T31" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="U31" s="7" t="s">
         <v>41</v>
       </c>
       <c r="V31" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="W31" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="W31" s="7" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="30" customHeight="1">
       <c r="A32" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="B32" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="C32" s="10" t="s">
         <v>280</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>281</v>
       </c>
       <c r="D32" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E32" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="F32" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="F32" s="10" t="s">
+      <c r="G32" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="G32" s="10" t="s">
+      <c r="H32" s="10" t="s">
         <v>284</v>
-      </c>
-      <c r="H32" s="10" t="s">
-        <v>285</v>
       </c>
       <c r="I32" s="8" t="s">
         <v>23</v>
@@ -4017,10 +4014,10 @@
         <v>31</v>
       </c>
       <c r="L32" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="M32" s="9" t="s">
         <v>286</v>
-      </c>
-      <c r="M32" s="9" t="s">
-        <v>287</v>
       </c>
       <c r="N32" s="10" t="s">
         <v>34</v>
@@ -4029,13 +4026,13 @@
         <v>35</v>
       </c>
       <c r="P32" s="10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="Q32" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="R32" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="S32" s="10" t="s">
         <v>39</v>
@@ -4047,36 +4044,36 @@
         <v>41</v>
       </c>
       <c r="V32" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="W32" s="10" t="s">
         <v>289</v>
-      </c>
-      <c r="W32" s="10" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="33" spans="1:23" ht="30" customHeight="1">
       <c r="A33" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="C33" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="G33" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="G33" s="7" t="s">
-        <v>296</v>
-      </c>
       <c r="H33" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>58</v>
@@ -4088,25 +4085,25 @@
         <v>31</v>
       </c>
       <c r="L33" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="M33" s="6" t="s">
         <v>297</v>
-      </c>
-      <c r="M33" s="6" t="s">
-        <v>298</v>
       </c>
       <c r="N33" s="7" t="s">
         <v>48</v>
       </c>
       <c r="O33" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P33" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="Q33" s="7" t="s">
-        <v>300</v>
-      </c>
       <c r="R33" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="S33" s="7" t="s">
         <v>39</v>
@@ -4118,36 +4115,36 @@
         <v>41</v>
       </c>
       <c r="V33" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="W33" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="W33" s="7" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="34" spans="1:23" ht="30" customHeight="1">
       <c r="A34" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="B34" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="C34" s="10" t="s">
         <v>304</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>305</v>
       </c>
       <c r="D34" s="10" t="s">
         <v>102</v>
       </c>
       <c r="E34" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="G34" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="F34" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="G34" s="10" t="s">
-        <v>307</v>
-      </c>
       <c r="H34" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I34" s="8" t="s">
         <v>23</v>
@@ -4159,10 +4156,10 @@
         <v>31</v>
       </c>
       <c r="L34" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="M34" s="9" t="s">
         <v>308</v>
-      </c>
-      <c r="M34" s="9" t="s">
-        <v>309</v>
       </c>
       <c r="N34" s="10" t="s">
         <v>34</v>
@@ -4171,10 +4168,10 @@
         <v>35</v>
       </c>
       <c r="P34" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q34" s="10" t="s">
         <v>310</v>
-      </c>
-      <c r="Q34" s="10" t="s">
-        <v>311</v>
       </c>
       <c r="R34" s="10" t="s">
         <v>96</v>
@@ -4189,36 +4186,36 @@
         <v>41</v>
       </c>
       <c r="V34" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="W34" s="10" t="s">
         <v>312</v>
-      </c>
-      <c r="W34" s="10" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="30" customHeight="1">
       <c r="A35" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="C35" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>316</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="F35" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G35" s="7" t="s">
+      <c r="H35" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>23</v>
@@ -4230,10 +4227,10 @@
         <v>31</v>
       </c>
       <c r="L35" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="M35" s="6" t="s">
         <v>320</v>
-      </c>
-      <c r="M35" s="6" t="s">
-        <v>321</v>
       </c>
       <c r="N35" s="7" t="s">
         <v>48</v>
@@ -4242,10 +4239,10 @@
         <v>35</v>
       </c>
       <c r="P35" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>323</v>
       </c>
       <c r="R35" s="7" t="s">
         <v>96</v>
@@ -4260,36 +4257,36 @@
         <v>41</v>
       </c>
       <c r="V35" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="W35" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="W35" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="30" customHeight="1">
       <c r="A36" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B36" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="C36" s="10" t="s">
         <v>315</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>316</v>
       </c>
       <c r="D36" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G36" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="H36" s="10" t="s">
         <v>318</v>
-      </c>
-      <c r="H36" s="10" t="s">
-        <v>319</v>
       </c>
       <c r="I36" s="8" t="s">
         <v>44</v>
@@ -4301,10 +4298,10 @@
         <v>31</v>
       </c>
       <c r="L36" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="M36" s="9" t="s">
         <v>326</v>
-      </c>
-      <c r="M36" s="9" t="s">
-        <v>327</v>
       </c>
       <c r="N36" s="10" t="s">
         <v>48</v>
@@ -4313,10 +4310,10 @@
         <v>49</v>
       </c>
       <c r="P36" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q36" s="10" t="s">
         <v>328</v>
-      </c>
-      <c r="Q36" s="10" t="s">
-        <v>329</v>
       </c>
       <c r="R36" s="10" t="s">
         <v>96</v>
@@ -4331,36 +4328,36 @@
         <v>41</v>
       </c>
       <c r="V36" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="W36" s="10" t="s">
         <v>124</v>
-      </c>
-      <c r="W36" s="10" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:23" ht="30" customHeight="1">
       <c r="A37" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B37" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>316</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="F37" s="7" t="s">
-        <v>332</v>
-      </c>
       <c r="G37" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="H37" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="I37" s="5" t="s">
         <v>23</v>
@@ -4372,10 +4369,10 @@
         <v>31</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="M37" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="N37" s="7" t="s">
         <v>48</v>
@@ -4384,10 +4381,10 @@
         <v>35</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="R37" s="7" t="s">
         <v>52</v>
@@ -4402,36 +4399,36 @@
         <v>41</v>
       </c>
       <c r="V37" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="W37" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="W37" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="30" customHeight="1">
       <c r="A38" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B38" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="C38" s="10" t="s">
         <v>315</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>316</v>
       </c>
       <c r="D38" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E38" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="F38" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="F38" s="10" t="s">
-        <v>337</v>
-      </c>
       <c r="G38" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="H38" s="10" t="s">
         <v>318</v>
-      </c>
-      <c r="H38" s="10" t="s">
-        <v>319</v>
       </c>
       <c r="I38" s="8" t="s">
         <v>44</v>
@@ -4443,10 +4440,10 @@
         <v>31</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="M38" s="9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="N38" s="10" t="s">
         <v>48</v>
@@ -4455,13 +4452,13 @@
         <v>49</v>
       </c>
       <c r="P38" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q38" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="Q38" s="10" t="s">
-        <v>340</v>
-      </c>
       <c r="R38" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="S38" s="10" t="s">
         <v>39</v>
@@ -4473,36 +4470,36 @@
         <v>41</v>
       </c>
       <c r="V38" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="W38" s="10" t="s">
         <v>124</v>
-      </c>
-      <c r="W38" s="10" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="39" spans="1:23" ht="30" customHeight="1">
       <c r="A39" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B39" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="C39" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>316</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E39" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="F39" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="F39" s="7" t="s">
-        <v>343</v>
-      </c>
       <c r="G39" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="H39" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="I39" s="5" t="s">
         <v>72</v>
@@ -4514,22 +4511,22 @@
         <v>31</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="M39" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="N39" s="7" t="s">
         <v>48</v>
       </c>
       <c r="O39" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="P39" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q39" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>346</v>
       </c>
       <c r="R39" s="7" t="s">
         <v>96</v>
@@ -4544,36 +4541,36 @@
         <v>41</v>
       </c>
       <c r="V39" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="W39" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="W39" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="40" spans="1:23" ht="30" customHeight="1">
       <c r="A40" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B40" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="C40" s="10" t="s">
         <v>315</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>316</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E40" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="F40" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="F40" s="10" t="s">
-        <v>349</v>
-      </c>
       <c r="G40" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="H40" s="10" t="s">
         <v>318</v>
-      </c>
-      <c r="H40" s="10" t="s">
-        <v>319</v>
       </c>
       <c r="I40" s="8" t="s">
         <v>23</v>
@@ -4585,10 +4582,10 @@
         <v>31</v>
       </c>
       <c r="L40" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="M40" s="9" t="s">
         <v>350</v>
-      </c>
-      <c r="M40" s="9" t="s">
-        <v>351</v>
       </c>
       <c r="N40" s="10" t="s">
         <v>34</v>
@@ -4597,10 +4594,10 @@
         <v>35</v>
       </c>
       <c r="P40" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q40" s="10" t="s">
         <v>352</v>
-      </c>
-      <c r="Q40" s="10" t="s">
-        <v>353</v>
       </c>
       <c r="R40" s="10" t="s">
         <v>38</v>
@@ -4615,36 +4612,36 @@
         <v>41</v>
       </c>
       <c r="V40" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="W40" s="10" t="s">
         <v>124</v>
-      </c>
-      <c r="W40" s="10" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="41" spans="1:23" ht="30" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B41" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="C41" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>316</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="F41" s="7" t="s">
-        <v>355</v>
-      </c>
       <c r="G41" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="H41" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="H41" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="I41" s="5" t="s">
         <v>23</v>
@@ -4656,10 +4653,10 @@
         <v>31</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="M41" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N41" s="7" t="s">
         <v>34</v>
@@ -4668,10 +4665,10 @@
         <v>35</v>
       </c>
       <c r="P41" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q41" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>358</v>
       </c>
       <c r="R41" s="7" t="s">
         <v>38</v>
@@ -4686,36 +4683,36 @@
         <v>41</v>
       </c>
       <c r="V41" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="W41" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="W41" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:23" ht="30" customHeight="1">
       <c r="A42" s="8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B42" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="C42" s="10" t="s">
         <v>315</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>316</v>
       </c>
       <c r="D42" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E42" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="F42" s="10" t="s">
         <v>360</v>
       </c>
-      <c r="F42" s="10" t="s">
-        <v>361</v>
-      </c>
       <c r="G42" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="H42" s="10" t="s">
         <v>318</v>
-      </c>
-      <c r="H42" s="10" t="s">
-        <v>319</v>
       </c>
       <c r="I42" s="8" t="s">
         <v>23</v>
@@ -4727,10 +4724,10 @@
         <v>31</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="M42" s="9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="N42" s="10" t="s">
         <v>34</v>
@@ -4739,10 +4736,10 @@
         <v>35</v>
       </c>
       <c r="P42" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q42" s="10" t="s">
         <v>363</v>
-      </c>
-      <c r="Q42" s="10" t="s">
-        <v>364</v>
       </c>
       <c r="R42" s="10" t="s">
         <v>52</v>
@@ -4757,36 +4754,36 @@
         <v>41</v>
       </c>
       <c r="V42" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="W42" s="10" t="s">
         <v>124</v>
-      </c>
-      <c r="W42" s="10" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="43" spans="1:23" ht="30" customHeight="1">
       <c r="A43" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="B43" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="C43" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>367</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F43" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="G43" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="G43" s="7" t="s">
-        <v>370</v>
-      </c>
       <c r="H43" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I43" s="5" t="s">
         <v>44</v>
@@ -4798,10 +4795,10 @@
         <v>31</v>
       </c>
       <c r="L43" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="M43" s="6" t="s">
         <v>371</v>
-      </c>
-      <c r="M43" s="6" t="s">
-        <v>372</v>
       </c>
       <c r="N43" s="7" t="s">
         <v>48</v>
@@ -4810,10 +4807,10 @@
         <v>49</v>
       </c>
       <c r="P43" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q43" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>374</v>
       </c>
       <c r="R43" s="7" t="s">
         <v>96</v>
@@ -4822,42 +4819,42 @@
         <v>39</v>
       </c>
       <c r="T43" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="U43" s="7" t="s">
         <v>41</v>
       </c>
       <c r="V43" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="W43" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="W43" s="7" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="44" spans="1:23" ht="30" customHeight="1">
       <c r="A44" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="B44" s="9" t="s">
         <v>377</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="C44" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="D44" s="10" t="s">
         <v>379</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="E44" s="10" t="s">
         <v>380</v>
       </c>
-      <c r="E44" s="10" t="s">
+      <c r="F44" s="10" t="s">
         <v>381</v>
       </c>
-      <c r="F44" s="10" t="s">
+      <c r="G44" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="G44" s="10" t="s">
-        <v>383</v>
-      </c>
       <c r="H44" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I44" s="8" t="s">
         <v>72</v>
@@ -4869,22 +4866,22 @@
         <v>31</v>
       </c>
       <c r="L44" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="M44" s="9" t="s">
         <v>384</v>
-      </c>
-      <c r="M44" s="9" t="s">
-        <v>385</v>
       </c>
       <c r="N44" s="10" t="s">
         <v>48</v>
       </c>
       <c r="O44" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="P44" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q44" s="10" t="s">
         <v>386</v>
-      </c>
-      <c r="Q44" s="10" t="s">
-        <v>387</v>
       </c>
       <c r="R44" s="10" t="s">
         <v>96</v>
@@ -4899,36 +4896,36 @@
         <v>41</v>
       </c>
       <c r="V44" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="W44" s="10" t="s">
         <v>388</v>
-      </c>
-      <c r="W44" s="10" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="45" spans="1:23" ht="30" customHeight="1">
       <c r="A45" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="B45" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="C45" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>392</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>102</v>
       </c>
       <c r="E45" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="G45" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="F45" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="G45" s="7" t="s">
+      <c r="H45" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="H45" s="7" t="s">
-        <v>395</v>
       </c>
       <c r="I45" s="5" t="s">
         <v>44</v>
@@ -4940,22 +4937,22 @@
         <v>31</v>
       </c>
       <c r="L45" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="M45" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="M45" s="6" t="s">
-        <v>397</v>
-      </c>
       <c r="N45" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O45" s="5" t="s">
         <v>49</v>
       </c>
       <c r="P45" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q45" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>399</v>
       </c>
       <c r="R45" s="7" t="s">
         <v>52</v>
@@ -4970,36 +4967,36 @@
         <v>41</v>
       </c>
       <c r="V45" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="W45" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="46" spans="1:23" ht="30" customHeight="1">
       <c r="A46" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="B46" s="9" t="s">
         <v>401</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="C46" s="10" t="s">
         <v>402</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="D46" s="10" t="s">
         <v>403</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="E46" s="10" t="s">
         <v>404</v>
       </c>
-      <c r="E46" s="10" t="s">
+      <c r="F46" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="G46" s="10" t="s">
         <v>405</v>
       </c>
-      <c r="F46" s="10" t="s">
-        <v>403</v>
-      </c>
-      <c r="G46" s="10" t="s">
-        <v>406</v>
-      </c>
       <c r="H46" s="10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I46" s="8" t="s">
         <v>23</v>
@@ -5011,10 +5008,10 @@
         <v>31</v>
       </c>
       <c r="L46" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="M46" s="9" t="s">
         <v>407</v>
-      </c>
-      <c r="M46" s="9" t="s">
-        <v>408</v>
       </c>
       <c r="N46" s="10" t="s">
         <v>34</v>
@@ -5023,10 +5020,10 @@
         <v>35</v>
       </c>
       <c r="P46" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q46" s="10" t="s">
         <v>409</v>
-      </c>
-      <c r="Q46" s="10" t="s">
-        <v>410</v>
       </c>
       <c r="R46" s="10" t="s">
         <v>52</v>
@@ -5041,36 +5038,36 @@
         <v>41</v>
       </c>
       <c r="V46" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="W46" s="10" t="s">
         <v>411</v>
-      </c>
-      <c r="W46" s="10" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="47" spans="1:23" ht="30" customHeight="1">
       <c r="A47" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="B47" s="6" t="s">
         <v>413</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="C47" s="7" t="s">
         <v>414</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>415</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>102</v>
       </c>
       <c r="E47" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="G47" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="F47" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>417</v>
-      </c>
       <c r="H47" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I47" s="5" t="s">
         <v>23</v>
@@ -5082,10 +5079,10 @@
         <v>31</v>
       </c>
       <c r="L47" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="M47" s="6" t="s">
         <v>418</v>
-      </c>
-      <c r="M47" s="6" t="s">
-        <v>419</v>
       </c>
       <c r="N47" s="7" t="s">
         <v>48</v>
@@ -5094,10 +5091,10 @@
         <v>35</v>
       </c>
       <c r="P47" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q47" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>421</v>
       </c>
       <c r="R47" s="7" t="s">
         <v>38</v>
@@ -5112,36 +5109,36 @@
         <v>41</v>
       </c>
       <c r="V47" s="7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="W47" s="7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="48" spans="1:23" ht="30" customHeight="1">
       <c r="A48" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="B48" s="9" t="s">
         <v>423</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="C48" s="10" t="s">
         <v>424</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="D48" s="10" t="s">
         <v>425</v>
       </c>
-      <c r="D48" s="10" t="s">
+      <c r="E48" s="10" t="s">
         <v>426</v>
       </c>
-      <c r="E48" s="10" t="s">
+      <c r="F48" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="G48" s="10" t="s">
         <v>427</v>
       </c>
-      <c r="F48" s="10" t="s">
-        <v>425</v>
-      </c>
-      <c r="G48" s="10" t="s">
+      <c r="H48" s="10" t="s">
         <v>428</v>
-      </c>
-      <c r="H48" s="10" t="s">
-        <v>429</v>
       </c>
       <c r="I48" s="8" t="s">
         <v>23</v>
@@ -5153,10 +5150,10 @@
         <v>31</v>
       </c>
       <c r="L48" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="M48" s="9" t="s">
         <v>430</v>
-      </c>
-      <c r="M48" s="9" t="s">
-        <v>431</v>
       </c>
       <c r="N48" s="10" t="s">
         <v>48</v>
@@ -5165,10 +5162,10 @@
         <v>35</v>
       </c>
       <c r="P48" s="10" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="Q48" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="R48" s="10" t="s">
         <v>96</v>
@@ -5183,36 +5180,36 @@
         <v>41</v>
       </c>
       <c r="V48" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="W48" s="10" t="s">
         <v>433</v>
-      </c>
-      <c r="W48" s="10" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="49" spans="1:23" ht="30" customHeight="1">
       <c r="A49" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="B49" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="C49" s="7" t="s">
         <v>436</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>437</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>102</v>
       </c>
       <c r="E49" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="G49" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="F49" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>439</v>
-      </c>
       <c r="H49" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I49" s="5" t="s">
         <v>23</v>
@@ -5224,10 +5221,10 @@
         <v>31</v>
       </c>
       <c r="L49" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="M49" s="6" t="s">
         <v>440</v>
-      </c>
-      <c r="M49" s="6" t="s">
-        <v>441</v>
       </c>
       <c r="N49" s="7" t="s">
         <v>34</v>
@@ -5236,13 +5233,13 @@
         <v>35</v>
       </c>
       <c r="P49" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q49" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="Q49" s="7" t="s">
-        <v>443</v>
-      </c>
       <c r="R49" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="S49" s="7" t="s">
         <v>39</v>
@@ -5254,36 +5251,36 @@
         <v>41</v>
       </c>
       <c r="V49" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="W49" s="7" t="s">
         <v>444</v>
-      </c>
-      <c r="W49" s="7" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="50" spans="1:23" ht="30" customHeight="1">
       <c r="A50" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="B50" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="C50" s="10" t="s">
         <v>447</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>448</v>
       </c>
       <c r="D50" s="10" t="s">
         <v>102</v>
       </c>
       <c r="E50" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="F50" s="10" t="s">
         <v>449</v>
       </c>
-      <c r="F50" s="10" t="s">
+      <c r="G50" s="10" t="s">
         <v>450</v>
       </c>
-      <c r="G50" s="10" t="s">
-        <v>451</v>
-      </c>
       <c r="H50" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I50" s="8" t="s">
         <v>23</v>
@@ -5295,10 +5292,10 @@
         <v>31</v>
       </c>
       <c r="L50" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="M50" s="9" t="s">
         <v>452</v>
-      </c>
-      <c r="M50" s="9" t="s">
-        <v>453</v>
       </c>
       <c r="N50" s="10" t="s">
         <v>48</v>
@@ -5307,10 +5304,10 @@
         <v>35</v>
       </c>
       <c r="P50" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="Q50" s="10" t="s">
         <v>454</v>
-      </c>
-      <c r="Q50" s="10" t="s">
-        <v>455</v>
       </c>
       <c r="R50" s="10" t="s">
         <v>38</v>
@@ -5325,36 +5322,36 @@
         <v>41</v>
       </c>
       <c r="V50" s="10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="W50" s="10" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="51" spans="1:23" ht="30" customHeight="1">
       <c r="A51" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="B51" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="C51" s="7" t="s">
         <v>458</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>459</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E51" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="F51" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="F51" s="7" t="s">
+      <c r="G51" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="G51" s="7" t="s">
-        <v>462</v>
-      </c>
       <c r="H51" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I51" s="5" t="s">
         <v>23</v>
@@ -5366,10 +5363,10 @@
         <v>31</v>
       </c>
       <c r="L51" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="M51" s="6" t="s">
         <v>463</v>
-      </c>
-      <c r="M51" s="6" t="s">
-        <v>464</v>
       </c>
       <c r="N51" s="7" t="s">
         <v>48</v>
@@ -5378,10 +5375,10 @@
         <v>35</v>
       </c>
       <c r="P51" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="Q51" s="7" t="s">
         <v>465</v>
-      </c>
-      <c r="Q51" s="7" t="s">
-        <v>466</v>
       </c>
       <c r="R51" s="7" t="s">
         <v>96</v>
@@ -5396,10 +5393,10 @@
         <v>41</v>
       </c>
       <c r="V51" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="W51" s="7" t="s">
         <v>467</v>
-      </c>
-      <c r="W51" s="7" t="s">
-        <v>468</v>
       </c>
     </row>
   </sheetData>
@@ -5450,7 +5447,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -5475,13 +5472,13 @@
     </row>
     <row r="2" spans="1:23">
       <c r="C2" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>471</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F2" s="3">
         <v>48</v>
@@ -5489,41 +5486,41 @@
     </row>
     <row r="3" spans="1:23">
       <c r="C3" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>473</v>
-      </c>
       <c r="E3" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>481</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="4" spans="1:23">
       <c r="C4" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>475</v>
-      </c>
       <c r="E4" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>483</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="5" spans="1:23">
       <c r="C5" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>477</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -5531,13 +5528,13 @@
     </row>
     <row r="6" spans="1:23">
       <c r="C6" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>479</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F6" s="3">
         <v>100</v>
@@ -5619,40 +5616,40 @@
         <v>23</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="D9" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="E9" s="7" t="s">
+      <c r="F9" s="7" t="s">
         <v>489</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>490</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>491</v>
-      </c>
       <c r="H9" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>44</v>
       </c>
       <c r="J9" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="K9" s="5" t="s">
         <v>492</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="L9" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="M9" s="6" t="s">
         <v>494</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>495</v>
       </c>
       <c r="N9" s="7" t="s">
         <v>48</v>
@@ -5661,10 +5658,10 @@
         <v>49</v>
       </c>
       <c r="P9" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>496</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>497</v>
       </c>
       <c r="R9" s="7" t="s">
         <v>52</v>
@@ -5676,13 +5673,13 @@
         <v>40</v>
       </c>
       <c r="U9" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="V9" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="V9" s="7" t="s">
+      <c r="W9" s="7" t="s">
         <v>499</v>
-      </c>
-      <c r="W9" s="7" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -5690,37 +5687,37 @@
         <v>44</v>
       </c>
       <c r="B10" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>222</v>
-      </c>
       <c r="D10" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E10" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="F10" s="10" t="s">
         <v>501</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="G10" s="10" t="s">
         <v>502</v>
       </c>
-      <c r="G10" s="10" t="s">
-        <v>503</v>
-      </c>
       <c r="H10" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I10" s="8" t="s">
         <v>44</v>
       </c>
       <c r="J10" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="K10" s="8" t="s">
         <v>492</v>
       </c>
-      <c r="K10" s="8" t="s">
-        <v>493</v>
-      </c>
       <c r="L10" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M10" s="12" t="s">
         <v>100</v>
@@ -5732,10 +5729,10 @@
         <v>49</v>
       </c>
       <c r="P10" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="Q10" s="10" t="s">
         <v>504</v>
-      </c>
-      <c r="Q10" s="10" t="s">
-        <v>505</v>
       </c>
       <c r="R10" s="10" t="s">
         <v>38</v>
@@ -5744,16 +5741,16 @@
         <v>39</v>
       </c>
       <c r="T10" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="U10" s="10" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="V10" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="W10" s="10" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="45" customHeight="1">
@@ -5761,40 +5758,40 @@
         <v>53</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>222</v>
-      </c>
       <c r="D11" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>44</v>
       </c>
       <c r="J11" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="K11" s="5" t="s">
         <v>492</v>
       </c>
-      <c r="K11" s="5" t="s">
-        <v>493</v>
-      </c>
       <c r="L11" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="M11" s="6" t="s">
         <v>227</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>228</v>
       </c>
       <c r="N11" s="7" t="s">
         <v>48</v>
@@ -5803,28 +5800,28 @@
         <v>49</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>508</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>509</v>
       </c>
       <c r="R11" s="7" t="s">
         <v>52</v>
       </c>
       <c r="S11" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="T11" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="U11" s="7" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="V11" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="W11" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="W11" s="7" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="30" customHeight="1">
@@ -5832,40 +5829,40 @@
         <v>58</v>
       </c>
       <c r="B12" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>510</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="D12" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>511</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="E12" s="10" t="s">
+      <c r="F12" s="10" t="s">
+        <v>510</v>
+      </c>
+      <c r="G12" s="10" t="s">
         <v>512</v>
       </c>
-      <c r="F12" s="10" t="s">
-        <v>511</v>
-      </c>
-      <c r="G12" s="10" t="s">
+      <c r="H12" s="10" t="s">
         <v>513</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>514</v>
       </c>
       <c r="I12" s="8" t="s">
         <v>23</v>
       </c>
       <c r="J12" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="K12" s="8" t="s">
         <v>492</v>
       </c>
-      <c r="K12" s="8" t="s">
-        <v>493</v>
-      </c>
       <c r="L12" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="N12" s="10" t="s">
         <v>34</v>
@@ -5874,10 +5871,10 @@
         <v>35</v>
       </c>
       <c r="P12" s="10" t="s">
+        <v>515</v>
+      </c>
+      <c r="Q12" s="10" t="s">
         <v>516</v>
-      </c>
-      <c r="Q12" s="10" t="s">
-        <v>517</v>
       </c>
       <c r="R12" s="10" t="s">
         <v>38</v>
@@ -5886,16 +5883,16 @@
         <v>39</v>
       </c>
       <c r="T12" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="U12" s="10" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="V12" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="W12" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -5903,37 +5900,37 @@
         <v>64</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>316</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>520</v>
-      </c>
       <c r="G13" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="H13" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>23</v>
       </c>
       <c r="J13" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="K13" s="5" t="s">
         <v>492</v>
       </c>
-      <c r="K13" s="5" t="s">
-        <v>493</v>
-      </c>
       <c r="L13" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M13" s="11" t="s">
         <v>100</v>
@@ -5945,10 +5942,10 @@
         <v>35</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>521</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>522</v>
       </c>
       <c r="R13" s="7" t="s">
         <v>96</v>
@@ -5960,13 +5957,13 @@
         <v>40</v>
       </c>
       <c r="U13" s="7" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="V13" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="W13" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="W13" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -5992,22 +5989,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="11" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
   </sheetData>

--- a/latest/BoM/Positional/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Positional/pedalboard-hw-bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="525">
   <si>
     <t>Row</t>
   </si>
@@ -247,9 +247,6 @@
     <t>1u</t>
   </si>
   <si>
-    <t>https://weblib.samsungsem.com/mlcc/mlcc-ec-data-sheet.do?partNumber=CL21B105KAFNNN</t>
-  </si>
-  <si>
     <t>https://www.digikey.ch/de/products/detail/samsung-electro-mechanics/CL21B105KAFNNNE/3886724</t>
   </si>
   <si>
@@ -943,7 +940,7 @@
     <t>SO08-E3</t>
   </si>
   <si>
-    <t>https://rocelec.widen.net/view/pdf/rwygqx6rjd/FAIRS27615-1.pdf?t.download=true</t>
+    <t>https://www.onsemi.com/pdf/datasheet/fds4435bz_f085-d.pdf</t>
   </si>
   <si>
     <t>https://www.digikey.ch/de/products/detail/onsemi/FDS4435BZ/1305763</t>
@@ -2182,7 +2179,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -2207,13 +2204,13 @@
     </row>
     <row r="2" spans="1:23">
       <c r="C2" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>470</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F2" s="3">
         <v>48</v>
@@ -2221,41 +2218,41 @@
     </row>
     <row r="3" spans="1:23">
       <c r="C3" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>472</v>
-      </c>
       <c r="E3" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>480</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="4" spans="1:23">
       <c r="C4" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>474</v>
-      </c>
       <c r="E4" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>482</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="5" spans="1:23">
       <c r="C5" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>476</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -2263,13 +2260,13 @@
     </row>
     <row r="6" spans="1:23">
       <c r="C6" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>478</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F6" s="3">
         <v>100</v>
@@ -2736,10 +2733,10 @@
         <v>31</v>
       </c>
       <c r="L14" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M14" s="9" t="s">
         <v>75</v>
-      </c>
-      <c r="M14" s="9" t="s">
-        <v>76</v>
       </c>
       <c r="N14" s="10" t="s">
         <v>48</v>
@@ -2748,10 +2745,10 @@
         <v>49</v>
       </c>
       <c r="P14" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q14" s="10" t="s">
         <v>77</v>
-      </c>
-      <c r="Q14" s="10" t="s">
-        <v>78</v>
       </c>
       <c r="R14" s="10" t="s">
         <v>52</v>
@@ -2774,7 +2771,7 @@
     </row>
     <row r="15" spans="1:23" ht="30" customHeight="1">
       <c r="A15" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>24</v>
@@ -2786,10 +2783,10 @@
         <v>26</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>29</v>
@@ -2798,10 +2795,10 @@
         <v>30</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K15" s="5" t="s">
         <v>31</v>
@@ -2810,19 +2807,19 @@
         <v>32</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N15" s="7" t="s">
         <v>34</v>
       </c>
       <c r="O15" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="R15" s="7" t="s">
         <v>52</v>
@@ -2845,25 +2842,25 @@
     </row>
     <row r="16" spans="1:23" ht="30" customHeight="1">
       <c r="A16" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B16" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>87</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>88</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E16" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="G16" s="10" t="s">
         <v>90</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="10" t="s">
         <v>30</v>
@@ -2878,10 +2875,10 @@
         <v>31</v>
       </c>
       <c r="L16" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="M16" s="9" t="s">
         <v>92</v>
-      </c>
-      <c r="M16" s="9" t="s">
-        <v>93</v>
       </c>
       <c r="N16" s="10" t="s">
         <v>34</v>
@@ -2890,13 +2887,13 @@
         <v>35</v>
       </c>
       <c r="P16" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q16" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="Q16" s="10" t="s">
+      <c r="R16" s="10" t="s">
         <v>95</v>
-      </c>
-      <c r="R16" s="10" t="s">
-        <v>96</v>
       </c>
       <c r="S16" s="10" t="s">
         <v>39</v>
@@ -2908,36 +2905,36 @@
         <v>41</v>
       </c>
       <c r="V16" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="W16" s="10" t="s">
         <v>97</v>
-      </c>
-      <c r="W16" s="10" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="45" customHeight="1">
       <c r="A17" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="C17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="D17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="E17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="F17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>23</v>
@@ -2949,22 +2946,22 @@
         <v>31</v>
       </c>
       <c r="L17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="M17" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="M17" s="6" t="s">
+      <c r="N17" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="N17" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="O17" s="5" t="s">
         <v>35</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="R17" s="7" t="s">
         <v>52</v>
@@ -2979,36 +2976,36 @@
         <v>41</v>
       </c>
       <c r="V17" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="W17" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="W17" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:23">
       <c r="A18" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="C18" s="10" t="s">
         <v>114</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>115</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E18" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="F18" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="G18" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="H18" s="10" t="s">
         <v>118</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>119</v>
       </c>
       <c r="I18" s="8" t="s">
         <v>23</v>
@@ -3020,22 +3017,22 @@
         <v>31</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M18" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N18" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O18" s="8" t="s">
         <v>35</v>
       </c>
       <c r="P18" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q18" s="10" t="s">
         <v>121</v>
-      </c>
-      <c r="Q18" s="10" t="s">
-        <v>122</v>
       </c>
       <c r="R18" s="10" t="s">
         <v>52</v>
@@ -3050,36 +3047,36 @@
         <v>41</v>
       </c>
       <c r="V18" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="W18" s="10" t="s">
         <v>123</v>
-      </c>
-      <c r="W18" s="10" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:23">
       <c r="A19" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>127</v>
-      </c>
       <c r="G19" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H19" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>23</v>
@@ -3091,22 +3088,22 @@
         <v>31</v>
       </c>
       <c r="L19" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O19" s="5" t="s">
         <v>35</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="R19" s="7" t="s">
         <v>52</v>
@@ -3121,36 +3118,36 @@
         <v>41</v>
       </c>
       <c r="V19" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="W19" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="W19" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:23" ht="30" customHeight="1">
       <c r="A20" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B20" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="C20" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="D20" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E20" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="D20" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="E20" s="10" t="s">
+      <c r="F20" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="G20" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="F20" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>133</v>
-      </c>
       <c r="H20" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I20" s="8" t="s">
         <v>58</v>
@@ -3162,25 +3159,25 @@
         <v>31</v>
       </c>
       <c r="L20" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="M20" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="M20" s="9" t="s">
+      <c r="N20" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="N20" s="10" t="s">
+      <c r="O20" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="O20" s="8" t="s">
+      <c r="P20" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="P20" s="10" t="s">
+      <c r="Q20" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="Q20" s="10" t="s">
-        <v>139</v>
-      </c>
       <c r="R20" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="S20" s="10" t="s">
         <v>39</v>
@@ -3192,36 +3189,36 @@
         <v>41</v>
       </c>
       <c r="V20" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="W20" s="10" t="s">
         <v>140</v>
-      </c>
-      <c r="W20" s="10" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="30" customHeight="1">
       <c r="A21" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="C21" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="D21" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="E21" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="F21" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="H21" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>23</v>
@@ -3233,10 +3230,10 @@
         <v>31</v>
       </c>
       <c r="L21" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="M21" s="6" t="s">
         <v>150</v>
-      </c>
-      <c r="M21" s="6" t="s">
-        <v>151</v>
       </c>
       <c r="N21" s="7" t="s">
         <v>48</v>
@@ -3245,13 +3242,13 @@
         <v>35</v>
       </c>
       <c r="P21" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="Q21" s="7" t="s">
+      <c r="R21" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="R21" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="S21" s="7" t="s">
         <v>39</v>
@@ -3263,36 +3260,36 @@
         <v>41</v>
       </c>
       <c r="V21" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="W21" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="W21" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="30" customHeight="1">
       <c r="A22" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="C22" s="10" t="s">
         <v>158</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>159</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E22" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="F22" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="G22" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="G22" s="10" t="s">
-        <v>162</v>
-      </c>
       <c r="H22" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I22" s="8" t="s">
         <v>53</v>
@@ -3304,25 +3301,25 @@
         <v>31</v>
       </c>
       <c r="L22" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="M22" s="9" t="s">
         <v>163</v>
-      </c>
-      <c r="M22" s="9" t="s">
-        <v>164</v>
       </c>
       <c r="N22" s="10" t="s">
         <v>34</v>
       </c>
       <c r="O22" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="P22" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="P22" s="10" t="s">
+      <c r="Q22" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="Q22" s="10" t="s">
-        <v>167</v>
-      </c>
       <c r="R22" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="S22" s="10" t="s">
         <v>39</v>
@@ -3334,10 +3331,10 @@
         <v>41</v>
       </c>
       <c r="V22" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="W22" s="10" t="s">
         <v>168</v>
-      </c>
-      <c r="W22" s="10" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="30" customHeight="1">
@@ -3345,25 +3342,25 @@
         <v>67</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="H23" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>23</v>
@@ -3375,10 +3372,10 @@
         <v>31</v>
       </c>
       <c r="L23" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="M23" s="6" t="s">
         <v>176</v>
-      </c>
-      <c r="M23" s="6" t="s">
-        <v>177</v>
       </c>
       <c r="N23" s="7" t="s">
         <v>34</v>
@@ -3387,10 +3384,10 @@
         <v>35</v>
       </c>
       <c r="P23" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="R23" s="7" t="s">
         <v>52</v>
@@ -3405,36 +3402,36 @@
         <v>41</v>
       </c>
       <c r="V23" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="W23" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="W23" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="30" customHeight="1">
       <c r="A24" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B24" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="C24" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="D24" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="E24" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="F24" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="G24" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="G24" s="10" t="s">
-        <v>188</v>
-      </c>
       <c r="H24" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I24" s="8" t="s">
         <v>23</v>
@@ -3446,10 +3443,10 @@
         <v>31</v>
       </c>
       <c r="L24" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="M24" s="9" t="s">
         <v>189</v>
-      </c>
-      <c r="M24" s="9" t="s">
-        <v>190</v>
       </c>
       <c r="N24" s="10" t="s">
         <v>34</v>
@@ -3458,10 +3455,10 @@
         <v>35</v>
       </c>
       <c r="P24" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q24" s="10" t="s">
         <v>191</v>
-      </c>
-      <c r="Q24" s="10" t="s">
-        <v>192</v>
       </c>
       <c r="R24" s="10" t="s">
         <v>52</v>
@@ -3470,42 +3467,42 @@
         <v>39</v>
       </c>
       <c r="T24" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="U24" s="10" t="s">
         <v>41</v>
       </c>
       <c r="V24" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="W24" s="10" t="s">
         <v>194</v>
-      </c>
-      <c r="W24" s="10" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="30" customHeight="1">
       <c r="A25" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="C25" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="D25" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="E25" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="F25" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G25" s="7" t="s">
+      <c r="H25" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>23</v>
@@ -3517,10 +3514,10 @@
         <v>31</v>
       </c>
       <c r="L25" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M25" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N25" s="7" t="s">
         <v>48</v>
@@ -3529,10 +3526,10 @@
         <v>35</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="R25" s="7" t="s">
         <v>38</v>
@@ -3541,42 +3538,42 @@
         <v>39</v>
       </c>
       <c r="T25" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="U25" s="7" t="s">
         <v>41</v>
       </c>
       <c r="V25" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="W25" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="W25" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="26" spans="1:23" ht="30" customHeight="1">
       <c r="A26" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="B26" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="C26" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="D26" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E26" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="D26" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="E26" s="10" t="s">
+      <c r="F26" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="G26" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="G26" s="10" t="s">
-        <v>212</v>
-      </c>
       <c r="H26" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I26" s="8" t="s">
         <v>23</v>
@@ -3588,66 +3585,66 @@
         <v>31</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M26" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N26" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O26" s="8" t="s">
         <v>35</v>
       </c>
       <c r="P26" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q26" s="10" t="s">
         <v>214</v>
-      </c>
-      <c r="Q26" s="10" t="s">
-        <v>215</v>
       </c>
       <c r="R26" s="10" t="s">
         <v>52</v>
       </c>
       <c r="S26" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T26" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="U26" s="10" t="s">
         <v>41</v>
       </c>
       <c r="V26" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="W26" s="10" t="s">
         <v>217</v>
-      </c>
-      <c r="W26" s="10" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="27" spans="1:23" ht="45" customHeight="1">
       <c r="A27" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="C27" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="D27" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="E27" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="E27" s="7" t="s">
+      <c r="F27" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="H27" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>23</v>
@@ -3659,66 +3656,66 @@
         <v>31</v>
       </c>
       <c r="L27" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="M27" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="M27" s="6" t="s">
-        <v>227</v>
-      </c>
       <c r="N27" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O27" s="5" t="s">
         <v>35</v>
       </c>
       <c r="P27" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="R27" s="7" t="s">
         <v>52</v>
       </c>
       <c r="S27" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T27" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="U27" s="7" t="s">
         <v>41</v>
       </c>
       <c r="V27" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="W27" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="W27" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="30" customHeight="1">
       <c r="A28" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="B28" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="C28" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="D28" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="E28" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="F28" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="G28" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="G28" s="10" t="s">
-        <v>238</v>
-      </c>
       <c r="H28" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I28" s="8" t="s">
         <v>44</v>
@@ -3730,10 +3727,10 @@
         <v>31</v>
       </c>
       <c r="L28" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="M28" s="9" t="s">
         <v>239</v>
-      </c>
-      <c r="M28" s="9" t="s">
-        <v>240</v>
       </c>
       <c r="N28" s="10" t="s">
         <v>48</v>
@@ -3742,10 +3739,10 @@
         <v>49</v>
       </c>
       <c r="P28" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q28" s="10" t="s">
         <v>241</v>
-      </c>
-      <c r="Q28" s="10" t="s">
-        <v>242</v>
       </c>
       <c r="R28" s="10" t="s">
         <v>52</v>
@@ -3754,42 +3751,42 @@
         <v>39</v>
       </c>
       <c r="T28" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="U28" s="10" t="s">
         <v>41</v>
       </c>
       <c r="V28" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="W28" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="29" spans="1:23" ht="30" customHeight="1">
       <c r="A29" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="C29" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="D29" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="E29" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="E29" s="7" t="s">
+      <c r="F29" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="G29" s="7" t="s">
-        <v>249</v>
-      </c>
       <c r="H29" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>72</v>
@@ -3801,66 +3798,66 @@
         <v>31</v>
       </c>
       <c r="L29" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="M29" s="6" t="s">
         <v>250</v>
-      </c>
-      <c r="M29" s="6" t="s">
-        <v>251</v>
       </c>
       <c r="N29" s="7" t="s">
         <v>48</v>
       </c>
       <c r="O29" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="Q29" s="7" t="s">
-        <v>254</v>
-      </c>
       <c r="R29" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="S29" s="7" t="s">
         <v>39</v>
       </c>
       <c r="T29" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="U29" s="7" t="s">
         <v>41</v>
       </c>
       <c r="V29" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="W29" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="W29" s="7" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="30" spans="1:23" ht="45" customHeight="1">
       <c r="A30" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="B30" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="C30" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="D30" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="E30" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="D30" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="E30" s="10" t="s">
+      <c r="F30" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="F30" s="10" t="s">
+      <c r="G30" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="G30" s="10" t="s">
-        <v>262</v>
-      </c>
       <c r="H30" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I30" s="8" t="s">
         <v>72</v>
@@ -3872,66 +3869,66 @@
         <v>31</v>
       </c>
       <c r="L30" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M30" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N30" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O30" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="P30" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q30" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="Q30" s="10" t="s">
-        <v>264</v>
-      </c>
       <c r="R30" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="S30" s="10" t="s">
         <v>39</v>
       </c>
       <c r="T30" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="U30" s="10" t="s">
         <v>41</v>
       </c>
       <c r="V30" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="W30" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="30" customHeight="1">
       <c r="A31" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="C31" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="D31" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E31" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="D31" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="E31" s="7" t="s">
+      <c r="F31" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="G31" s="7" t="s">
-        <v>271</v>
-      </c>
       <c r="H31" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I31" s="5" t="s">
         <v>23</v>
@@ -3943,10 +3940,10 @@
         <v>31</v>
       </c>
       <c r="L31" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="M31" s="6" t="s">
         <v>272</v>
-      </c>
-      <c r="M31" s="6" t="s">
-        <v>273</v>
       </c>
       <c r="N31" s="7" t="s">
         <v>34</v>
@@ -3955,10 +3952,10 @@
         <v>35</v>
       </c>
       <c r="P31" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="R31" s="7" t="s">
         <v>52</v>
@@ -3967,42 +3964,42 @@
         <v>39</v>
       </c>
       <c r="T31" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="U31" s="7" t="s">
         <v>41</v>
       </c>
       <c r="V31" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="W31" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="W31" s="7" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="30" customHeight="1">
       <c r="A32" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="B32" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="C32" s="10" t="s">
         <v>279</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>280</v>
       </c>
       <c r="D32" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E32" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="F32" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="F32" s="10" t="s">
+      <c r="G32" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="G32" s="10" t="s">
+      <c r="H32" s="10" t="s">
         <v>283</v>
-      </c>
-      <c r="H32" s="10" t="s">
-        <v>284</v>
       </c>
       <c r="I32" s="8" t="s">
         <v>23</v>
@@ -4014,10 +4011,10 @@
         <v>31</v>
       </c>
       <c r="L32" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="M32" s="9" t="s">
         <v>285</v>
-      </c>
-      <c r="M32" s="9" t="s">
-        <v>286</v>
       </c>
       <c r="N32" s="10" t="s">
         <v>34</v>
@@ -4026,13 +4023,13 @@
         <v>35</v>
       </c>
       <c r="P32" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Q32" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="R32" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="S32" s="10" t="s">
         <v>39</v>
@@ -4044,36 +4041,36 @@
         <v>41</v>
       </c>
       <c r="V32" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="W32" s="10" t="s">
         <v>288</v>
-      </c>
-      <c r="W32" s="10" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="33" spans="1:23" ht="30" customHeight="1">
       <c r="A33" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="C33" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="G33" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="G33" s="7" t="s">
-        <v>295</v>
-      </c>
       <c r="H33" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>58</v>
@@ -4085,25 +4082,25 @@
         <v>31</v>
       </c>
       <c r="L33" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="M33" s="6" t="s">
         <v>296</v>
-      </c>
-      <c r="M33" s="6" t="s">
-        <v>297</v>
       </c>
       <c r="N33" s="7" t="s">
         <v>48</v>
       </c>
       <c r="O33" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P33" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="Q33" s="7" t="s">
-        <v>299</v>
-      </c>
       <c r="R33" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="S33" s="7" t="s">
         <v>39</v>
@@ -4115,36 +4112,36 @@
         <v>41</v>
       </c>
       <c r="V33" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="W33" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="W33" s="7" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="34" spans="1:23" ht="30" customHeight="1">
       <c r="A34" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="B34" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="C34" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="D34" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E34" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="D34" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="E34" s="10" t="s">
+      <c r="F34" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="G34" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="F34" s="10" t="s">
-        <v>304</v>
-      </c>
-      <c r="G34" s="10" t="s">
-        <v>306</v>
-      </c>
       <c r="H34" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I34" s="8" t="s">
         <v>23</v>
@@ -4156,10 +4153,10 @@
         <v>31</v>
       </c>
       <c r="L34" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="M34" s="9" t="s">
         <v>307</v>
-      </c>
-      <c r="M34" s="9" t="s">
-        <v>308</v>
       </c>
       <c r="N34" s="10" t="s">
         <v>34</v>
@@ -4168,13 +4165,13 @@
         <v>35</v>
       </c>
       <c r="P34" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q34" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="Q34" s="10" t="s">
-        <v>310</v>
-      </c>
       <c r="R34" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="S34" s="10" t="s">
         <v>39</v>
@@ -4186,36 +4183,36 @@
         <v>41</v>
       </c>
       <c r="V34" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="W34" s="10" t="s">
         <v>311</v>
-      </c>
-      <c r="W34" s="10" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="30" customHeight="1">
       <c r="A35" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="C35" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="F35" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G35" s="7" t="s">
+      <c r="H35" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>318</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>23</v>
@@ -4227,10 +4224,10 @@
         <v>31</v>
       </c>
       <c r="L35" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="M35" s="6" t="s">
         <v>319</v>
-      </c>
-      <c r="M35" s="6" t="s">
-        <v>320</v>
       </c>
       <c r="N35" s="7" t="s">
         <v>48</v>
@@ -4239,13 +4236,13 @@
         <v>35</v>
       </c>
       <c r="P35" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="Q35" s="7" t="s">
-        <v>322</v>
-      </c>
       <c r="R35" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="S35" s="7" t="s">
         <v>39</v>
@@ -4257,36 +4254,36 @@
         <v>41</v>
       </c>
       <c r="V35" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="W35" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="W35" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="30" customHeight="1">
       <c r="A36" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B36" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="C36" s="10" t="s">
         <v>314</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>315</v>
       </c>
       <c r="D36" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G36" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="H36" s="10" t="s">
         <v>317</v>
-      </c>
-      <c r="H36" s="10" t="s">
-        <v>318</v>
       </c>
       <c r="I36" s="8" t="s">
         <v>44</v>
@@ -4298,10 +4295,10 @@
         <v>31</v>
       </c>
       <c r="L36" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="M36" s="9" t="s">
         <v>325</v>
-      </c>
-      <c r="M36" s="9" t="s">
-        <v>326</v>
       </c>
       <c r="N36" s="10" t="s">
         <v>48</v>
@@ -4310,13 +4307,13 @@
         <v>49</v>
       </c>
       <c r="P36" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q36" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="Q36" s="10" t="s">
-        <v>328</v>
-      </c>
       <c r="R36" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="S36" s="10" t="s">
         <v>39</v>
@@ -4328,36 +4325,36 @@
         <v>41</v>
       </c>
       <c r="V36" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="W36" s="10" t="s">
         <v>123</v>
-      </c>
-      <c r="W36" s="10" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="37" spans="1:23" ht="30" customHeight="1">
       <c r="A37" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B37" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="F37" s="7" t="s">
-        <v>331</v>
-      </c>
       <c r="G37" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="H37" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>318</v>
       </c>
       <c r="I37" s="5" t="s">
         <v>23</v>
@@ -4369,10 +4366,10 @@
         <v>31</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M37" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="N37" s="7" t="s">
         <v>48</v>
@@ -4381,10 +4378,10 @@
         <v>35</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="R37" s="7" t="s">
         <v>52</v>
@@ -4399,36 +4396,36 @@
         <v>41</v>
       </c>
       <c r="V37" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="W37" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="W37" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="30" customHeight="1">
       <c r="A38" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B38" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="C38" s="10" t="s">
         <v>314</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>315</v>
       </c>
       <c r="D38" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E38" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="F38" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="F38" s="10" t="s">
-        <v>336</v>
-      </c>
       <c r="G38" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="H38" s="10" t="s">
         <v>317</v>
-      </c>
-      <c r="H38" s="10" t="s">
-        <v>318</v>
       </c>
       <c r="I38" s="8" t="s">
         <v>44</v>
@@ -4440,10 +4437,10 @@
         <v>31</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M38" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="N38" s="10" t="s">
         <v>48</v>
@@ -4452,13 +4449,13 @@
         <v>49</v>
       </c>
       <c r="P38" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q38" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="Q38" s="10" t="s">
-        <v>339</v>
-      </c>
       <c r="R38" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="S38" s="10" t="s">
         <v>39</v>
@@ -4470,36 +4467,36 @@
         <v>41</v>
       </c>
       <c r="V38" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="W38" s="10" t="s">
         <v>123</v>
-      </c>
-      <c r="W38" s="10" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="39" spans="1:23" ht="30" customHeight="1">
       <c r="A39" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B39" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="C39" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E39" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="F39" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="F39" s="7" t="s">
-        <v>342</v>
-      </c>
       <c r="G39" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="H39" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>318</v>
       </c>
       <c r="I39" s="5" t="s">
         <v>72</v>
@@ -4511,25 +4508,25 @@
         <v>31</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="M39" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="N39" s="7" t="s">
         <v>48</v>
       </c>
       <c r="O39" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="P39" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q39" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="Q39" s="7" t="s">
-        <v>345</v>
-      </c>
       <c r="R39" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="S39" s="7" t="s">
         <v>39</v>
@@ -4541,36 +4538,36 @@
         <v>41</v>
       </c>
       <c r="V39" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="W39" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="W39" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="40" spans="1:23" ht="30" customHeight="1">
       <c r="A40" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B40" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="C40" s="10" t="s">
         <v>314</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>315</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E40" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="F40" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="F40" s="10" t="s">
-        <v>348</v>
-      </c>
       <c r="G40" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="H40" s="10" t="s">
         <v>317</v>
-      </c>
-      <c r="H40" s="10" t="s">
-        <v>318</v>
       </c>
       <c r="I40" s="8" t="s">
         <v>23</v>
@@ -4582,10 +4579,10 @@
         <v>31</v>
       </c>
       <c r="L40" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="M40" s="9" t="s">
         <v>349</v>
-      </c>
-      <c r="M40" s="9" t="s">
-        <v>350</v>
       </c>
       <c r="N40" s="10" t="s">
         <v>34</v>
@@ -4594,10 +4591,10 @@
         <v>35</v>
       </c>
       <c r="P40" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q40" s="10" t="s">
         <v>351</v>
-      </c>
-      <c r="Q40" s="10" t="s">
-        <v>352</v>
       </c>
       <c r="R40" s="10" t="s">
         <v>38</v>
@@ -4612,36 +4609,36 @@
         <v>41</v>
       </c>
       <c r="V40" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="W40" s="10" t="s">
         <v>123</v>
-      </c>
-      <c r="W40" s="10" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="41" spans="1:23" ht="30" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B41" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="C41" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="F41" s="7" t="s">
-        <v>354</v>
-      </c>
       <c r="G41" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="H41" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="H41" s="7" t="s">
-        <v>318</v>
       </c>
       <c r="I41" s="5" t="s">
         <v>23</v>
@@ -4653,10 +4650,10 @@
         <v>31</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="M41" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N41" s="7" t="s">
         <v>34</v>
@@ -4665,10 +4662,10 @@
         <v>35</v>
       </c>
       <c r="P41" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q41" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>357</v>
       </c>
       <c r="R41" s="7" t="s">
         <v>38</v>
@@ -4683,36 +4680,36 @@
         <v>41</v>
       </c>
       <c r="V41" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="W41" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="W41" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="42" spans="1:23" ht="30" customHeight="1">
       <c r="A42" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B42" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="C42" s="10" t="s">
         <v>314</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>315</v>
       </c>
       <c r="D42" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E42" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="F42" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="F42" s="10" t="s">
-        <v>360</v>
-      </c>
       <c r="G42" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="H42" s="10" t="s">
         <v>317</v>
-      </c>
-      <c r="H42" s="10" t="s">
-        <v>318</v>
       </c>
       <c r="I42" s="8" t="s">
         <v>23</v>
@@ -4724,10 +4721,10 @@
         <v>31</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M42" s="9" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="N42" s="10" t="s">
         <v>34</v>
@@ -4736,10 +4733,10 @@
         <v>35</v>
       </c>
       <c r="P42" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q42" s="10" t="s">
         <v>362</v>
-      </c>
-      <c r="Q42" s="10" t="s">
-        <v>363</v>
       </c>
       <c r="R42" s="10" t="s">
         <v>52</v>
@@ -4754,36 +4751,36 @@
         <v>41</v>
       </c>
       <c r="V42" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="W42" s="10" t="s">
         <v>123</v>
-      </c>
-      <c r="W42" s="10" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="43" spans="1:23" ht="30" customHeight="1">
       <c r="A43" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="B43" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="C43" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>366</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F43" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="G43" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="G43" s="7" t="s">
-        <v>369</v>
-      </c>
       <c r="H43" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I43" s="5" t="s">
         <v>44</v>
@@ -4795,10 +4792,10 @@
         <v>31</v>
       </c>
       <c r="L43" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="M43" s="6" t="s">
         <v>370</v>
-      </c>
-      <c r="M43" s="6" t="s">
-        <v>371</v>
       </c>
       <c r="N43" s="7" t="s">
         <v>48</v>
@@ -4807,54 +4804,54 @@
         <v>49</v>
       </c>
       <c r="P43" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q43" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="Q43" s="7" t="s">
-        <v>373</v>
-      </c>
       <c r="R43" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="S43" s="7" t="s">
         <v>39</v>
       </c>
       <c r="T43" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="U43" s="7" t="s">
         <v>41</v>
       </c>
       <c r="V43" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="W43" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="W43" s="7" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="44" spans="1:23" ht="30" customHeight="1">
       <c r="A44" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="B44" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="C44" s="10" t="s">
         <v>377</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="D44" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="E44" s="10" t="s">
         <v>379</v>
       </c>
-      <c r="E44" s="10" t="s">
+      <c r="F44" s="10" t="s">
         <v>380</v>
       </c>
-      <c r="F44" s="10" t="s">
+      <c r="G44" s="10" t="s">
         <v>381</v>
       </c>
-      <c r="G44" s="10" t="s">
-        <v>382</v>
-      </c>
       <c r="H44" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I44" s="8" t="s">
         <v>72</v>
@@ -4866,25 +4863,25 @@
         <v>31</v>
       </c>
       <c r="L44" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="M44" s="9" t="s">
         <v>383</v>
-      </c>
-      <c r="M44" s="9" t="s">
-        <v>384</v>
       </c>
       <c r="N44" s="10" t="s">
         <v>48</v>
       </c>
       <c r="O44" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="P44" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q44" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="Q44" s="10" t="s">
-        <v>386</v>
-      </c>
       <c r="R44" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="S44" s="10" t="s">
         <v>39</v>
@@ -4896,36 +4893,36 @@
         <v>41</v>
       </c>
       <c r="V44" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="W44" s="10" t="s">
         <v>387</v>
-      </c>
-      <c r="W44" s="10" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="45" spans="1:23" ht="30" customHeight="1">
       <c r="A45" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="B45" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="C45" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="D45" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E45" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="D45" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="E45" s="7" t="s">
+      <c r="F45" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="G45" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="F45" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="G45" s="7" t="s">
+      <c r="H45" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="H45" s="7" t="s">
-        <v>394</v>
       </c>
       <c r="I45" s="5" t="s">
         <v>44</v>
@@ -4937,22 +4934,22 @@
         <v>31</v>
       </c>
       <c r="L45" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="M45" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="M45" s="6" t="s">
-        <v>396</v>
-      </c>
       <c r="N45" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O45" s="5" t="s">
         <v>49</v>
       </c>
       <c r="P45" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="Q45" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>398</v>
       </c>
       <c r="R45" s="7" t="s">
         <v>52</v>
@@ -4967,36 +4964,36 @@
         <v>41</v>
       </c>
       <c r="V45" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="W45" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="46" spans="1:23" ht="30" customHeight="1">
       <c r="A46" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="B46" s="9" t="s">
         <v>400</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="C46" s="10" t="s">
         <v>401</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="D46" s="10" t="s">
         <v>402</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="E46" s="10" t="s">
         <v>403</v>
       </c>
-      <c r="E46" s="10" t="s">
+      <c r="F46" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="G46" s="10" t="s">
         <v>404</v>
       </c>
-      <c r="F46" s="10" t="s">
-        <v>402</v>
-      </c>
-      <c r="G46" s="10" t="s">
-        <v>405</v>
-      </c>
       <c r="H46" s="10" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="I46" s="8" t="s">
         <v>23</v>
@@ -5008,10 +5005,10 @@
         <v>31</v>
       </c>
       <c r="L46" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="M46" s="9" t="s">
         <v>406</v>
-      </c>
-      <c r="M46" s="9" t="s">
-        <v>407</v>
       </c>
       <c r="N46" s="10" t="s">
         <v>34</v>
@@ -5020,10 +5017,10 @@
         <v>35</v>
       </c>
       <c r="P46" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="Q46" s="10" t="s">
         <v>408</v>
-      </c>
-      <c r="Q46" s="10" t="s">
-        <v>409</v>
       </c>
       <c r="R46" s="10" t="s">
         <v>52</v>
@@ -5038,36 +5035,36 @@
         <v>41</v>
       </c>
       <c r="V46" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="W46" s="10" t="s">
         <v>410</v>
-      </c>
-      <c r="W46" s="10" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="47" spans="1:23" ht="30" customHeight="1">
       <c r="A47" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="B47" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="C47" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="D47" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E47" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="D47" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="E47" s="7" t="s">
+      <c r="F47" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="G47" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="F47" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>416</v>
-      </c>
       <c r="H47" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I47" s="5" t="s">
         <v>23</v>
@@ -5079,10 +5076,10 @@
         <v>31</v>
       </c>
       <c r="L47" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="M47" s="6" t="s">
         <v>417</v>
-      </c>
-      <c r="M47" s="6" t="s">
-        <v>418</v>
       </c>
       <c r="N47" s="7" t="s">
         <v>48</v>
@@ -5091,10 +5088,10 @@
         <v>35</v>
       </c>
       <c r="P47" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q47" s="7" t="s">
         <v>419</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>420</v>
       </c>
       <c r="R47" s="7" t="s">
         <v>38</v>
@@ -5109,36 +5106,36 @@
         <v>41</v>
       </c>
       <c r="V47" s="7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="W47" s="7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="48" spans="1:23" ht="30" customHeight="1">
       <c r="A48" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="B48" s="9" t="s">
         <v>422</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="C48" s="10" t="s">
         <v>423</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="D48" s="10" t="s">
         <v>424</v>
       </c>
-      <c r="D48" s="10" t="s">
+      <c r="E48" s="10" t="s">
         <v>425</v>
       </c>
-      <c r="E48" s="10" t="s">
+      <c r="F48" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="G48" s="10" t="s">
         <v>426</v>
       </c>
-      <c r="F48" s="10" t="s">
-        <v>424</v>
-      </c>
-      <c r="G48" s="10" t="s">
+      <c r="H48" s="10" t="s">
         <v>427</v>
-      </c>
-      <c r="H48" s="10" t="s">
-        <v>428</v>
       </c>
       <c r="I48" s="8" t="s">
         <v>23</v>
@@ -5150,10 +5147,10 @@
         <v>31</v>
       </c>
       <c r="L48" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="M48" s="9" t="s">
         <v>429</v>
-      </c>
-      <c r="M48" s="9" t="s">
-        <v>430</v>
       </c>
       <c r="N48" s="10" t="s">
         <v>48</v>
@@ -5162,13 +5159,13 @@
         <v>35</v>
       </c>
       <c r="P48" s="10" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="Q48" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="R48" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="S48" s="10" t="s">
         <v>39</v>
@@ -5180,36 +5177,36 @@
         <v>41</v>
       </c>
       <c r="V48" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="W48" s="10" t="s">
         <v>432</v>
-      </c>
-      <c r="W48" s="10" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="49" spans="1:23" ht="30" customHeight="1">
       <c r="A49" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="B49" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="C49" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="D49" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E49" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="D49" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="E49" s="7" t="s">
+      <c r="F49" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="G49" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="F49" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>438</v>
-      </c>
       <c r="H49" s="7" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="I49" s="5" t="s">
         <v>23</v>
@@ -5221,10 +5218,10 @@
         <v>31</v>
       </c>
       <c r="L49" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="M49" s="6" t="s">
         <v>439</v>
-      </c>
-      <c r="M49" s="6" t="s">
-        <v>440</v>
       </c>
       <c r="N49" s="7" t="s">
         <v>34</v>
@@ -5233,13 +5230,13 @@
         <v>35</v>
       </c>
       <c r="P49" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q49" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="Q49" s="7" t="s">
-        <v>442</v>
-      </c>
       <c r="R49" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="S49" s="7" t="s">
         <v>39</v>
@@ -5251,36 +5248,36 @@
         <v>41</v>
       </c>
       <c r="V49" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="W49" s="7" t="s">
         <v>443</v>
-      </c>
-      <c r="W49" s="7" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="50" spans="1:23" ht="30" customHeight="1">
       <c r="A50" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="B50" s="9" t="s">
         <v>445</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="C50" s="10" t="s">
         <v>446</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="D50" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E50" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="D50" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="E50" s="10" t="s">
+      <c r="F50" s="10" t="s">
         <v>448</v>
       </c>
-      <c r="F50" s="10" t="s">
+      <c r="G50" s="10" t="s">
         <v>449</v>
       </c>
-      <c r="G50" s="10" t="s">
-        <v>450</v>
-      </c>
       <c r="H50" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I50" s="8" t="s">
         <v>23</v>
@@ -5292,10 +5289,10 @@
         <v>31</v>
       </c>
       <c r="L50" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="M50" s="9" t="s">
         <v>451</v>
-      </c>
-      <c r="M50" s="9" t="s">
-        <v>452</v>
       </c>
       <c r="N50" s="10" t="s">
         <v>48</v>
@@ -5304,10 +5301,10 @@
         <v>35</v>
       </c>
       <c r="P50" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q50" s="10" t="s">
         <v>453</v>
-      </c>
-      <c r="Q50" s="10" t="s">
-        <v>454</v>
       </c>
       <c r="R50" s="10" t="s">
         <v>38</v>
@@ -5322,36 +5319,36 @@
         <v>41</v>
       </c>
       <c r="V50" s="10" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="W50" s="10" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="51" spans="1:23" ht="30" customHeight="1">
       <c r="A51" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="B51" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="C51" s="7" t="s">
         <v>457</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>458</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E51" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="F51" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="F51" s="7" t="s">
+      <c r="G51" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="G51" s="7" t="s">
-        <v>461</v>
-      </c>
       <c r="H51" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I51" s="5" t="s">
         <v>23</v>
@@ -5363,10 +5360,10 @@
         <v>31</v>
       </c>
       <c r="L51" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="M51" s="6" t="s">
         <v>462</v>
-      </c>
-      <c r="M51" s="6" t="s">
-        <v>463</v>
       </c>
       <c r="N51" s="7" t="s">
         <v>48</v>
@@ -5375,13 +5372,13 @@
         <v>35</v>
       </c>
       <c r="P51" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="Q51" s="7" t="s">
         <v>464</v>
       </c>
-      <c r="Q51" s="7" t="s">
-        <v>465</v>
-      </c>
       <c r="R51" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="S51" s="7" t="s">
         <v>39</v>
@@ -5393,10 +5390,10 @@
         <v>41</v>
       </c>
       <c r="V51" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="W51" s="7" t="s">
         <v>466</v>
-      </c>
-      <c r="W51" s="7" t="s">
-        <v>467</v>
       </c>
     </row>
   </sheetData>
@@ -5447,7 +5444,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -5472,13 +5469,13 @@
     </row>
     <row r="2" spans="1:23">
       <c r="C2" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>470</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F2" s="3">
         <v>48</v>
@@ -5486,41 +5483,41 @@
     </row>
     <row r="3" spans="1:23">
       <c r="C3" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>472</v>
-      </c>
       <c r="E3" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>480</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="4" spans="1:23">
       <c r="C4" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>474</v>
-      </c>
       <c r="E4" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>482</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="5" spans="1:23">
       <c r="C5" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>476</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -5528,13 +5525,13 @@
     </row>
     <row r="6" spans="1:23">
       <c r="C6" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>478</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F6" s="3">
         <v>100</v>
@@ -5616,40 +5613,40 @@
         <v>23</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>486</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="D9" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="E9" s="7" t="s">
+      <c r="F9" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>489</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>490</v>
-      </c>
       <c r="H9" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>44</v>
       </c>
       <c r="J9" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="K9" s="5" t="s">
         <v>491</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="L9" s="7" t="s">
         <v>492</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="M9" s="6" t="s">
         <v>493</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>494</v>
       </c>
       <c r="N9" s="7" t="s">
         <v>48</v>
@@ -5658,10 +5655,10 @@
         <v>49</v>
       </c>
       <c r="P9" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>495</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>496</v>
       </c>
       <c r="R9" s="7" t="s">
         <v>52</v>
@@ -5673,13 +5670,13 @@
         <v>40</v>
       </c>
       <c r="U9" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="V9" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="V9" s="7" t="s">
+      <c r="W9" s="7" t="s">
         <v>498</v>
-      </c>
-      <c r="W9" s="7" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -5687,40 +5684,40 @@
         <v>44</v>
       </c>
       <c r="B10" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>221</v>
-      </c>
       <c r="D10" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E10" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="F10" s="10" t="s">
         <v>500</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="G10" s="10" t="s">
         <v>501</v>
       </c>
-      <c r="G10" s="10" t="s">
-        <v>502</v>
-      </c>
       <c r="H10" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I10" s="8" t="s">
         <v>44</v>
       </c>
       <c r="J10" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="K10" s="8" t="s">
         <v>491</v>
       </c>
-      <c r="K10" s="8" t="s">
-        <v>492</v>
-      </c>
       <c r="L10" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M10" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N10" s="10" t="s">
         <v>48</v>
@@ -5729,10 +5726,10 @@
         <v>49</v>
       </c>
       <c r="P10" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="Q10" s="10" t="s">
         <v>503</v>
-      </c>
-      <c r="Q10" s="10" t="s">
-        <v>504</v>
       </c>
       <c r="R10" s="10" t="s">
         <v>38</v>
@@ -5741,16 +5738,16 @@
         <v>39</v>
       </c>
       <c r="T10" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="U10" s="10" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="V10" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="W10" s="10" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="45" customHeight="1">
@@ -5758,40 +5755,40 @@
         <v>53</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>221</v>
-      </c>
       <c r="D11" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>44</v>
       </c>
       <c r="J11" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="K11" s="5" t="s">
         <v>491</v>
       </c>
-      <c r="K11" s="5" t="s">
-        <v>492</v>
-      </c>
       <c r="L11" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="M11" s="6" t="s">
         <v>226</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>227</v>
       </c>
       <c r="N11" s="7" t="s">
         <v>48</v>
@@ -5800,28 +5797,28 @@
         <v>49</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>507</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>508</v>
       </c>
       <c r="R11" s="7" t="s">
         <v>52</v>
       </c>
       <c r="S11" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T11" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="U11" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="V11" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="W11" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="W11" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="30" customHeight="1">
@@ -5829,40 +5826,40 @@
         <v>58</v>
       </c>
       <c r="B12" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>509</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="D12" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>510</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="E12" s="10" t="s">
+      <c r="F12" s="10" t="s">
+        <v>509</v>
+      </c>
+      <c r="G12" s="10" t="s">
         <v>511</v>
       </c>
-      <c r="F12" s="10" t="s">
-        <v>510</v>
-      </c>
-      <c r="G12" s="10" t="s">
+      <c r="H12" s="10" t="s">
         <v>512</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>513</v>
       </c>
       <c r="I12" s="8" t="s">
         <v>23</v>
       </c>
       <c r="J12" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="K12" s="8" t="s">
         <v>491</v>
       </c>
-      <c r="K12" s="8" t="s">
-        <v>492</v>
-      </c>
       <c r="L12" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="N12" s="10" t="s">
         <v>34</v>
@@ -5871,10 +5868,10 @@
         <v>35</v>
       </c>
       <c r="P12" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="Q12" s="10" t="s">
         <v>515</v>
-      </c>
-      <c r="Q12" s="10" t="s">
-        <v>516</v>
       </c>
       <c r="R12" s="10" t="s">
         <v>38</v>
@@ -5883,16 +5880,16 @@
         <v>39</v>
       </c>
       <c r="T12" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="U12" s="10" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="V12" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W12" s="10" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -5900,40 +5897,40 @@
         <v>64</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>518</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>519</v>
-      </c>
       <c r="G13" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="H13" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>318</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>23</v>
       </c>
       <c r="J13" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="K13" s="5" t="s">
         <v>491</v>
       </c>
-      <c r="K13" s="5" t="s">
-        <v>492</v>
-      </c>
       <c r="L13" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N13" s="7" t="s">
         <v>48</v>
@@ -5942,13 +5939,13 @@
         <v>35</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>520</v>
       </c>
-      <c r="Q13" s="7" t="s">
-        <v>521</v>
-      </c>
       <c r="R13" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="S13" s="7" t="s">
         <v>39</v>
@@ -5957,13 +5954,13 @@
         <v>40</v>
       </c>
       <c r="U13" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="V13" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="W13" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="W13" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -5989,22 +5986,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="11" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
   </sheetData>

--- a/latest/BoM/Positional/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Positional/pedalboard-hw-bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="524">
   <si>
     <t>Row</t>
   </si>
@@ -656,9 +656,6 @@
   </si>
   <si>
     <t>HiFi Berry DAC ADC+</t>
-  </si>
-  <si>
-    <t>https://www.hifiberry.com/docs/data-sheets/datasheet-dac-adc-pro/</t>
   </si>
   <si>
     <t>102.2444</t>
@@ -2179,7 +2176,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -2204,13 +2201,13 @@
     </row>
     <row r="2" spans="1:23">
       <c r="C2" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>469</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F2" s="3">
         <v>48</v>
@@ -2218,41 +2215,41 @@
     </row>
     <row r="3" spans="1:23">
       <c r="C3" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>471</v>
-      </c>
       <c r="E3" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>479</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="4" spans="1:23">
       <c r="C4" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>473</v>
-      </c>
       <c r="E4" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>481</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="5" spans="1:23">
       <c r="C5" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>475</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -2260,13 +2257,13 @@
     </row>
     <row r="6" spans="1:23">
       <c r="C6" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>477</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F6" s="3">
         <v>100</v>
@@ -3550,7 +3547,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="30" customHeight="1">
+    <row r="26" spans="1:23">
       <c r="A26" s="8" t="s">
         <v>206</v>
       </c>
@@ -3584,8 +3581,8 @@
       <c r="K26" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="L26" s="10" t="s">
-        <v>212</v>
+      <c r="L26" s="12" t="s">
+        <v>99</v>
       </c>
       <c r="M26" s="12" t="s">
         <v>99</v>
@@ -3597,16 +3594,16 @@
         <v>35</v>
       </c>
       <c r="P26" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q26" s="10" t="s">
         <v>213</v>
-      </c>
-      <c r="Q26" s="10" t="s">
-        <v>214</v>
       </c>
       <c r="R26" s="10" t="s">
         <v>52</v>
       </c>
       <c r="S26" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="T26" s="10" t="s">
         <v>192</v>
@@ -3615,36 +3612,36 @@
         <v>41</v>
       </c>
       <c r="V26" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="W26" s="10" t="s">
         <v>216</v>
-      </c>
-      <c r="W26" s="10" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="27" spans="1:23" ht="45" customHeight="1">
       <c r="A27" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="C27" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>184</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="H27" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>23</v>
@@ -3656,10 +3653,10 @@
         <v>31</v>
       </c>
       <c r="L27" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="M27" s="6" t="s">
         <v>225</v>
-      </c>
-      <c r="M27" s="6" t="s">
-        <v>226</v>
       </c>
       <c r="N27" s="7" t="s">
         <v>135</v>
@@ -3668,16 +3665,16 @@
         <v>35</v>
       </c>
       <c r="P27" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="R27" s="7" t="s">
         <v>52</v>
       </c>
       <c r="S27" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="T27" s="7" t="s">
         <v>192</v>
@@ -3686,33 +3683,33 @@
         <v>41</v>
       </c>
       <c r="V27" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="W27" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="W27" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="30" customHeight="1">
       <c r="A28" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="B28" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="C28" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="D28" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="E28" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="F28" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="G28" s="10" t="s">
         <v>236</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>237</v>
       </c>
       <c r="H28" s="10" t="s">
         <v>104</v>
@@ -3727,10 +3724,10 @@
         <v>31</v>
       </c>
       <c r="L28" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="M28" s="9" t="s">
         <v>238</v>
-      </c>
-      <c r="M28" s="9" t="s">
-        <v>239</v>
       </c>
       <c r="N28" s="10" t="s">
         <v>48</v>
@@ -3739,10 +3736,10 @@
         <v>49</v>
       </c>
       <c r="P28" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q28" s="10" t="s">
         <v>240</v>
-      </c>
-      <c r="Q28" s="10" t="s">
-        <v>241</v>
       </c>
       <c r="R28" s="10" t="s">
         <v>52</v>
@@ -3757,33 +3754,33 @@
         <v>41</v>
       </c>
       <c r="V28" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="W28" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="29" spans="1:23" ht="30" customHeight="1">
       <c r="A29" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="C29" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="D29" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="E29" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="E29" s="7" t="s">
+      <c r="F29" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="H29" s="7" t="s">
         <v>104</v>
@@ -3798,22 +3795,22 @@
         <v>31</v>
       </c>
       <c r="L29" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="M29" s="6" t="s">
         <v>249</v>
-      </c>
-      <c r="M29" s="6" t="s">
-        <v>250</v>
       </c>
       <c r="N29" s="7" t="s">
         <v>48</v>
       </c>
       <c r="O29" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="R29" s="7" t="s">
         <v>95</v>
@@ -3828,33 +3825,33 @@
         <v>41</v>
       </c>
       <c r="V29" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="W29" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="W29" s="7" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="30" spans="1:23" ht="45" customHeight="1">
       <c r="A30" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="B30" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="C30" s="10" t="s">
         <v>257</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>258</v>
       </c>
       <c r="D30" s="10" t="s">
         <v>198</v>
       </c>
       <c r="E30" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="F30" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="F30" s="10" t="s">
+      <c r="G30" s="10" t="s">
         <v>260</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>261</v>
       </c>
       <c r="H30" s="10" t="s">
         <v>104</v>
@@ -3878,13 +3875,13 @@
         <v>135</v>
       </c>
       <c r="O30" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="P30" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q30" s="10" t="s">
         <v>262</v>
-      </c>
-      <c r="Q30" s="10" t="s">
-        <v>263</v>
       </c>
       <c r="R30" s="10" t="s">
         <v>95</v>
@@ -3899,33 +3896,33 @@
         <v>41</v>
       </c>
       <c r="V30" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="W30" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="30" customHeight="1">
       <c r="A31" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="C31" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>101</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="H31" s="7" t="s">
         <v>104</v>
@@ -3940,10 +3937,10 @@
         <v>31</v>
       </c>
       <c r="L31" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="M31" s="6" t="s">
         <v>271</v>
-      </c>
-      <c r="M31" s="6" t="s">
-        <v>272</v>
       </c>
       <c r="N31" s="7" t="s">
         <v>34</v>
@@ -3952,10 +3949,10 @@
         <v>35</v>
       </c>
       <c r="P31" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="R31" s="7" t="s">
         <v>52</v>
@@ -3970,36 +3967,36 @@
         <v>41</v>
       </c>
       <c r="V31" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="W31" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="W31" s="7" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="30" customHeight="1">
       <c r="A32" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="B32" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="C32" s="10" t="s">
         <v>278</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>279</v>
       </c>
       <c r="D32" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E32" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="F32" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="F32" s="10" t="s">
+      <c r="G32" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="G32" s="10" t="s">
+      <c r="H32" s="10" t="s">
         <v>282</v>
-      </c>
-      <c r="H32" s="10" t="s">
-        <v>283</v>
       </c>
       <c r="I32" s="8" t="s">
         <v>23</v>
@@ -4011,10 +4008,10 @@
         <v>31</v>
       </c>
       <c r="L32" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="M32" s="9" t="s">
         <v>284</v>
-      </c>
-      <c r="M32" s="9" t="s">
-        <v>285</v>
       </c>
       <c r="N32" s="10" t="s">
         <v>34</v>
@@ -4023,10 +4020,10 @@
         <v>35</v>
       </c>
       <c r="P32" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Q32" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="R32" s="10" t="s">
         <v>153</v>
@@ -4041,36 +4038,36 @@
         <v>41</v>
       </c>
       <c r="V32" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="W32" s="10" t="s">
         <v>287</v>
-      </c>
-      <c r="W32" s="10" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="33" spans="1:23" ht="30" customHeight="1">
       <c r="A33" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="C33" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="G33" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="G33" s="7" t="s">
-        <v>294</v>
-      </c>
       <c r="H33" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>58</v>
@@ -4082,10 +4079,10 @@
         <v>31</v>
       </c>
       <c r="L33" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="M33" s="6" t="s">
         <v>295</v>
-      </c>
-      <c r="M33" s="6" t="s">
-        <v>296</v>
       </c>
       <c r="N33" s="7" t="s">
         <v>48</v>
@@ -4094,10 +4091,10 @@
         <v>136</v>
       </c>
       <c r="P33" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="R33" s="7" t="s">
         <v>153</v>
@@ -4112,33 +4109,33 @@
         <v>41</v>
       </c>
       <c r="V33" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="W33" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="W33" s="7" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="34" spans="1:23" ht="30" customHeight="1">
       <c r="A34" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="B34" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="C34" s="10" t="s">
         <v>302</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>303</v>
       </c>
       <c r="D34" s="10" t="s">
         <v>101</v>
       </c>
       <c r="E34" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="G34" s="10" t="s">
         <v>304</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>303</v>
-      </c>
-      <c r="G34" s="10" t="s">
-        <v>305</v>
       </c>
       <c r="H34" s="10" t="s">
         <v>104</v>
@@ -4153,10 +4150,10 @@
         <v>31</v>
       </c>
       <c r="L34" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="M34" s="9" t="s">
         <v>306</v>
-      </c>
-      <c r="M34" s="9" t="s">
-        <v>307</v>
       </c>
       <c r="N34" s="10" t="s">
         <v>34</v>
@@ -4165,10 +4162,10 @@
         <v>35</v>
       </c>
       <c r="P34" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q34" s="10" t="s">
         <v>308</v>
-      </c>
-      <c r="Q34" s="10" t="s">
-        <v>309</v>
       </c>
       <c r="R34" s="10" t="s">
         <v>95</v>
@@ -4183,36 +4180,36 @@
         <v>41</v>
       </c>
       <c r="V34" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="W34" s="10" t="s">
         <v>310</v>
-      </c>
-      <c r="W34" s="10" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="30" customHeight="1">
       <c r="A35" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="C35" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>112</v>
       </c>
       <c r="G35" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="H35" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>23</v>
@@ -4224,10 +4221,10 @@
         <v>31</v>
       </c>
       <c r="L35" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="M35" s="6" t="s">
         <v>318</v>
-      </c>
-      <c r="M35" s="6" t="s">
-        <v>319</v>
       </c>
       <c r="N35" s="7" t="s">
         <v>48</v>
@@ -4236,10 +4233,10 @@
         <v>35</v>
       </c>
       <c r="P35" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>321</v>
       </c>
       <c r="R35" s="7" t="s">
         <v>95</v>
@@ -4262,28 +4259,28 @@
     </row>
     <row r="36" spans="1:23" ht="30" customHeight="1">
       <c r="A36" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B36" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="C36" s="10" t="s">
         <v>313</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>314</v>
       </c>
       <c r="D36" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G36" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="H36" s="10" t="s">
         <v>316</v>
-      </c>
-      <c r="H36" s="10" t="s">
-        <v>317</v>
       </c>
       <c r="I36" s="8" t="s">
         <v>44</v>
@@ -4295,10 +4292,10 @@
         <v>31</v>
       </c>
       <c r="L36" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="M36" s="9" t="s">
         <v>324</v>
-      </c>
-      <c r="M36" s="9" t="s">
-        <v>325</v>
       </c>
       <c r="N36" s="10" t="s">
         <v>48</v>
@@ -4307,10 +4304,10 @@
         <v>49</v>
       </c>
       <c r="P36" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q36" s="10" t="s">
         <v>326</v>
-      </c>
-      <c r="Q36" s="10" t="s">
-        <v>327</v>
       </c>
       <c r="R36" s="10" t="s">
         <v>95</v>
@@ -4333,28 +4330,28 @@
     </row>
     <row r="37" spans="1:23" ht="30" customHeight="1">
       <c r="A37" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B37" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="F37" s="7" t="s">
-        <v>330</v>
-      </c>
       <c r="G37" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="H37" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="I37" s="5" t="s">
         <v>23</v>
@@ -4366,10 +4363,10 @@
         <v>31</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M37" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="N37" s="7" t="s">
         <v>48</v>
@@ -4378,10 +4375,10 @@
         <v>35</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="R37" s="7" t="s">
         <v>52</v>
@@ -4404,28 +4401,28 @@
     </row>
     <row r="38" spans="1:23" ht="30" customHeight="1">
       <c r="A38" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B38" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="C38" s="10" t="s">
         <v>313</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>314</v>
       </c>
       <c r="D38" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E38" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="F38" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="F38" s="10" t="s">
-        <v>335</v>
-      </c>
       <c r="G38" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="H38" s="10" t="s">
         <v>316</v>
-      </c>
-      <c r="H38" s="10" t="s">
-        <v>317</v>
       </c>
       <c r="I38" s="8" t="s">
         <v>44</v>
@@ -4437,10 +4434,10 @@
         <v>31</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M38" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="N38" s="10" t="s">
         <v>48</v>
@@ -4449,10 +4446,10 @@
         <v>49</v>
       </c>
       <c r="P38" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q38" s="10" t="s">
         <v>337</v>
-      </c>
-      <c r="Q38" s="10" t="s">
-        <v>338</v>
       </c>
       <c r="R38" s="10" t="s">
         <v>153</v>
@@ -4475,28 +4472,28 @@
     </row>
     <row r="39" spans="1:23" ht="30" customHeight="1">
       <c r="A39" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B39" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="C39" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E39" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="F39" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="F39" s="7" t="s">
-        <v>341</v>
-      </c>
       <c r="G39" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="H39" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="I39" s="5" t="s">
         <v>72</v>
@@ -4508,22 +4505,22 @@
         <v>31</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M39" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="N39" s="7" t="s">
         <v>48</v>
       </c>
       <c r="O39" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="P39" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q39" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>344</v>
       </c>
       <c r="R39" s="7" t="s">
         <v>95</v>
@@ -4546,28 +4543,28 @@
     </row>
     <row r="40" spans="1:23" ht="30" customHeight="1">
       <c r="A40" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B40" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="C40" s="10" t="s">
         <v>313</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>314</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E40" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="F40" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="F40" s="10" t="s">
-        <v>347</v>
-      </c>
       <c r="G40" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="H40" s="10" t="s">
         <v>316</v>
-      </c>
-      <c r="H40" s="10" t="s">
-        <v>317</v>
       </c>
       <c r="I40" s="8" t="s">
         <v>23</v>
@@ -4579,10 +4576,10 @@
         <v>31</v>
       </c>
       <c r="L40" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="M40" s="9" t="s">
         <v>348</v>
-      </c>
-      <c r="M40" s="9" t="s">
-        <v>349</v>
       </c>
       <c r="N40" s="10" t="s">
         <v>34</v>
@@ -4591,10 +4588,10 @@
         <v>35</v>
       </c>
       <c r="P40" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q40" s="10" t="s">
         <v>350</v>
-      </c>
-      <c r="Q40" s="10" t="s">
-        <v>351</v>
       </c>
       <c r="R40" s="10" t="s">
         <v>38</v>
@@ -4617,28 +4614,28 @@
     </row>
     <row r="41" spans="1:23" ht="30" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B41" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="C41" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="F41" s="7" t="s">
-        <v>353</v>
-      </c>
       <c r="G41" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="H41" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="H41" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="I41" s="5" t="s">
         <v>23</v>
@@ -4650,10 +4647,10 @@
         <v>31</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M41" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="N41" s="7" t="s">
         <v>34</v>
@@ -4662,10 +4659,10 @@
         <v>35</v>
       </c>
       <c r="P41" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q41" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>356</v>
       </c>
       <c r="R41" s="7" t="s">
         <v>38</v>
@@ -4688,28 +4685,28 @@
     </row>
     <row r="42" spans="1:23" ht="30" customHeight="1">
       <c r="A42" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B42" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="C42" s="10" t="s">
         <v>313</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>314</v>
       </c>
       <c r="D42" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E42" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="F42" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="F42" s="10" t="s">
-        <v>359</v>
-      </c>
       <c r="G42" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="H42" s="10" t="s">
         <v>316</v>
-      </c>
-      <c r="H42" s="10" t="s">
-        <v>317</v>
       </c>
       <c r="I42" s="8" t="s">
         <v>23</v>
@@ -4721,10 +4718,10 @@
         <v>31</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M42" s="9" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N42" s="10" t="s">
         <v>34</v>
@@ -4733,10 +4730,10 @@
         <v>35</v>
       </c>
       <c r="P42" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q42" s="10" t="s">
         <v>361</v>
-      </c>
-      <c r="Q42" s="10" t="s">
-        <v>362</v>
       </c>
       <c r="R42" s="10" t="s">
         <v>52</v>
@@ -4759,25 +4756,25 @@
     </row>
     <row r="43" spans="1:23" ht="30" customHeight="1">
       <c r="A43" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="B43" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="C43" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>365</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="F43" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="G43" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="H43" s="7" t="s">
         <v>104</v>
@@ -4792,10 +4789,10 @@
         <v>31</v>
       </c>
       <c r="L43" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="M43" s="6" t="s">
         <v>369</v>
-      </c>
-      <c r="M43" s="6" t="s">
-        <v>370</v>
       </c>
       <c r="N43" s="7" t="s">
         <v>48</v>
@@ -4804,10 +4801,10 @@
         <v>49</v>
       </c>
       <c r="P43" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q43" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>372</v>
       </c>
       <c r="R43" s="7" t="s">
         <v>95</v>
@@ -4822,33 +4819,33 @@
         <v>41</v>
       </c>
       <c r="V43" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="W43" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="W43" s="7" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="44" spans="1:23" ht="30" customHeight="1">
       <c r="A44" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="B44" s="9" t="s">
         <v>375</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="C44" s="10" t="s">
         <v>376</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="D44" s="10" t="s">
         <v>377</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="E44" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="E44" s="10" t="s">
+      <c r="F44" s="10" t="s">
         <v>379</v>
       </c>
-      <c r="F44" s="10" t="s">
+      <c r="G44" s="10" t="s">
         <v>380</v>
-      </c>
-      <c r="G44" s="10" t="s">
-        <v>381</v>
       </c>
       <c r="H44" s="10" t="s">
         <v>104</v>
@@ -4863,22 +4860,22 @@
         <v>31</v>
       </c>
       <c r="L44" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="M44" s="9" t="s">
         <v>382</v>
-      </c>
-      <c r="M44" s="9" t="s">
-        <v>383</v>
       </c>
       <c r="N44" s="10" t="s">
         <v>48</v>
       </c>
       <c r="O44" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="P44" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q44" s="10" t="s">
         <v>384</v>
-      </c>
-      <c r="Q44" s="10" t="s">
-        <v>385</v>
       </c>
       <c r="R44" s="10" t="s">
         <v>95</v>
@@ -4893,36 +4890,36 @@
         <v>41</v>
       </c>
       <c r="V44" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="W44" s="10" t="s">
         <v>386</v>
-      </c>
-      <c r="W44" s="10" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="45" spans="1:23" ht="30" customHeight="1">
       <c r="A45" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="B45" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="C45" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>390</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>101</v>
       </c>
       <c r="E45" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="G45" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="F45" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="G45" s="7" t="s">
+      <c r="H45" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="H45" s="7" t="s">
-        <v>393</v>
       </c>
       <c r="I45" s="5" t="s">
         <v>44</v>
@@ -4934,10 +4931,10 @@
         <v>31</v>
       </c>
       <c r="L45" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="M45" s="6" t="s">
         <v>394</v>
-      </c>
-      <c r="M45" s="6" t="s">
-        <v>395</v>
       </c>
       <c r="N45" s="7" t="s">
         <v>135</v>
@@ -4946,10 +4943,10 @@
         <v>49</v>
       </c>
       <c r="P45" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="Q45" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>397</v>
       </c>
       <c r="R45" s="7" t="s">
         <v>52</v>
@@ -4964,7 +4961,7 @@
         <v>41</v>
       </c>
       <c r="V45" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="W45" s="7" t="s">
         <v>204</v>
@@ -4972,28 +4969,28 @@
     </row>
     <row r="46" spans="1:23" ht="30" customHeight="1">
       <c r="A46" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="B46" s="9" t="s">
         <v>399</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="C46" s="10" t="s">
         <v>400</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="D46" s="10" t="s">
         <v>401</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="E46" s="10" t="s">
         <v>402</v>
       </c>
-      <c r="E46" s="10" t="s">
+      <c r="F46" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="G46" s="10" t="s">
         <v>403</v>
       </c>
-      <c r="F46" s="10" t="s">
-        <v>401</v>
-      </c>
-      <c r="G46" s="10" t="s">
-        <v>404</v>
-      </c>
       <c r="H46" s="10" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="I46" s="8" t="s">
         <v>23</v>
@@ -5005,10 +5002,10 @@
         <v>31</v>
       </c>
       <c r="L46" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="M46" s="9" t="s">
         <v>405</v>
-      </c>
-      <c r="M46" s="9" t="s">
-        <v>406</v>
       </c>
       <c r="N46" s="10" t="s">
         <v>34</v>
@@ -5017,10 +5014,10 @@
         <v>35</v>
       </c>
       <c r="P46" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="Q46" s="10" t="s">
         <v>407</v>
-      </c>
-      <c r="Q46" s="10" t="s">
-        <v>408</v>
       </c>
       <c r="R46" s="10" t="s">
         <v>52</v>
@@ -5035,33 +5032,33 @@
         <v>41</v>
       </c>
       <c r="V46" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="W46" s="10" t="s">
         <v>409</v>
-      </c>
-      <c r="W46" s="10" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="47" spans="1:23" ht="30" customHeight="1">
       <c r="A47" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="B47" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="C47" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>413</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>101</v>
       </c>
       <c r="E47" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="G47" s="7" t="s">
         <v>414</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>415</v>
       </c>
       <c r="H47" s="7" t="s">
         <v>104</v>
@@ -5076,10 +5073,10 @@
         <v>31</v>
       </c>
       <c r="L47" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="M47" s="6" t="s">
         <v>416</v>
-      </c>
-      <c r="M47" s="6" t="s">
-        <v>417</v>
       </c>
       <c r="N47" s="7" t="s">
         <v>48</v>
@@ -5088,10 +5085,10 @@
         <v>35</v>
       </c>
       <c r="P47" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q47" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>419</v>
       </c>
       <c r="R47" s="7" t="s">
         <v>38</v>
@@ -5106,36 +5103,36 @@
         <v>41</v>
       </c>
       <c r="V47" s="7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="W47" s="7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="48" spans="1:23" ht="30" customHeight="1">
       <c r="A48" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="B48" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="C48" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="D48" s="10" t="s">
         <v>423</v>
       </c>
-      <c r="D48" s="10" t="s">
+      <c r="E48" s="10" t="s">
         <v>424</v>
       </c>
-      <c r="E48" s="10" t="s">
+      <c r="F48" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="G48" s="10" t="s">
         <v>425</v>
       </c>
-      <c r="F48" s="10" t="s">
-        <v>423</v>
-      </c>
-      <c r="G48" s="10" t="s">
+      <c r="H48" s="10" t="s">
         <v>426</v>
-      </c>
-      <c r="H48" s="10" t="s">
-        <v>427</v>
       </c>
       <c r="I48" s="8" t="s">
         <v>23</v>
@@ -5147,10 +5144,10 @@
         <v>31</v>
       </c>
       <c r="L48" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="M48" s="9" t="s">
         <v>428</v>
-      </c>
-      <c r="M48" s="9" t="s">
-        <v>429</v>
       </c>
       <c r="N48" s="10" t="s">
         <v>48</v>
@@ -5159,7 +5156,7 @@
         <v>35</v>
       </c>
       <c r="P48" s="10" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="Q48" s="10" t="s">
         <v>152</v>
@@ -5177,36 +5174,36 @@
         <v>41</v>
       </c>
       <c r="V48" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="W48" s="10" t="s">
         <v>431</v>
-      </c>
-      <c r="W48" s="10" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="49" spans="1:23" ht="30" customHeight="1">
       <c r="A49" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="B49" s="6" t="s">
         <v>433</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="C49" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>435</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>101</v>
       </c>
       <c r="E49" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="G49" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="F49" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>437</v>
-      </c>
       <c r="H49" s="7" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="I49" s="5" t="s">
         <v>23</v>
@@ -5218,10 +5215,10 @@
         <v>31</v>
       </c>
       <c r="L49" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="M49" s="6" t="s">
         <v>438</v>
-      </c>
-      <c r="M49" s="6" t="s">
-        <v>439</v>
       </c>
       <c r="N49" s="7" t="s">
         <v>34</v>
@@ -5230,10 +5227,10 @@
         <v>35</v>
       </c>
       <c r="P49" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="Q49" s="7" t="s">
         <v>440</v>
-      </c>
-      <c r="Q49" s="7" t="s">
-        <v>441</v>
       </c>
       <c r="R49" s="7" t="s">
         <v>153</v>
@@ -5248,33 +5245,33 @@
         <v>41</v>
       </c>
       <c r="V49" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="W49" s="7" t="s">
         <v>442</v>
-      </c>
-      <c r="W49" s="7" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="50" spans="1:23" ht="30" customHeight="1">
       <c r="A50" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="B50" s="9" t="s">
         <v>444</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="C50" s="10" t="s">
         <v>445</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>446</v>
       </c>
       <c r="D50" s="10" t="s">
         <v>101</v>
       </c>
       <c r="E50" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="F50" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="F50" s="10" t="s">
+      <c r="G50" s="10" t="s">
         <v>448</v>
-      </c>
-      <c r="G50" s="10" t="s">
-        <v>449</v>
       </c>
       <c r="H50" s="10" t="s">
         <v>104</v>
@@ -5289,10 +5286,10 @@
         <v>31</v>
       </c>
       <c r="L50" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="M50" s="9" t="s">
         <v>450</v>
-      </c>
-      <c r="M50" s="9" t="s">
-        <v>451</v>
       </c>
       <c r="N50" s="10" t="s">
         <v>48</v>
@@ -5301,10 +5298,10 @@
         <v>35</v>
       </c>
       <c r="P50" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q50" s="10" t="s">
         <v>452</v>
-      </c>
-      <c r="Q50" s="10" t="s">
-        <v>453</v>
       </c>
       <c r="R50" s="10" t="s">
         <v>38</v>
@@ -5319,33 +5316,33 @@
         <v>41</v>
       </c>
       <c r="V50" s="10" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="W50" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="51" spans="1:23" ht="30" customHeight="1">
       <c r="A51" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="B51" s="6" t="s">
         <v>455</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="C51" s="7" t="s">
         <v>456</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>457</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E51" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="F51" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="F51" s="7" t="s">
+      <c r="G51" s="7" t="s">
         <v>459</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>460</v>
       </c>
       <c r="H51" s="7" t="s">
         <v>104</v>
@@ -5360,10 +5357,10 @@
         <v>31</v>
       </c>
       <c r="L51" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="M51" s="6" t="s">
         <v>461</v>
-      </c>
-      <c r="M51" s="6" t="s">
-        <v>462</v>
       </c>
       <c r="N51" s="7" t="s">
         <v>48</v>
@@ -5372,10 +5369,10 @@
         <v>35</v>
       </c>
       <c r="P51" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="Q51" s="7" t="s">
         <v>463</v>
-      </c>
-      <c r="Q51" s="7" t="s">
-        <v>464</v>
       </c>
       <c r="R51" s="7" t="s">
         <v>95</v>
@@ -5390,10 +5387,10 @@
         <v>41</v>
       </c>
       <c r="V51" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="W51" s="7" t="s">
         <v>465</v>
-      </c>
-      <c r="W51" s="7" t="s">
-        <v>466</v>
       </c>
     </row>
   </sheetData>
@@ -5444,7 +5441,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -5469,13 +5466,13 @@
     </row>
     <row r="2" spans="1:23">
       <c r="C2" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>469</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F2" s="3">
         <v>48</v>
@@ -5483,41 +5480,41 @@
     </row>
     <row r="3" spans="1:23">
       <c r="C3" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>471</v>
-      </c>
       <c r="E3" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>479</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="4" spans="1:23">
       <c r="C4" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>473</v>
-      </c>
       <c r="E4" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>481</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="5" spans="1:23">
       <c r="C5" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>475</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -5525,13 +5522,13 @@
     </row>
     <row r="6" spans="1:23">
       <c r="C6" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>477</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F6" s="3">
         <v>100</v>
@@ -5613,22 +5610,22 @@
         <v>23</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>485</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>486</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>184</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>488</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>489</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>104</v>
@@ -5637,16 +5634,16 @@
         <v>44</v>
       </c>
       <c r="J9" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="K9" s="5" t="s">
         <v>490</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="L9" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="M9" s="6" t="s">
         <v>492</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>493</v>
       </c>
       <c r="N9" s="7" t="s">
         <v>48</v>
@@ -5655,10 +5652,10 @@
         <v>49</v>
       </c>
       <c r="P9" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>494</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>495</v>
       </c>
       <c r="R9" s="7" t="s">
         <v>52</v>
@@ -5670,13 +5667,13 @@
         <v>40</v>
       </c>
       <c r="U9" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="V9" s="7" t="s">
         <v>496</v>
       </c>
-      <c r="V9" s="7" t="s">
+      <c r="W9" s="7" t="s">
         <v>497</v>
-      </c>
-      <c r="W9" s="7" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -5684,22 +5681,22 @@
         <v>44</v>
       </c>
       <c r="B10" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>219</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>220</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>184</v>
       </c>
       <c r="E10" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="F10" s="10" t="s">
         <v>499</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="G10" s="10" t="s">
         <v>500</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>501</v>
       </c>
       <c r="H10" s="10" t="s">
         <v>201</v>
@@ -5708,10 +5705,10 @@
         <v>44</v>
       </c>
       <c r="J10" s="8" t="s">
+        <v>489</v>
+      </c>
+      <c r="K10" s="8" t="s">
         <v>490</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>491</v>
       </c>
       <c r="L10" s="12" t="s">
         <v>119</v>
@@ -5726,10 +5723,10 @@
         <v>49</v>
       </c>
       <c r="P10" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="Q10" s="10" t="s">
         <v>502</v>
-      </c>
-      <c r="Q10" s="10" t="s">
-        <v>503</v>
       </c>
       <c r="R10" s="10" t="s">
         <v>38</v>
@@ -5741,13 +5738,13 @@
         <v>192</v>
       </c>
       <c r="U10" s="10" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="V10" s="10" t="s">
         <v>204</v>
       </c>
       <c r="W10" s="10" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="45" customHeight="1">
@@ -5755,40 +5752,40 @@
         <v>53</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>184</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>44</v>
       </c>
       <c r="J11" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="K11" s="5" t="s">
         <v>490</v>
       </c>
-      <c r="K11" s="5" t="s">
-        <v>491</v>
-      </c>
       <c r="L11" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="M11" s="6" t="s">
         <v>225</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>226</v>
       </c>
       <c r="N11" s="7" t="s">
         <v>48</v>
@@ -5797,28 +5794,28 @@
         <v>49</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>506</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>507</v>
       </c>
       <c r="R11" s="7" t="s">
         <v>52</v>
       </c>
       <c r="S11" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="T11" s="7" t="s">
         <v>192</v>
       </c>
       <c r="U11" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="V11" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="W11" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="W11" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="30" customHeight="1">
@@ -5826,40 +5823,40 @@
         <v>58</v>
       </c>
       <c r="B12" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>508</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>509</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>184</v>
       </c>
       <c r="E12" s="10" t="s">
+        <v>509</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="G12" s="10" t="s">
         <v>510</v>
       </c>
-      <c r="F12" s="10" t="s">
-        <v>509</v>
-      </c>
-      <c r="G12" s="10" t="s">
+      <c r="H12" s="10" t="s">
         <v>511</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>512</v>
       </c>
       <c r="I12" s="8" t="s">
         <v>23</v>
       </c>
       <c r="J12" s="8" t="s">
+        <v>489</v>
+      </c>
+      <c r="K12" s="8" t="s">
         <v>490</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>491</v>
       </c>
       <c r="L12" s="12" t="s">
         <v>119</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="N12" s="10" t="s">
         <v>34</v>
@@ -5868,10 +5865,10 @@
         <v>35</v>
       </c>
       <c r="P12" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="Q12" s="10" t="s">
         <v>514</v>
-      </c>
-      <c r="Q12" s="10" t="s">
-        <v>515</v>
       </c>
       <c r="R12" s="10" t="s">
         <v>38</v>
@@ -5883,13 +5880,13 @@
         <v>192</v>
       </c>
       <c r="U12" s="10" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="V12" s="10" t="s">
         <v>194</v>
       </c>
       <c r="W12" s="10" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -5897,34 +5894,34 @@
         <v>64</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>517</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>518</v>
-      </c>
       <c r="G13" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="H13" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>23</v>
       </c>
       <c r="J13" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="K13" s="5" t="s">
         <v>490</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>491</v>
       </c>
       <c r="L13" s="11" t="s">
         <v>119</v>
@@ -5939,10 +5936,10 @@
         <v>35</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>519</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>520</v>
       </c>
       <c r="R13" s="7" t="s">
         <v>95</v>
@@ -5954,7 +5951,7 @@
         <v>40</v>
       </c>
       <c r="U13" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="V13" s="7" t="s">
         <v>122</v>
@@ -5986,22 +5983,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="11" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
   </sheetData>

--- a/latest/BoM/Positional/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Positional/pedalboard-hw-bom.xlsx
@@ -370,7 +370,7 @@
     <t>D10</t>
   </si>
   <si>
-    <t>LED G</t>
+    <t>LED R</t>
   </si>
   <si>
     <t>LED_0805_2012Metric</t>
@@ -1450,7 +1450,7 @@
     <t>KiCad Version:</t>
   </si>
   <si>
-    <t>7.0.8-7.0.8~ubuntu23.04.1</t>
+    <t>7.0.9-7.0.9~ubuntu23.04.1</t>
   </si>
   <si>
     <t>Component Groups:</t>

--- a/latest/BoM/Positional/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Positional/pedalboard-hw-bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="520">
   <si>
     <t>Row</t>
   </si>
@@ -103,10 +103,10 @@
     <t>Device</t>
   </si>
   <si>
-    <t>C23</t>
-  </si>
-  <si>
-    <t>22p</t>
+    <t>C7 C18</t>
+  </si>
+  <si>
+    <t>27p</t>
   </si>
   <si>
     <t>C_0805_2012Metric</t>
@@ -115,420 +115,411 @@
     <t>Capacitor_SMD</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>https://www.samsungsem.com/resources/file/global/support/product_catalog/MLCC.pdf</t>
   </si>
   <si>
-    <t>https://www.digikey.ch/de/products/detail/samsung-electro-mechanics/CL21C220JBANFNC/3888264</t>
+    <t>https://www.digikey.ch/de/products/detail/samsung-electro-mechanics/CL21C270JCANNNC/3888280</t>
+  </si>
+  <si>
+    <t>/MIDI</t>
+  </si>
+  <si>
+    <t>pedalboard-hw(2)</t>
+  </si>
+  <si>
+    <t>95.1944</t>
+  </si>
+  <si>
+    <t>78.4944</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
+    <t>SMD</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>2.9000</t>
+  </si>
+  <si>
+    <t>1.4500</t>
+  </si>
+  <si>
+    <t>Unpolarized capacitor</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>C41 C43</t>
+  </si>
+  <si>
+    <t>1n</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>/Power Supply</t>
   </si>
   <si>
+    <t>141.6344</t>
+  </si>
+  <si>
+    <t>83.8844</t>
+  </si>
+  <si>
+    <t>0.0000</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>C42</t>
+  </si>
+  <si>
+    <t>1.2n</t>
+  </si>
+  <si>
+    <t>http://www.farnell.com/datasheets/2734135.pdf?_ga=2.259347658.1738794919.1588350964-1787849031.1568210898&amp;_gac=1.15394434.1588350964.EAIaIQobChMIgrHHs4yT6QIVxevtCh39TA_nEAAYASAAEgK8PfD_BwE</t>
+  </si>
+  <si>
     <t>pedalboard-hw(1)</t>
   </si>
   <si>
-    <t>137.2381</t>
-  </si>
-  <si>
-    <t>76.2506</t>
+    <t>142.6644</t>
+  </si>
+  <si>
+    <t>81.1744</t>
   </si>
   <si>
     <t>90.0000</t>
   </si>
   <si>
-    <t>top</t>
-  </si>
-  <si>
-    <t>SMD</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>2.9000</t>
-  </si>
-  <si>
-    <t>1.4500</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>C7 C18</t>
-  </si>
-  <si>
-    <t>27p</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/samsung-electro-mechanics/CL21C270JCANNNC/3888280</t>
-  </si>
-  <si>
-    <t>/MIDI</t>
-  </si>
-  <si>
-    <t>pedalboard-hw(2)</t>
-  </si>
-  <si>
-    <t>95.1944</t>
-  </si>
-  <si>
-    <t>78.4944</t>
-  </si>
-  <si>
-    <t>180.0000</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>C24</t>
-  </si>
-  <si>
-    <t>2n2</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/samsung-electro-mechanics/CL21B222KBANNNC/3886829</t>
-  </si>
-  <si>
-    <t>139.3381</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
-    <t>C29 C30</t>
-  </si>
-  <si>
-    <t>10n</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/samsung-electro-mechanics/CL21B103KBANNNC/3886673</t>
-  </si>
-  <si>
-    <t>140.4944</t>
-  </si>
-  <si>
-    <t>86.5944</t>
+    <t>C1 C5 C6 C8 C9 C10 C11 C14 C15 C16 C17 C20 C21 C22 C39 C40</t>
+  </si>
+  <si>
+    <t>100n</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/samsung-electro-mechanics/CL21B104KBCNNNC/3886661</t>
+  </si>
+  <si>
+    <t>pedalboard-hw(16)</t>
+  </si>
+  <si>
+    <t>30.0944</t>
+  </si>
+  <si>
+    <t>104.8944</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>C1 C5 C6 C8 C9 C10 C11 C14 C15 C16 C17 C20 C21 C22 C25</t>
-  </si>
-  <si>
-    <t>100n</t>
+    <t>C12 C13</t>
+  </si>
+  <si>
+    <t>1u</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/samsung-electro-mechanics/CL21B105KAFNNNE/3886724</t>
+  </si>
+  <si>
+    <t>84.1944</t>
+  </si>
+  <si>
+    <t>90.4944</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>C2 C3 C19 C23 C28 C33 C34 C35 C36 C37 C38 C44 C45 C46 C47</t>
+  </si>
+  <si>
+    <t>10u 35v</t>
   </si>
   <si>
     <t>15</t>
   </si>
   <si>
-    <t>https://www.digikey.ch/de/products/detail/samsung-electro-mechanics/CL21B104KBCNNNC/3886661</t>
+    <t>https://www.murata.com/en-global/products/productdetail.aspx?partno=GRM21BC8YA106ME11%23</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/samsung-electro-mechanics/CL21A226MAYNNNE/10479857</t>
   </si>
   <si>
     <t>pedalboard-hw(15)</t>
   </si>
   <si>
-    <t>30.0944</t>
-  </si>
-  <si>
-    <t>104.8944</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>C12 C13</t>
-  </si>
-  <si>
-    <t>1u</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/samsung-electro-mechanics/CL21B105KAFNNNE/3886724</t>
-  </si>
-  <si>
-    <t>84.1944</t>
-  </si>
-  <si>
-    <t>90.4944</t>
+    <t>146.8244</t>
+  </si>
+  <si>
+    <t>100.2644</t>
   </si>
   <si>
     <t>7</t>
   </si>
   <si>
-    <t>C2 C4 C19 C26 C27 C28 C31 C32</t>
-  </si>
-  <si>
-    <t>22u</t>
+    <t>Polarized capacitor</t>
+  </si>
+  <si>
+    <t>CP</t>
+  </si>
+  <si>
+    <t>C48</t>
+  </si>
+  <si>
+    <t>100u</t>
+  </si>
+  <si>
+    <t>CP_EIA-7343-31_Kemet-D</t>
+  </si>
+  <si>
+    <t>Capacitor_Tantalum_SMD</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t>136.2544</t>
+  </si>
+  <si>
+    <t>75.8644</t>
+  </si>
+  <si>
+    <t>8.3000</t>
+  </si>
+  <si>
+    <t>2.5500</t>
   </si>
   <si>
     <t>8</t>
   </si>
   <si>
-    <t>https://www.digikey.ch/de/products/detail/samsung-electro-mechanics/CL21A226MAYNNNE/10479857</t>
-  </si>
-  <si>
-    <t>pedalboard-hw(8)</t>
-  </si>
-  <si>
-    <t>137.2819</t>
-  </si>
-  <si>
-    <t>104.3944</t>
-  </si>
-  <si>
-    <t>Polarized capacitor</t>
-  </si>
-  <si>
-    <t>C_Polarized</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>270u</t>
-  </si>
-  <si>
-    <t>CP_Elec_10x10</t>
-  </si>
-  <si>
-    <t>https://connect.kemet.com:7667/gateway/IntelliData-ComponentDocumentation/1.0/download/datasheet/A768MS277M1GLAE022</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/kemet/A768MS277M1GLAE022/12707654</t>
-  </si>
-  <si>
-    <t>143.5619</t>
-  </si>
-  <si>
-    <t>92.9944</t>
-  </si>
-  <si>
-    <t>0.0000</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>2.5000</t>
+    <t>CM4</t>
+  </si>
+  <si>
+    <t>pedalboard</t>
+  </si>
+  <si>
+    <t>CM1</t>
+  </si>
+  <si>
+    <t>Raspberry-Pi-4-Compute-Module</t>
+  </si>
+  <si>
+    <t>Pedalboard Library</t>
+  </si>
+  <si>
+    <t>https://www.hirose.com/en/product/document?clcode=&amp;productname=&amp;series=DF40&amp;documenttype=Catalog&amp;lang=en&amp;documentid=en_DF40_CAT</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/hirose-electric-co-ltd/DF40C-100DS-0-4V-51/1969476</t>
+  </si>
+  <si>
+    <t>/Audio</t>
+  </si>
+  <si>
+    <t>70.9944</t>
+  </si>
+  <si>
+    <t>67.4944</t>
+  </si>
+  <si>
+    <t>37.7000</t>
+  </si>
+  <si>
+    <t>50.7000</t>
   </si>
   <si>
     <t>9</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>CM4</t>
-  </si>
-  <si>
-    <t>pedalboard</t>
-  </si>
-  <si>
-    <t>CM1</t>
-  </si>
-  <si>
-    <t>Raspberry-Pi-4-Compute-Module</t>
-  </si>
-  <si>
-    <t>Pedalboard Library</t>
-  </si>
-  <si>
-    <t>https://www.hirose.com/en/product/document?clcode=&amp;productname=&amp;series=DF40&amp;documenttype=Catalog&amp;lang=en&amp;documentid=en_DF40_CAT</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/hirose-electric-co-ltd/DF40C-100DS-0-4V-51/1969476</t>
-  </si>
-  <si>
-    <t>/Audio</t>
-  </si>
-  <si>
-    <t>70.9944</t>
-  </si>
-  <si>
-    <t>67.4944</t>
-  </si>
-  <si>
-    <t>37.7000</t>
-  </si>
-  <si>
-    <t>50.7000</t>
+    <t>Light emitting diode</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>LED R</t>
+  </si>
+  <si>
+    <t>LED_0805_2012Metric</t>
+  </si>
+  <si>
+    <t>LED_SMD</t>
+  </si>
+  <si>
+    <t>31.4944</t>
+  </si>
+  <si>
+    <t>62.9944</t>
+  </si>
+  <si>
+    <t>2.8500</t>
+  </si>
+  <si>
+    <t>1.4000</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
-    <t>Light emitting diode</t>
-  </si>
-  <si>
-    <t>LED</t>
-  </si>
-  <si>
-    <t>D10</t>
-  </si>
-  <si>
-    <t>LED R</t>
-  </si>
-  <si>
-    <t>LED_0805_2012Metric</t>
-  </si>
-  <si>
-    <t>LED_SMD</t>
-  </si>
-  <si>
-    <t>~</t>
-  </si>
-  <si>
-    <t>31.4944</t>
-  </si>
-  <si>
-    <t>62.9944</t>
-  </si>
-  <si>
-    <t>2.8500</t>
-  </si>
-  <si>
-    <t>1.4000</t>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>LED Y</t>
+  </si>
+  <si>
+    <t>60.9944</t>
   </si>
   <si>
     <t>11</t>
   </si>
   <si>
-    <t>D9</t>
-  </si>
-  <si>
-    <t>LED Y</t>
-  </si>
-  <si>
-    <t>60.9944</t>
+    <t>RGB LED with integrated controller</t>
+  </si>
+  <si>
+    <t>SK6812</t>
+  </si>
+  <si>
+    <t>D2 D3 D4 D7</t>
+  </si>
+  <si>
+    <t>LED_SK6812_PLCC4_5.0x5.0mm_P3.2mm</t>
+  </si>
+  <si>
+    <t>https://cdn-shop.adafruit.com/product-files/1138/SK6812+LED+datasheet+.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/adafruit-industries-llc/1655/5154679</t>
+  </si>
+  <si>
+    <t>/LEDs</t>
+  </si>
+  <si>
+    <t>pedalboard-hw(4)</t>
+  </si>
+  <si>
+    <t>49.4944</t>
+  </si>
+  <si>
+    <t>82.9944</t>
+  </si>
+  <si>
+    <t>6.4000</t>
+  </si>
+  <si>
+    <t>4.2000</t>
   </si>
   <si>
     <t>12</t>
   </si>
   <si>
-    <t>RGB LED with integrated controller</t>
-  </si>
-  <si>
-    <t>SK6812</t>
-  </si>
-  <si>
-    <t>D2 D3 D4 D7</t>
-  </si>
-  <si>
-    <t>LED_SK6812_PLCC4_5.0x5.0mm_P3.2mm</t>
-  </si>
-  <si>
-    <t>https://cdn-shop.adafruit.com/product-files/1138/SK6812+LED+datasheet+.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/adafruit-industries-llc/1655/5154679</t>
-  </si>
-  <si>
-    <t>/LEDs</t>
-  </si>
-  <si>
-    <t>pedalboard-hw(4)</t>
-  </si>
-  <si>
-    <t>49.4944</t>
-  </si>
-  <si>
-    <t>82.9944</t>
-  </si>
-  <si>
-    <t>6.4000</t>
-  </si>
-  <si>
-    <t>4.2000</t>
+    <t>100V 0.15A standard switching diode, DO-35</t>
+  </si>
+  <si>
+    <t>1N4148</t>
+  </si>
+  <si>
+    <t>Diode</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>SM4007</t>
+  </si>
+  <si>
+    <t>D_SOD-123F</t>
+  </si>
+  <si>
+    <t>Diode_SMD</t>
+  </si>
+  <si>
+    <t>https://www.mccsemi.com/pdf/Products/SM4001PL-SM4007PL(SOD-123FL).PDF</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/micro-commercial-co/SM4007PL-TP/1793250</t>
+  </si>
+  <si>
+    <t>26.5944</t>
+  </si>
+  <si>
+    <t>98.5944</t>
+  </si>
+  <si>
+    <t>270.0000</t>
+  </si>
+  <si>
+    <t>3.9000</t>
+  </si>
+  <si>
+    <t>1.1000</t>
   </si>
   <si>
     <t>13</t>
   </si>
   <si>
-    <t>100V 0.15A standard switching diode, DO-35</t>
-  </si>
-  <si>
-    <t>1N4148</t>
-  </si>
-  <si>
-    <t>Diode</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>SM4007</t>
-  </si>
-  <si>
-    <t>D_SOD-123F</t>
-  </si>
-  <si>
-    <t>Diode_SMD</t>
-  </si>
-  <si>
-    <t>https://www.mccsemi.com/pdf/Products/SM4001PL-SM4007PL(SOD-123FL).PDF</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/micro-commercial-co/SM4007PL-TP/1793250</t>
-  </si>
-  <si>
-    <t>26.5944</t>
-  </si>
-  <si>
-    <t>98.5944</t>
-  </si>
-  <si>
-    <t>270.0000</t>
-  </si>
-  <si>
-    <t>3.9000</t>
-  </si>
-  <si>
-    <t>1.1000</t>
+    <t>Schottky diode, small symbol</t>
+  </si>
+  <si>
+    <t>D_Schottky_Small</t>
+  </si>
+  <si>
+    <t>D5 D8</t>
+  </si>
+  <si>
+    <t>SS34HF</t>
+  </si>
+  <si>
+    <t>D_SMA</t>
+  </si>
+  <si>
+    <t>https://www.comchiptech.com/admin/files/product/20190514101641.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/comchip-technology/SS34-HF/10279693</t>
+  </si>
+  <si>
+    <t>121.8944</t>
+  </si>
+  <si>
+    <t>74.0444</t>
+  </si>
+  <si>
+    <t>6.5000</t>
+  </si>
+  <si>
+    <t>1.8000</t>
   </si>
   <si>
     <t>14</t>
   </si>
   <si>
-    <t>Schottky diode, small symbol</t>
-  </si>
-  <si>
-    <t>D_Schottky_Small</t>
-  </si>
-  <si>
-    <t>D5 D6 D8</t>
-  </si>
-  <si>
-    <t>SS34HF</t>
-  </si>
-  <si>
-    <t>D_SMA</t>
-  </si>
-  <si>
-    <t>https://www.comchiptech.com/admin/files/product/20190514101641.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/comchip-technology/SS34-HF/10279693</t>
-  </si>
-  <si>
-    <t>pedalboard-hw(3)</t>
-  </si>
-  <si>
-    <t>121.8944</t>
-  </si>
-  <si>
-    <t>74.0444</t>
-  </si>
-  <si>
-    <t>6.5000</t>
-  </si>
-  <si>
-    <t>1.8000</t>
-  </si>
-  <si>
     <t>Resettable fuse, polymeric positive temperature coefficient</t>
   </si>
   <si>
@@ -565,9 +556,6 @@
     <t>3.4000</t>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
     <t>DC Barrel Jack with an internal switch</t>
   </si>
   <si>
@@ -607,613 +595,649 @@
     <t>7.6000</t>
   </si>
   <si>
+    <t>Generic connector, single row, 01x02, script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+  </si>
+  <si>
+    <t>Conn_01x02</t>
+  </si>
+  <si>
+    <t>Connector_Generic</t>
+  </si>
+  <si>
+    <t>J11</t>
+  </si>
+  <si>
+    <t>PinHeader_1x02_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>Connector_PinHeader_2.54mm</t>
+  </si>
+  <si>
+    <t>70.5944</t>
+  </si>
+  <si>
+    <t>76.9944</t>
+  </si>
+  <si>
+    <t>1.7000</t>
+  </si>
+  <si>
+    <t>4.2400</t>
+  </si>
+  <si>
     <t>17</t>
   </si>
   <si>
-    <t>Generic connector, single row, 01x02, script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
-    <t>Conn_01x02</t>
-  </si>
-  <si>
-    <t>Connector_Generic</t>
-  </si>
-  <si>
-    <t>J11</t>
-  </si>
-  <si>
-    <t>PinHeader_1x02_P2.54mm_Vertical</t>
-  </si>
-  <si>
-    <t>Connector_PinHeader_2.54mm</t>
-  </si>
-  <si>
-    <t>70.5944</t>
-  </si>
-  <si>
-    <t>76.9944</t>
-  </si>
-  <si>
-    <t>1.7000</t>
-  </si>
-  <si>
-    <t>4.2400</t>
+    <t>Sound Card (Based on HifiBerry DAC/ADC pro)</t>
+  </si>
+  <si>
+    <t>Raspberry_Sound_Card</t>
+  </si>
+  <si>
+    <t>J25</t>
+  </si>
+  <si>
+    <t>HiFi Berry</t>
+  </si>
+  <si>
+    <t>HiFi Berry DAC ADC+</t>
+  </si>
+  <si>
+    <t>102.2444</t>
+  </si>
+  <si>
+    <t>62.6188</t>
+  </si>
+  <si>
+    <t>bottom</t>
+  </si>
+  <si>
+    <t>41.4500</t>
+  </si>
+  <si>
+    <t>55.0150</t>
   </si>
   <si>
     <t>18</t>
   </si>
   <si>
-    <t>Sound Card (Based on HifiBerry DAC/ADC pro)</t>
-  </si>
-  <si>
-    <t>Raspberry_Sound_Card</t>
-  </si>
-  <si>
-    <t>J25</t>
-  </si>
-  <si>
-    <t>HiFi Berry</t>
-  </si>
-  <si>
-    <t>HiFi Berry DAC ADC+</t>
-  </si>
-  <si>
-    <t>102.2444</t>
-  </si>
-  <si>
-    <t>62.6188</t>
-  </si>
-  <si>
-    <t>bottom</t>
-  </si>
-  <si>
-    <t>41.4500</t>
-  </si>
-  <si>
-    <t>55.0150</t>
+    <t>Generic connector, single row, 01x03, script generated</t>
+  </si>
+  <si>
+    <t>Conn_01x03_Pin</t>
+  </si>
+  <si>
+    <t>J26</t>
+  </si>
+  <si>
+    <t>JST XH 3</t>
+  </si>
+  <si>
+    <t>JST_XH_B3B-XH-A_1x03_P2.50mm_Vertical</t>
+  </si>
+  <si>
+    <t>Connector_JST</t>
+  </si>
+  <si>
+    <t>https://app.adam-tech.com/products/download/data_sheet/240508/25sh-b-xx-ts-data-sheet.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/adam-tech/25SH-B-03-TS/9830417</t>
+  </si>
+  <si>
+    <t>24.8944</t>
+  </si>
+  <si>
+    <t>3.8944</t>
+  </si>
+  <si>
+    <t>6.7000</t>
+  </si>
+  <si>
+    <t>1.9500</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
-    <t>Generic connector, single row, 01x03, script generated</t>
-  </si>
-  <si>
-    <t>Conn_01x03_Pin</t>
-  </si>
-  <si>
-    <t>J26</t>
-  </si>
-  <si>
-    <t>JST XH 3</t>
-  </si>
-  <si>
-    <t>JST_XH_B3B-XH-A_1x03_P2.50mm_Vertical</t>
-  </si>
-  <si>
-    <t>Connector_JST</t>
-  </si>
-  <si>
-    <t>https://app.adam-tech.com/products/download/data_sheet/240508/25sh-b-xx-ts-data-sheet.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/adam-tech/25SH-B-03-TS/9830417</t>
-  </si>
-  <si>
-    <t>24.8944</t>
-  </si>
-  <si>
-    <t>3.8944</t>
-  </si>
-  <si>
-    <t>6.7000</t>
-  </si>
-  <si>
-    <t>1.9500</t>
+    <t>Audio Jack, 3 Poles (Stereo / TRS), Switched TR Poles (Normalling)</t>
+  </si>
+  <si>
+    <t>AudioJack3_SwitchTR</t>
+  </si>
+  <si>
+    <t>Connector_Audio</t>
+  </si>
+  <si>
+    <t>J2 J4</t>
+  </si>
+  <si>
+    <t>Jack 3.5mm</t>
+  </si>
+  <si>
+    <t>Jack_3.5mm_CUI_SJ1-3525N_Horizontal</t>
+  </si>
+  <si>
+    <t>https://www.cuidevices.com/product/resource/sj1-352xng.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/cui-devices/SJ1-3525NG/738690</t>
+  </si>
+  <si>
+    <t>71.9889</t>
+  </si>
+  <si>
+    <t>106.4944</t>
+  </si>
+  <si>
+    <t>11.2000</t>
   </si>
   <si>
     <t>20</t>
   </si>
   <si>
-    <t>Audio Jack, 3 Poles (Stereo / TRS), Switched TR Poles (Normalling)</t>
-  </si>
-  <si>
-    <t>AudioJack3_SwitchTR</t>
-  </si>
-  <si>
-    <t>Connector_Audio</t>
-  </si>
-  <si>
-    <t>J2 J4</t>
-  </si>
-  <si>
-    <t>Jack 3.5mm</t>
-  </si>
-  <si>
-    <t>Jack_3.5mm_CUI_SJ1-3525N_Horizontal</t>
-  </si>
-  <si>
-    <t>https://www.cuidevices.com/product/resource/sj1-352xng.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/cui-devices/SJ1-3525NG/738690</t>
-  </si>
-  <si>
-    <t>71.9889</t>
-  </si>
-  <si>
-    <t>106.4944</t>
-  </si>
-  <si>
-    <t>11.2000</t>
+    <t>M Series, 6.35mm (1/4in) stereo jack, switched, with chrome ferrule and straight PCB pins</t>
+  </si>
+  <si>
+    <t>NMJ6HCD2</t>
+  </si>
+  <si>
+    <t>J7 J9 J16 J17 J18 J20</t>
+  </si>
+  <si>
+    <t>Jack 6.35mm</t>
+  </si>
+  <si>
+    <t>Jack_6.35mm_Horizontal</t>
+  </si>
+  <si>
+    <t>https://www.schurter.com/en/datasheet/typ_4833.2320.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/schurter-inc/4833-2320/2644235</t>
+  </si>
+  <si>
+    <t>pedalboard-hw(6)</t>
+  </si>
+  <si>
+    <t>157.6094</t>
+  </si>
+  <si>
+    <t>97.1944</t>
+  </si>
+  <si>
+    <t>15.7000</t>
+  </si>
+  <si>
+    <t>19.2300</t>
   </si>
   <si>
     <t>21</t>
   </si>
   <si>
-    <t>M Series, 6.35mm (1/4in) stereo jack, switched, with chrome ferrule and straight PCB pins</t>
-  </si>
-  <si>
-    <t>NMJ6HCD2</t>
-  </si>
-  <si>
-    <t>J7 J9 J16 J17 J18 J20</t>
-  </si>
-  <si>
-    <t>Jack 6.35mm</t>
-  </si>
-  <si>
-    <t>Jack_6.35mm_Horizontal</t>
-  </si>
-  <si>
-    <t>https://www.schurter.com/en/datasheet/typ_4833.2320.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/schurter-inc/4833-2320/2644235</t>
-  </si>
-  <si>
-    <t>pedalboard-hw(6)</t>
-  </si>
-  <si>
-    <t>157.6094</t>
-  </si>
-  <si>
-    <t>97.1944</t>
-  </si>
-  <si>
-    <t>15.7000</t>
-  </si>
-  <si>
-    <t>19.2300</t>
+    <t>Generic connector, double row, 02x02, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+  </si>
+  <si>
+    <t>Conn_02x02_Odd_Even</t>
+  </si>
+  <si>
+    <t>J8 J13 J14 J19 J21 J22</t>
+  </si>
+  <si>
+    <t>LED-Ring</t>
+  </si>
+  <si>
+    <t>Led-Ring</t>
+  </si>
+  <si>
+    <t>10.9944</t>
+  </si>
+  <si>
+    <t>74.9944</t>
+  </si>
+  <si>
+    <t>3.3500</t>
   </si>
   <si>
     <t>22</t>
   </si>
   <si>
-    <t>Generic connector, double row, 02x02, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
-    <t>Conn_02x02_Odd_Even</t>
-  </si>
-  <si>
-    <t>J8 J13 J14 J19 J21 J22</t>
-  </si>
-  <si>
-    <t>LED-Ring</t>
-  </si>
-  <si>
-    <t>Led-Ring</t>
-  </si>
-  <si>
-    <t>10.9944</t>
-  </si>
-  <si>
-    <t>74.9944</t>
-  </si>
-  <si>
-    <t>3.3500</t>
+    <t>Vertical USB B Micro Connector</t>
+  </si>
+  <si>
+    <t>USB_B_Micro-Connector</t>
+  </si>
+  <si>
+    <t>J10</t>
+  </si>
+  <si>
+    <t>USB_B_Micro</t>
+  </si>
+  <si>
+    <t>USB_Micro-B_Wuerth_614105150721_Vertical</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/components/products/datasheet/614105150721.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/614105150721/5047749</t>
+  </si>
+  <si>
+    <t>63.5344</t>
+  </si>
+  <si>
+    <t>74.7044</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t>2.1250</t>
   </si>
   <si>
     <t>23</t>
   </si>
   <si>
-    <t>Vertical USB B Micro Connector</t>
-  </si>
-  <si>
-    <t>USB_B_Micro-Connector</t>
-  </si>
-  <si>
-    <t>J10</t>
-  </si>
-  <si>
-    <t>USB_B_Micro</t>
-  </si>
-  <si>
-    <t>USB_Micro-B_Wuerth_614105150721_Vertical</t>
-  </si>
-  <si>
-    <t>https://www.we-online.com/components/products/datasheet/614105150721.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/614105150721/5047749</t>
-  </si>
-  <si>
-    <t>63.5344</t>
-  </si>
-  <si>
-    <t>74.7044</t>
-  </si>
-  <si>
-    <t>8.0000</t>
-  </si>
-  <si>
-    <t>2.1250</t>
+    <t>Inductor with ferrite core</t>
+  </si>
+  <si>
+    <t>L_Ferrite</t>
+  </si>
+  <si>
+    <t>L1 L2 L3 L4</t>
+  </si>
+  <si>
+    <t>120_100MHz</t>
+  </si>
+  <si>
+    <t>L_0603_1608Metric</t>
+  </si>
+  <si>
+    <t>Inductor_SMD</t>
+  </si>
+  <si>
+    <t>https://www.murata.com/products/productdata/8796738650142/ENFA0003.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/murata-electronics/BLM18KG121TN1D/1982762</t>
+  </si>
+  <si>
+    <t>24.6944</t>
+  </si>
+  <si>
+    <t>99.2444</t>
+  </si>
+  <si>
+    <t>2.4500</t>
+  </si>
+  <si>
+    <t>0.9500</t>
   </si>
   <si>
     <t>24</t>
   </si>
   <si>
-    <t>Inductor</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>L5</t>
-  </si>
-  <si>
-    <t>12u</t>
-  </si>
-  <si>
-    <t>L_Coilcraft_XAL6030-XXX</t>
-  </si>
-  <si>
-    <t>Inductor_SMD</t>
-  </si>
-  <si>
-    <t>https://abracon.com/Magnetics/power/ASPI-6045S.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/abracon-llc/ASPI-6045S-120M-T/2343391</t>
-  </si>
-  <si>
-    <t>145.1944</t>
-  </si>
-  <si>
-    <t>5.4700</t>
-  </si>
-  <si>
-    <t>5.5000</t>
+    <t>Inductor symbol for simulation only</t>
+  </si>
+  <si>
+    <t>INDUCTOR</t>
+  </si>
+  <si>
+    <t>pspice</t>
+  </si>
+  <si>
+    <t>L6</t>
+  </si>
+  <si>
+    <t>SRN6045TA-3R3Y</t>
+  </si>
+  <si>
+    <t>L_Bourns_SRN6045TA</t>
+  </si>
+  <si>
+    <t>https://www.bourns.com/docs/Product-Datasheets/SRN6045TA.pdf</t>
+  </si>
+  <si>
+    <t>146.8944</t>
+  </si>
+  <si>
+    <t>80.8544</t>
+  </si>
+  <si>
+    <t>5.1000</t>
   </si>
   <si>
     <t>25</t>
   </si>
   <si>
-    <t>Inductor with ferrite core</t>
-  </si>
-  <si>
-    <t>L_Ferrite</t>
-  </si>
-  <si>
-    <t>L1 L2 L3 L4</t>
-  </si>
-  <si>
-    <t>120_100MHz</t>
-  </si>
-  <si>
-    <t>L_0603_1608Metric</t>
-  </si>
-  <si>
-    <t>https://www.murata.com/products/productdata/8796738650142/ENFA0003.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/murata-electronics/BLM18KG121TN1D/1982762</t>
-  </si>
-  <si>
-    <t>24.6944</t>
-  </si>
-  <si>
-    <t>99.2444</t>
-  </si>
-  <si>
-    <t>2.4500</t>
-  </si>
-  <si>
-    <t>0.9500</t>
+    <t>P-Channel MOSFET</t>
+  </si>
+  <si>
+    <t>FDS4435BZ</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>SO08-E3</t>
+  </si>
+  <si>
+    <t>https://www.onsemi.com/pdf/datasheet/fds4435bz_f085-d.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/onsemi/FDS4435BZ/1305763</t>
+  </si>
+  <si>
+    <t>141.8544</t>
+  </si>
+  <si>
+    <t>102.8344</t>
+  </si>
+  <si>
+    <t>4.4150</t>
+  </si>
+  <si>
+    <t>7.4000</t>
   </si>
   <si>
     <t>26</t>
   </si>
   <si>
-    <t>P-Channel MOSFET</t>
-  </si>
-  <si>
-    <t>FDS4435BZ</t>
-  </si>
-  <si>
-    <t>Q1</t>
-  </si>
-  <si>
-    <t>SO08-E3</t>
-  </si>
-  <si>
-    <t>https://www.onsemi.com/pdf/datasheet/fds4435bz_f085-d.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/onsemi/FDS4435BZ/1305763</t>
-  </si>
-  <si>
-    <t>141.8544</t>
-  </si>
-  <si>
-    <t>102.8344</t>
-  </si>
-  <si>
-    <t>4.4150</t>
-  </si>
-  <si>
-    <t>7.4000</t>
+    <t>Resistor, small symbol</t>
+  </si>
+  <si>
+    <t>R_Small</t>
+  </si>
+  <si>
+    <t>R2 R17</t>
+  </si>
+  <si>
+    <t>10R</t>
+  </si>
+  <si>
+    <t>R_0805_2012Metric</t>
+  </si>
+  <si>
+    <t>Resistor_SMD</t>
+  </si>
+  <si>
+    <t>https://www.seielect.com/catalog/sei-rncp.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RNCP0805FTD10R0/2240197</t>
+  </si>
+  <si>
+    <t>37.8944</t>
+  </si>
+  <si>
+    <t>93.4444</t>
   </si>
   <si>
     <t>27</t>
   </si>
   <si>
-    <t>Resistor, small symbol</t>
-  </si>
-  <si>
-    <t>R_Small</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>R_0805_2012Metric</t>
-  </si>
-  <si>
-    <t>Resistor_SMD</t>
-  </si>
-  <si>
-    <t>https://www.seielect.com/catalog/sei-rncp.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RNCP0805FTD10R0/2240197</t>
-  </si>
-  <si>
-    <t>37.8944</t>
-  </si>
-  <si>
-    <t>93.4444</t>
+    <t>R7 R9</t>
+  </si>
+  <si>
+    <t>27R</t>
+  </si>
+  <si>
+    <t>https://www.seielect.com/catalog/sei-rmcf_rmcp.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT27R0/1712920</t>
+  </si>
+  <si>
+    <t>80.1344</t>
+  </si>
+  <si>
+    <t>86.5344</t>
   </si>
   <si>
     <t>28</t>
   </si>
   <si>
-    <t>R7 R9</t>
-  </si>
-  <si>
-    <t>https://www.seielect.com/catalog/sei-rmcf_rmcp.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT27R0/1712920</t>
-  </si>
-  <si>
-    <t>80.1344</t>
-  </si>
-  <si>
-    <t>86.5344</t>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>33R</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT33R0/1760586</t>
+  </si>
+  <si>
+    <t>95.3819</t>
   </si>
   <si>
     <t>29</t>
   </si>
   <si>
-    <t>R1</t>
+    <t>R3 R6</t>
+  </si>
+  <si>
+    <t>220R</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT220R/1760238</t>
+  </si>
+  <si>
+    <t>22.9944</t>
+  </si>
+  <si>
+    <t>102.3944</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>R4 R5 R8 R11 R15 R16</t>
+  </si>
+  <si>
+    <t>1K</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RNCP0805FTD1K00/2240229</t>
+  </si>
+  <si>
+    <t>153.0944</t>
+  </si>
+  <si>
+    <t>100.1644</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>Resistor</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>2.2K 1%</t>
+  </si>
+  <si>
+    <t>https://fscdn.rohm.com/en/products/databook/datasheet/passive/resistor/chip_resistor/mcr-e.pdf</t>
+  </si>
+  <si>
+    <t>137.8244</t>
+  </si>
+  <si>
+    <t>87.2244</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>R19</t>
+  </si>
+  <si>
+    <t>12K 1%</t>
+  </si>
+  <si>
+    <t>135.9044</t>
+  </si>
+  <si>
+    <t>83.8644</t>
   </si>
   <si>
     <t>33</t>
   </si>
   <si>
-    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT33R0/1760586</t>
-  </si>
-  <si>
-    <t>95.3819</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>R3 R6</t>
-  </si>
-  <si>
-    <t>220</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT220R/1760238</t>
-  </si>
-  <si>
-    <t>22.9944</t>
-  </si>
-  <si>
-    <t>102.3944</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>R4 R5 R8 R11 R15 R16</t>
-  </si>
-  <si>
-    <t>1K</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RNCP0805FTD1K00/2240229</t>
-  </si>
-  <si>
-    <t>153.0944</t>
-  </si>
-  <si>
-    <t>100.1644</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>R14</t>
-  </si>
-  <si>
-    <t>1k91</t>
-  </si>
-  <si>
-    <t>https://industrial.panasonic.com/cdbs/www-data/pdf/RDA0000/AOA0000C304.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/panasonic-electronic-components/ERJ-6ENF1911V/111337</t>
-  </si>
-  <si>
-    <t>134.8944</t>
-  </si>
-  <si>
-    <t>77.4944</t>
-  </si>
-  <si>
-    <t>R13</t>
-  </si>
-  <si>
-    <t>10k</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RNCP0805FTD10K0/2240262</t>
-  </si>
-  <si>
-    <t>134.5944</t>
-  </si>
-  <si>
-    <t>72.5944</t>
+    <t>R18</t>
+  </si>
+  <si>
+    <t>20K 1%</t>
+  </si>
+  <si>
+    <t>140.6644</t>
+  </si>
+  <si>
+    <t>81.1944</t>
   </si>
   <si>
     <t>34</t>
   </si>
   <si>
-    <t>R12</t>
-  </si>
-  <si>
-    <t>12k1</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FG12K1/1712649</t>
-  </si>
-  <si>
-    <t>138.1944</t>
-  </si>
-  <si>
-    <t>73.5944</t>
+    <t>Rotary encoder, dual channel, incremental quadrate outputs, with switch</t>
+  </si>
+  <si>
+    <t>RotaryEncoder_Switch</t>
+  </si>
+  <si>
+    <t>SW1 SW2</t>
+  </si>
+  <si>
+    <t>Rotary</t>
+  </si>
+  <si>
+    <t>RotaryEncoder_Alps_EC11E-Switch_Vertical_H20mm_CircularMountingHoles</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/components/products/datasheet/482016514001.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/482016514001/10056402</t>
+  </si>
+  <si>
+    <t>42.2444</t>
+  </si>
+  <si>
+    <t>99.4944</t>
+  </si>
+  <si>
+    <t>16.5000</t>
+  </si>
+  <si>
+    <t>14.4000</t>
   </si>
   <si>
     <t>35</t>
   </si>
   <si>
-    <t>Rotary encoder, dual channel, incremental quadrate outputs, with switch</t>
-  </si>
-  <si>
-    <t>RotaryEncoder_Switch</t>
-  </si>
-  <si>
-    <t>SW1 SW2</t>
-  </si>
-  <si>
-    <t>Rotary</t>
-  </si>
-  <si>
-    <t>RotaryEncoder_Alps_EC11E-Switch_Vertical_H20mm_CircularMountingHoles</t>
-  </si>
-  <si>
-    <t>https://www.we-online.com/components/products/datasheet/482016514001.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/482016514001/10056402</t>
-  </si>
-  <si>
-    <t>42.2444</t>
-  </si>
-  <si>
-    <t>99.4944</t>
-  </si>
-  <si>
-    <t>16.5000</t>
-  </si>
-  <si>
-    <t>14.4000</t>
+    <t>Omron B3FS 6x6mm single pole normally-open tactile switch</t>
+  </si>
+  <si>
+    <t>SW_Omron_B3FS</t>
+  </si>
+  <si>
+    <t>Switch</t>
+  </si>
+  <si>
+    <t>SW3 SW4 SW5 SW6 SW7 SW8</t>
+  </si>
+  <si>
+    <t>Tactile</t>
+  </si>
+  <si>
+    <t>SW_PUSH-12mm_Wuerth</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/components/products/datasheet/430172043816.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/430162043826/9950802</t>
+  </si>
+  <si>
+    <t>11.9944</t>
+  </si>
+  <si>
+    <t>63.9944</t>
+  </si>
+  <si>
+    <t>16.0000</t>
+  </si>
+  <si>
+    <t>6.8000</t>
   </si>
   <si>
     <t>36</t>
   </si>
   <si>
-    <t>Omron B3FS 6x6mm single pole normally-open tactile switch</t>
-  </si>
-  <si>
-    <t>SW_Omron_B3FS</t>
-  </si>
-  <si>
-    <t>Switch</t>
-  </si>
-  <si>
-    <t>SW3 SW4 SW5 SW6 SW7 SW8</t>
-  </si>
-  <si>
-    <t>Tactile</t>
-  </si>
-  <si>
-    <t>SW_PUSH-12mm_Wuerth</t>
-  </si>
-  <si>
-    <t>https://www.we-online.com/components/products/datasheet/430172043816.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/430162043826/9950802</t>
-  </si>
-  <si>
-    <t>11.9944</t>
-  </si>
-  <si>
-    <t>63.9944</t>
-  </si>
-  <si>
-    <t>16.0000</t>
-  </si>
-  <si>
-    <t>6.8000</t>
+    <t>Single OR Gage</t>
+  </si>
+  <si>
+    <t>74AHCT1G32SE-7</t>
+  </si>
+  <si>
+    <t>U2 U7</t>
+  </si>
+  <si>
+    <t>SOT-353_SC-70-5</t>
+  </si>
+  <si>
+    <t>Package_TO_SOT_SMD</t>
+  </si>
+  <si>
+    <t>https://www.diodes.com/assets/Datasheets/74AHCT1G32.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/diodes-incorporated/74AHCT1G32SE-7/2711987</t>
+  </si>
+  <si>
+    <t>55.1944</t>
+  </si>
+  <si>
+    <t>84.0444</t>
   </si>
   <si>
     <t>37</t>
   </si>
   <si>
-    <t>Single OR Gage</t>
-  </si>
-  <si>
-    <t>74AHCT1G32SE-7</t>
-  </si>
-  <si>
-    <t>U2 U7</t>
-  </si>
-  <si>
-    <t>SOT-353_SC-70-5</t>
-  </si>
-  <si>
-    <t>Package_TO_SOT_SMD</t>
-  </si>
-  <si>
-    <t>https://www.diodes.com/assets/Datasheets/74AHCT1G32.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/diodes-incorporated/74AHCT1G32SE-7/2711987</t>
-  </si>
-  <si>
-    <t>55.1944</t>
-  </si>
-  <si>
-    <t>84.0444</t>
-  </si>
-  <si>
-    <t>2.5500</t>
+    <t>AP64351</t>
+  </si>
+  <si>
+    <t>CM4IO</t>
+  </si>
+  <si>
+    <t>U8</t>
+  </si>
+  <si>
+    <t>AP64501SP-13</t>
+  </si>
+  <si>
+    <t>SOIC-8-1EP_3.9x4.9mm_P1.27mm_EP2.95x4.9mm_Mask2.71x3.4mm_ThermalVias</t>
+  </si>
+  <si>
+    <t>Package_SO</t>
+  </si>
+  <si>
+    <t>https://www.diodes.com/assets/Datasheets/AP64501.pdf</t>
+  </si>
+  <si>
+    <t>141.5144</t>
+  </si>
+  <si>
+    <t>88.5944</t>
+  </si>
+  <si>
+    <t>6.9000</t>
+  </si>
+  <si>
+    <t>4.9000</t>
   </si>
   <si>
     <t>38</t>
@@ -1246,9 +1270,6 @@
     <t>74.1444</t>
   </si>
   <si>
-    <t>8.3000</t>
-  </si>
-  <si>
     <t>6.1000</t>
   </si>
   <si>
@@ -1300,9 +1321,6 @@
     <t>SO-6L_10x3.84mm_P1.27mm</t>
   </si>
   <si>
-    <t>Package_SO</t>
-  </si>
-  <si>
     <t>https://toshiba.semicon-storage.com/info/docget.jsp?did=28819&amp;prodName=TLP2761</t>
   </si>
   <si>
@@ -1321,31 +1339,34 @@
     <t>41</t>
   </si>
   <si>
-    <t xml:space="preserve"> 3.5V to 28V Input, 3A, Step-Down Converter with Eco-mode(tm)</t>
-  </si>
-  <si>
-    <t>TPS54331</t>
-  </si>
-  <si>
-    <t>U6</t>
-  </si>
-  <si>
-    <t>SOIC-8_3.9x4.9mm_P1.27mm</t>
-  </si>
-  <si>
-    <t>https://www.ti.com/lit/ds/symlink/tps54331.pdf?HQS=dis-dk-null-digikeymode-dsf-pf-null-wwe&amp;ts=1697733027064</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/texas-instruments/TPS54331DR/2047963</t>
-  </si>
-  <si>
-    <t>138.6944</t>
-  </si>
-  <si>
-    <t>81.6944</t>
-  </si>
-  <si>
-    <t>6.9000</t>
+    <t>Flash Memory</t>
+  </si>
+  <si>
+    <t>W25Q128JVS-Memory_Flash</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>W25Q128JVS</t>
+  </si>
+  <si>
+    <t>SOIC-8_5.23x5.23mm_P1.27mm</t>
+  </si>
+  <si>
+    <t>https://www.winbond.com/resource-files/w25q128jv%20revf%2003272018%20plus.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/winbond-electronics/W25Q128JVSIQ-TR/5803944</t>
+  </si>
+  <si>
+    <t>81.4944</t>
+  </si>
+  <si>
+    <t>78.5444</t>
+  </si>
+  <si>
+    <t>8.8000</t>
   </si>
   <si>
     <t>4.4100</t>
@@ -1354,39 +1375,6 @@
     <t>42</t>
   </si>
   <si>
-    <t>Flash Memory</t>
-  </si>
-  <si>
-    <t>W25Q128JVS-Memory_Flash</t>
-  </si>
-  <si>
-    <t>U3</t>
-  </si>
-  <si>
-    <t>W25Q128JVS</t>
-  </si>
-  <si>
-    <t>SOIC-8_5.23x5.23mm_P1.27mm</t>
-  </si>
-  <si>
-    <t>https://www.winbond.com/resource-files/w25q128jv%20revf%2003272018%20plus.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/winbond-electronics/W25Q128JVSIQ-TR/5803944</t>
-  </si>
-  <si>
-    <t>81.4944</t>
-  </si>
-  <si>
-    <t>78.5444</t>
-  </si>
-  <si>
-    <t>8.8000</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
     <t>Two pin crystal</t>
   </si>
   <si>
@@ -1459,13 +1447,13 @@
     <t>Component Count:</t>
   </si>
   <si>
-    <t>108 (80 SMD/ 26 THT)</t>
+    <t>115 (87 SMD/ 26 THT)</t>
   </si>
   <si>
     <t>Fitted Components:</t>
   </si>
   <si>
-    <t>100 (79 SMD/ 21 THT)</t>
+    <t>107 (86 SMD/ 21 THT)</t>
   </si>
   <si>
     <t>Number of PCBs:</t>
@@ -1681,13 +1669,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF8080"/>
+        <fgColor rgb="FFFF8A8A"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF8A8A"/>
+        <fgColor rgb="FFFF8080"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2140,7 +2128,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W51"/>
+  <dimension ref="A1:W50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -2153,7 +2141,7 @@
     <col min="2" max="2" width="60.7109375" customWidth="1"/>
     <col min="3" max="3" width="28.7109375" customWidth="1"/>
     <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="59.7109375" customWidth="1"/>
+    <col min="5" max="5" width="60.7109375" customWidth="1"/>
     <col min="6" max="6" width="28.7109375" customWidth="1"/>
     <col min="7" max="7" width="60.7109375" customWidth="1"/>
     <col min="8" max="8" width="31.7109375" customWidth="1"/>
@@ -2176,7 +2164,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -2201,55 +2189,55 @@
     </row>
     <row r="2" spans="1:23">
       <c r="C2" s="2" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="F2" s="3">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:23">
       <c r="C3" s="2" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="4" spans="1:23">
       <c r="C4" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="5" spans="1:23">
       <c r="C5" s="2" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -2257,16 +2245,16 @@
     </row>
     <row r="6" spans="1:23">
       <c r="C6" s="2" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="F6" s="3">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -2366,69 +2354,69 @@
         <v>30</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="K9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="R9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="S9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="T9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="U9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="V9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="W9" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="L9" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="N9" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="O9" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="R9" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="S9" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="T9" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="U9" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="V9" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="W9" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" ht="30" customHeight="1">
-      <c r="A10" s="8" t="s">
-        <v>44</v>
-      </c>
       <c r="B10" s="9" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G10" s="10" t="s">
         <v>29</v>
@@ -2437,69 +2425,69 @@
         <v>30</v>
       </c>
       <c r="I10" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P10" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q10" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="R10" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="S10" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="T10" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="U10" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="V10" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="W10" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="J10" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L10" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="M10" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="N10" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="O10" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="P10" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q10" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="R10" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="S10" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="T10" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="U10" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="V10" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="W10" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" ht="30" customHeight="1">
+    </row>
+    <row r="11" spans="1:23" ht="60" customHeight="1">
       <c r="A11" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>29</v>
@@ -2514,48 +2502,48 @@
         <v>23</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>49</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="R11" s="7" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="S11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T11" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U11" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="V11" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="W11" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="30" customHeight="1">
       <c r="A12" s="8" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>24</v>
@@ -2567,10 +2555,10 @@
         <v>26</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>29</v>
@@ -2579,54 +2567,54 @@
         <v>30</v>
       </c>
       <c r="I12" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="N12" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="P12" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q12" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="R12" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="S12" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="T12" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="U12" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="V12" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="W12" s="10" t="s">
         <v>44</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L12" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="M12" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="N12" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="O12" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="P12" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q12" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="R12" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="S12" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="T12" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="U12" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="V12" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="W12" s="10" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="30" customHeight="1">
       <c r="A13" s="5" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>24</v>
@@ -2638,10 +2626,10 @@
         <v>26</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>29</v>
@@ -2650,69 +2638,69 @@
         <v>30</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="R13" s="7" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="S13" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T13" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U13" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="V13" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="W13" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="30" customHeight="1">
       <c r="A14" s="8" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G14" s="10" t="s">
         <v>29</v>
@@ -2721,146 +2709,146 @@
         <v>30</v>
       </c>
       <c r="I14" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="N14" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="O14" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q14" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="R14" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="S14" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="T14" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="U14" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="V14" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="W14" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="J14" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L14" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="M14" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="N14" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="O14" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="P14" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q14" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="R14" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="S14" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="T14" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="U14" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="V14" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="W14" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" ht="30" customHeight="1">
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="5" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="L15" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M15" s="6" t="s">
-        <v>82</v>
+      <c r="L15" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="M15" s="12" t="s">
+        <v>49</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="R15" s="7" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="S15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T15" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U15" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="V15" s="7" t="s">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="W15" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" ht="30" customHeight="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="45" customHeight="1">
       <c r="A16" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>86</v>
+        <v>97</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>49</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="I16" s="8" t="s">
         <v>23</v>
@@ -2869,69 +2857,69 @@
         <v>23</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="N16" s="10" t="s">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="O16" s="8" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="P16" s="10" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="Q16" s="10" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="R16" s="10" t="s">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="S16" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T16" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U16" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="V16" s="10" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="W16" s="10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" ht="45" customHeight="1">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>99</v>
+        <v>110</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>23</v>
@@ -2940,69 +2928,69 @@
         <v>23</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="L17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L17" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="M17" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="N17" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="M17" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="N17" s="7" t="s">
-        <v>107</v>
-      </c>
       <c r="O17" s="5" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="R17" s="7" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="S17" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T17" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U17" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="V17" s="7" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="W17" s="7" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:23">
       <c r="A18" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>112</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>114</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E18" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="G18" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="H18" s="10" t="s">
         <v>116</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>118</v>
       </c>
       <c r="I18" s="8" t="s">
         <v>23</v>
@@ -3011,353 +2999,353 @@
         <v>23</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L18" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="L18" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="M18" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="N18" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="O18" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="P18" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q18" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="R18" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="S18" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="T18" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="U18" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="V18" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="M18" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="N18" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="O18" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="P18" s="10" t="s">
+      <c r="W18" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="Q18" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="R18" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="S18" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="T18" s="10" t="s">
+    </row>
+    <row r="19" spans="1:23" ht="30" customHeight="1">
+      <c r="A19" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="N19" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="R19" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="S19" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="U18" s="10" t="s">
+      <c r="T19" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="V18" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="W18" s="10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23">
-      <c r="A19" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="L19" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="M19" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="N19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="O19" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="R19" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="S19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="T19" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="U19" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="V19" s="7" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="W19" s="7" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:23" ht="30" customHeight="1">
       <c r="A20" s="8" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="I20" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L20" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="M20" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="N20" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="O20" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="J20" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K20" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L20" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="M20" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="N20" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="O20" s="8" t="s">
-        <v>136</v>
-      </c>
       <c r="P20" s="10" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="Q20" s="10" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="R20" s="10" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="S20" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T20" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U20" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="V20" s="10" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="W20" s="10" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="30" customHeight="1">
       <c r="A21" s="5" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>144</v>
+        <v>26</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H21" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="F21" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>148</v>
-      </c>
       <c r="I21" s="5" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="M21" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="O21" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="R21" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="N21" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="O21" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="R21" s="7" t="s">
-        <v>153</v>
-      </c>
       <c r="S21" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T21" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U21" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="V21" s="7" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="W21" s="7" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="30" customHeight="1">
       <c r="A22" s="8" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>148</v>
+        <v>171</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="N22" s="10" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="O22" s="8" t="s">
-        <v>164</v>
+        <v>58</v>
       </c>
       <c r="P22" s="10" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="Q22" s="10" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="R22" s="10" t="s">
-        <v>153</v>
+        <v>39</v>
       </c>
       <c r="S22" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T22" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U22" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="V22" s="10" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="W22" s="10" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="30" customHeight="1">
       <c r="A23" s="5" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>26</v>
+        <v>180</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>174</v>
+        <v>102</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>23</v>
@@ -3366,69 +3354,69 @@
         <v>23</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="N23" s="7" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="R23" s="7" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="S23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T23" s="7" t="s">
-        <v>40</v>
+        <v>188</v>
       </c>
       <c r="U23" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="V23" s="7" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="W23" s="7" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="30" customHeight="1">
       <c r="A24" s="8" t="s">
-        <v>181</v>
+        <v>65</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>104</v>
+        <v>196</v>
       </c>
       <c r="I24" s="8" t="s">
         <v>23</v>
@@ -3437,69 +3425,69 @@
         <v>23</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L24" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="L24" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="M24" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="N24" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="O24" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="P24" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q24" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="R24" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="S24" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="T24" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="M24" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="N24" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="O24" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="P24" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q24" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="R24" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="S24" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="T24" s="10" t="s">
-        <v>192</v>
-      </c>
       <c r="U24" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="V24" s="10" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="W24" s="10" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" ht="30" customHeight="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
       <c r="A25" s="5" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>198</v>
+        <v>99</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>201</v>
+        <v>102</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>23</v>
@@ -3508,69 +3496,69 @@
         <v>23</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="L25" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="M25" s="11" t="s">
-        <v>99</v>
+        <v>32</v>
+      </c>
+      <c r="L25" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="M25" s="12" t="s">
+        <v>49</v>
       </c>
       <c r="N25" s="7" t="s">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="R25" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S25" s="7" t="s">
-        <v>39</v>
+        <v>209</v>
       </c>
       <c r="T25" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="U25" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="V25" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="W25" s="7" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" ht="45" customHeight="1">
       <c r="A26" s="8" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>101</v>
+        <v>180</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>104</v>
+        <v>218</v>
       </c>
       <c r="I26" s="8" t="s">
         <v>23</v>
@@ -3579,424 +3567,424 @@
         <v>23</v>
       </c>
       <c r="K26" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L26" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="M26" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="N26" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="O26" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="P26" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q26" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="R26" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="S26" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="T26" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="U26" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="V26" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="W26" s="10" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="30" customHeight="1">
+      <c r="A27" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="I27" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L26" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="M26" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="N26" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="O26" s="8" t="s">
+      <c r="J27" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="N27" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="P26" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q26" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="R26" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="S26" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="T26" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="U26" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="V26" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="W26" s="10" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" ht="45" customHeight="1">
-      <c r="A27" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="H27" s="7" t="s">
+      <c r="O27" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="R27" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="S27" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="T27" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="U27" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="V27" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="W27" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J27" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K27" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="M27" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="N27" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="O27" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="R27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="S27" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="T27" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="U27" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="V27" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="W27" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="30" customHeight="1">
       <c r="A28" s="8" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L28" s="10" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="M28" s="9" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="N28" s="10" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="O28" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="P28" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q28" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="R28" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="S28" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="T28" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="U28" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="V28" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="W28" s="10" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" ht="45" customHeight="1">
+      <c r="A29" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L29" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="M29" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="P28" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q28" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="R28" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="S28" s="10" t="s">
+      <c r="N29" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="O29" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="R29" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="S29" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="T29" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="U29" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="V29" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="W29" s="7" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" ht="30" customHeight="1">
+      <c r="A30" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K30" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L30" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="M30" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="N30" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="O30" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="P30" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q30" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="R30" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="T28" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="U28" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="V28" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="W28" s="10" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" ht="30" customHeight="1">
-      <c r="A29" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="J29" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="K29" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="M29" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="N29" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="O29" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="R29" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="S29" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="T29" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="U29" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="V29" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="W29" s="7" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" ht="45" customHeight="1">
-      <c r="A30" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="H30" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="I30" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="J30" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="K30" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L30" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="M30" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="N30" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="O30" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="P30" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q30" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="R30" s="10" t="s">
-        <v>95</v>
-      </c>
       <c r="S30" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T30" s="10" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="U30" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="V30" s="10" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="W30" s="10" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="30" customHeight="1">
       <c r="A31" s="5" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>104</v>
+        <v>277</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="M31" s="6" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="N31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O31" s="5" t="s">
-        <v>35</v>
+        <v>133</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="R31" s="7" t="s">
-        <v>52</v>
+        <v>150</v>
       </c>
       <c r="S31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T31" s="7" t="s">
-        <v>192</v>
+        <v>41</v>
       </c>
       <c r="U31" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="V31" s="7" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="W31" s="7" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" ht="30" customHeight="1">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
       <c r="A32" s="8" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="B32" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="H32" s="10" t="s">
         <v>277</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="G32" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="H32" s="10" t="s">
-        <v>282</v>
       </c>
       <c r="I32" s="8" t="s">
         <v>23</v>
@@ -4005,566 +3993,566 @@
         <v>23</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L32" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="M32" s="9" t="s">
-        <v>284</v>
+        <v>291</v>
+      </c>
+      <c r="M32" s="11" t="s">
+        <v>49</v>
       </c>
       <c r="N32" s="10" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="O32" s="8" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="P32" s="10" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="Q32" s="10" t="s">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="R32" s="10" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="S32" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T32" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U32" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="V32" s="10" t="s">
-        <v>286</v>
+        <v>163</v>
       </c>
       <c r="W32" s="10" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
     </row>
     <row r="33" spans="1:23" ht="30" customHeight="1">
       <c r="A33" s="5" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>282</v>
+        <v>102</v>
       </c>
       <c r="I33" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="M33" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="N33" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="O33" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="J33" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K33" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="M33" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="N33" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="O33" s="5" t="s">
-        <v>136</v>
-      </c>
       <c r="P33" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="R33" s="7" t="s">
-        <v>153</v>
+        <v>53</v>
       </c>
       <c r="S33" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T33" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U33" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="V33" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="W33" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="34" spans="1:23" ht="30" customHeight="1">
       <c r="A34" s="8" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>104</v>
+        <v>312</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="J34" s="8" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="M34" s="9" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="N34" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O34" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P34" s="10" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="Q34" s="10" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="R34" s="10" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="S34" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T34" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U34" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="V34" s="10" t="s">
-        <v>309</v>
+        <v>119</v>
       </c>
       <c r="W34" s="10" t="s">
-        <v>310</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="30" customHeight="1">
       <c r="A35" s="5" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>112</v>
+        <v>319</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="K35" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="M35" s="6" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="N35" s="7" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="O35" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="R35" s="7" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="S35" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T35" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U35" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="V35" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="W35" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="30" customHeight="1">
       <c r="A36" s="8" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D36" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="F36" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="G36" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="G36" s="10" t="s">
+      <c r="H36" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K36" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L36" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="M36" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="N36" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="O36" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="P36" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="H36" s="10" t="s">
-        <v>316</v>
-      </c>
-      <c r="I36" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="J36" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="K36" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L36" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="M36" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="N36" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="O36" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="P36" s="10" t="s">
-        <v>325</v>
-      </c>
       <c r="Q36" s="10" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="R36" s="10" t="s">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="S36" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T36" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U36" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="V36" s="10" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="W36" s="10" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="1:23" ht="30" customHeight="1">
       <c r="A37" s="5" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="M37" s="6" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="N37" s="7" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="O37" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="R37" s="7" t="s">
-        <v>52</v>
+        <v>150</v>
       </c>
       <c r="S37" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T37" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U37" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="V37" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="W37" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="30" customHeight="1">
       <c r="A38" s="8" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D38" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="J38" s="8" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="K38" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="M38" s="9" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="N38" s="10" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="O38" s="8" t="s">
-        <v>49</v>
+        <v>245</v>
       </c>
       <c r="P38" s="10" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Q38" s="10" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="R38" s="10" t="s">
-        <v>153</v>
+        <v>53</v>
       </c>
       <c r="S38" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T38" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U38" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="V38" s="10" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="W38" s="10" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="1:23" ht="30" customHeight="1">
       <c r="A39" s="5" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>312</v>
+        <v>342</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>313</v>
+        <v>343</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="K39" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="M39" s="6" t="s">
-        <v>341</v>
+        <v>346</v>
+      </c>
+      <c r="M39" s="12" t="s">
+        <v>49</v>
       </c>
       <c r="N39" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="O39" s="5" t="s">
-        <v>250</v>
+        <v>58</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="R39" s="7" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="S39" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T39" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U39" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="V39" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="W39" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40" spans="1:23" ht="30" customHeight="1">
       <c r="A40" s="8" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>312</v>
+        <v>342</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>313</v>
+        <v>343</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="I40" s="8" t="s">
         <v>23</v>
@@ -4573,69 +4561,69 @@
         <v>23</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>347</v>
-      </c>
-      <c r="M40" s="9" t="s">
-        <v>348</v>
+        <v>346</v>
+      </c>
+      <c r="M40" s="11" t="s">
+        <v>49</v>
       </c>
       <c r="N40" s="10" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="O40" s="8" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="P40" s="10" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="Q40" s="10" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="R40" s="10" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="S40" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T40" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U40" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="V40" s="10" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="W40" s="10" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:23" ht="30" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>329</v>
+        <v>354</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>312</v>
+        <v>342</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>313</v>
+        <v>343</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="I41" s="5" t="s">
         <v>23</v>
@@ -4644,353 +4632,353 @@
         <v>23</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="M41" s="6" t="s">
-        <v>353</v>
+        <v>346</v>
+      </c>
+      <c r="M41" s="12" t="s">
+        <v>49</v>
       </c>
       <c r="N41" s="7" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="O41" s="5" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="R41" s="7" t="s">
-        <v>38</v>
+        <v>150</v>
       </c>
       <c r="S41" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T41" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U41" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="V41" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="W41" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:23" ht="30" customHeight="1">
       <c r="A42" s="8" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>312</v>
+        <v>360</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>313</v>
+        <v>361</v>
       </c>
       <c r="D42" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>315</v>
+        <v>364</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>316</v>
+        <v>102</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="J42" s="8" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>323</v>
+        <v>365</v>
       </c>
       <c r="M42" s="9" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="N42" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O42" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P42" s="10" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="Q42" s="10" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="R42" s="10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="S42" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T42" s="10" t="s">
-        <v>40</v>
+        <v>188</v>
       </c>
       <c r="U42" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="V42" s="10" t="s">
-        <v>122</v>
+        <v>369</v>
       </c>
       <c r="W42" s="10" t="s">
-        <v>123</v>
+        <v>370</v>
       </c>
     </row>
     <row r="43" spans="1:23" ht="30" customHeight="1">
       <c r="A43" s="5" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>26</v>
+        <v>374</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="K43" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="M43" s="6" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="N43" s="7" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="O43" s="5" t="s">
-        <v>49</v>
+        <v>245</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="R43" s="7" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="S43" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T43" s="7" t="s">
-        <v>192</v>
+        <v>41</v>
       </c>
       <c r="U43" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="V43" s="7" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="W43" s="7" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
     </row>
     <row r="44" spans="1:23" ht="30" customHeight="1">
       <c r="A44" s="8" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>377</v>
+        <v>99</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>104</v>
+        <v>389</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="J44" s="8" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="K44" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L44" s="10" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="M44" s="9" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="N44" s="10" t="s">
-        <v>48</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8" t="s">
-        <v>250</v>
+        <v>36</v>
       </c>
       <c r="P44" s="10" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="Q44" s="10" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="R44" s="10" t="s">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="S44" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T44" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="U44" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="V44" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="W44" s="10" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" ht="45" customHeight="1">
+      <c r="A45" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K45" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="M45" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="N45" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="O45" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="R45" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="S45" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="U44" s="10" t="s">
+      <c r="T45" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="V44" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="W44" s="10" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" ht="30" customHeight="1">
-      <c r="A45" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="H45" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="I45" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J45" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="K45" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="M45" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="N45" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="O45" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="R45" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="S45" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="T45" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="U45" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="V45" s="7" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="W45" s="7" t="s">
-        <v>204</v>
+        <v>405</v>
       </c>
     </row>
     <row r="46" spans="1:23" ht="30" customHeight="1">
       <c r="A46" s="8" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="I46" s="8" t="s">
         <v>23</v>
@@ -4999,69 +4987,69 @@
         <v>23</v>
       </c>
       <c r="K46" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L46" s="10" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="M46" s="9" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="N46" s="10" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="O46" s="8" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="P46" s="10" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="Q46" s="10" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="R46" s="10" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="S46" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T46" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U46" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="V46" s="10" t="s">
-        <v>408</v>
+        <v>95</v>
       </c>
       <c r="W46" s="10" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
     </row>
     <row r="47" spans="1:23" ht="30" customHeight="1">
       <c r="A47" s="5" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I47" s="5" t="s">
         <v>23</v>
@@ -5070,69 +5058,69 @@
         <v>23</v>
       </c>
       <c r="K47" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="M47" s="6" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="N47" s="7" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="O47" s="5" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="R47" s="7" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="S47" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T47" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U47" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="V47" s="7" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="W47" s="7" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
     </row>
     <row r="48" spans="1:23" ht="30" customHeight="1">
       <c r="A48" s="8" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>426</v>
+        <v>400</v>
       </c>
       <c r="I48" s="8" t="s">
         <v>23</v>
@@ -5141,69 +5129,69 @@
         <v>23</v>
       </c>
       <c r="K48" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L48" s="10" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="M48" s="9" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="N48" s="10" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="O48" s="8" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="P48" s="10" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="Q48" s="10" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="R48" s="10" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="S48" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T48" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U48" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="V48" s="10" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="W48" s="10" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
     </row>
     <row r="49" spans="1:23" ht="30" customHeight="1">
       <c r="A49" s="5" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>426</v>
+        <v>102</v>
       </c>
       <c r="I49" s="5" t="s">
         <v>23</v>
@@ -5212,69 +5200,69 @@
         <v>23</v>
       </c>
       <c r="K49" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="M49" s="6" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="N49" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O49" s="5" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="R49" s="7" t="s">
-        <v>153</v>
+        <v>61</v>
       </c>
       <c r="S49" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T49" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U49" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="V49" s="7" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="W49" s="7" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
     </row>
     <row r="50" spans="1:23" ht="30" customHeight="1">
       <c r="A50" s="8" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="H50" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I50" s="8" t="s">
         <v>23</v>
@@ -5283,114 +5271,43 @@
         <v>23</v>
       </c>
       <c r="K50" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L50" s="10" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="M50" s="9" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="N50" s="10" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="O50" s="8" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="P50" s="10" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="Q50" s="10" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="R50" s="10" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="S50" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T50" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U50" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="V50" s="10" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="W50" s="10" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="51" spans="1:23" ht="30" customHeight="1">
-      <c r="A51" s="5" t="s">
-        <v>454</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>455</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="H51" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="I51" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J51" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K51" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="L51" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="M51" s="6" t="s">
         <v>461</v>
-      </c>
-      <c r="N51" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="O51" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="P51" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="Q51" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="R51" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="S51" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="T51" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="U51" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="V51" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="W51" s="7" t="s">
-        <v>465</v>
       </c>
     </row>
   </sheetData>
@@ -5441,7 +5358,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -5466,55 +5383,55 @@
     </row>
     <row r="2" spans="1:23">
       <c r="C2" s="2" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="F2" s="3">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:23">
       <c r="C3" s="2" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="4" spans="1:23">
       <c r="C4" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="5" spans="1:23">
       <c r="C5" s="2" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -5522,16 +5439,16 @@
     </row>
     <row r="6" spans="1:23">
       <c r="C6" s="2" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="F6" s="3">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -5610,354 +5527,354 @@
         <v>23</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="H9" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="E9" s="7" t="s">
+      <c r="K9" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="M9" s="6" t="s">
         <v>488</v>
       </c>
-      <c r="H9" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J9" s="5" t="s">
+      <c r="N9" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>489</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="Q9" s="7" t="s">
         <v>490</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="R9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="S9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="T9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="U9" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="M9" s="6" t="s">
+      <c r="V9" s="7" t="s">
         <v>492</v>
       </c>
-      <c r="N9" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="O9" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="P9" s="7" t="s">
+      <c r="W9" s="7" t="s">
         <v>493</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>494</v>
-      </c>
-      <c r="R9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="S9" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="T9" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="U9" s="7" t="s">
-        <v>495</v>
-      </c>
-      <c r="V9" s="7" t="s">
-        <v>496</v>
-      </c>
-      <c r="W9" s="7" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="8" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E10" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>496</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>485</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P10" s="10" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q10" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="R10" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="S10" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="T10" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="U10" s="10" t="s">
+        <v>491</v>
+      </c>
+      <c r="V10" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="W10" s="10" t="s">
         <v>499</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>500</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>489</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>490</v>
-      </c>
-      <c r="L10" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="M10" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="N10" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="O10" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="P10" s="10" t="s">
-        <v>501</v>
-      </c>
-      <c r="Q10" s="10" t="s">
-        <v>502</v>
-      </c>
-      <c r="R10" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="S10" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="T10" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="U10" s="10" t="s">
-        <v>495</v>
-      </c>
-      <c r="V10" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="W10" s="10" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="45" customHeight="1">
       <c r="A11" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="H11" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="I11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>504</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="H11" s="7" t="s">
+      <c r="M11" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="R11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="S11" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="T11" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="U11" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="V11" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="I11" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>489</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>490</v>
-      </c>
-      <c r="L11" s="7" t="s">
+      <c r="W11" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="N11" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="O11" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>506</v>
-      </c>
-      <c r="R11" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="S11" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="T11" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="U11" s="7" t="s">
-        <v>495</v>
-      </c>
-      <c r="V11" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="W11" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="30" customHeight="1">
       <c r="A12" s="8" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B12" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="H12" s="10" t="s">
         <v>507</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>508</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>509</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>508</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>510</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>511</v>
       </c>
       <c r="I12" s="8" t="s">
         <v>23</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>490</v>
-      </c>
-      <c r="L12" s="12" t="s">
-        <v>119</v>
+        <v>486</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>92</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="N12" s="10" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="O12" s="8" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="P12" s="10" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="Q12" s="10" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="R12" s="10" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="S12" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T12" s="10" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="U12" s="10" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="V12" s="10" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="W12" s="10" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="13" spans="1:23">
       <c r="A13" s="5" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>23</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>490</v>
-      </c>
-      <c r="L13" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="R13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="S13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="T13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="U13" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="V13" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="M13" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="N13" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="O13" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>518</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>519</v>
-      </c>
-      <c r="R13" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="S13" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="T13" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="U13" s="7" t="s">
-        <v>495</v>
-      </c>
-      <c r="V13" s="7" t="s">
-        <v>122</v>
-      </c>
       <c r="W13" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -5983,22 +5900,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="11" t="s">
-        <v>523</v>
+      <c r="A4" s="12" t="s">
+        <v>519</v>
       </c>
     </row>
   </sheetData>

--- a/latest/BoM/Positional/pedalboard-hw-bom.xlsx
+++ b/latest/BoM/Positional/pedalboard-hw-bom.xlsx
@@ -103,7 +103,7 @@
     <t>Device</t>
   </si>
   <si>
-    <t>C7 C18</t>
+    <t>C23 C26</t>
   </si>
   <si>
     <t>27p</t>
@@ -163,7 +163,7 @@
     <t>C</t>
   </si>
   <si>
-    <t>C41 C43</t>
+    <t>C32 C34</t>
   </si>
   <si>
     <t>1n</t>
@@ -187,7 +187,7 @@
     <t>3</t>
   </si>
   <si>
-    <t>C42</t>
+    <t>C31</t>
   </si>
   <si>
     <t>1.2n</t>
@@ -211,7 +211,7 @@
     <t>4</t>
   </si>
   <si>
-    <t>C1 C5 C6 C8 C9 C10 C11 C14 C15 C16 C17 C20 C21 C22 C39 C40</t>
+    <t>C1 C11 C12 C13 C14 C16 C18 C19 C20 C21 C22 C25 C27 C28 C36 C39</t>
   </si>
   <si>
     <t>100n</t>
@@ -235,7 +235,7 @@
     <t>5</t>
   </si>
   <si>
-    <t>C12 C13</t>
+    <t>C15 C17</t>
   </si>
   <si>
     <t>1u</t>
@@ -253,7 +253,7 @@
     <t>6</t>
   </si>
   <si>
-    <t>C2 C3 C19 C23 C28 C33 C34 C35 C36 C37 C38 C44 C45 C46 C47</t>
+    <t>C2 C3 C4 C5 C6 C7 C8 C9 C10 C24 C29 C30 C33 C35 C38</t>
   </si>
   <si>
     <t>10u 35v</t>
@@ -271,10 +271,10 @@
     <t>pedalboard-hw(15)</t>
   </si>
   <si>
-    <t>146.8244</t>
-  </si>
-  <si>
-    <t>100.2644</t>
+    <t>143.2044</t>
+  </si>
+  <si>
+    <t>95.2844</t>
   </si>
   <si>
     <t>7</t>
@@ -286,7 +286,7 @@
     <t>CP</t>
   </si>
   <si>
-    <t>C48</t>
+    <t>C37</t>
   </si>
   <si>
     <t>100u</t>
@@ -361,7 +361,7 @@
     <t>LED</t>
   </si>
   <si>
-    <t>D10</t>
+    <t>D9</t>
   </si>
   <si>
     <t>LED R</t>
@@ -388,7 +388,7 @@
     <t>10</t>
   </si>
   <si>
-    <t>D9</t>
+    <t>D8</t>
   </si>
   <si>
     <t>LED Y</t>
@@ -406,7 +406,7 @@
     <t>SK6812</t>
   </si>
   <si>
-    <t>D2 D3 D4 D7</t>
+    <t>D2 D3 D4 D6</t>
   </si>
   <si>
     <t>LED_SK6812_PLCC4_5.0x5.0mm_P3.2mm</t>
@@ -490,7 +490,7 @@
     <t>D_Schottky_Small</t>
   </si>
   <si>
-    <t>D5 D8</t>
+    <t>D5 D7</t>
   </si>
   <si>
     <t>SS34HF</t>
@@ -565,981 +565,981 @@
     <t>Connector</t>
   </si>
   <si>
+    <t>J7</t>
+  </si>
+  <si>
+    <t>Barrel_Jack_MountingPin</t>
+  </si>
+  <si>
+    <t>BarrelJack_Wuerth_6941xx301002</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/components/products/datasheet/6941xx301002.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/694106301002/5047522</t>
+  </si>
+  <si>
+    <t>161.3944</t>
+  </si>
+  <si>
+    <t>100.5944</t>
+  </si>
+  <si>
+    <t>THT</t>
+  </si>
+  <si>
+    <t>7.9000</t>
+  </si>
+  <si>
+    <t>7.6000</t>
+  </si>
+  <si>
+    <t>Generic connector, single row, 01x02, script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+  </si>
+  <si>
+    <t>Conn_01x02</t>
+  </si>
+  <si>
+    <t>Connector_Generic</t>
+  </si>
+  <si>
+    <t>J11</t>
+  </si>
+  <si>
+    <t>PinHeader_1x02_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>Connector_PinHeader_2.54mm</t>
+  </si>
+  <si>
+    <t>70.5944</t>
+ 